--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54752</v>
+        <v>54617</v>
       </c>
       <c r="F2" t="n">
-        <v>18.39673748480681</v>
+        <v>18.39521758411646</v>
       </c>
       <c r="G2" t="n">
-        <v>18.87659993301457</v>
+        <v>18.87504038707369</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>468.42</v>
+        <v>404.19</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95042</v>
+        <v>99435</v>
       </c>
       <c r="F3" t="n">
-        <v>12.4971268791131</v>
+        <v>9.540557297640833</v>
       </c>
       <c r="G3" t="n">
-        <v>374.4294560476189</v>
+        <v>389.3283427777345</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>273.27</v>
+        <v>389.7</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>650703328</v>
+        <v>640704918</v>
       </c>
       <c r="E4" t="n">
-        <v>1262699731</v>
+        <v>1243306620</v>
       </c>
       <c r="F4" t="n">
-        <v>51130.99009756179</v>
+        <v>26608.81597156729</v>
       </c>
       <c r="G4" t="n">
-        <v>42885.64658239507</v>
+        <v>34248.43211887623</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>32025268</v>
+        <v>37058078</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1475378</v>
+        <v>1495036</v>
       </c>
       <c r="E5" t="n">
-        <v>4769028</v>
+        <v>4832571</v>
       </c>
       <c r="F5" t="n">
-        <v>712.4569893410152</v>
+        <v>634.8433813975015</v>
       </c>
       <c r="G5" t="n">
-        <v>2135.699730604582</v>
+        <v>1144.488126923841</v>
       </c>
       <c r="H5" t="n">
-        <v>0.62</v>
+        <v>0.82</v>
       </c>
       <c r="I5" t="n">
-        <v>224191</v>
+        <v>223551</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>149913192</v>
+        <v>148253321</v>
       </c>
       <c r="E6" t="n">
-        <v>166127245</v>
+        <v>164287848</v>
       </c>
       <c r="F6" t="n">
-        <v>268393.2915653193</v>
+        <v>183135.1991997756</v>
       </c>
       <c r="G6" t="n">
-        <v>271443.0764537872</v>
+        <v>341571.5942394291</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>45676124</v>
+        <v>49218647</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4215.24</v>
+        <v>3822.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>150.88</v>
+        <v>154.02</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8745174</v>
+        <v>8667227</v>
       </c>
       <c r="E8" t="n">
-        <v>8965695</v>
+        <v>8885783</v>
       </c>
       <c r="F8" t="n">
-        <v>585.2369066086873</v>
+        <v>80.2773654405576</v>
       </c>
       <c r="G8" t="n">
-        <v>98.83191571822186</v>
+        <v>364.5921699459131</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="I8" t="n">
-        <v>98774</v>
+        <v>100007</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>295457</v>
+        <v>295628</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.09</v>
+        <v>4.85</v>
       </c>
       <c r="I9" t="n">
-        <v>1077.55</v>
+        <v>1004.08</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5011546</v>
+        <v>5032013</v>
       </c>
       <c r="E10" t="n">
-        <v>8006945</v>
+        <v>8039644</v>
       </c>
       <c r="F10" t="n">
-        <v>184.033566041418</v>
+        <v>211.1384752296377</v>
       </c>
       <c r="G10" t="n">
-        <v>206.3096729218986</v>
+        <v>224.5923054935981</v>
       </c>
       <c r="H10" t="n">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>97353</v>
+        <v>97334</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1004589</v>
+        <v>1006524</v>
       </c>
       <c r="E11" t="n">
-        <v>12293456</v>
+        <v>12317144</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.155949234509</v>
+        <v>1569.890153819314</v>
       </c>
       <c r="G11" t="n">
-        <v>1351.11438593497</v>
+        <v>1359.731543782305</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>475.68</v>
+        <v>476.14</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>583160</v>
+        <v>576275</v>
       </c>
       <c r="E12" t="n">
-        <v>583160</v>
+        <v>576275</v>
       </c>
       <c r="F12" t="n">
-        <v>258.2658734576859</v>
+        <v>155.8500599475487</v>
       </c>
       <c r="G12" t="n">
-        <v>215.8679917042541</v>
+        <v>249.0984306874046</v>
       </c>
       <c r="H12" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="I12" t="n">
-        <v>27778</v>
+        <v>27886</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4584972</v>
+        <v>4324945</v>
       </c>
       <c r="E13" t="n">
-        <v>28154070</v>
+        <v>26557356</v>
       </c>
       <c r="F13" t="n">
-        <v>1287.854535922076</v>
+        <v>1370.080260769566</v>
       </c>
       <c r="G13" t="n">
-        <v>1308.42963171183</v>
+        <v>477.59923534363</v>
       </c>
       <c r="H13" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>693282</v>
+        <v>712028</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>200664</v>
+        <v>198036</v>
       </c>
       <c r="E14" t="n">
-        <v>2207528</v>
+        <v>2178619</v>
       </c>
       <c r="F14" t="n">
-        <v>248.032887131371</v>
+        <v>283.7190060737555</v>
       </c>
       <c r="G14" t="n">
-        <v>540.8612545781023</v>
+        <v>769.8278355735077</v>
       </c>
       <c r="H14" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>33844</v>
+        <v>34311</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3425921</v>
+        <v>3370696</v>
       </c>
       <c r="E15" t="n">
-        <v>9746441</v>
+        <v>9589332</v>
       </c>
       <c r="F15" t="n">
-        <v>215.8547576941458</v>
+        <v>480.3609284460383</v>
       </c>
       <c r="G15" t="n">
-        <v>473.6411321486071</v>
+        <v>94.07389743676721</v>
       </c>
       <c r="H15" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="I15" t="n">
-        <v>111263</v>
+        <v>113378</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>321719</v>
+        <v>316875</v>
       </c>
       <c r="E16" t="n">
-        <v>3713017</v>
+        <v>3657118</v>
       </c>
       <c r="F16" t="n">
-        <v>132.3188058314912</v>
+        <v>132.5553961141034</v>
       </c>
       <c r="G16" t="n">
-        <v>130.5075623538558</v>
+        <v>130.9330562032705</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>2602.53</v>
+        <v>2645.23</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>949653</v>
+        <v>949405</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="I17" t="n">
-        <v>10766.05</v>
+        <v>10634.46</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23646130</v>
+        <v>24456296</v>
       </c>
       <c r="E18" t="n">
-        <v>23689985</v>
+        <v>24501405</v>
       </c>
       <c r="F18" t="n">
-        <v>2020.682275273962</v>
+        <v>1442.616245922736</v>
       </c>
       <c r="G18" t="n">
-        <v>1667.823411759739</v>
+        <v>2679.541744872723</v>
       </c>
       <c r="H18" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="I18" t="n">
-        <v>833674</v>
+        <v>842933</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6736386</v>
+        <v>6940540</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>260.1460961010876</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>13.70236007717164</v>
       </c>
       <c r="H19" t="n">
-        <v>4.29</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>19521.68</v>
+        <v>19242.65</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2452273</v>
+        <v>2461715</v>
       </c>
       <c r="E20" t="n">
-        <v>2452273</v>
+        <v>2461715</v>
       </c>
       <c r="F20" t="n">
-        <v>257.8355031114638</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>170.3263860674753</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.87</v>
+        <v>5.56</v>
       </c>
       <c r="I20" t="n">
-        <v>313468</v>
+        <v>319003</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>401328</v>
+        <v>321099</v>
       </c>
       <c r="F21" t="n">
-        <v>1157.762685924719</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.000124664236285</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>5.31</v>
       </c>
       <c r="I21" t="n">
-        <v>3546.29</v>
+        <v>8842.76</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18707374</v>
+        <v>18052061</v>
       </c>
       <c r="E22" t="n">
-        <v>24077925</v>
+        <v>23234484</v>
       </c>
       <c r="F22" t="n">
-        <v>5194.926761395397</v>
+        <v>5371.943496572173</v>
       </c>
       <c r="G22" t="n">
-        <v>3851.589125614534</v>
+        <v>4739.249276134644</v>
       </c>
       <c r="H22" t="n">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
       <c r="I22" t="n">
-        <v>1854768</v>
+        <v>2008692</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>520376197</v>
+        <v>518788427</v>
       </c>
       <c r="E23" t="n">
-        <v>520376199</v>
+        <v>518788428</v>
       </c>
       <c r="F23" t="n">
-        <v>76333.29618883033</v>
+        <v>65254.30236466355</v>
       </c>
       <c r="G23" t="n">
-        <v>69251.51781295642</v>
+        <v>78670.47528492246</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>81087643</v>
+        <v>72788424</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>15765.02</v>
+        <v>17088.3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.34</v>
+        <v>4.05</v>
       </c>
       <c r="I24" t="n">
-        <v>3904.54</v>
+        <v>3691.53</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4720175</v>
+        <v>4702811</v>
       </c>
       <c r="E25" t="n">
-        <v>4720175</v>
+        <v>4702811</v>
       </c>
       <c r="F25" t="n">
-        <v>1147.608288627643</v>
+        <v>370.0551778889859</v>
       </c>
       <c r="G25" t="n">
-        <v>611.3349075524408</v>
+        <v>1332.744247013999</v>
       </c>
       <c r="H25" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="I25" t="n">
-        <v>2121313</v>
+        <v>2240551</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3417865</v>
+        <v>3372453</v>
       </c>
       <c r="E26" t="n">
-        <v>3417865</v>
+        <v>3372453</v>
       </c>
       <c r="F26" t="n">
-        <v>1587.484817844665</v>
+        <v>1224.791696322928</v>
       </c>
       <c r="G26" t="n">
-        <v>293.1668237566587</v>
+        <v>448.2666235385286</v>
       </c>
       <c r="H26" t="n">
-        <v>0.91</v>
+        <v>1.86</v>
       </c>
       <c r="I26" t="n">
-        <v>519291</v>
+        <v>581764</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>322342</v>
+        <v>315309</v>
       </c>
       <c r="E27" t="n">
-        <v>1504724</v>
+        <v>1471896</v>
       </c>
       <c r="F27" t="n">
-        <v>527.6119051089902</v>
+        <v>140.1226405574933</v>
       </c>
       <c r="G27" t="n">
-        <v>197.4544146913016</v>
+        <v>981.6450453865523</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4</v>
+        <v>1.34</v>
       </c>
       <c r="I27" t="n">
-        <v>705288</v>
+        <v>685916</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2931510</v>
+        <v>2155190</v>
       </c>
       <c r="F28" t="n">
-        <v>243.527336180614</v>
+        <v>252.68893605441</v>
       </c>
       <c r="G28" t="n">
-        <v>0.941572526533112</v>
+        <v>140.6957349701132</v>
       </c>
       <c r="H28" t="n">
-        <v>0.27</v>
+        <v>0.92</v>
       </c>
       <c r="I28" t="n">
-        <v>1123698</v>
+        <v>633380</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12390884</v>
+        <v>12074068</v>
       </c>
       <c r="E29" t="n">
-        <v>30838670</v>
+        <v>30050171</v>
       </c>
       <c r="F29" t="n">
-        <v>1091.095013985826</v>
+        <v>921.7659111562226</v>
       </c>
       <c r="G29" t="n">
-        <v>963.7378093731883</v>
+        <v>956.0554118671795</v>
       </c>
       <c r="H29" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="I29" t="n">
-        <v>1430205</v>
+        <v>1410908</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>907098</v>
+        <v>911050</v>
       </c>
       <c r="E30" t="n">
-        <v>6349689</v>
+        <v>6377348</v>
       </c>
       <c r="F30" t="n">
-        <v>32.57242802501469</v>
+        <v>45.38186800871997</v>
       </c>
       <c r="G30" t="n">
-        <v>1028.382205914581</v>
+        <v>129.15382197014</v>
       </c>
       <c r="H30" t="n">
-        <v>2.35</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>234727</v>
+        <v>140818</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176645</v>
+        <v>176064</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>682.4400000000001</v>
+        <v>679.84</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5772811</v>
+        <v>5699832</v>
       </c>
       <c r="E32" t="n">
-        <v>6048983</v>
+        <v>5972512</v>
       </c>
       <c r="F32" t="n">
-        <v>246.21641875618</v>
+        <v>30.62547878766572</v>
       </c>
       <c r="G32" t="n">
-        <v>155.7306315344692</v>
+        <v>117.1879894124216</v>
       </c>
       <c r="H32" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="I32" t="n">
-        <v>156784</v>
+        <v>194792</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4960939</v>
+        <v>4892514</v>
       </c>
       <c r="E33" t="n">
-        <v>7302771</v>
+        <v>7202045</v>
       </c>
       <c r="F33" t="n">
-        <v>256.9785097224465</v>
+        <v>287.6210579970576</v>
       </c>
       <c r="G33" t="n">
-        <v>203.7573527501767</v>
+        <v>226.5765704832672</v>
       </c>
       <c r="H33" t="n">
-        <v>2.21</v>
+        <v>0.32</v>
       </c>
       <c r="I33" t="n">
-        <v>570465</v>
+        <v>560176</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7539463</v>
+        <v>7501069</v>
       </c>
       <c r="E34" t="n">
-        <v>7539463</v>
+        <v>7501069</v>
       </c>
       <c r="F34" t="n">
-        <v>3261.65850051677</v>
+        <v>2811.060004072775</v>
       </c>
       <c r="G34" t="n">
-        <v>4823.701352108906</v>
+        <v>4162.04523954863</v>
       </c>
       <c r="H34" t="n">
-        <v>1.14</v>
+        <v>0.99</v>
       </c>
       <c r="I34" t="n">
-        <v>410806</v>
+        <v>430288</v>
       </c>
     </row>
     <row r="35">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1642188</v>
+        <v>1597178</v>
       </c>
       <c r="E35" t="n">
-        <v>1642188</v>
+        <v>1597200</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4.93</v>
+        <v>4.14</v>
       </c>
       <c r="I35" t="n">
-        <v>278811</v>
+        <v>278865</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15662214</v>
+        <v>15803672</v>
       </c>
       <c r="F36" t="n">
-        <v>249.9788512847971</v>
+        <v>249.8257756586742</v>
       </c>
       <c r="G36" t="n">
-        <v>195.6423333686434</v>
+        <v>186.4980683314381</v>
       </c>
       <c r="H36" t="n">
-        <v>0.41</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>9289.99</v>
+        <v>9473.209999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55504</v>
+        <v>55476</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.98</v>
       </c>
       <c r="I37" t="n">
-        <v>782.36</v>
+        <v>1098.25</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>146079539</v>
+        <v>145697335</v>
       </c>
       <c r="E38" t="n">
-        <v>146079539</v>
+        <v>145697335</v>
       </c>
       <c r="F38" t="n">
-        <v>387003.1934047544</v>
+        <v>349155.098375537</v>
       </c>
       <c r="G38" t="n">
-        <v>297083.4224611031</v>
+        <v>276508.8767635604</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>78308693</v>
+        <v>86246222</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>68097228</v>
+        <v>67519461</v>
       </c>
       <c r="E39" t="n">
-        <v>349216553</v>
+        <v>346253646</v>
       </c>
       <c r="F39" t="n">
-        <v>88212.33262776394</v>
+        <v>75888.83189364542</v>
       </c>
       <c r="G39" t="n">
-        <v>81632.23997916029</v>
+        <v>89275.39287951235</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I39" t="n">
-        <v>25039290</v>
+        <v>26221257</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46203</v>
+        <v>46398</v>
       </c>
       <c r="E40" t="n">
-        <v>136538</v>
+        <v>137115</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>12.63</v>
+        <v>12.34</v>
       </c>
       <c r="I40" t="n">
-        <v>74.63</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54540</v>
+        <v>54938</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.06</v>
       </c>
       <c r="I41" t="n">
-        <v>25323</v>
+        <v>24905</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>595076</v>
+        <v>601663</v>
       </c>
       <c r="F42" t="n">
-        <v>530.4601042916465</v>
+        <v>589.5154164573066</v>
       </c>
       <c r="G42" t="n">
-        <v>409.8194533243374</v>
+        <v>425.9940029602841</v>
       </c>
       <c r="H42" t="n">
-        <v>1.05</v>
+        <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>1573.49</v>
+        <v>1638.48</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2666725</v>
+        <v>2638757</v>
       </c>
       <c r="E44" t="n">
-        <v>10716962</v>
+        <v>10604565</v>
       </c>
       <c r="F44" t="n">
-        <v>210.397825238998</v>
+        <v>363.0094713742681</v>
       </c>
       <c r="G44" t="n">
-        <v>117.6655447946122</v>
+        <v>59.81775201181899</v>
       </c>
       <c r="H44" t="n">
-        <v>0.93</v>
+        <v>1.85</v>
       </c>
       <c r="I44" t="n">
-        <v>50262</v>
+        <v>50924</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18387465</v>
+        <v>18000201</v>
       </c>
       <c r="E45" t="n">
-        <v>128622377</v>
+        <v>125906628</v>
       </c>
       <c r="F45" t="n">
-        <v>1055.575123513114</v>
+        <v>352.5872944187978</v>
       </c>
       <c r="G45" t="n">
-        <v>256.1275064562125</v>
+        <v>222.4503618247439</v>
       </c>
       <c r="H45" t="n">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="I45" t="n">
-        <v>1015504</v>
+        <v>977040</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>150160</v>
+        <v>173249</v>
       </c>
       <c r="E46" t="n">
-        <v>2009220</v>
+        <v>2318168</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>44670</v>
+        <v>52031</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>270451176</v>
+        <v>267266041</v>
       </c>
       <c r="E47" t="n">
-        <v>270451176</v>
+        <v>267266041</v>
       </c>
       <c r="F47" t="n">
-        <v>132311.9904361538</v>
+        <v>127782.1284469757</v>
       </c>
       <c r="G47" t="n">
-        <v>157639.7860259516</v>
+        <v>141543.0106497486</v>
       </c>
       <c r="H47" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>21244077</v>
+        <v>20175359</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>644303</v>
+        <v>643071</v>
       </c>
       <c r="E48" t="n">
-        <v>644303</v>
+        <v>643071</v>
       </c>
       <c r="F48" t="n">
-        <v>159.501094587582</v>
+        <v>188.6459964787149</v>
       </c>
       <c r="G48" t="n">
-        <v>35.92262359631079</v>
+        <v>120.4609659158296</v>
       </c>
       <c r="H48" t="n">
-        <v>3.83</v>
+        <v>2.26</v>
       </c>
       <c r="I48" t="n">
-        <v>2787</v>
+        <v>2785.85</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>462998329</v>
+        <v>454411355</v>
       </c>
       <c r="E50" t="n">
-        <v>462998329</v>
+        <v>454411355</v>
       </c>
       <c r="F50" t="n">
-        <v>3551.997649416057</v>
+        <v>4716.634905483143</v>
       </c>
       <c r="G50" t="n">
-        <v>3288.786918559591</v>
+        <v>2794.608584164821</v>
       </c>
       <c r="H50" t="n">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
       <c r="I50" t="n">
-        <v>3574856</v>
+        <v>4026810</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2562372</v>
+        <v>2452480</v>
       </c>
       <c r="E51" t="n">
-        <v>2562372</v>
+        <v>2452480</v>
       </c>
       <c r="F51" t="n">
-        <v>190.4023626823434</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>513.5623346544328</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>2.31</v>
+        <v>4.72</v>
       </c>
       <c r="I51" t="n">
-        <v>58862</v>
+        <v>58514</v>
       </c>
     </row>
     <row r="52">
@@ -2237,22 +2237,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22524</v>
+        <v>23895</v>
       </c>
       <c r="E52" t="n">
-        <v>45047</v>
+        <v>47791</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>752.7157548195777</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>103.2018671082363</v>
       </c>
       <c r="H52" t="n">
-        <v>5.02</v>
+        <v>2.94</v>
       </c>
       <c r="I52" t="n">
-        <v>2611.01</v>
+        <v>2594.47</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>165235</v>
+        <v>158660</v>
       </c>
       <c r="F53" t="n">
-        <v>22.6720979870878</v>
+        <v>12.94742857852768</v>
       </c>
       <c r="G53" t="n">
-        <v>10.65399258090169</v>
+        <v>75.65179759285898</v>
       </c>
       <c r="H53" t="n">
-        <v>3.79</v>
+        <v>1.56</v>
       </c>
       <c r="I53" t="n">
-        <v>20830</v>
+        <v>21439</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2571580</v>
+        <v>2573058</v>
       </c>
       <c r="E54" t="n">
-        <v>6574467</v>
+        <v>6578246</v>
       </c>
       <c r="F54" t="n">
-        <v>97.96486746746224</v>
+        <v>72.88796264856768</v>
       </c>
       <c r="G54" t="n">
-        <v>310.126134467957</v>
+        <v>258.7485071514413</v>
       </c>
       <c r="H54" t="n">
-        <v>2.08</v>
+        <v>2.37</v>
       </c>
       <c r="I54" t="n">
-        <v>79612</v>
+        <v>77768</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3065.39</v>
+        <v>3314.72</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3.94</v>
+        <v>6.06</v>
       </c>
       <c r="I55" t="n">
-        <v>1585.77</v>
+        <v>1593.02</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>75904424</v>
+        <v>73107075</v>
       </c>
       <c r="E56" t="n">
-        <v>75904424</v>
+        <v>73107075</v>
       </c>
       <c r="F56" t="n">
-        <v>9070.046687368918</v>
+        <v>14929.33832466231</v>
       </c>
       <c r="G56" t="n">
-        <v>14293.87316787067</v>
+        <v>11418.63757375508</v>
       </c>
       <c r="H56" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="I56" t="n">
-        <v>3436164</v>
+        <v>3605361</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3794560</v>
+        <v>3459701</v>
       </c>
       <c r="E57" t="n">
-        <v>4808371</v>
+        <v>4384045</v>
       </c>
       <c r="F57" t="n">
-        <v>921.864424685828</v>
+        <v>147.3271179924608</v>
       </c>
       <c r="G57" t="n">
-        <v>1251.142555814278</v>
+        <v>279.7849454782664</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="I57" t="n">
-        <v>164535</v>
+        <v>170923</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4159279</v>
+        <v>4086260</v>
       </c>
       <c r="E58" t="n">
-        <v>8202448</v>
+        <v>8058450</v>
       </c>
       <c r="F58" t="n">
-        <v>3462.472037748419</v>
+        <v>3272.146253189817</v>
       </c>
       <c r="G58" t="n">
-        <v>1895.792217980595</v>
+        <v>17209.04197544271</v>
       </c>
       <c r="H58" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I58" t="n">
-        <v>1625512</v>
+        <v>1639639</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1629721</v>
+        <v>1598147</v>
       </c>
       <c r="E59" t="n">
-        <v>9357251</v>
+        <v>9175964</v>
       </c>
       <c r="F59" t="n">
-        <v>223.306245228002</v>
+        <v>241.6484695897253</v>
       </c>
       <c r="G59" t="n">
-        <v>705.8960747523712</v>
+        <v>860.0915870607931</v>
       </c>
       <c r="H59" t="n">
-        <v>1.22</v>
+        <v>0.65</v>
       </c>
       <c r="I59" t="n">
-        <v>239296</v>
+        <v>236636</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>530294</v>
+        <v>534316</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>7.14</v>
       </c>
       <c r="I60" t="n">
-        <v>1469.92</v>
+        <v>1458.78</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31298203</v>
+        <v>31213530</v>
       </c>
       <c r="F61" t="n">
-        <v>682.2691956225185</v>
+        <v>684.1957393910549</v>
       </c>
       <c r="G61" t="n">
-        <v>1692.854306095784</v>
+        <v>1836.912946441505</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="I61" t="n">
-        <v>238431</v>
+        <v>237814</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1431271</v>
+        <v>1436740</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.01</v>
+        <v>5.82</v>
       </c>
       <c r="I62" t="n">
-        <v>27631</v>
+        <v>27313</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17314089</v>
+        <v>17380258</v>
       </c>
       <c r="E63" t="n">
-        <v>18248644</v>
+        <v>18318385</v>
       </c>
       <c r="F63" t="n">
-        <v>1112.898516763942</v>
+        <v>1109.720379310091</v>
       </c>
       <c r="G63" t="n">
-        <v>1893.135175058143</v>
+        <v>1869.123407354665</v>
       </c>
       <c r="H63" t="n">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="I63" t="n">
-        <v>36045</v>
+        <v>38010</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3017341</v>
+        <v>3001671</v>
       </c>
       <c r="E64" t="n">
-        <v>3017341</v>
+        <v>3001671</v>
       </c>
       <c r="F64" t="n">
-        <v>43.12795781604345</v>
+        <v>149.0283879440906</v>
       </c>
       <c r="G64" t="n">
-        <v>277.9990588638547</v>
+        <v>45.69520049840152</v>
       </c>
       <c r="H64" t="n">
-        <v>2.82</v>
+        <v>1.43</v>
       </c>
       <c r="I64" t="n">
-        <v>18696.53</v>
+        <v>18343.28</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3429928</v>
+        <v>3415778</v>
       </c>
       <c r="E65" t="n">
-        <v>8463171</v>
+        <v>8428258</v>
       </c>
       <c r="F65" t="n">
-        <v>820.5221360712162</v>
+        <v>804.2830378699838</v>
       </c>
       <c r="G65" t="n">
-        <v>1254.64403609846</v>
+        <v>1214.40574121321</v>
       </c>
       <c r="H65" t="n">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="I65" t="n">
-        <v>47442</v>
+        <v>47051</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>255890</v>
+        <v>251877</v>
       </c>
       <c r="F66" t="n">
-        <v>29.28447093412432</v>
+        <v>22.84155750784939</v>
       </c>
       <c r="G66" t="n">
-        <v>28.92577218047886</v>
+        <v>99.58474109532024</v>
       </c>
       <c r="H66" t="n">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
       <c r="I66" t="n">
-        <v>3677.18</v>
+        <v>3887.91</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>89367460</v>
+        <v>90400736</v>
       </c>
       <c r="E67" t="n">
-        <v>186323976</v>
+        <v>188478273</v>
       </c>
       <c r="F67" t="n">
-        <v>55144.0312568798</v>
+        <v>64216.04649593247</v>
       </c>
       <c r="G67" t="n">
-        <v>115263.9337165187</v>
+        <v>90688.80404903847</v>
       </c>
       <c r="H67" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>56285370</v>
+        <v>65470971</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1784941</v>
+        <v>1780548</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.81</v>
       </c>
       <c r="I68" t="n">
-        <v>3985.01</v>
+        <v>3985.1</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>204064340</v>
+        <v>199869966</v>
       </c>
       <c r="F69" t="n">
-        <v>1620.330285351634</v>
+        <v>14099.45848509109</v>
       </c>
       <c r="G69" t="n">
-        <v>4603.172407804527</v>
+        <v>3324.40846146831</v>
       </c>
       <c r="H69" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I69" t="n">
-        <v>3560275</v>
+        <v>2397917</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>189599</v>
+        <v>187673</v>
       </c>
       <c r="E70" t="n">
-        <v>197996</v>
+        <v>195984</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>211.9</v>
+        <v>206.54</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>146385679</v>
+        <v>144142273</v>
       </c>
       <c r="E71" t="n">
-        <v>146442449</v>
+        <v>144198805</v>
       </c>
       <c r="F71" t="n">
-        <v>42052.51053218915</v>
+        <v>28413.1156700663</v>
       </c>
       <c r="G71" t="n">
-        <v>37028.69818601649</v>
+        <v>40327.3512489908</v>
       </c>
       <c r="H71" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I71" t="n">
-        <v>2751527</v>
+        <v>3048042</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26235508</v>
+        <v>26049740</v>
       </c>
       <c r="E72" t="n">
-        <v>86099921</v>
+        <v>85490268</v>
       </c>
       <c r="F72" t="n">
-        <v>23691.9122085656</v>
+        <v>22585.50294228435</v>
       </c>
       <c r="G72" t="n">
-        <v>23399.3771024838</v>
+        <v>34536.16223010311</v>
       </c>
       <c r="H72" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>84460</v>
+        <v>103222</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113518</v>
+        <v>113495</v>
       </c>
       <c r="E73" t="n">
-        <v>113518</v>
+        <v>113495</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6.32</v>
+        <v>5.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1404.22</v>
+        <v>1404.71</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>207597231</v>
+        <v>207776642</v>
       </c>
       <c r="E74" t="n">
-        <v>721211542</v>
+        <v>721834832</v>
       </c>
       <c r="F74" t="n">
-        <v>145615.9836649527</v>
+        <v>125215.4817820074</v>
       </c>
       <c r="G74" t="n">
-        <v>172903.4654602567</v>
+        <v>145336.3353556501</v>
       </c>
       <c r="H74" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>38653170</v>
+        <v>36764118</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3719344</v>
+        <v>3571487</v>
       </c>
       <c r="E75" t="n">
-        <v>3719344</v>
+        <v>3571487</v>
       </c>
       <c r="F75" t="n">
-        <v>438.0384979019072</v>
+        <v>594.5810394226756</v>
       </c>
       <c r="G75" t="n">
-        <v>1217.838616598656</v>
+        <v>1138.848240139458</v>
       </c>
       <c r="H75" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="I75" t="n">
-        <v>2416012</v>
+        <v>2524884</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>117148002</v>
+        <v>116834697</v>
       </c>
       <c r="E76" t="n">
-        <v>497223256</v>
+        <v>495841779</v>
       </c>
       <c r="F76" t="n">
-        <v>226240.6052128824</v>
+        <v>222920.6180807967</v>
       </c>
       <c r="G76" t="n">
-        <v>135398.8933719313</v>
+        <v>152842.3618951613</v>
       </c>
       <c r="H76" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I76" t="n">
-        <v>14891241</v>
+        <v>15821787</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1869800</v>
+        <v>1855321</v>
       </c>
       <c r="F77" t="n">
-        <v>36.22828597420769</v>
+        <v>36.22522188253344</v>
       </c>
       <c r="G77" t="n">
-        <v>23.81034243464699</v>
+        <v>23.8083286194732</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>479.3</v>
+        <v>487.35</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3258915</v>
+        <v>3304962</v>
       </c>
       <c r="E78" t="n">
-        <v>16339544</v>
+        <v>16570414</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>4.288458930988125</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1.26415105535757</v>
       </c>
       <c r="H78" t="n">
-        <v>5.17</v>
+        <v>3.51</v>
       </c>
       <c r="I78" t="n">
-        <v>32085</v>
+        <v>31482</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>521883</v>
+        <v>523698</v>
       </c>
       <c r="E79" t="n">
-        <v>8926773</v>
+        <v>8957821</v>
       </c>
       <c r="F79" t="n">
-        <v>8.370908614930032</v>
+        <v>205.0101741877758</v>
       </c>
       <c r="G79" t="n">
-        <v>11.0852078117642</v>
+        <v>247.216742042272</v>
       </c>
       <c r="H79" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="I79" t="n">
-        <v>165516</v>
+        <v>161542</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5964379</v>
+        <v>5819371</v>
       </c>
       <c r="E80" t="n">
-        <v>8096976</v>
+        <v>7899793</v>
       </c>
       <c r="F80" t="n">
-        <v>647.4383040538689</v>
+        <v>598.7535954337307</v>
       </c>
       <c r="G80" t="n">
-        <v>658.522579115329</v>
+        <v>1044.064736481823</v>
       </c>
       <c r="H80" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I80" t="n">
-        <v>5385046</v>
+        <v>5329181</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42333</v>
+        <v>41160</v>
       </c>
       <c r="F81" t="n">
-        <v>70.27513276217951</v>
+        <v>64.09219968901013</v>
       </c>
       <c r="G81" t="n">
-        <v>46.20959227277265</v>
+        <v>103.6559443369239</v>
       </c>
       <c r="H81" t="n">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="I81" t="n">
-        <v>41859</v>
+        <v>41074</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41383875</v>
+        <v>40542628</v>
       </c>
       <c r="E82" t="n">
-        <v>48335384</v>
+        <v>47352827</v>
       </c>
       <c r="F82" t="n">
-        <v>107.8550693593762</v>
+        <v>600.6392232952735</v>
       </c>
       <c r="G82" t="n">
-        <v>438.8189210049828</v>
+        <v>0.9099189414899332</v>
       </c>
       <c r="H82" t="n">
-        <v>2.84</v>
+        <v>3.11</v>
       </c>
       <c r="I82" t="n">
-        <v>913190</v>
+        <v>961591</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14744821</v>
+        <v>14653326</v>
       </c>
       <c r="F83" t="n">
-        <v>75.81642418375498</v>
+        <v>176.4963283866434</v>
       </c>
       <c r="G83" t="n">
-        <v>834.6802067828488</v>
+        <v>490.1868063677551</v>
       </c>
       <c r="H83" t="n">
-        <v>0.38</v>
+        <v>1.46</v>
       </c>
       <c r="I83" t="n">
-        <v>224344</v>
+        <v>214101</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36490005</v>
+        <v>35975706</v>
       </c>
       <c r="E84" t="n">
-        <v>36490005</v>
+        <v>35975706</v>
       </c>
       <c r="F84" t="n">
-        <v>551.9593963662517</v>
+        <v>821.0565166216545</v>
       </c>
       <c r="G84" t="n">
-        <v>65.39442908615713</v>
+        <v>564.9402207444027</v>
       </c>
       <c r="H84" t="n">
-        <v>1.16</v>
+        <v>2.38</v>
       </c>
       <c r="I84" t="n">
-        <v>947225</v>
+        <v>946938</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>554788</v>
+        <v>546975</v>
       </c>
       <c r="E85" t="n">
-        <v>6729044</v>
+        <v>6634279</v>
       </c>
       <c r="F85" t="n">
-        <v>517.2677980500494</v>
+        <v>455.6668587894422</v>
       </c>
       <c r="G85" t="n">
-        <v>486.1182698538735</v>
+        <v>745.660360871265</v>
       </c>
       <c r="H85" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>2765587</v>
+        <v>2766468</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26420177</v>
+        <v>25848176</v>
       </c>
       <c r="E86" t="n">
-        <v>37335970</v>
+        <v>36527641</v>
       </c>
       <c r="F86" t="n">
-        <v>43.47367952706465</v>
+        <v>37.75972244156446</v>
       </c>
       <c r="G86" t="n">
-        <v>192.6092435717509</v>
+        <v>763.1977996484718</v>
       </c>
       <c r="H86" t="n">
-        <v>1.99</v>
+        <v>2.52</v>
       </c>
       <c r="I86" t="n">
-        <v>80735</v>
+        <v>91663</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1412304348</v>
+        <v>1367568162</v>
       </c>
       <c r="E87" t="n">
-        <v>6772288581</v>
+        <v>6557769406</v>
       </c>
       <c r="F87" t="n">
-        <v>796333.8029501023</v>
+        <v>543654.9023264054</v>
       </c>
       <c r="G87" t="n">
-        <v>474414.6930419697</v>
+        <v>652170.0221390673</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>273514498</v>
+        <v>383575361</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>274425324</v>
+        <v>270304248</v>
       </c>
       <c r="E88" t="n">
-        <v>1184572044</v>
+        <v>1166783190</v>
       </c>
       <c r="F88" t="n">
-        <v>1188359.042799126</v>
+        <v>1055548.914736582</v>
       </c>
       <c r="G88" t="n">
-        <v>889327.7479790376</v>
+        <v>795498.9043300834</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>113385305</v>
+        <v>132670798</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>116757694</v>
+        <v>115949399</v>
       </c>
       <c r="E89" t="n">
-        <v>116757694</v>
+        <v>115949399</v>
       </c>
       <c r="F89" t="n">
-        <v>39844.74377078823</v>
+        <v>37538.36271914352</v>
       </c>
       <c r="G89" t="n">
-        <v>24184.8437265427</v>
+        <v>18032.00746428505</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="I89" t="n">
-        <v>6393417</v>
+        <v>6732542</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3852204</v>
+        <v>3821941</v>
       </c>
       <c r="E90" t="n">
-        <v>29977384</v>
+        <v>29741887</v>
       </c>
       <c r="F90" t="n">
-        <v>11298.38331810908</v>
+        <v>7137.64725315411</v>
       </c>
       <c r="G90" t="n">
-        <v>11841.36432133666</v>
+        <v>6380.740240512377</v>
       </c>
       <c r="H90" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I90" t="n">
-        <v>8551.190000000001</v>
+        <v>25996</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3844340</v>
+        <v>3877030</v>
       </c>
       <c r="F91" t="n">
-        <v>126.7651934391786</v>
+        <v>100.6863863583178</v>
       </c>
       <c r="G91" t="n">
-        <v>1270.334071877218</v>
+        <v>63.98454860080924</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.97</v>
       </c>
       <c r="I91" t="n">
-        <v>360168</v>
+        <v>349513</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>872943</v>
+        <v>878095</v>
       </c>
       <c r="F92" t="n">
-        <v>93.96472268453428</v>
+        <v>80.72660829367049</v>
       </c>
       <c r="G92" t="n">
-        <v>701.2641691941891</v>
+        <v>717.8063236256994</v>
       </c>
       <c r="H92" t="n">
         <v>2.85</v>
       </c>
       <c r="I92" t="n">
-        <v>10892.26</v>
+        <v>10617.77</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>110708</v>
+        <v>120239</v>
       </c>
       <c r="F93" t="n">
-        <v>55.5147382287022</v>
+        <v>755.021392990749</v>
       </c>
       <c r="G93" t="n">
-        <v>3.030450323716625</v>
+        <v>2.703768535352491</v>
       </c>
       <c r="H93" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="I93" t="n">
-        <v>133808</v>
+        <v>132760</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11612530</v>
+        <v>11126491</v>
       </c>
       <c r="E94" t="n">
-        <v>140138308</v>
+        <v>133965687</v>
       </c>
       <c r="F94" t="n">
-        <v>1943.020450458917</v>
+        <v>2492.265152548402</v>
       </c>
       <c r="G94" t="n">
-        <v>3650.373264517771</v>
+        <v>1928.544603041454</v>
       </c>
       <c r="H94" t="n">
-        <v>1.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>433803</v>
+        <v>465986</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19134988</v>
+        <v>17666335</v>
       </c>
       <c r="E95" t="n">
-        <v>47837469</v>
+        <v>44165837</v>
       </c>
       <c r="F95" t="n">
-        <v>5408.181751852394</v>
+        <v>6467.266159966239</v>
       </c>
       <c r="G95" t="n">
-        <v>8182.565210029355</v>
+        <v>5347.026107663768</v>
       </c>
       <c r="H95" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I95" t="n">
-        <v>2442081</v>
+        <v>3170178</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2411666</v>
+        <v>2550613</v>
       </c>
       <c r="F96" t="n">
-        <v>59.92704557627012</v>
+        <v>306.5845563251943</v>
       </c>
       <c r="G96" t="n">
-        <v>262.8786751697575</v>
+        <v>10.57227069289662</v>
       </c>
       <c r="H96" t="n">
-        <v>1.85</v>
+        <v>1.18</v>
       </c>
       <c r="I96" t="n">
-        <v>9196.67</v>
+        <v>34872</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19958920</v>
+        <v>19902105</v>
       </c>
       <c r="F97" t="n">
-        <v>1111.725896729508</v>
+        <v>1350.76615366216</v>
       </c>
       <c r="G97" t="n">
-        <v>2146.750832324935</v>
+        <v>798.4368320975057</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>35990</v>
+        <v>50245</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4193875</v>
+        <v>4189890</v>
       </c>
       <c r="E98" t="n">
-        <v>12080637</v>
+        <v>12068240</v>
       </c>
       <c r="F98" t="n">
-        <v>1363.275591884767</v>
+        <v>1494.049008346916</v>
       </c>
       <c r="G98" t="n">
-        <v>435.4653886043357</v>
+        <v>428.4797574746297</v>
       </c>
       <c r="H98" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="I98" t="n">
-        <v>597116</v>
+        <v>532973</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1572085</v>
+        <v>1539774</v>
       </c>
       <c r="F99" t="n">
-        <v>366.9154058780403</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>59.84325378585494</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1.33</v>
+        <v>4.7</v>
       </c>
       <c r="I99" t="n">
-        <v>241015</v>
+        <v>257669</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80895229</v>
+        <v>80733629</v>
       </c>
       <c r="E100" t="n">
-        <v>102945467</v>
+        <v>102739818</v>
       </c>
       <c r="F100" t="n">
-        <v>11946.95214498184</v>
+        <v>9782.907756492184</v>
       </c>
       <c r="G100" t="n">
-        <v>7253.453314681866</v>
+        <v>9978.393366408247</v>
       </c>
       <c r="H100" t="n">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="I100" t="n">
-        <v>6343815</v>
+        <v>6404902</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23341405</v>
+        <v>22995974</v>
       </c>
       <c r="E101" t="n">
-        <v>30279142</v>
+        <v>29831039</v>
       </c>
       <c r="F101" t="n">
-        <v>1595.257366990823</v>
+        <v>4071.488314009532</v>
       </c>
       <c r="G101" t="n">
-        <v>2875.615677550028</v>
+        <v>3838.985345087281</v>
       </c>
       <c r="H101" t="n">
-        <v>0.99</v>
+        <v>0.03</v>
       </c>
       <c r="I101" t="n">
-        <v>383740</v>
+        <v>178701</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1571284</v>
+        <v>1586775</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>27.56488044161093</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>35.15893239633213</v>
       </c>
       <c r="H102" t="n">
-        <v>4.29</v>
+        <v>3.09</v>
       </c>
       <c r="I102" t="n">
-        <v>9594.469999999999</v>
+        <v>9287.75</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>705347</v>
+        <v>707554</v>
       </c>
       <c r="E103" t="n">
-        <v>705347</v>
+        <v>707554</v>
       </c>
       <c r="F103" t="n">
-        <v>71.83293370100316</v>
+        <v>29.35866325599756</v>
       </c>
       <c r="G103" t="n">
-        <v>282.4287582567201</v>
+        <v>182.8652723168981</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I103" t="n">
-        <v>77740</v>
+        <v>75700</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>41132620</v>
+        <v>41293066</v>
       </c>
       <c r="E104" t="n">
-        <v>42998295</v>
+        <v>43166019</v>
       </c>
       <c r="F104" t="n">
-        <v>404.1553183721875</v>
+        <v>517.5616423023455</v>
       </c>
       <c r="G104" t="n">
-        <v>5267.729220616706</v>
+        <v>2613.983714373356</v>
       </c>
       <c r="H104" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="I104" t="n">
-        <v>840110</v>
+        <v>884166</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14548934</v>
+        <v>14378267</v>
       </c>
       <c r="E105" t="n">
-        <v>14548934</v>
+        <v>14378267</v>
       </c>
       <c r="F105" t="n">
-        <v>2658.761727884017</v>
+        <v>1899.62910098812</v>
       </c>
       <c r="G105" t="n">
-        <v>1792.569507063265</v>
+        <v>2132.973849313354</v>
       </c>
       <c r="H105" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I105" t="n">
-        <v>5371576</v>
+        <v>5336476</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1172850</v>
+        <v>1167015</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.49</v>
+        <v>7.25</v>
       </c>
       <c r="I106" t="n">
-        <v>5691.81</v>
+        <v>5384.35</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51260740</v>
+        <v>51375429</v>
       </c>
       <c r="E107" t="n">
-        <v>130589664</v>
+        <v>130881842</v>
       </c>
       <c r="F107" t="n">
-        <v>2896.964937565384</v>
+        <v>2190.351525990376</v>
       </c>
       <c r="G107" t="n">
-        <v>4156.829110617783</v>
+        <v>4315.624488646382</v>
       </c>
       <c r="H107" t="n">
         <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2281571</v>
+        <v>2194548</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15960306</v>
+        <v>15370095</v>
       </c>
       <c r="E108" t="n">
-        <v>77298310</v>
+        <v>74439825</v>
       </c>
       <c r="F108" t="n">
-        <v>11710.89501115995</v>
+        <v>4143.790816903725</v>
       </c>
       <c r="G108" t="n">
-        <v>11447.19907613057</v>
+        <v>10864.47232412383</v>
       </c>
       <c r="H108" t="n">
-        <v>0.84</v>
+        <v>0.37</v>
       </c>
       <c r="I108" t="n">
-        <v>4680349</v>
+        <v>5137446</v>
       </c>
     </row>
     <row r="109">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>616573</v>
+        <v>592523</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>7.77</v>
+        <v>5.71</v>
       </c>
       <c r="I109" t="n">
-        <v>8449.91</v>
+        <v>8406.09</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4609310</v>
+        <v>4603093</v>
       </c>
       <c r="E110" t="n">
-        <v>10506719</v>
+        <v>10492546</v>
       </c>
       <c r="F110" t="n">
-        <v>1761.3488584609</v>
+        <v>1388.978557519394</v>
       </c>
       <c r="G110" t="n">
-        <v>1536.063165479686</v>
+        <v>2232.00369490492</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I110" t="n">
-        <v>67283</v>
+        <v>66838</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1894235118</v>
+        <v>1891496798</v>
       </c>
       <c r="F111" t="n">
-        <v>89438.77589414125</v>
+        <v>62236.86202259186</v>
       </c>
       <c r="G111" t="n">
-        <v>34343.90467233674</v>
+        <v>42827.86389934097</v>
       </c>
       <c r="H111" t="n">
-        <v>0.08</v>
+        <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>28681027</v>
+        <v>29270291</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9607910</v>
+        <v>9683808</v>
       </c>
       <c r="E112" t="n">
-        <v>34962198</v>
+        <v>35236921</v>
       </c>
       <c r="F112" t="n">
-        <v>477.5149033612153</v>
+        <v>553.0655291809833</v>
       </c>
       <c r="G112" t="n">
-        <v>618.7277108194249</v>
+        <v>313.6298349229182</v>
       </c>
       <c r="H112" t="n">
-        <v>0.57</v>
+        <v>1.15</v>
       </c>
       <c r="I112" t="n">
-        <v>116290</v>
+        <v>120575</v>
       </c>
     </row>
     <row r="113">
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>623713</v>
+        <v>625094</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>4.65</v>
+        <v>4.07</v>
       </c>
       <c r="I113" t="n">
-        <v>1125.53</v>
+        <v>1003.06</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12350971</v>
+        <v>12376544</v>
       </c>
       <c r="E114" t="n">
-        <v>17907127</v>
+        <v>17944202</v>
       </c>
       <c r="F114" t="n">
-        <v>2646.773011931255</v>
+        <v>3538.639767072019</v>
       </c>
       <c r="G114" t="n">
-        <v>4823.535419056825</v>
+        <v>5228.777022858726</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="I114" t="n">
-        <v>1971527</v>
+        <v>2008422</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1993101</v>
+        <v>1951685</v>
       </c>
       <c r="E115" t="n">
-        <v>14292331</v>
+        <v>13995341</v>
       </c>
       <c r="F115" t="n">
-        <v>805.3972429287732</v>
+        <v>977.5811639033673</v>
       </c>
       <c r="G115" t="n">
-        <v>929.2163186171981</v>
+        <v>670.3264528583053</v>
       </c>
       <c r="H115" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="I115" t="n">
-        <v>2061364</v>
+        <v>616344</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2690108</v>
+        <v>2729811</v>
       </c>
       <c r="E116" t="n">
-        <v>5437944</v>
+        <v>5518202</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>7480.38</v>
+        <v>6771.92</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>208158161</v>
+        <v>203752230</v>
       </c>
       <c r="E117" t="n">
-        <v>1178719409</v>
+        <v>1153770321</v>
       </c>
       <c r="F117" t="n">
-        <v>359496.7227516198</v>
+        <v>295971.4492624174</v>
       </c>
       <c r="G117" t="n">
-        <v>345750.9729988049</v>
+        <v>271385.3021240103</v>
       </c>
       <c r="H117" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>69817319</v>
+        <v>81399779</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>674024</v>
+        <v>677623</v>
       </c>
       <c r="E118" t="n">
-        <v>2234966</v>
+        <v>2246898</v>
       </c>
       <c r="F118" t="n">
-        <v>4056.419490292316</v>
+        <v>5275.26655146993</v>
       </c>
       <c r="G118" t="n">
-        <v>7489.805559119117</v>
+        <v>5255.557911231147</v>
       </c>
       <c r="H118" t="n">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
       <c r="I118" t="n">
-        <v>11149.12</v>
+        <v>7378.87</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2908010</v>
+        <v>2803115</v>
       </c>
       <c r="E119" t="n">
-        <v>10296038</v>
+        <v>9924646</v>
       </c>
       <c r="F119" t="n">
-        <v>344.7856408754832</v>
+        <v>275.4041887642327</v>
       </c>
       <c r="G119" t="n">
-        <v>334.8149759012654</v>
+        <v>1729.524593025927</v>
       </c>
       <c r="H119" t="n">
-        <v>0.39</v>
+        <v>1.4</v>
       </c>
       <c r="I119" t="n">
-        <v>10242.93</v>
+        <v>15324.04</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1061925</v>
+        <v>1041054</v>
       </c>
       <c r="E120" t="n">
-        <v>1061925</v>
+        <v>1041054</v>
       </c>
       <c r="F120" t="n">
-        <v>200.9775423307352</v>
+        <v>83.22163340009898</v>
       </c>
       <c r="G120" t="n">
-        <v>9.897674659886427</v>
+        <v>113.841532321923</v>
       </c>
       <c r="H120" t="n">
-        <v>1.13</v>
+        <v>3.01</v>
       </c>
       <c r="I120" t="n">
-        <v>5883.56</v>
+        <v>6092.51</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>501963</v>
+        <v>498865</v>
       </c>
       <c r="E121" t="n">
-        <v>1689538</v>
+        <v>1679111</v>
       </c>
       <c r="F121" t="n">
-        <v>316.7724652471676</v>
+        <v>356.5739358239698</v>
       </c>
       <c r="G121" t="n">
-        <v>326.1023176714442</v>
+        <v>324.9884735167363</v>
       </c>
       <c r="H121" t="n">
         <v>0.95</v>
       </c>
       <c r="I121" t="n">
-        <v>586739</v>
+        <v>628887</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>510198</v>
+        <v>474986</v>
       </c>
       <c r="E122" t="n">
-        <v>946516</v>
+        <v>881191</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>8.789999999999999</v>
+        <v>4.35</v>
       </c>
       <c r="I122" t="n">
-        <v>189943</v>
+        <v>198761</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9803011</v>
+        <v>9778008</v>
       </c>
       <c r="F123" t="n">
-        <v>27.69374012669112</v>
+        <v>22.08523992256212</v>
       </c>
       <c r="G123" t="n">
-        <v>95.10935804763609</v>
+        <v>105.9973945979544</v>
       </c>
       <c r="H123" t="n">
-        <v>2.32</v>
+        <v>3.33</v>
       </c>
       <c r="I123" t="n">
-        <v>14648.72</v>
+        <v>15685.36</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1244660</v>
+        <v>1219643</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>8.76</v>
+        <v>7.82</v>
       </c>
       <c r="I124" t="n">
-        <v>4347.1</v>
+        <v>4818.81</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3484920</v>
+        <v>3460297</v>
       </c>
       <c r="E125" t="n">
-        <v>8137869</v>
+        <v>8080371</v>
       </c>
       <c r="F125" t="n">
-        <v>1534.071380743293</v>
+        <v>1214.070524293776</v>
       </c>
       <c r="G125" t="n">
-        <v>1418.855329265278</v>
+        <v>1508.069448769261</v>
       </c>
       <c r="H125" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="I125" t="n">
-        <v>608848</v>
+        <v>630729</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>243680</v>
+        <v>246260</v>
       </c>
       <c r="E126" t="n">
-        <v>2150657</v>
+        <v>2173427</v>
       </c>
       <c r="F126" t="n">
-        <v>70.54613923001786</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>61.80295512487128</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>3.58</v>
+        <v>4.17</v>
       </c>
       <c r="I126" t="n">
-        <v>75865</v>
+        <v>73748</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>650154</v>
+        <v>642982</v>
       </c>
       <c r="F127" t="n">
-        <v>578.9589637507204</v>
+        <v>553.3947911950454</v>
       </c>
       <c r="G127" t="n">
-        <v>743.9252299232039</v>
+        <v>715.7678525195612</v>
       </c>
       <c r="H127" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="I127" t="n">
-        <v>11951.88</v>
+        <v>12431.67</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4924512</v>
+        <v>4885702</v>
       </c>
       <c r="E128" t="n">
-        <v>17400594</v>
+        <v>17261171</v>
       </c>
       <c r="F128" t="n">
-        <v>1555.89646843832</v>
+        <v>2687.683094258045</v>
       </c>
       <c r="G128" t="n">
-        <v>1775.032928268567</v>
+        <v>1889.965173199427</v>
       </c>
       <c r="H128" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>109975</v>
+        <v>121370</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2129740</v>
+        <v>2128655</v>
       </c>
       <c r="F129" t="n">
-        <v>33.70624065607834</v>
+        <v>71.97068583620074</v>
       </c>
       <c r="G129" t="n">
-        <v>84.51430656381035</v>
+        <v>66.24311151939708</v>
       </c>
       <c r="H129" t="n">
         <v>1.17</v>
       </c>
       <c r="I129" t="n">
-        <v>7586.19</v>
+        <v>6745.08</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2525257</v>
+        <v>2520239</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2500.11</v>
+        <v>2500.48</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>83645</v>
+        <v>82218</v>
       </c>
       <c r="E131" t="n">
-        <v>83645</v>
+        <v>82218</v>
       </c>
       <c r="F131" t="n">
-        <v>5.650646685405268</v>
+        <v>9.361892898080368</v>
       </c>
       <c r="G131" t="n">
-        <v>209.8104024814249</v>
+        <v>209.3573480157005</v>
       </c>
       <c r="H131" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="I131" t="n">
-        <v>23960</v>
+        <v>23239</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4478855</v>
+        <v>4269605</v>
       </c>
       <c r="F132" t="n">
-        <v>169.9512266301497</v>
+        <v>348.6252807701267</v>
       </c>
       <c r="G132" t="n">
-        <v>575.9056868227125</v>
+        <v>373.4649622375373</v>
       </c>
       <c r="H132" t="n">
-        <v>0.23</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I132" t="n">
-        <v>297542</v>
+        <v>269351</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2156438</v>
+        <v>2094038</v>
       </c>
       <c r="E133" t="n">
-        <v>8806335</v>
+        <v>8551507</v>
       </c>
       <c r="F133" t="n">
-        <v>643.3174389377921</v>
+        <v>516.56747612584</v>
       </c>
       <c r="G133" t="n">
-        <v>246.4516119097738</v>
+        <v>460.7645063148394</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I133" t="n">
-        <v>493343</v>
+        <v>243052</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7527193</v>
+        <v>7507399</v>
       </c>
       <c r="E134" t="n">
-        <v>7583145</v>
+        <v>7563203</v>
       </c>
       <c r="F134" t="n">
-        <v>346290.365298484</v>
+        <v>301333.3320593601</v>
       </c>
       <c r="G134" t="n">
-        <v>202969.7302855613</v>
+        <v>367280.9433385517</v>
       </c>
       <c r="H134" t="n">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="I134" t="n">
-        <v>4902449</v>
+        <v>5025866</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14049555</v>
+        <v>13989270</v>
       </c>
       <c r="E135" t="n">
-        <v>14097367</v>
+        <v>14036877</v>
       </c>
       <c r="F135" t="n">
-        <v>14611.2392978355</v>
+        <v>14289.71687928158</v>
       </c>
       <c r="G135" t="n">
-        <v>9402.698445389495</v>
+        <v>12712.57561115249</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I135" t="n">
-        <v>6565061</v>
+        <v>6761560</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>43452094</v>
+        <v>42778936</v>
       </c>
       <c r="E136" t="n">
-        <v>73771548</v>
+        <v>72628682</v>
       </c>
       <c r="F136" t="n">
-        <v>511.5246525428914</v>
+        <v>747.4662404540527</v>
       </c>
       <c r="G136" t="n">
-        <v>1507.364284066885</v>
+        <v>2736.975905558891</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I136" t="n">
-        <v>1078698</v>
+        <v>1094640</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22705323</v>
+        <v>21430666</v>
       </c>
       <c r="E137" t="n">
-        <v>68065269</v>
+        <v>64242034</v>
       </c>
       <c r="F137" t="n">
-        <v>55717.27428686069</v>
+        <v>7592.994093908762</v>
       </c>
       <c r="G137" t="n">
-        <v>33028.61107837126</v>
+        <v>9331.059159015667</v>
       </c>
       <c r="H137" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>3649711</v>
+        <v>3866007</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>103351297</v>
+        <v>100264825</v>
       </c>
       <c r="E138" t="n">
-        <v>109871769</v>
+        <v>106590571</v>
       </c>
       <c r="F138" t="n">
-        <v>9074.969390210079</v>
+        <v>10623.39531053519</v>
       </c>
       <c r="G138" t="n">
-        <v>10561.5143461784</v>
+        <v>9030.548682475166</v>
       </c>
       <c r="H138" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="I138" t="n">
-        <v>1584098</v>
+        <v>486956</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1281116</v>
+        <v>1386549</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>7.61</v>
+        <v>5.77</v>
       </c>
       <c r="I139" t="n">
-        <v>1906.98</v>
+        <v>1911.11</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>259753</v>
+        <v>259850</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>92529</v>
+        <v>91855</v>
       </c>
       <c r="E141" t="n">
-        <v>262484</v>
+        <v>260572</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>223.42</v>
+        <v>229.33</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>51134989</v>
+        <v>50366905</v>
       </c>
       <c r="E142" t="n">
-        <v>220283943</v>
+        <v>216975119</v>
       </c>
       <c r="F142" t="n">
-        <v>60737.53983133338</v>
+        <v>38102.64104628041</v>
       </c>
       <c r="G142" t="n">
-        <v>81283.81479772639</v>
+        <v>45808.13424721231</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="I142" t="n">
-        <v>10745253</v>
+        <v>11717268</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>268705</v>
+        <v>270135</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>8.56</v>
+        <v>7.88</v>
       </c>
       <c r="I143" t="n">
-        <v>9005.360000000001</v>
+        <v>7603.87</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9435236</v>
+        <v>9158715</v>
       </c>
       <c r="F144" t="n">
-        <v>566.131885148734</v>
+        <v>166.3701710023013</v>
       </c>
       <c r="G144" t="n">
-        <v>910.2736024623719</v>
+        <v>332.0679621032586</v>
       </c>
       <c r="H144" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="I144" t="n">
-        <v>100196</v>
+        <v>104798</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1181463</v>
+        <v>1177911</v>
       </c>
       <c r="E145" t="n">
-        <v>7876421</v>
+        <v>7852740</v>
       </c>
       <c r="F145" t="n">
-        <v>262.5644985422012</v>
+        <v>262.5422915381351</v>
       </c>
       <c r="G145" t="n">
-        <v>36.81639973695469</v>
+        <v>36.81328590418904</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4709.57</v>
+        <v>4712.71</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7542798</v>
+        <v>7637923</v>
       </c>
       <c r="F146" t="n">
-        <v>97.71039302315805</v>
+        <v>113.9215760557909</v>
       </c>
       <c r="G146" t="n">
-        <v>151.5169133305822</v>
+        <v>233.3275864569638</v>
       </c>
       <c r="H146" t="n">
-        <v>1.82</v>
+        <v>1.07</v>
       </c>
       <c r="I146" t="n">
-        <v>6720101</v>
+        <v>6853300</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>674657</v>
+        <v>671729</v>
       </c>
       <c r="E147" t="n">
-        <v>2435152</v>
+        <v>2424586</v>
       </c>
       <c r="F147" t="n">
-        <v>15.03109806507388</v>
+        <v>14.38248763821436</v>
       </c>
       <c r="G147" t="n">
-        <v>16.81480341914668</v>
+        <v>148.8826250114779</v>
       </c>
       <c r="H147" t="n">
-        <v>0.53</v>
+        <v>1.11</v>
       </c>
       <c r="I147" t="n">
-        <v>337852</v>
+        <v>337927</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1771817</v>
+        <v>1874339</v>
       </c>
       <c r="F148" t="n">
-        <v>1040.004013219654</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>46.74771162571934</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1.35</v>
+        <v>4.62</v>
       </c>
       <c r="I148" t="n">
-        <v>91394</v>
+        <v>91810</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>60950</v>
+        <v>65120</v>
       </c>
       <c r="F149" t="n">
-        <v>0.2677784450961516</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>49.70806453779533</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>3.45</v>
+        <v>6.25</v>
       </c>
       <c r="I149" t="n">
-        <v>2779.25</v>
+        <v>2851.02</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13473151</v>
+        <v>12977242</v>
       </c>
       <c r="E150" t="n">
-        <v>13473151</v>
+        <v>12977242</v>
       </c>
       <c r="F150" t="n">
-        <v>241.4447828888359</v>
+        <v>227.8466949527558</v>
       </c>
       <c r="G150" t="n">
-        <v>272.289407872998</v>
+        <v>266.5393495024001</v>
       </c>
       <c r="H150" t="n">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="I150" t="n">
-        <v>4445854</v>
+        <v>4445638</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2213059</v>
+        <v>2170737</v>
       </c>
       <c r="E151" t="n">
-        <v>8034663</v>
+        <v>7880978</v>
       </c>
       <c r="F151" t="n">
-        <v>121.5786247235673</v>
+        <v>47.28440712147317</v>
       </c>
       <c r="G151" t="n">
-        <v>61.27090402568331</v>
+        <v>189.4033455742208</v>
       </c>
       <c r="H151" t="n">
-        <v>1.56</v>
+        <v>2.36</v>
       </c>
       <c r="I151" t="n">
-        <v>201650</v>
+        <v>200956</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1305130</v>
+        <v>1261620</v>
       </c>
       <c r="E152" t="n">
-        <v>1305130</v>
+        <v>1261620</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1576.78</v>
+        <v>1039.93</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23129267</v>
+        <v>23154261</v>
       </c>
       <c r="E153" t="n">
-        <v>26705895</v>
+        <v>26736753</v>
       </c>
       <c r="F153" t="n">
-        <v>627.5498832817655</v>
+        <v>676.8620508602185</v>
       </c>
       <c r="G153" t="n">
-        <v>378.874608993074</v>
+        <v>567.1335597429613</v>
       </c>
       <c r="H153" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I153" t="n">
-        <v>765527</v>
+        <v>762154</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2435404</v>
+        <v>2444605</v>
       </c>
       <c r="E154" t="n">
-        <v>18325792</v>
+        <v>18395026</v>
       </c>
       <c r="F154" t="n">
-        <v>3193.165304828591</v>
+        <v>3295.326709667751</v>
       </c>
       <c r="G154" t="n">
-        <v>3699.981989950165</v>
+        <v>3707.949029768976</v>
       </c>
       <c r="H154" t="n">
         <v>0.16</v>
       </c>
       <c r="I154" t="n">
-        <v>162138</v>
+        <v>161630</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20516370</v>
+        <v>19421497</v>
       </c>
       <c r="E155" t="n">
-        <v>82065481</v>
+        <v>77685989</v>
       </c>
       <c r="F155" t="n">
-        <v>16304.79702831564</v>
+        <v>8174.653619086992</v>
       </c>
       <c r="G155" t="n">
-        <v>20252.30237458591</v>
+        <v>23516.20604182747</v>
       </c>
       <c r="H155" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="I155" t="n">
-        <v>2368083</v>
+        <v>2318111</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>313908922</v>
+        <v>311851856</v>
       </c>
       <c r="E156" t="n">
-        <v>313908922</v>
+        <v>311851856</v>
       </c>
       <c r="F156" t="n">
-        <v>395440.3129604399</v>
+        <v>279329.4724858869</v>
       </c>
       <c r="G156" t="n">
-        <v>298270.5573541225</v>
+        <v>367528.1433478745</v>
       </c>
       <c r="H156" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="I156" t="n">
-        <v>16882148</v>
+        <v>18876034</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12747187</v>
+        <v>12657458</v>
       </c>
       <c r="E157" t="n">
-        <v>40317966</v>
+        <v>40034101</v>
       </c>
       <c r="F157" t="n">
-        <v>9445.773961320536</v>
+        <v>5510.675604919918</v>
       </c>
       <c r="G157" t="n">
-        <v>17094.51399652563</v>
+        <v>4389.380823508204</v>
       </c>
       <c r="H157" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="I157" t="n">
-        <v>875384</v>
+        <v>925131</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1108234</v>
+        <v>1106082</v>
       </c>
       <c r="E158" t="n">
-        <v>2524111</v>
+        <v>2519210</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6.46</v>
+        <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>513.48</v>
+        <v>604.5599999999999</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19067932</v>
+        <v>18847441</v>
       </c>
       <c r="E159" t="n">
-        <v>19067932</v>
+        <v>18847441</v>
       </c>
       <c r="F159" t="n">
-        <v>18610.43150645299</v>
+        <v>11164.25362152646</v>
       </c>
       <c r="G159" t="n">
-        <v>25784.69926767543</v>
+        <v>23773.95220614579</v>
       </c>
       <c r="H159" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>5348490</v>
+        <v>6345858</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4616215</v>
+        <v>4613862</v>
       </c>
       <c r="E160" t="n">
-        <v>8498945</v>
+        <v>8494613</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>12.33</v>
+        <v>11.51</v>
       </c>
       <c r="I160" t="n">
-        <v>64.95</v>
+        <v>65.09</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>115529</v>
+        <v>115058</v>
       </c>
       <c r="E161" t="n">
-        <v>139899</v>
+        <v>139330</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>6.39</v>
+        <v>5.77</v>
       </c>
       <c r="I161" t="n">
-        <v>1781.97</v>
+        <v>1780.15</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>23013513</v>
+        <v>22202213</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>7.07</v>
+        <v>17.33</v>
       </c>
       <c r="I162" t="n">
-        <v>1278.41</v>
+        <v>1033.85</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>441760</v>
+        <v>449794</v>
       </c>
       <c r="E163" t="n">
-        <v>556453</v>
+        <v>566572</v>
       </c>
       <c r="F163" t="n">
-        <v>158.8899107649531</v>
+        <v>83.74646284614717</v>
       </c>
       <c r="G163" t="n">
-        <v>254.691048289022</v>
+        <v>139.4250481398416</v>
       </c>
       <c r="H163" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="I163" t="n">
-        <v>189013</v>
+        <v>192054</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>110590</v>
+        <v>104832</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I164" t="n">
-        <v>2871.45</v>
+        <v>3074.84</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12749495</v>
+        <v>12639292</v>
       </c>
       <c r="E165" t="n">
-        <v>19407607</v>
+        <v>19239853</v>
       </c>
       <c r="F165" t="n">
-        <v>2958.557967516156</v>
+        <v>2588.066541097161</v>
       </c>
       <c r="G165" t="n">
-        <v>4627.339728984331</v>
+        <v>3867.572106692057</v>
       </c>
       <c r="H165" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="I165" t="n">
-        <v>631060</v>
+        <v>656134</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>304756775</v>
+        <v>305046034</v>
       </c>
       <c r="E166" t="n">
-        <v>304756775</v>
+        <v>305046034</v>
       </c>
       <c r="F166" t="n">
-        <v>272582.1043195075</v>
+        <v>297049.5215879094</v>
       </c>
       <c r="G166" t="n">
-        <v>326879.5693807054</v>
+        <v>319575.4622351218</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>77529259</v>
+        <v>84797003</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10255148</v>
+        <v>10203644</v>
       </c>
       <c r="E167" t="n">
-        <v>29116076</v>
+        <v>28969846</v>
       </c>
       <c r="F167" t="n">
-        <v>352.5498720481568</v>
+        <v>192.4628006424485</v>
       </c>
       <c r="G167" t="n">
-        <v>1801.736634461323</v>
+        <v>181.2624381930629</v>
       </c>
       <c r="H167" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="I167" t="n">
-        <v>108774</v>
+        <v>113160</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11728265</v>
+        <v>11591880</v>
       </c>
       <c r="F168" t="n">
-        <v>157.0372678862455</v>
+        <v>183.8368908454131</v>
       </c>
       <c r="G168" t="n">
-        <v>892.4596237839108</v>
+        <v>1164.637104981231</v>
       </c>
       <c r="H168" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="I168" t="n">
-        <v>89791</v>
+        <v>82734</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4457242</v>
+        <v>4322758</v>
       </c>
       <c r="E169" t="n">
-        <v>30456019</v>
+        <v>29537104</v>
       </c>
       <c r="F169" t="n">
-        <v>2551.860385256455</v>
+        <v>1750.811243085575</v>
       </c>
       <c r="G169" t="n">
-        <v>2969.671697150599</v>
+        <v>1830.190869745309</v>
       </c>
       <c r="H169" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I169" t="n">
-        <v>2653298</v>
+        <v>2683224</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2949218</v>
+        <v>2936917</v>
       </c>
       <c r="E170" t="n">
-        <v>4368089</v>
+        <v>4349453</v>
       </c>
       <c r="F170" t="n">
-        <v>2390.060127969167</v>
+        <v>4108.36075305049</v>
       </c>
       <c r="G170" t="n">
-        <v>3931.179448370518</v>
+        <v>1295.497989257307</v>
       </c>
       <c r="H170" t="n">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="I170" t="n">
-        <v>106490</v>
+        <v>102848</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>90741720</v>
+        <v>89571984</v>
       </c>
       <c r="E171" t="n">
-        <v>522892928</v>
+        <v>516152404</v>
       </c>
       <c r="F171" t="n">
-        <v>529512.1997757842</v>
+        <v>308580.4564417702</v>
       </c>
       <c r="G171" t="n">
-        <v>287999.5668891713</v>
+        <v>219499.5204858477</v>
       </c>
       <c r="H171" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I171" t="n">
-        <v>18707521</v>
+        <v>19983534</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13736928</v>
+        <v>13770002</v>
       </c>
       <c r="E172" t="n">
-        <v>13736928</v>
+        <v>13770002</v>
       </c>
       <c r="F172" t="n">
-        <v>4234.365147744013</v>
+        <v>4401.868788309362</v>
       </c>
       <c r="G172" t="n">
-        <v>4456.552860033324</v>
+        <v>5550.883076988699</v>
       </c>
       <c r="H172" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="I172" t="n">
-        <v>641233</v>
+        <v>653011</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6117781</v>
+        <v>6110937</v>
       </c>
       <c r="E173" t="n">
-        <v>17378861</v>
+        <v>17359418</v>
       </c>
       <c r="F173" t="n">
-        <v>655.3562914680579</v>
+        <v>652.0657050065408</v>
       </c>
       <c r="G173" t="n">
-        <v>8780.638617181401</v>
+        <v>8758.049129876938</v>
       </c>
       <c r="H173" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="I173" t="n">
-        <v>128259</v>
+        <v>112434</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19775993</v>
+        <v>19686378</v>
       </c>
       <c r="E174" t="n">
-        <v>19775993</v>
+        <v>19686378</v>
       </c>
       <c r="F174" t="n">
-        <v>4.504589584008993</v>
+        <v>4.504208597852206</v>
       </c>
       <c r="G174" t="n">
-        <v>14.03442020697604</v>
+        <v>14.0332332131961</v>
       </c>
       <c r="H174" t="n">
         <v>1.97</v>
       </c>
       <c r="I174" t="n">
-        <v>147278</v>
+        <v>147812</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1313887</v>
+        <v>1329223</v>
       </c>
       <c r="F175" t="n">
-        <v>170.2307486923572</v>
+        <v>12.54291814203186</v>
       </c>
       <c r="G175" t="n">
-        <v>127.1601878854569</v>
+        <v>551.2623139295662</v>
       </c>
       <c r="H175" t="n">
-        <v>1.94</v>
+        <v>0.23</v>
       </c>
       <c r="I175" t="n">
-        <v>33261</v>
+        <v>35709</v>
       </c>
     </row>
     <row r="176">
@@ -6557,22 +6557,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>148211</v>
+        <v>146653</v>
       </c>
       <c r="E176" t="n">
-        <v>322652</v>
+        <v>319260</v>
       </c>
       <c r="F176" t="n">
-        <v>68.35608527768362</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>62.65201211114116</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>3.85</v>
+        <v>7.43</v>
       </c>
       <c r="I176" t="n">
-        <v>51755</v>
+        <v>50428</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3261722</v>
+        <v>3153040</v>
       </c>
       <c r="F177" t="n">
-        <v>1521.142992186747</v>
+        <v>1362.105506473125</v>
       </c>
       <c r="G177" t="n">
-        <v>1076.852038302173</v>
+        <v>1282.704349347734</v>
       </c>
       <c r="H177" t="n">
-        <v>1.22</v>
+        <v>0.95</v>
       </c>
       <c r="I177" t="n">
-        <v>497549</v>
+        <v>492514</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>252606801</v>
+        <v>244004920</v>
       </c>
       <c r="E178" t="n">
-        <v>252609311</v>
+        <v>244007344</v>
       </c>
       <c r="F178" t="n">
-        <v>17209.14233109148</v>
+        <v>43748.76552549755</v>
       </c>
       <c r="G178" t="n">
-        <v>18077.57462811913</v>
+        <v>79645.92420657635</v>
       </c>
       <c r="H178" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I178" t="n">
-        <v>2810678</v>
+        <v>1767058</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9436258</v>
+        <v>9353613</v>
       </c>
       <c r="E179" t="n">
-        <v>9436258</v>
+        <v>9353613</v>
       </c>
       <c r="F179" t="n">
-        <v>336.0066866303851</v>
+        <v>77.07662388596404</v>
       </c>
       <c r="G179" t="n">
-        <v>585.7567996272454</v>
+        <v>277.4393303037151</v>
       </c>
       <c r="H179" t="n">
-        <v>2.84</v>
+        <v>0.99</v>
       </c>
       <c r="I179" t="n">
-        <v>2755590</v>
+        <v>2785001</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>204335</v>
+        <v>196001</v>
       </c>
       <c r="E180" t="n">
-        <v>1577875</v>
+        <v>1513524</v>
       </c>
       <c r="F180" t="n">
-        <v>191.644072320068</v>
+        <v>629.5294888446665</v>
       </c>
       <c r="G180" t="n">
-        <v>636.6643346320776</v>
+        <v>231.8062248853514</v>
       </c>
       <c r="H180" t="n">
-        <v>2.46</v>
+        <v>0.32</v>
       </c>
       <c r="I180" t="n">
-        <v>89103</v>
+        <v>90105</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>32024450</v>
+        <v>30678622</v>
       </c>
       <c r="E181" t="n">
-        <v>143386599</v>
+        <v>137360775</v>
       </c>
       <c r="F181" t="n">
-        <v>66447.7036674735</v>
+        <v>71577.43793838685</v>
       </c>
       <c r="G181" t="n">
-        <v>88312.94589289661</v>
+        <v>62371.19924025369</v>
       </c>
       <c r="H181" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>9681747</v>
+        <v>11353175</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1388558</v>
+        <v>1254297</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>243.5873898790774</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1300.283758041985</v>
       </c>
       <c r="H182" t="n">
-        <v>10.29</v>
+        <v>0.32</v>
       </c>
       <c r="I182" t="n">
-        <v>23000</v>
+        <v>74723</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3168770</v>
+        <v>3118023</v>
       </c>
       <c r="E183" t="n">
-        <v>3168770</v>
+        <v>3118023</v>
       </c>
       <c r="F183" t="n">
-        <v>478.5509826131787</v>
+        <v>353.7807174394409</v>
       </c>
       <c r="G183" t="n">
-        <v>313.8568721043046</v>
+        <v>531.4831859924298</v>
       </c>
       <c r="H183" t="n">
-        <v>1.23</v>
+        <v>0.8</v>
       </c>
       <c r="I183" t="n">
-        <v>425968</v>
+        <v>397931</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>588299</v>
+        <v>560139</v>
       </c>
       <c r="E184" t="n">
-        <v>588299</v>
+        <v>560139</v>
       </c>
       <c r="F184" t="n">
-        <v>1.713328651406459</v>
+        <v>3.614727427635655</v>
       </c>
       <c r="G184" t="n">
-        <v>4.837561780618833</v>
+        <v>1.224717220953119</v>
       </c>
       <c r="H184" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="I184" t="n">
-        <v>1138224</v>
+        <v>98696</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15316087</v>
+        <v>15066802</v>
       </c>
       <c r="E185" t="n">
-        <v>19499824</v>
+        <v>19182444</v>
       </c>
       <c r="F185" t="n">
-        <v>648.5007981911604</v>
+        <v>1045.323967230137</v>
       </c>
       <c r="G185" t="n">
-        <v>753.4925526818697</v>
+        <v>493.8157217881189</v>
       </c>
       <c r="H185" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="I185" t="n">
-        <v>953751</v>
+        <v>971650</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1815509</v>
+        <v>1820596</v>
       </c>
       <c r="E186" t="n">
-        <v>1815509</v>
+        <v>1820596</v>
       </c>
       <c r="F186" t="n">
-        <v>33.52239435882225</v>
+        <v>33.51955912423431</v>
       </c>
       <c r="G186" t="n">
-        <v>3.994999679552599</v>
+        <v>8.255635469115896</v>
       </c>
       <c r="H186" t="n">
         <v>3.22</v>
       </c>
       <c r="I186" t="n">
-        <v>3861.15</v>
+        <v>3793.18</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>51517894</v>
+        <v>51134332</v>
       </c>
       <c r="E187" t="n">
-        <v>334079834</v>
+        <v>331592532</v>
       </c>
       <c r="F187" t="n">
-        <v>142497.5023764157</v>
+        <v>127528.9927116889</v>
       </c>
       <c r="G187" t="n">
-        <v>222168.9856215638</v>
+        <v>100215.2286025138</v>
       </c>
       <c r="H187" t="n">
         <v>0.06</v>
       </c>
       <c r="I187" t="n">
-        <v>17690460</v>
+        <v>19053485</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9089223</v>
+        <v>9084523</v>
       </c>
       <c r="F188" t="n">
-        <v>911.2507060474117</v>
+        <v>670.160905639529</v>
       </c>
       <c r="G188" t="n">
-        <v>385.3664649187444</v>
+        <v>209.7909492258374</v>
       </c>
       <c r="H188" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="I188" t="n">
-        <v>295286</v>
+        <v>293272</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7195907</v>
+        <v>7286666</v>
       </c>
       <c r="E189" t="n">
-        <v>7206213</v>
+        <v>7297095</v>
       </c>
       <c r="F189" t="n">
-        <v>1.27589275891415</v>
+        <v>68.95149047859788</v>
       </c>
       <c r="G189" t="n">
-        <v>136.2369764214515</v>
+        <v>81.30791332521706</v>
       </c>
       <c r="H189" t="n">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
       <c r="I189" t="n">
-        <v>707870</v>
+        <v>544018</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4762040</v>
+        <v>4789109</v>
       </c>
       <c r="F190" t="n">
-        <v>2380.723852685034</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>2108.337689742839</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="I190" t="n">
-        <v>205424</v>
+        <v>236700</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>108731031</v>
+        <v>106685660</v>
       </c>
       <c r="E191" t="n">
-        <v>109901447</v>
+        <v>107834054</v>
       </c>
       <c r="F191" t="n">
-        <v>9889.314182434164</v>
+        <v>21896.89611331439</v>
       </c>
       <c r="G191" t="n">
-        <v>57799.32202666375</v>
+        <v>39896.94091079451</v>
       </c>
       <c r="H191" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I191" t="n">
-        <v>71332285</v>
+        <v>80071591</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>254757322</v>
+        <v>248900840</v>
       </c>
       <c r="E192" t="n">
-        <v>254757322</v>
+        <v>248900840</v>
       </c>
       <c r="F192" t="n">
-        <v>105587.2748488896</v>
+        <v>72100.48335298953</v>
       </c>
       <c r="G192" t="n">
-        <v>89680.73704089434</v>
+        <v>89768.19423929229</v>
       </c>
       <c r="H192" t="n">
         <v>0.12</v>
       </c>
       <c r="I192" t="n">
-        <v>57117857</v>
+        <v>70685163</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24445399</v>
+        <v>24227644</v>
       </c>
       <c r="E193" t="n">
-        <v>146261734</v>
+        <v>144958867</v>
       </c>
       <c r="F193" t="n">
-        <v>115684.8992207489</v>
+        <v>63141.54272033462</v>
       </c>
       <c r="G193" t="n">
-        <v>87746.70206427781</v>
+        <v>104129.5239532098</v>
       </c>
       <c r="H193" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>14399503</v>
+        <v>15879059</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14504918</v>
+        <v>13940265</v>
       </c>
       <c r="E194" t="n">
-        <v>43837889</v>
+        <v>42131350</v>
       </c>
       <c r="F194" t="n">
-        <v>496.964934315215</v>
+        <v>536.0546678583009</v>
       </c>
       <c r="G194" t="n">
-        <v>796.2796953105344</v>
+        <v>2010.73328329903</v>
       </c>
       <c r="H194" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="I194" t="n">
-        <v>2580707</v>
+        <v>2527204</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>55447576</v>
+        <v>54123715</v>
       </c>
       <c r="E195" t="n">
-        <v>95770018</v>
+        <v>93483422</v>
       </c>
       <c r="F195" t="n">
-        <v>8083.517036700888</v>
+        <v>7334.202905851876</v>
       </c>
       <c r="G195" t="n">
-        <v>13957.10276577375</v>
+        <v>9019.832182764074</v>
       </c>
       <c r="H195" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="I195" t="n">
-        <v>2347682</v>
+        <v>2378499</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4253022</v>
+        <v>4221344</v>
       </c>
       <c r="E196" t="n">
-        <v>4253022</v>
+        <v>4221344</v>
       </c>
       <c r="F196" t="n">
-        <v>263.973512491427</v>
+        <v>129.8996678425797</v>
       </c>
       <c r="G196" t="n">
-        <v>1.04814639452324</v>
+        <v>108.9090308336169</v>
       </c>
       <c r="H196" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="I196" t="n">
-        <v>1137817</v>
+        <v>1758573</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211043</v>
+        <v>212968</v>
       </c>
       <c r="F197" t="n">
-        <v>206.3009311725601</v>
+        <v>102.7146077967238</v>
       </c>
       <c r="G197" t="n">
-        <v>64.55651505788228</v>
+        <v>13.35463289840594</v>
       </c>
       <c r="H197" t="n">
-        <v>2.69</v>
+        <v>1.32</v>
       </c>
       <c r="I197" t="n">
-        <v>56866</v>
+        <v>58365</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6930796</v>
+        <v>6579500</v>
       </c>
       <c r="E198" t="n">
-        <v>35656840</v>
+        <v>33849526</v>
       </c>
       <c r="F198" t="n">
-        <v>192.6380211644139</v>
+        <v>253.6462809243553</v>
       </c>
       <c r="G198" t="n">
-        <v>412.432680398474</v>
+        <v>611.6649559569747</v>
       </c>
       <c r="H198" t="n">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="I198" t="n">
-        <v>951413</v>
+        <v>952587</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>177247768</v>
+        <v>177113518</v>
       </c>
       <c r="E199" t="n">
-        <v>207077729</v>
+        <v>206920885</v>
       </c>
       <c r="F199" t="n">
-        <v>33488.11478044363</v>
+        <v>37799.9084231396</v>
       </c>
       <c r="G199" t="n">
-        <v>24624.96391939265</v>
+        <v>31001.07467894835</v>
       </c>
       <c r="H199" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="I199" t="n">
-        <v>4232061</v>
+        <v>4372875</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>306607</v>
+        <v>306840</v>
       </c>
       <c r="F200" t="n">
-        <v>102.8089500024518</v>
+        <v>15.41833408204713</v>
       </c>
       <c r="G200" t="n">
-        <v>5.750870707486551</v>
+        <v>12.53207130364814</v>
       </c>
       <c r="H200" t="n">
-        <v>2.59</v>
+        <v>3.51</v>
       </c>
       <c r="I200" t="n">
-        <v>267712</v>
+        <v>259609</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7944920</v>
+        <v>7676283</v>
       </c>
       <c r="F201" t="n">
-        <v>1114.774548791633</v>
+        <v>938.5505036444456</v>
       </c>
       <c r="G201" t="n">
-        <v>694.0792968778682</v>
+        <v>596.0813306229512</v>
       </c>
       <c r="H201" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="I201" t="n">
-        <v>649113</v>
+        <v>652010</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33861</v>
+        <v>34004</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>310.68</v>
+        <v>192.37</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33857327</v>
+        <v>33924700</v>
       </c>
       <c r="E203" t="n">
-        <v>168963670</v>
+        <v>169299890</v>
       </c>
       <c r="F203" t="n">
-        <v>115000.9642330776</v>
+        <v>110975.8415340341</v>
       </c>
       <c r="G203" t="n">
-        <v>106738.8070667876</v>
+        <v>97809.53013115696</v>
       </c>
       <c r="H203" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I203" t="n">
-        <v>12350316</v>
+        <v>13341806</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1980579</v>
+        <v>1971878</v>
       </c>
       <c r="E204" t="n">
-        <v>1980579</v>
+        <v>1971878</v>
       </c>
       <c r="F204" t="n">
-        <v>153.308225565809</v>
+        <v>182.8004322899117</v>
       </c>
       <c r="G204" t="n">
-        <v>6.018234654673958</v>
+        <v>6.017725648459527</v>
       </c>
       <c r="H204" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="I204" t="n">
-        <v>10192.95</v>
+        <v>9110.51</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>178951</v>
+        <v>169173</v>
       </c>
       <c r="F205" t="n">
-        <v>50.1102503449833</v>
+        <v>24.61732475078059</v>
       </c>
       <c r="G205" t="n">
-        <v>163.1232686958598</v>
+        <v>3.294111942174112</v>
       </c>
       <c r="H205" t="n">
-        <v>1.16</v>
+        <v>2.98</v>
       </c>
       <c r="I205" t="n">
-        <v>21926</v>
+        <v>19926.38</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2826.9</v>
+        <v>2929.23</v>
       </c>
       <c r="E206" t="n">
-        <v>33788</v>
+        <v>35011</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.02</v>
+        <v>5.29</v>
       </c>
       <c r="I206" t="n">
-        <v>1516.77</v>
+        <v>4266.98</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>328224496</v>
+        <v>323288570</v>
       </c>
       <c r="E208" t="n">
-        <v>607290168</v>
+        <v>598157580</v>
       </c>
       <c r="F208" t="n">
-        <v>194522.5794243805</v>
+        <v>59165.71614536739</v>
       </c>
       <c r="G208" t="n">
-        <v>197213.722794517</v>
+        <v>89854.92333425701</v>
       </c>
       <c r="H208" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="I208" t="n">
-        <v>13934450</v>
+        <v>14812285</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72852201</v>
+        <v>72329913</v>
       </c>
       <c r="E209" t="n">
-        <v>694921194</v>
+        <v>689929501</v>
       </c>
       <c r="F209" t="n">
-        <v>311792.3512949692</v>
+        <v>374591.8907846599</v>
       </c>
       <c r="G209" t="n">
-        <v>134296.0302113157</v>
+        <v>197036.0577906865</v>
       </c>
       <c r="H209" t="n">
         <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>21104285</v>
+        <v>22447502</v>
       </c>
     </row>
     <row r="210">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2406090</v>
+        <v>2407940</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7751,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>4.44</v>
+        <v>5.03</v>
       </c>
       <c r="I210" t="n">
-        <v>46173</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82183</v>
+        <v>83551</v>
       </c>
       <c r="E211" t="n">
-        <v>683201</v>
+        <v>694576</v>
       </c>
       <c r="F211" t="n">
-        <v>214.9162981732738</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>23.58249019219943</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>1.45</v>
+        <v>7.14</v>
       </c>
       <c r="I211" t="n">
-        <v>150.01</v>
+        <v>118.43</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1922763</v>
+        <v>1885010</v>
       </c>
       <c r="E212" t="n">
-        <v>5491165</v>
+        <v>5383347</v>
       </c>
       <c r="F212" t="n">
-        <v>2743.262691161592</v>
+        <v>2928.854967804145</v>
       </c>
       <c r="G212" t="n">
-        <v>414.3239143531524</v>
+        <v>219.8235041849957</v>
       </c>
       <c r="H212" t="n">
-        <v>0.76</v>
+        <v>1.15</v>
       </c>
       <c r="I212" t="n">
-        <v>78203</v>
+        <v>79273</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>10951836</v>
+        <v>9937371</v>
       </c>
       <c r="E213" t="n">
-        <v>32483601</v>
+        <v>29459719</v>
       </c>
       <c r="F213" t="n">
-        <v>2294.480561656384</v>
+        <v>2477.219024303759</v>
       </c>
       <c r="G213" t="n">
-        <v>2266.364440417228</v>
+        <v>2933.896465997253</v>
       </c>
       <c r="H213" t="n">
-        <v>0.23</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I213" t="n">
-        <v>5980485</v>
+        <v>6136806</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14493376</v>
+        <v>14554568</v>
       </c>
       <c r="F214" t="n">
-        <v>328.2825021837923</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>99.21098923204913</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>3.51</v>
+        <v>5.87</v>
       </c>
       <c r="I214" t="n">
-        <v>538.58</v>
+        <v>410.27</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2005825</v>
+        <v>2020542</v>
       </c>
       <c r="E215" t="n">
-        <v>5802353</v>
+        <v>5844927</v>
       </c>
       <c r="F215" t="n">
-        <v>85.5247675758406</v>
+        <v>82.36767167682031</v>
       </c>
       <c r="G215" t="n">
-        <v>657.5916932500635</v>
+        <v>655.8134474552721</v>
       </c>
       <c r="H215" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="I215" t="n">
-        <v>54155</v>
+        <v>53927</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2324446</v>
+        <v>2267446</v>
       </c>
       <c r="E216" t="n">
-        <v>20503156</v>
+        <v>20000378</v>
       </c>
       <c r="F216" t="n">
-        <v>369.8241009764054</v>
+        <v>3318.378773905558</v>
       </c>
       <c r="G216" t="n">
-        <v>56.82285133589809</v>
+        <v>1882.135437500856</v>
       </c>
       <c r="H216" t="n">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="I216" t="n">
-        <v>99870</v>
+        <v>48472</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45415870</v>
+        <v>45364491</v>
       </c>
       <c r="E217" t="n">
-        <v>45415870</v>
+        <v>45364491</v>
       </c>
       <c r="F217" t="n">
-        <v>40203.72766018208</v>
+        <v>37296.99105495693</v>
       </c>
       <c r="G217" t="n">
-        <v>33402.39631725141</v>
+        <v>50363.93801603537</v>
       </c>
       <c r="H217" t="n">
         <v>0.09</v>
       </c>
       <c r="I217" t="n">
-        <v>9533509</v>
+        <v>10123236</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8273414</v>
+        <v>8099347</v>
       </c>
       <c r="E218" t="n">
-        <v>11787719</v>
+        <v>11539714</v>
       </c>
       <c r="F218" t="n">
-        <v>5663.585993124275</v>
+        <v>1943.396749081023</v>
       </c>
       <c r="G218" t="n">
-        <v>141.3152509410339</v>
+        <v>465.1574239567116</v>
       </c>
       <c r="H218" t="n">
-        <v>0.38</v>
+        <v>0.68</v>
       </c>
       <c r="I218" t="n">
-        <v>373261</v>
+        <v>376086</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16332961</v>
+        <v>16440150</v>
       </c>
       <c r="F219" t="n">
-        <v>2839.709003321417</v>
+        <v>2.119754299380537</v>
       </c>
       <c r="G219" t="n">
-        <v>2.082281480464422</v>
+        <v>185.3762947082299</v>
       </c>
       <c r="H219" t="n">
-        <v>0.85</v>
+        <v>1.32</v>
       </c>
       <c r="I219" t="n">
-        <v>1045157</v>
+        <v>1059734</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>722619</v>
+        <v>726539</v>
       </c>
       <c r="F220" t="n">
-        <v>84.19982407956648</v>
+        <v>84.19270268331496</v>
       </c>
       <c r="G220" t="n">
-        <v>309.3585775740761</v>
+        <v>309.3324128517766</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>211103</v>
+        <v>209238</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2912026</v>
+        <v>2897683</v>
       </c>
       <c r="E221" t="n">
-        <v>2914549</v>
+        <v>2900192</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>4.19</v>
+        <v>3.96</v>
       </c>
       <c r="I221" t="n">
-        <v>104264</v>
+        <v>95969</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1295229</v>
+        <v>1303120</v>
       </c>
       <c r="E222" t="n">
-        <v>3917006</v>
+        <v>3942998</v>
       </c>
       <c r="F222" t="n">
-        <v>655.0565517680296</v>
+        <v>234.9352578970026</v>
       </c>
       <c r="G222" t="n">
-        <v>838.5967638295136</v>
+        <v>1149.040044332617</v>
       </c>
       <c r="H222" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I222" t="n">
-        <v>33814</v>
+        <v>36926</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>39379005</v>
+        <v>34653585</v>
       </c>
       <c r="E223" t="n">
-        <v>279190721</v>
+        <v>245688267</v>
       </c>
       <c r="F223" t="n">
-        <v>74522.99178749924</v>
+        <v>19950.00071906787</v>
       </c>
       <c r="G223" t="n">
-        <v>58355.67357386572</v>
+        <v>50864.72620680788</v>
       </c>
       <c r="H223" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I223" t="n">
-        <v>2123802</v>
+        <v>3807078</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>64044</v>
+        <v>59640</v>
       </c>
       <c r="E224" t="n">
-        <v>334155</v>
+        <v>311176</v>
       </c>
       <c r="F224" t="n">
-        <v>1190.731024322632</v>
+        <v>12.01160230610524</v>
       </c>
       <c r="G224" t="n">
-        <v>24.2795246747189</v>
+        <v>38.50780168371814</v>
       </c>
       <c r="H224" t="n">
-        <v>1.47</v>
+        <v>3.84</v>
       </c>
       <c r="I224" t="n">
-        <v>225481</v>
+        <v>219468</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1313067</v>
+        <v>1291374</v>
       </c>
       <c r="E225" t="n">
-        <v>8142975</v>
+        <v>8008446</v>
       </c>
       <c r="F225" t="n">
-        <v>1911.981292894932</v>
+        <v>1490.128451360351</v>
       </c>
       <c r="G225" t="n">
-        <v>2051.628181208738</v>
+        <v>1598.058769469435</v>
       </c>
       <c r="H225" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="I225" t="n">
-        <v>796857</v>
+        <v>801484</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>614991370</v>
+        <v>606142679</v>
       </c>
       <c r="E226" t="n">
-        <v>2381770842</v>
+        <v>2347501167</v>
       </c>
       <c r="F226" t="n">
-        <v>401177.5797303479</v>
+        <v>243373.2380119814</v>
       </c>
       <c r="G226" t="n">
-        <v>347673.0177661164</v>
+        <v>320874.9965484065</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>43518949</v>
+        <v>52351661</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>21373151</v>
+        <v>21039266</v>
       </c>
       <c r="F227" t="n">
-        <v>1303.020932899881</v>
+        <v>1110.561740974637</v>
       </c>
       <c r="G227" t="n">
-        <v>890.7491915946355</v>
+        <v>336.7505548343672</v>
       </c>
       <c r="H227" t="n">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="I227" t="n">
-        <v>17430395</v>
+        <v>17602979</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>958095</v>
+        <v>808715</v>
       </c>
       <c r="F228" t="n">
-        <v>76.07506119345484</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>178.8869351332228</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>2.7</v>
+        <v>4.04</v>
       </c>
       <c r="I228" t="n">
-        <v>179144</v>
+        <v>174546</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5597854</v>
+        <v>5474603</v>
       </c>
       <c r="E229" t="n">
-        <v>25058396</v>
+        <v>24506670</v>
       </c>
       <c r="F229" t="n">
-        <v>1065.746906557041</v>
+        <v>1861.529401773101</v>
       </c>
       <c r="G229" t="n">
-        <v>1640.580623468685</v>
+        <v>4764.445815545585</v>
       </c>
       <c r="H229" t="n">
-        <v>0.8</v>
+        <v>0.41</v>
       </c>
       <c r="I229" t="n">
-        <v>160203</v>
+        <v>182712</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6620287</v>
+        <v>6657249</v>
       </c>
       <c r="E230" t="n">
-        <v>12675077</v>
+        <v>12745844</v>
       </c>
       <c r="F230" t="n">
-        <v>4221.227276599568</v>
+        <v>91.71872562705408</v>
       </c>
       <c r="G230" t="n">
-        <v>4316.070640832118</v>
+        <v>387.0019206275021</v>
       </c>
       <c r="H230" t="n">
-        <v>0.98</v>
+        <v>2.34</v>
       </c>
       <c r="I230" t="n">
-        <v>56325</v>
+        <v>36119</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3214921</v>
+        <v>3196259</v>
       </c>
       <c r="E231" t="n">
-        <v>21140574</v>
+        <v>21017853</v>
       </c>
       <c r="F231" t="n">
-        <v>944.5817078702196</v>
+        <v>235.0280742153468</v>
       </c>
       <c r="G231" t="n">
-        <v>322.5198771133672</v>
+        <v>385.9604337297031</v>
       </c>
       <c r="H231" t="n">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="I231" t="n">
-        <v>1590491</v>
+        <v>1622564</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>116274047</v>
+        <v>114760483</v>
       </c>
       <c r="E232" t="n">
-        <v>1080335743</v>
+        <v>1066272788</v>
       </c>
       <c r="F232" t="n">
-        <v>205792.8539507673</v>
+        <v>109836.6415344491</v>
       </c>
       <c r="G232" t="n">
-        <v>227815.0020951268</v>
+        <v>67068.96097397142</v>
       </c>
       <c r="H232" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I232" t="n">
-        <v>10564880</v>
+        <v>8988340</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>4.15</v>
+        <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>290.8</v>
+        <v>350.08</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>112790630</v>
+        <v>102830522</v>
       </c>
       <c r="E234" t="n">
-        <v>172064750</v>
+        <v>156870372</v>
       </c>
       <c r="F234" t="n">
-        <v>10561.86653860112</v>
+        <v>36926.67937686373</v>
       </c>
       <c r="G234" t="n">
-        <v>10326.87570134735</v>
+        <v>26523.30645025428</v>
       </c>
       <c r="H234" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="I234" t="n">
-        <v>8913833</v>
+        <v>10581484</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16880536</v>
+        <v>16729889</v>
       </c>
       <c r="E235" t="n">
-        <v>23158633</v>
+        <v>22951959</v>
       </c>
       <c r="F235" t="n">
-        <v>777.5417285747153</v>
+        <v>2084.118325410251</v>
       </c>
       <c r="G235" t="n">
-        <v>761.1137537758457</v>
+        <v>571.0540622258164</v>
       </c>
       <c r="H235" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
-        <v>780310</v>
+        <v>747033</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>125859327</v>
+        <v>126073482</v>
       </c>
       <c r="E236" t="n">
-        <v>482816636</v>
+        <v>483638170</v>
       </c>
       <c r="F236" t="n">
-        <v>400590.7160227245</v>
+        <v>428704.9529235025</v>
       </c>
       <c r="G236" t="n">
-        <v>556919.2220258657</v>
+        <v>398724.0020771968</v>
       </c>
       <c r="H236" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="I236" t="n">
-        <v>38764632</v>
+        <v>40814677</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>671502</v>
+        <v>668676</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>9.77</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I237" t="n">
-        <v>43163</v>
+        <v>41352</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>787243</v>
+        <v>784341</v>
       </c>
       <c r="F238" t="n">
-        <v>110.0440688796609</v>
+        <v>719.0613209979324</v>
       </c>
       <c r="G238" t="n">
-        <v>82.87263090989053</v>
+        <v>188.6792120498195</v>
       </c>
       <c r="H238" t="n">
-        <v>2.76</v>
+        <v>1.8</v>
       </c>
       <c r="I238" t="n">
-        <v>179422</v>
+        <v>201275</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3321880</v>
+        <v>3171640</v>
       </c>
       <c r="E239" t="n">
-        <v>31475305</v>
+        <v>30051756</v>
       </c>
       <c r="F239" t="n">
-        <v>1286.105902451559</v>
+        <v>647.6615724775102</v>
       </c>
       <c r="G239" t="n">
-        <v>2278.579287956819</v>
+        <v>658.5004774511715</v>
       </c>
       <c r="H239" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="I239" t="n">
-        <v>201202</v>
+        <v>204884</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>731867</v>
+        <v>729680</v>
       </c>
       <c r="E240" t="n">
-        <v>782362</v>
+        <v>780024</v>
       </c>
       <c r="F240" t="n">
-        <v>100.4537708274186</v>
+        <v>64.82661646742987</v>
       </c>
       <c r="G240" t="n">
-        <v>1569.880563822348</v>
+        <v>1569.750554470339</v>
       </c>
       <c r="H240" t="n">
-        <v>2.4</v>
+        <v>1.51</v>
       </c>
       <c r="I240" t="n">
-        <v>122819</v>
+        <v>120777</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>384065</v>
+        <v>384208</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>14</v>
+        <v>13.07</v>
       </c>
       <c r="I241" t="n">
-        <v>768.52</v>
+        <v>770.1900000000001</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>135922</v>
+        <v>129530</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>5.04</v>
+        <v>5.76</v>
       </c>
       <c r="I242" t="n">
-        <v>68922</v>
+        <v>68501</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>571647</v>
+        <v>565367</v>
       </c>
       <c r="F243" t="n">
-        <v>67.07226345953217</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>86.14618100162153</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>2.13</v>
+        <v>4.21</v>
       </c>
       <c r="I243" t="n">
-        <v>7690.92</v>
+        <v>7886.68</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6796216</v>
+        <v>6802168</v>
       </c>
       <c r="E244" t="n">
-        <v>42474404</v>
+        <v>42511602</v>
       </c>
       <c r="F244" t="n">
-        <v>104.9004615526563</v>
+        <v>265.0584114895663</v>
       </c>
       <c r="G244" t="n">
-        <v>1225.469290013308</v>
+        <v>1352.130170415739</v>
       </c>
       <c r="H244" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I244" t="n">
-        <v>413144</v>
+        <v>411749</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5274046</v>
+        <v>5248723</v>
       </c>
       <c r="E245" t="n">
-        <v>19598454</v>
+        <v>19504355</v>
       </c>
       <c r="F245" t="n">
-        <v>6017.564533383155</v>
+        <v>810.8438620891372</v>
       </c>
       <c r="G245" t="n">
-        <v>7082.256179459741</v>
+        <v>5302.520147821302</v>
       </c>
       <c r="H245" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I245" t="n">
-        <v>80709</v>
+        <v>139729</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3548199</v>
+        <v>3517893</v>
       </c>
       <c r="F246" t="n">
-        <v>372.166343408486</v>
+        <v>266.3830686637954</v>
       </c>
       <c r="G246" t="n">
-        <v>7022.002850077813</v>
+        <v>6834.010199916165</v>
       </c>
       <c r="H246" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="I246" t="n">
-        <v>27522</v>
+        <v>28531</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31508347</v>
+        <v>31482584</v>
       </c>
       <c r="E247" t="n">
-        <v>112937267</v>
+        <v>112844923</v>
       </c>
       <c r="F247" t="n">
-        <v>2228.09050833661</v>
+        <v>2215.230786812098</v>
       </c>
       <c r="G247" t="n">
-        <v>4309.213344762532</v>
+        <v>4364.524328036203</v>
       </c>
       <c r="H247" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="I247" t="n">
-        <v>76347</v>
+        <v>75576</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1541956</v>
+        <v>1538444</v>
       </c>
       <c r="F248" t="n">
-        <v>37.86092728907898</v>
+        <v>6.280427531531636</v>
       </c>
       <c r="G248" t="n">
-        <v>8.224239390723287</v>
+        <v>261.6324582724774</v>
       </c>
       <c r="H248" t="n">
-        <v>1.28</v>
+        <v>3.18</v>
       </c>
       <c r="I248" t="n">
-        <v>598971</v>
+        <v>603905</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2190530</v>
+        <v>2144102</v>
       </c>
       <c r="E249" t="n">
-        <v>16848937</v>
+        <v>16491826</v>
       </c>
       <c r="F249" t="n">
-        <v>4635.542971515922</v>
+        <v>132.4137187831659</v>
       </c>
       <c r="G249" t="n">
-        <v>4854.986533323812</v>
+        <v>484.7760863703767</v>
       </c>
       <c r="H249" t="n">
-        <v>0.59</v>
+        <v>0.24</v>
       </c>
       <c r="I249" t="n">
-        <v>210705</v>
+        <v>225551</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103350</v>
+        <v>103434</v>
       </c>
       <c r="E250" t="n">
-        <v>820909</v>
+        <v>821579</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2887916564177</v>
+        <v>158.2756830010793</v>
       </c>
       <c r="G250" t="n">
-        <v>347.250717261233</v>
+        <v>347.2219597609645</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>213.93</v>
+        <v>214.44</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88899590</v>
+        <v>88642332</v>
       </c>
       <c r="E251" t="n">
-        <v>328615497</v>
+        <v>327662936</v>
       </c>
       <c r="F251" t="n">
-        <v>5628.176171116038</v>
+        <v>6198.9416091887</v>
       </c>
       <c r="G251" t="n">
-        <v>6065.792028479123</v>
+        <v>5957.271822747857</v>
       </c>
       <c r="H251" t="n">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="I251" t="n">
-        <v>174837</v>
+        <v>204734</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2146387</v>
+        <v>2186167</v>
       </c>
       <c r="E252" t="n">
-        <v>8604538</v>
+        <v>8764009</v>
       </c>
       <c r="F252" t="n">
-        <v>307.2483526883619</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>334.0879140187539</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>3.2</v>
+        <v>4.61</v>
       </c>
       <c r="I252" t="n">
-        <v>14943.99</v>
+        <v>14529.07</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>574962</v>
+        <v>575062</v>
       </c>
       <c r="F253" t="n">
-        <v>3.430813781279434</v>
+        <v>16.6801271647373</v>
       </c>
       <c r="G253" t="n">
-        <v>25.00381621269876</v>
+        <v>25.00169053031347</v>
       </c>
       <c r="H253" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="I253" t="n">
-        <v>2978.42</v>
+        <v>2882.06</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39039</v>
+        <v>39204</v>
       </c>
       <c r="F254" t="n">
-        <v>103.7358551074913</v>
+        <v>103.7272189114462</v>
       </c>
       <c r="G254" t="n">
-        <v>4.134351720572245</v>
+        <v>5.160813074050152</v>
       </c>
       <c r="H254" t="n">
-        <v>0.25</v>
+        <v>0.76</v>
       </c>
       <c r="I254" t="n">
-        <v>2088.03</v>
+        <v>1769.44</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>818509876</v>
+        <v>817230162</v>
       </c>
       <c r="E255" t="n">
-        <v>1262214496</v>
+        <v>1260241063</v>
       </c>
       <c r="F255" t="n">
-        <v>167212.3548194954</v>
+        <v>133868.8511791428</v>
       </c>
       <c r="G255" t="n">
-        <v>193341.8834758031</v>
+        <v>161606.9864113783</v>
       </c>
       <c r="H255" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>307546324</v>
+        <v>333209617</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5884509</v>
+        <v>5902843</v>
       </c>
       <c r="E256" t="n">
-        <v>5884509</v>
+        <v>5902843</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.6</v>
+        <v>9.09</v>
       </c>
       <c r="I256" t="n">
-        <v>364.12</v>
+        <v>354.63</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39937356</v>
+        <v>39908499</v>
       </c>
       <c r="E257" t="n">
-        <v>190460125</v>
+        <v>190321130</v>
       </c>
       <c r="F257" t="n">
-        <v>269.6882640209545</v>
+        <v>609.3009875808585</v>
       </c>
       <c r="G257" t="n">
-        <v>803.318513198207</v>
+        <v>233.2400752847414</v>
       </c>
       <c r="H257" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="I257" t="n">
-        <v>270115</v>
+        <v>270879</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>573121</v>
+        <v>572829</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>10.26</v>
+        <v>5.39</v>
       </c>
       <c r="I258" t="n">
-        <v>425.63</v>
+        <v>295.88</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23230280</v>
+        <v>23347183</v>
       </c>
       <c r="E259" t="n">
-        <v>38717133</v>
+        <v>38911972</v>
       </c>
       <c r="F259" t="n">
-        <v>17375.14061293356</v>
+        <v>10632.67266824146</v>
       </c>
       <c r="G259" t="n">
-        <v>17246.66096513113</v>
+        <v>4164.711887113896</v>
       </c>
       <c r="H259" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="I259" t="n">
-        <v>399553</v>
+        <v>497283</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107867</v>
+        <v>108015</v>
       </c>
       <c r="F260" t="n">
-        <v>167.846024129433</v>
+        <v>167.8116006756327</v>
       </c>
       <c r="G260" t="n">
-        <v>176.7417329249022</v>
+        <v>176.7270188585526</v>
       </c>
       <c r="H260" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I260" t="n">
-        <v>52890</v>
+        <v>53724</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1208555</v>
+        <v>1266397</v>
       </c>
       <c r="E261" t="n">
-        <v>5147491</v>
+        <v>5393851</v>
       </c>
       <c r="F261" t="n">
-        <v>1.161242811569266</v>
+        <v>412.057411378326</v>
       </c>
       <c r="G261" t="n">
-        <v>140.9996377204268</v>
+        <v>504.9029154361544</v>
       </c>
       <c r="H261" t="n">
-        <v>2.19</v>
+        <v>0.9</v>
       </c>
       <c r="I261" t="n">
-        <v>767429</v>
+        <v>778401</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3836861</v>
+        <v>3814438</v>
       </c>
       <c r="E262" t="n">
-        <v>8363819</v>
+        <v>8314939</v>
       </c>
       <c r="F262" t="n">
-        <v>1636.724661974644</v>
+        <v>1677.980917789363</v>
       </c>
       <c r="G262" t="n">
-        <v>1697.226168739662</v>
+        <v>2718.368161885674</v>
       </c>
       <c r="H262" t="n">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="I262" t="n">
-        <v>1787988</v>
+        <v>1818558</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>498142154</v>
+        <v>495161308</v>
       </c>
       <c r="E263" t="n">
-        <v>1733991379</v>
+        <v>1723615303</v>
       </c>
       <c r="F263" t="n">
-        <v>647548.8471847477</v>
+        <v>590321.4843770544</v>
       </c>
       <c r="G263" t="n">
-        <v>546714.7135615598</v>
+        <v>431624.8052280773</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>38902207</v>
+        <v>42890504</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5817103420</v>
+        <v>5752585510</v>
       </c>
       <c r="E264" t="n">
-        <v>5817103420</v>
+        <v>5752585510</v>
       </c>
       <c r="F264" t="n">
-        <v>2508.629642069692</v>
+        <v>1918.660358737793</v>
       </c>
       <c r="G264" t="n">
-        <v>1724.993752890948</v>
+        <v>2012.55860269941</v>
       </c>
       <c r="H264" t="n">
-        <v>0.13</v>
+        <v>0.79</v>
       </c>
       <c r="I264" t="n">
-        <v>29091042</v>
+        <v>34062440</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22356953</v>
+        <v>22404999</v>
       </c>
       <c r="E265" t="n">
-        <v>22337533</v>
+        <v>22385537</v>
       </c>
       <c r="F265" t="n">
-        <v>977.9393395213043</v>
+        <v>618.8791936714248</v>
       </c>
       <c r="G265" t="n">
-        <v>1743.446181191825</v>
+        <v>1067.682252058207</v>
       </c>
       <c r="H265" t="n">
-        <v>0.49</v>
+        <v>0.97</v>
       </c>
       <c r="I265" t="n">
-        <v>398292</v>
+        <v>404847</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12011042</v>
+        <v>11907384</v>
       </c>
       <c r="E266" t="n">
-        <v>24262548</v>
+        <v>24049190</v>
       </c>
       <c r="F266" t="n">
-        <v>707.6683134761181</v>
+        <v>676.1817648618388</v>
       </c>
       <c r="G266" t="n">
-        <v>867.0009810441229</v>
+        <v>722.9753562230788</v>
       </c>
       <c r="H266" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>59607</v>
+        <v>56135</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>148683</v>
+        <v>148826</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5670854740074</v>
+        <v>182.5513252580613</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1417976774644</v>
+        <v>132.1303904555026</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>54353</v>
+        <v>55487</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>46797</v>
+        <v>47215</v>
       </c>
       <c r="F268" t="n">
-        <v>75.25464345687899</v>
+        <v>73.6380648892018</v>
       </c>
       <c r="G268" t="n">
-        <v>1.000152594096059</v>
+        <v>1.000067293190353</v>
       </c>
       <c r="H268" t="n">
         <v>2.1</v>
       </c>
       <c r="I268" t="n">
-        <v>69818</v>
+        <v>69679</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2631167</v>
+        <v>2577927</v>
       </c>
       <c r="E269" t="n">
-        <v>10524667</v>
+        <v>10311707</v>
       </c>
       <c r="F269" t="n">
-        <v>48721.8199189352</v>
+        <v>16534.80441829519</v>
       </c>
       <c r="G269" t="n">
-        <v>49421.14690761142</v>
+        <v>41521.67479122303</v>
       </c>
       <c r="H269" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="I269" t="n">
-        <v>7041015</v>
+        <v>7116928</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>226825438</v>
+        <v>221168081</v>
       </c>
       <c r="E270" t="n">
-        <v>697402861</v>
+        <v>680008620</v>
       </c>
       <c r="F270" t="n">
-        <v>286333.6199749018</v>
+        <v>218699.1763752131</v>
       </c>
       <c r="G270" t="n">
-        <v>243466.3701061257</v>
+        <v>209250.1036936965</v>
       </c>
       <c r="H270" t="n">
         <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>22395335</v>
+        <v>19782181</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>145842535</v>
+        <v>142061012</v>
       </c>
       <c r="E271" t="n">
-        <v>381009576</v>
+        <v>371130453</v>
       </c>
       <c r="F271" t="n">
-        <v>71155.10509054906</v>
+        <v>44945.18004991186</v>
       </c>
       <c r="G271" t="n">
-        <v>60512.14779770051</v>
+        <v>50749.90410293637</v>
       </c>
       <c r="H271" t="n">
         <v>0.27</v>
       </c>
       <c r="I271" t="n">
-        <v>8459766</v>
+        <v>8672423</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2465206</v>
+        <v>2426234</v>
       </c>
       <c r="E272" t="n">
-        <v>3383506</v>
+        <v>3329724</v>
       </c>
       <c r="F272" t="n">
-        <v>99.02133421636893</v>
+        <v>157.7243177427198</v>
       </c>
       <c r="G272" t="n">
-        <v>8.527233312855945</v>
+        <v>14.13634053455964</v>
       </c>
       <c r="H272" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="I272" t="n">
-        <v>2007486</v>
+        <v>1789962</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54617</v>
+        <v>56728</v>
       </c>
       <c r="F2" t="n">
-        <v>18.39521758411646</v>
+        <v>17.20664929409021</v>
       </c>
       <c r="G2" t="n">
-        <v>18.87504038707369</v>
+        <v>10.87897568453129</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>404.19</v>
+        <v>465.39</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>99435</v>
+        <v>99224</v>
       </c>
       <c r="F3" t="n">
-        <v>9.540557297640833</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>389.3283427777345</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.06</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>389.7</v>
+        <v>426.31</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>640704918</v>
+        <v>625922984</v>
       </c>
       <c r="E4" t="n">
-        <v>1243306620</v>
+        <v>1214623761</v>
       </c>
       <c r="F4" t="n">
-        <v>26608.81597156729</v>
+        <v>27010.84236633508</v>
       </c>
       <c r="G4" t="n">
-        <v>34248.43211887623</v>
+        <v>27451.89647484261</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>37058078</v>
+        <v>36417270</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1495036</v>
+        <v>1481726</v>
       </c>
       <c r="E5" t="n">
-        <v>4832571</v>
+        <v>4789545</v>
       </c>
       <c r="F5" t="n">
-        <v>634.8433813975015</v>
+        <v>687.9196000277869</v>
       </c>
       <c r="G5" t="n">
-        <v>1144.488126923841</v>
+        <v>1641.267133106332</v>
       </c>
       <c r="H5" t="n">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>223551</v>
+        <v>226118</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>148253321</v>
+        <v>146096221</v>
       </c>
       <c r="E6" t="n">
-        <v>164287848</v>
+        <v>161897444</v>
       </c>
       <c r="F6" t="n">
-        <v>183135.1991997756</v>
+        <v>210063.5298790371</v>
       </c>
       <c r="G6" t="n">
-        <v>341571.5942394291</v>
+        <v>234482.0865649381</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>49218647</v>
+        <v>49493784</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3822.6</v>
+        <v>3823.58</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>154.02</v>
+        <v>153.71</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8667227</v>
+        <v>8635970</v>
       </c>
       <c r="E8" t="n">
-        <v>8885783</v>
+        <v>8853738</v>
       </c>
       <c r="F8" t="n">
-        <v>80.2773654405576</v>
+        <v>80.43746940234189</v>
       </c>
       <c r="G8" t="n">
-        <v>364.5921699459131</v>
+        <v>1342.977442850165</v>
       </c>
       <c r="H8" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="I8" t="n">
-        <v>100007</v>
+        <v>98708</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>295628</v>
+        <v>295505</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.85</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1004.08</v>
+        <v>890.17</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5032013</v>
+        <v>5028332</v>
       </c>
       <c r="E10" t="n">
-        <v>8039644</v>
+        <v>8033764</v>
       </c>
       <c r="F10" t="n">
-        <v>211.1384752296377</v>
+        <v>205.8180865807865</v>
       </c>
       <c r="G10" t="n">
-        <v>224.5923054935981</v>
+        <v>232.9177893282257</v>
       </c>
       <c r="H10" t="n">
         <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>97334</v>
+        <v>97480</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1006524</v>
+        <v>1003668</v>
       </c>
       <c r="E11" t="n">
-        <v>12317144</v>
+        <v>12282186</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.890153819314</v>
+        <v>1570.001019914795</v>
       </c>
       <c r="G11" t="n">
-        <v>1359.731543782305</v>
+        <v>1350.202811898433</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>476.14</v>
+        <v>446.36</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>576275</v>
+        <v>574188</v>
       </c>
       <c r="E12" t="n">
-        <v>576275</v>
+        <v>574188</v>
       </c>
       <c r="F12" t="n">
-        <v>155.8500599475487</v>
+        <v>166.0816388801875</v>
       </c>
       <c r="G12" t="n">
-        <v>249.0984306874046</v>
+        <v>263.2332572939449</v>
       </c>
       <c r="H12" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="I12" t="n">
-        <v>27886</v>
+        <v>27780</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4324945</v>
+        <v>4261269</v>
       </c>
       <c r="E13" t="n">
-        <v>26557356</v>
+        <v>26166348</v>
       </c>
       <c r="F13" t="n">
-        <v>1370.080260769566</v>
+        <v>839.1733135835451</v>
       </c>
       <c r="G13" t="n">
-        <v>477.59923534363</v>
+        <v>526.1766651920409</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="I13" t="n">
-        <v>712028</v>
+        <v>708487</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198036</v>
+        <v>197696</v>
       </c>
       <c r="E14" t="n">
-        <v>2178619</v>
+        <v>2174879</v>
       </c>
       <c r="F14" t="n">
-        <v>283.7190060737555</v>
+        <v>353.4844449535105</v>
       </c>
       <c r="G14" t="n">
-        <v>769.8278355735077</v>
+        <v>567.1499465774599</v>
       </c>
       <c r="H14" t="n">
-        <v>1.82</v>
+        <v>2.28</v>
       </c>
       <c r="I14" t="n">
-        <v>34311</v>
+        <v>33466</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3370696</v>
+        <v>3330225</v>
       </c>
       <c r="E15" t="n">
-        <v>9589332</v>
+        <v>9474196</v>
       </c>
       <c r="F15" t="n">
-        <v>480.3609284460383</v>
+        <v>372.8649501640626</v>
       </c>
       <c r="G15" t="n">
-        <v>94.07389743676721</v>
+        <v>162.1734130696546</v>
       </c>
       <c r="H15" t="n">
-        <v>1.86</v>
+        <v>1.36</v>
       </c>
       <c r="I15" t="n">
-        <v>113378</v>
+        <v>113176</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>316875</v>
+        <v>315461</v>
       </c>
       <c r="E16" t="n">
-        <v>3657118</v>
+        <v>3640794</v>
       </c>
       <c r="F16" t="n">
-        <v>132.5553961141034</v>
+        <v>132.1610798142148</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9330562032705</v>
+        <v>132.0143245638027</v>
       </c>
       <c r="H16" t="n">
-        <v>0.61</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>2645.23</v>
+        <v>2630.55</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>949405</v>
+        <v>946629</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.15</v>
+        <v>4.57</v>
       </c>
       <c r="I17" t="n">
-        <v>10634.46</v>
+        <v>10769.96</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24456296</v>
+        <v>24380076</v>
       </c>
       <c r="E18" t="n">
-        <v>24501405</v>
+        <v>24425044</v>
       </c>
       <c r="F18" t="n">
-        <v>1442.616245922736</v>
+        <v>156.696096536428</v>
       </c>
       <c r="G18" t="n">
-        <v>2679.541744872723</v>
+        <v>1056.716080221944</v>
       </c>
       <c r="H18" t="n">
-        <v>0.61</v>
+        <v>1.96</v>
       </c>
       <c r="I18" t="n">
-        <v>842933</v>
+        <v>872778</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6940540</v>
+        <v>6709702</v>
       </c>
       <c r="F19" t="n">
-        <v>260.1460961010876</v>
+        <v>234.4367667521148</v>
       </c>
       <c r="G19" t="n">
-        <v>13.70236007717164</v>
+        <v>13.70368777001453</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="I19" t="n">
-        <v>19242.65</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="20">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2461715</v>
+        <v>2450620</v>
       </c>
       <c r="E20" t="n">
-        <v>2461715</v>
+        <v>2450620</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.56</v>
+        <v>4.93</v>
       </c>
       <c r="I20" t="n">
-        <v>319003</v>
+        <v>316021</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>321099</v>
+        <v>334049</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5.31</v>
+        <v>7.76</v>
       </c>
       <c r="I21" t="n">
-        <v>8842.76</v>
+        <v>9342.67</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18052061</v>
+        <v>17954157</v>
       </c>
       <c r="E22" t="n">
-        <v>23234484</v>
+        <v>23108473</v>
       </c>
       <c r="F22" t="n">
-        <v>5371.943496572173</v>
+        <v>1380.330290498</v>
       </c>
       <c r="G22" t="n">
-        <v>4739.249276134644</v>
+        <v>3483.589115304528</v>
       </c>
       <c r="H22" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I22" t="n">
-        <v>2008692</v>
+        <v>2014503</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>518788427</v>
+        <v>511919889</v>
       </c>
       <c r="E23" t="n">
-        <v>518788428</v>
+        <v>511919889</v>
       </c>
       <c r="F23" t="n">
-        <v>65254.30236466355</v>
+        <v>66199.45138270513</v>
       </c>
       <c r="G23" t="n">
-        <v>78670.47528492246</v>
+        <v>62316.90842220691</v>
       </c>
       <c r="H23" t="n">
         <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>72788424</v>
+        <v>72548921</v>
       </c>
     </row>
     <row r="24">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>17088.3</v>
+        <v>17846.86</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>211.320313065811</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.167241559564838</v>
       </c>
       <c r="H24" t="n">
-        <v>4.05</v>
+        <v>3.38</v>
       </c>
       <c r="I24" t="n">
-        <v>3691.53</v>
+        <v>2223.42</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4702811</v>
+        <v>4727394</v>
       </c>
       <c r="E25" t="n">
-        <v>4702811</v>
+        <v>4727394</v>
       </c>
       <c r="F25" t="n">
-        <v>370.0551778889859</v>
+        <v>626.2343258745992</v>
       </c>
       <c r="G25" t="n">
-        <v>1332.744247013999</v>
+        <v>1421.003393989789</v>
       </c>
       <c r="H25" t="n">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
       <c r="I25" t="n">
-        <v>2240551</v>
+        <v>1510492</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3372453</v>
+        <v>3396589</v>
       </c>
       <c r="E26" t="n">
-        <v>3372453</v>
+        <v>3396589</v>
       </c>
       <c r="F26" t="n">
-        <v>1224.791696322928</v>
+        <v>1147.488738131295</v>
       </c>
       <c r="G26" t="n">
-        <v>448.2666235385286</v>
+        <v>567.9938365251385</v>
       </c>
       <c r="H26" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="I26" t="n">
-        <v>581764</v>
+        <v>574838</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>315309</v>
+        <v>309304</v>
       </c>
       <c r="E27" t="n">
-        <v>1471896</v>
+        <v>1443861</v>
       </c>
       <c r="F27" t="n">
-        <v>140.1226405574933</v>
+        <v>252.7185360002351</v>
       </c>
       <c r="G27" t="n">
-        <v>981.6450453865523</v>
+        <v>635.6357843354003</v>
       </c>
       <c r="H27" t="n">
-        <v>1.34</v>
+        <v>0.91</v>
       </c>
       <c r="I27" t="n">
-        <v>685916</v>
+        <v>663666</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2155190</v>
+        <v>1988748</v>
       </c>
       <c r="F28" t="n">
-        <v>252.68893605441</v>
+        <v>714.8044365834285</v>
       </c>
       <c r="G28" t="n">
-        <v>140.6957349701132</v>
+        <v>513.5962675578859</v>
       </c>
       <c r="H28" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="I28" t="n">
-        <v>633380</v>
+        <v>1202455</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12074068</v>
+        <v>12053574</v>
       </c>
       <c r="E29" t="n">
-        <v>30050171</v>
+        <v>29999164</v>
       </c>
       <c r="F29" t="n">
-        <v>921.7659111562226</v>
+        <v>727.1129913972117</v>
       </c>
       <c r="G29" t="n">
-        <v>956.0554118671795</v>
+        <v>1365.620296343919</v>
       </c>
       <c r="H29" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1410908</v>
+        <v>1431917</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>911050</v>
+        <v>910393</v>
       </c>
       <c r="E30" t="n">
-        <v>6377348</v>
+        <v>6372750</v>
       </c>
       <c r="F30" t="n">
-        <v>45.38186800871997</v>
+        <v>46.6001697944879</v>
       </c>
       <c r="G30" t="n">
-        <v>129.15382197014</v>
+        <v>140.959435789</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>1.9</v>
       </c>
       <c r="I30" t="n">
-        <v>140818</v>
+        <v>155554</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176064</v>
+        <v>175685</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>679.84</v>
+        <v>677.25</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5699832</v>
+        <v>5634248</v>
       </c>
       <c r="E32" t="n">
-        <v>5972512</v>
+        <v>5903791</v>
       </c>
       <c r="F32" t="n">
-        <v>30.62547878766572</v>
+        <v>373.174710850131</v>
       </c>
       <c r="G32" t="n">
-        <v>117.1879894124216</v>
+        <v>10.57174691684698</v>
       </c>
       <c r="H32" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
-        <v>194792</v>
+        <v>191159</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4892514</v>
+        <v>4952789</v>
       </c>
       <c r="E33" t="n">
-        <v>7202045</v>
+        <v>7290774</v>
       </c>
       <c r="F33" t="n">
-        <v>287.6210579970576</v>
+        <v>269.8672468383373</v>
       </c>
       <c r="G33" t="n">
-        <v>226.5765704832672</v>
+        <v>145.519997336588</v>
       </c>
       <c r="H33" t="n">
-        <v>0.32</v>
+        <v>1.41</v>
       </c>
       <c r="I33" t="n">
-        <v>560176</v>
+        <v>564192</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7501069</v>
+        <v>7465247</v>
       </c>
       <c r="E34" t="n">
-        <v>7501069</v>
+        <v>7465247</v>
       </c>
       <c r="F34" t="n">
-        <v>2811.060004072775</v>
+        <v>2178.830412467075</v>
       </c>
       <c r="G34" t="n">
-        <v>4162.04523954863</v>
+        <v>4364.799385537851</v>
       </c>
       <c r="H34" t="n">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="I34" t="n">
-        <v>430288</v>
+        <v>430545</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1597178</v>
+        <v>1621693</v>
       </c>
       <c r="E35" t="n">
-        <v>1597200</v>
+        <v>1621693</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>61.40708444703143</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73.68697272384379</v>
       </c>
       <c r="H35" t="n">
-        <v>4.14</v>
+        <v>1.82</v>
       </c>
       <c r="I35" t="n">
-        <v>278865</v>
+        <v>283551</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15803672</v>
+        <v>15846189</v>
       </c>
       <c r="F36" t="n">
-        <v>249.8257756586742</v>
+        <v>250.5672070762216</v>
       </c>
       <c r="G36" t="n">
-        <v>186.4980683314381</v>
+        <v>165.990932341484</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I36" t="n">
-        <v>9473.209999999999</v>
+        <v>9530.360000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55476</v>
+        <v>55486</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.98</v>
       </c>
       <c r="I37" t="n">
-        <v>1098.25</v>
+        <v>1141.81</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>145697335</v>
+        <v>143511789</v>
       </c>
       <c r="E38" t="n">
-        <v>145697335</v>
+        <v>143511789</v>
       </c>
       <c r="F38" t="n">
-        <v>349155.098375537</v>
+        <v>312807.1935719482</v>
       </c>
       <c r="G38" t="n">
-        <v>276508.8767635604</v>
+        <v>291214.0817407161</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>86246222</v>
+        <v>87411464</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>67519461</v>
+        <v>66421086</v>
       </c>
       <c r="E39" t="n">
-        <v>346253646</v>
+        <v>340620953</v>
       </c>
       <c r="F39" t="n">
-        <v>75888.83189364542</v>
+        <v>86079.68061441077</v>
       </c>
       <c r="G39" t="n">
-        <v>89275.39287951235</v>
+        <v>87568.71919597527</v>
       </c>
       <c r="H39" t="n">
         <v>0.18</v>
       </c>
       <c r="I39" t="n">
-        <v>26221257</v>
+        <v>26535885</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46398</v>
+        <v>46416</v>
       </c>
       <c r="E40" t="n">
-        <v>137115</v>
+        <v>137168</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>12.34</v>
+        <v>11.18</v>
       </c>
       <c r="I40" t="n">
-        <v>74.7</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54938</v>
+        <v>50235</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.06</v>
       </c>
       <c r="I41" t="n">
-        <v>24905</v>
+        <v>23070</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>601663</v>
+        <v>601408</v>
       </c>
       <c r="F42" t="n">
-        <v>589.5154164573066</v>
+        <v>34.77436625241477</v>
       </c>
       <c r="G42" t="n">
-        <v>425.9940029602841</v>
+        <v>426.0354037579669</v>
       </c>
       <c r="H42" t="n">
         <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>1638.48</v>
+        <v>1637.75</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2638757</v>
+        <v>2631563</v>
       </c>
       <c r="E44" t="n">
-        <v>10604565</v>
+        <v>10575652</v>
       </c>
       <c r="F44" t="n">
-        <v>363.0094713742681</v>
+        <v>257.9625967493628</v>
       </c>
       <c r="G44" t="n">
-        <v>59.81775201181899</v>
+        <v>141.1086673486071</v>
       </c>
       <c r="H44" t="n">
-        <v>1.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>50924</v>
+        <v>51616</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18000201</v>
+        <v>17941405</v>
       </c>
       <c r="E45" t="n">
-        <v>125906628</v>
+        <v>125494217</v>
       </c>
       <c r="F45" t="n">
-        <v>352.5872944187978</v>
+        <v>57.5727731404205</v>
       </c>
       <c r="G45" t="n">
-        <v>222.4503618247439</v>
+        <v>52.52877346016702</v>
       </c>
       <c r="H45" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I45" t="n">
-        <v>977040</v>
+        <v>992064</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>173249</v>
+        <v>172213</v>
       </c>
       <c r="E46" t="n">
-        <v>2318168</v>
+        <v>2304307</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52031</v>
+        <v>50665</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>267266041</v>
+        <v>263256070</v>
       </c>
       <c r="E47" t="n">
-        <v>267266041</v>
+        <v>263256070</v>
       </c>
       <c r="F47" t="n">
-        <v>127782.1284469757</v>
+        <v>104549.2699725614</v>
       </c>
       <c r="G47" t="n">
-        <v>141543.0106497486</v>
+        <v>143339.9778504896</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>20175359</v>
+        <v>22227835</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>643071</v>
+        <v>641846</v>
       </c>
       <c r="E48" t="n">
-        <v>643071</v>
+        <v>641846</v>
       </c>
       <c r="F48" t="n">
-        <v>188.6459964787149</v>
+        <v>219.9290722608821</v>
       </c>
       <c r="G48" t="n">
-        <v>120.4609659158296</v>
+        <v>85.5032447008838</v>
       </c>
       <c r="H48" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="I48" t="n">
-        <v>2785.85</v>
+        <v>2720.78</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>454411355</v>
+        <v>451635345</v>
       </c>
       <c r="E50" t="n">
-        <v>454411355</v>
+        <v>451635345</v>
       </c>
       <c r="F50" t="n">
-        <v>4716.634905483143</v>
+        <v>3935.335879543852</v>
       </c>
       <c r="G50" t="n">
-        <v>2794.608584164821</v>
+        <v>2850.235107255924</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="I50" t="n">
-        <v>4026810</v>
+        <v>4090554</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2452480</v>
+        <v>2481283</v>
       </c>
       <c r="E51" t="n">
-        <v>2452480</v>
+        <v>2481283</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>325.3156101129756</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>30.45589981984546</v>
       </c>
       <c r="H51" t="n">
-        <v>4.72</v>
+        <v>2.94</v>
       </c>
       <c r="I51" t="n">
-        <v>58514</v>
+        <v>111089</v>
       </c>
     </row>
     <row r="52">
@@ -2237,22 +2237,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23895</v>
+        <v>23751</v>
       </c>
       <c r="E52" t="n">
-        <v>47791</v>
+        <v>47503</v>
       </c>
       <c r="F52" t="n">
-        <v>752.7157548195777</v>
+        <v>745.8309517742617</v>
       </c>
       <c r="G52" t="n">
-        <v>103.2018671082363</v>
+        <v>176.7040834745172</v>
       </c>
       <c r="H52" t="n">
-        <v>2.94</v>
+        <v>2.09</v>
       </c>
       <c r="I52" t="n">
-        <v>2594.47</v>
+        <v>2851.62</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>158660</v>
+        <v>165387</v>
       </c>
       <c r="F53" t="n">
-        <v>12.94742857852768</v>
+        <v>11.09914106552075</v>
       </c>
       <c r="G53" t="n">
-        <v>75.65179759285898</v>
+        <v>35.57315704773291</v>
       </c>
       <c r="H53" t="n">
-        <v>1.56</v>
+        <v>2.31</v>
       </c>
       <c r="I53" t="n">
-        <v>21439</v>
+        <v>21183</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2573058</v>
+        <v>2572821</v>
       </c>
       <c r="E54" t="n">
-        <v>6578246</v>
+        <v>6577640</v>
       </c>
       <c r="F54" t="n">
-        <v>72.88796264856768</v>
+        <v>66.56372475046246</v>
       </c>
       <c r="G54" t="n">
-        <v>258.7485071514413</v>
+        <v>173.8194409048862</v>
       </c>
       <c r="H54" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="I54" t="n">
-        <v>77768</v>
+        <v>80932</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3314.72</v>
+        <v>3477.14</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>7.758484012271222</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>8.10578723201488</v>
       </c>
       <c r="H55" t="n">
-        <v>6.06</v>
+        <v>0.8</v>
       </c>
       <c r="I55" t="n">
-        <v>1593.02</v>
+        <v>1603.83</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>73107075</v>
+        <v>72021434</v>
       </c>
       <c r="E56" t="n">
-        <v>73107075</v>
+        <v>72021434</v>
       </c>
       <c r="F56" t="n">
-        <v>14929.33832466231</v>
+        <v>12189.30953818128</v>
       </c>
       <c r="G56" t="n">
-        <v>11418.63757375508</v>
+        <v>8708.03006208489</v>
       </c>
       <c r="H56" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="I56" t="n">
-        <v>3605361</v>
+        <v>3659258</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3459701</v>
+        <v>3339066</v>
       </c>
       <c r="E57" t="n">
-        <v>4384045</v>
+        <v>4231180</v>
       </c>
       <c r="F57" t="n">
-        <v>147.3271179924608</v>
+        <v>2169.764596796202</v>
       </c>
       <c r="G57" t="n">
-        <v>279.7849454782664</v>
+        <v>762.1083524676753</v>
       </c>
       <c r="H57" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="I57" t="n">
-        <v>170923</v>
+        <v>195411</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4086260</v>
+        <v>4074696</v>
       </c>
       <c r="E58" t="n">
-        <v>8058450</v>
+        <v>8035643</v>
       </c>
       <c r="F58" t="n">
-        <v>3272.146253189817</v>
+        <v>3184.876331633242</v>
       </c>
       <c r="G58" t="n">
-        <v>17209.04197544271</v>
+        <v>16215.15683589491</v>
       </c>
       <c r="H58" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1639639</v>
+        <v>1635369</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1598147</v>
+        <v>1598623</v>
       </c>
       <c r="E59" t="n">
-        <v>9175964</v>
+        <v>9178698</v>
       </c>
       <c r="F59" t="n">
-        <v>241.6484695897253</v>
+        <v>177.0653453708472</v>
       </c>
       <c r="G59" t="n">
-        <v>860.0915870607931</v>
+        <v>804.0989455576629</v>
       </c>
       <c r="H59" t="n">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="I59" t="n">
-        <v>236636</v>
+        <v>239238</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>534316</v>
+        <v>698367</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>7.14</v>
+        <v>15.07</v>
       </c>
       <c r="I60" t="n">
-        <v>1458.78</v>
+        <v>5434.22</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31213530</v>
+        <v>31222413</v>
       </c>
       <c r="F61" t="n">
-        <v>684.1957393910549</v>
+        <v>594.2403892082541</v>
       </c>
       <c r="G61" t="n">
-        <v>1836.912946441505</v>
+        <v>1707.802486368579</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>237814</v>
+        <v>236570</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1436740</v>
+        <v>1432698</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5.82</v>
       </c>
       <c r="I62" t="n">
-        <v>27313</v>
+        <v>27148</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17380258</v>
+        <v>17567696</v>
       </c>
       <c r="E63" t="n">
-        <v>18318385</v>
+        <v>18515939</v>
       </c>
       <c r="F63" t="n">
-        <v>1109.720379310091</v>
+        <v>1126.30455014314</v>
       </c>
       <c r="G63" t="n">
-        <v>1869.123407354665</v>
+        <v>1748.420277241354</v>
       </c>
       <c r="H63" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="I63" t="n">
-        <v>38010</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3001671</v>
+        <v>2958445</v>
       </c>
       <c r="E64" t="n">
-        <v>3001671</v>
+        <v>2958445</v>
       </c>
       <c r="F64" t="n">
-        <v>149.0283879440906</v>
+        <v>111.7789618832556</v>
       </c>
       <c r="G64" t="n">
-        <v>45.69520049840152</v>
+        <v>9.574963824506577</v>
       </c>
       <c r="H64" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="I64" t="n">
-        <v>18343.28</v>
+        <v>16557.39</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3415778</v>
+        <v>3390169</v>
       </c>
       <c r="E65" t="n">
-        <v>8428258</v>
+        <v>8365068</v>
       </c>
       <c r="F65" t="n">
-        <v>804.2830378699838</v>
+        <v>635.1314251031063</v>
       </c>
       <c r="G65" t="n">
-        <v>1214.40574121321</v>
+        <v>1186.35273116965</v>
       </c>
       <c r="H65" t="n">
-        <v>0.86</v>
+        <v>0.14</v>
       </c>
       <c r="I65" t="n">
-        <v>47051</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>251877</v>
+        <v>252638</v>
       </c>
       <c r="F66" t="n">
-        <v>22.84155750784939</v>
+        <v>23.89978209355637</v>
       </c>
       <c r="G66" t="n">
-        <v>99.58474109532024</v>
+        <v>34.2202691912472</v>
       </c>
       <c r="H66" t="n">
-        <v>3.51</v>
+        <v>1.79</v>
       </c>
       <c r="I66" t="n">
-        <v>3887.91</v>
+        <v>4050.29</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>90400736</v>
+        <v>90055427</v>
       </c>
       <c r="E67" t="n">
-        <v>188478273</v>
+        <v>187758332</v>
       </c>
       <c r="F67" t="n">
-        <v>64216.04649593247</v>
+        <v>42900.03378181782</v>
       </c>
       <c r="G67" t="n">
-        <v>90688.80404903847</v>
+        <v>101364.0015965251</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I67" t="n">
-        <v>65470971</v>
+        <v>67105374</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1780548</v>
+        <v>1780882</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.81</v>
       </c>
       <c r="I68" t="n">
-        <v>3985.1</v>
+        <v>4056.11</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>199869966</v>
+        <v>199090668</v>
       </c>
       <c r="F69" t="n">
-        <v>14099.45848509109</v>
+        <v>4032.496755250319</v>
       </c>
       <c r="G69" t="n">
-        <v>3324.40846146831</v>
+        <v>4188.331288858715</v>
       </c>
       <c r="H69" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="I69" t="n">
-        <v>2397917</v>
+        <v>3366403</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>187673</v>
+        <v>186957</v>
       </c>
       <c r="E70" t="n">
-        <v>195984</v>
+        <v>195236</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>206.54</v>
+        <v>205.74</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144142273</v>
+        <v>142612375</v>
       </c>
       <c r="E71" t="n">
-        <v>144198805</v>
+        <v>142668930</v>
       </c>
       <c r="F71" t="n">
-        <v>28413.1156700663</v>
+        <v>30553.78388326129</v>
       </c>
       <c r="G71" t="n">
-        <v>40327.3512489908</v>
+        <v>36664.7888417441</v>
       </c>
       <c r="H71" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="I71" t="n">
-        <v>3048042</v>
+        <v>3058951</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26049740</v>
+        <v>25990231</v>
       </c>
       <c r="E72" t="n">
-        <v>85490268</v>
+        <v>85294971</v>
       </c>
       <c r="F72" t="n">
-        <v>22585.50294228435</v>
+        <v>19866.365891073</v>
       </c>
       <c r="G72" t="n">
-        <v>34536.16223010311</v>
+        <v>42515.89634315363</v>
       </c>
       <c r="H72" t="n">
         <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>103222</v>
+        <v>101965</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113495</v>
+        <v>113524</v>
       </c>
       <c r="E73" t="n">
-        <v>113495</v>
+        <v>113524</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>5.32</v>
+        <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1404.71</v>
+        <v>1402.1</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>207776642</v>
+        <v>204554082</v>
       </c>
       <c r="E74" t="n">
-        <v>721834832</v>
+        <v>710639367</v>
       </c>
       <c r="F74" t="n">
-        <v>125215.4817820074</v>
+        <v>124255.2137619582</v>
       </c>
       <c r="G74" t="n">
-        <v>145336.3353556501</v>
+        <v>133028.0341771476</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>36764118</v>
+        <v>37629597</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3571487</v>
+        <v>3423312</v>
       </c>
       <c r="E75" t="n">
-        <v>3571487</v>
+        <v>3423312</v>
       </c>
       <c r="F75" t="n">
-        <v>594.5810394226756</v>
+        <v>702.9035655469086</v>
       </c>
       <c r="G75" t="n">
-        <v>1138.848240139458</v>
+        <v>1833.771728319265</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="I75" t="n">
-        <v>2524884</v>
+        <v>2383268</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116834697</v>
+        <v>115198311</v>
       </c>
       <c r="E76" t="n">
-        <v>495841779</v>
+        <v>488862818</v>
       </c>
       <c r="F76" t="n">
-        <v>222920.6180807967</v>
+        <v>146890.4751051555</v>
       </c>
       <c r="G76" t="n">
-        <v>152842.3618951613</v>
+        <v>119736.4714372865</v>
       </c>
       <c r="H76" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I76" t="n">
-        <v>15821787</v>
+        <v>15240882</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1855321</v>
+        <v>1845165</v>
       </c>
       <c r="F77" t="n">
-        <v>36.22522188253344</v>
+        <v>36.2287424792361</v>
       </c>
       <c r="G77" t="n">
-        <v>23.8083286194732</v>
+        <v>23.81064246377498</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>487.35</v>
+        <v>483.71</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3304962</v>
+        <v>3252562</v>
       </c>
       <c r="E78" t="n">
-        <v>16570414</v>
+        <v>16307691</v>
       </c>
       <c r="F78" t="n">
-        <v>4.288458930988125</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.26415105535757</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>3.51</v>
+        <v>4.65</v>
       </c>
       <c r="I78" t="n">
-        <v>31482</v>
+        <v>33242</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>523698</v>
+        <v>523088</v>
       </c>
       <c r="E79" t="n">
-        <v>8957821</v>
+        <v>8947389</v>
       </c>
       <c r="F79" t="n">
-        <v>205.0101741877758</v>
+        <v>207.7240333324691</v>
       </c>
       <c r="G79" t="n">
-        <v>247.216742042272</v>
+        <v>161.1069494430299</v>
       </c>
       <c r="H79" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="I79" t="n">
-        <v>161542</v>
+        <v>151996</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5819371</v>
+        <v>5802949</v>
       </c>
       <c r="E80" t="n">
-        <v>7899793</v>
+        <v>7877612</v>
       </c>
       <c r="F80" t="n">
-        <v>598.7535954337307</v>
+        <v>684.7582176285829</v>
       </c>
       <c r="G80" t="n">
-        <v>1044.064736481823</v>
+        <v>694.9907418909506</v>
       </c>
       <c r="H80" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="I80" t="n">
-        <v>5329181</v>
+        <v>5293228</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41160</v>
+        <v>41512</v>
       </c>
       <c r="F81" t="n">
-        <v>64.09219968901013</v>
+        <v>180.9404385095484</v>
       </c>
       <c r="G81" t="n">
-        <v>103.6559443369239</v>
+        <v>100.5087543348332</v>
       </c>
       <c r="H81" t="n">
-        <v>2.81</v>
+        <v>1.21</v>
       </c>
       <c r="I81" t="n">
-        <v>41074</v>
+        <v>39906</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40542628</v>
+        <v>40604420</v>
       </c>
       <c r="E82" t="n">
-        <v>47352827</v>
+        <v>47424998</v>
       </c>
       <c r="F82" t="n">
-        <v>600.6392232952735</v>
+        <v>497.0284091200974</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9099189414899332</v>
+        <v>2.820143011471555</v>
       </c>
       <c r="H82" t="n">
-        <v>3.11</v>
+        <v>2.86</v>
       </c>
       <c r="I82" t="n">
-        <v>961591</v>
+        <v>964576</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14653326</v>
+        <v>14642467</v>
       </c>
       <c r="F83" t="n">
-        <v>176.4963283866434</v>
+        <v>337.3875154555564</v>
       </c>
       <c r="G83" t="n">
-        <v>490.1868063677551</v>
+        <v>638.4699127596141</v>
       </c>
       <c r="H83" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="I83" t="n">
-        <v>214101</v>
+        <v>225383</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35975706</v>
+        <v>36022276</v>
       </c>
       <c r="E84" t="n">
-        <v>35975706</v>
+        <v>36022276</v>
       </c>
       <c r="F84" t="n">
-        <v>821.0565166216545</v>
+        <v>120.8263476987066</v>
       </c>
       <c r="G84" t="n">
-        <v>564.9402207444027</v>
+        <v>1047.466073214574</v>
       </c>
       <c r="H84" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="I84" t="n">
-        <v>946938</v>
+        <v>861284</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>546975</v>
+        <v>555067</v>
       </c>
       <c r="E85" t="n">
-        <v>6634279</v>
+        <v>6732419</v>
       </c>
       <c r="F85" t="n">
-        <v>455.6668587894422</v>
+        <v>416.6964047752145</v>
       </c>
       <c r="G85" t="n">
-        <v>745.660360871265</v>
+        <v>463.8628766176698</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I85" t="n">
-        <v>2766468</v>
+        <v>2782829</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25848176</v>
+        <v>25860109</v>
       </c>
       <c r="E86" t="n">
-        <v>36527641</v>
+        <v>36544504</v>
       </c>
       <c r="F86" t="n">
-        <v>37.75972244156446</v>
+        <v>10.24083023487897</v>
       </c>
       <c r="G86" t="n">
-        <v>763.1977996484718</v>
+        <v>105.520508621938</v>
       </c>
       <c r="H86" t="n">
-        <v>2.52</v>
+        <v>3.85</v>
       </c>
       <c r="I86" t="n">
-        <v>91663</v>
+        <v>101618</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1367568162</v>
+        <v>1401378381</v>
       </c>
       <c r="E87" t="n">
-        <v>6557769406</v>
+        <v>6719896331</v>
       </c>
       <c r="F87" t="n">
-        <v>543654.9023264054</v>
+        <v>557408.7218763555</v>
       </c>
       <c r="G87" t="n">
-        <v>652170.0221390673</v>
+        <v>546822.7804369498</v>
       </c>
       <c r="H87" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>383575361</v>
+        <v>420785839</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>270304248</v>
+        <v>266860883</v>
       </c>
       <c r="E88" t="n">
-        <v>1166783190</v>
+        <v>1151919715</v>
       </c>
       <c r="F88" t="n">
-        <v>1055548.914736582</v>
+        <v>813148.1432865217</v>
       </c>
       <c r="G88" t="n">
-        <v>795498.9043300834</v>
+        <v>895321.967857989</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>132670798</v>
+        <v>134827074</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>115949399</v>
+        <v>114979139</v>
       </c>
       <c r="E89" t="n">
-        <v>115949399</v>
+        <v>114979139</v>
       </c>
       <c r="F89" t="n">
-        <v>37538.36271914352</v>
+        <v>41941.46905642999</v>
       </c>
       <c r="G89" t="n">
-        <v>18032.00746428505</v>
+        <v>18593.35295781229</v>
       </c>
       <c r="H89" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I89" t="n">
-        <v>6732542</v>
+        <v>6780800</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3821941</v>
+        <v>3817064</v>
       </c>
       <c r="E90" t="n">
-        <v>29741887</v>
+        <v>29703928</v>
       </c>
       <c r="F90" t="n">
-        <v>7137.64725315411</v>
+        <v>6767.09549746193</v>
       </c>
       <c r="G90" t="n">
-        <v>6380.740240512377</v>
+        <v>8513.260698615684</v>
       </c>
       <c r="H90" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>25996</v>
+        <v>32554</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3877030</v>
+        <v>3887744</v>
       </c>
       <c r="F91" t="n">
-        <v>100.6863863583178</v>
+        <v>207.8184795591333</v>
       </c>
       <c r="G91" t="n">
-        <v>63.98454860080924</v>
+        <v>477.5043364859023</v>
       </c>
       <c r="H91" t="n">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="I91" t="n">
-        <v>349513</v>
+        <v>349550</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>878095</v>
+        <v>911465</v>
       </c>
       <c r="F92" t="n">
-        <v>80.72660829367049</v>
+        <v>44.03145868060743</v>
       </c>
       <c r="G92" t="n">
-        <v>717.8063236256994</v>
+        <v>131.8618189331752</v>
       </c>
       <c r="H92" t="n">
-        <v>2.85</v>
+        <v>1.19</v>
       </c>
       <c r="I92" t="n">
-        <v>10617.77</v>
+        <v>10770.45</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>120239</v>
+        <v>127030</v>
       </c>
       <c r="F93" t="n">
-        <v>755.021392990749</v>
+        <v>154.0752132614153</v>
       </c>
       <c r="G93" t="n">
-        <v>2.703768535352491</v>
+        <v>0.07002161064506467</v>
       </c>
       <c r="H93" t="n">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="I93" t="n">
-        <v>132760</v>
+        <v>130028</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11126491</v>
+        <v>10866662</v>
       </c>
       <c r="E94" t="n">
-        <v>133965687</v>
+        <v>130837285</v>
       </c>
       <c r="F94" t="n">
-        <v>2492.265152548402</v>
+        <v>1168.15277213717</v>
       </c>
       <c r="G94" t="n">
-        <v>1928.544603041454</v>
+        <v>994.5626174204318</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>465986</v>
+        <v>476289</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>17666335</v>
+        <v>16389953</v>
       </c>
       <c r="E95" t="n">
-        <v>44165837</v>
+        <v>40974882</v>
       </c>
       <c r="F95" t="n">
-        <v>6467.266159966239</v>
+        <v>9184.199916578662</v>
       </c>
       <c r="G95" t="n">
-        <v>5347.026107663768</v>
+        <v>7880.395041156892</v>
       </c>
       <c r="H95" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="I95" t="n">
-        <v>3170178</v>
+        <v>3963769</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2550613</v>
+        <v>2394592</v>
       </c>
       <c r="F96" t="n">
-        <v>306.5845563251943</v>
+        <v>274.8382013403303</v>
       </c>
       <c r="G96" t="n">
-        <v>10.57227069289662</v>
+        <v>21.57429302063811</v>
       </c>
       <c r="H96" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="I96" t="n">
-        <v>34872</v>
+        <v>37629</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19902105</v>
+        <v>19805468</v>
       </c>
       <c r="F97" t="n">
-        <v>1350.76615366216</v>
+        <v>1014.391165667369</v>
       </c>
       <c r="G97" t="n">
-        <v>798.4368320975057</v>
+        <v>1792.405235658076</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>50245</v>
+        <v>56568</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4189890</v>
+        <v>4189361</v>
       </c>
       <c r="E98" t="n">
-        <v>12068240</v>
+        <v>12066715</v>
       </c>
       <c r="F98" t="n">
-        <v>1494.049008346916</v>
+        <v>1302.263332891248</v>
       </c>
       <c r="G98" t="n">
-        <v>428.4797574746297</v>
+        <v>1416.36827123796</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="I98" t="n">
-        <v>532973</v>
+        <v>529652</v>
       </c>
     </row>
     <row r="99">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1539774</v>
+        <v>1550568</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>4.7</v>
+        <v>5.36</v>
       </c>
       <c r="I99" t="n">
-        <v>257669</v>
+        <v>264575</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80733629</v>
+        <v>80040719</v>
       </c>
       <c r="E100" t="n">
-        <v>102739818</v>
+        <v>101858036</v>
       </c>
       <c r="F100" t="n">
-        <v>9782.907756492184</v>
+        <v>6637.631410699405</v>
       </c>
       <c r="G100" t="n">
-        <v>9978.393366408247</v>
+        <v>11814.80551421595</v>
       </c>
       <c r="H100" t="n">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
       <c r="I100" t="n">
-        <v>6404902</v>
+        <v>6420580</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22995974</v>
+        <v>23100683</v>
       </c>
       <c r="E101" t="n">
-        <v>29831039</v>
+        <v>29966870</v>
       </c>
       <c r="F101" t="n">
-        <v>4071.488314009532</v>
+        <v>3743.340896804277</v>
       </c>
       <c r="G101" t="n">
-        <v>3838.985345087281</v>
+        <v>5049.815511684246</v>
       </c>
       <c r="H101" t="n">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
       <c r="I101" t="n">
-        <v>178701</v>
+        <v>432788</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1586775</v>
+        <v>1587218</v>
       </c>
       <c r="F102" t="n">
-        <v>27.56488044161093</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>35.15893239633213</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>3.09</v>
+        <v>4.38</v>
       </c>
       <c r="I102" t="n">
-        <v>9287.75</v>
+        <v>9038.110000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>707554</v>
+        <v>703368</v>
       </c>
       <c r="E103" t="n">
-        <v>707554</v>
+        <v>703368</v>
       </c>
       <c r="F103" t="n">
-        <v>29.35866325599756</v>
+        <v>29.36151651700418</v>
       </c>
       <c r="G103" t="n">
-        <v>182.8652723168981</v>
+        <v>154.3002123423143</v>
       </c>
       <c r="H103" t="n">
         <v>0.85</v>
       </c>
       <c r="I103" t="n">
-        <v>75700</v>
+        <v>73410</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>41293066</v>
+        <v>41473935</v>
       </c>
       <c r="E104" t="n">
-        <v>43166019</v>
+        <v>43355092</v>
       </c>
       <c r="F104" t="n">
-        <v>517.5616423023455</v>
+        <v>442.9328349556484</v>
       </c>
       <c r="G104" t="n">
-        <v>2613.983714373356</v>
+        <v>4677.996338428454</v>
       </c>
       <c r="H104" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="I104" t="n">
-        <v>884166</v>
+        <v>767860</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14378267</v>
+        <v>14290175</v>
       </c>
       <c r="E105" t="n">
-        <v>14378267</v>
+        <v>14290175</v>
       </c>
       <c r="F105" t="n">
-        <v>1899.62910098812</v>
+        <v>3016.855947847257</v>
       </c>
       <c r="G105" t="n">
-        <v>2132.973849313354</v>
+        <v>4138.573295963176</v>
       </c>
       <c r="H105" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I105" t="n">
-        <v>5336476</v>
+        <v>5364799</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1167015</v>
+        <v>1166993</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.25</v>
+        <v>7.13</v>
       </c>
       <c r="I106" t="n">
-        <v>5384.35</v>
+        <v>5397.08</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51375429</v>
+        <v>50891137</v>
       </c>
       <c r="E107" t="n">
-        <v>130881842</v>
+        <v>129648080</v>
       </c>
       <c r="F107" t="n">
-        <v>2190.351525990376</v>
+        <v>2664.572866451763</v>
       </c>
       <c r="G107" t="n">
-        <v>4315.624488646382</v>
+        <v>4547.87596262816</v>
       </c>
       <c r="H107" t="n">
         <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2194548</v>
+        <v>2148856</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15370095</v>
+        <v>14719995</v>
       </c>
       <c r="E108" t="n">
-        <v>74439825</v>
+        <v>71291284</v>
       </c>
       <c r="F108" t="n">
-        <v>4143.790816903725</v>
+        <v>4164.25053005986</v>
       </c>
       <c r="G108" t="n">
-        <v>10864.47232412383</v>
+        <v>6914.562749417951</v>
       </c>
       <c r="H108" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="I108" t="n">
-        <v>5137446</v>
+        <v>5200821</v>
       </c>
     </row>
     <row r="109">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>592523</v>
+        <v>626188</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>5.71</v>
+        <v>4.41</v>
       </c>
       <c r="I109" t="n">
-        <v>8406.09</v>
+        <v>8248.18</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4603093</v>
+        <v>4610231</v>
       </c>
       <c r="E110" t="n">
-        <v>10492546</v>
+        <v>10508817</v>
       </c>
       <c r="F110" t="n">
-        <v>1388.978557519394</v>
+        <v>1632.836355971714</v>
       </c>
       <c r="G110" t="n">
-        <v>2232.00369490492</v>
+        <v>2501.423961488009</v>
       </c>
       <c r="H110" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="I110" t="n">
-        <v>66838</v>
+        <v>65864</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1891496798</v>
+        <v>1873025386</v>
       </c>
       <c r="F111" t="n">
-        <v>62236.86202259186</v>
+        <v>80728.89281130645</v>
       </c>
       <c r="G111" t="n">
-        <v>42827.86389934097</v>
+        <v>38693.74739596198</v>
       </c>
       <c r="H111" t="n">
-        <v>0.55</v>
+        <v>0.1</v>
       </c>
       <c r="I111" t="n">
-        <v>29270291</v>
+        <v>29430188</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9683808</v>
+        <v>9651701</v>
       </c>
       <c r="E112" t="n">
-        <v>35236921</v>
+        <v>35116749</v>
       </c>
       <c r="F112" t="n">
-        <v>553.0655291809833</v>
+        <v>555.6588097624423</v>
       </c>
       <c r="G112" t="n">
-        <v>313.6298349229182</v>
+        <v>313.6594067888335</v>
       </c>
       <c r="H112" t="n">
         <v>1.15</v>
       </c>
       <c r="I112" t="n">
-        <v>120575</v>
+        <v>122199</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>625094</v>
+        <v>626417</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>6.68444933457643</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>55.33352453821524</v>
       </c>
       <c r="H113" t="n">
-        <v>4.07</v>
+        <v>3.5</v>
       </c>
       <c r="I113" t="n">
-        <v>1003.06</v>
+        <v>937.96</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12376544</v>
+        <v>12330505</v>
       </c>
       <c r="E114" t="n">
-        <v>17944202</v>
+        <v>17877453</v>
       </c>
       <c r="F114" t="n">
-        <v>3538.639767072019</v>
+        <v>3972.550107731602</v>
       </c>
       <c r="G114" t="n">
-        <v>5228.777022858726</v>
+        <v>5580.14507401727</v>
       </c>
       <c r="H114" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="I114" t="n">
-        <v>2008422</v>
+        <v>2012969</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1951685</v>
+        <v>1924785</v>
       </c>
       <c r="E115" t="n">
-        <v>13995341</v>
+        <v>13802445</v>
       </c>
       <c r="F115" t="n">
-        <v>977.5811639033673</v>
+        <v>914.5588442837586</v>
       </c>
       <c r="G115" t="n">
-        <v>670.3264528583053</v>
+        <v>943.4288613784041</v>
       </c>
       <c r="H115" t="n">
-        <v>2.12</v>
+        <v>1.21</v>
       </c>
       <c r="I115" t="n">
-        <v>616344</v>
+        <v>595224</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2729811</v>
+        <v>2753082</v>
       </c>
       <c r="E116" t="n">
-        <v>5518202</v>
+        <v>5565244</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>6771.92</v>
+        <v>6280.52</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>203752230</v>
+        <v>199816414</v>
       </c>
       <c r="E117" t="n">
-        <v>1153770321</v>
+        <v>1131483313</v>
       </c>
       <c r="F117" t="n">
-        <v>295971.4492624174</v>
+        <v>194803.5103596854</v>
       </c>
       <c r="G117" t="n">
-        <v>271385.3021240103</v>
+        <v>261168.8376768801</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I117" t="n">
-        <v>81399779</v>
+        <v>81936826</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>677623</v>
+        <v>666319</v>
       </c>
       <c r="E118" t="n">
-        <v>2246898</v>
+        <v>2209416</v>
       </c>
       <c r="F118" t="n">
-        <v>5275.26655146993</v>
+        <v>5257.764232945029</v>
       </c>
       <c r="G118" t="n">
-        <v>5255.557911231147</v>
+        <v>7934.654876334476</v>
       </c>
       <c r="H118" t="n">
-        <v>0.45</v>
+        <v>0.91</v>
       </c>
       <c r="I118" t="n">
-        <v>7378.87</v>
+        <v>7217.08</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2803115</v>
+        <v>2797328</v>
       </c>
       <c r="E119" t="n">
-        <v>9924646</v>
+        <v>9904159</v>
       </c>
       <c r="F119" t="n">
-        <v>275.4041887642327</v>
+        <v>880.1223088558316</v>
       </c>
       <c r="G119" t="n">
-        <v>1729.524593025927</v>
+        <v>1282.329512148671</v>
       </c>
       <c r="H119" t="n">
-        <v>1.4</v>
+        <v>0.31</v>
       </c>
       <c r="I119" t="n">
-        <v>15324.04</v>
+        <v>15228.59</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1041054</v>
+        <v>1039012</v>
       </c>
       <c r="E120" t="n">
-        <v>1041054</v>
+        <v>1039012</v>
       </c>
       <c r="F120" t="n">
-        <v>83.22163340009898</v>
+        <v>105.0613557267161</v>
       </c>
       <c r="G120" t="n">
-        <v>113.841532321923</v>
+        <v>54.06551667663216</v>
       </c>
       <c r="H120" t="n">
-        <v>3.01</v>
+        <v>2.72</v>
       </c>
       <c r="I120" t="n">
-        <v>6092.51</v>
+        <v>5939.57</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>498865</v>
+        <v>498045</v>
       </c>
       <c r="E121" t="n">
-        <v>1679111</v>
+        <v>1676350</v>
       </c>
       <c r="F121" t="n">
-        <v>356.5739358239698</v>
+        <v>370.3150505186628</v>
       </c>
       <c r="G121" t="n">
-        <v>324.9884735167363</v>
+        <v>403.6820483520104</v>
       </c>
       <c r="H121" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="I121" t="n">
-        <v>628887</v>
+        <v>630848</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>474986</v>
+        <v>480114</v>
       </c>
       <c r="E122" t="n">
-        <v>881191</v>
+        <v>890704</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>4.35</v>
+        <v>5.56</v>
       </c>
       <c r="I122" t="n">
-        <v>198761</v>
+        <v>208526</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9778008</v>
+        <v>9779844</v>
       </c>
       <c r="F123" t="n">
-        <v>22.08523992256212</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>105.9973945979544</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>3.33</v>
+        <v>4.49</v>
       </c>
       <c r="I123" t="n">
-        <v>15685.36</v>
+        <v>16306.18</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1219643</v>
+        <v>1212065</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>7.82</v>
+        <v>6.73</v>
       </c>
       <c r="I124" t="n">
-        <v>4818.81</v>
+        <v>4699.78</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3460297</v>
+        <v>3458768</v>
       </c>
       <c r="E125" t="n">
-        <v>8080371</v>
+        <v>8076800</v>
       </c>
       <c r="F125" t="n">
-        <v>1214.070524293776</v>
+        <v>1219.063631546886</v>
       </c>
       <c r="G125" t="n">
-        <v>1508.069448769261</v>
+        <v>1453.134722170246</v>
       </c>
       <c r="H125" t="n">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="I125" t="n">
-        <v>630729</v>
+        <v>636573</v>
       </c>
     </row>
     <row r="126">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246260</v>
+        <v>247421</v>
       </c>
       <c r="E126" t="n">
-        <v>2173427</v>
+        <v>2183676</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4829,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>4.17</v>
+        <v>4.44</v>
       </c>
       <c r="I126" t="n">
-        <v>73748</v>
+        <v>71146</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>642982</v>
+        <v>628067</v>
       </c>
       <c r="F127" t="n">
-        <v>553.3947911950454</v>
+        <v>553.4485736089522</v>
       </c>
       <c r="G127" t="n">
-        <v>715.7678525195612</v>
+        <v>699.6400488606354</v>
       </c>
       <c r="H127" t="n">
         <v>1.96</v>
       </c>
       <c r="I127" t="n">
-        <v>12431.67</v>
+        <v>12464.44</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4885702</v>
+        <v>4823425</v>
       </c>
       <c r="E128" t="n">
-        <v>17261171</v>
+        <v>17041148</v>
       </c>
       <c r="F128" t="n">
-        <v>2687.683094258045</v>
+        <v>1688.082746401548</v>
       </c>
       <c r="G128" t="n">
-        <v>1889.965173199427</v>
+        <v>1682.524661361817</v>
       </c>
       <c r="H128" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="I128" t="n">
-        <v>121370</v>
+        <v>125162</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2128655</v>
+        <v>2187316</v>
       </c>
       <c r="F129" t="n">
-        <v>71.97068583620074</v>
+        <v>97.43955855411338</v>
       </c>
       <c r="G129" t="n">
-        <v>66.24311151939708</v>
+        <v>67.85806430219711</v>
       </c>
       <c r="H129" t="n">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="I129" t="n">
-        <v>6745.08</v>
+        <v>6153.39</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2520239</v>
+        <v>2517854</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2500.48</v>
+        <v>2496.69</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>82218</v>
+        <v>82050</v>
       </c>
       <c r="E131" t="n">
-        <v>82218</v>
+        <v>82050</v>
       </c>
       <c r="F131" t="n">
-        <v>9.361892898080368</v>
+        <v>10.36630286846815</v>
       </c>
       <c r="G131" t="n">
-        <v>209.3573480157005</v>
+        <v>179.8301563390354</v>
       </c>
       <c r="H131" t="n">
         <v>1.03</v>
       </c>
       <c r="I131" t="n">
-        <v>23239</v>
+        <v>22632</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4269605</v>
+        <v>4256851</v>
       </c>
       <c r="F132" t="n">
-        <v>348.6252807701267</v>
+        <v>383.1210689452808</v>
       </c>
       <c r="G132" t="n">
-        <v>373.4649622375373</v>
+        <v>276.9746778000644</v>
       </c>
       <c r="H132" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I132" t="n">
-        <v>269351</v>
+        <v>271182</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2094038</v>
+        <v>2095561</v>
       </c>
       <c r="E133" t="n">
-        <v>8551507</v>
+        <v>8557730</v>
       </c>
       <c r="F133" t="n">
-        <v>516.56747612584</v>
+        <v>344.536631981866</v>
       </c>
       <c r="G133" t="n">
-        <v>460.7645063148394</v>
+        <v>715.1623316234061</v>
       </c>
       <c r="H133" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I133" t="n">
-        <v>243052</v>
+        <v>240471</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7507399</v>
+        <v>7615909</v>
       </c>
       <c r="E134" t="n">
-        <v>7563203</v>
+        <v>7672520</v>
       </c>
       <c r="F134" t="n">
-        <v>301333.3320593601</v>
+        <v>296473.148846243</v>
       </c>
       <c r="G134" t="n">
-        <v>367280.9433385517</v>
+        <v>241386.7619775138</v>
       </c>
       <c r="H134" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I134" t="n">
-        <v>5025866</v>
+        <v>5145325</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13989270</v>
+        <v>13902230</v>
       </c>
       <c r="E135" t="n">
-        <v>14036877</v>
+        <v>13949540</v>
       </c>
       <c r="F135" t="n">
-        <v>14289.71687928158</v>
+        <v>16175.45376080335</v>
       </c>
       <c r="G135" t="n">
-        <v>12712.57561115249</v>
+        <v>12269.64625135997</v>
       </c>
       <c r="H135" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>6761560</v>
+        <v>6797388</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42778936</v>
+        <v>42720832</v>
       </c>
       <c r="E136" t="n">
-        <v>72628682</v>
+        <v>72530034</v>
       </c>
       <c r="F136" t="n">
-        <v>747.4662404540527</v>
+        <v>986.2858311718701</v>
       </c>
       <c r="G136" t="n">
-        <v>2736.975905558891</v>
+        <v>1075.542591068299</v>
       </c>
       <c r="H136" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1094640</v>
+        <v>1080057</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>21430666</v>
+        <v>19946678</v>
       </c>
       <c r="E137" t="n">
-        <v>64242034</v>
+        <v>59790103</v>
       </c>
       <c r="F137" t="n">
-        <v>7592.994093908762</v>
+        <v>3644.769895046059</v>
       </c>
       <c r="G137" t="n">
-        <v>9331.059159015667</v>
+        <v>19508.97500170332</v>
       </c>
       <c r="H137" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="I137" t="n">
-        <v>3866007</v>
+        <v>3367384</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>100264825</v>
+        <v>100906036</v>
       </c>
       <c r="E138" t="n">
-        <v>106590571</v>
+        <v>107272236</v>
       </c>
       <c r="F138" t="n">
-        <v>10623.39531053519</v>
+        <v>9012.605477411775</v>
       </c>
       <c r="G138" t="n">
-        <v>9030.548682475166</v>
+        <v>8687.03908034579</v>
       </c>
       <c r="H138" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="I138" t="n">
-        <v>486956</v>
+        <v>489662</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1386549</v>
+        <v>1384069</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="I139" t="n">
-        <v>1911.11</v>
+        <v>1907.87</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>259850</v>
+        <v>239205</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.039999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="I140" t="n">
-        <v>10.23</v>
+        <v>39.86</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>91855</v>
+        <v>91767</v>
       </c>
       <c r="E141" t="n">
-        <v>260572</v>
+        <v>260323</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>229.33</v>
+        <v>229.11</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50366905</v>
+        <v>49675355</v>
       </c>
       <c r="E142" t="n">
-        <v>216975119</v>
+        <v>213995998</v>
       </c>
       <c r="F142" t="n">
-        <v>38102.64104628041</v>
+        <v>47960.96032684272</v>
       </c>
       <c r="G142" t="n">
-        <v>45808.13424721231</v>
+        <v>61671.10952956967</v>
       </c>
       <c r="H142" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="I142" t="n">
-        <v>11717268</v>
+        <v>11991854</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>270135</v>
+        <v>269444</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>7.88</v>
+        <v>8.59</v>
       </c>
       <c r="I143" t="n">
-        <v>7603.87</v>
+        <v>7542.02</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9158715</v>
+        <v>9674485</v>
       </c>
       <c r="F144" t="n">
-        <v>166.3701710023013</v>
+        <v>874.7632744480065</v>
       </c>
       <c r="G144" t="n">
-        <v>332.0679621032586</v>
+        <v>333.5293878217496</v>
       </c>
       <c r="H144" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="I144" t="n">
-        <v>104798</v>
+        <v>109800</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1177911</v>
+        <v>1181621</v>
       </c>
       <c r="E145" t="n">
-        <v>7852740</v>
+        <v>7877473</v>
       </c>
       <c r="F145" t="n">
-        <v>262.5422915381351</v>
+        <v>262.5678070623435</v>
       </c>
       <c r="G145" t="n">
-        <v>36.81328590418904</v>
+        <v>36.8168636526812</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4712.71</v>
+        <v>4700.45</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7637923</v>
+        <v>7571615</v>
       </c>
       <c r="F146" t="n">
-        <v>113.9215760557909</v>
+        <v>75.60681656635614</v>
       </c>
       <c r="G146" t="n">
-        <v>233.3275864569638</v>
+        <v>1250.059088657561</v>
       </c>
       <c r="H146" t="n">
-        <v>1.07</v>
+        <v>2.67</v>
       </c>
       <c r="I146" t="n">
-        <v>6853300</v>
+        <v>6891867</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>671729</v>
+        <v>669209</v>
       </c>
       <c r="E147" t="n">
-        <v>2424586</v>
+        <v>2415488</v>
       </c>
       <c r="F147" t="n">
-        <v>14.38248763821436</v>
+        <v>13.07549444589039</v>
       </c>
       <c r="G147" t="n">
-        <v>148.8826250114779</v>
+        <v>10.24054443765272</v>
       </c>
       <c r="H147" t="n">
-        <v>1.11</v>
+        <v>0.99</v>
       </c>
       <c r="I147" t="n">
-        <v>337927</v>
+        <v>361509</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1874339</v>
+        <v>1656567</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1183.309301641441</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>25.1202076514533</v>
       </c>
       <c r="H148" t="n">
-        <v>4.62</v>
+        <v>0.36</v>
       </c>
       <c r="I148" t="n">
-        <v>91810</v>
+        <v>87892</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>65120</v>
+        <v>62894</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>8.128099138921723</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>10.00165261223227</v>
       </c>
       <c r="H149" t="n">
-        <v>6.25</v>
+        <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>2851.02</v>
+        <v>3216.2</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12977242</v>
+        <v>12798932</v>
       </c>
       <c r="E150" t="n">
-        <v>12977242</v>
+        <v>12798932</v>
       </c>
       <c r="F150" t="n">
-        <v>227.8466949527558</v>
+        <v>392.6961766535633</v>
       </c>
       <c r="G150" t="n">
-        <v>266.5393495024001</v>
+        <v>281.5997367429104</v>
       </c>
       <c r="H150" t="n">
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
       <c r="I150" t="n">
-        <v>4445638</v>
+        <v>4199381</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2170737</v>
+        <v>2261014</v>
       </c>
       <c r="E151" t="n">
-        <v>7880978</v>
+        <v>8208663</v>
       </c>
       <c r="F151" t="n">
-        <v>47.28440712147317</v>
+        <v>88.3894438177248</v>
       </c>
       <c r="G151" t="n">
-        <v>189.4033455742208</v>
+        <v>20.81997337390666</v>
       </c>
       <c r="H151" t="n">
-        <v>2.36</v>
+        <v>0.51</v>
       </c>
       <c r="I151" t="n">
-        <v>200956</v>
+        <v>206768</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1261620</v>
+        <v>1257932</v>
       </c>
       <c r="E152" t="n">
-        <v>1261620</v>
+        <v>1257932</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1039.93</v>
+        <v>1033.18</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23154261</v>
+        <v>23100489</v>
       </c>
       <c r="E153" t="n">
-        <v>26736753</v>
+        <v>26676529</v>
       </c>
       <c r="F153" t="n">
-        <v>676.8620508602185</v>
+        <v>591.4494744265699</v>
       </c>
       <c r="G153" t="n">
-        <v>567.1335597429613</v>
+        <v>546.8207634036472</v>
       </c>
       <c r="H153" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I153" t="n">
-        <v>762154</v>
+        <v>739581</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2444605</v>
+        <v>2439134</v>
       </c>
       <c r="E154" t="n">
-        <v>18395026</v>
+        <v>18353858</v>
       </c>
       <c r="F154" t="n">
-        <v>3295.326709667751</v>
+        <v>3316.163712574035</v>
       </c>
       <c r="G154" t="n">
-        <v>3707.949029768976</v>
+        <v>3391.737401466245</v>
       </c>
       <c r="H154" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161630</v>
+        <v>161170</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>19421497</v>
+        <v>18932890</v>
       </c>
       <c r="E155" t="n">
-        <v>77685989</v>
+        <v>75731560</v>
       </c>
       <c r="F155" t="n">
-        <v>8174.653619086992</v>
+        <v>20238.02692109658</v>
       </c>
       <c r="G155" t="n">
-        <v>23516.20604182747</v>
+        <v>28709.99850524735</v>
       </c>
       <c r="H155" t="n">
-        <v>0.64</v>
+        <v>0.13</v>
       </c>
       <c r="I155" t="n">
-        <v>2318111</v>
+        <v>2360462</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>311851856</v>
+        <v>302769029</v>
       </c>
       <c r="E156" t="n">
-        <v>311851856</v>
+        <v>302769029</v>
       </c>
       <c r="F156" t="n">
-        <v>279329.4724858869</v>
+        <v>326521.5116516792</v>
       </c>
       <c r="G156" t="n">
-        <v>367528.1433478745</v>
+        <v>290675.1935789012</v>
       </c>
       <c r="H156" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="I156" t="n">
-        <v>18876034</v>
+        <v>19440478</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12657458</v>
+        <v>12597282</v>
       </c>
       <c r="E157" t="n">
-        <v>40034101</v>
+        <v>39843770</v>
       </c>
       <c r="F157" t="n">
-        <v>5510.675604919918</v>
+        <v>5979.469269810662</v>
       </c>
       <c r="G157" t="n">
-        <v>4389.380823508204</v>
+        <v>4551.829173972278</v>
       </c>
       <c r="H157" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="I157" t="n">
-        <v>925131</v>
+        <v>916604</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1106082</v>
+        <v>1107152</v>
       </c>
       <c r="E158" t="n">
-        <v>2519210</v>
+        <v>2521646</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>604.5599999999999</v>
+        <v>603.97</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18847441</v>
+        <v>18529793</v>
       </c>
       <c r="E159" t="n">
-        <v>18847441</v>
+        <v>18529793</v>
       </c>
       <c r="F159" t="n">
-        <v>11164.25362152646</v>
+        <v>14688.79877981431</v>
       </c>
       <c r="G159" t="n">
-        <v>23773.95220614579</v>
+        <v>24716.65725330569</v>
       </c>
       <c r="H159" t="n">
         <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>6345858</v>
+        <v>6436962</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4613862</v>
+        <v>4604688</v>
       </c>
       <c r="E160" t="n">
-        <v>8494613</v>
+        <v>8477722</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>11.51</v>
       </c>
       <c r="I160" t="n">
-        <v>65.09</v>
+        <v>64.98</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>115058</v>
+        <v>114015</v>
       </c>
       <c r="E161" t="n">
-        <v>139330</v>
+        <v>138067</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>5.77</v>
+        <v>10.61</v>
       </c>
       <c r="I161" t="n">
-        <v>1780.15</v>
+        <v>1682.32</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>22202213</v>
+        <v>22205814</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>17.33</v>
+        <v>16.09</v>
       </c>
       <c r="I162" t="n">
-        <v>1033.85</v>
+        <v>1033.91</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>449794</v>
+        <v>456964</v>
       </c>
       <c r="E163" t="n">
-        <v>566572</v>
+        <v>575604</v>
       </c>
       <c r="F163" t="n">
-        <v>83.74646284614717</v>
+        <v>153.0805232949512</v>
       </c>
       <c r="G163" t="n">
-        <v>139.4250481398416</v>
+        <v>152.0194773035578</v>
       </c>
       <c r="H163" t="n">
-        <v>1.03</v>
+        <v>0.52</v>
       </c>
       <c r="I163" t="n">
-        <v>192054</v>
+        <v>150725</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104832</v>
+        <v>104624</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>8</v>
+        <v>6.34</v>
       </c>
       <c r="I164" t="n">
-        <v>3074.84</v>
+        <v>3069.62</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12639292</v>
+        <v>12637907</v>
       </c>
       <c r="E165" t="n">
-        <v>19239853</v>
+        <v>19237744</v>
       </c>
       <c r="F165" t="n">
-        <v>2588.066541097161</v>
+        <v>2340.398325581547</v>
       </c>
       <c r="G165" t="n">
-        <v>3867.572106692057</v>
+        <v>730.5049594992996</v>
       </c>
       <c r="H165" t="n">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="I165" t="n">
-        <v>656134</v>
+        <v>659626</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>305046034</v>
+        <v>300354551</v>
       </c>
       <c r="E166" t="n">
-        <v>305046034</v>
+        <v>300354551</v>
       </c>
       <c r="F166" t="n">
-        <v>297049.5215879094</v>
+        <v>312185.9973083757</v>
       </c>
       <c r="G166" t="n">
-        <v>319575.4622351218</v>
+        <v>262806.7338636835</v>
       </c>
       <c r="H166" t="n">
         <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>84797003</v>
+        <v>84474557</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10203644</v>
+        <v>10152301</v>
       </c>
       <c r="E167" t="n">
-        <v>28969846</v>
+        <v>28824076</v>
       </c>
       <c r="F167" t="n">
-        <v>192.4628006424485</v>
+        <v>132.1043754441626</v>
       </c>
       <c r="G167" t="n">
-        <v>181.2624381930629</v>
+        <v>635.7133307594751</v>
       </c>
       <c r="H167" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="I167" t="n">
-        <v>113160</v>
+        <v>111875</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11591880</v>
+        <v>11615767</v>
       </c>
       <c r="F168" t="n">
-        <v>183.8368908454131</v>
+        <v>311.1633346475642</v>
       </c>
       <c r="G168" t="n">
-        <v>1164.637104981231</v>
+        <v>1392.083479023824</v>
       </c>
       <c r="H168" t="n">
-        <v>1.22</v>
+        <v>0.52</v>
       </c>
       <c r="I168" t="n">
-        <v>82734</v>
+        <v>88138</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4322758</v>
+        <v>4284783</v>
       </c>
       <c r="E169" t="n">
-        <v>29537104</v>
+        <v>29277620</v>
       </c>
       <c r="F169" t="n">
-        <v>1750.811243085575</v>
+        <v>2084.292177599046</v>
       </c>
       <c r="G169" t="n">
-        <v>1830.190869745309</v>
+        <v>1424.297860554341</v>
       </c>
       <c r="H169" t="n">
         <v>0.68</v>
       </c>
       <c r="I169" t="n">
-        <v>2683224</v>
+        <v>2679564</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2936917</v>
+        <v>2875249</v>
       </c>
       <c r="E170" t="n">
-        <v>4349453</v>
+        <v>4257953</v>
       </c>
       <c r="F170" t="n">
-        <v>4108.36075305049</v>
+        <v>2468.130703579735</v>
       </c>
       <c r="G170" t="n">
-        <v>1295.497989257307</v>
+        <v>2462.761532356864</v>
       </c>
       <c r="H170" t="n">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="I170" t="n">
-        <v>102848</v>
+        <v>95958</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>89571984</v>
+        <v>87727897</v>
       </c>
       <c r="E171" t="n">
-        <v>516152404</v>
+        <v>505525982</v>
       </c>
       <c r="F171" t="n">
-        <v>308580.4564417702</v>
+        <v>185272.5249895371</v>
       </c>
       <c r="G171" t="n">
-        <v>219499.5204858477</v>
+        <v>72585.60982592688</v>
       </c>
       <c r="H171" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I171" t="n">
-        <v>19983534</v>
+        <v>20074236</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13770002</v>
+        <v>13776310</v>
       </c>
       <c r="E172" t="n">
-        <v>13770002</v>
+        <v>13776310</v>
       </c>
       <c r="F172" t="n">
-        <v>4401.868788309362</v>
+        <v>5099.39750610711</v>
       </c>
       <c r="G172" t="n">
-        <v>5550.883076988699</v>
+        <v>7515.919354337548</v>
       </c>
       <c r="H172" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="I172" t="n">
-        <v>653011</v>
+        <v>666690</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6110937</v>
+        <v>6124840</v>
       </c>
       <c r="E173" t="n">
-        <v>17359418</v>
+        <v>17398913</v>
       </c>
       <c r="F173" t="n">
-        <v>652.0657050065408</v>
+        <v>752.8156423792103</v>
       </c>
       <c r="G173" t="n">
-        <v>8758.049129876938</v>
+        <v>8854.17573476367</v>
       </c>
       <c r="H173" t="n">
-        <v>1.37</v>
+        <v>0.74</v>
       </c>
       <c r="I173" t="n">
-        <v>112434</v>
+        <v>104438</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19686378</v>
+        <v>20236425</v>
       </c>
       <c r="E174" t="n">
-        <v>19686378</v>
+        <v>20236425</v>
       </c>
       <c r="F174" t="n">
-        <v>4.504208597852206</v>
+        <v>704.905605541835</v>
       </c>
       <c r="G174" t="n">
-        <v>14.0332332131961</v>
+        <v>14.03459705175969</v>
       </c>
       <c r="H174" t="n">
-        <v>1.97</v>
+        <v>1.61</v>
       </c>
       <c r="I174" t="n">
-        <v>147812</v>
+        <v>153980</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1329223</v>
+        <v>1338266</v>
       </c>
       <c r="F175" t="n">
-        <v>12.54291814203186</v>
+        <v>91.15350106136452</v>
       </c>
       <c r="G175" t="n">
-        <v>551.2623139295662</v>
+        <v>257.5474891553589</v>
       </c>
       <c r="H175" t="n">
-        <v>0.23</v>
+        <v>2.23</v>
       </c>
       <c r="I175" t="n">
-        <v>35709</v>
+        <v>38592</v>
       </c>
     </row>
     <row r="176">
@@ -6557,22 +6557,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>146653</v>
+        <v>126736</v>
       </c>
       <c r="E176" t="n">
-        <v>319260</v>
+        <v>275901</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>98.49257321837884</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>5.000824645841785</v>
       </c>
       <c r="H176" t="n">
-        <v>7.43</v>
+        <v>2.27</v>
       </c>
       <c r="I176" t="n">
-        <v>50428</v>
+        <v>43053</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3153040</v>
+        <v>3056513</v>
       </c>
       <c r="F177" t="n">
-        <v>1362.105506473125</v>
+        <v>430.2016752089717</v>
       </c>
       <c r="G177" t="n">
-        <v>1282.704349347734</v>
+        <v>4.829709080035806</v>
       </c>
       <c r="H177" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="I177" t="n">
-        <v>492514</v>
+        <v>493436</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>244004920</v>
+        <v>246737245</v>
       </c>
       <c r="E178" t="n">
-        <v>244007344</v>
+        <v>246739696</v>
       </c>
       <c r="F178" t="n">
-        <v>43748.76552549755</v>
+        <v>47154.44692041008</v>
       </c>
       <c r="G178" t="n">
-        <v>79645.92420657635</v>
+        <v>78851.02679635504</v>
       </c>
       <c r="H178" t="n">
         <v>0.29</v>
       </c>
       <c r="I178" t="n">
-        <v>1767058</v>
+        <v>1554063</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9353613</v>
+        <v>9299100</v>
       </c>
       <c r="E179" t="n">
-        <v>9353613</v>
+        <v>9299100</v>
       </c>
       <c r="F179" t="n">
-        <v>77.07662388596404</v>
+        <v>390.0798043139553</v>
       </c>
       <c r="G179" t="n">
-        <v>277.4393303037151</v>
+        <v>327.1939908159465</v>
       </c>
       <c r="H179" t="n">
-        <v>0.99</v>
+        <v>2.55</v>
       </c>
       <c r="I179" t="n">
-        <v>2785001</v>
+        <v>2836047</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>196001</v>
+        <v>194298</v>
       </c>
       <c r="E180" t="n">
-        <v>1513524</v>
+        <v>1500372</v>
       </c>
       <c r="F180" t="n">
-        <v>629.5294888446665</v>
+        <v>513.1739686655637</v>
       </c>
       <c r="G180" t="n">
-        <v>231.8062248853514</v>
+        <v>48.60321853210287</v>
       </c>
       <c r="H180" t="n">
-        <v>0.32</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I180" t="n">
-        <v>90105</v>
+        <v>84671</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30678622</v>
+        <v>30277478</v>
       </c>
       <c r="E181" t="n">
-        <v>137360775</v>
+        <v>135564688</v>
       </c>
       <c r="F181" t="n">
-        <v>71577.43793838685</v>
+        <v>56904.1808716166</v>
       </c>
       <c r="G181" t="n">
-        <v>62371.19924025369</v>
+        <v>63102.35756159756</v>
       </c>
       <c r="H181" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>11353175</v>
+        <v>12158048</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1254297</v>
+        <v>1279168</v>
       </c>
       <c r="F182" t="n">
-        <v>243.5873898790774</v>
+        <v>281.8117816820463</v>
       </c>
       <c r="G182" t="n">
-        <v>1300.283758041985</v>
+        <v>481.781375440563</v>
       </c>
       <c r="H182" t="n">
-        <v>0.32</v>
+        <v>2.8</v>
       </c>
       <c r="I182" t="n">
-        <v>74723</v>
+        <v>92494</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3118023</v>
+        <v>3094835</v>
       </c>
       <c r="E183" t="n">
-        <v>3118023</v>
+        <v>3094835</v>
       </c>
       <c r="F183" t="n">
-        <v>353.7807174394409</v>
+        <v>319.2711521150632</v>
       </c>
       <c r="G183" t="n">
-        <v>531.4831859924298</v>
+        <v>251.7297109029049</v>
       </c>
       <c r="H183" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>397931</v>
+        <v>387129</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>560139</v>
+        <v>564438</v>
       </c>
       <c r="E184" t="n">
-        <v>560139</v>
+        <v>564438</v>
       </c>
       <c r="F184" t="n">
-        <v>3.614727427635655</v>
+        <v>6.423721160832299</v>
       </c>
       <c r="G184" t="n">
-        <v>1.224717220953119</v>
+        <v>1.224836246736419</v>
       </c>
       <c r="H184" t="n">
-        <v>1.79</v>
+        <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>98696</v>
+        <v>1152194</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15066802</v>
+        <v>14900822</v>
       </c>
       <c r="E185" t="n">
-        <v>19182444</v>
+        <v>18971125</v>
       </c>
       <c r="F185" t="n">
-        <v>1045.323967230137</v>
+        <v>618.6375963372708</v>
       </c>
       <c r="G185" t="n">
-        <v>493.8157217881189</v>
+        <v>161.6505829974667</v>
       </c>
       <c r="H185" t="n">
-        <v>0.22</v>
+        <v>0.88</v>
       </c>
       <c r="I185" t="n">
-        <v>971650</v>
+        <v>989128</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1820596</v>
+        <v>1784238</v>
       </c>
       <c r="E186" t="n">
-        <v>1820596</v>
+        <v>1784238</v>
       </c>
       <c r="F186" t="n">
-        <v>33.51955912423431</v>
+        <v>35.04167326227154</v>
       </c>
       <c r="G186" t="n">
-        <v>8.255635469115896</v>
+        <v>2.030738567190809</v>
       </c>
       <c r="H186" t="n">
-        <v>3.22</v>
+        <v>3.54</v>
       </c>
       <c r="I186" t="n">
-        <v>3793.18</v>
+        <v>4115.9</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>51134332</v>
+        <v>50219955</v>
       </c>
       <c r="E187" t="n">
-        <v>331592532</v>
+        <v>325663045</v>
       </c>
       <c r="F187" t="n">
-        <v>127528.9927116889</v>
+        <v>128411.7258829295</v>
       </c>
       <c r="G187" t="n">
-        <v>100215.2286025138</v>
+        <v>176946.802004778</v>
       </c>
       <c r="H187" t="n">
         <v>0.06</v>
       </c>
       <c r="I187" t="n">
-        <v>19053485</v>
+        <v>19248942</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9084523</v>
+        <v>9091006</v>
       </c>
       <c r="F188" t="n">
-        <v>670.160905639529</v>
+        <v>621.2758258496436</v>
       </c>
       <c r="G188" t="n">
-        <v>209.7909492258374</v>
+        <v>268.1681089481513</v>
       </c>
       <c r="H188" t="n">
-        <v>2.6</v>
+        <v>0.33</v>
       </c>
       <c r="I188" t="n">
-        <v>293272</v>
+        <v>288020</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7286666</v>
+        <v>7144016</v>
       </c>
       <c r="E189" t="n">
-        <v>7297095</v>
+        <v>7154248</v>
       </c>
       <c r="F189" t="n">
-        <v>68.95149047859788</v>
+        <v>126.3425273338243</v>
       </c>
       <c r="G189" t="n">
-        <v>81.30791332521706</v>
+        <v>168.9970487339251</v>
       </c>
       <c r="H189" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I189" t="n">
-        <v>544018</v>
+        <v>701842</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4789109</v>
+        <v>4727566</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>2303.907693226602</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>16.54792394373453</v>
       </c>
       <c r="H190" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>236700</v>
+        <v>238645</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>106685660</v>
+        <v>100598168</v>
       </c>
       <c r="E191" t="n">
-        <v>107834054</v>
+        <v>101681034</v>
       </c>
       <c r="F191" t="n">
-        <v>21896.89611331439</v>
+        <v>31795.61085921232</v>
       </c>
       <c r="G191" t="n">
-        <v>39896.94091079451</v>
+        <v>30031.84408548581</v>
       </c>
       <c r="H191" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I191" t="n">
-        <v>80071591</v>
+        <v>78893941</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>248900840</v>
+        <v>246566128</v>
       </c>
       <c r="E192" t="n">
-        <v>248900840</v>
+        <v>246566128</v>
       </c>
       <c r="F192" t="n">
-        <v>72100.48335298953</v>
+        <v>64412.26784030007</v>
       </c>
       <c r="G192" t="n">
-        <v>89768.19423929229</v>
+        <v>109108.0772228183</v>
       </c>
       <c r="H192" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>70685163</v>
+        <v>74256149</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24227644</v>
+        <v>24009723</v>
       </c>
       <c r="E193" t="n">
-        <v>144958867</v>
+        <v>143654997</v>
       </c>
       <c r="F193" t="n">
-        <v>63141.54272033462</v>
+        <v>56928.31101197546</v>
       </c>
       <c r="G193" t="n">
-        <v>104129.5239532098</v>
+        <v>88817.22510898007</v>
       </c>
       <c r="H193" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>15879059</v>
+        <v>16317596</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13940265</v>
+        <v>13939841</v>
       </c>
       <c r="E194" t="n">
-        <v>42131350</v>
+        <v>42130070</v>
       </c>
       <c r="F194" t="n">
-        <v>536.0546678583009</v>
+        <v>646.8350314063122</v>
       </c>
       <c r="G194" t="n">
-        <v>2010.73328329903</v>
+        <v>880.143354084958</v>
       </c>
       <c r="H194" t="n">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="I194" t="n">
-        <v>2527204</v>
+        <v>2566733</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54123715</v>
+        <v>53658894</v>
       </c>
       <c r="E195" t="n">
-        <v>93483422</v>
+        <v>92680575</v>
       </c>
       <c r="F195" t="n">
-        <v>7334.202905851876</v>
+        <v>4072.810934223074</v>
       </c>
       <c r="G195" t="n">
-        <v>9019.832182764074</v>
+        <v>13034.06487890655</v>
       </c>
       <c r="H195" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I195" t="n">
-        <v>2378499</v>
+        <v>2333390</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4221344</v>
+        <v>4216928</v>
       </c>
       <c r="E196" t="n">
-        <v>4221344</v>
+        <v>4216928</v>
       </c>
       <c r="F196" t="n">
-        <v>129.8996678425797</v>
+        <v>33.32747156187178</v>
       </c>
       <c r="G196" t="n">
-        <v>108.9090308336169</v>
+        <v>336.4992132473293</v>
       </c>
       <c r="H196" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="I196" t="n">
-        <v>1758573</v>
+        <v>1234347</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>212968</v>
+        <v>199981</v>
       </c>
       <c r="F197" t="n">
-        <v>102.7146077967238</v>
+        <v>222.9174768665582</v>
       </c>
       <c r="G197" t="n">
-        <v>13.35463289840594</v>
+        <v>13.35593002616352</v>
       </c>
       <c r="H197" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="I197" t="n">
-        <v>58365</v>
+        <v>59257</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6579500</v>
+        <v>6362384</v>
       </c>
       <c r="E198" t="n">
-        <v>33849526</v>
+        <v>32732531</v>
       </c>
       <c r="F198" t="n">
-        <v>253.6462809243553</v>
+        <v>281.854918210095</v>
       </c>
       <c r="G198" t="n">
-        <v>611.6649559569747</v>
+        <v>348.3147166873732</v>
       </c>
       <c r="H198" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="I198" t="n">
-        <v>952587</v>
+        <v>946511</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>177113518</v>
+        <v>176187261</v>
       </c>
       <c r="E199" t="n">
-        <v>206920885</v>
+        <v>205838744</v>
       </c>
       <c r="F199" t="n">
-        <v>37799.9084231396</v>
+        <v>35564.23775349891</v>
       </c>
       <c r="G199" t="n">
-        <v>31001.07467894835</v>
+        <v>25640.19181097676</v>
       </c>
       <c r="H199" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I199" t="n">
-        <v>4372875</v>
+        <v>4308523</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>306840</v>
+        <v>304932</v>
       </c>
       <c r="F200" t="n">
-        <v>15.41833408204713</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>12.53207130364814</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>3.51</v>
+        <v>4.22</v>
       </c>
       <c r="I200" t="n">
-        <v>259609</v>
+        <v>253505</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7676283</v>
+        <v>7642822</v>
       </c>
       <c r="F201" t="n">
-        <v>938.5505036444456</v>
+        <v>976.7771959877675</v>
       </c>
       <c r="G201" t="n">
-        <v>596.0813306229512</v>
+        <v>427.9484386753459</v>
       </c>
       <c r="H201" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="I201" t="n">
-        <v>652010</v>
+        <v>653247</v>
       </c>
     </row>
     <row r="202">
@@ -7470,19 +7470,19 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34004</v>
+        <v>33943</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>216.5615971661144</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>11.44404870941008</v>
       </c>
       <c r="H202" t="n">
-        <v>5.56</v>
+        <v>2.78</v>
       </c>
       <c r="I202" t="n">
-        <v>192.37</v>
+        <v>160.25</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33924700</v>
+        <v>33325207</v>
       </c>
       <c r="E203" t="n">
-        <v>169299890</v>
+        <v>166308146</v>
       </c>
       <c r="F203" t="n">
-        <v>110975.8415340341</v>
+        <v>132418.9820091831</v>
       </c>
       <c r="G203" t="n">
-        <v>97809.53013115696</v>
+        <v>74914.77311568715</v>
       </c>
       <c r="H203" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I203" t="n">
-        <v>13341806</v>
+        <v>13394984</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1971878</v>
+        <v>1964447</v>
       </c>
       <c r="E204" t="n">
-        <v>1971878</v>
+        <v>1964447</v>
       </c>
       <c r="F204" t="n">
-        <v>182.8004322899117</v>
+        <v>182.8181979947361</v>
       </c>
       <c r="G204" t="n">
-        <v>6.017725648459527</v>
+        <v>6.018310489185808</v>
       </c>
       <c r="H204" t="n">
         <v>1.62</v>
       </c>
       <c r="I204" t="n">
-        <v>9110.51</v>
+        <v>9930.799999999999</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>169173</v>
+        <v>177847</v>
       </c>
       <c r="F205" t="n">
-        <v>24.61732475078059</v>
+        <v>52.1082734751033</v>
       </c>
       <c r="G205" t="n">
-        <v>3.294111942174112</v>
+        <v>72.52217237767459</v>
       </c>
       <c r="H205" t="n">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="I205" t="n">
-        <v>19926.38</v>
+        <v>21199</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2929.23</v>
+        <v>2914.22</v>
       </c>
       <c r="E206" t="n">
-        <v>35011</v>
+        <v>34831</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>2.486787613520573</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>48.79632577589981</v>
       </c>
       <c r="H206" t="n">
-        <v>5.29</v>
+        <v>2.99</v>
       </c>
       <c r="I206" t="n">
-        <v>4266.98</v>
+        <v>4303.18</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>323288570</v>
+        <v>316569031</v>
       </c>
       <c r="E208" t="n">
-        <v>598157580</v>
+        <v>585724899</v>
       </c>
       <c r="F208" t="n">
-        <v>59165.71614536739</v>
+        <v>21261.32149599815</v>
       </c>
       <c r="G208" t="n">
-        <v>89854.92333425701</v>
+        <v>32804.59509371722</v>
       </c>
       <c r="H208" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I208" t="n">
-        <v>14812285</v>
+        <v>14826848</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72329913</v>
+        <v>71648698</v>
       </c>
       <c r="E209" t="n">
-        <v>689929501</v>
+        <v>683426337</v>
       </c>
       <c r="F209" t="n">
-        <v>374591.8907846599</v>
+        <v>146888.3417746356</v>
       </c>
       <c r="G209" t="n">
-        <v>197036.0577906865</v>
+        <v>129920.2019937911</v>
       </c>
       <c r="H209" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="I209" t="n">
-        <v>22447502</v>
+        <v>22560133</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2407940</v>
+        <v>2429940</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>43.86761885707358</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>10.86128476121387</v>
       </c>
       <c r="H210" t="n">
-        <v>5.03</v>
+        <v>2.45</v>
       </c>
       <c r="I210" t="n">
-        <v>45740</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>83551</v>
+        <v>83388</v>
       </c>
       <c r="E211" t="n">
-        <v>694576</v>
+        <v>693219</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>7.14</v>
+        <v>5.8</v>
       </c>
       <c r="I211" t="n">
-        <v>118.43</v>
+        <v>118.23</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1885010</v>
+        <v>1877546</v>
       </c>
       <c r="E212" t="n">
-        <v>5383347</v>
+        <v>5362030</v>
       </c>
       <c r="F212" t="n">
-        <v>2928.854967804145</v>
+        <v>101.3749815988237</v>
       </c>
       <c r="G212" t="n">
-        <v>219.8235041849957</v>
+        <v>414.1732696124827</v>
       </c>
       <c r="H212" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="I212" t="n">
-        <v>79273</v>
+        <v>79501</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9937371</v>
+        <v>9612681</v>
       </c>
       <c r="E213" t="n">
-        <v>29459719</v>
+        <v>28497162</v>
       </c>
       <c r="F213" t="n">
-        <v>2477.219024303759</v>
+        <v>2250.170166927384</v>
       </c>
       <c r="G213" t="n">
-        <v>2933.896465997253</v>
+        <v>3536.474181838452</v>
       </c>
       <c r="H213" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I213" t="n">
-        <v>6136806</v>
+        <v>6147954</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14554568</v>
+        <v>14528532</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>5.87</v>
+        <v>5.46</v>
       </c>
       <c r="I214" t="n">
-        <v>410.27</v>
+        <v>410.11</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2020542</v>
+        <v>2006246</v>
       </c>
       <c r="E215" t="n">
-        <v>5844927</v>
+        <v>5803570</v>
       </c>
       <c r="F215" t="n">
-        <v>82.36767167682031</v>
+        <v>62.4955314562763</v>
       </c>
       <c r="G215" t="n">
-        <v>655.8134474552721</v>
+        <v>656.592381995639</v>
       </c>
       <c r="H215" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="I215" t="n">
-        <v>53927</v>
+        <v>52523</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2267446</v>
+        <v>2274044</v>
       </c>
       <c r="E216" t="n">
-        <v>20000378</v>
+        <v>20058578</v>
       </c>
       <c r="F216" t="n">
-        <v>3318.378773905558</v>
+        <v>3533.004392876939</v>
       </c>
       <c r="G216" t="n">
-        <v>1882.135437500856</v>
+        <v>1478.589569628891</v>
       </c>
       <c r="H216" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="I216" t="n">
-        <v>48472</v>
+        <v>50408</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45364491</v>
+        <v>45008409</v>
       </c>
       <c r="E217" t="n">
-        <v>45364491</v>
+        <v>45008409</v>
       </c>
       <c r="F217" t="n">
-        <v>37296.99105495693</v>
+        <v>42695.04260378306</v>
       </c>
       <c r="G217" t="n">
-        <v>50363.93801603537</v>
+        <v>46158.61192243651</v>
       </c>
       <c r="H217" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I217" t="n">
-        <v>10123236</v>
+        <v>10165776</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8099347</v>
+        <v>8140273</v>
       </c>
       <c r="E218" t="n">
-        <v>11539714</v>
+        <v>11598024</v>
       </c>
       <c r="F218" t="n">
-        <v>1943.396749081023</v>
+        <v>4085.097244561093</v>
       </c>
       <c r="G218" t="n">
-        <v>465.1574239567116</v>
+        <v>514.8970813094426</v>
       </c>
       <c r="H218" t="n">
-        <v>0.68</v>
+        <v>1.42</v>
       </c>
       <c r="I218" t="n">
-        <v>376086</v>
+        <v>322184</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16440150</v>
+        <v>16446261</v>
       </c>
       <c r="F219" t="n">
-        <v>2.119754299380537</v>
+        <v>2.119960310540967</v>
       </c>
       <c r="G219" t="n">
-        <v>185.3762947082299</v>
+        <v>522.7608542200635</v>
       </c>
       <c r="H219" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="I219" t="n">
-        <v>1059734</v>
+        <v>1060814</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>726539</v>
+        <v>722794</v>
       </c>
       <c r="F220" t="n">
-        <v>84.19270268331496</v>
+        <v>187.2372976440621</v>
       </c>
       <c r="G220" t="n">
-        <v>309.3324128517766</v>
+        <v>209.0401467822079</v>
       </c>
       <c r="H220" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="I220" t="n">
-        <v>209238</v>
+        <v>208169</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2897683</v>
+        <v>2877046</v>
       </c>
       <c r="E221" t="n">
-        <v>2900192</v>
+        <v>2879538</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>3.96</v>
       </c>
       <c r="I221" t="n">
-        <v>95969</v>
+        <v>94481</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1303120</v>
+        <v>1280741</v>
       </c>
       <c r="E222" t="n">
-        <v>3942998</v>
+        <v>3875019</v>
       </c>
       <c r="F222" t="n">
-        <v>234.9352578970026</v>
+        <v>108.3287956742845</v>
       </c>
       <c r="G222" t="n">
-        <v>1149.040044332617</v>
+        <v>1964.382776300152</v>
       </c>
       <c r="H222" t="n">
-        <v>1.77</v>
+        <v>0.51</v>
       </c>
       <c r="I222" t="n">
-        <v>36926</v>
+        <v>37057</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>34653585</v>
+        <v>33117381</v>
       </c>
       <c r="E223" t="n">
-        <v>245688267</v>
+        <v>234796825</v>
       </c>
       <c r="F223" t="n">
-        <v>19950.00071906787</v>
+        <v>45448.36831630256</v>
       </c>
       <c r="G223" t="n">
-        <v>50864.72620680788</v>
+        <v>85150.20367300227</v>
       </c>
       <c r="H223" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="I223" t="n">
-        <v>3807078</v>
+        <v>4272866</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59640</v>
+        <v>59161</v>
       </c>
       <c r="E224" t="n">
-        <v>311176</v>
+        <v>308676</v>
       </c>
       <c r="F224" t="n">
-        <v>12.01160230610524</v>
+        <v>29.75665319081771</v>
       </c>
       <c r="G224" t="n">
-        <v>38.50780168371814</v>
+        <v>18.66461299683948</v>
       </c>
       <c r="H224" t="n">
-        <v>3.84</v>
+        <v>1.38</v>
       </c>
       <c r="I224" t="n">
-        <v>219468</v>
+        <v>215099</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1291374</v>
+        <v>1288670</v>
       </c>
       <c r="E225" t="n">
-        <v>8008446</v>
+        <v>7991676</v>
       </c>
       <c r="F225" t="n">
-        <v>1490.128451360351</v>
+        <v>1298.442591536989</v>
       </c>
       <c r="G225" t="n">
-        <v>1598.058769469435</v>
+        <v>810.1763270079656</v>
       </c>
       <c r="H225" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>801484</v>
+        <v>796953</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>606142679</v>
+        <v>598486897</v>
       </c>
       <c r="E226" t="n">
-        <v>2347501167</v>
+        <v>2317851453</v>
       </c>
       <c r="F226" t="n">
-        <v>243373.2380119814</v>
+        <v>300913.9041885506</v>
       </c>
       <c r="G226" t="n">
-        <v>320874.9965484065</v>
+        <v>315510.8639953333</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>52351661</v>
+        <v>52464522</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>21039266</v>
+        <v>20994564</v>
       </c>
       <c r="F227" t="n">
-        <v>1110.561740974637</v>
+        <v>1195.447936496985</v>
       </c>
       <c r="G227" t="n">
-        <v>336.7505548343672</v>
+        <v>307.8598649693021</v>
       </c>
       <c r="H227" t="n">
         <v>0.33</v>
       </c>
       <c r="I227" t="n">
-        <v>17602979</v>
+        <v>17532464</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>808715</v>
+        <v>812974</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>6.715052121500746</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>34.18875638394756</v>
       </c>
       <c r="H228" t="n">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="I228" t="n">
-        <v>174546</v>
+        <v>175703</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5474603</v>
+        <v>5439875</v>
       </c>
       <c r="E229" t="n">
-        <v>24506670</v>
+        <v>24351214</v>
       </c>
       <c r="F229" t="n">
-        <v>1861.529401773101</v>
+        <v>1322.669316455857</v>
       </c>
       <c r="G229" t="n">
-        <v>4764.445815545585</v>
+        <v>5045.970353095188</v>
       </c>
       <c r="H229" t="n">
         <v>0.41</v>
       </c>
       <c r="I229" t="n">
-        <v>182712</v>
+        <v>184190</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6657249</v>
+        <v>6508294</v>
       </c>
       <c r="E230" t="n">
-        <v>12745844</v>
+        <v>12460657</v>
       </c>
       <c r="F230" t="n">
-        <v>91.71872562705408</v>
+        <v>80.49801280677106</v>
       </c>
       <c r="G230" t="n">
-        <v>387.0019206275021</v>
+        <v>429.0941051897657</v>
       </c>
       <c r="H230" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="I230" t="n">
-        <v>36119</v>
+        <v>33478</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3196259</v>
+        <v>3184158</v>
       </c>
       <c r="E231" t="n">
-        <v>21017853</v>
+        <v>20938284</v>
       </c>
       <c r="F231" t="n">
-        <v>235.0280742153468</v>
+        <v>295.364742226304</v>
       </c>
       <c r="G231" t="n">
-        <v>385.9604337297031</v>
+        <v>226.2919603694227</v>
       </c>
       <c r="H231" t="n">
-        <v>1.14</v>
+        <v>0.91</v>
       </c>
       <c r="I231" t="n">
-        <v>1622564</v>
+        <v>1639282</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>114760483</v>
+        <v>111737981</v>
       </c>
       <c r="E232" t="n">
-        <v>1066272788</v>
+        <v>1038189844</v>
       </c>
       <c r="F232" t="n">
-        <v>109836.6415344491</v>
+        <v>12558.83209158032</v>
       </c>
       <c r="G232" t="n">
-        <v>67068.96097397142</v>
+        <v>25939.68402693768</v>
       </c>
       <c r="H232" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I232" t="n">
-        <v>8988340</v>
+        <v>9922647</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>350.08</v>
+        <v>349.94</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>102830522</v>
+        <v>100041222</v>
       </c>
       <c r="E234" t="n">
-        <v>156870372</v>
+        <v>152615229</v>
       </c>
       <c r="F234" t="n">
-        <v>36926.67937686373</v>
+        <v>32791.12164367996</v>
       </c>
       <c r="G234" t="n">
-        <v>26523.30645025428</v>
+        <v>23798.96001668286</v>
       </c>
       <c r="H234" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I234" t="n">
-        <v>10581484</v>
+        <v>10966095</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16729889</v>
+        <v>16675387</v>
       </c>
       <c r="E235" t="n">
-        <v>22951959</v>
+        <v>22877187</v>
       </c>
       <c r="F235" t="n">
-        <v>2084.118325410251</v>
+        <v>2383.804048313096</v>
       </c>
       <c r="G235" t="n">
-        <v>571.0540622258164</v>
+        <v>503.039269978277</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="I235" t="n">
-        <v>747033</v>
+        <v>836503</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>126073482</v>
+        <v>125474164</v>
       </c>
       <c r="E236" t="n">
-        <v>483638170</v>
+        <v>481339088</v>
       </c>
       <c r="F236" t="n">
-        <v>428704.9529235025</v>
+        <v>442960.0395360397</v>
       </c>
       <c r="G236" t="n">
-        <v>398724.0020771968</v>
+        <v>345646.3538116455</v>
       </c>
       <c r="H236" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I236" t="n">
-        <v>40814677</v>
+        <v>40554442</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>668676</v>
+        <v>653947</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>9.029999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I237" t="n">
-        <v>41352</v>
+        <v>40951</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>784341</v>
+        <v>778289</v>
       </c>
       <c r="F238" t="n">
-        <v>719.0613209979324</v>
+        <v>266.2457358476944</v>
       </c>
       <c r="G238" t="n">
-        <v>188.6792120498195</v>
+        <v>155.4241680979934</v>
       </c>
       <c r="H238" t="n">
-        <v>1.8</v>
+        <v>1.12</v>
       </c>
       <c r="I238" t="n">
-        <v>201275</v>
+        <v>215855</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3171640</v>
+        <v>3154884</v>
       </c>
       <c r="E239" t="n">
-        <v>30051756</v>
+        <v>29892996</v>
       </c>
       <c r="F239" t="n">
-        <v>647.6615724775102</v>
+        <v>766.7459212777007</v>
       </c>
       <c r="G239" t="n">
-        <v>658.5004774511715</v>
+        <v>799.8278336024028</v>
       </c>
       <c r="H239" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="I239" t="n">
-        <v>204884</v>
+        <v>244880</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>729680</v>
+        <v>727444</v>
       </c>
       <c r="E240" t="n">
-        <v>780024</v>
+        <v>777633</v>
       </c>
       <c r="F240" t="n">
-        <v>64.82661646742987</v>
+        <v>47.27365449373618</v>
       </c>
       <c r="G240" t="n">
-        <v>1569.750554470339</v>
+        <v>1569.903112780237</v>
       </c>
       <c r="H240" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="I240" t="n">
-        <v>120777</v>
+        <v>120336</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>384208</v>
+        <v>383444</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>13.07</v>
+        <v>12.99</v>
       </c>
       <c r="I241" t="n">
-        <v>770.1900000000001</v>
+        <v>759.26</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>129530</v>
+        <v>131828</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>5.76</v>
+        <v>5.04</v>
       </c>
       <c r="I242" t="n">
-        <v>68501</v>
+        <v>67955</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>565367</v>
+        <v>569523</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>3.510070017711003</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>91.87504739250498</v>
       </c>
       <c r="H243" t="n">
-        <v>4.21</v>
+        <v>2.13</v>
       </c>
       <c r="I243" t="n">
-        <v>7886.68</v>
+        <v>7885.14</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6802168</v>
+        <v>6800648</v>
       </c>
       <c r="E244" t="n">
-        <v>42511602</v>
+        <v>42502102</v>
       </c>
       <c r="F244" t="n">
-        <v>265.0584114895663</v>
+        <v>239.8014717339678</v>
       </c>
       <c r="G244" t="n">
-        <v>1352.130170415739</v>
+        <v>1309.495890227336</v>
       </c>
       <c r="H244" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I244" t="n">
-        <v>411749</v>
+        <v>410943</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5248723</v>
+        <v>5122377</v>
       </c>
       <c r="E245" t="n">
-        <v>19504355</v>
+        <v>19034848</v>
       </c>
       <c r="F245" t="n">
-        <v>810.8438620891372</v>
+        <v>745.8252890905377</v>
       </c>
       <c r="G245" t="n">
-        <v>5302.520147821302</v>
+        <v>5289.60113639959</v>
       </c>
       <c r="H245" t="n">
-        <v>0.52</v>
+        <v>1.05</v>
       </c>
       <c r="I245" t="n">
-        <v>139729</v>
+        <v>84984</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3517893</v>
+        <v>3507738</v>
       </c>
       <c r="F246" t="n">
-        <v>266.3830686637954</v>
+        <v>265.6391002448526</v>
       </c>
       <c r="G246" t="n">
-        <v>6834.010199916165</v>
+        <v>6169.299667228681</v>
       </c>
       <c r="H246" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="I246" t="n">
-        <v>28531</v>
+        <v>29652</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31482584</v>
+        <v>36311802</v>
       </c>
       <c r="E247" t="n">
-        <v>112844923</v>
+        <v>130154579</v>
       </c>
       <c r="F247" t="n">
-        <v>2215.230786812098</v>
+        <v>230.9390862787006</v>
       </c>
       <c r="G247" t="n">
-        <v>4364.524328036203</v>
+        <v>3048.659086362368</v>
       </c>
       <c r="H247" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="I247" t="n">
-        <v>75576</v>
+        <v>96253</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1538444</v>
+        <v>1537158</v>
       </c>
       <c r="F248" t="n">
-        <v>6.280427531531636</v>
+        <v>12.16019439812726</v>
       </c>
       <c r="G248" t="n">
-        <v>261.6324582724774</v>
+        <v>261.9857885573272</v>
       </c>
       <c r="H248" t="n">
-        <v>3.18</v>
+        <v>2.53</v>
       </c>
       <c r="I248" t="n">
-        <v>603905</v>
+        <v>602080</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2144102</v>
+        <v>2140760</v>
       </c>
       <c r="E249" t="n">
-        <v>16491826</v>
+        <v>16466120</v>
       </c>
       <c r="F249" t="n">
-        <v>132.4137187831659</v>
+        <v>240.416890028096</v>
       </c>
       <c r="G249" t="n">
-        <v>484.7760863703767</v>
+        <v>246.7216097446638</v>
       </c>
       <c r="H249" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="I249" t="n">
-        <v>225551</v>
+        <v>216295</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103434</v>
+        <v>103332</v>
       </c>
       <c r="E250" t="n">
-        <v>821579</v>
+        <v>820765</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2756830010793</v>
+        <v>161.1570154161273</v>
       </c>
       <c r="G250" t="n">
-        <v>347.2219597609645</v>
+        <v>347.255704992135</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>214.44</v>
+        <v>214.3</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88642332</v>
+        <v>88315971</v>
       </c>
       <c r="E251" t="n">
-        <v>327662936</v>
+        <v>326456208</v>
       </c>
       <c r="F251" t="n">
-        <v>6198.9416091887</v>
+        <v>4636.217936601781</v>
       </c>
       <c r="G251" t="n">
-        <v>5957.271822747857</v>
+        <v>4271.668421512764</v>
       </c>
       <c r="H251" t="n">
         <v>0.44</v>
       </c>
       <c r="I251" t="n">
-        <v>204734</v>
+        <v>214981</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2186167</v>
+        <v>2179616</v>
       </c>
       <c r="E252" t="n">
-        <v>8764009</v>
+        <v>8737746</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>4.415729672457844</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>6.000959522044071</v>
       </c>
       <c r="H252" t="n">
-        <v>4.61</v>
+        <v>3.85</v>
       </c>
       <c r="I252" t="n">
-        <v>14529.07</v>
+        <v>11588.56</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>575062</v>
+        <v>574033</v>
       </c>
       <c r="F253" t="n">
-        <v>16.6801271647373</v>
+        <v>420.684680114445</v>
       </c>
       <c r="G253" t="n">
-        <v>25.00169053031347</v>
+        <v>25.00413128053935</v>
       </c>
       <c r="H253" t="n">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="I253" t="n">
-        <v>2882.06</v>
+        <v>2253.31</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39204</v>
+        <v>39234</v>
       </c>
       <c r="F254" t="n">
-        <v>103.7272189114462</v>
+        <v>98.7591444866588</v>
       </c>
       <c r="G254" t="n">
-        <v>5.160813074050152</v>
+        <v>5.161316890208541</v>
       </c>
       <c r="H254" t="n">
         <v>0.76</v>
       </c>
       <c r="I254" t="n">
-        <v>1769.44</v>
+        <v>1160.13</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>817230162</v>
+        <v>816473743</v>
       </c>
       <c r="E255" t="n">
-        <v>1260241063</v>
+        <v>1259074599</v>
       </c>
       <c r="F255" t="n">
-        <v>133868.8511791428</v>
+        <v>116731.394342583</v>
       </c>
       <c r="G255" t="n">
-        <v>161606.9864113783</v>
+        <v>154508.4757574063</v>
       </c>
       <c r="H255" t="n">
         <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>333209617</v>
+        <v>336651989</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5902843</v>
+        <v>5869006</v>
       </c>
       <c r="E256" t="n">
-        <v>5902843</v>
+        <v>5869006</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>9.09</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I256" t="n">
-        <v>354.63</v>
+        <v>327.79</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39908499</v>
+        <v>39783960</v>
       </c>
       <c r="E257" t="n">
-        <v>190321130</v>
+        <v>189723909</v>
       </c>
       <c r="F257" t="n">
-        <v>609.3009875808585</v>
+        <v>609.7135666466688</v>
       </c>
       <c r="G257" t="n">
-        <v>233.2400752847414</v>
+        <v>329.0636217810865</v>
       </c>
       <c r="H257" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I257" t="n">
-        <v>270879</v>
+        <v>270362</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>572829</v>
+        <v>541851</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>5.39</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>295.88</v>
+        <v>285.11</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23347183</v>
+        <v>22949702</v>
       </c>
       <c r="E259" t="n">
-        <v>38911972</v>
+        <v>38249503</v>
       </c>
       <c r="F259" t="n">
-        <v>10632.67266824146</v>
+        <v>2110.522440990455</v>
       </c>
       <c r="G259" t="n">
-        <v>4164.711887113896</v>
+        <v>16765.3713105887</v>
       </c>
       <c r="H259" t="n">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="I259" t="n">
-        <v>497283</v>
+        <v>593877</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>108015</v>
+        <v>108103</v>
       </c>
       <c r="F260" t="n">
-        <v>167.8116006756327</v>
+        <v>226.2891053306449</v>
       </c>
       <c r="G260" t="n">
-        <v>176.7270188585526</v>
+        <v>175.7349022242132</v>
       </c>
       <c r="H260" t="n">
         <v>0.03</v>
       </c>
       <c r="I260" t="n">
-        <v>53724</v>
+        <v>54056</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1266397</v>
+        <v>1580644</v>
       </c>
       <c r="E261" t="n">
-        <v>5393851</v>
+        <v>6732296</v>
       </c>
       <c r="F261" t="n">
-        <v>412.057411378326</v>
+        <v>0.557556732857269</v>
       </c>
       <c r="G261" t="n">
-        <v>504.9029154361544</v>
+        <v>1.584490627434266</v>
       </c>
       <c r="H261" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="I261" t="n">
-        <v>778401</v>
+        <v>826299</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3814438</v>
+        <v>3809241</v>
       </c>
       <c r="E262" t="n">
-        <v>8314939</v>
+        <v>8303612</v>
       </c>
       <c r="F262" t="n">
-        <v>1677.980917789363</v>
+        <v>1663.153348870306</v>
       </c>
       <c r="G262" t="n">
-        <v>2718.368161885674</v>
+        <v>2797.293377908653</v>
       </c>
       <c r="H262" t="n">
         <v>0.6</v>
       </c>
       <c r="I262" t="n">
-        <v>1818558</v>
+        <v>1878877</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>495161308</v>
+        <v>490399355</v>
       </c>
       <c r="E263" t="n">
-        <v>1723615303</v>
+        <v>1707039342</v>
       </c>
       <c r="F263" t="n">
-        <v>590321.4843770544</v>
+        <v>358646.6934646638</v>
       </c>
       <c r="G263" t="n">
-        <v>431624.8052280773</v>
+        <v>393230.1756076409</v>
       </c>
       <c r="H263" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I263" t="n">
-        <v>42890504</v>
+        <v>43117106</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5752585510</v>
+        <v>5661068192</v>
       </c>
       <c r="E264" t="n">
-        <v>5752585510</v>
+        <v>5661066563</v>
       </c>
       <c r="F264" t="n">
-        <v>1918.660358737793</v>
+        <v>681.3805359872455</v>
       </c>
       <c r="G264" t="n">
-        <v>2012.55860269941</v>
+        <v>2247.716261434433</v>
       </c>
       <c r="H264" t="n">
-        <v>0.79</v>
+        <v>0.16</v>
       </c>
       <c r="I264" t="n">
-        <v>34062440</v>
+        <v>33555814</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22404999</v>
+        <v>22269941</v>
       </c>
       <c r="E265" t="n">
-        <v>22385537</v>
+        <v>22250597</v>
       </c>
       <c r="F265" t="n">
-        <v>618.8791936714248</v>
+        <v>3474.238207232364</v>
       </c>
       <c r="G265" t="n">
-        <v>1067.682252058207</v>
+        <v>1286.886552465153</v>
       </c>
       <c r="H265" t="n">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="I265" t="n">
-        <v>404847</v>
+        <v>404625</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11907384</v>
+        <v>11866660</v>
       </c>
       <c r="E266" t="n">
-        <v>24049190</v>
+        <v>23965688</v>
       </c>
       <c r="F266" t="n">
-        <v>676.1817648618388</v>
+        <v>738.107672601376</v>
       </c>
       <c r="G266" t="n">
-        <v>722.9753562230788</v>
+        <v>830.9321344788473</v>
       </c>
       <c r="H266" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="I266" t="n">
-        <v>56135</v>
+        <v>55504</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>148826</v>
+        <v>148323</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5513252580613</v>
+        <v>184.5952053343856</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1303904555026</v>
+        <v>132.1432894744694</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>55487</v>
+        <v>55414</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47215</v>
+        <v>47121</v>
       </c>
       <c r="F268" t="n">
-        <v>73.6380648892018</v>
+        <v>82.68834900249878</v>
       </c>
       <c r="G268" t="n">
-        <v>1.000067293190353</v>
+        <v>1.000164923167365</v>
       </c>
       <c r="H268" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="I268" t="n">
-        <v>69679</v>
+        <v>69603</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2577927</v>
+        <v>2545145</v>
       </c>
       <c r="E269" t="n">
-        <v>10311707</v>
+        <v>10180581</v>
       </c>
       <c r="F269" t="n">
-        <v>16534.80441829519</v>
+        <v>20958.90238678063</v>
       </c>
       <c r="G269" t="n">
-        <v>41521.67479122303</v>
+        <v>26878.11944868057</v>
       </c>
       <c r="H269" t="n">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="I269" t="n">
-        <v>7116928</v>
+        <v>7122217</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>221168081</v>
+        <v>217588637</v>
       </c>
       <c r="E270" t="n">
-        <v>680008620</v>
+        <v>669003175</v>
       </c>
       <c r="F270" t="n">
-        <v>218699.1763752131</v>
+        <v>193528.8507199227</v>
       </c>
       <c r="G270" t="n">
-        <v>209250.1036936965</v>
+        <v>146705.1751304623</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I270" t="n">
-        <v>19782181</v>
+        <v>20185160</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>142061012</v>
+        <v>139460330</v>
       </c>
       <c r="E271" t="n">
-        <v>371130453</v>
+        <v>364336242</v>
       </c>
       <c r="F271" t="n">
-        <v>44945.18004991186</v>
+        <v>63624.08288853303</v>
       </c>
       <c r="G271" t="n">
-        <v>50749.90410293637</v>
+        <v>56340.74613645522</v>
       </c>
       <c r="H271" t="n">
         <v>0.27</v>
       </c>
       <c r="I271" t="n">
-        <v>8672423</v>
+        <v>8920284</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2426234</v>
+        <v>2383911</v>
       </c>
       <c r="E272" t="n">
-        <v>3329724</v>
+        <v>3271880</v>
       </c>
       <c r="F272" t="n">
-        <v>157.7243177427198</v>
+        <v>157.3638964262961</v>
       </c>
       <c r="G272" t="n">
-        <v>14.13634053455964</v>
+        <v>14.13772057229393</v>
       </c>
       <c r="H272" t="n">
         <v>1.04</v>
       </c>
       <c r="I272" t="n">
-        <v>1789962</v>
+        <v>1803100</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56728</v>
+        <v>56632</v>
       </c>
       <c r="F2" t="n">
-        <v>17.20664929409021</v>
+        <v>17.20660960856485</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87897568453129</v>
+        <v>10.87895059319258</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>465.39</v>
+        <v>465.83</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>99224</v>
+        <v>99234</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>426.31</v>
+        <v>426.02</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>625922984</v>
+        <v>625421596</v>
       </c>
       <c r="E4" t="n">
-        <v>1214623761</v>
+        <v>1213650802</v>
       </c>
       <c r="F4" t="n">
-        <v>27010.84236633508</v>
+        <v>23264.10127744127</v>
       </c>
       <c r="G4" t="n">
-        <v>27451.89647484261</v>
+        <v>21997.72422264329</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>36417270</v>
+        <v>38424752</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1481726</v>
+        <v>1481821</v>
       </c>
       <c r="E5" t="n">
-        <v>4789545</v>
+        <v>4789855</v>
       </c>
       <c r="F5" t="n">
-        <v>687.9196000277869</v>
+        <v>729.3843297394977</v>
       </c>
       <c r="G5" t="n">
-        <v>1641.267133106332</v>
+        <v>2277.009810560964</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>0.42</v>
       </c>
       <c r="I5" t="n">
-        <v>226118</v>
+        <v>225952</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>146096221</v>
+        <v>143616624</v>
       </c>
       <c r="E6" t="n">
-        <v>161897444</v>
+        <v>159149663</v>
       </c>
       <c r="F6" t="n">
-        <v>210063.5298790371</v>
+        <v>224499.3788208019</v>
       </c>
       <c r="G6" t="n">
-        <v>234482.0865649381</v>
+        <v>203383.1297288515</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>49493784</v>
+        <v>49304569</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3823.58</v>
+        <v>3818.63</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.71</v>
+        <v>153.86</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8635970</v>
+        <v>8433521</v>
       </c>
       <c r="E8" t="n">
-        <v>8853738</v>
+        <v>8646183</v>
       </c>
       <c r="F8" t="n">
-        <v>80.43746940234189</v>
+        <v>276.9120432624543</v>
       </c>
       <c r="G8" t="n">
-        <v>1342.977442850165</v>
+        <v>316.3185925822263</v>
       </c>
       <c r="H8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="I8" t="n">
-        <v>98708</v>
+        <v>96171</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>295505</v>
+        <v>294808</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>890.17</v>
+        <v>882.3099999999999</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5028332</v>
+        <v>5009582</v>
       </c>
       <c r="E10" t="n">
-        <v>8033764</v>
+        <v>8003806</v>
       </c>
       <c r="F10" t="n">
-        <v>205.8180865807865</v>
+        <v>201.844174476915</v>
       </c>
       <c r="G10" t="n">
-        <v>232.9177893282257</v>
+        <v>242.9180198197589</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="I10" t="n">
-        <v>97480</v>
+        <v>97079</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1003668</v>
+        <v>1002629</v>
       </c>
       <c r="E11" t="n">
-        <v>12282186</v>
+        <v>12269472</v>
       </c>
       <c r="F11" t="n">
-        <v>1570.001019914795</v>
+        <v>1570.460677040025</v>
       </c>
       <c r="G11" t="n">
-        <v>1350.202811898433</v>
+        <v>1360.915428280536</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>446.36</v>
+        <v>445.65</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>574188</v>
+        <v>566844</v>
       </c>
       <c r="E12" t="n">
-        <v>574188</v>
+        <v>566844</v>
       </c>
       <c r="F12" t="n">
-        <v>166.0816388801875</v>
+        <v>151.541426499411</v>
       </c>
       <c r="G12" t="n">
-        <v>263.2332572939449</v>
+        <v>188.003860881324</v>
       </c>
       <c r="H12" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
-        <v>27780</v>
+        <v>27818</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4261269</v>
+        <v>4255783</v>
       </c>
       <c r="E13" t="n">
-        <v>26166348</v>
+        <v>26132660</v>
       </c>
       <c r="F13" t="n">
-        <v>839.1733135835451</v>
+        <v>195.6000454575674</v>
       </c>
       <c r="G13" t="n">
-        <v>526.1766651920409</v>
+        <v>945.0524504467874</v>
       </c>
       <c r="H13" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="I13" t="n">
-        <v>708487</v>
+        <v>707077</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197696</v>
+        <v>196916</v>
       </c>
       <c r="E14" t="n">
-        <v>2174879</v>
+        <v>2166291</v>
       </c>
       <c r="F14" t="n">
-        <v>353.4844449535105</v>
+        <v>183.2727960816353</v>
       </c>
       <c r="G14" t="n">
-        <v>567.1499465774599</v>
+        <v>437.1477940366677</v>
       </c>
       <c r="H14" t="n">
         <v>2.28</v>
       </c>
       <c r="I14" t="n">
-        <v>33466</v>
+        <v>34697</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3330225</v>
+        <v>3306314</v>
       </c>
       <c r="E15" t="n">
-        <v>9474196</v>
+        <v>9406170</v>
       </c>
       <c r="F15" t="n">
-        <v>372.8649501640626</v>
+        <v>256.3276403834005</v>
       </c>
       <c r="G15" t="n">
-        <v>162.1734130696546</v>
+        <v>149.7297905552832</v>
       </c>
       <c r="H15" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="I15" t="n">
-        <v>113176</v>
+        <v>113268</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>315461</v>
+        <v>313499</v>
       </c>
       <c r="E16" t="n">
-        <v>3640794</v>
+        <v>3618150</v>
       </c>
       <c r="F16" t="n">
-        <v>132.1610798142148</v>
+        <v>139.2374880617139</v>
       </c>
       <c r="G16" t="n">
-        <v>132.0143245638027</v>
+        <v>131.5211857837465</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>2630.55</v>
+        <v>2619.07</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>946629</v>
+        <v>943770</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.57</v>
+        <v>4.38</v>
       </c>
       <c r="I17" t="n">
-        <v>10769.96</v>
+        <v>10548.3</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24380076</v>
+        <v>24644638</v>
       </c>
       <c r="E18" t="n">
-        <v>24425044</v>
+        <v>24690094</v>
       </c>
       <c r="F18" t="n">
-        <v>156.696096536428</v>
+        <v>1116.627252672054</v>
       </c>
       <c r="G18" t="n">
-        <v>1056.716080221944</v>
+        <v>2795.075354364578</v>
       </c>
       <c r="H18" t="n">
-        <v>1.96</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="n">
-        <v>872778</v>
+        <v>875858</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6709702</v>
+        <v>6926605</v>
       </c>
       <c r="F19" t="n">
-        <v>234.4367667521148</v>
+        <v>234.436226045665</v>
       </c>
       <c r="G19" t="n">
-        <v>13.70368777001453</v>
+        <v>13.7036561637419</v>
       </c>
       <c r="H19" t="n">
         <v>3.46</v>
       </c>
       <c r="I19" t="n">
-        <v>21441</v>
+        <v>19140.61</v>
       </c>
     </row>
     <row r="20">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2450620</v>
+        <v>2442691</v>
       </c>
       <c r="E20" t="n">
-        <v>2450620</v>
+        <v>2442691</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4.93</v>
+        <v>4.26</v>
       </c>
       <c r="I20" t="n">
-        <v>316021</v>
+        <v>318081</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>334049</v>
+        <v>345034</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>7.76</v>
+        <v>5.22</v>
       </c>
       <c r="I21" t="n">
-        <v>9342.67</v>
+        <v>9419.66</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17954157</v>
+        <v>17758450</v>
       </c>
       <c r="E22" t="n">
-        <v>23108473</v>
+        <v>22856582</v>
       </c>
       <c r="F22" t="n">
-        <v>1380.330290498</v>
+        <v>800.6208484506561</v>
       </c>
       <c r="G22" t="n">
-        <v>3483.589115304528</v>
+        <v>4467.280464989433</v>
       </c>
       <c r="H22" t="n">
-        <v>0.15</v>
+        <v>0.61</v>
       </c>
       <c r="I22" t="n">
-        <v>2014503</v>
+        <v>1982715</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>511919889</v>
+        <v>503593771</v>
       </c>
       <c r="E23" t="n">
-        <v>511919889</v>
+        <v>503593776</v>
       </c>
       <c r="F23" t="n">
-        <v>66199.45138270513</v>
+        <v>57493.67906262459</v>
       </c>
       <c r="G23" t="n">
-        <v>62316.90842220691</v>
+        <v>58118.38284423706</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="I23" t="n">
-        <v>72548921</v>
+        <v>81993330</v>
       </c>
     </row>
     <row r="24">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>17846.86</v>
+        <v>17824.96</v>
       </c>
       <c r="F24" t="n">
-        <v>211.320313065811</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.167241559564838</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.38</v>
+        <v>6.15</v>
       </c>
       <c r="I24" t="n">
-        <v>2223.42</v>
+        <v>2225.53</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4727394</v>
+        <v>4684109</v>
       </c>
       <c r="E25" t="n">
-        <v>4727394</v>
+        <v>4684109</v>
       </c>
       <c r="F25" t="n">
-        <v>626.2343258745992</v>
+        <v>559.6175593471128</v>
       </c>
       <c r="G25" t="n">
-        <v>1421.003393989789</v>
+        <v>1279.979004700919</v>
       </c>
       <c r="H25" t="n">
-        <v>0.67</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>1510492</v>
+        <v>2240124</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3396589</v>
+        <v>3372673</v>
       </c>
       <c r="E26" t="n">
-        <v>3396589</v>
+        <v>3372673</v>
       </c>
       <c r="F26" t="n">
-        <v>1147.488738131295</v>
+        <v>127.2413938435027</v>
       </c>
       <c r="G26" t="n">
-        <v>567.9938365251385</v>
+        <v>975.3487110553916</v>
       </c>
       <c r="H26" t="n">
-        <v>2.26</v>
+        <v>0.45</v>
       </c>
       <c r="I26" t="n">
-        <v>574838</v>
+        <v>576486</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>309304</v>
+        <v>304421</v>
       </c>
       <c r="E27" t="n">
-        <v>1443861</v>
+        <v>1421069</v>
       </c>
       <c r="F27" t="n">
-        <v>252.7185360002351</v>
+        <v>310.2060053301922</v>
       </c>
       <c r="G27" t="n">
-        <v>635.6357843354003</v>
+        <v>654.5458410444886</v>
       </c>
       <c r="H27" t="n">
-        <v>0.91</v>
+        <v>0.35</v>
       </c>
       <c r="I27" t="n">
-        <v>663666</v>
+        <v>668533</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1988748</v>
+        <v>1955226</v>
       </c>
       <c r="F28" t="n">
-        <v>714.8044365834285</v>
+        <v>465.3323132625991</v>
       </c>
       <c r="G28" t="n">
-        <v>513.5962675578859</v>
+        <v>354.9859153539887</v>
       </c>
       <c r="H28" t="n">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="n">
-        <v>1202455</v>
+        <v>1204321</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12053574</v>
+        <v>12098323</v>
       </c>
       <c r="E29" t="n">
-        <v>29999164</v>
+        <v>30110538</v>
       </c>
       <c r="F29" t="n">
-        <v>727.1129913972117</v>
+        <v>918.8434142018731</v>
       </c>
       <c r="G29" t="n">
-        <v>1365.620296343919</v>
+        <v>1067.803277306807</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
       <c r="I29" t="n">
-        <v>1431917</v>
+        <v>1525618</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>910393</v>
+        <v>893904</v>
       </c>
       <c r="E30" t="n">
-        <v>6372750</v>
+        <v>6257326</v>
       </c>
       <c r="F30" t="n">
-        <v>46.6001697944879</v>
+        <v>78.34973784051577</v>
       </c>
       <c r="G30" t="n">
-        <v>140.959435789</v>
+        <v>134.373051760755</v>
       </c>
       <c r="H30" t="n">
-        <v>1.9</v>
+        <v>2.82</v>
       </c>
       <c r="I30" t="n">
-        <v>155554</v>
+        <v>256206</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>175685</v>
+        <v>175159</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>677.25</v>
+        <v>676.61</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5634248</v>
+        <v>5662422</v>
       </c>
       <c r="E32" t="n">
-        <v>5903791</v>
+        <v>5933313</v>
       </c>
       <c r="F32" t="n">
-        <v>373.174710850131</v>
+        <v>130.2895701068939</v>
       </c>
       <c r="G32" t="n">
-        <v>10.57174691684698</v>
+        <v>171.1062596919373</v>
       </c>
       <c r="H32" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="I32" t="n">
-        <v>191159</v>
+        <v>157650</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4952789</v>
+        <v>4942335</v>
       </c>
       <c r="E33" t="n">
-        <v>7290774</v>
+        <v>7275385</v>
       </c>
       <c r="F33" t="n">
-        <v>269.8672468383373</v>
+        <v>271.8408221612656</v>
       </c>
       <c r="G33" t="n">
-        <v>145.519997336588</v>
+        <v>127.3411544883915</v>
       </c>
       <c r="H33" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I33" t="n">
-        <v>564192</v>
+        <v>570667</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7465247</v>
+        <v>7478927</v>
       </c>
       <c r="E34" t="n">
-        <v>7465247</v>
+        <v>7478927</v>
       </c>
       <c r="F34" t="n">
-        <v>2178.830412467075</v>
+        <v>1764.412669667351</v>
       </c>
       <c r="G34" t="n">
-        <v>4364.799385537851</v>
+        <v>3858.436356456459</v>
       </c>
       <c r="H34" t="n">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="I34" t="n">
-        <v>430545</v>
+        <v>277443</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1621693</v>
+        <v>1601182</v>
       </c>
       <c r="E35" t="n">
-        <v>1621693</v>
+        <v>1601182</v>
       </c>
       <c r="F35" t="n">
-        <v>61.40708444703143</v>
+        <v>29.99518255158284</v>
       </c>
       <c r="G35" t="n">
-        <v>73.68697272384379</v>
+        <v>58.52580717119488</v>
       </c>
       <c r="H35" t="n">
-        <v>1.82</v>
+        <v>3.78</v>
       </c>
       <c r="I35" t="n">
-        <v>283551</v>
+        <v>280261</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15846189</v>
+        <v>15814703</v>
       </c>
       <c r="F36" t="n">
-        <v>250.5672070762216</v>
+        <v>249.8494790554999</v>
       </c>
       <c r="G36" t="n">
-        <v>165.990932341484</v>
+        <v>166.3136021364552</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>9530.360000000001</v>
+        <v>9538.09</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55486</v>
+        <v>55418</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.98</v>
       </c>
       <c r="I37" t="n">
-        <v>1141.81</v>
+        <v>1142.9</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>143511789</v>
+        <v>141808388</v>
       </c>
       <c r="E38" t="n">
-        <v>143511789</v>
+        <v>141808388</v>
       </c>
       <c r="F38" t="n">
-        <v>312807.1935719482</v>
+        <v>352435.0050842664</v>
       </c>
       <c r="G38" t="n">
-        <v>291214.0817407161</v>
+        <v>282632.8561927092</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>87411464</v>
+        <v>88305512</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>66421086</v>
+        <v>65142825</v>
       </c>
       <c r="E39" t="n">
-        <v>340620953</v>
+        <v>334065772</v>
       </c>
       <c r="F39" t="n">
-        <v>86079.68061441077</v>
+        <v>101331.6192686519</v>
       </c>
       <c r="G39" t="n">
-        <v>87568.71919597527</v>
+        <v>81929.3998330672</v>
       </c>
       <c r="H39" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>26535885</v>
+        <v>27087973</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46416</v>
+        <v>46359</v>
       </c>
       <c r="E40" t="n">
-        <v>137168</v>
+        <v>137000</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>11.18</v>
       </c>
       <c r="I40" t="n">
-        <v>55.98</v>
+        <v>56.03</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>50235</v>
+        <v>49752</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.06</v>
       </c>
       <c r="I41" t="n">
-        <v>23070</v>
+        <v>22913</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>601408</v>
+        <v>600401</v>
       </c>
       <c r="F42" t="n">
-        <v>34.77436625241477</v>
+        <v>2445.593574842836</v>
       </c>
       <c r="G42" t="n">
-        <v>426.0354037579669</v>
+        <v>426.0343311325354</v>
       </c>
       <c r="H42" t="n">
         <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>1637.75</v>
+        <v>1635.87</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2631563</v>
+        <v>2601058</v>
       </c>
       <c r="E44" t="n">
-        <v>10575652</v>
+        <v>10453060</v>
       </c>
       <c r="F44" t="n">
-        <v>257.9625967493628</v>
+        <v>448.8708180613994</v>
       </c>
       <c r="G44" t="n">
-        <v>141.1086673486071</v>
+        <v>185.2089075475412</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I44" t="n">
-        <v>51616</v>
+        <v>52381</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17941405</v>
+        <v>17968924</v>
       </c>
       <c r="E45" t="n">
-        <v>125494217</v>
+        <v>125684494</v>
       </c>
       <c r="F45" t="n">
-        <v>57.5727731404205</v>
+        <v>335.3501334012215</v>
       </c>
       <c r="G45" t="n">
-        <v>52.52877346016702</v>
+        <v>62.03597271014118</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I45" t="n">
-        <v>992064</v>
+        <v>1000341</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>172213</v>
+        <v>168954</v>
       </c>
       <c r="E46" t="n">
-        <v>2304307</v>
+        <v>2260702</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>50665</v>
+        <v>49292</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>263256070</v>
+        <v>261070034</v>
       </c>
       <c r="E47" t="n">
-        <v>263256070</v>
+        <v>261070034</v>
       </c>
       <c r="F47" t="n">
-        <v>104549.2699725614</v>
+        <v>110402.9195440262</v>
       </c>
       <c r="G47" t="n">
-        <v>143339.9778504896</v>
+        <v>121165.3933813426</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>22227835</v>
+        <v>27209005</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>641846</v>
+        <v>639869</v>
       </c>
       <c r="E48" t="n">
-        <v>641846</v>
+        <v>639869</v>
       </c>
       <c r="F48" t="n">
-        <v>219.9290722608821</v>
+        <v>216.4014965920046</v>
       </c>
       <c r="G48" t="n">
-        <v>85.5032447008838</v>
+        <v>113.9995165600346</v>
       </c>
       <c r="H48" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="I48" t="n">
-        <v>2720.78</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>451635345</v>
+        <v>442860600</v>
       </c>
       <c r="E50" t="n">
-        <v>451635345</v>
+        <v>442860600</v>
       </c>
       <c r="F50" t="n">
-        <v>3935.335879543852</v>
+        <v>4776.753334208954</v>
       </c>
       <c r="G50" t="n">
-        <v>2850.235107255924</v>
+        <v>4140.815139768481</v>
       </c>
       <c r="H50" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I50" t="n">
-        <v>4090554</v>
+        <v>4113486</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2481283</v>
+        <v>2463582</v>
       </c>
       <c r="E51" t="n">
-        <v>2481283</v>
+        <v>2463582</v>
       </c>
       <c r="F51" t="n">
-        <v>325.3156101129756</v>
+        <v>802.2149719156928</v>
       </c>
       <c r="G51" t="n">
-        <v>30.45589981984546</v>
+        <v>1819.365745770195</v>
       </c>
       <c r="H51" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I51" t="n">
-        <v>111089</v>
+        <v>110677</v>
       </c>
     </row>
     <row r="52">
@@ -2237,22 +2237,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23751</v>
+        <v>23770</v>
       </c>
       <c r="E52" t="n">
-        <v>47503</v>
+        <v>47540</v>
       </c>
       <c r="F52" t="n">
-        <v>745.8309517742617</v>
+        <v>748.0213382362309</v>
       </c>
       <c r="G52" t="n">
-        <v>176.7040834745172</v>
+        <v>167.564257211547</v>
       </c>
       <c r="H52" t="n">
-        <v>2.09</v>
+        <v>1.68</v>
       </c>
       <c r="I52" t="n">
-        <v>2851.62</v>
+        <v>2853.84</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>165387</v>
+        <v>163624</v>
       </c>
       <c r="F53" t="n">
-        <v>11.09914106552075</v>
+        <v>22.6723313817065</v>
       </c>
       <c r="G53" t="n">
-        <v>35.57315704773291</v>
+        <v>4.892456166456579</v>
       </c>
       <c r="H53" t="n">
-        <v>2.31</v>
+        <v>3.79</v>
       </c>
       <c r="I53" t="n">
-        <v>21183</v>
+        <v>20924</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2572821</v>
+        <v>2562681</v>
       </c>
       <c r="E54" t="n">
-        <v>6577640</v>
+        <v>6551717</v>
       </c>
       <c r="F54" t="n">
-        <v>66.56372475046246</v>
+        <v>42.07932671646612</v>
       </c>
       <c r="G54" t="n">
-        <v>173.8194409048862</v>
+        <v>150.1996602148514</v>
       </c>
       <c r="H54" t="n">
-        <v>2.22</v>
+        <v>3.12</v>
       </c>
       <c r="I54" t="n">
-        <v>80932</v>
+        <v>81080</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3477.14</v>
+        <v>3475.74</v>
       </c>
       <c r="F55" t="n">
-        <v>7.758484012271222</v>
+        <v>7.758466118054351</v>
       </c>
       <c r="G55" t="n">
-        <v>8.10578723201488</v>
+        <v>8.105768536775656</v>
       </c>
       <c r="H55" t="n">
         <v>0.8</v>
       </c>
       <c r="I55" t="n">
-        <v>1603.83</v>
+        <v>1605.35</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>72021434</v>
+        <v>70500231</v>
       </c>
       <c r="E56" t="n">
-        <v>72021434</v>
+        <v>70500231</v>
       </c>
       <c r="F56" t="n">
-        <v>12189.30953818128</v>
+        <v>5307.695753243912</v>
       </c>
       <c r="G56" t="n">
-        <v>8708.03006208489</v>
+        <v>8022.276948423796</v>
       </c>
       <c r="H56" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="I56" t="n">
-        <v>3659258</v>
+        <v>3860356</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3339066</v>
+        <v>3340501</v>
       </c>
       <c r="E57" t="n">
-        <v>4231180</v>
+        <v>4232998</v>
       </c>
       <c r="F57" t="n">
-        <v>2169.764596796202</v>
+        <v>340.780576766174</v>
       </c>
       <c r="G57" t="n">
-        <v>762.1083524676753</v>
+        <v>877.6108150494047</v>
       </c>
       <c r="H57" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="I57" t="n">
-        <v>195411</v>
+        <v>194365</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4074696</v>
+        <v>4066552</v>
       </c>
       <c r="E58" t="n">
-        <v>8035643</v>
+        <v>8019584</v>
       </c>
       <c r="F58" t="n">
-        <v>3184.876331633242</v>
+        <v>2702.549510999421</v>
       </c>
       <c r="G58" t="n">
-        <v>16215.15683589491</v>
+        <v>16314.30908270504</v>
       </c>
       <c r="H58" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I58" t="n">
-        <v>1635369</v>
+        <v>1636691</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1598623</v>
+        <v>1596626</v>
       </c>
       <c r="E59" t="n">
-        <v>9178698</v>
+        <v>9167232</v>
       </c>
       <c r="F59" t="n">
-        <v>177.0653453708472</v>
+        <v>170.0297532882614</v>
       </c>
       <c r="G59" t="n">
-        <v>804.0989455576629</v>
+        <v>570.0668646888171</v>
       </c>
       <c r="H59" t="n">
-        <v>0.76</v>
+        <v>1.35</v>
       </c>
       <c r="I59" t="n">
-        <v>239238</v>
+        <v>240141</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>698367</v>
+        <v>631453</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>15.07</v>
+        <v>13.7</v>
       </c>
       <c r="I60" t="n">
-        <v>5434.22</v>
+        <v>5388.71</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31222413</v>
+        <v>31091619</v>
       </c>
       <c r="F61" t="n">
-        <v>594.2403892082541</v>
+        <v>600.3922482426526</v>
       </c>
       <c r="G61" t="n">
-        <v>1707.802486368579</v>
+        <v>1506.306995274851</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="I61" t="n">
-        <v>236570</v>
+        <v>236676</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1432698</v>
+        <v>1430855</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5.82</v>
       </c>
       <c r="I62" t="n">
-        <v>27148</v>
+        <v>27072</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17567696</v>
+        <v>17506747</v>
       </c>
       <c r="E63" t="n">
-        <v>18515939</v>
+        <v>18451700</v>
       </c>
       <c r="F63" t="n">
-        <v>1126.30455014314</v>
+        <v>1125.590568025693</v>
       </c>
       <c r="G63" t="n">
-        <v>1748.420277241354</v>
+        <v>1708.645850789872</v>
       </c>
       <c r="H63" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="I63" t="n">
-        <v>43098</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2958445</v>
+        <v>2945510</v>
       </c>
       <c r="E64" t="n">
-        <v>2958445</v>
+        <v>2945510</v>
       </c>
       <c r="F64" t="n">
-        <v>111.7789618832556</v>
+        <v>283.9967372575045</v>
       </c>
       <c r="G64" t="n">
-        <v>9.574963824506577</v>
+        <v>52.64801524621452</v>
       </c>
       <c r="H64" t="n">
-        <v>1.62</v>
+        <v>0.85</v>
       </c>
       <c r="I64" t="n">
-        <v>16557.39</v>
+        <v>15445.73</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3390169</v>
+        <v>3370110</v>
       </c>
       <c r="E65" t="n">
-        <v>8365068</v>
+        <v>8315574</v>
       </c>
       <c r="F65" t="n">
-        <v>635.1314251031063</v>
+        <v>839.05615513469</v>
       </c>
       <c r="G65" t="n">
-        <v>1186.35273116965</v>
+        <v>1030.022756028603</v>
       </c>
       <c r="H65" t="n">
-        <v>0.14</v>
+        <v>0.97</v>
       </c>
       <c r="I65" t="n">
-        <v>44760</v>
+        <v>46315</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>252638</v>
+        <v>249347</v>
       </c>
       <c r="F66" t="n">
-        <v>23.89978209355637</v>
+        <v>22.84371970735766</v>
       </c>
       <c r="G66" t="n">
-        <v>34.2202691912472</v>
+        <v>2.463323368697935</v>
       </c>
       <c r="H66" t="n">
         <v>1.79</v>
       </c>
       <c r="I66" t="n">
-        <v>4050.29</v>
+        <v>4064.45</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>90055427</v>
+        <v>86856624</v>
       </c>
       <c r="E67" t="n">
-        <v>187758332</v>
+        <v>181089085</v>
       </c>
       <c r="F67" t="n">
-        <v>42900.03378181782</v>
+        <v>52598.38865364251</v>
       </c>
       <c r="G67" t="n">
-        <v>101364.0015965251</v>
+        <v>91898.39633152483</v>
       </c>
       <c r="H67" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I67" t="n">
-        <v>67105374</v>
+        <v>67300789</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1780882</v>
+        <v>1778697</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.81</v>
       </c>
       <c r="I68" t="n">
-        <v>4056.11</v>
+        <v>4214.81</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>199090668</v>
+        <v>197648682</v>
       </c>
       <c r="F69" t="n">
-        <v>4032.496755250319</v>
+        <v>5114.735119118843</v>
       </c>
       <c r="G69" t="n">
-        <v>4188.331288858715</v>
+        <v>1614.440204571191</v>
       </c>
       <c r="H69" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="I69" t="n">
-        <v>3366403</v>
+        <v>3342144</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>186957</v>
+        <v>187096</v>
       </c>
       <c r="E70" t="n">
-        <v>195236</v>
+        <v>195381</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>205.74</v>
+        <v>206.34</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>142612375</v>
+        <v>141390193</v>
       </c>
       <c r="E71" t="n">
-        <v>142668930</v>
+        <v>141446263</v>
       </c>
       <c r="F71" t="n">
-        <v>30553.78388326129</v>
+        <v>30022.33123983266</v>
       </c>
       <c r="G71" t="n">
-        <v>36664.7888417441</v>
+        <v>26149.56919207838</v>
       </c>
       <c r="H71" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I71" t="n">
-        <v>3058951</v>
+        <v>3071012</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25990231</v>
+        <v>25868746</v>
       </c>
       <c r="E72" t="n">
-        <v>85294971</v>
+        <v>84896280</v>
       </c>
       <c r="F72" t="n">
-        <v>19866.365891073</v>
+        <v>20054.04808416561</v>
       </c>
       <c r="G72" t="n">
-        <v>42515.89634315363</v>
+        <v>26452.75401577209</v>
       </c>
       <c r="H72" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I72" t="n">
-        <v>101965</v>
+        <v>104026</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113524</v>
+        <v>113424</v>
       </c>
       <c r="E73" t="n">
-        <v>113524</v>
+        <v>113424</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6.32</v>
+        <v>5.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1402.1</v>
+        <v>1387.96</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>204554082</v>
+        <v>200971284</v>
       </c>
       <c r="E74" t="n">
-        <v>710639367</v>
+        <v>698192405</v>
       </c>
       <c r="F74" t="n">
-        <v>124255.2137619582</v>
+        <v>124009.7521856483</v>
       </c>
       <c r="G74" t="n">
-        <v>133028.0341771476</v>
+        <v>141210.9830458112</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I74" t="n">
-        <v>37629597</v>
+        <v>42211698</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3423312</v>
+        <v>3385892</v>
       </c>
       <c r="E75" t="n">
-        <v>3423312</v>
+        <v>3385892</v>
       </c>
       <c r="F75" t="n">
-        <v>702.9035655469086</v>
+        <v>690.7426571971293</v>
       </c>
       <c r="G75" t="n">
-        <v>1833.771728319265</v>
+        <v>1435.052302926036</v>
       </c>
       <c r="H75" t="n">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
       <c r="I75" t="n">
-        <v>2383268</v>
+        <v>2448260</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>115198311</v>
+        <v>113633286</v>
       </c>
       <c r="E76" t="n">
-        <v>488862818</v>
+        <v>482204613</v>
       </c>
       <c r="F76" t="n">
-        <v>146890.4751051555</v>
+        <v>215932.903133378</v>
       </c>
       <c r="G76" t="n">
-        <v>119736.4714372865</v>
+        <v>149355.4697402416</v>
       </c>
       <c r="H76" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="I76" t="n">
-        <v>15240882</v>
+        <v>15220983</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1845165</v>
+        <v>1834956</v>
       </c>
       <c r="F77" t="n">
-        <v>36.2287424792361</v>
+        <v>36.22865892103404</v>
       </c>
       <c r="G77" t="n">
-        <v>23.81064246377498</v>
+        <v>23.81058754675777</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>483.71</v>
+        <v>489.15</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3252562</v>
+        <v>3267237</v>
       </c>
       <c r="E78" t="n">
-        <v>16307691</v>
+        <v>16381269</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>40.68626933464368</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>68.37388469611079</v>
       </c>
       <c r="H78" t="n">
-        <v>4.65</v>
+        <v>3.53</v>
       </c>
       <c r="I78" t="n">
-        <v>33242</v>
+        <v>33580</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>523088</v>
+        <v>513164</v>
       </c>
       <c r="E79" t="n">
-        <v>8947389</v>
+        <v>8777634</v>
       </c>
       <c r="F79" t="n">
-        <v>207.7240333324691</v>
+        <v>342.7295957352011</v>
       </c>
       <c r="G79" t="n">
-        <v>161.1069494430299</v>
+        <v>161.1065778649371</v>
       </c>
       <c r="H79" t="n">
-        <v>3.24</v>
+        <v>2.75</v>
       </c>
       <c r="I79" t="n">
-        <v>151996</v>
+        <v>147305</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5802949</v>
+        <v>5801823</v>
       </c>
       <c r="E80" t="n">
-        <v>7877612</v>
+        <v>7874144</v>
       </c>
       <c r="F80" t="n">
-        <v>684.7582176285829</v>
+        <v>706.8221840112084</v>
       </c>
       <c r="G80" t="n">
-        <v>694.9907418909506</v>
+        <v>1582.078322294563</v>
       </c>
       <c r="H80" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="I80" t="n">
-        <v>5293228</v>
+        <v>5292466</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41512</v>
+        <v>41395</v>
       </c>
       <c r="F81" t="n">
-        <v>180.9404385095484</v>
+        <v>184.539524163599</v>
       </c>
       <c r="G81" t="n">
-        <v>100.5087543348332</v>
+        <v>100.5086674779785</v>
       </c>
       <c r="H81" t="n">
         <v>1.21</v>
       </c>
       <c r="I81" t="n">
-        <v>39906</v>
+        <v>39721</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40604420</v>
+        <v>40736176</v>
       </c>
       <c r="E82" t="n">
-        <v>47424998</v>
+        <v>47578886</v>
       </c>
       <c r="F82" t="n">
-        <v>497.0284091200974</v>
+        <v>15.42428470031524</v>
       </c>
       <c r="G82" t="n">
-        <v>2.820143011471555</v>
+        <v>242.8994382205508</v>
       </c>
       <c r="H82" t="n">
-        <v>2.86</v>
+        <v>2.81</v>
       </c>
       <c r="I82" t="n">
-        <v>964576</v>
+        <v>960729</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14642467</v>
+        <v>14561682</v>
       </c>
       <c r="F83" t="n">
-        <v>337.3875154555564</v>
+        <v>384.4519256221361</v>
       </c>
       <c r="G83" t="n">
-        <v>638.4699127596141</v>
+        <v>324.1643892525481</v>
       </c>
       <c r="H83" t="n">
-        <v>1.35</v>
+        <v>0.88</v>
       </c>
       <c r="I83" t="n">
-        <v>225383</v>
+        <v>226458</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36022276</v>
+        <v>35816691</v>
       </c>
       <c r="E84" t="n">
-        <v>36022276</v>
+        <v>35816691</v>
       </c>
       <c r="F84" t="n">
-        <v>120.8263476987066</v>
+        <v>776.2235611047564</v>
       </c>
       <c r="G84" t="n">
-        <v>1047.466073214574</v>
+        <v>235.0806266599377</v>
       </c>
       <c r="H84" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="I84" t="n">
-        <v>861284</v>
+        <v>856098</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>555067</v>
+        <v>555299</v>
       </c>
       <c r="E85" t="n">
-        <v>6732419</v>
+        <v>6735240</v>
       </c>
       <c r="F85" t="n">
-        <v>416.6964047752145</v>
+        <v>444.1936340709357</v>
       </c>
       <c r="G85" t="n">
-        <v>463.8628766176698</v>
+        <v>557.1714779717887</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>2782829</v>
+        <v>2784169</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25860109</v>
+        <v>25673027</v>
       </c>
       <c r="E86" t="n">
-        <v>36544504</v>
+        <v>36280127</v>
       </c>
       <c r="F86" t="n">
-        <v>10.24083023487897</v>
+        <v>48.80564028776827</v>
       </c>
       <c r="G86" t="n">
-        <v>105.520508621938</v>
+        <v>111.1988865112998</v>
       </c>
       <c r="H86" t="n">
-        <v>3.85</v>
+        <v>2.55</v>
       </c>
       <c r="I86" t="n">
-        <v>101618</v>
+        <v>100744</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1401378381</v>
+        <v>1376836392</v>
       </c>
       <c r="E87" t="n">
-        <v>6719896331</v>
+        <v>6602212468</v>
       </c>
       <c r="F87" t="n">
-        <v>557408.7218763555</v>
+        <v>544545.2497958834</v>
       </c>
       <c r="G87" t="n">
-        <v>546822.7804369498</v>
+        <v>453768.1469358047</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I87" t="n">
-        <v>420785839</v>
+        <v>426546039</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>266860883</v>
+        <v>262442491</v>
       </c>
       <c r="E88" t="n">
-        <v>1151919715</v>
+        <v>1132847485</v>
       </c>
       <c r="F88" t="n">
-        <v>813148.1432865217</v>
+        <v>961384.6950301647</v>
       </c>
       <c r="G88" t="n">
-        <v>895321.967857989</v>
+        <v>619691.2913359021</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>134827074</v>
+        <v>135435895</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114979139</v>
+        <v>114042911</v>
       </c>
       <c r="E89" t="n">
-        <v>114979139</v>
+        <v>114042911</v>
       </c>
       <c r="F89" t="n">
-        <v>41941.46905642999</v>
+        <v>43984.02315812447</v>
       </c>
       <c r="G89" t="n">
-        <v>18593.35295781229</v>
+        <v>20230.98098195763</v>
       </c>
       <c r="H89" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="I89" t="n">
-        <v>6780800</v>
+        <v>8023079</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3817064</v>
+        <v>3796468</v>
       </c>
       <c r="E90" t="n">
-        <v>29703928</v>
+        <v>29543656</v>
       </c>
       <c r="F90" t="n">
-        <v>6767.09549746193</v>
+        <v>2505.112442841261</v>
       </c>
       <c r="G90" t="n">
-        <v>8513.260698615684</v>
+        <v>3664.994839584973</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I90" t="n">
-        <v>32554</v>
+        <v>34687</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3887744</v>
+        <v>3886103</v>
       </c>
       <c r="F91" t="n">
-        <v>207.8184795591333</v>
+        <v>385.7912073730942</v>
       </c>
       <c r="G91" t="n">
-        <v>477.5043364859023</v>
+        <v>134.6105162127104</v>
       </c>
       <c r="H91" t="n">
-        <v>1.29</v>
+        <v>0.41</v>
       </c>
       <c r="I91" t="n">
-        <v>349550</v>
+        <v>194386</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>911465</v>
+        <v>912332</v>
       </c>
       <c r="F92" t="n">
-        <v>44.03145868060743</v>
+        <v>44.03135712617109</v>
       </c>
       <c r="G92" t="n">
-        <v>131.8618189331752</v>
+        <v>131.8615126458854</v>
       </c>
       <c r="H92" t="n">
         <v>1.19</v>
       </c>
       <c r="I92" t="n">
-        <v>10770.45</v>
+        <v>10171.39</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>127030</v>
+        <v>128358</v>
       </c>
       <c r="F93" t="n">
-        <v>154.0752132614153</v>
+        <v>122.8141990857557</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07002161064506467</v>
+        <v>0.07002144914677655</v>
       </c>
       <c r="H93" t="n">
-        <v>0.91</v>
+        <v>1.73</v>
       </c>
       <c r="I93" t="n">
-        <v>130028</v>
+        <v>129561</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10866662</v>
+        <v>10770715</v>
       </c>
       <c r="E94" t="n">
-        <v>130837285</v>
+        <v>129682055</v>
       </c>
       <c r="F94" t="n">
-        <v>1168.15277213717</v>
+        <v>1862.88063782975</v>
       </c>
       <c r="G94" t="n">
-        <v>994.5626174204318</v>
+        <v>1021.950258412921</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>476289</v>
+        <v>478655</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>16389953</v>
+        <v>16014735</v>
       </c>
       <c r="E95" t="n">
-        <v>40974882</v>
+        <v>40036838</v>
       </c>
       <c r="F95" t="n">
-        <v>9184.199916578662</v>
+        <v>11278.05313969712</v>
       </c>
       <c r="G95" t="n">
-        <v>7880.395041156892</v>
+        <v>13026.30250372964</v>
       </c>
       <c r="H95" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>3963769</v>
+        <v>4067886</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2394592</v>
+        <v>2291671</v>
       </c>
       <c r="F96" t="n">
-        <v>274.8382013403303</v>
+        <v>174.4213558466908</v>
       </c>
       <c r="G96" t="n">
-        <v>21.57429302063811</v>
+        <v>131.9381797278575</v>
       </c>
       <c r="H96" t="n">
-        <v>1.46</v>
+        <v>2.71</v>
       </c>
       <c r="I96" t="n">
-        <v>37629</v>
+        <v>37370</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19805468</v>
+        <v>19700079</v>
       </c>
       <c r="F97" t="n">
-        <v>1014.391165667369</v>
+        <v>1012.592399163134</v>
       </c>
       <c r="G97" t="n">
-        <v>1792.405235658076</v>
+        <v>1516.889472361278</v>
       </c>
       <c r="H97" t="n">
         <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>56568</v>
+        <v>57577</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4189361</v>
+        <v>4189359</v>
       </c>
       <c r="E98" t="n">
-        <v>12066715</v>
+        <v>12066710</v>
       </c>
       <c r="F98" t="n">
-        <v>1302.263332891248</v>
+        <v>1397.44672811324</v>
       </c>
       <c r="G98" t="n">
-        <v>1416.36827123796</v>
+        <v>675.4091617398212</v>
       </c>
       <c r="H98" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
       <c r="I98" t="n">
-        <v>529652</v>
+        <v>491298</v>
       </c>
     </row>
     <row r="99">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1550568</v>
+        <v>1525582</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>5.36</v>
+        <v>4.56</v>
       </c>
       <c r="I99" t="n">
-        <v>264575</v>
+        <v>269709</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80040719</v>
+        <v>79629971</v>
       </c>
       <c r="E100" t="n">
-        <v>101858036</v>
+        <v>101335327</v>
       </c>
       <c r="F100" t="n">
-        <v>6637.631410699405</v>
+        <v>3832.619302280274</v>
       </c>
       <c r="G100" t="n">
-        <v>11814.80551421595</v>
+        <v>3564.089748242879</v>
       </c>
       <c r="H100" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="I100" t="n">
-        <v>6420580</v>
+        <v>7299972</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23100683</v>
+        <v>22805391</v>
       </c>
       <c r="E101" t="n">
-        <v>29966870</v>
+        <v>29583810</v>
       </c>
       <c r="F101" t="n">
-        <v>3743.340896804277</v>
+        <v>6238.819972426565</v>
       </c>
       <c r="G101" t="n">
-        <v>5049.815511684246</v>
+        <v>6183.803522862674</v>
       </c>
       <c r="H101" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="I101" t="n">
-        <v>432788</v>
+        <v>434497</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1587218</v>
+        <v>1585083</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>4.38</v>
+        <v>5</v>
       </c>
       <c r="I102" t="n">
-        <v>9038.110000000001</v>
+        <v>8840.110000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>703368</v>
+        <v>702951</v>
       </c>
       <c r="E103" t="n">
-        <v>703368</v>
+        <v>702951</v>
       </c>
       <c r="F103" t="n">
-        <v>29.36151651700418</v>
+        <v>14.31169211988414</v>
       </c>
       <c r="G103" t="n">
-        <v>154.3002123423143</v>
+        <v>135.8879159807559</v>
       </c>
       <c r="H103" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
       <c r="I103" t="n">
-        <v>73410</v>
+        <v>73328</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>41473935</v>
+        <v>41299210</v>
       </c>
       <c r="E104" t="n">
-        <v>43355092</v>
+        <v>43172442</v>
       </c>
       <c r="F104" t="n">
-        <v>442.9328349556484</v>
+        <v>238.861922656307</v>
       </c>
       <c r="G104" t="n">
-        <v>4677.996338428454</v>
+        <v>4571.78301565185</v>
       </c>
       <c r="H104" t="n">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="I104" t="n">
-        <v>767860</v>
+        <v>769628</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14290175</v>
+        <v>14179415</v>
       </c>
       <c r="E105" t="n">
-        <v>14290175</v>
+        <v>14179415</v>
       </c>
       <c r="F105" t="n">
-        <v>3016.855947847257</v>
+        <v>1601.102292179966</v>
       </c>
       <c r="G105" t="n">
-        <v>4138.573295963176</v>
+        <v>1108.879851346873</v>
       </c>
       <c r="H105" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I105" t="n">
-        <v>5364799</v>
+        <v>5383965</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1166993</v>
+        <v>1162083</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.13</v>
+        <v>7.21</v>
       </c>
       <c r="I106" t="n">
-        <v>5397.08</v>
+        <v>5387.6</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50891137</v>
+        <v>50671004</v>
       </c>
       <c r="E107" t="n">
-        <v>129648080</v>
+        <v>129087279</v>
       </c>
       <c r="F107" t="n">
-        <v>2664.572866451763</v>
+        <v>2941.776533744364</v>
       </c>
       <c r="G107" t="n">
-        <v>4547.87596262816</v>
+        <v>4690.682358159158</v>
       </c>
       <c r="H107" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I107" t="n">
-        <v>2148856</v>
+        <v>2156457</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14719995</v>
+        <v>14201645</v>
       </c>
       <c r="E108" t="n">
-        <v>71291284</v>
+        <v>68780835</v>
       </c>
       <c r="F108" t="n">
-        <v>4164.25053005986</v>
+        <v>3822.312889575194</v>
       </c>
       <c r="G108" t="n">
-        <v>6914.562749417951</v>
+        <v>2637.503072170299</v>
       </c>
       <c r="H108" t="n">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="I108" t="n">
-        <v>5200821</v>
+        <v>5193131</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>626188</v>
+        <v>627891</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1.975143678932148</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>47.3419987611146</v>
       </c>
       <c r="H109" t="n">
-        <v>4.41</v>
+        <v>3.92</v>
       </c>
       <c r="I109" t="n">
-        <v>8248.18</v>
+        <v>8223.67</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4610231</v>
+        <v>4579613</v>
       </c>
       <c r="E110" t="n">
-        <v>10508817</v>
+        <v>10439026</v>
       </c>
       <c r="F110" t="n">
-        <v>1632.836355971714</v>
+        <v>1272.541644743223</v>
       </c>
       <c r="G110" t="n">
-        <v>2501.423961488009</v>
+        <v>1554.170124691892</v>
       </c>
       <c r="H110" t="n">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="I110" t="n">
-        <v>65864</v>
+        <v>66341</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1873025386</v>
+        <v>1860530458</v>
       </c>
       <c r="F111" t="n">
-        <v>80728.89281130645</v>
+        <v>71807.70820095047</v>
       </c>
       <c r="G111" t="n">
-        <v>38693.74739596198</v>
+        <v>35979.30586676714</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="I111" t="n">
-        <v>29430188</v>
+        <v>29629411</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9651701</v>
+        <v>9616966</v>
       </c>
       <c r="E112" t="n">
-        <v>35116749</v>
+        <v>34990228</v>
       </c>
       <c r="F112" t="n">
-        <v>555.6588097624423</v>
+        <v>553.1184029118016</v>
       </c>
       <c r="G112" t="n">
-        <v>313.6594067888335</v>
+        <v>230.4121860725748</v>
       </c>
       <c r="H112" t="n">
         <v>1.15</v>
       </c>
       <c r="I112" t="n">
-        <v>122199</v>
+        <v>117351</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>626417</v>
+        <v>620966</v>
       </c>
       <c r="F113" t="n">
-        <v>6.68444933457643</v>
+        <v>6.684433917519972</v>
       </c>
       <c r="G113" t="n">
-        <v>55.33352453821524</v>
+        <v>55.37440520842663</v>
       </c>
       <c r="H113" t="n">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="I113" t="n">
-        <v>937.96</v>
+        <v>933.64</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12330505</v>
+        <v>12329582</v>
       </c>
       <c r="E114" t="n">
-        <v>17877453</v>
+        <v>17876115</v>
       </c>
       <c r="F114" t="n">
-        <v>3972.550107731602</v>
+        <v>3615.254087852125</v>
       </c>
       <c r="G114" t="n">
-        <v>5580.14507401727</v>
+        <v>5366.227266717277</v>
       </c>
       <c r="H114" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="I114" t="n">
-        <v>2012969</v>
+        <v>2010036</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1924785</v>
+        <v>1920787</v>
       </c>
       <c r="E115" t="n">
-        <v>13802445</v>
+        <v>13773773</v>
       </c>
       <c r="F115" t="n">
-        <v>914.5588442837586</v>
+        <v>756.921956062068</v>
       </c>
       <c r="G115" t="n">
-        <v>943.4288613784041</v>
+        <v>783.3343710450835</v>
       </c>
       <c r="H115" t="n">
-        <v>1.21</v>
+        <v>1.93</v>
       </c>
       <c r="I115" t="n">
-        <v>595224</v>
+        <v>2014022</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2753082</v>
+        <v>2689320</v>
       </c>
       <c r="E116" t="n">
-        <v>5565244</v>
+        <v>5436353</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>6280.52</v>
+        <v>5848.75</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>199816414</v>
+        <v>196770073</v>
       </c>
       <c r="E117" t="n">
-        <v>1131483313</v>
+        <v>1114233055</v>
       </c>
       <c r="F117" t="n">
-        <v>194803.5103596854</v>
+        <v>191537.01735381</v>
       </c>
       <c r="G117" t="n">
-        <v>261168.8376768801</v>
+        <v>289620.9047837348</v>
       </c>
       <c r="H117" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I117" t="n">
-        <v>81936826</v>
+        <v>82555750</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>666319</v>
+        <v>661028</v>
       </c>
       <c r="E118" t="n">
-        <v>2209416</v>
+        <v>2191870</v>
       </c>
       <c r="F118" t="n">
-        <v>5257.764232945029</v>
+        <v>10606.16599394713</v>
       </c>
       <c r="G118" t="n">
-        <v>7934.654876334476</v>
+        <v>6502.511374945788</v>
       </c>
       <c r="H118" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I118" t="n">
-        <v>7217.08</v>
+        <v>7153.7</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2797328</v>
+        <v>2701092</v>
       </c>
       <c r="E119" t="n">
-        <v>9904159</v>
+        <v>9563425</v>
       </c>
       <c r="F119" t="n">
-        <v>880.1223088558316</v>
+        <v>307.4901017866149</v>
       </c>
       <c r="G119" t="n">
-        <v>1282.329512148671</v>
+        <v>406.2829098777451</v>
       </c>
       <c r="H119" t="n">
-        <v>0.31</v>
+        <v>0.95</v>
       </c>
       <c r="I119" t="n">
-        <v>15228.59</v>
+        <v>22338</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1039012</v>
+        <v>1041376</v>
       </c>
       <c r="E120" t="n">
-        <v>1039012</v>
+        <v>1041376</v>
       </c>
       <c r="F120" t="n">
-        <v>105.0613557267161</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>54.06551667663216</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>2.72</v>
+        <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>5939.57</v>
+        <v>5904.34</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>498045</v>
+        <v>494060</v>
       </c>
       <c r="E121" t="n">
-        <v>1676350</v>
+        <v>1662938</v>
       </c>
       <c r="F121" t="n">
-        <v>370.3150505186628</v>
+        <v>388.7657578900619</v>
       </c>
       <c r="G121" t="n">
-        <v>403.6820483520104</v>
+        <v>390.8020967968151</v>
       </c>
       <c r="H121" t="n">
         <v>0.89</v>
       </c>
       <c r="I121" t="n">
-        <v>630848</v>
+        <v>630041</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>480114</v>
+        <v>478992</v>
       </c>
       <c r="E122" t="n">
-        <v>890704</v>
+        <v>888623</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>5.56</v>
+        <v>7.78</v>
       </c>
       <c r="I122" t="n">
-        <v>208526</v>
+        <v>210195</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9779844</v>
+        <v>9717880</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>4.49</v>
       </c>
       <c r="I123" t="n">
-        <v>16306.18</v>
+        <v>16611.91</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1212065</v>
+        <v>1208090</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>6.73</v>
+        <v>7.18</v>
       </c>
       <c r="I124" t="n">
-        <v>4699.78</v>
+        <v>4544.71</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3458768</v>
+        <v>3450413</v>
       </c>
       <c r="E125" t="n">
-        <v>8076800</v>
+        <v>8057290</v>
       </c>
       <c r="F125" t="n">
-        <v>1219.063631546886</v>
+        <v>1170.174897321979</v>
       </c>
       <c r="G125" t="n">
-        <v>1453.134722170246</v>
+        <v>1350.102961019997</v>
       </c>
       <c r="H125" t="n">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
       <c r="I125" t="n">
-        <v>636573</v>
+        <v>630396</v>
       </c>
     </row>
     <row r="126">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>247421</v>
+        <v>246240</v>
       </c>
       <c r="E126" t="n">
-        <v>2183676</v>
+        <v>2173257</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4829,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>4.44</v>
+        <v>4.25</v>
       </c>
       <c r="I126" t="n">
-        <v>71146</v>
+        <v>70415</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>628067</v>
+        <v>628146</v>
       </c>
       <c r="F127" t="n">
-        <v>553.4485736089522</v>
+        <v>553.4472971316421</v>
       </c>
       <c r="G127" t="n">
-        <v>699.6400488606354</v>
+        <v>699.6384352063769</v>
       </c>
       <c r="H127" t="n">
         <v>1.96</v>
       </c>
       <c r="I127" t="n">
-        <v>12464.44</v>
+        <v>12457.75</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4823425</v>
+        <v>4803447</v>
       </c>
       <c r="E128" t="n">
-        <v>17041148</v>
+        <v>16970566</v>
       </c>
       <c r="F128" t="n">
-        <v>1688.082746401548</v>
+        <v>1737.209903706219</v>
       </c>
       <c r="G128" t="n">
-        <v>1682.524661361817</v>
+        <v>1726.34162775233</v>
       </c>
       <c r="H128" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="I128" t="n">
-        <v>125162</v>
+        <v>124461</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2187316</v>
+        <v>2186398</v>
       </c>
       <c r="F129" t="n">
-        <v>97.43955855411338</v>
+        <v>97.43933381889582</v>
       </c>
       <c r="G129" t="n">
-        <v>67.85806430219711</v>
+        <v>68.03721193936411</v>
       </c>
       <c r="H129" t="n">
         <v>0.59</v>
       </c>
       <c r="I129" t="n">
-        <v>6153.39</v>
+        <v>5927.11</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2517854</v>
+        <v>2515658</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2496.69</v>
+        <v>2502.68</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>82050</v>
+        <v>81821</v>
       </c>
       <c r="E131" t="n">
-        <v>82050</v>
+        <v>81821</v>
       </c>
       <c r="F131" t="n">
-        <v>10.36630286846815</v>
+        <v>9.362781151751623</v>
       </c>
       <c r="G131" t="n">
-        <v>179.8301563390354</v>
+        <v>179.8297415776191</v>
       </c>
       <c r="H131" t="n">
         <v>1.03</v>
       </c>
       <c r="I131" t="n">
-        <v>22632</v>
+        <v>22565</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4256851</v>
+        <v>4278585</v>
       </c>
       <c r="F132" t="n">
-        <v>383.1210689452808</v>
+        <v>306.8986279631216</v>
       </c>
       <c r="G132" t="n">
-        <v>276.9746778000644</v>
+        <v>194.8459480165258</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="I132" t="n">
-        <v>271182</v>
+        <v>269297</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2095561</v>
+        <v>2114032</v>
       </c>
       <c r="E133" t="n">
-        <v>8557730</v>
+        <v>8633161</v>
       </c>
       <c r="F133" t="n">
-        <v>344.536631981866</v>
+        <v>505.7030466844888</v>
       </c>
       <c r="G133" t="n">
-        <v>715.1623316234061</v>
+        <v>464.8454501341511</v>
       </c>
       <c r="H133" t="n">
         <v>0.1</v>
       </c>
       <c r="I133" t="n">
-        <v>240471</v>
+        <v>462389</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7615909</v>
+        <v>7466978</v>
       </c>
       <c r="E134" t="n">
-        <v>7672520</v>
+        <v>7522482</v>
       </c>
       <c r="F134" t="n">
-        <v>296473.148846243</v>
+        <v>361754.6456786768</v>
       </c>
       <c r="G134" t="n">
-        <v>241386.7619775138</v>
+        <v>210830.3018579719</v>
       </c>
       <c r="H134" t="n">
         <v>0.27</v>
       </c>
       <c r="I134" t="n">
-        <v>5145325</v>
+        <v>5716495</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13902230</v>
+        <v>13724717</v>
       </c>
       <c r="E135" t="n">
-        <v>13949540</v>
+        <v>13771424</v>
       </c>
       <c r="F135" t="n">
-        <v>16175.45376080335</v>
+        <v>15098.59464856728</v>
       </c>
       <c r="G135" t="n">
-        <v>12269.64625135997</v>
+        <v>9694.242598788514</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>6797388</v>
+        <v>6792240</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42720832</v>
+        <v>42725139</v>
       </c>
       <c r="E136" t="n">
-        <v>72530034</v>
+        <v>72537347</v>
       </c>
       <c r="F136" t="n">
-        <v>986.2858311718701</v>
+        <v>746.2284543355215</v>
       </c>
       <c r="G136" t="n">
-        <v>1075.542591068299</v>
+        <v>1514.40571427299</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1080057</v>
+        <v>1082678</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19946678</v>
+        <v>19664451</v>
       </c>
       <c r="E137" t="n">
-        <v>59790103</v>
+        <v>58954259</v>
       </c>
       <c r="F137" t="n">
-        <v>3644.769895046059</v>
+        <v>37701.85531683787</v>
       </c>
       <c r="G137" t="n">
-        <v>19508.97500170332</v>
+        <v>21444.94799675459</v>
       </c>
       <c r="H137" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="I137" t="n">
-        <v>3367384</v>
+        <v>4061090</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>100906036</v>
+        <v>101418280</v>
       </c>
       <c r="E138" t="n">
-        <v>107272236</v>
+        <v>107816797</v>
       </c>
       <c r="F138" t="n">
-        <v>9012.605477411775</v>
+        <v>5847.621222729964</v>
       </c>
       <c r="G138" t="n">
-        <v>8687.03908034579</v>
+        <v>9088.844255153272</v>
       </c>
       <c r="H138" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I138" t="n">
-        <v>489662</v>
+        <v>1711444</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1384069</v>
+        <v>1385385</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>4.000651545698504</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>7.665468747259514</v>
       </c>
       <c r="H139" t="n">
-        <v>5.74</v>
+        <v>3.87</v>
       </c>
       <c r="I139" t="n">
-        <v>1907.87</v>
+        <v>1910.28</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>239205</v>
+        <v>239015</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.7</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>39.86</v>
+        <v>39.84</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>91767</v>
+        <v>91768</v>
       </c>
       <c r="E141" t="n">
-        <v>260323</v>
+        <v>260324</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>49675355</v>
+        <v>48956813</v>
       </c>
       <c r="E142" t="n">
-        <v>213995998</v>
+        <v>210900597</v>
       </c>
       <c r="F142" t="n">
-        <v>47960.96032684272</v>
+        <v>44005.94757599273</v>
       </c>
       <c r="G142" t="n">
-        <v>61671.10952956967</v>
+        <v>46289.46411034551</v>
       </c>
       <c r="H142" t="n">
         <v>0.2</v>
       </c>
       <c r="I142" t="n">
-        <v>11991854</v>
+        <v>11652704</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269444</v>
+        <v>269582</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>8.59</v>
       </c>
       <c r="I143" t="n">
-        <v>7542.02</v>
+        <v>7554.11</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9674485</v>
+        <v>9625816</v>
       </c>
       <c r="F144" t="n">
-        <v>874.7632744480065</v>
+        <v>1268.317408245065</v>
       </c>
       <c r="G144" t="n">
-        <v>333.5293878217496</v>
+        <v>333.8129704891489</v>
       </c>
       <c r="H144" t="n">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="I144" t="n">
-        <v>109800</v>
+        <v>109976</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1181621</v>
+        <v>1176200</v>
       </c>
       <c r="E145" t="n">
-        <v>7877473</v>
+        <v>7841334</v>
       </c>
       <c r="F145" t="n">
-        <v>262.5678070623435</v>
+        <v>262.5672014742834</v>
       </c>
       <c r="G145" t="n">
-        <v>36.8168636526812</v>
+        <v>36.81677873803272</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4700.45</v>
+        <v>4691.66</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7571615</v>
+        <v>7591856</v>
       </c>
       <c r="F146" t="n">
-        <v>75.60681656635614</v>
+        <v>97.25724188922203</v>
       </c>
       <c r="G146" t="n">
-        <v>1250.059088657561</v>
+        <v>106.1172675230533</v>
       </c>
       <c r="H146" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="I146" t="n">
-        <v>6891867</v>
+        <v>6889279</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>669209</v>
+        <v>669030</v>
       </c>
       <c r="E147" t="n">
-        <v>2415488</v>
+        <v>2414836</v>
       </c>
       <c r="F147" t="n">
-        <v>13.07549444589039</v>
+        <v>10.44533294044967</v>
       </c>
       <c r="G147" t="n">
-        <v>10.24054443765272</v>
+        <v>200.9204737668994</v>
       </c>
       <c r="H147" t="n">
         <v>0.99</v>
       </c>
       <c r="I147" t="n">
-        <v>361509</v>
+        <v>370185</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1656567</v>
+        <v>1616978</v>
       </c>
       <c r="F148" t="n">
-        <v>1183.309301641441</v>
+        <v>1120.245776766713</v>
       </c>
       <c r="G148" t="n">
-        <v>25.1202076514533</v>
+        <v>35.62718795862799</v>
       </c>
       <c r="H148" t="n">
-        <v>0.36</v>
+        <v>1.25</v>
       </c>
       <c r="I148" t="n">
-        <v>87892</v>
+        <v>86487</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>62894</v>
+        <v>62964</v>
       </c>
       <c r="F149" t="n">
-        <v>8.128099138921723</v>
+        <v>8.128080392222175</v>
       </c>
       <c r="G149" t="n">
-        <v>10.00165261223227</v>
+        <v>1.630332742967773</v>
       </c>
       <c r="H149" t="n">
         <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>3216.2</v>
+        <v>3236.99</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12798932</v>
+        <v>12663613</v>
       </c>
       <c r="E150" t="n">
-        <v>12798932</v>
+        <v>12663613</v>
       </c>
       <c r="F150" t="n">
-        <v>392.6961766535633</v>
+        <v>230.5242366313865</v>
       </c>
       <c r="G150" t="n">
-        <v>281.5997367429104</v>
+        <v>1851.995192678348</v>
       </c>
       <c r="H150" t="n">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="I150" t="n">
-        <v>4199381</v>
+        <v>4064228</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2261014</v>
+        <v>2256180</v>
       </c>
       <c r="E151" t="n">
-        <v>8208663</v>
+        <v>8191042</v>
       </c>
       <c r="F151" t="n">
-        <v>88.3894438177248</v>
+        <v>35.47313061685066</v>
       </c>
       <c r="G151" t="n">
-        <v>20.81997337390666</v>
+        <v>7.843298370442072</v>
       </c>
       <c r="H151" t="n">
-        <v>0.51</v>
+        <v>2.46</v>
       </c>
       <c r="I151" t="n">
-        <v>206768</v>
+        <v>208857</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1257932</v>
+        <v>1238732</v>
       </c>
       <c r="E152" t="n">
-        <v>1257932</v>
+        <v>1238732</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1033.18</v>
+        <v>1017.41</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23100489</v>
+        <v>23093607</v>
       </c>
       <c r="E153" t="n">
-        <v>26676529</v>
+        <v>26668582</v>
       </c>
       <c r="F153" t="n">
-        <v>591.4494744265699</v>
+        <v>586.1753566724195</v>
       </c>
       <c r="G153" t="n">
-        <v>546.8207634036472</v>
+        <v>552.8396749269656</v>
       </c>
       <c r="H153" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I153" t="n">
-        <v>739581</v>
+        <v>757443</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2439134</v>
+        <v>2442373</v>
       </c>
       <c r="E154" t="n">
-        <v>18353858</v>
+        <v>18378230</v>
       </c>
       <c r="F154" t="n">
-        <v>3316.163712574035</v>
+        <v>3417.495133026433</v>
       </c>
       <c r="G154" t="n">
-        <v>3391.737401466245</v>
+        <v>3603.994516441381</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161170</v>
+        <v>161551</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>18932890</v>
+        <v>18659276</v>
       </c>
       <c r="E155" t="n">
-        <v>75731560</v>
+        <v>74637103</v>
       </c>
       <c r="F155" t="n">
-        <v>20238.02692109658</v>
+        <v>25496.44777165596</v>
       </c>
       <c r="G155" t="n">
-        <v>28709.99850524735</v>
+        <v>27128.95503973626</v>
       </c>
       <c r="H155" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I155" t="n">
-        <v>2360462</v>
+        <v>2398098</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>302769029</v>
+        <v>296643308</v>
       </c>
       <c r="E156" t="n">
-        <v>302769029</v>
+        <v>296643308</v>
       </c>
       <c r="F156" t="n">
-        <v>326521.5116516792</v>
+        <v>289360.6870491722</v>
       </c>
       <c r="G156" t="n">
-        <v>290675.1935789012</v>
+        <v>389929.419693281</v>
       </c>
       <c r="H156" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="I156" t="n">
-        <v>19440478</v>
+        <v>19433216</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12597282</v>
+        <v>12529713</v>
       </c>
       <c r="E157" t="n">
-        <v>39843770</v>
+        <v>39630058</v>
       </c>
       <c r="F157" t="n">
-        <v>5979.469269810662</v>
+        <v>5327.631356681355</v>
       </c>
       <c r="G157" t="n">
-        <v>4551.829173972278</v>
+        <v>3402.129734720942</v>
       </c>
       <c r="H157" t="n">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
       <c r="I157" t="n">
-        <v>916604</v>
+        <v>923426</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1107152</v>
+        <v>1104524</v>
       </c>
       <c r="E158" t="n">
-        <v>2521646</v>
+        <v>2515662</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>603.97</v>
+        <v>603.2</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18529793</v>
+        <v>18197937</v>
       </c>
       <c r="E159" t="n">
-        <v>18529793</v>
+        <v>18197937</v>
       </c>
       <c r="F159" t="n">
-        <v>14688.79877981431</v>
+        <v>11610.48715391204</v>
       </c>
       <c r="G159" t="n">
-        <v>24716.65725330569</v>
+        <v>24241.07964052872</v>
       </c>
       <c r="H159" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I159" t="n">
-        <v>6436962</v>
+        <v>6542606</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4604688</v>
+        <v>4609066</v>
       </c>
       <c r="E160" t="n">
-        <v>8477722</v>
+        <v>8485782</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>11.51</v>
       </c>
       <c r="I160" t="n">
-        <v>64.98</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>114015</v>
+        <v>113036</v>
       </c>
       <c r="E161" t="n">
-        <v>138067</v>
+        <v>136881</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>10.61</v>
+        <v>10.68</v>
       </c>
       <c r="I161" t="n">
-        <v>1682.32</v>
+        <v>1645.9</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>22205814</v>
+        <v>22211472</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>16.09</v>
+        <v>15.55</v>
       </c>
       <c r="I162" t="n">
-        <v>1033.91</v>
+        <v>1035.8</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>456964</v>
+        <v>456780</v>
       </c>
       <c r="E163" t="n">
-        <v>575604</v>
+        <v>575372</v>
       </c>
       <c r="F163" t="n">
-        <v>153.0805232949512</v>
+        <v>94.85489104525828</v>
       </c>
       <c r="G163" t="n">
-        <v>152.0194773035578</v>
+        <v>126.8542036255478</v>
       </c>
       <c r="H163" t="n">
-        <v>0.52</v>
+        <v>1.55</v>
       </c>
       <c r="I163" t="n">
-        <v>150725</v>
+        <v>149909</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104624</v>
+        <v>104723</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>6.34</v>
+        <v>7.75</v>
       </c>
       <c r="I164" t="n">
-        <v>3069.62</v>
+        <v>3073.49</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12637907</v>
+        <v>12636933</v>
       </c>
       <c r="E165" t="n">
-        <v>19237744</v>
+        <v>19236262</v>
       </c>
       <c r="F165" t="n">
-        <v>2340.398325581547</v>
+        <v>2513.243163523686</v>
       </c>
       <c r="G165" t="n">
-        <v>730.5049594992996</v>
+        <v>849.5381629508663</v>
       </c>
       <c r="H165" t="n">
         <v>1.38</v>
       </c>
       <c r="I165" t="n">
-        <v>659626</v>
+        <v>664151</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>300354551</v>
+        <v>295882646</v>
       </c>
       <c r="E166" t="n">
-        <v>300354551</v>
+        <v>295882646</v>
       </c>
       <c r="F166" t="n">
-        <v>312185.9973083757</v>
+        <v>335574.8234360405</v>
       </c>
       <c r="G166" t="n">
-        <v>262806.7338636835</v>
+        <v>273902.1135721988</v>
       </c>
       <c r="H166" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I166" t="n">
-        <v>84474557</v>
+        <v>85683175</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10152301</v>
+        <v>10146733</v>
       </c>
       <c r="E167" t="n">
-        <v>28824076</v>
+        <v>28808267</v>
       </c>
       <c r="F167" t="n">
-        <v>132.1043754441626</v>
+        <v>74.1735116750602</v>
       </c>
       <c r="G167" t="n">
-        <v>635.7133307594751</v>
+        <v>747.3754907812131</v>
       </c>
       <c r="H167" t="n">
         <v>1.04</v>
       </c>
       <c r="I167" t="n">
-        <v>111875</v>
+        <v>112430</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11615767</v>
+        <v>11617934</v>
       </c>
       <c r="F168" t="n">
-        <v>311.1633346475642</v>
+        <v>307.025349360838</v>
       </c>
       <c r="G168" t="n">
-        <v>1392.083479023824</v>
+        <v>1246.134216972813</v>
       </c>
       <c r="H168" t="n">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="I168" t="n">
-        <v>88138</v>
+        <v>89490</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4284783</v>
+        <v>4290715</v>
       </c>
       <c r="E169" t="n">
-        <v>29277620</v>
+        <v>29318156</v>
       </c>
       <c r="F169" t="n">
-        <v>2084.292177599046</v>
+        <v>2201.190304291027</v>
       </c>
       <c r="G169" t="n">
-        <v>1424.297860554341</v>
+        <v>1448.379045817327</v>
       </c>
       <c r="H169" t="n">
         <v>0.68</v>
       </c>
       <c r="I169" t="n">
-        <v>2679564</v>
+        <v>2670036</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2875249</v>
+        <v>2857108</v>
       </c>
       <c r="E170" t="n">
-        <v>4257953</v>
+        <v>4230850</v>
       </c>
       <c r="F170" t="n">
-        <v>2468.130703579735</v>
+        <v>1639.34388622439</v>
       </c>
       <c r="G170" t="n">
-        <v>2462.761532356864</v>
+        <v>2366.550282696049</v>
       </c>
       <c r="H170" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="I170" t="n">
-        <v>95958</v>
+        <v>95760</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>87727897</v>
+        <v>86233951</v>
       </c>
       <c r="E171" t="n">
-        <v>505525982</v>
+        <v>496917223</v>
       </c>
       <c r="F171" t="n">
-        <v>185272.5249895371</v>
+        <v>112269.0119970824</v>
       </c>
       <c r="G171" t="n">
-        <v>72585.60982592688</v>
+        <v>95682.94986461035</v>
       </c>
       <c r="H171" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I171" t="n">
-        <v>20074236</v>
+        <v>20244609</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13776310</v>
+        <v>13771626</v>
       </c>
       <c r="E172" t="n">
-        <v>13776310</v>
+        <v>13771626</v>
       </c>
       <c r="F172" t="n">
-        <v>5099.39750610711</v>
+        <v>5001.514678819845</v>
       </c>
       <c r="G172" t="n">
-        <v>7515.919354337548</v>
+        <v>4663.545610054836</v>
       </c>
       <c r="H172" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="I172" t="n">
-        <v>666690</v>
+        <v>673400</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6124840</v>
+        <v>6093876</v>
       </c>
       <c r="E173" t="n">
-        <v>17398913</v>
+        <v>17310951</v>
       </c>
       <c r="F173" t="n">
-        <v>752.8156423792103</v>
+        <v>753.0477227807096</v>
       </c>
       <c r="G173" t="n">
-        <v>8854.17573476367</v>
+        <v>8683.144611352251</v>
       </c>
       <c r="H173" t="n">
-        <v>0.74</v>
+        <v>1.2</v>
       </c>
       <c r="I173" t="n">
-        <v>104438</v>
+        <v>105409</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>20236425</v>
+        <v>20002098</v>
       </c>
       <c r="E174" t="n">
-        <v>20236425</v>
+        <v>20002098</v>
       </c>
       <c r="F174" t="n">
-        <v>704.905605541835</v>
+        <v>459.6451192332366</v>
       </c>
       <c r="G174" t="n">
-        <v>14.03459705175969</v>
+        <v>1.085992249279417</v>
       </c>
       <c r="H174" t="n">
-        <v>1.61</v>
+        <v>0.01</v>
       </c>
       <c r="I174" t="n">
-        <v>153980</v>
+        <v>152785</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1338266</v>
+        <v>1329409</v>
       </c>
       <c r="F175" t="n">
-        <v>91.15350106136452</v>
+        <v>1528.350740135999</v>
       </c>
       <c r="G175" t="n">
-        <v>257.5474891553589</v>
+        <v>169.3833377626833</v>
       </c>
       <c r="H175" t="n">
-        <v>2.23</v>
+        <v>1.28</v>
       </c>
       <c r="I175" t="n">
-        <v>38592</v>
+        <v>39284</v>
       </c>
     </row>
     <row r="176">
@@ -6557,22 +6557,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>126736</v>
+        <v>125201</v>
       </c>
       <c r="E176" t="n">
-        <v>275901</v>
+        <v>272560</v>
       </c>
       <c r="F176" t="n">
-        <v>98.49257321837884</v>
+        <v>98.49234605448157</v>
       </c>
       <c r="G176" t="n">
-        <v>5.000824645841785</v>
+        <v>5.000813111908017</v>
       </c>
       <c r="H176" t="n">
         <v>2.27</v>
       </c>
       <c r="I176" t="n">
-        <v>43053</v>
+        <v>43036</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3056513</v>
+        <v>3032260</v>
       </c>
       <c r="F177" t="n">
-        <v>430.2016752089717</v>
+        <v>412.6754154590795</v>
       </c>
       <c r="G177" t="n">
-        <v>4.829709080035806</v>
+        <v>939.9405599261613</v>
       </c>
       <c r="H177" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I177" t="n">
-        <v>493436</v>
+        <v>493268</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>246737245</v>
+        <v>240582740</v>
       </c>
       <c r="E178" t="n">
-        <v>246739696</v>
+        <v>240585130</v>
       </c>
       <c r="F178" t="n">
-        <v>47154.44692041008</v>
+        <v>47117.05240183076</v>
       </c>
       <c r="G178" t="n">
-        <v>78851.02679635504</v>
+        <v>81187.53784064375</v>
       </c>
       <c r="H178" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="I178" t="n">
-        <v>1554063</v>
+        <v>1810015</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9299100</v>
+        <v>9180003</v>
       </c>
       <c r="E179" t="n">
-        <v>9299100</v>
+        <v>9180003</v>
       </c>
       <c r="F179" t="n">
-        <v>390.0798043139553</v>
+        <v>402.1592938849658</v>
       </c>
       <c r="G179" t="n">
-        <v>327.1939908159465</v>
+        <v>294.3772967818112</v>
       </c>
       <c r="H179" t="n">
-        <v>2.55</v>
+        <v>3.09</v>
       </c>
       <c r="I179" t="n">
-        <v>2836047</v>
+        <v>2791404</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>194298</v>
+        <v>193862</v>
       </c>
       <c r="E180" t="n">
-        <v>1500372</v>
+        <v>1497006</v>
       </c>
       <c r="F180" t="n">
-        <v>513.1739686655637</v>
+        <v>46.15182804021545</v>
       </c>
       <c r="G180" t="n">
-        <v>48.60321853210287</v>
+        <v>4.772273584160896</v>
       </c>
       <c r="H180" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.43</v>
       </c>
       <c r="I180" t="n">
-        <v>84671</v>
+        <v>87365</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30277478</v>
+        <v>29514229</v>
       </c>
       <c r="E181" t="n">
-        <v>135564688</v>
+        <v>132147312</v>
       </c>
       <c r="F181" t="n">
-        <v>56904.1808716166</v>
+        <v>38840.44884855897</v>
       </c>
       <c r="G181" t="n">
-        <v>63102.35756159756</v>
+        <v>52851.94964785445</v>
       </c>
       <c r="H181" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>12158048</v>
+        <v>12360669</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1279168</v>
+        <v>1282128</v>
       </c>
       <c r="F182" t="n">
-        <v>281.8117816820463</v>
+        <v>272.5125335595376</v>
       </c>
       <c r="G182" t="n">
-        <v>481.781375440563</v>
+        <v>154.4043617494083</v>
       </c>
       <c r="H182" t="n">
-        <v>2.8</v>
+        <v>3.28</v>
       </c>
       <c r="I182" t="n">
-        <v>92494</v>
+        <v>83332</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3094835</v>
+        <v>3062720</v>
       </c>
       <c r="E183" t="n">
-        <v>3094835</v>
+        <v>3062720</v>
       </c>
       <c r="F183" t="n">
-        <v>319.2711521150632</v>
+        <v>208.4494284834411</v>
       </c>
       <c r="G183" t="n">
-        <v>251.7297109029049</v>
+        <v>1073.921174664697</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="I183" t="n">
-        <v>387129</v>
+        <v>382045</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>564438</v>
+        <v>559392</v>
       </c>
       <c r="E184" t="n">
-        <v>564438</v>
+        <v>559392</v>
       </c>
       <c r="F184" t="n">
-        <v>6.423721160832299</v>
+        <v>54.86431269461644</v>
       </c>
       <c r="G184" t="n">
-        <v>1.224836246736419</v>
+        <v>1.224831663843616</v>
       </c>
       <c r="H184" t="n">
         <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>1152194</v>
+        <v>1168512</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14900822</v>
+        <v>14760437</v>
       </c>
       <c r="E185" t="n">
-        <v>18971125</v>
+        <v>18792393</v>
       </c>
       <c r="F185" t="n">
-        <v>618.6375963372708</v>
+        <v>1390.801790718124</v>
       </c>
       <c r="G185" t="n">
-        <v>161.6505829974667</v>
+        <v>148.4693092706285</v>
       </c>
       <c r="H185" t="n">
-        <v>0.88</v>
+        <v>0.45</v>
       </c>
       <c r="I185" t="n">
-        <v>989128</v>
+        <v>977534</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1784238</v>
+        <v>1784942</v>
       </c>
       <c r="E186" t="n">
-        <v>1784238</v>
+        <v>1784942</v>
       </c>
       <c r="F186" t="n">
-        <v>35.04167326227154</v>
+        <v>35.04154214904508</v>
       </c>
       <c r="G186" t="n">
-        <v>2.030738567190809</v>
+        <v>2.030730968903945</v>
       </c>
       <c r="H186" t="n">
         <v>3.54</v>
       </c>
       <c r="I186" t="n">
-        <v>4115.9</v>
+        <v>4095.55</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50219955</v>
+        <v>49500733</v>
       </c>
       <c r="E187" t="n">
-        <v>325663045</v>
+        <v>320999077</v>
       </c>
       <c r="F187" t="n">
-        <v>128411.7258829295</v>
+        <v>234374.2754022472</v>
       </c>
       <c r="G187" t="n">
-        <v>176946.802004778</v>
+        <v>175386.4393335788</v>
       </c>
       <c r="H187" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I187" t="n">
-        <v>19248942</v>
+        <v>19603240</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9091006</v>
+        <v>9064520</v>
       </c>
       <c r="F188" t="n">
-        <v>621.2758258496436</v>
+        <v>455.2248125636694</v>
       </c>
       <c r="G188" t="n">
-        <v>268.1681089481513</v>
+        <v>549.8187787230313</v>
       </c>
       <c r="H188" t="n">
         <v>0.33</v>
       </c>
       <c r="I188" t="n">
-        <v>288020</v>
+        <v>287083</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7144016</v>
+        <v>7119614</v>
       </c>
       <c r="E189" t="n">
-        <v>7154248</v>
+        <v>7129810</v>
       </c>
       <c r="F189" t="n">
-        <v>126.3425273338243</v>
+        <v>1.25427856960376</v>
       </c>
       <c r="G189" t="n">
-        <v>168.9970487339251</v>
+        <v>182.0513983254928</v>
       </c>
       <c r="H189" t="n">
-        <v>1.89</v>
+        <v>3.1</v>
       </c>
       <c r="I189" t="n">
-        <v>701842</v>
+        <v>701650</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4727566</v>
+        <v>4724396</v>
       </c>
       <c r="F190" t="n">
-        <v>2303.907693226602</v>
+        <v>2300.917132748069</v>
       </c>
       <c r="G190" t="n">
-        <v>16.54792394373453</v>
+        <v>8.348369785779996</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="I190" t="n">
-        <v>238645</v>
+        <v>240018</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>100598168</v>
+        <v>97513932</v>
       </c>
       <c r="E191" t="n">
-        <v>101681034</v>
+        <v>98563599</v>
       </c>
       <c r="F191" t="n">
-        <v>31795.61085921232</v>
+        <v>24408.93016056628</v>
       </c>
       <c r="G191" t="n">
-        <v>30031.84408548581</v>
+        <v>35824.52885865521</v>
       </c>
       <c r="H191" t="n">
         <v>0.17</v>
       </c>
       <c r="I191" t="n">
-        <v>78893941</v>
+        <v>78409599</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>246566128</v>
+        <v>241012483</v>
       </c>
       <c r="E192" t="n">
-        <v>246566128</v>
+        <v>241012483</v>
       </c>
       <c r="F192" t="n">
-        <v>64412.26784030007</v>
+        <v>88838.01687275173</v>
       </c>
       <c r="G192" t="n">
-        <v>109108.0772228183</v>
+        <v>81104.93515976873</v>
       </c>
       <c r="H192" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I192" t="n">
-        <v>74256149</v>
+        <v>75063505</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24009723</v>
+        <v>23688935</v>
       </c>
       <c r="E193" t="n">
-        <v>143654997</v>
+        <v>141735659</v>
       </c>
       <c r="F193" t="n">
-        <v>56928.31101197546</v>
+        <v>53147.25612103134</v>
       </c>
       <c r="G193" t="n">
-        <v>88817.22510898007</v>
+        <v>80669.10805143476</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>16317596</v>
+        <v>16497956</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13939841</v>
+        <v>13909348</v>
       </c>
       <c r="E194" t="n">
-        <v>42130070</v>
+        <v>42037910</v>
       </c>
       <c r="F194" t="n">
-        <v>646.8350314063122</v>
+        <v>520.7845796285029</v>
       </c>
       <c r="G194" t="n">
-        <v>880.143354084958</v>
+        <v>948.6261548255084</v>
       </c>
       <c r="H194" t="n">
-        <v>0.62</v>
+        <v>0.11</v>
       </c>
       <c r="I194" t="n">
-        <v>2566733</v>
+        <v>2566598</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>53658894</v>
+        <v>53233869</v>
       </c>
       <c r="E195" t="n">
-        <v>92680575</v>
+        <v>91946465</v>
       </c>
       <c r="F195" t="n">
-        <v>4072.810934223074</v>
+        <v>3965.926695590945</v>
       </c>
       <c r="G195" t="n">
-        <v>13034.06487890655</v>
+        <v>13687.6926628123</v>
       </c>
       <c r="H195" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I195" t="n">
-        <v>2333390</v>
+        <v>2345559</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4216928</v>
+        <v>4213152</v>
       </c>
       <c r="E196" t="n">
-        <v>4216928</v>
+        <v>4213152</v>
       </c>
       <c r="F196" t="n">
-        <v>33.32747156187178</v>
+        <v>249.3290179549537</v>
       </c>
       <c r="G196" t="n">
-        <v>336.4992132473293</v>
+        <v>1.048175683393659</v>
       </c>
       <c r="H196" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="I196" t="n">
-        <v>1234347</v>
+        <v>1756627</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>199981</v>
+        <v>197300</v>
       </c>
       <c r="F197" t="n">
-        <v>222.9174768665582</v>
+        <v>221.4653129362914</v>
       </c>
       <c r="G197" t="n">
-        <v>13.35593002616352</v>
+        <v>13.35588005311957</v>
       </c>
       <c r="H197" t="n">
         <v>1.1</v>
       </c>
       <c r="I197" t="n">
-        <v>59257</v>
+        <v>59463</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6362384</v>
+        <v>6310656</v>
       </c>
       <c r="E198" t="n">
-        <v>32732531</v>
+        <v>32466408</v>
       </c>
       <c r="F198" t="n">
-        <v>281.854918210095</v>
+        <v>497.7825664190617</v>
       </c>
       <c r="G198" t="n">
-        <v>348.3147166873732</v>
+        <v>839.2928173087962</v>
       </c>
       <c r="H198" t="n">
-        <v>1.37</v>
+        <v>0.77</v>
       </c>
       <c r="I198" t="n">
-        <v>946511</v>
+        <v>947628</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>176187261</v>
+        <v>175492373</v>
       </c>
       <c r="E199" t="n">
-        <v>205838744</v>
+        <v>205026909</v>
       </c>
       <c r="F199" t="n">
-        <v>35564.23775349891</v>
+        <v>28589.70904992899</v>
       </c>
       <c r="G199" t="n">
-        <v>25640.19181097676</v>
+        <v>34268.12569694762</v>
       </c>
       <c r="H199" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="I199" t="n">
-        <v>4308523</v>
+        <v>4319781</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>304932</v>
+        <v>300321</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>68.66030943784986</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>146.1290205579568</v>
       </c>
       <c r="H200" t="n">
-        <v>4.22</v>
+        <v>2.98</v>
       </c>
       <c r="I200" t="n">
-        <v>253505</v>
+        <v>251487</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7642822</v>
+        <v>7640154</v>
       </c>
       <c r="F201" t="n">
-        <v>976.7771959877675</v>
+        <v>1010.015502114407</v>
       </c>
       <c r="G201" t="n">
-        <v>427.9484386753459</v>
+        <v>353.1975069152647</v>
       </c>
       <c r="H201" t="n">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="I201" t="n">
-        <v>653247</v>
+        <v>654310</v>
       </c>
     </row>
     <row r="202">
@@ -7470,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33943</v>
+        <v>33975</v>
       </c>
       <c r="F202" t="n">
-        <v>216.5615971661144</v>
+        <v>216.5607868711973</v>
       </c>
       <c r="G202" t="n">
-        <v>11.44404870941008</v>
+        <v>11.44400588993229</v>
       </c>
       <c r="H202" t="n">
         <v>2.78</v>
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33325207</v>
+        <v>33010113</v>
       </c>
       <c r="E203" t="n">
-        <v>166308146</v>
+        <v>164735683</v>
       </c>
       <c r="F203" t="n">
-        <v>132418.9820091831</v>
+        <v>124374.9259750874</v>
       </c>
       <c r="G203" t="n">
-        <v>74914.77311568715</v>
+        <v>78322.15364803476</v>
       </c>
       <c r="H203" t="n">
         <v>0.24</v>
       </c>
       <c r="I203" t="n">
-        <v>13394984</v>
+        <v>13378991</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1964447</v>
+        <v>1942977</v>
       </c>
       <c r="E204" t="n">
-        <v>1964447</v>
+        <v>1942977</v>
       </c>
       <c r="F204" t="n">
-        <v>182.8181979947361</v>
+        <v>182.8175139553749</v>
       </c>
       <c r="G204" t="n">
-        <v>6.018310489185808</v>
+        <v>6.018287970851704</v>
       </c>
       <c r="H204" t="n">
         <v>1.62</v>
       </c>
       <c r="I204" t="n">
-        <v>9930.799999999999</v>
+        <v>9773.629999999999</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>177847</v>
+        <v>178839</v>
       </c>
       <c r="F205" t="n">
-        <v>52.1082734751033</v>
+        <v>4.581632896916894</v>
       </c>
       <c r="G205" t="n">
-        <v>72.52217237767459</v>
+        <v>93.16063448095305</v>
       </c>
       <c r="H205" t="n">
-        <v>2.87</v>
+        <v>2.31</v>
       </c>
       <c r="I205" t="n">
-        <v>21199</v>
+        <v>23462</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2914.22</v>
+        <v>2916.99</v>
       </c>
       <c r="E206" t="n">
-        <v>34831</v>
+        <v>34864</v>
       </c>
       <c r="F206" t="n">
-        <v>2.486787613520573</v>
+        <v>6.700172885230535</v>
       </c>
       <c r="G206" t="n">
-        <v>48.79632577589981</v>
+        <v>48.79614319775452</v>
       </c>
       <c r="H206" t="n">
-        <v>2.99</v>
+        <v>0.23</v>
       </c>
       <c r="I206" t="n">
-        <v>4303.18</v>
+        <v>3838.03</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>316569031</v>
+        <v>311770540</v>
       </c>
       <c r="E208" t="n">
-        <v>585724899</v>
+        <v>576846598</v>
       </c>
       <c r="F208" t="n">
-        <v>21261.32149599815</v>
+        <v>17100.49443513406</v>
       </c>
       <c r="G208" t="n">
-        <v>32804.59509371722</v>
+        <v>27766.84344123844</v>
       </c>
       <c r="H208" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="I208" t="n">
-        <v>14826848</v>
+        <v>16404354</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71648698</v>
+        <v>70650229</v>
       </c>
       <c r="E209" t="n">
-        <v>683426337</v>
+        <v>673898677</v>
       </c>
       <c r="F209" t="n">
-        <v>146888.3417746356</v>
+        <v>326901.8389261016</v>
       </c>
       <c r="G209" t="n">
-        <v>129920.2019937911</v>
+        <v>143475.6687249889</v>
       </c>
       <c r="H209" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I209" t="n">
-        <v>22560133</v>
+        <v>22686780</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2429940</v>
+        <v>2422338</v>
       </c>
       <c r="F210" t="n">
-        <v>43.86761885707358</v>
+        <v>43.8674547203612</v>
       </c>
       <c r="G210" t="n">
-        <v>10.86128476121387</v>
+        <v>10.86124412222731</v>
       </c>
       <c r="H210" t="n">
         <v>2.45</v>
       </c>
       <c r="I210" t="n">
-        <v>45610</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>83388</v>
+        <v>82048</v>
       </c>
       <c r="E211" t="n">
-        <v>693219</v>
+        <v>682084</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>5.8</v>
       </c>
       <c r="I211" t="n">
-        <v>118.23</v>
+        <v>120.46</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1877546</v>
+        <v>1863030</v>
       </c>
       <c r="E212" t="n">
-        <v>5362030</v>
+        <v>5320573</v>
       </c>
       <c r="F212" t="n">
-        <v>101.3749815988237</v>
+        <v>256.5422723163213</v>
       </c>
       <c r="G212" t="n">
-        <v>414.1732696124827</v>
+        <v>823.7140021852563</v>
       </c>
       <c r="H212" t="n">
-        <v>1.17</v>
+        <v>0.79</v>
       </c>
       <c r="I212" t="n">
-        <v>79501</v>
+        <v>125514</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9612681</v>
+        <v>9519033</v>
       </c>
       <c r="E213" t="n">
-        <v>28497162</v>
+        <v>28219538</v>
       </c>
       <c r="F213" t="n">
-        <v>2250.170166927384</v>
+        <v>1601.547454529488</v>
       </c>
       <c r="G213" t="n">
-        <v>3536.474181838452</v>
+        <v>3147.453886873538</v>
       </c>
       <c r="H213" t="n">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="I213" t="n">
-        <v>6147954</v>
+        <v>6124442</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14528532</v>
+        <v>14542345</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>34.32152302488146</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>99.9430910972433</v>
       </c>
       <c r="H214" t="n">
-        <v>5.46</v>
+        <v>2.6</v>
       </c>
       <c r="I214" t="n">
-        <v>410.11</v>
+        <v>410.09</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2006246</v>
+        <v>1988094</v>
       </c>
       <c r="E215" t="n">
-        <v>5803570</v>
+        <v>5751063</v>
       </c>
       <c r="F215" t="n">
-        <v>62.4955314562763</v>
+        <v>100.6607249971863</v>
       </c>
       <c r="G215" t="n">
-        <v>656.592381995639</v>
+        <v>77.57442804369475</v>
       </c>
       <c r="H215" t="n">
-        <v>1.98</v>
+        <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>52523</v>
+        <v>52122</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2274044</v>
+        <v>2270493</v>
       </c>
       <c r="E216" t="n">
-        <v>20058578</v>
+        <v>20027255</v>
       </c>
       <c r="F216" t="n">
-        <v>3533.004392876939</v>
+        <v>1945.649239359422</v>
       </c>
       <c r="G216" t="n">
-        <v>1478.589569628891</v>
+        <v>1533.852412785152</v>
       </c>
       <c r="H216" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="I216" t="n">
-        <v>50408</v>
+        <v>49943</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45008409</v>
+        <v>44383621</v>
       </c>
       <c r="E217" t="n">
-        <v>45008409</v>
+        <v>44383621</v>
       </c>
       <c r="F217" t="n">
-        <v>42695.04260378306</v>
+        <v>46329.60204464985</v>
       </c>
       <c r="G217" t="n">
-        <v>46158.61192243651</v>
+        <v>42601.0143390898</v>
       </c>
       <c r="H217" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I217" t="n">
-        <v>10165776</v>
+        <v>10230533</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8140273</v>
+        <v>8132903</v>
       </c>
       <c r="E218" t="n">
-        <v>11598024</v>
+        <v>11587523</v>
       </c>
       <c r="F218" t="n">
-        <v>4085.097244561093</v>
+        <v>3630.850402904002</v>
       </c>
       <c r="G218" t="n">
-        <v>514.8970813094426</v>
+        <v>78.61390637244057</v>
       </c>
       <c r="H218" t="n">
-        <v>1.42</v>
+        <v>0.86</v>
       </c>
       <c r="I218" t="n">
-        <v>322184</v>
+        <v>316591</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16446261</v>
+        <v>16001959</v>
       </c>
       <c r="F219" t="n">
-        <v>2.119960310540967</v>
+        <v>2.119952378418713</v>
       </c>
       <c r="G219" t="n">
-        <v>522.7608542200635</v>
+        <v>504.6692349958839</v>
       </c>
       <c r="H219" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="I219" t="n">
-        <v>1060814</v>
+        <v>1065750</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>722794</v>
+        <v>722477</v>
       </c>
       <c r="F220" t="n">
-        <v>187.2372976440621</v>
+        <v>84.16568472064377</v>
       </c>
       <c r="G220" t="n">
-        <v>209.0401467822079</v>
+        <v>209.0393646298289</v>
       </c>
       <c r="H220" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I220" t="n">
-        <v>208169</v>
+        <v>208430</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2877046</v>
+        <v>2862932</v>
       </c>
       <c r="E221" t="n">
-        <v>2879538</v>
+        <v>2865412</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>3.96</v>
       </c>
       <c r="I221" t="n">
-        <v>94481</v>
+        <v>94704</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1280741</v>
+        <v>1274788</v>
       </c>
       <c r="E222" t="n">
-        <v>3875019</v>
+        <v>3856644</v>
       </c>
       <c r="F222" t="n">
-        <v>108.3287956742845</v>
+        <v>108.3283903472382</v>
       </c>
       <c r="G222" t="n">
-        <v>1964.382776300152</v>
+        <v>1848.012725381031</v>
       </c>
       <c r="H222" t="n">
         <v>0.51</v>
       </c>
       <c r="I222" t="n">
-        <v>37057</v>
+        <v>37180</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33117381</v>
+        <v>31793695</v>
       </c>
       <c r="E223" t="n">
-        <v>234796825</v>
+        <v>225412113</v>
       </c>
       <c r="F223" t="n">
-        <v>45448.36831630256</v>
+        <v>55335.49431180553</v>
       </c>
       <c r="G223" t="n">
-        <v>85150.20367300227</v>
+        <v>57202.02310158433</v>
       </c>
       <c r="H223" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I223" t="n">
-        <v>4272866</v>
+        <v>4473691</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59161</v>
+        <v>59041</v>
       </c>
       <c r="E224" t="n">
-        <v>308676</v>
+        <v>308052</v>
       </c>
       <c r="F224" t="n">
-        <v>29.75665319081771</v>
+        <v>26.44055072533893</v>
       </c>
       <c r="G224" t="n">
-        <v>18.66461299683948</v>
+        <v>18.66452322854841</v>
       </c>
       <c r="H224" t="n">
         <v>1.38</v>
       </c>
       <c r="I224" t="n">
-        <v>215099</v>
+        <v>213792</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1288670</v>
+        <v>1286608</v>
       </c>
       <c r="E225" t="n">
-        <v>7991676</v>
+        <v>7978889</v>
       </c>
       <c r="F225" t="n">
-        <v>1298.442591536989</v>
+        <v>1298.619463785959</v>
       </c>
       <c r="G225" t="n">
-        <v>810.1763270079656</v>
+        <v>1013.94860142128</v>
       </c>
       <c r="H225" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I225" t="n">
-        <v>796953</v>
+        <v>795660</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>598486897</v>
+        <v>590717947</v>
       </c>
       <c r="E226" t="n">
-        <v>2317851453</v>
+        <v>2287763456</v>
       </c>
       <c r="F226" t="n">
-        <v>300913.9041885506</v>
+        <v>276426.965028501</v>
       </c>
       <c r="G226" t="n">
-        <v>315510.8639953333</v>
+        <v>260271.9143392567</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>52464522</v>
+        <v>53466045</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20994564</v>
+        <v>20970341</v>
       </c>
       <c r="F227" t="n">
-        <v>1195.447936496985</v>
+        <v>1723.749613530347</v>
       </c>
       <c r="G227" t="n">
-        <v>307.8598649693021</v>
+        <v>429.1959443819393</v>
       </c>
       <c r="H227" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="I227" t="n">
-        <v>17532464</v>
+        <v>17596924</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>812974</v>
+        <v>811840</v>
       </c>
       <c r="F228" t="n">
-        <v>6.715052121500746</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>34.18875638394756</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>3.1</v>
+        <v>4.24</v>
       </c>
       <c r="I228" t="n">
-        <v>175703</v>
+        <v>174714</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5439875</v>
+        <v>5462594</v>
       </c>
       <c r="E229" t="n">
-        <v>24351214</v>
+        <v>24452912</v>
       </c>
       <c r="F229" t="n">
-        <v>1322.669316455857</v>
+        <v>1700.457924755484</v>
       </c>
       <c r="G229" t="n">
-        <v>5045.970353095188</v>
+        <v>4199.84542874049</v>
       </c>
       <c r="H229" t="n">
         <v>0.41</v>
       </c>
       <c r="I229" t="n">
-        <v>184190</v>
+        <v>182816</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6508294</v>
+        <v>6499127</v>
       </c>
       <c r="E230" t="n">
-        <v>12460657</v>
+        <v>12443106</v>
       </c>
       <c r="F230" t="n">
-        <v>80.49801280677106</v>
+        <v>139.4094280243971</v>
       </c>
       <c r="G230" t="n">
-        <v>429.0941051897657</v>
+        <v>421.1029593415317</v>
       </c>
       <c r="H230" t="n">
-        <v>1.97</v>
+        <v>2.81</v>
       </c>
       <c r="I230" t="n">
-        <v>33478</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3184158</v>
+        <v>3175072</v>
       </c>
       <c r="E231" t="n">
-        <v>20938284</v>
+        <v>20878537</v>
       </c>
       <c r="F231" t="n">
-        <v>295.364742226304</v>
+        <v>212.8255239354683</v>
       </c>
       <c r="G231" t="n">
-        <v>226.2919603694227</v>
+        <v>242.7707491756452</v>
       </c>
       <c r="H231" t="n">
-        <v>0.91</v>
+        <v>1.71</v>
       </c>
       <c r="I231" t="n">
-        <v>1639282</v>
+        <v>1531686</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>111737981</v>
+        <v>110350355</v>
       </c>
       <c r="E232" t="n">
-        <v>1038189844</v>
+        <v>1025297014</v>
       </c>
       <c r="F232" t="n">
-        <v>12558.83209158032</v>
+        <v>22158.54935558078</v>
       </c>
       <c r="G232" t="n">
-        <v>25939.68402693768</v>
+        <v>36376.87787861377</v>
       </c>
       <c r="H232" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I232" t="n">
-        <v>9922647</v>
+        <v>13904793</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>349.94</v>
+        <v>349.92</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>100041222</v>
+        <v>97793318</v>
       </c>
       <c r="E234" t="n">
-        <v>152615229</v>
+        <v>149185999</v>
       </c>
       <c r="F234" t="n">
-        <v>32791.12164367996</v>
+        <v>29074.42726096081</v>
       </c>
       <c r="G234" t="n">
-        <v>23798.96001668286</v>
+        <v>17168.44510822631</v>
       </c>
       <c r="H234" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I234" t="n">
-        <v>10966095</v>
+        <v>11287631</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16675387</v>
+        <v>16424802</v>
       </c>
       <c r="E235" t="n">
-        <v>22877187</v>
+        <v>22533406</v>
       </c>
       <c r="F235" t="n">
-        <v>2383.804048313096</v>
+        <v>1863.4785315533</v>
       </c>
       <c r="G235" t="n">
-        <v>503.039269978277</v>
+        <v>842.1481075463984</v>
       </c>
       <c r="H235" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I235" t="n">
-        <v>836503</v>
+        <v>834235</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>125474164</v>
+        <v>123945413</v>
       </c>
       <c r="E236" t="n">
-        <v>481339088</v>
+        <v>475474553</v>
       </c>
       <c r="F236" t="n">
-        <v>442960.0395360397</v>
+        <v>351896.8749544548</v>
       </c>
       <c r="G236" t="n">
-        <v>345646.3538116455</v>
+        <v>234895.8681746686</v>
       </c>
       <c r="H236" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I236" t="n">
-        <v>40554442</v>
+        <v>40318957</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>653947</v>
+        <v>645337</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>8.6</v>
+        <v>4.43</v>
       </c>
       <c r="I237" t="n">
-        <v>40951</v>
+        <v>40427</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>778289</v>
+        <v>777930</v>
       </c>
       <c r="F238" t="n">
-        <v>266.2457358476944</v>
+        <v>343.7763388994788</v>
       </c>
       <c r="G238" t="n">
-        <v>155.4241680979934</v>
+        <v>155.4235865571521</v>
       </c>
       <c r="H238" t="n">
-        <v>1.12</v>
+        <v>0.33</v>
       </c>
       <c r="I238" t="n">
-        <v>215855</v>
+        <v>218760</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3154884</v>
+        <v>3096449</v>
       </c>
       <c r="E239" t="n">
-        <v>29892996</v>
+        <v>29339317</v>
       </c>
       <c r="F239" t="n">
-        <v>766.7459212777007</v>
+        <v>696.7368547400018</v>
       </c>
       <c r="G239" t="n">
-        <v>799.8278336024028</v>
+        <v>741.4475578774127</v>
       </c>
       <c r="H239" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="I239" t="n">
-        <v>244880</v>
+        <v>186562</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>727444</v>
+        <v>727546</v>
       </c>
       <c r="E240" t="n">
-        <v>777633</v>
+        <v>777743</v>
       </c>
       <c r="F240" t="n">
-        <v>47.27365449373618</v>
+        <v>58.08926444161774</v>
       </c>
       <c r="G240" t="n">
-        <v>1569.903112780237</v>
+        <v>2340.221648384618</v>
       </c>
       <c r="H240" t="n">
-        <v>1.46</v>
+        <v>0.54</v>
       </c>
       <c r="I240" t="n">
-        <v>120336</v>
+        <v>119590</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383444</v>
+        <v>383809</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.99</v>
+        <v>13.24</v>
       </c>
       <c r="I241" t="n">
-        <v>759.26</v>
+        <v>759.24</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>131828</v>
+        <v>130889</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>5.04</v>
+        <v>6.38</v>
       </c>
       <c r="I242" t="n">
-        <v>67955</v>
+        <v>67779</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>569523</v>
+        <v>575224</v>
       </c>
       <c r="F243" t="n">
-        <v>3.510070017711003</v>
+        <v>76.49722312199546</v>
       </c>
       <c r="G243" t="n">
-        <v>91.87504739250498</v>
+        <v>116.6537861226493</v>
       </c>
       <c r="H243" t="n">
-        <v>2.13</v>
+        <v>3.09</v>
       </c>
       <c r="I243" t="n">
-        <v>7885.14</v>
+        <v>8114.38</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6800648</v>
+        <v>6788293</v>
       </c>
       <c r="E244" t="n">
-        <v>42502102</v>
+        <v>42424891</v>
       </c>
       <c r="F244" t="n">
-        <v>239.8014717339678</v>
+        <v>239.8005744838727</v>
       </c>
       <c r="G244" t="n">
-        <v>1309.495890227336</v>
+        <v>1170.90894716947</v>
       </c>
       <c r="H244" t="n">
         <v>0.03</v>
       </c>
       <c r="I244" t="n">
-        <v>410943</v>
+        <v>409570</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5122377</v>
+        <v>5076588</v>
       </c>
       <c r="E245" t="n">
-        <v>19034848</v>
+        <v>18864695</v>
       </c>
       <c r="F245" t="n">
-        <v>745.8252890905377</v>
+        <v>487.7653955170919</v>
       </c>
       <c r="G245" t="n">
-        <v>5289.60113639959</v>
+        <v>5030.146091090346</v>
       </c>
       <c r="H245" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I245" t="n">
-        <v>84984</v>
+        <v>88708</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3507738</v>
+        <v>3580661</v>
       </c>
       <c r="F246" t="n">
-        <v>265.6391002448526</v>
+        <v>254.9288007360112</v>
       </c>
       <c r="G246" t="n">
-        <v>6169.299667228681</v>
+        <v>6169.276583947859</v>
       </c>
       <c r="H246" t="n">
         <v>1.94</v>
       </c>
       <c r="I246" t="n">
-        <v>29652</v>
+        <v>29672</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>36311802</v>
+        <v>37001859</v>
       </c>
       <c r="E247" t="n">
-        <v>130154579</v>
+        <v>132627993</v>
       </c>
       <c r="F247" t="n">
-        <v>230.9390862787006</v>
+        <v>576.2749490650701</v>
       </c>
       <c r="G247" t="n">
-        <v>3048.659086362368</v>
+        <v>218.4483460374425</v>
       </c>
       <c r="H247" t="n">
-        <v>0.36</v>
+        <v>1.17</v>
       </c>
       <c r="I247" t="n">
-        <v>96253</v>
+        <v>100622</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1537158</v>
+        <v>1546379</v>
       </c>
       <c r="F248" t="n">
-        <v>12.16019439812726</v>
+        <v>14.20104250929196</v>
       </c>
       <c r="G248" t="n">
-        <v>261.9857885573272</v>
+        <v>33.59832222586819</v>
       </c>
       <c r="H248" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="I248" t="n">
-        <v>602080</v>
+        <v>602512</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2140760</v>
+        <v>2142149</v>
       </c>
       <c r="E249" t="n">
-        <v>16466120</v>
+        <v>16476803</v>
       </c>
       <c r="F249" t="n">
-        <v>240.416890028096</v>
+        <v>247.6550996123173</v>
       </c>
       <c r="G249" t="n">
-        <v>246.7216097446638</v>
+        <v>268.9970555997157</v>
       </c>
       <c r="H249" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="I249" t="n">
-        <v>216295</v>
+        <v>216427</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103332</v>
+        <v>103383</v>
       </c>
       <c r="E250" t="n">
-        <v>820765</v>
+        <v>821172</v>
       </c>
       <c r="F250" t="n">
-        <v>161.1570154161273</v>
+        <v>158.2904729675697</v>
       </c>
       <c r="G250" t="n">
-        <v>347.255704992135</v>
+        <v>347.2544056872887</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>214.3</v>
+        <v>214.13</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88315971</v>
+        <v>88036814</v>
       </c>
       <c r="E251" t="n">
-        <v>326456208</v>
+        <v>325423569</v>
       </c>
       <c r="F251" t="n">
-        <v>4636.217936601781</v>
+        <v>5152.802706287191</v>
       </c>
       <c r="G251" t="n">
-        <v>4271.668421512764</v>
+        <v>6535.591032787047</v>
       </c>
       <c r="H251" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I251" t="n">
-        <v>214981</v>
+        <v>217893</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2179616</v>
+        <v>2179958</v>
       </c>
       <c r="E252" t="n">
-        <v>8737746</v>
+        <v>8739120</v>
       </c>
       <c r="F252" t="n">
-        <v>4.415729672457844</v>
+        <v>4.400710727465118</v>
       </c>
       <c r="G252" t="n">
-        <v>6.000959522044071</v>
+        <v>39.92641613127117</v>
       </c>
       <c r="H252" t="n">
-        <v>3.85</v>
+        <v>3.52</v>
       </c>
       <c r="I252" t="n">
-        <v>11588.56</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>574033</v>
+        <v>575009</v>
       </c>
       <c r="F253" t="n">
-        <v>420.684680114445</v>
+        <v>355.0156302544237</v>
       </c>
       <c r="G253" t="n">
-        <v>25.00413128053935</v>
+        <v>25.00403772415286</v>
       </c>
       <c r="H253" t="n">
-        <v>1.63</v>
+        <v>1.96</v>
       </c>
       <c r="I253" t="n">
-        <v>2253.31</v>
+        <v>2253.24</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39234</v>
+        <v>38072</v>
       </c>
       <c r="F254" t="n">
-        <v>98.7591444866588</v>
+        <v>95.42064194467169</v>
       </c>
       <c r="G254" t="n">
-        <v>5.161316890208541</v>
+        <v>38.66564360187419</v>
       </c>
       <c r="H254" t="n">
-        <v>0.76</v>
+        <v>3.05</v>
       </c>
       <c r="I254" t="n">
-        <v>1160.13</v>
+        <v>1173.81</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>816473743</v>
+        <v>801294414</v>
       </c>
       <c r="E255" t="n">
-        <v>1259074599</v>
+        <v>1235666735</v>
       </c>
       <c r="F255" t="n">
-        <v>116731.394342583</v>
+        <v>83530.16168884255</v>
       </c>
       <c r="G255" t="n">
-        <v>154508.4757574063</v>
+        <v>152828.5931472378</v>
       </c>
       <c r="H255" t="n">
         <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>336651989</v>
+        <v>338510171</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5869006</v>
+        <v>5860905</v>
       </c>
       <c r="E256" t="n">
-        <v>5869006</v>
+        <v>5860905</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.109999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="I256" t="n">
-        <v>327.79</v>
+        <v>327.16</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39783960</v>
+        <v>39482575</v>
       </c>
       <c r="E257" t="n">
-        <v>189723909</v>
+        <v>188286626</v>
       </c>
       <c r="F257" t="n">
-        <v>609.7135666466688</v>
+        <v>608.2570985543837</v>
       </c>
       <c r="G257" t="n">
-        <v>329.0636217810865</v>
+        <v>283.0311390546392</v>
       </c>
       <c r="H257" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="I257" t="n">
-        <v>270362</v>
+        <v>401465</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>541851</v>
+        <v>541896</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>285.11</v>
+        <v>284.96</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>22949702</v>
+        <v>22628079</v>
       </c>
       <c r="E259" t="n">
-        <v>38249503</v>
+        <v>37713464</v>
       </c>
       <c r="F259" t="n">
-        <v>2110.522440990455</v>
+        <v>965.0102549372848</v>
       </c>
       <c r="G259" t="n">
-        <v>16765.3713105887</v>
+        <v>5733.016019609438</v>
       </c>
       <c r="H259" t="n">
-        <v>0.24</v>
+        <v>0.87</v>
       </c>
       <c r="I259" t="n">
-        <v>593877</v>
+        <v>612066</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>108103</v>
+        <v>108100</v>
       </c>
       <c r="F260" t="n">
-        <v>226.2891053306449</v>
+        <v>226.2136503754723</v>
       </c>
       <c r="G260" t="n">
-        <v>175.7349022242132</v>
+        <v>175.7342446879746</v>
       </c>
       <c r="H260" t="n">
         <v>0.03</v>
       </c>
       <c r="I260" t="n">
-        <v>54056</v>
+        <v>54186</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1580644</v>
+        <v>1758252</v>
       </c>
       <c r="E261" t="n">
-        <v>6732296</v>
+        <v>7488769</v>
       </c>
       <c r="F261" t="n">
-        <v>0.557556732857269</v>
+        <v>192.6214609210644</v>
       </c>
       <c r="G261" t="n">
-        <v>1.584490627434266</v>
+        <v>36.46358537412419</v>
       </c>
       <c r="H261" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
-        <v>826299</v>
+        <v>833732</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3809241</v>
+        <v>3812086</v>
       </c>
       <c r="E262" t="n">
-        <v>8303612</v>
+        <v>8309812</v>
       </c>
       <c r="F262" t="n">
-        <v>1663.153348870306</v>
+        <v>1700.387403866157</v>
       </c>
       <c r="G262" t="n">
-        <v>2797.293377908653</v>
+        <v>2791.800217981036</v>
       </c>
       <c r="H262" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="I262" t="n">
-        <v>1878877</v>
+        <v>1891456</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>490399355</v>
+        <v>484523135</v>
       </c>
       <c r="E263" t="n">
-        <v>1707039342</v>
+        <v>1686584708</v>
       </c>
       <c r="F263" t="n">
-        <v>358646.6934646638</v>
+        <v>410446.1250350788</v>
       </c>
       <c r="G263" t="n">
-        <v>393230.1756076409</v>
+        <v>324620.0734694044</v>
       </c>
       <c r="H263" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>43117106</v>
+        <v>44480527</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5661068192</v>
+        <v>5592211190</v>
       </c>
       <c r="E264" t="n">
-        <v>5661066563</v>
+        <v>5592211190</v>
       </c>
       <c r="F264" t="n">
-        <v>681.3805359872455</v>
+        <v>1608.479823126995</v>
       </c>
       <c r="G264" t="n">
-        <v>2247.716261434433</v>
+        <v>1367.342151698112</v>
       </c>
       <c r="H264" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I264" t="n">
-        <v>33555814</v>
+        <v>29883985</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22269941</v>
+        <v>22218336</v>
       </c>
       <c r="E265" t="n">
-        <v>22250597</v>
+        <v>22199036</v>
       </c>
       <c r="F265" t="n">
-        <v>3474.238207232364</v>
+        <v>823.9432282676294</v>
       </c>
       <c r="G265" t="n">
-        <v>1286.886552465153</v>
+        <v>1874.267480467743</v>
       </c>
       <c r="H265" t="n">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="I265" t="n">
-        <v>404625</v>
+        <v>404871</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11866660</v>
+        <v>11740618</v>
       </c>
       <c r="E266" t="n">
-        <v>23965688</v>
+        <v>23709448</v>
       </c>
       <c r="F266" t="n">
-        <v>738.107672601376</v>
+        <v>864.0080261862579</v>
       </c>
       <c r="G266" t="n">
-        <v>830.9321344788473</v>
+        <v>709.9786924049472</v>
       </c>
       <c r="H266" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>55504</v>
+        <v>55668</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>148323</v>
+        <v>146502</v>
       </c>
       <c r="F267" t="n">
-        <v>184.5952053343856</v>
+        <v>172.0824958190081</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1432894744694</v>
+        <v>133.4207898420717</v>
       </c>
       <c r="H267" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="I267" t="n">
-        <v>55414</v>
+        <v>55504</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47121</v>
+        <v>47165</v>
       </c>
       <c r="F268" t="n">
-        <v>82.68834900249878</v>
+        <v>73.61833796774623</v>
       </c>
       <c r="G268" t="n">
-        <v>1.000164923167365</v>
+        <v>48.69535585530826</v>
       </c>
       <c r="H268" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="I268" t="n">
-        <v>69603</v>
+        <v>69621</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2545145</v>
+        <v>2531373</v>
       </c>
       <c r="E269" t="n">
-        <v>10180581</v>
+        <v>10125493</v>
       </c>
       <c r="F269" t="n">
-        <v>20958.90238678063</v>
+        <v>19711.69461798894</v>
       </c>
       <c r="G269" t="n">
-        <v>26878.11944868057</v>
+        <v>26133.4364756061</v>
       </c>
       <c r="H269" t="n">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="I269" t="n">
-        <v>7122217</v>
+        <v>7123881</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>217588637</v>
+        <v>216244401</v>
       </c>
       <c r="E270" t="n">
-        <v>669003175</v>
+        <v>664870155</v>
       </c>
       <c r="F270" t="n">
-        <v>193528.8507199227</v>
+        <v>190099.5523235578</v>
       </c>
       <c r="G270" t="n">
-        <v>146705.1751304623</v>
+        <v>111002.8815172699</v>
       </c>
       <c r="H270" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I270" t="n">
-        <v>20185160</v>
+        <v>20378361</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>139460330</v>
+        <v>138280382</v>
       </c>
       <c r="E271" t="n">
-        <v>364336242</v>
+        <v>361253661</v>
       </c>
       <c r="F271" t="n">
-        <v>63624.08288853303</v>
+        <v>61424.76235014269</v>
       </c>
       <c r="G271" t="n">
-        <v>56340.74613645522</v>
+        <v>52305.0935843546</v>
       </c>
       <c r="H271" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I271" t="n">
-        <v>8920284</v>
+        <v>8912110</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2383911</v>
+        <v>2383176</v>
       </c>
       <c r="E272" t="n">
-        <v>3271880</v>
+        <v>3270871</v>
       </c>
       <c r="F272" t="n">
-        <v>157.3638964262961</v>
+        <v>156.0686875428205</v>
       </c>
       <c r="G272" t="n">
-        <v>14.13772057229393</v>
+        <v>14.13766767407343</v>
       </c>
       <c r="H272" t="n">
         <v>1.04</v>
       </c>
       <c r="I272" t="n">
-        <v>1803100</v>
+        <v>1789679</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56632</v>
+        <v>56715</v>
       </c>
       <c r="F2" t="n">
-        <v>17.20660960856485</v>
+        <v>8.363359905891588</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87895059319258</v>
+        <v>10.87658354725433</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>465.83</v>
+        <v>447.51</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>99234</v>
+        <v>97571</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>426.02</v>
+        <v>428.84</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>625421596</v>
+        <v>608288346</v>
       </c>
       <c r="E4" t="n">
-        <v>1213650802</v>
+        <v>1180413077</v>
       </c>
       <c r="F4" t="n">
-        <v>23264.10127744127</v>
+        <v>20262.62023772805</v>
       </c>
       <c r="G4" t="n">
-        <v>21997.72422264329</v>
+        <v>25618.43137756295</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>38424752</v>
+        <v>38750120</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1481821</v>
+        <v>1465582</v>
       </c>
       <c r="E5" t="n">
-        <v>4789855</v>
+        <v>4737364</v>
       </c>
       <c r="F5" t="n">
-        <v>729.3843297394977</v>
+        <v>239.9554831859119</v>
       </c>
       <c r="G5" t="n">
-        <v>2277.009810560964</v>
+        <v>1163.028688507849</v>
       </c>
       <c r="H5" t="n">
-        <v>0.42</v>
+        <v>1.26</v>
       </c>
       <c r="I5" t="n">
-        <v>225952</v>
+        <v>215350</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>143616624</v>
+        <v>143147457</v>
       </c>
       <c r="E6" t="n">
-        <v>159149663</v>
+        <v>158629754</v>
       </c>
       <c r="F6" t="n">
-        <v>224499.3788208019</v>
+        <v>205768.8985269205</v>
       </c>
       <c r="G6" t="n">
-        <v>203383.1297288515</v>
+        <v>248658.0254170095</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>49304569</v>
+        <v>50877181</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3818.63</v>
+        <v>3822.43</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.86</v>
+        <v>153.76</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8433521</v>
+        <v>8344577</v>
       </c>
       <c r="E8" t="n">
-        <v>8646183</v>
+        <v>8554996</v>
       </c>
       <c r="F8" t="n">
-        <v>276.9120432624543</v>
+        <v>164.7575757796421</v>
       </c>
       <c r="G8" t="n">
-        <v>316.3185925822263</v>
+        <v>4637.899975931037</v>
       </c>
       <c r="H8" t="n">
-        <v>1.35</v>
+        <v>0.59</v>
       </c>
       <c r="I8" t="n">
-        <v>96171</v>
+        <v>98128</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>294808</v>
+        <v>295511</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>5.61</v>
       </c>
       <c r="I9" t="n">
-        <v>882.3099999999999</v>
+        <v>744.53</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5009582</v>
+        <v>5101321</v>
       </c>
       <c r="E10" t="n">
-        <v>8003806</v>
+        <v>8150378</v>
       </c>
       <c r="F10" t="n">
-        <v>201.844174476915</v>
+        <v>229.2442459527565</v>
       </c>
       <c r="G10" t="n">
-        <v>242.9180198197589</v>
+        <v>248.473690450441</v>
       </c>
       <c r="H10" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>97079</v>
+        <v>99681</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1002629</v>
+        <v>1002168</v>
       </c>
       <c r="E11" t="n">
-        <v>12269472</v>
+        <v>12263830</v>
       </c>
       <c r="F11" t="n">
-        <v>1570.460677040025</v>
+        <v>1570.151836851503</v>
       </c>
       <c r="G11" t="n">
-        <v>1360.915428280536</v>
+        <v>1349.558888718571</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>445.65</v>
+        <v>403.72</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>566844</v>
+        <v>571007</v>
       </c>
       <c r="E12" t="n">
-        <v>566844</v>
+        <v>571007</v>
       </c>
       <c r="F12" t="n">
-        <v>151.541426499411</v>
+        <v>109.9851127037228</v>
       </c>
       <c r="G12" t="n">
-        <v>188.003860881324</v>
+        <v>313.911311947199</v>
       </c>
       <c r="H12" t="n">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="I12" t="n">
-        <v>27818</v>
+        <v>27756</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4255783</v>
+        <v>4257083</v>
       </c>
       <c r="E13" t="n">
-        <v>26132660</v>
+        <v>26140511</v>
       </c>
       <c r="F13" t="n">
-        <v>195.6000454575674</v>
+        <v>749.328509227631</v>
       </c>
       <c r="G13" t="n">
-        <v>945.0524504467874</v>
+        <v>420.4490637242373</v>
       </c>
       <c r="H13" t="n">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="I13" t="n">
-        <v>707077</v>
+        <v>684546</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>196916</v>
+        <v>197335</v>
       </c>
       <c r="E14" t="n">
-        <v>2166291</v>
+        <v>2170906</v>
       </c>
       <c r="F14" t="n">
-        <v>183.2727960816353</v>
+        <v>201.9565561930624</v>
       </c>
       <c r="G14" t="n">
-        <v>437.1477940366677</v>
+        <v>353.080409315132</v>
       </c>
       <c r="H14" t="n">
-        <v>2.28</v>
+        <v>2.73</v>
       </c>
       <c r="I14" t="n">
-        <v>34697</v>
+        <v>35187</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3306314</v>
+        <v>3277691</v>
       </c>
       <c r="E15" t="n">
-        <v>9406170</v>
+        <v>9324741</v>
       </c>
       <c r="F15" t="n">
-        <v>256.3276403834005</v>
+        <v>455.7030018427052</v>
       </c>
       <c r="G15" t="n">
-        <v>149.7297905552832</v>
+        <v>161.8724941619402</v>
       </c>
       <c r="H15" t="n">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="I15" t="n">
-        <v>113268</v>
+        <v>113440</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>313499</v>
+        <v>312760</v>
       </c>
       <c r="E16" t="n">
-        <v>3618150</v>
+        <v>3609625</v>
       </c>
       <c r="F16" t="n">
-        <v>139.2374880617139</v>
+        <v>138.3113726800269</v>
       </c>
       <c r="G16" t="n">
-        <v>131.5211857837465</v>
+        <v>131.0723193258769</v>
       </c>
       <c r="H16" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="I16" t="n">
-        <v>2619.07</v>
+        <v>2476.03</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>943770</v>
+        <v>934063</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.38</v>
+        <v>3.95</v>
       </c>
       <c r="I17" t="n">
-        <v>10548.3</v>
+        <v>10579.92</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24644638</v>
+        <v>24454217</v>
       </c>
       <c r="E18" t="n">
-        <v>24690094</v>
+        <v>24499322</v>
       </c>
       <c r="F18" t="n">
-        <v>1116.627252672054</v>
+        <v>1771.985797014974</v>
       </c>
       <c r="G18" t="n">
-        <v>2795.075354364578</v>
+        <v>2735.031236719901</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="I18" t="n">
-        <v>875858</v>
+        <v>889760</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6926605</v>
+        <v>6908677</v>
       </c>
       <c r="F19" t="n">
-        <v>234.436226045665</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13.7036561637419</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.46</v>
+        <v>4.01</v>
       </c>
       <c r="I19" t="n">
-        <v>19140.61</v>
+        <v>19006.18</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2442691</v>
+        <v>2443221</v>
       </c>
       <c r="E20" t="n">
-        <v>2442691</v>
+        <v>2443221</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>10.36769086613278</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>46.00096596299795</v>
       </c>
       <c r="H20" t="n">
-        <v>4.26</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>318081</v>
+        <v>316598</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>345034</v>
+        <v>355891</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5.22</v>
+        <v>4.78</v>
       </c>
       <c r="I21" t="n">
-        <v>9419.66</v>
+        <v>9511.32</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17758450</v>
+        <v>17451175</v>
       </c>
       <c r="E22" t="n">
-        <v>22856582</v>
+        <v>22461095</v>
       </c>
       <c r="F22" t="n">
-        <v>800.6208484506561</v>
+        <v>644.4124626261287</v>
       </c>
       <c r="G22" t="n">
-        <v>4467.280464989433</v>
+        <v>10198.48471016229</v>
       </c>
       <c r="H22" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="I22" t="n">
-        <v>1982715</v>
+        <v>1997532</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>503593771</v>
+        <v>508695749</v>
       </c>
       <c r="E23" t="n">
-        <v>503593776</v>
+        <v>508695749</v>
       </c>
       <c r="F23" t="n">
-        <v>57493.67906262459</v>
+        <v>53705.79631521751</v>
       </c>
       <c r="G23" t="n">
-        <v>58118.38284423706</v>
+        <v>60700.1457300302</v>
       </c>
       <c r="H23" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>81993330</v>
+        <v>71848081</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>17824.96</v>
+        <v>18241.59</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.15</v>
+        <v>6.62</v>
       </c>
       <c r="I24" t="n">
-        <v>2225.53</v>
+        <v>2667.69</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4684109</v>
+        <v>4623945</v>
       </c>
       <c r="E25" t="n">
-        <v>4684109</v>
+        <v>4623945</v>
       </c>
       <c r="F25" t="n">
-        <v>559.6175593471128</v>
+        <v>302.8255746732433</v>
       </c>
       <c r="G25" t="n">
-        <v>1279.979004700919</v>
+        <v>1124.802681726125</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.46</v>
       </c>
       <c r="I25" t="n">
-        <v>2240124</v>
+        <v>2109077</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3372673</v>
+        <v>3373901</v>
       </c>
       <c r="E26" t="n">
-        <v>3372673</v>
+        <v>3373901</v>
       </c>
       <c r="F26" t="n">
-        <v>127.2413938435027</v>
+        <v>1278.655623061493</v>
       </c>
       <c r="G26" t="n">
-        <v>975.3487110553916</v>
+        <v>116.3708383420006</v>
       </c>
       <c r="H26" t="n">
-        <v>0.45</v>
+        <v>2.82</v>
       </c>
       <c r="I26" t="n">
-        <v>576486</v>
+        <v>603949</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>304421</v>
+        <v>304578</v>
       </c>
       <c r="E27" t="n">
-        <v>1421069</v>
+        <v>1421801</v>
       </c>
       <c r="F27" t="n">
-        <v>310.2060053301922</v>
+        <v>96.94209866255613</v>
       </c>
       <c r="G27" t="n">
-        <v>654.5458410444886</v>
+        <v>276.8996791273635</v>
       </c>
       <c r="H27" t="n">
-        <v>0.35</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>668533</v>
+        <v>673048</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1955226</v>
+        <v>1897859</v>
       </c>
       <c r="F28" t="n">
-        <v>465.3323132625991</v>
+        <v>141.2371617431182</v>
       </c>
       <c r="G28" t="n">
-        <v>354.9859153539887</v>
+        <v>268.2659570280719</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05</v>
+        <v>0.73</v>
       </c>
       <c r="I28" t="n">
-        <v>1204321</v>
+        <v>1213180</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12098323</v>
+        <v>11956992</v>
       </c>
       <c r="E29" t="n">
-        <v>30110538</v>
+        <v>29758790</v>
       </c>
       <c r="F29" t="n">
-        <v>918.8434142018731</v>
+        <v>837.1159875106763</v>
       </c>
       <c r="G29" t="n">
-        <v>1067.803277306807</v>
+        <v>1277.868175588623</v>
       </c>
       <c r="H29" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="I29" t="n">
-        <v>1525618</v>
+        <v>1504813</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>893904</v>
+        <v>892227</v>
       </c>
       <c r="E30" t="n">
-        <v>6257326</v>
+        <v>6245592</v>
       </c>
       <c r="F30" t="n">
-        <v>78.34973784051577</v>
+        <v>31.63938644706941</v>
       </c>
       <c r="G30" t="n">
-        <v>134.373051760755</v>
+        <v>990.208322745772</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>256206</v>
+        <v>256497</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>175159</v>
+        <v>175372</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>676.61</v>
+        <v>676.3200000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5662422</v>
+        <v>5579896</v>
       </c>
       <c r="E32" t="n">
-        <v>5933313</v>
+        <v>5846838</v>
       </c>
       <c r="F32" t="n">
-        <v>130.2895701068939</v>
+        <v>34.98025050315032</v>
       </c>
       <c r="G32" t="n">
-        <v>171.1062596919373</v>
+        <v>547.8787455713548</v>
       </c>
       <c r="H32" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="I32" t="n">
-        <v>157650</v>
+        <v>192632</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4942335</v>
+        <v>4772065</v>
       </c>
       <c r="E33" t="n">
-        <v>7275385</v>
+        <v>7024738</v>
       </c>
       <c r="F33" t="n">
-        <v>271.8408221612656</v>
+        <v>65.55164417424675</v>
       </c>
       <c r="G33" t="n">
-        <v>127.3411544883915</v>
+        <v>209.7828549980251</v>
       </c>
       <c r="H33" t="n">
         <v>1.42</v>
       </c>
       <c r="I33" t="n">
-        <v>570667</v>
+        <v>558784</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7478927</v>
+        <v>7534309</v>
       </c>
       <c r="E34" t="n">
-        <v>7478927</v>
+        <v>7534309</v>
       </c>
       <c r="F34" t="n">
-        <v>1764.412669667351</v>
+        <v>3121.561972864566</v>
       </c>
       <c r="G34" t="n">
-        <v>3858.436356456459</v>
+        <v>4221.442632244042</v>
       </c>
       <c r="H34" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="I34" t="n">
-        <v>277443</v>
+        <v>436494</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1601182</v>
+        <v>1563614</v>
       </c>
       <c r="E35" t="n">
-        <v>1601182</v>
+        <v>1563614</v>
       </c>
       <c r="F35" t="n">
-        <v>29.99518255158284</v>
+        <v>74.29827079960067</v>
       </c>
       <c r="G35" t="n">
-        <v>58.52580717119488</v>
+        <v>582.5104539340433</v>
       </c>
       <c r="H35" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="I35" t="n">
-        <v>280261</v>
+        <v>280650</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15814703</v>
+        <v>15811930</v>
       </c>
       <c r="F36" t="n">
-        <v>249.8494790554999</v>
+        <v>250.0123919468178</v>
       </c>
       <c r="G36" t="n">
-        <v>166.3136021364552</v>
+        <v>185.586487256184</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="I36" t="n">
-        <v>9538.09</v>
+        <v>10294.45</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55418</v>
+        <v>59634</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.98</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>1142.9</v>
+        <v>1144.74</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>141808388</v>
+        <v>141657584</v>
       </c>
       <c r="E38" t="n">
-        <v>141808388</v>
+        <v>141657584</v>
       </c>
       <c r="F38" t="n">
-        <v>352435.0050842664</v>
+        <v>302373.6180611274</v>
       </c>
       <c r="G38" t="n">
-        <v>282632.8561927092</v>
+        <v>261792.780299234</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>88305512</v>
+        <v>86817714</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65142825</v>
+        <v>65330391</v>
       </c>
       <c r="E39" t="n">
-        <v>334065772</v>
+        <v>335027647</v>
       </c>
       <c r="F39" t="n">
-        <v>101331.6192686519</v>
+        <v>85416.49508248962</v>
       </c>
       <c r="G39" t="n">
-        <v>81929.3998330672</v>
+        <v>78999.85629427091</v>
       </c>
       <c r="H39" t="n">
         <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>27087973</v>
+        <v>27067749</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46359</v>
+        <v>46405</v>
       </c>
       <c r="E40" t="n">
-        <v>137000</v>
+        <v>137136</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>11.18</v>
+        <v>11.13</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49752</v>
+        <v>49881</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="I41" t="n">
-        <v>22913</v>
+        <v>22401</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>600401</v>
+        <v>599300</v>
       </c>
       <c r="F42" t="n">
-        <v>2445.593574842836</v>
+        <v>1853.406490391013</v>
       </c>
       <c r="G42" t="n">
-        <v>426.0343311325354</v>
+        <v>425.2432550560458</v>
       </c>
       <c r="H42" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1635.87</v>
+        <v>1632.44</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2601058</v>
+        <v>2631652</v>
       </c>
       <c r="E44" t="n">
-        <v>10453060</v>
+        <v>10576011</v>
       </c>
       <c r="F44" t="n">
-        <v>448.8708180613994</v>
+        <v>59.87147681387947</v>
       </c>
       <c r="G44" t="n">
-        <v>185.2089075475412</v>
+        <v>240.7497516170032</v>
       </c>
       <c r="H44" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="I44" t="n">
-        <v>52381</v>
+        <v>54959</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17968924</v>
+        <v>18027394</v>
       </c>
       <c r="E45" t="n">
-        <v>125684494</v>
+        <v>126084165</v>
       </c>
       <c r="F45" t="n">
-        <v>335.3501334012215</v>
+        <v>672.5417520139592</v>
       </c>
       <c r="G45" t="n">
-        <v>62.03597271014118</v>
+        <v>160.1313858522324</v>
       </c>
       <c r="H45" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="I45" t="n">
-        <v>1000341</v>
+        <v>1069278</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>168954</v>
+        <v>168764</v>
       </c>
       <c r="E46" t="n">
-        <v>2260702</v>
+        <v>2258153</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>49292</v>
+        <v>48178</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>261070034</v>
+        <v>257452844</v>
       </c>
       <c r="E47" t="n">
-        <v>261070034</v>
+        <v>257452844</v>
       </c>
       <c r="F47" t="n">
-        <v>110402.9195440262</v>
+        <v>118831.7290713954</v>
       </c>
       <c r="G47" t="n">
-        <v>121165.3933813426</v>
+        <v>141398.0765247958</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>27209005</v>
+        <v>24032051</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>639869</v>
+        <v>639739</v>
       </c>
       <c r="E48" t="n">
-        <v>639869</v>
+        <v>639739</v>
       </c>
       <c r="F48" t="n">
-        <v>216.4014965920046</v>
+        <v>218.0840474233017</v>
       </c>
       <c r="G48" t="n">
-        <v>113.9995165600346</v>
+        <v>44.62734585411384</v>
       </c>
       <c r="H48" t="n">
-        <v>2.22</v>
+        <v>1.99</v>
       </c>
       <c r="I48" t="n">
-        <v>2712</v>
+        <v>2707.06</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>442860600</v>
+        <v>429663064</v>
       </c>
       <c r="E50" t="n">
-        <v>442860600</v>
+        <v>429607170</v>
       </c>
       <c r="F50" t="n">
-        <v>4776.753334208954</v>
+        <v>5556.640346953035</v>
       </c>
       <c r="G50" t="n">
-        <v>4140.815139768481</v>
+        <v>3377.942400932768</v>
       </c>
       <c r="H50" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I50" t="n">
-        <v>4113486</v>
+        <v>4025804</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2463582</v>
+        <v>2313780</v>
       </c>
       <c r="E51" t="n">
-        <v>2463582</v>
+        <v>2313780</v>
       </c>
       <c r="F51" t="n">
-        <v>802.2149719156928</v>
+        <v>171.3948571804611</v>
       </c>
       <c r="G51" t="n">
-        <v>1819.365745770195</v>
+        <v>73.64906262427961</v>
       </c>
       <c r="H51" t="n">
-        <v>2.96</v>
+        <v>3.81</v>
       </c>
       <c r="I51" t="n">
-        <v>110677</v>
+        <v>104471</v>
       </c>
     </row>
     <row r="52">
@@ -2237,22 +2237,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23770</v>
+        <v>23302</v>
       </c>
       <c r="E52" t="n">
-        <v>47540</v>
+        <v>46605</v>
       </c>
       <c r="F52" t="n">
-        <v>748.0213382362309</v>
+        <v>43.42047293300363</v>
       </c>
       <c r="G52" t="n">
-        <v>167.564257211547</v>
+        <v>10.71461795590676</v>
       </c>
       <c r="H52" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="I52" t="n">
-        <v>2853.84</v>
+        <v>2865.2</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>163624</v>
+        <v>165394</v>
       </c>
       <c r="F53" t="n">
-        <v>22.6723313817065</v>
+        <v>29.36917971432521</v>
       </c>
       <c r="G53" t="n">
-        <v>4.892456166456579</v>
+        <v>50.6739442674964</v>
       </c>
       <c r="H53" t="n">
-        <v>3.79</v>
+        <v>0.76</v>
       </c>
       <c r="I53" t="n">
-        <v>20924</v>
+        <v>20980</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2562681</v>
+        <v>2571832</v>
       </c>
       <c r="E54" t="n">
-        <v>6551717</v>
+        <v>6575112</v>
       </c>
       <c r="F54" t="n">
-        <v>42.07932671646612</v>
+        <v>82.20213716927334</v>
       </c>
       <c r="G54" t="n">
-        <v>150.1996602148514</v>
+        <v>207.8050702891777</v>
       </c>
       <c r="H54" t="n">
-        <v>3.12</v>
+        <v>2.52</v>
       </c>
       <c r="I54" t="n">
-        <v>81080</v>
+        <v>81022</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3475.74</v>
+        <v>3476.33</v>
       </c>
       <c r="F55" t="n">
-        <v>7.758466118054351</v>
+        <v>7.756737745021636</v>
       </c>
       <c r="G55" t="n">
-        <v>8.105768536775656</v>
+        <v>8.103962794308623</v>
       </c>
       <c r="H55" t="n">
         <v>0.8</v>
       </c>
       <c r="I55" t="n">
-        <v>1605.35</v>
+        <v>1604.28</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>70500231</v>
+        <v>64597337</v>
       </c>
       <c r="E56" t="n">
-        <v>70500231</v>
+        <v>64597337</v>
       </c>
       <c r="F56" t="n">
-        <v>5307.695753243912</v>
+        <v>3831.334156826993</v>
       </c>
       <c r="G56" t="n">
-        <v>8022.276948423796</v>
+        <v>6631.765430882565</v>
       </c>
       <c r="H56" t="n">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>3860356</v>
+        <v>5520865</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3340501</v>
+        <v>3291808</v>
       </c>
       <c r="E57" t="n">
-        <v>4232998</v>
+        <v>4171296</v>
       </c>
       <c r="F57" t="n">
-        <v>340.780576766174</v>
+        <v>279.758216439719</v>
       </c>
       <c r="G57" t="n">
-        <v>877.6108150494047</v>
+        <v>913.8603487167409</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9</v>
+        <v>0.23</v>
       </c>
       <c r="I57" t="n">
-        <v>194365</v>
+        <v>191782</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4066552</v>
+        <v>4104713</v>
       </c>
       <c r="E58" t="n">
-        <v>8019584</v>
+        <v>8094840</v>
       </c>
       <c r="F58" t="n">
-        <v>2702.549510999421</v>
+        <v>963.9439938124424</v>
       </c>
       <c r="G58" t="n">
-        <v>16314.30908270504</v>
+        <v>15207.85392327247</v>
       </c>
       <c r="H58" t="n">
         <v>0.39</v>
       </c>
       <c r="I58" t="n">
-        <v>1636691</v>
+        <v>1647453</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1596626</v>
+        <v>1593207</v>
       </c>
       <c r="E59" t="n">
-        <v>9167232</v>
+        <v>9147600</v>
       </c>
       <c r="F59" t="n">
-        <v>170.0297532882614</v>
+        <v>178.5850162499841</v>
       </c>
       <c r="G59" t="n">
-        <v>570.0668646888171</v>
+        <v>598.43497508384</v>
       </c>
       <c r="H59" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="I59" t="n">
-        <v>240141</v>
+        <v>243196</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>631453</v>
+        <v>591863</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>13.7</v>
       </c>
       <c r="I60" t="n">
-        <v>5388.71</v>
+        <v>5494.23</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31091619</v>
+        <v>31217637</v>
       </c>
       <c r="F61" t="n">
-        <v>600.3922482426526</v>
+        <v>506.0794373749388</v>
       </c>
       <c r="G61" t="n">
-        <v>1506.306995274851</v>
+        <v>1700.301632205391</v>
       </c>
       <c r="H61" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>236676</v>
+        <v>235197</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1430855</v>
+        <v>1453190</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5.82</v>
       </c>
       <c r="I62" t="n">
-        <v>27072</v>
+        <v>8917.15</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17506747</v>
+        <v>17406111</v>
       </c>
       <c r="E63" t="n">
-        <v>18451700</v>
+        <v>18345632</v>
       </c>
       <c r="F63" t="n">
-        <v>1125.590568025693</v>
+        <v>1107.72461442472</v>
       </c>
       <c r="G63" t="n">
-        <v>1708.645850789872</v>
+        <v>1862.142631080761</v>
       </c>
       <c r="H63" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="I63" t="n">
-        <v>43437</v>
+        <v>42514</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2945510</v>
+        <v>2956233</v>
       </c>
       <c r="E64" t="n">
-        <v>2945510</v>
+        <v>2956233</v>
       </c>
       <c r="F64" t="n">
-        <v>283.9967372575045</v>
+        <v>105.0393192003751</v>
       </c>
       <c r="G64" t="n">
-        <v>52.64801524621452</v>
+        <v>4.944594346084716</v>
       </c>
       <c r="H64" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="I64" t="n">
-        <v>15445.73</v>
+        <v>16409.09</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3370110</v>
+        <v>3359852</v>
       </c>
       <c r="E65" t="n">
-        <v>8315574</v>
+        <v>8290264</v>
       </c>
       <c r="F65" t="n">
-        <v>839.05615513469</v>
+        <v>860.5710560725257</v>
       </c>
       <c r="G65" t="n">
-        <v>1030.022756028603</v>
+        <v>1229.253392084543</v>
       </c>
       <c r="H65" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="I65" t="n">
-        <v>46315</v>
+        <v>45052</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>249347</v>
+        <v>249189</v>
       </c>
       <c r="F66" t="n">
-        <v>22.84371970735766</v>
+        <v>23.93288926525225</v>
       </c>
       <c r="G66" t="n">
-        <v>2.463323368697935</v>
+        <v>85.75194932023574</v>
       </c>
       <c r="H66" t="n">
-        <v>1.79</v>
+        <v>3.57</v>
       </c>
       <c r="I66" t="n">
-        <v>4064.45</v>
+        <v>3512.09</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>86856624</v>
+        <v>86265425</v>
       </c>
       <c r="E67" t="n">
-        <v>181089085</v>
+        <v>179856483</v>
       </c>
       <c r="F67" t="n">
-        <v>52598.38865364251</v>
+        <v>50053.74922154854</v>
       </c>
       <c r="G67" t="n">
-        <v>91898.39633152483</v>
+        <v>90505.9738644055</v>
       </c>
       <c r="H67" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="I67" t="n">
-        <v>67300789</v>
+        <v>68521696</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1778697</v>
+        <v>1780467</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.81</v>
       </c>
       <c r="I68" t="n">
-        <v>4214.81</v>
+        <v>3856.49</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>197648682</v>
+        <v>198258585</v>
       </c>
       <c r="F69" t="n">
-        <v>5114.735119118843</v>
+        <v>4301.777487866317</v>
       </c>
       <c r="G69" t="n">
-        <v>1614.440204571191</v>
+        <v>3122.014785464653</v>
       </c>
       <c r="H69" t="n">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="I69" t="n">
-        <v>3342144</v>
+        <v>3127389</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>187096</v>
+        <v>187830</v>
       </c>
       <c r="E70" t="n">
-        <v>195381</v>
+        <v>196148</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>206.34</v>
+        <v>200.68</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>141390193</v>
+        <v>140358157</v>
       </c>
       <c r="E71" t="n">
-        <v>141446263</v>
+        <v>140414333</v>
       </c>
       <c r="F71" t="n">
-        <v>30022.33123983266</v>
+        <v>24100.54491200277</v>
       </c>
       <c r="G71" t="n">
-        <v>26149.56919207838</v>
+        <v>30689.0146000916</v>
       </c>
       <c r="H71" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I71" t="n">
-        <v>3071012</v>
+        <v>3187317</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25868746</v>
+        <v>25605849</v>
       </c>
       <c r="E72" t="n">
-        <v>84896280</v>
+        <v>84033503</v>
       </c>
       <c r="F72" t="n">
-        <v>20054.04808416561</v>
+        <v>4970.617889628561</v>
       </c>
       <c r="G72" t="n">
-        <v>26452.75401577209</v>
+        <v>32580.19848338246</v>
       </c>
       <c r="H72" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="I72" t="n">
-        <v>104026</v>
+        <v>111642</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113424</v>
+        <v>113496</v>
       </c>
       <c r="E73" t="n">
-        <v>113424</v>
+        <v>113496</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>5.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1387.96</v>
+        <v>1386.51</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>200971284</v>
+        <v>200881953</v>
       </c>
       <c r="E74" t="n">
-        <v>698192405</v>
+        <v>697882060</v>
       </c>
       <c r="F74" t="n">
-        <v>124009.7521856483</v>
+        <v>91422.14892132168</v>
       </c>
       <c r="G74" t="n">
-        <v>141210.9830458112</v>
+        <v>135995.0955611178</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I74" t="n">
-        <v>42211698</v>
+        <v>38937962</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3385892</v>
+        <v>3448223</v>
       </c>
       <c r="E75" t="n">
-        <v>3385892</v>
+        <v>3448223</v>
       </c>
       <c r="F75" t="n">
-        <v>690.7426571971293</v>
+        <v>718.5535504414024</v>
       </c>
       <c r="G75" t="n">
-        <v>1435.052302926036</v>
+        <v>998.3374548737472</v>
       </c>
       <c r="H75" t="n">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="I75" t="n">
-        <v>2448260</v>
+        <v>2520557</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>113633286</v>
+        <v>111317355</v>
       </c>
       <c r="E76" t="n">
-        <v>482204613</v>
+        <v>472315406</v>
       </c>
       <c r="F76" t="n">
-        <v>215932.903133378</v>
+        <v>159349.2145535938</v>
       </c>
       <c r="G76" t="n">
-        <v>149355.4697402416</v>
+        <v>104338.7912545479</v>
       </c>
       <c r="H76" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="I76" t="n">
-        <v>15220983</v>
+        <v>15259745</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1834956</v>
+        <v>1825997</v>
       </c>
       <c r="F77" t="n">
-        <v>36.22865892103404</v>
+        <v>21.32453516993997</v>
       </c>
       <c r="G77" t="n">
-        <v>23.81058754675777</v>
+        <v>20.7613186773016</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>489.15</v>
+        <v>505.37</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3267237</v>
+        <v>3222989</v>
       </c>
       <c r="E78" t="n">
-        <v>16381269</v>
+        <v>16159419</v>
       </c>
       <c r="F78" t="n">
-        <v>40.68626933464368</v>
+        <v>40.43792787225961</v>
       </c>
       <c r="G78" t="n">
-        <v>68.37388469611079</v>
+        <v>911.552611430124</v>
       </c>
       <c r="H78" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="I78" t="n">
-        <v>33580</v>
+        <v>29168</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>513164</v>
+        <v>524931</v>
       </c>
       <c r="E79" t="n">
-        <v>8777634</v>
+        <v>8978913</v>
       </c>
       <c r="F79" t="n">
-        <v>342.7295957352011</v>
+        <v>108.0367981173582</v>
       </c>
       <c r="G79" t="n">
-        <v>161.1065778649371</v>
+        <v>460.73431048856</v>
       </c>
       <c r="H79" t="n">
-        <v>2.75</v>
+        <v>2.46</v>
       </c>
       <c r="I79" t="n">
-        <v>147305</v>
+        <v>149874</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5801823</v>
+        <v>5793968</v>
       </c>
       <c r="E80" t="n">
-        <v>7874144</v>
+        <v>7863477</v>
       </c>
       <c r="F80" t="n">
-        <v>706.8221840112084</v>
+        <v>323.2546471668033</v>
       </c>
       <c r="G80" t="n">
-        <v>1582.078322294563</v>
+        <v>1564.490818406384</v>
       </c>
       <c r="H80" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I80" t="n">
-        <v>5292466</v>
+        <v>5153406</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41395</v>
+        <v>41793</v>
       </c>
       <c r="F81" t="n">
-        <v>184.539524163599</v>
+        <v>237.6233653137457</v>
       </c>
       <c r="G81" t="n">
-        <v>100.5086674779785</v>
+        <v>130.3000172370276</v>
       </c>
       <c r="H81" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="I81" t="n">
-        <v>39721</v>
+        <v>38986</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40736176</v>
+        <v>41006949</v>
       </c>
       <c r="E82" t="n">
-        <v>47578886</v>
+        <v>47895143</v>
       </c>
       <c r="F82" t="n">
-        <v>15.42428470031524</v>
+        <v>4.435560640716708</v>
       </c>
       <c r="G82" t="n">
-        <v>242.8994382205508</v>
+        <v>120.3081661009419</v>
       </c>
       <c r="H82" t="n">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="I82" t="n">
-        <v>960729</v>
+        <v>950733</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14561682</v>
+        <v>14507003</v>
       </c>
       <c r="F83" t="n">
-        <v>384.4519256221361</v>
+        <v>320.3980942616479</v>
       </c>
       <c r="G83" t="n">
-        <v>324.1643892525481</v>
+        <v>442.8643999230791</v>
       </c>
       <c r="H83" t="n">
-        <v>0.88</v>
+        <v>1.4</v>
       </c>
       <c r="I83" t="n">
-        <v>226458</v>
+        <v>226642</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35816691</v>
+        <v>35377696</v>
       </c>
       <c r="E84" t="n">
-        <v>35816691</v>
+        <v>35377696</v>
       </c>
       <c r="F84" t="n">
-        <v>776.2235611047564</v>
+        <v>601.6125597118624</v>
       </c>
       <c r="G84" t="n">
-        <v>235.0806266599377</v>
+        <v>231.4318530542814</v>
       </c>
       <c r="H84" t="n">
-        <v>2.37</v>
+        <v>2.58</v>
       </c>
       <c r="I84" t="n">
-        <v>856098</v>
+        <v>864191</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>555299</v>
+        <v>564750</v>
       </c>
       <c r="E85" t="n">
-        <v>6735240</v>
+        <v>6849866</v>
       </c>
       <c r="F85" t="n">
-        <v>444.1936340709357</v>
+        <v>520.587013136035</v>
       </c>
       <c r="G85" t="n">
-        <v>557.1714779717887</v>
+        <v>561.6748776109108</v>
       </c>
       <c r="H85" t="n">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="I85" t="n">
-        <v>2784169</v>
+        <v>2838564</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25673027</v>
+        <v>25164598</v>
       </c>
       <c r="E86" t="n">
-        <v>36280127</v>
+        <v>35561634</v>
       </c>
       <c r="F86" t="n">
-        <v>48.80564028776827</v>
+        <v>35.22055012170687</v>
       </c>
       <c r="G86" t="n">
-        <v>111.1988865112998</v>
+        <v>362.4896087341496</v>
       </c>
       <c r="H86" t="n">
-        <v>2.55</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I86" t="n">
-        <v>100744</v>
+        <v>113403</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1376836392</v>
+        <v>1417916499</v>
       </c>
       <c r="E87" t="n">
-        <v>6602212468</v>
+        <v>6799199995</v>
       </c>
       <c r="F87" t="n">
-        <v>544545.2497958834</v>
+        <v>400728.398020381</v>
       </c>
       <c r="G87" t="n">
-        <v>453768.1469358047</v>
+        <v>428891.5361058448</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>426546039</v>
+        <v>451087979</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>262442491</v>
+        <v>262927043</v>
       </c>
       <c r="E88" t="n">
-        <v>1132847485</v>
+        <v>1134939079</v>
       </c>
       <c r="F88" t="n">
-        <v>961384.6950301647</v>
+        <v>954131.7577518142</v>
       </c>
       <c r="G88" t="n">
-        <v>619691.2913359021</v>
+        <v>827958.3998276741</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>135435895</v>
+        <v>135676159</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114042911</v>
+        <v>113351629</v>
       </c>
       <c r="E89" t="n">
-        <v>114042911</v>
+        <v>113351629</v>
       </c>
       <c r="F89" t="n">
-        <v>43984.02315812447</v>
+        <v>28156.43388675676</v>
       </c>
       <c r="G89" t="n">
-        <v>20230.98098195763</v>
+        <v>19674.20575612692</v>
       </c>
       <c r="H89" t="n">
-        <v>0.67</v>
+        <v>0.36</v>
       </c>
       <c r="I89" t="n">
-        <v>8023079</v>
+        <v>6860865</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3796468</v>
+        <v>3809157</v>
       </c>
       <c r="E90" t="n">
-        <v>29543656</v>
+        <v>29642399</v>
       </c>
       <c r="F90" t="n">
-        <v>2505.112442841261</v>
+        <v>2559.733078581239</v>
       </c>
       <c r="G90" t="n">
-        <v>3664.994839584973</v>
+        <v>2927.732401140222</v>
       </c>
       <c r="H90" t="n">
         <v>0.03</v>
       </c>
       <c r="I90" t="n">
-        <v>34687</v>
+        <v>22679</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3886103</v>
+        <v>3787033</v>
       </c>
       <c r="F91" t="n">
-        <v>385.7912073730942</v>
+        <v>318.7572755053504</v>
       </c>
       <c r="G91" t="n">
-        <v>134.6105162127104</v>
+        <v>124.7387703482887</v>
       </c>
       <c r="H91" t="n">
-        <v>0.41</v>
+        <v>1.98</v>
       </c>
       <c r="I91" t="n">
-        <v>194386</v>
+        <v>382105</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>912332</v>
+        <v>913240</v>
       </c>
       <c r="F92" t="n">
-        <v>44.03135712617109</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>131.8615126458854</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1.19</v>
+        <v>4.68</v>
       </c>
       <c r="I92" t="n">
-        <v>10171.39</v>
+        <v>9572.16</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>128358</v>
+        <v>127083</v>
       </c>
       <c r="F93" t="n">
-        <v>122.8141990857557</v>
+        <v>185.4349302165646</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07002144914677655</v>
+        <v>0.01000336131916991</v>
       </c>
       <c r="H93" t="n">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="I93" t="n">
-        <v>129561</v>
+        <v>127898</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10770715</v>
+        <v>10448783</v>
       </c>
       <c r="E94" t="n">
-        <v>129682055</v>
+        <v>125805913</v>
       </c>
       <c r="F94" t="n">
-        <v>1862.88063782975</v>
+        <v>1494.903406317985</v>
       </c>
       <c r="G94" t="n">
-        <v>1021.950258412921</v>
+        <v>1779.416325885512</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="I94" t="n">
-        <v>478655</v>
+        <v>481257</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>16014735</v>
+        <v>15832649</v>
       </c>
       <c r="E95" t="n">
-        <v>40036838</v>
+        <v>39581624</v>
       </c>
       <c r="F95" t="n">
-        <v>11278.05313969712</v>
+        <v>5902.555024466418</v>
       </c>
       <c r="G95" t="n">
-        <v>13026.30250372964</v>
+        <v>6060.702017660516</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>4067886</v>
+        <v>4445717</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2291671</v>
+        <v>2296677</v>
       </c>
       <c r="F96" t="n">
-        <v>174.4213558466908</v>
+        <v>173.7360982478648</v>
       </c>
       <c r="G96" t="n">
-        <v>131.9381797278575</v>
+        <v>125.7471462890395</v>
       </c>
       <c r="H96" t="n">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="I96" t="n">
-        <v>37370</v>
+        <v>37328</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19700079</v>
+        <v>19711311</v>
       </c>
       <c r="F97" t="n">
-        <v>1012.592399163134</v>
+        <v>594.3366382609636</v>
       </c>
       <c r="G97" t="n">
-        <v>1516.889472361278</v>
+        <v>1321.317238150595</v>
       </c>
       <c r="H97" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I97" t="n">
-        <v>57577</v>
+        <v>73635</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4189359</v>
+        <v>4265783</v>
       </c>
       <c r="E98" t="n">
-        <v>12066710</v>
+        <v>12286861</v>
       </c>
       <c r="F98" t="n">
-        <v>1397.44672811324</v>
+        <v>104.5434078896585</v>
       </c>
       <c r="G98" t="n">
-        <v>675.4091617398212</v>
+        <v>456.6397248411834</v>
       </c>
       <c r="H98" t="n">
-        <v>0.91</v>
+        <v>2.19</v>
       </c>
       <c r="I98" t="n">
-        <v>491298</v>
+        <v>516006</v>
       </c>
     </row>
     <row r="99">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1525582</v>
+        <v>1451481</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>4.56</v>
+        <v>6.15</v>
       </c>
       <c r="I99" t="n">
-        <v>269709</v>
+        <v>268517</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>79629971</v>
+        <v>79156016</v>
       </c>
       <c r="E100" t="n">
-        <v>101335327</v>
+        <v>100732182</v>
       </c>
       <c r="F100" t="n">
-        <v>3832.619302280274</v>
+        <v>8151.490586466924</v>
       </c>
       <c r="G100" t="n">
-        <v>3564.089748242879</v>
+        <v>5954.777493577853</v>
       </c>
       <c r="H100" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="I100" t="n">
-        <v>7299972</v>
+        <v>7362236</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22805391</v>
+        <v>22318262</v>
       </c>
       <c r="E101" t="n">
-        <v>29583810</v>
+        <v>28951892</v>
       </c>
       <c r="F101" t="n">
-        <v>6238.819972426565</v>
+        <v>2786.737400534252</v>
       </c>
       <c r="G101" t="n">
-        <v>6183.803522862674</v>
+        <v>3004.416594877187</v>
       </c>
       <c r="H101" t="n">
         <v>0.58</v>
       </c>
       <c r="I101" t="n">
-        <v>434497</v>
+        <v>188446</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1585083</v>
+        <v>1585877</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>65.92844121687862</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>7.595230440905311</v>
       </c>
       <c r="H102" t="n">
-        <v>5</v>
+        <v>3.77</v>
       </c>
       <c r="I102" t="n">
-        <v>8840.110000000001</v>
+        <v>8537.15</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>702951</v>
+        <v>627894</v>
       </c>
       <c r="E103" t="n">
-        <v>702951</v>
+        <v>627894</v>
       </c>
       <c r="F103" t="n">
-        <v>14.31169211988414</v>
+        <v>278.8311903188471</v>
       </c>
       <c r="G103" t="n">
-        <v>135.8879159807559</v>
+        <v>23.3484273182411</v>
       </c>
       <c r="H103" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="I103" t="n">
-        <v>73328</v>
+        <v>72566</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>41299210</v>
+        <v>40968937</v>
       </c>
       <c r="E104" t="n">
-        <v>43172442</v>
+        <v>42827189</v>
       </c>
       <c r="F104" t="n">
-        <v>238.861922656307</v>
+        <v>375.6775174646337</v>
       </c>
       <c r="G104" t="n">
-        <v>4571.78301565185</v>
+        <v>4326.807218387851</v>
       </c>
       <c r="H104" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="I104" t="n">
-        <v>769628</v>
+        <v>761837</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14179415</v>
+        <v>13442480</v>
       </c>
       <c r="E105" t="n">
-        <v>14179415</v>
+        <v>13442480</v>
       </c>
       <c r="F105" t="n">
-        <v>1601.102292179966</v>
+        <v>2837.65686204804</v>
       </c>
       <c r="G105" t="n">
-        <v>1108.879851346873</v>
+        <v>3456.951404989169</v>
       </c>
       <c r="H105" t="n">
         <v>0.4</v>
       </c>
       <c r="I105" t="n">
-        <v>5383965</v>
+        <v>5391438</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1162083</v>
+        <v>1112396</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.21</v>
+        <v>7.09</v>
       </c>
       <c r="I106" t="n">
-        <v>5387.6</v>
+        <v>5704.72</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50671004</v>
+        <v>50439597</v>
       </c>
       <c r="E107" t="n">
-        <v>129087279</v>
+        <v>128497757</v>
       </c>
       <c r="F107" t="n">
-        <v>2941.776533744364</v>
+        <v>2404.824626637034</v>
       </c>
       <c r="G107" t="n">
-        <v>4690.682358159158</v>
+        <v>4112.968304611934</v>
       </c>
       <c r="H107" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="I107" t="n">
-        <v>2156457</v>
+        <v>2190386</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14201645</v>
+        <v>14153175</v>
       </c>
       <c r="E108" t="n">
-        <v>68780835</v>
+        <v>68546086</v>
       </c>
       <c r="F108" t="n">
-        <v>3822.312889575194</v>
+        <v>3115.633154692276</v>
       </c>
       <c r="G108" t="n">
-        <v>2637.503072170299</v>
+        <v>2340.64236231502</v>
       </c>
       <c r="H108" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="I108" t="n">
-        <v>5193131</v>
+        <v>5332544</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>627891</v>
+        <v>635575</v>
       </c>
       <c r="F109" t="n">
-        <v>1.975143678932148</v>
+        <v>122.4128743525336</v>
       </c>
       <c r="G109" t="n">
-        <v>47.3419987611146</v>
+        <v>5.624548463413686</v>
       </c>
       <c r="H109" t="n">
-        <v>3.92</v>
+        <v>3.81</v>
       </c>
       <c r="I109" t="n">
-        <v>8223.67</v>
+        <v>7770.81</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4579613</v>
+        <v>4524622</v>
       </c>
       <c r="E110" t="n">
-        <v>10439026</v>
+        <v>10313675</v>
       </c>
       <c r="F110" t="n">
-        <v>1272.541644743223</v>
+        <v>1174.264532555949</v>
       </c>
       <c r="G110" t="n">
-        <v>1554.170124691892</v>
+        <v>1047.162135975883</v>
       </c>
       <c r="H110" t="n">
-        <v>0.76</v>
+        <v>0.58</v>
       </c>
       <c r="I110" t="n">
-        <v>66341</v>
+        <v>65424</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1860530458</v>
+        <v>1861621257</v>
       </c>
       <c r="F111" t="n">
-        <v>71807.70820095047</v>
+        <v>57582.53113362796</v>
       </c>
       <c r="G111" t="n">
-        <v>35979.30586676714</v>
+        <v>44716.07994573922</v>
       </c>
       <c r="H111" t="n">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="I111" t="n">
-        <v>29629411</v>
+        <v>29997996</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9616966</v>
+        <v>9345571</v>
       </c>
       <c r="E112" t="n">
-        <v>34990228</v>
+        <v>34002788</v>
       </c>
       <c r="F112" t="n">
-        <v>553.1184029118016</v>
+        <v>527.3135578287224</v>
       </c>
       <c r="G112" t="n">
-        <v>230.4121860725748</v>
+        <v>685.8023419702363</v>
       </c>
       <c r="H112" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I112" t="n">
-        <v>117351</v>
+        <v>118617</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>620966</v>
+        <v>627330</v>
       </c>
       <c r="F113" t="n">
-        <v>6.684433917519972</v>
+        <v>6.682944809344952</v>
       </c>
       <c r="G113" t="n">
-        <v>55.37440520842663</v>
+        <v>55.23907184389552</v>
       </c>
       <c r="H113" t="n">
-        <v>3.43</v>
+        <v>3.65</v>
       </c>
       <c r="I113" t="n">
-        <v>933.64</v>
+        <v>887</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12329582</v>
+        <v>12267301</v>
       </c>
       <c r="E114" t="n">
-        <v>17876115</v>
+        <v>17785817</v>
       </c>
       <c r="F114" t="n">
-        <v>3615.254087852125</v>
+        <v>3033.981241393222</v>
       </c>
       <c r="G114" t="n">
-        <v>5366.227266717277</v>
+        <v>3048.111454728692</v>
       </c>
       <c r="H114" t="n">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
       <c r="I114" t="n">
-        <v>2010036</v>
+        <v>2024897</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1920787</v>
+        <v>1928933</v>
       </c>
       <c r="E115" t="n">
-        <v>13773773</v>
+        <v>13832189</v>
       </c>
       <c r="F115" t="n">
-        <v>756.921956062068</v>
+        <v>775.3109521163453</v>
       </c>
       <c r="G115" t="n">
-        <v>783.3343710450835</v>
+        <v>731.1659886026295</v>
       </c>
       <c r="H115" t="n">
-        <v>1.93</v>
+        <v>2.21</v>
       </c>
       <c r="I115" t="n">
-        <v>2014022</v>
+        <v>2033701</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2689320</v>
+        <v>2708455</v>
       </c>
       <c r="E116" t="n">
-        <v>5436353</v>
+        <v>5475033</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5848.75</v>
+        <v>5485.76</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>196770073</v>
+        <v>194658457</v>
       </c>
       <c r="E117" t="n">
-        <v>1114233055</v>
+        <v>1102275793</v>
       </c>
       <c r="F117" t="n">
-        <v>191537.01735381</v>
+        <v>153275.570288757</v>
       </c>
       <c r="G117" t="n">
-        <v>289620.9047837348</v>
+        <v>300168.2404709668</v>
       </c>
       <c r="H117" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>82555750</v>
+        <v>83363945</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>661028</v>
+        <v>658941</v>
       </c>
       <c r="E118" t="n">
-        <v>2191870</v>
+        <v>2184951</v>
       </c>
       <c r="F118" t="n">
-        <v>10606.16599394713</v>
+        <v>6335.938437970536</v>
       </c>
       <c r="G118" t="n">
-        <v>6502.511374945788</v>
+        <v>8214.381421478356</v>
       </c>
       <c r="H118" t="n">
         <v>0.92</v>
       </c>
       <c r="I118" t="n">
-        <v>7153.7</v>
+        <v>4724.85</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2701092</v>
+        <v>2712067</v>
       </c>
       <c r="E119" t="n">
-        <v>9563425</v>
+        <v>9602284</v>
       </c>
       <c r="F119" t="n">
-        <v>307.4901017866149</v>
+        <v>21.91320053951484</v>
       </c>
       <c r="G119" t="n">
-        <v>406.2829098777451</v>
+        <v>424.9753920870996</v>
       </c>
       <c r="H119" t="n">
-        <v>0.95</v>
+        <v>1.67</v>
       </c>
       <c r="I119" t="n">
-        <v>22338</v>
+        <v>22728</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1041376</v>
+        <v>1040771</v>
       </c>
       <c r="E120" t="n">
-        <v>1041376</v>
+        <v>1040771</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>108.5670854989646</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>19.1936767055031</v>
       </c>
       <c r="H120" t="n">
-        <v>4</v>
+        <v>1.78</v>
       </c>
       <c r="I120" t="n">
-        <v>5904.34</v>
+        <v>5680.17</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>494060</v>
+        <v>493483</v>
       </c>
       <c r="E121" t="n">
-        <v>1662938</v>
+        <v>1660995</v>
       </c>
       <c r="F121" t="n">
-        <v>388.7657578900619</v>
+        <v>354.2959064105693</v>
       </c>
       <c r="G121" t="n">
-        <v>390.8020967968151</v>
+        <v>428.7930426884755</v>
       </c>
       <c r="H121" t="n">
         <v>0.89</v>
       </c>
       <c r="I121" t="n">
-        <v>630041</v>
+        <v>635344</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>478992</v>
+        <v>458944</v>
       </c>
       <c r="E122" t="n">
-        <v>888623</v>
+        <v>851430</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>7.78</v>
+        <v>10.87</v>
       </c>
       <c r="I122" t="n">
-        <v>210195</v>
+        <v>223955</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9717880</v>
+        <v>9462483</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>4.49</v>
+        <v>6.52</v>
       </c>
       <c r="I123" t="n">
-        <v>16611.91</v>
+        <v>16600.52</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1208090</v>
+        <v>1193874</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>7.18</v>
+        <v>6.44</v>
       </c>
       <c r="I124" t="n">
-        <v>4544.71</v>
+        <v>4894.11</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3450413</v>
+        <v>3424859</v>
       </c>
       <c r="E125" t="n">
-        <v>8057290</v>
+        <v>7997616</v>
       </c>
       <c r="F125" t="n">
-        <v>1170.174897321979</v>
+        <v>1523.083186968911</v>
       </c>
       <c r="G125" t="n">
-        <v>1350.102961019997</v>
+        <v>2304.853787888413</v>
       </c>
       <c r="H125" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="I125" t="n">
-        <v>630396</v>
+        <v>626054</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246240</v>
+        <v>246587</v>
       </c>
       <c r="E126" t="n">
-        <v>2173257</v>
+        <v>2176318</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>51.48277072156286</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>347.5635893708202</v>
       </c>
       <c r="H126" t="n">
-        <v>4.25</v>
+        <v>3.13</v>
       </c>
       <c r="I126" t="n">
-        <v>70415</v>
+        <v>68311</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>628146</v>
+        <v>628912</v>
       </c>
       <c r="F127" t="n">
-        <v>553.4472971316421</v>
+        <v>553.3240042836956</v>
       </c>
       <c r="G127" t="n">
-        <v>699.6384352063769</v>
+        <v>699.4825749904963</v>
       </c>
       <c r="H127" t="n">
         <v>1.96</v>
       </c>
       <c r="I127" t="n">
-        <v>12457.75</v>
+        <v>12465.68</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4803447</v>
+        <v>4777321</v>
       </c>
       <c r="E128" t="n">
-        <v>16970566</v>
+        <v>16878261</v>
       </c>
       <c r="F128" t="n">
-        <v>1737.209903706219</v>
+        <v>2076.784691859963</v>
       </c>
       <c r="G128" t="n">
-        <v>1726.34162775233</v>
+        <v>1391.673635663295</v>
       </c>
       <c r="H128" t="n">
-        <v>0.52</v>
+        <v>0.29</v>
       </c>
       <c r="I128" t="n">
-        <v>124461</v>
+        <v>132803</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2186398</v>
+        <v>2158566</v>
       </c>
       <c r="F129" t="n">
-        <v>97.43933381889582</v>
+        <v>66.64888558974815</v>
       </c>
       <c r="G129" t="n">
-        <v>68.03721193936411</v>
+        <v>81.25282506367216</v>
       </c>
       <c r="H129" t="n">
-        <v>0.59</v>
+        <v>1.08</v>
       </c>
       <c r="I129" t="n">
-        <v>5927.11</v>
+        <v>5047.73</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2515658</v>
+        <v>2513138</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2502.68</v>
+        <v>2517.65</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>81821</v>
+        <v>80132</v>
       </c>
       <c r="E131" t="n">
-        <v>81821</v>
+        <v>80132</v>
       </c>
       <c r="F131" t="n">
-        <v>9.362781151751623</v>
+        <v>12.84883382342766</v>
       </c>
       <c r="G131" t="n">
-        <v>179.8297415776191</v>
+        <v>5.244065553342027</v>
       </c>
       <c r="H131" t="n">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="I131" t="n">
-        <v>22565</v>
+        <v>21951</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4278585</v>
+        <v>4264967</v>
       </c>
       <c r="F132" t="n">
-        <v>306.8986279631216</v>
+        <v>311.7254451760943</v>
       </c>
       <c r="G132" t="n">
-        <v>194.8459480165258</v>
+        <v>976.9412483731905</v>
       </c>
       <c r="H132" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="I132" t="n">
-        <v>269297</v>
+        <v>297039</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2114032</v>
+        <v>2108764</v>
       </c>
       <c r="E133" t="n">
-        <v>8633161</v>
+        <v>8611646</v>
       </c>
       <c r="F133" t="n">
-        <v>505.7030466844888</v>
+        <v>490.184260068973</v>
       </c>
       <c r="G133" t="n">
-        <v>464.8454501341511</v>
+        <v>465.9767157412676</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I133" t="n">
-        <v>462389</v>
+        <v>451903</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7466978</v>
+        <v>7397267</v>
       </c>
       <c r="E134" t="n">
-        <v>7522482</v>
+        <v>7452253</v>
       </c>
       <c r="F134" t="n">
-        <v>361754.6456786768</v>
+        <v>298552.0136433194</v>
       </c>
       <c r="G134" t="n">
-        <v>210830.3018579719</v>
+        <v>351681.9464950639</v>
       </c>
       <c r="H134" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I134" t="n">
-        <v>5716495</v>
+        <v>5753731</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13724717</v>
+        <v>13672429</v>
       </c>
       <c r="E135" t="n">
-        <v>13771424</v>
+        <v>13718958</v>
       </c>
       <c r="F135" t="n">
-        <v>15098.59464856728</v>
+        <v>17677.09485769449</v>
       </c>
       <c r="G135" t="n">
-        <v>9694.242598788514</v>
+        <v>13144.46507001881</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>6792240</v>
+        <v>6073762</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42725139</v>
+        <v>42617679</v>
       </c>
       <c r="E136" t="n">
-        <v>72537347</v>
+        <v>72354904</v>
       </c>
       <c r="F136" t="n">
-        <v>746.2284543355215</v>
+        <v>663.8993234757302</v>
       </c>
       <c r="G136" t="n">
-        <v>1514.40571427299</v>
+        <v>415.5862155002227</v>
       </c>
       <c r="H136" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I136" t="n">
-        <v>1082678</v>
+        <v>1330773</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19664451</v>
+        <v>19827537</v>
       </c>
       <c r="E137" t="n">
-        <v>58954259</v>
+        <v>59443415</v>
       </c>
       <c r="F137" t="n">
-        <v>37701.85531683787</v>
+        <v>2038.809356306561</v>
       </c>
       <c r="G137" t="n">
-        <v>21444.94799675459</v>
+        <v>8874.384871114213</v>
       </c>
       <c r="H137" t="n">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
       <c r="I137" t="n">
-        <v>4061090</v>
+        <v>4305348</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101418280</v>
+        <v>100851818</v>
       </c>
       <c r="E138" t="n">
-        <v>107816797</v>
+        <v>107214597</v>
       </c>
       <c r="F138" t="n">
-        <v>5847.621222729964</v>
+        <v>5839.728505425806</v>
       </c>
       <c r="G138" t="n">
-        <v>9088.844255153272</v>
+        <v>4747.428908235176</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I138" t="n">
-        <v>1711444</v>
+        <v>1801734</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1385385</v>
+        <v>1386764</v>
       </c>
       <c r="F139" t="n">
-        <v>4.000651545698504</v>
+        <v>505.8860848656933</v>
       </c>
       <c r="G139" t="n">
-        <v>7.665468747259514</v>
+        <v>7.664575205762169</v>
       </c>
       <c r="H139" t="n">
-        <v>3.87</v>
+        <v>1.88</v>
       </c>
       <c r="I139" t="n">
-        <v>1910.28</v>
+        <v>1908.42</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>239015</v>
+        <v>239253</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.289999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="I140" t="n">
-        <v>39.84</v>
+        <v>39.85</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>91768</v>
+        <v>76768</v>
       </c>
       <c r="E141" t="n">
-        <v>260324</v>
+        <v>217774</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>229.11</v>
+        <v>383.42</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>48956813</v>
+        <v>47420313</v>
       </c>
       <c r="E142" t="n">
-        <v>210900597</v>
+        <v>204281523</v>
       </c>
       <c r="F142" t="n">
-        <v>44005.94757599273</v>
+        <v>41788.8339522782</v>
       </c>
       <c r="G142" t="n">
-        <v>46289.46411034551</v>
+        <v>46646.58576771175</v>
       </c>
       <c r="H142" t="n">
         <v>0.2</v>
       </c>
       <c r="I142" t="n">
-        <v>11652704</v>
+        <v>11865305</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269582</v>
+        <v>272175</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>8.59</v>
       </c>
       <c r="I143" t="n">
-        <v>7554.11</v>
+        <v>7615.84</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9625816</v>
+        <v>9619107</v>
       </c>
       <c r="F144" t="n">
-        <v>1268.317408245065</v>
+        <v>965.1757209660773</v>
       </c>
       <c r="G144" t="n">
-        <v>333.8129704891489</v>
+        <v>396.2614094405625</v>
       </c>
       <c r="H144" t="n">
-        <v>0.73</v>
+        <v>0.99</v>
       </c>
       <c r="I144" t="n">
-        <v>109976</v>
+        <v>110255</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1176200</v>
+        <v>1175231</v>
       </c>
       <c r="E145" t="n">
-        <v>7841334</v>
+        <v>7834872</v>
       </c>
       <c r="F145" t="n">
-        <v>262.5672014742834</v>
+        <v>262.5087087176742</v>
       </c>
       <c r="G145" t="n">
-        <v>36.81677873803272</v>
+        <v>36.80857697152965</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4691.66</v>
+        <v>4537.1</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7591856</v>
+        <v>7577950</v>
       </c>
       <c r="F146" t="n">
-        <v>97.25724188922203</v>
+        <v>112.6778304610114</v>
       </c>
       <c r="G146" t="n">
-        <v>106.1172675230533</v>
+        <v>88.90441325168091</v>
       </c>
       <c r="H146" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="I146" t="n">
-        <v>6889279</v>
+        <v>6935937</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>669030</v>
+        <v>666843</v>
       </c>
       <c r="E147" t="n">
-        <v>2414836</v>
+        <v>2406943</v>
       </c>
       <c r="F147" t="n">
-        <v>10.44533294044967</v>
+        <v>15.29460190918194</v>
       </c>
       <c r="G147" t="n">
-        <v>200.9204737668994</v>
+        <v>10.07266037176255</v>
       </c>
       <c r="H147" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="I147" t="n">
-        <v>370185</v>
+        <v>374193</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1616978</v>
+        <v>1676505</v>
       </c>
       <c r="F148" t="n">
-        <v>1120.245776766713</v>
+        <v>44.81643293763647</v>
       </c>
       <c r="G148" t="n">
-        <v>35.62718795862799</v>
+        <v>149.3827709149758</v>
       </c>
       <c r="H148" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="I148" t="n">
-        <v>86487</v>
+        <v>89799</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>62964</v>
+        <v>63017</v>
       </c>
       <c r="F149" t="n">
-        <v>8.128080392222175</v>
+        <v>8.126269679286924</v>
       </c>
       <c r="G149" t="n">
-        <v>1.630332742967773</v>
+        <v>0.004146051867227998</v>
       </c>
       <c r="H149" t="n">
         <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>3236.99</v>
+        <v>3240.63</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12663613</v>
+        <v>12595948</v>
       </c>
       <c r="E150" t="n">
-        <v>12663613</v>
+        <v>12595948</v>
       </c>
       <c r="F150" t="n">
-        <v>230.5242366313865</v>
+        <v>293.5663591504609</v>
       </c>
       <c r="G150" t="n">
-        <v>1851.995192678348</v>
+        <v>999.6054971439963</v>
       </c>
       <c r="H150" t="n">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="I150" t="n">
-        <v>4064228</v>
+        <v>3770080</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2256180</v>
+        <v>2390414</v>
       </c>
       <c r="E151" t="n">
-        <v>8191042</v>
+        <v>8677214</v>
       </c>
       <c r="F151" t="n">
-        <v>35.47313061685066</v>
+        <v>85.54702538451649</v>
       </c>
       <c r="G151" t="n">
-        <v>7.843298370442072</v>
+        <v>54.99904511900684</v>
       </c>
       <c r="H151" t="n">
-        <v>2.46</v>
+        <v>1.22</v>
       </c>
       <c r="I151" t="n">
-        <v>208857</v>
+        <v>215824</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1238732</v>
+        <v>1242869</v>
       </c>
       <c r="E152" t="n">
-        <v>1238732</v>
+        <v>1242869</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1017.41</v>
+        <v>1015.93</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23093607</v>
+        <v>23071112</v>
       </c>
       <c r="E153" t="n">
-        <v>26668582</v>
+        <v>26645174</v>
       </c>
       <c r="F153" t="n">
-        <v>586.1753566724195</v>
+        <v>630.2255032853827</v>
       </c>
       <c r="G153" t="n">
-        <v>552.8396749269656</v>
+        <v>560.7444762835381</v>
       </c>
       <c r="H153" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I153" t="n">
-        <v>757443</v>
+        <v>761097</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2442373</v>
+        <v>2443183</v>
       </c>
       <c r="E154" t="n">
-        <v>18378230</v>
+        <v>18384326</v>
       </c>
       <c r="F154" t="n">
-        <v>3417.495133026433</v>
+        <v>3430.213763282646</v>
       </c>
       <c r="G154" t="n">
-        <v>3603.994516441381</v>
+        <v>3416.160237457584</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161551</v>
+        <v>161264</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>18659276</v>
+        <v>18462240</v>
       </c>
       <c r="E155" t="n">
-        <v>74637103</v>
+        <v>73848961</v>
       </c>
       <c r="F155" t="n">
-        <v>25496.44777165596</v>
+        <v>3731.125158047663</v>
       </c>
       <c r="G155" t="n">
-        <v>27128.95503973626</v>
+        <v>1519.029026402176</v>
       </c>
       <c r="H155" t="n">
-        <v>0.27</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I155" t="n">
-        <v>2398098</v>
+        <v>2682090</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>296643308</v>
+        <v>295233684</v>
       </c>
       <c r="E156" t="n">
-        <v>296643308</v>
+        <v>295233684</v>
       </c>
       <c r="F156" t="n">
-        <v>289360.6870491722</v>
+        <v>325544.1469202454</v>
       </c>
       <c r="G156" t="n">
-        <v>389929.419693281</v>
+        <v>280721.4141031262</v>
       </c>
       <c r="H156" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="I156" t="n">
-        <v>19433216</v>
+        <v>19226756</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12529713</v>
+        <v>12403730</v>
       </c>
       <c r="E157" t="n">
-        <v>39630058</v>
+        <v>39231588</v>
       </c>
       <c r="F157" t="n">
-        <v>5327.631356681355</v>
+        <v>3341.989584320326</v>
       </c>
       <c r="G157" t="n">
-        <v>3402.129734720942</v>
+        <v>3470.642946478256</v>
       </c>
       <c r="H157" t="n">
-        <v>0.23</v>
+        <v>0.58</v>
       </c>
       <c r="I157" t="n">
-        <v>923426</v>
+        <v>977259</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1104524</v>
+        <v>1107064</v>
       </c>
       <c r="E158" t="n">
-        <v>2515662</v>
+        <v>2521447</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>603.2</v>
+        <v>603.9299999999999</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18197937</v>
+        <v>18076471</v>
       </c>
       <c r="E159" t="n">
-        <v>18197937</v>
+        <v>18076471</v>
       </c>
       <c r="F159" t="n">
-        <v>11610.48715391204</v>
+        <v>11172.8462416758</v>
       </c>
       <c r="G159" t="n">
-        <v>24241.07964052872</v>
+        <v>22491.81258246085</v>
       </c>
       <c r="H159" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>6542606</v>
+        <v>6848851</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4609066</v>
+        <v>4613653</v>
       </c>
       <c r="E160" t="n">
-        <v>8485782</v>
+        <v>8494229</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>11.51</v>
+        <v>13.25</v>
       </c>
       <c r="I160" t="n">
-        <v>65.06</v>
+        <v>65.06999999999999</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113036</v>
+        <v>107562</v>
       </c>
       <c r="E161" t="n">
-        <v>136881</v>
+        <v>130347</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>10.68</v>
+        <v>6.52</v>
       </c>
       <c r="I161" t="n">
-        <v>1645.9</v>
+        <v>2037.61</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>22211472</v>
+        <v>22309167</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>15.55</v>
+        <v>15.61</v>
       </c>
       <c r="I162" t="n">
-        <v>1035.8</v>
+        <v>1036.01</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>456780</v>
+        <v>456337</v>
       </c>
       <c r="E163" t="n">
-        <v>575372</v>
+        <v>574814</v>
       </c>
       <c r="F163" t="n">
-        <v>94.85489104525828</v>
+        <v>123.8197577393243</v>
       </c>
       <c r="G163" t="n">
-        <v>126.8542036255478</v>
+        <v>197.3836221716524</v>
       </c>
       <c r="H163" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I163" t="n">
-        <v>149909</v>
+        <v>148184</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104723</v>
+        <v>104828</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>7.75</v>
+        <v>7.35</v>
       </c>
       <c r="I164" t="n">
-        <v>3073.49</v>
+        <v>3073.86</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12636933</v>
+        <v>12570624</v>
       </c>
       <c r="E165" t="n">
-        <v>19236262</v>
+        <v>19135325</v>
       </c>
       <c r="F165" t="n">
-        <v>2513.243163523686</v>
+        <v>3536.215992664805</v>
       </c>
       <c r="G165" t="n">
-        <v>849.5381629508663</v>
+        <v>870.7163903949003</v>
       </c>
       <c r="H165" t="n">
-        <v>1.38</v>
+        <v>0.93</v>
       </c>
       <c r="I165" t="n">
-        <v>664151</v>
+        <v>652278</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>295882646</v>
+        <v>294635724</v>
       </c>
       <c r="E166" t="n">
-        <v>295882646</v>
+        <v>294635724</v>
       </c>
       <c r="F166" t="n">
-        <v>335574.8234360405</v>
+        <v>304838.3292028283</v>
       </c>
       <c r="G166" t="n">
-        <v>273902.1135721988</v>
+        <v>302408.9713370857</v>
       </c>
       <c r="H166" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>85683175</v>
+        <v>88306052</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10146733</v>
+        <v>10149512</v>
       </c>
       <c r="E167" t="n">
-        <v>28808267</v>
+        <v>28816158</v>
       </c>
       <c r="F167" t="n">
-        <v>74.1735116750602</v>
+        <v>71.22632224947365</v>
       </c>
       <c r="G167" t="n">
-        <v>747.3754907812131</v>
+        <v>933.7186378385248</v>
       </c>
       <c r="H167" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="I167" t="n">
-        <v>112430</v>
+        <v>100914</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11617934</v>
+        <v>11615069</v>
       </c>
       <c r="F168" t="n">
-        <v>307.025349360838</v>
+        <v>93.50198369644036</v>
       </c>
       <c r="G168" t="n">
-        <v>1246.134216972813</v>
+        <v>881.9673232494512</v>
       </c>
       <c r="H168" t="n">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="I168" t="n">
-        <v>89490</v>
+        <v>92859</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4290715</v>
+        <v>4158481</v>
       </c>
       <c r="E169" t="n">
-        <v>29318156</v>
+        <v>28414608</v>
       </c>
       <c r="F169" t="n">
-        <v>2201.190304291027</v>
+        <v>1063.135818483472</v>
       </c>
       <c r="G169" t="n">
-        <v>1448.379045817327</v>
+        <v>3901.389569768906</v>
       </c>
       <c r="H169" t="n">
-        <v>0.68</v>
+        <v>0.35</v>
       </c>
       <c r="I169" t="n">
-        <v>2670036</v>
+        <v>2686957</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2857108</v>
+        <v>2807626</v>
       </c>
       <c r="E170" t="n">
-        <v>4230850</v>
+        <v>4157191</v>
       </c>
       <c r="F170" t="n">
-        <v>1639.34388622439</v>
+        <v>1906.394363174594</v>
       </c>
       <c r="G170" t="n">
-        <v>2366.550282696049</v>
+        <v>3778.686599292135</v>
       </c>
       <c r="H170" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="I170" t="n">
-        <v>95760</v>
+        <v>93580</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>86233951</v>
+        <v>86098018</v>
       </c>
       <c r="E171" t="n">
-        <v>496917223</v>
+        <v>496133915</v>
       </c>
       <c r="F171" t="n">
-        <v>112269.0119970824</v>
+        <v>76513.07777790749</v>
       </c>
       <c r="G171" t="n">
-        <v>95682.94986461035</v>
+        <v>70633.90712571394</v>
       </c>
       <c r="H171" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I171" t="n">
-        <v>20244609</v>
+        <v>20377557</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13771626</v>
+        <v>13700328</v>
       </c>
       <c r="E172" t="n">
-        <v>13771626</v>
+        <v>13700328</v>
       </c>
       <c r="F172" t="n">
-        <v>5001.514678819845</v>
+        <v>5369.409244377043</v>
       </c>
       <c r="G172" t="n">
-        <v>4663.545610054836</v>
+        <v>4581.502128715468</v>
       </c>
       <c r="H172" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="I172" t="n">
-        <v>673400</v>
+        <v>686730</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6093876</v>
+        <v>6088992</v>
       </c>
       <c r="E173" t="n">
-        <v>17310951</v>
+        <v>17297079</v>
       </c>
       <c r="F173" t="n">
-        <v>753.0477227807096</v>
+        <v>776.7548124636639</v>
       </c>
       <c r="G173" t="n">
-        <v>8683.144611352251</v>
+        <v>8720.69506167432</v>
       </c>
       <c r="H173" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="I173" t="n">
-        <v>105409</v>
+        <v>101865</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>20002098</v>
+        <v>20066304</v>
       </c>
       <c r="E174" t="n">
-        <v>20002098</v>
+        <v>20066304</v>
       </c>
       <c r="F174" t="n">
-        <v>459.6451192332366</v>
+        <v>261.1583701126934</v>
       </c>
       <c r="G174" t="n">
-        <v>1.085992249279417</v>
+        <v>1.062238227202485</v>
       </c>
       <c r="H174" t="n">
-        <v>0.01</v>
+        <v>3.55</v>
       </c>
       <c r="I174" t="n">
-        <v>152785</v>
+        <v>154083</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1329409</v>
+        <v>1339361</v>
       </c>
       <c r="F175" t="n">
-        <v>1528.350740135999</v>
+        <v>90.0719039625106</v>
       </c>
       <c r="G175" t="n">
-        <v>169.3833377626833</v>
+        <v>257.4747459069671</v>
       </c>
       <c r="H175" t="n">
-        <v>1.28</v>
+        <v>2.16</v>
       </c>
       <c r="I175" t="n">
-        <v>39284</v>
+        <v>40601</v>
       </c>
     </row>
     <row r="176">
@@ -6557,22 +6557,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>125201</v>
+        <v>126051</v>
       </c>
       <c r="E176" t="n">
-        <v>272560</v>
+        <v>274410</v>
       </c>
       <c r="F176" t="n">
-        <v>98.49234605448157</v>
+        <v>98.47040466655008</v>
       </c>
       <c r="G176" t="n">
-        <v>5.000813111908017</v>
+        <v>4.999699068179171</v>
       </c>
       <c r="H176" t="n">
         <v>2.27</v>
       </c>
       <c r="I176" t="n">
-        <v>43036</v>
+        <v>43378</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3032260</v>
+        <v>3073424</v>
       </c>
       <c r="F177" t="n">
-        <v>412.6754154590795</v>
+        <v>375.5323741511658</v>
       </c>
       <c r="G177" t="n">
-        <v>939.9405599261613</v>
+        <v>727.6430460435769</v>
       </c>
       <c r="H177" t="n">
-        <v>0.99</v>
+        <v>1.61</v>
       </c>
       <c r="I177" t="n">
-        <v>493268</v>
+        <v>489001</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>240582740</v>
+        <v>237801151</v>
       </c>
       <c r="E178" t="n">
-        <v>240585130</v>
+        <v>237803514</v>
       </c>
       <c r="F178" t="n">
-        <v>47117.05240183076</v>
+        <v>47741.8020302459</v>
       </c>
       <c r="G178" t="n">
-        <v>81187.53784064375</v>
+        <v>83683.42914996095</v>
       </c>
       <c r="H178" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I178" t="n">
-        <v>1810015</v>
+        <v>1827456</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9180003</v>
+        <v>9192561</v>
       </c>
       <c r="E179" t="n">
-        <v>9180003</v>
+        <v>9192561</v>
       </c>
       <c r="F179" t="n">
-        <v>402.1592938849658</v>
+        <v>627.8920609371615</v>
       </c>
       <c r="G179" t="n">
-        <v>294.3772967818112</v>
+        <v>272.9848264133365</v>
       </c>
       <c r="H179" t="n">
-        <v>3.09</v>
+        <v>2.38</v>
       </c>
       <c r="I179" t="n">
-        <v>2791404</v>
+        <v>2895009</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>193862</v>
+        <v>195902</v>
       </c>
       <c r="E180" t="n">
-        <v>1497006</v>
+        <v>1512753</v>
       </c>
       <c r="F180" t="n">
-        <v>46.15182804021545</v>
+        <v>549.573401199662</v>
       </c>
       <c r="G180" t="n">
-        <v>4.772273584160896</v>
+        <v>65.431224882265</v>
       </c>
       <c r="H180" t="n">
-        <v>2.43</v>
+        <v>1.46</v>
       </c>
       <c r="I180" t="n">
-        <v>87365</v>
+        <v>92114</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>29514229</v>
+        <v>29347489</v>
       </c>
       <c r="E181" t="n">
-        <v>132147312</v>
+        <v>131400748</v>
       </c>
       <c r="F181" t="n">
-        <v>38840.44884855897</v>
+        <v>48040.92127456747</v>
       </c>
       <c r="G181" t="n">
-        <v>52851.94964785445</v>
+        <v>66606.02157207242</v>
       </c>
       <c r="H181" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="I181" t="n">
-        <v>12360669</v>
+        <v>13208214</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1282128</v>
+        <v>1275997</v>
       </c>
       <c r="F182" t="n">
-        <v>272.5125335595376</v>
+        <v>195.9256612476484</v>
       </c>
       <c r="G182" t="n">
-        <v>154.4043617494083</v>
+        <v>1288.892322415856</v>
       </c>
       <c r="H182" t="n">
-        <v>3.28</v>
+        <v>1.63</v>
       </c>
       <c r="I182" t="n">
-        <v>83332</v>
+        <v>62575</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3062720</v>
+        <v>3012787</v>
       </c>
       <c r="E183" t="n">
-        <v>3062720</v>
+        <v>3012787</v>
       </c>
       <c r="F183" t="n">
-        <v>208.4494284834411</v>
+        <v>224.8590262803156</v>
       </c>
       <c r="G183" t="n">
-        <v>1073.921174664697</v>
+        <v>910.0474734170814</v>
       </c>
       <c r="H183" t="n">
-        <v>0.49</v>
+        <v>1.89</v>
       </c>
       <c r="I183" t="n">
-        <v>382045</v>
+        <v>374292</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>559392</v>
+        <v>565061</v>
       </c>
       <c r="E184" t="n">
-        <v>559392</v>
+        <v>565061</v>
       </c>
       <c r="F184" t="n">
-        <v>54.86431269461644</v>
+        <v>6.422275319883747</v>
       </c>
       <c r="G184" t="n">
-        <v>1.224831663843616</v>
+        <v>1.224560562540846</v>
       </c>
       <c r="H184" t="n">
         <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>1168512</v>
+        <v>1190604</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14760437</v>
+        <v>14721795</v>
       </c>
       <c r="E185" t="n">
-        <v>18792393</v>
+        <v>18743195</v>
       </c>
       <c r="F185" t="n">
-        <v>1390.801790718124</v>
+        <v>424.6742580857573</v>
       </c>
       <c r="G185" t="n">
-        <v>148.4693092706285</v>
+        <v>159.0978214759583</v>
       </c>
       <c r="H185" t="n">
-        <v>0.45</v>
+        <v>0.89</v>
       </c>
       <c r="I185" t="n">
-        <v>977534</v>
+        <v>947138</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1784942</v>
+        <v>1794614</v>
       </c>
       <c r="E186" t="n">
-        <v>1784942</v>
+        <v>1794614</v>
       </c>
       <c r="F186" t="n">
-        <v>35.04154214904508</v>
+        <v>9.963605890451465</v>
       </c>
       <c r="G186" t="n">
-        <v>2.030730968903945</v>
+        <v>63.47114378913201</v>
       </c>
       <c r="H186" t="n">
-        <v>3.54</v>
+        <v>2.57</v>
       </c>
       <c r="I186" t="n">
-        <v>4095.55</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>49500733</v>
+        <v>49246928</v>
       </c>
       <c r="E187" t="n">
-        <v>320999077</v>
+        <v>319353218</v>
       </c>
       <c r="F187" t="n">
-        <v>234374.2754022472</v>
+        <v>214032.7507391429</v>
       </c>
       <c r="G187" t="n">
-        <v>175386.4393335788</v>
+        <v>177758.5491173726</v>
       </c>
       <c r="H187" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I187" t="n">
-        <v>19603240</v>
+        <v>20226378</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9064520</v>
+        <v>9060860</v>
       </c>
       <c r="F188" t="n">
-        <v>455.2248125636694</v>
+        <v>324.2578716045211</v>
       </c>
       <c r="G188" t="n">
-        <v>549.8187787230313</v>
+        <v>215.0018071384581</v>
       </c>
       <c r="H188" t="n">
-        <v>0.33</v>
+        <v>2.07</v>
       </c>
       <c r="I188" t="n">
-        <v>287083</v>
+        <v>293659</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7119614</v>
+        <v>7112771</v>
       </c>
       <c r="E189" t="n">
-        <v>7129810</v>
+        <v>7122957</v>
       </c>
       <c r="F189" t="n">
-        <v>1.25427856960376</v>
+        <v>199.1878578118188</v>
       </c>
       <c r="G189" t="n">
-        <v>182.0513983254928</v>
+        <v>105.3571615881546</v>
       </c>
       <c r="H189" t="n">
-        <v>3.1</v>
+        <v>0.53</v>
       </c>
       <c r="I189" t="n">
-        <v>701650</v>
+        <v>720417</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4724396</v>
+        <v>4535936</v>
       </c>
       <c r="F190" t="n">
-        <v>2300.917132748069</v>
+        <v>110.7455824021279</v>
       </c>
       <c r="G190" t="n">
-        <v>8.348369785779996</v>
+        <v>9.602137331609555</v>
       </c>
       <c r="H190" t="n">
-        <v>1.09</v>
+        <v>0.79</v>
       </c>
       <c r="I190" t="n">
-        <v>240018</v>
+        <v>234192</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>97513932</v>
+        <v>99459740</v>
       </c>
       <c r="E191" t="n">
-        <v>98563599</v>
+        <v>100530352</v>
       </c>
       <c r="F191" t="n">
-        <v>24408.93016056628</v>
+        <v>23208.29600368528</v>
       </c>
       <c r="G191" t="n">
-        <v>35824.52885865521</v>
+        <v>25922.40993148668</v>
       </c>
       <c r="H191" t="n">
         <v>0.17</v>
       </c>
       <c r="I191" t="n">
-        <v>78409599</v>
+        <v>80649809</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>241012483</v>
+        <v>247465690</v>
       </c>
       <c r="E192" t="n">
-        <v>241012483</v>
+        <v>247465690</v>
       </c>
       <c r="F192" t="n">
-        <v>88838.01687275173</v>
+        <v>72143.94875374934</v>
       </c>
       <c r="G192" t="n">
-        <v>81104.93515976873</v>
+        <v>89101.61184255288</v>
       </c>
       <c r="H192" t="n">
         <v>0.04</v>
       </c>
       <c r="I192" t="n">
-        <v>75063505</v>
+        <v>85099744</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23688935</v>
+        <v>23589878</v>
       </c>
       <c r="E193" t="n">
-        <v>141735659</v>
+        <v>141142980</v>
       </c>
       <c r="F193" t="n">
-        <v>53147.25612103134</v>
+        <v>63857.44400984945</v>
       </c>
       <c r="G193" t="n">
-        <v>80669.10805143476</v>
+        <v>74068.14842795661</v>
       </c>
       <c r="H193" t="n">
         <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>16497956</v>
+        <v>16829510</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13909348</v>
+        <v>13686750</v>
       </c>
       <c r="E194" t="n">
-        <v>42037910</v>
+        <v>41365158</v>
       </c>
       <c r="F194" t="n">
-        <v>520.7845796285029</v>
+        <v>830.8505431755615</v>
       </c>
       <c r="G194" t="n">
-        <v>948.6261548255084</v>
+        <v>837.8581527500884</v>
       </c>
       <c r="H194" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I194" t="n">
-        <v>2566598</v>
+        <v>2552154</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>53233869</v>
+        <v>52564160</v>
       </c>
       <c r="E195" t="n">
-        <v>91946465</v>
+        <v>90789733</v>
       </c>
       <c r="F195" t="n">
-        <v>3965.926695590945</v>
+        <v>7999.333055442111</v>
       </c>
       <c r="G195" t="n">
-        <v>13687.6926628123</v>
+        <v>14770.32329198171</v>
       </c>
       <c r="H195" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I195" t="n">
-        <v>2345559</v>
+        <v>2219929</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4213152</v>
+        <v>4158389</v>
       </c>
       <c r="E196" t="n">
-        <v>4213152</v>
+        <v>4158389</v>
       </c>
       <c r="F196" t="n">
-        <v>249.3290179549537</v>
+        <v>227.3720296464555</v>
       </c>
       <c r="G196" t="n">
-        <v>1.048175683393659</v>
+        <v>56.57713847332911</v>
       </c>
       <c r="H196" t="n">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="I196" t="n">
-        <v>1756627</v>
+        <v>1748167</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>197300</v>
+        <v>195612</v>
       </c>
       <c r="F197" t="n">
-        <v>221.4653129362914</v>
+        <v>45.76420181559669</v>
       </c>
       <c r="G197" t="n">
-        <v>13.35588005311957</v>
+        <v>54.89574584125852</v>
       </c>
       <c r="H197" t="n">
-        <v>1.1</v>
+        <v>3.57</v>
       </c>
       <c r="I197" t="n">
-        <v>59463</v>
+        <v>61014</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6310656</v>
+        <v>6371281</v>
       </c>
       <c r="E198" t="n">
-        <v>32466408</v>
+        <v>32778302</v>
       </c>
       <c r="F198" t="n">
-        <v>497.7825664190617</v>
+        <v>335.348370082083</v>
       </c>
       <c r="G198" t="n">
-        <v>839.2928173087962</v>
+        <v>283.4225041395527</v>
       </c>
       <c r="H198" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="I198" t="n">
-        <v>947628</v>
+        <v>938953</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>175492373</v>
+        <v>175269986</v>
       </c>
       <c r="E199" t="n">
-        <v>205026909</v>
+        <v>204767096</v>
       </c>
       <c r="F199" t="n">
-        <v>28589.70904992899</v>
+        <v>27567.77387695448</v>
       </c>
       <c r="G199" t="n">
-        <v>34268.12569694762</v>
+        <v>117289.3280134307</v>
       </c>
       <c r="H199" t="n">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="I199" t="n">
-        <v>4319781</v>
+        <v>4466881</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>300321</v>
+        <v>296230</v>
       </c>
       <c r="F200" t="n">
-        <v>68.66030943784986</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>146.1290205579568</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>2.98</v>
+        <v>4.64</v>
       </c>
       <c r="I200" t="n">
-        <v>251487</v>
+        <v>269204</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7640154</v>
+        <v>7621708</v>
       </c>
       <c r="F201" t="n">
-        <v>1010.015502114407</v>
+        <v>966.3025611569835</v>
       </c>
       <c r="G201" t="n">
-        <v>353.1975069152647</v>
+        <v>496.3002037421828</v>
       </c>
       <c r="H201" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I201" t="n">
-        <v>654310</v>
+        <v>534738</v>
       </c>
     </row>
     <row r="202">
@@ -7470,19 +7470,19 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33975</v>
+        <v>34039</v>
       </c>
       <c r="F202" t="n">
-        <v>216.5607868711973</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>11.44400588993229</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>2.78</v>
+        <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>160.25</v>
+        <v>223.6</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33010113</v>
+        <v>32954211</v>
       </c>
       <c r="E203" t="n">
-        <v>164735683</v>
+        <v>164456705</v>
       </c>
       <c r="F203" t="n">
-        <v>124374.9259750874</v>
+        <v>121924.5023233063</v>
       </c>
       <c r="G203" t="n">
-        <v>78322.15364803476</v>
+        <v>94359.99736236749</v>
       </c>
       <c r="H203" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="I203" t="n">
-        <v>13378991</v>
+        <v>13546230</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1942977</v>
+        <v>1942615</v>
       </c>
       <c r="E204" t="n">
-        <v>1942977</v>
+        <v>1942615</v>
       </c>
       <c r="F204" t="n">
-        <v>182.8175139553749</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>6.018287970851704</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>1.62</v>
+        <v>6.79</v>
       </c>
       <c r="I204" t="n">
-        <v>9773.629999999999</v>
+        <v>7566.21</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>178839</v>
+        <v>169964</v>
       </c>
       <c r="F205" t="n">
-        <v>4.581632896916894</v>
+        <v>26.43180673012429</v>
       </c>
       <c r="G205" t="n">
-        <v>93.16063448095305</v>
+        <v>36.03336332648966</v>
       </c>
       <c r="H205" t="n">
-        <v>2.31</v>
+        <v>3.51</v>
       </c>
       <c r="I205" t="n">
-        <v>23462</v>
+        <v>22845</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2916.99</v>
+        <v>3088.11</v>
       </c>
       <c r="E206" t="n">
-        <v>34864</v>
+        <v>36910</v>
       </c>
       <c r="F206" t="n">
-        <v>6.700172885230535</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>48.79614319775452</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>0.23</v>
+        <v>5.15</v>
       </c>
       <c r="I206" t="n">
-        <v>3838.03</v>
+        <v>3834.28</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>311770540</v>
+        <v>301568210</v>
       </c>
       <c r="E208" t="n">
-        <v>576846598</v>
+        <v>557969961</v>
       </c>
       <c r="F208" t="n">
-        <v>17100.49443513406</v>
+        <v>18949.15694849548</v>
       </c>
       <c r="G208" t="n">
-        <v>27766.84344123844</v>
+        <v>25326.39702064721</v>
       </c>
       <c r="H208" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="I208" t="n">
-        <v>16404354</v>
+        <v>16127649</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>70650229</v>
+        <v>70445973</v>
       </c>
       <c r="E209" t="n">
-        <v>673898677</v>
+        <v>671944750</v>
       </c>
       <c r="F209" t="n">
-        <v>326901.8389261016</v>
+        <v>314630.482460521</v>
       </c>
       <c r="G209" t="n">
-        <v>143475.6687249889</v>
+        <v>289251.4850698991</v>
       </c>
       <c r="H209" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>22686780</v>
+        <v>23103686</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2422338</v>
+        <v>2275936</v>
       </c>
       <c r="F210" t="n">
-        <v>43.8674547203612</v>
+        <v>3.573842112818038</v>
       </c>
       <c r="G210" t="n">
-        <v>10.86124412222731</v>
+        <v>1127.316263414373</v>
       </c>
       <c r="H210" t="n">
-        <v>2.45</v>
+        <v>1.92</v>
       </c>
       <c r="I210" t="n">
-        <v>45308</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82048</v>
+        <v>82252</v>
       </c>
       <c r="E211" t="n">
-        <v>682084</v>
+        <v>683774</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>5.8</v>
+        <v>4.35</v>
       </c>
       <c r="I211" t="n">
-        <v>120.46</v>
+        <v>120.52</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1863030</v>
+        <v>1852298</v>
       </c>
       <c r="E212" t="n">
-        <v>5320573</v>
+        <v>5289924</v>
       </c>
       <c r="F212" t="n">
-        <v>256.5422723163213</v>
+        <v>331.2406059234135</v>
       </c>
       <c r="G212" t="n">
-        <v>823.7140021852563</v>
+        <v>234.392802067505</v>
       </c>
       <c r="H212" t="n">
-        <v>0.79</v>
+        <v>1.19</v>
       </c>
       <c r="I212" t="n">
-        <v>125514</v>
+        <v>74411</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9519033</v>
+        <v>9157599</v>
       </c>
       <c r="E213" t="n">
-        <v>28219538</v>
+        <v>27148054</v>
       </c>
       <c r="F213" t="n">
-        <v>1601.547454529488</v>
+        <v>2896.121738004121</v>
       </c>
       <c r="G213" t="n">
-        <v>3147.453886873538</v>
+        <v>1570.382962773527</v>
       </c>
       <c r="H213" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="I213" t="n">
-        <v>6124442</v>
+        <v>6219414</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14542345</v>
+        <v>14556820</v>
       </c>
       <c r="F214" t="n">
-        <v>34.32152302488146</v>
+        <v>27.95408700474587</v>
       </c>
       <c r="G214" t="n">
-        <v>99.9430910972433</v>
+        <v>99.42028989785086</v>
       </c>
       <c r="H214" t="n">
         <v>2.6</v>
       </c>
       <c r="I214" t="n">
-        <v>410.09</v>
+        <v>410.14</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1988094</v>
+        <v>1975208</v>
       </c>
       <c r="E215" t="n">
-        <v>5751063</v>
+        <v>5713785</v>
       </c>
       <c r="F215" t="n">
-        <v>100.6607249971863</v>
+        <v>43.16856160938401</v>
       </c>
       <c r="G215" t="n">
-        <v>77.57442804369475</v>
+        <v>628.1000845673703</v>
       </c>
       <c r="H215" t="n">
-        <v>0.02</v>
+        <v>1.69</v>
       </c>
       <c r="I215" t="n">
-        <v>52122</v>
+        <v>52070</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2270493</v>
+        <v>2268361</v>
       </c>
       <c r="E216" t="n">
-        <v>20027255</v>
+        <v>20008448</v>
       </c>
       <c r="F216" t="n">
-        <v>1945.649239359422</v>
+        <v>1493.229261165653</v>
       </c>
       <c r="G216" t="n">
-        <v>1533.852412785152</v>
+        <v>1163.940831308472</v>
       </c>
       <c r="H216" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="I216" t="n">
-        <v>49943</v>
+        <v>49706</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44383621</v>
+        <v>44448933</v>
       </c>
       <c r="E217" t="n">
-        <v>44383621</v>
+        <v>44448933</v>
       </c>
       <c r="F217" t="n">
-        <v>46329.60204464985</v>
+        <v>48430.15424576579</v>
       </c>
       <c r="G217" t="n">
-        <v>42601.0143390898</v>
+        <v>42818.42240420333</v>
       </c>
       <c r="H217" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I217" t="n">
-        <v>10230533</v>
+        <v>10620775</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8132903</v>
+        <v>8042026</v>
       </c>
       <c r="E218" t="n">
-        <v>11587523</v>
+        <v>11458044</v>
       </c>
       <c r="F218" t="n">
-        <v>3630.850402904002</v>
+        <v>3636.612487838755</v>
       </c>
       <c r="G218" t="n">
-        <v>78.61390637244057</v>
+        <v>182.2260869393086</v>
       </c>
       <c r="H218" t="n">
-        <v>0.86</v>
+        <v>1.73</v>
       </c>
       <c r="I218" t="n">
-        <v>316591</v>
+        <v>311066</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16001959</v>
+        <v>16174727</v>
       </c>
       <c r="F219" t="n">
-        <v>2.119952378418713</v>
+        <v>160.9469279236981</v>
       </c>
       <c r="G219" t="n">
-        <v>504.6692349958839</v>
+        <v>10.38962303219196</v>
       </c>
       <c r="H219" t="n">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="I219" t="n">
-        <v>1065750</v>
+        <v>1079751</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>722477</v>
+        <v>717452</v>
       </c>
       <c r="F220" t="n">
-        <v>84.16568472064377</v>
+        <v>187.5870822146446</v>
       </c>
       <c r="G220" t="n">
-        <v>209.0393646298289</v>
+        <v>203.3539457699275</v>
       </c>
       <c r="H220" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="I220" t="n">
-        <v>208430</v>
+        <v>208554</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2862932</v>
+        <v>2832623</v>
       </c>
       <c r="E221" t="n">
-        <v>2865412</v>
+        <v>2835076</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>70.23008687213485</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>25.62616632606395</v>
       </c>
       <c r="H221" t="n">
-        <v>3.96</v>
+        <v>3.12</v>
       </c>
       <c r="I221" t="n">
-        <v>94704</v>
+        <v>76899</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1274788</v>
+        <v>1293107</v>
       </c>
       <c r="E222" t="n">
-        <v>3856644</v>
+        <v>3914487</v>
       </c>
       <c r="F222" t="n">
-        <v>108.3283903472382</v>
+        <v>69.2498035074846</v>
       </c>
       <c r="G222" t="n">
-        <v>1848.012725381031</v>
+        <v>1162.967183602073</v>
       </c>
       <c r="H222" t="n">
-        <v>0.51</v>
+        <v>2.27</v>
       </c>
       <c r="I222" t="n">
-        <v>37180</v>
+        <v>41019</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>31793695</v>
+        <v>32118925</v>
       </c>
       <c r="E223" t="n">
-        <v>225412113</v>
+        <v>227717939</v>
       </c>
       <c r="F223" t="n">
-        <v>55335.49431180553</v>
+        <v>33702.52007271792</v>
       </c>
       <c r="G223" t="n">
-        <v>57202.02310158433</v>
+        <v>108463.5887548065</v>
       </c>
       <c r="H223" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I223" t="n">
-        <v>4473691</v>
+        <v>4913202</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59041</v>
+        <v>58288</v>
       </c>
       <c r="E224" t="n">
-        <v>308052</v>
+        <v>304121</v>
       </c>
       <c r="F224" t="n">
-        <v>26.44055072533893</v>
+        <v>29.83899177028936</v>
       </c>
       <c r="G224" t="n">
-        <v>18.66452322854841</v>
+        <v>23.78007238949751</v>
       </c>
       <c r="H224" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="I224" t="n">
-        <v>213792</v>
+        <v>209515</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1286608</v>
+        <v>1278424</v>
       </c>
       <c r="E225" t="n">
-        <v>7978889</v>
+        <v>7928135</v>
       </c>
       <c r="F225" t="n">
-        <v>1298.619463785959</v>
+        <v>1054.188798544419</v>
       </c>
       <c r="G225" t="n">
-        <v>1013.94860142128</v>
+        <v>1104.261157815554</v>
       </c>
       <c r="H225" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>795660</v>
+        <v>792687</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>590717947</v>
+        <v>587293258</v>
       </c>
       <c r="E226" t="n">
-        <v>2287763456</v>
+        <v>2274500141</v>
       </c>
       <c r="F226" t="n">
-        <v>276426.965028501</v>
+        <v>256548.9567167105</v>
       </c>
       <c r="G226" t="n">
-        <v>260271.9143392567</v>
+        <v>271023.2258011436</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>53466045</v>
+        <v>55012523</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20970341</v>
+        <v>20949207</v>
       </c>
       <c r="F227" t="n">
-        <v>1723.749613530347</v>
+        <v>1818.050581370262</v>
       </c>
       <c r="G227" t="n">
-        <v>429.1959443819393</v>
+        <v>762.4139760741316</v>
       </c>
       <c r="H227" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>17596924</v>
+        <v>17731358</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>811840</v>
+        <v>830954</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>31.51578834416449</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>256.3917043779431</v>
       </c>
       <c r="H228" t="n">
-        <v>4.24</v>
+        <v>0.97</v>
       </c>
       <c r="I228" t="n">
-        <v>174714</v>
+        <v>163059</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5462594</v>
+        <v>5461034</v>
       </c>
       <c r="E229" t="n">
-        <v>24452912</v>
+        <v>24445930</v>
       </c>
       <c r="F229" t="n">
-        <v>1700.457924755484</v>
+        <v>1392.75056591121</v>
       </c>
       <c r="G229" t="n">
-        <v>4199.84542874049</v>
+        <v>1647.540827032276</v>
       </c>
       <c r="H229" t="n">
         <v>0.41</v>
       </c>
       <c r="I229" t="n">
-        <v>182816</v>
+        <v>189791</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6499127</v>
+        <v>6678887</v>
       </c>
       <c r="E230" t="n">
-        <v>12443106</v>
+        <v>12787271</v>
       </c>
       <c r="F230" t="n">
-        <v>139.4094280243971</v>
+        <v>139.0840341034284</v>
       </c>
       <c r="G230" t="n">
-        <v>421.1029593415317</v>
+        <v>429.1777175864652</v>
       </c>
       <c r="H230" t="n">
-        <v>2.81</v>
+        <v>2.21</v>
       </c>
       <c r="I230" t="n">
-        <v>33393</v>
+        <v>34381</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3175072</v>
+        <v>3184390</v>
       </c>
       <c r="E231" t="n">
-        <v>20878537</v>
+        <v>20939806</v>
       </c>
       <c r="F231" t="n">
-        <v>212.8255239354683</v>
+        <v>234.2792518632538</v>
       </c>
       <c r="G231" t="n">
-        <v>242.7707491756452</v>
+        <v>207.5872843232248</v>
       </c>
       <c r="H231" t="n">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="I231" t="n">
-        <v>1531686</v>
+        <v>1671736</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>110350355</v>
+        <v>110946114</v>
       </c>
       <c r="E232" t="n">
-        <v>1025297014</v>
+        <v>1030832387</v>
       </c>
       <c r="F232" t="n">
-        <v>22158.54935558078</v>
+        <v>25498.218936455</v>
       </c>
       <c r="G232" t="n">
-        <v>36376.87787861377</v>
+        <v>24216.71171405592</v>
       </c>
       <c r="H232" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I232" t="n">
-        <v>13904793</v>
+        <v>14504949</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>349.92</v>
+        <v>349.97</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>97793318</v>
+        <v>96908469</v>
       </c>
       <c r="E234" t="n">
-        <v>149185999</v>
+        <v>147836141</v>
       </c>
       <c r="F234" t="n">
-        <v>29074.42726096081</v>
+        <v>21946.52903454379</v>
       </c>
       <c r="G234" t="n">
-        <v>17168.44510822631</v>
+        <v>18505.13923003756</v>
       </c>
       <c r="H234" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I234" t="n">
-        <v>11287631</v>
+        <v>11969045</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16424802</v>
+        <v>15770211</v>
       </c>
       <c r="E235" t="n">
-        <v>22533406</v>
+        <v>21635363</v>
       </c>
       <c r="F235" t="n">
-        <v>1863.4785315533</v>
+        <v>785.6110331774422</v>
       </c>
       <c r="G235" t="n">
-        <v>842.1481075463984</v>
+        <v>1319.676483946397</v>
       </c>
       <c r="H235" t="n">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="I235" t="n">
-        <v>834235</v>
+        <v>915033</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>123945413</v>
+        <v>122644295</v>
       </c>
       <c r="E236" t="n">
-        <v>475474553</v>
+        <v>470483257</v>
       </c>
       <c r="F236" t="n">
-        <v>351896.8749544548</v>
+        <v>414907.9032938287</v>
       </c>
       <c r="G236" t="n">
-        <v>234895.8681746686</v>
+        <v>419363.129837581</v>
       </c>
       <c r="H236" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I236" t="n">
-        <v>40318957</v>
+        <v>40322931</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>645337</v>
+        <v>645721</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>4.43</v>
+        <v>8.16</v>
       </c>
       <c r="I237" t="n">
-        <v>40427</v>
+        <v>41567</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>777930</v>
+        <v>776917</v>
       </c>
       <c r="F238" t="n">
-        <v>343.7763388994788</v>
+        <v>178.8627832761925</v>
       </c>
       <c r="G238" t="n">
-        <v>155.4235865571521</v>
+        <v>155.6323197921859</v>
       </c>
       <c r="H238" t="n">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="I238" t="n">
-        <v>218760</v>
+        <v>238297</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3096449</v>
+        <v>3024448</v>
       </c>
       <c r="E239" t="n">
-        <v>29339317</v>
+        <v>28657093</v>
       </c>
       <c r="F239" t="n">
-        <v>696.7368547400018</v>
+        <v>146.3971036610887</v>
       </c>
       <c r="G239" t="n">
-        <v>741.4475578774127</v>
+        <v>1471.256476872104</v>
       </c>
       <c r="H239" t="n">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="I239" t="n">
-        <v>186562</v>
+        <v>222997</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>727546</v>
+        <v>721798</v>
       </c>
       <c r="E240" t="n">
-        <v>777743</v>
+        <v>771598</v>
       </c>
       <c r="F240" t="n">
-        <v>58.08926444161774</v>
+        <v>49.01767972356083</v>
       </c>
       <c r="G240" t="n">
-        <v>2340.221648384618</v>
+        <v>2339.703669337885</v>
       </c>
       <c r="H240" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>119590</v>
+        <v>120009</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383809</v>
+        <v>384191</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>13.24</v>
+        <v>13.07</v>
       </c>
       <c r="I241" t="n">
-        <v>759.24</v>
+        <v>699.55</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>130889</v>
+        <v>130127</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>6.38</v>
       </c>
       <c r="I242" t="n">
-        <v>67779</v>
+        <v>67351</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>575224</v>
+        <v>575923</v>
       </c>
       <c r="F243" t="n">
-        <v>76.49722312199546</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>116.6537861226493</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>3.09</v>
+        <v>5.1</v>
       </c>
       <c r="I243" t="n">
-        <v>8114.38</v>
+        <v>8115.81</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6788293</v>
+        <v>6584735</v>
       </c>
       <c r="E244" t="n">
-        <v>42424891</v>
+        <v>41152708</v>
       </c>
       <c r="F244" t="n">
-        <v>239.8005744838727</v>
+        <v>94.88589827196763</v>
       </c>
       <c r="G244" t="n">
-        <v>1170.90894716947</v>
+        <v>110.6666078285955</v>
       </c>
       <c r="H244" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I244" t="n">
-        <v>409570</v>
+        <v>415572</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5076588</v>
+        <v>5108389</v>
       </c>
       <c r="E245" t="n">
-        <v>18864695</v>
+        <v>18982868</v>
       </c>
       <c r="F245" t="n">
-        <v>487.7653955170919</v>
+        <v>394.8427074669903</v>
       </c>
       <c r="G245" t="n">
-        <v>5030.146091090346</v>
+        <v>5012.892941552684</v>
       </c>
       <c r="H245" t="n">
-        <v>1.06</v>
+        <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>88708</v>
+        <v>86699</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3580661</v>
+        <v>3584225</v>
       </c>
       <c r="F246" t="n">
-        <v>254.9288007360112</v>
+        <v>281.0266481266624</v>
       </c>
       <c r="G246" t="n">
-        <v>6169.276583947859</v>
+        <v>6167.911091065513</v>
       </c>
       <c r="H246" t="n">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="I246" t="n">
-        <v>29672</v>
+        <v>29378</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>37001859</v>
+        <v>41436198</v>
       </c>
       <c r="E247" t="n">
-        <v>132627993</v>
+        <v>148522262</v>
       </c>
       <c r="F247" t="n">
-        <v>576.2749490650701</v>
+        <v>52.34360334179656</v>
       </c>
       <c r="G247" t="n">
-        <v>218.4483460374425</v>
+        <v>242.6454671622834</v>
       </c>
       <c r="H247" t="n">
-        <v>1.17</v>
+        <v>3.76</v>
       </c>
       <c r="I247" t="n">
-        <v>100622</v>
+        <v>152512</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1546379</v>
+        <v>1542902</v>
       </c>
       <c r="F248" t="n">
-        <v>14.20104250929196</v>
+        <v>8.44593752781633</v>
       </c>
       <c r="G248" t="n">
-        <v>33.59832222586819</v>
+        <v>101.8162265059177</v>
       </c>
       <c r="H248" t="n">
-        <v>2.52</v>
+        <v>3.82</v>
       </c>
       <c r="I248" t="n">
-        <v>602512</v>
+        <v>605546</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2142149</v>
+        <v>2153208</v>
       </c>
       <c r="E249" t="n">
-        <v>16476803</v>
+        <v>16561865</v>
       </c>
       <c r="F249" t="n">
-        <v>247.6550996123173</v>
+        <v>22.80316567691137</v>
       </c>
       <c r="G249" t="n">
-        <v>268.9970555997157</v>
+        <v>297.2301444803603</v>
       </c>
       <c r="H249" t="n">
-        <v>1.95</v>
+        <v>0.77</v>
       </c>
       <c r="I249" t="n">
-        <v>216427</v>
+        <v>215456</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103383</v>
+        <v>103540</v>
       </c>
       <c r="E250" t="n">
-        <v>821172</v>
+        <v>822419</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2904729675697</v>
+        <v>161.1207424512521</v>
       </c>
       <c r="G250" t="n">
-        <v>347.2544056872887</v>
+        <v>347.1775452300087</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>214.13</v>
+        <v>214.22</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88036814</v>
+        <v>87740649</v>
       </c>
       <c r="E251" t="n">
-        <v>325423569</v>
+        <v>324327648</v>
       </c>
       <c r="F251" t="n">
-        <v>5152.802706287191</v>
+        <v>5631.977307512476</v>
       </c>
       <c r="G251" t="n">
-        <v>6535.591032787047</v>
+        <v>5251.43980300818</v>
       </c>
       <c r="H251" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="I251" t="n">
-        <v>217893</v>
+        <v>229480</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2179958</v>
+        <v>2181819</v>
       </c>
       <c r="E252" t="n">
-        <v>8739120</v>
+        <v>8746580</v>
       </c>
       <c r="F252" t="n">
-        <v>4.400710727465118</v>
+        <v>152.4110856065005</v>
       </c>
       <c r="G252" t="n">
-        <v>39.92641613127117</v>
+        <v>300.0989567877783</v>
       </c>
       <c r="H252" t="n">
-        <v>3.52</v>
+        <v>3.42</v>
       </c>
       <c r="I252" t="n">
-        <v>11114</v>
+        <v>10788.13</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>575009</v>
+        <v>576025</v>
       </c>
       <c r="F253" t="n">
-        <v>355.0156302544237</v>
+        <v>436.9013553124557</v>
       </c>
       <c r="G253" t="n">
-        <v>25.00403772415286</v>
+        <v>24.9985033904141</v>
       </c>
       <c r="H253" t="n">
-        <v>1.96</v>
+        <v>1.12</v>
       </c>
       <c r="I253" t="n">
-        <v>2253.24</v>
+        <v>2253.51</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38072</v>
+        <v>38010</v>
       </c>
       <c r="F254" t="n">
-        <v>95.42064194467169</v>
+        <v>95.39952176864595</v>
       </c>
       <c r="G254" t="n">
-        <v>38.66564360187419</v>
+        <v>1.029349919500812</v>
       </c>
       <c r="H254" t="n">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="I254" t="n">
-        <v>1173.81</v>
+        <v>585.92</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>801294414</v>
+        <v>769600166</v>
       </c>
       <c r="E255" t="n">
-        <v>1235666735</v>
+        <v>1186791405</v>
       </c>
       <c r="F255" t="n">
-        <v>83530.16168884255</v>
+        <v>121451.3844356497</v>
       </c>
       <c r="G255" t="n">
-        <v>152828.5931472378</v>
+        <v>194128.5995601356</v>
       </c>
       <c r="H255" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I255" t="n">
-        <v>338510171</v>
+        <v>276649308</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5860905</v>
+        <v>13327104</v>
       </c>
       <c r="E256" t="n">
-        <v>5860905</v>
+        <v>13327104</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>9.25</v>
+        <v>26.36</v>
       </c>
       <c r="I256" t="n">
-        <v>327.16</v>
+        <v>2800.19</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39482575</v>
+        <v>39571025</v>
       </c>
       <c r="E257" t="n">
-        <v>188286626</v>
+        <v>188708432</v>
       </c>
       <c r="F257" t="n">
-        <v>608.2570985543837</v>
+        <v>610.3473929298593</v>
       </c>
       <c r="G257" t="n">
-        <v>283.0311390546392</v>
+        <v>335.758637658403</v>
       </c>
       <c r="H257" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>401465</v>
+        <v>402378</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>541896</v>
+        <v>541942</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>284.96</v>
+        <v>171.9</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>22628079</v>
+        <v>23109013</v>
       </c>
       <c r="E259" t="n">
-        <v>37713464</v>
+        <v>38515021</v>
       </c>
       <c r="F259" t="n">
-        <v>965.0102549372848</v>
+        <v>745.4276936685869</v>
       </c>
       <c r="G259" t="n">
-        <v>5733.016019609438</v>
+        <v>18683.46220378558</v>
       </c>
       <c r="H259" t="n">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="I259" t="n">
-        <v>612066</v>
+        <v>701695</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>108100</v>
+        <v>107986</v>
       </c>
       <c r="F260" t="n">
-        <v>226.2136503754723</v>
+        <v>225.6183978937494</v>
       </c>
       <c r="G260" t="n">
-        <v>175.7342446879746</v>
+        <v>175.6953480917464</v>
       </c>
       <c r="H260" t="n">
         <v>0.03</v>
       </c>
       <c r="I260" t="n">
-        <v>54186</v>
+        <v>54808</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1758252</v>
+        <v>1535387</v>
       </c>
       <c r="E261" t="n">
-        <v>7488769</v>
+        <v>6539537</v>
       </c>
       <c r="F261" t="n">
-        <v>192.6214609210644</v>
+        <v>2.882676677663637</v>
       </c>
       <c r="G261" t="n">
-        <v>36.46358537412419</v>
+        <v>343.2386970620607</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="I261" t="n">
-        <v>833732</v>
+        <v>865927</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3812086</v>
+        <v>3814577</v>
       </c>
       <c r="E262" t="n">
-        <v>8309812</v>
+        <v>8315242</v>
       </c>
       <c r="F262" t="n">
-        <v>1700.387403866157</v>
+        <v>1696.324334938543</v>
       </c>
       <c r="G262" t="n">
-        <v>2791.800217981036</v>
+        <v>2798.132053987418</v>
       </c>
       <c r="H262" t="n">
-        <v>0.48</v>
+        <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>1891456</v>
+        <v>1968711</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>484523135</v>
+        <v>481921251</v>
       </c>
       <c r="E263" t="n">
-        <v>1686584708</v>
+        <v>1677527767</v>
       </c>
       <c r="F263" t="n">
-        <v>410446.1250350788</v>
+        <v>324852.9530264481</v>
       </c>
       <c r="G263" t="n">
-        <v>324620.0734694044</v>
+        <v>361542.2009625778</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>44480527</v>
+        <v>44391686</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5592211190</v>
+        <v>5609106631</v>
       </c>
       <c r="E264" t="n">
-        <v>5592211190</v>
+        <v>5609106631</v>
       </c>
       <c r="F264" t="n">
-        <v>1608.479823126995</v>
+        <v>729.6785707433615</v>
       </c>
       <c r="G264" t="n">
-        <v>1367.342151698112</v>
+        <v>615.3366228376266</v>
       </c>
       <c r="H264" t="n">
-        <v>0.18</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I264" t="n">
-        <v>29883985</v>
+        <v>36054684</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22218336</v>
+        <v>22274439</v>
       </c>
       <c r="E265" t="n">
-        <v>22199036</v>
+        <v>22255091</v>
       </c>
       <c r="F265" t="n">
-        <v>823.9432282676294</v>
+        <v>586.9123115907153</v>
       </c>
       <c r="G265" t="n">
-        <v>1874.267480467743</v>
+        <v>1552.26842886614</v>
       </c>
       <c r="H265" t="n">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
       <c r="I265" t="n">
-        <v>404871</v>
+        <v>406451</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11740618</v>
+        <v>11743485</v>
       </c>
       <c r="E266" t="n">
-        <v>23709448</v>
+        <v>23712320</v>
       </c>
       <c r="F266" t="n">
-        <v>864.0080261862579</v>
+        <v>898.2299420647897</v>
       </c>
       <c r="G266" t="n">
-        <v>709.9786924049472</v>
+        <v>612.9969473794141</v>
       </c>
       <c r="H266" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="I266" t="n">
-        <v>55668</v>
+        <v>56977</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>146502</v>
+        <v>149171</v>
       </c>
       <c r="F267" t="n">
-        <v>172.0824958190081</v>
+        <v>201.0944200079489</v>
       </c>
       <c r="G267" t="n">
-        <v>133.4207898420717</v>
+        <v>113.6076700120054</v>
       </c>
       <c r="H267" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I267" t="n">
-        <v>55504</v>
+        <v>56782</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47165</v>
+        <v>46412</v>
       </c>
       <c r="F268" t="n">
-        <v>73.61833796774623</v>
+        <v>87.81995838709901</v>
       </c>
       <c r="G268" t="n">
-        <v>48.69535585530826</v>
+        <v>5.03073083599098</v>
       </c>
       <c r="H268" t="n">
-        <v>1.69</v>
+        <v>3.4</v>
       </c>
       <c r="I268" t="n">
-        <v>69621</v>
+        <v>69452</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2531373</v>
+        <v>2438734</v>
       </c>
       <c r="E269" t="n">
-        <v>10125493</v>
+        <v>9754938</v>
       </c>
       <c r="F269" t="n">
-        <v>19711.69461798894</v>
+        <v>24653.4008079018</v>
       </c>
       <c r="G269" t="n">
-        <v>26133.4364756061</v>
+        <v>45834.71317523522</v>
       </c>
       <c r="H269" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="I269" t="n">
-        <v>7123881</v>
+        <v>7241659</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>216244401</v>
+        <v>214109161</v>
       </c>
       <c r="E270" t="n">
-        <v>664870155</v>
+        <v>658305097</v>
       </c>
       <c r="F270" t="n">
-        <v>190099.5523235578</v>
+        <v>222652.6774840842</v>
       </c>
       <c r="G270" t="n">
-        <v>111002.8815172699</v>
+        <v>196848.0091680013</v>
       </c>
       <c r="H270" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>20378361</v>
+        <v>21537059</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>138280382</v>
+        <v>138634535</v>
       </c>
       <c r="E271" t="n">
-        <v>361253661</v>
+        <v>362178878</v>
       </c>
       <c r="F271" t="n">
-        <v>61424.76235014269</v>
+        <v>58433.19624604627</v>
       </c>
       <c r="G271" t="n">
-        <v>52305.0935843546</v>
+        <v>75809.12974176576</v>
       </c>
       <c r="H271" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I271" t="n">
-        <v>8912110</v>
+        <v>9220689</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2383176</v>
+        <v>2392801</v>
       </c>
       <c r="E272" t="n">
-        <v>3270871</v>
+        <v>3284079</v>
       </c>
       <c r="F272" t="n">
-        <v>156.0686875428205</v>
+        <v>14.15811736547049</v>
       </c>
       <c r="G272" t="n">
-        <v>14.13766767407343</v>
+        <v>43.50601045375699</v>
       </c>
       <c r="H272" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="I272" t="n">
-        <v>1789679</v>
+        <v>1792224</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56715</v>
+        <v>56705</v>
       </c>
       <c r="F2" t="n">
-        <v>8.363359905891588</v>
+        <v>8.362459605128338</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87658354725433</v>
+        <v>10.8754127024528</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>447.51</v>
+        <v>448.18</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97571</v>
+        <v>92472</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>428.84</v>
+        <v>1653.31</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>608288346</v>
+        <v>600741831</v>
       </c>
       <c r="E4" t="n">
-        <v>1180413077</v>
+        <v>1165768853</v>
       </c>
       <c r="F4" t="n">
-        <v>20262.62023772805</v>
+        <v>18522.82033185448</v>
       </c>
       <c r="G4" t="n">
-        <v>25618.43137756295</v>
+        <v>24288.26795010161</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>38750120</v>
+        <v>40101025</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1465582</v>
+        <v>1451645</v>
       </c>
       <c r="E5" t="n">
-        <v>4737364</v>
+        <v>4692314</v>
       </c>
       <c r="F5" t="n">
-        <v>239.9554831859119</v>
+        <v>214.3350507235823</v>
       </c>
       <c r="G5" t="n">
-        <v>1163.028688507849</v>
+        <v>4209.730858771265</v>
       </c>
       <c r="H5" t="n">
-        <v>1.26</v>
+        <v>0.42</v>
       </c>
       <c r="I5" t="n">
-        <v>215350</v>
+        <v>218469</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>143147457</v>
+        <v>141184537</v>
       </c>
       <c r="E6" t="n">
-        <v>158629754</v>
+        <v>156454531</v>
       </c>
       <c r="F6" t="n">
-        <v>205768.8985269205</v>
+        <v>208136.6499713101</v>
       </c>
       <c r="G6" t="n">
-        <v>248658.0254170095</v>
+        <v>288269.2148742685</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>50877181</v>
+        <v>51094367</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3822.43</v>
+        <v>3818.55</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.76</v>
+        <v>153.98</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8344577</v>
+        <v>8319655</v>
       </c>
       <c r="E8" t="n">
-        <v>8554996</v>
+        <v>8529446</v>
       </c>
       <c r="F8" t="n">
-        <v>164.7575757796421</v>
+        <v>417.3210193307555</v>
       </c>
       <c r="G8" t="n">
-        <v>4637.899975931037</v>
+        <v>4396.956826542581</v>
       </c>
       <c r="H8" t="n">
-        <v>0.59</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>98128</v>
+        <v>96379</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>295511</v>
+        <v>294764</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.61</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>744.53</v>
+        <v>745.1</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5101321</v>
+        <v>5096419</v>
       </c>
       <c r="E10" t="n">
-        <v>8150378</v>
+        <v>8142546</v>
       </c>
       <c r="F10" t="n">
-        <v>229.2442459527565</v>
+        <v>213.5843178825755</v>
       </c>
       <c r="G10" t="n">
-        <v>248.473690450441</v>
+        <v>230.4599691260009</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>99681</v>
+        <v>99688</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1002168</v>
+        <v>999693</v>
       </c>
       <c r="E11" t="n">
-        <v>12263830</v>
+        <v>12233550</v>
       </c>
       <c r="F11" t="n">
-        <v>1570.151836851503</v>
+        <v>1570.146392557094</v>
       </c>
       <c r="G11" t="n">
-        <v>1349.558888718571</v>
+        <v>1381.02247576096</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>403.72</v>
+        <v>403.15</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>571007</v>
+        <v>570008</v>
       </c>
       <c r="E12" t="n">
-        <v>571007</v>
+        <v>570008</v>
       </c>
       <c r="F12" t="n">
-        <v>109.9851127037228</v>
+        <v>232.6961364012142</v>
       </c>
       <c r="G12" t="n">
-        <v>313.911311947199</v>
+        <v>201.3006662155437</v>
       </c>
       <c r="H12" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="I12" t="n">
-        <v>27756</v>
+        <v>28299</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4257083</v>
+        <v>4261208</v>
       </c>
       <c r="E13" t="n">
-        <v>26140511</v>
+        <v>26165844</v>
       </c>
       <c r="F13" t="n">
-        <v>749.328509227631</v>
+        <v>662.2679721288242</v>
       </c>
       <c r="G13" t="n">
-        <v>420.4490637242373</v>
+        <v>410.5710733823277</v>
       </c>
       <c r="H13" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I13" t="n">
-        <v>684546</v>
+        <v>668443</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197335</v>
+        <v>196187</v>
       </c>
       <c r="E14" t="n">
-        <v>2170906</v>
+        <v>2158272</v>
       </c>
       <c r="F14" t="n">
-        <v>201.9565561930624</v>
+        <v>263.6318022723446</v>
       </c>
       <c r="G14" t="n">
-        <v>353.080409315132</v>
+        <v>340.7953580800114</v>
       </c>
       <c r="H14" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>35187</v>
+        <v>34238</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3277691</v>
+        <v>3251626</v>
       </c>
       <c r="E15" t="n">
-        <v>9324741</v>
+        <v>9250589</v>
       </c>
       <c r="F15" t="n">
-        <v>455.7030018427052</v>
+        <v>450.4692953009012</v>
       </c>
       <c r="G15" t="n">
-        <v>161.8724941619402</v>
+        <v>144.6857464022291</v>
       </c>
       <c r="H15" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="I15" t="n">
-        <v>113440</v>
+        <v>113137</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>312760</v>
+        <v>310705</v>
       </c>
       <c r="E16" t="n">
-        <v>3609625</v>
+        <v>3585910</v>
       </c>
       <c r="F16" t="n">
-        <v>138.3113726800269</v>
+        <v>139.1451579508305</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0723193258769</v>
+        <v>131.0613921081164</v>
       </c>
       <c r="H16" t="n">
         <v>0.41</v>
       </c>
       <c r="I16" t="n">
-        <v>2476.03</v>
+        <v>2494.28</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>934063</v>
+        <v>940301</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>32.19683680779934</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>10.73266987247627</v>
       </c>
       <c r="H17" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>10579.92</v>
+        <v>10640.2</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24454217</v>
+        <v>24328731</v>
       </c>
       <c r="E18" t="n">
-        <v>24499322</v>
+        <v>24373604</v>
       </c>
       <c r="F18" t="n">
-        <v>1771.985797014974</v>
+        <v>1812.269521678366</v>
       </c>
       <c r="G18" t="n">
-        <v>2735.031236719901</v>
+        <v>1202.858554157845</v>
       </c>
       <c r="H18" t="n">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="I18" t="n">
-        <v>889760</v>
+        <v>891669</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6908677</v>
+        <v>6723481</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>13.90979246177476</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>34.64930899238865</v>
       </c>
       <c r="H19" t="n">
-        <v>4.01</v>
+        <v>3.87</v>
       </c>
       <c r="I19" t="n">
-        <v>19006.18</v>
+        <v>22077</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2443221</v>
+        <v>2421781</v>
       </c>
       <c r="E20" t="n">
-        <v>2443221</v>
+        <v>2421781</v>
       </c>
       <c r="F20" t="n">
-        <v>10.36769086613278</v>
+        <v>38.66369911717496</v>
       </c>
       <c r="G20" t="n">
-        <v>46.00096596299795</v>
+        <v>122.0668107494187</v>
       </c>
       <c r="H20" t="n">
-        <v>3.65</v>
+        <v>2.63</v>
       </c>
       <c r="I20" t="n">
-        <v>316598</v>
+        <v>313675</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>355891</v>
+        <v>355739</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>4.78</v>
       </c>
       <c r="I21" t="n">
-        <v>9511.32</v>
+        <v>9440.700000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17451175</v>
+        <v>17314222</v>
       </c>
       <c r="E22" t="n">
-        <v>22461095</v>
+        <v>22284825</v>
       </c>
       <c r="F22" t="n">
-        <v>644.4124626261287</v>
+        <v>456.4891592862787</v>
       </c>
       <c r="G22" t="n">
-        <v>10198.48471016229</v>
+        <v>10143.72066255054</v>
       </c>
       <c r="H22" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>1997532</v>
+        <v>1942021</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>508695749</v>
+        <v>495098846</v>
       </c>
       <c r="E23" t="n">
-        <v>508695749</v>
+        <v>495098846</v>
       </c>
       <c r="F23" t="n">
-        <v>53705.79631521751</v>
+        <v>46959.53546299709</v>
       </c>
       <c r="G23" t="n">
-        <v>60700.1457300302</v>
+        <v>57810.07949663348</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>71848081</v>
+        <v>70825372</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18241.59</v>
+        <v>18223.08</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.62</v>
+        <v>6.78</v>
       </c>
       <c r="I24" t="n">
-        <v>2667.69</v>
+        <v>2641.26</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4623945</v>
+        <v>4607605</v>
       </c>
       <c r="E25" t="n">
-        <v>4623945</v>
+        <v>4607605</v>
       </c>
       <c r="F25" t="n">
-        <v>302.8255746732433</v>
+        <v>337.3092842736903</v>
       </c>
       <c r="G25" t="n">
-        <v>1124.802681726125</v>
+        <v>1117.003748715265</v>
       </c>
       <c r="H25" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="I25" t="n">
-        <v>2109077</v>
+        <v>2072074</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3373901</v>
+        <v>3344639</v>
       </c>
       <c r="E26" t="n">
-        <v>3373901</v>
+        <v>3344639</v>
       </c>
       <c r="F26" t="n">
-        <v>1278.655623061493</v>
+        <v>68.92603892182989</v>
       </c>
       <c r="G26" t="n">
-        <v>116.3708383420006</v>
+        <v>1215.839452777716</v>
       </c>
       <c r="H26" t="n">
-        <v>2.82</v>
+        <v>2.35</v>
       </c>
       <c r="I26" t="n">
-        <v>603949</v>
+        <v>603445</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>304578</v>
+        <v>310359</v>
       </c>
       <c r="E27" t="n">
-        <v>1421801</v>
+        <v>1448787</v>
       </c>
       <c r="F27" t="n">
-        <v>96.94209866255613</v>
+        <v>107.4431560214084</v>
       </c>
       <c r="G27" t="n">
-        <v>276.8996791273635</v>
+        <v>325.8591304992378</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>2.89</v>
       </c>
       <c r="I27" t="n">
-        <v>673048</v>
+        <v>692382</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1897859</v>
+        <v>1876152</v>
       </c>
       <c r="F28" t="n">
-        <v>141.2371617431182</v>
+        <v>489.2165869385369</v>
       </c>
       <c r="G28" t="n">
-        <v>268.2659570280719</v>
+        <v>348.0118977909157</v>
       </c>
       <c r="H28" t="n">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
       <c r="I28" t="n">
-        <v>1213180</v>
+        <v>1147353</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11956992</v>
+        <v>11886209</v>
       </c>
       <c r="E29" t="n">
-        <v>29758790</v>
+        <v>29582623</v>
       </c>
       <c r="F29" t="n">
-        <v>837.1159875106763</v>
+        <v>993.8264789350079</v>
       </c>
       <c r="G29" t="n">
-        <v>1277.868175588623</v>
+        <v>1160.621693527228</v>
       </c>
       <c r="H29" t="n">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1504813</v>
+        <v>1529214</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>892227</v>
+        <v>904782</v>
       </c>
       <c r="E30" t="n">
-        <v>6245592</v>
+        <v>6333473</v>
       </c>
       <c r="F30" t="n">
-        <v>31.63938644706941</v>
+        <v>17.46182079635345</v>
       </c>
       <c r="G30" t="n">
-        <v>990.208322745772</v>
+        <v>1003.996698504446</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="I30" t="n">
-        <v>256497</v>
+        <v>96647</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>175372</v>
+        <v>176742</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>676.3200000000001</v>
+        <v>777.05</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5579896</v>
+        <v>5522254</v>
       </c>
       <c r="E32" t="n">
-        <v>5846838</v>
+        <v>5786439</v>
       </c>
       <c r="F32" t="n">
-        <v>34.98025050315032</v>
+        <v>39.40991298090527</v>
       </c>
       <c r="G32" t="n">
-        <v>547.8787455713548</v>
+        <v>97.59717002236032</v>
       </c>
       <c r="H32" t="n">
-        <v>2.15</v>
+        <v>3.48</v>
       </c>
       <c r="I32" t="n">
-        <v>192632</v>
+        <v>159864</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4772065</v>
+        <v>4756099</v>
       </c>
       <c r="E33" t="n">
-        <v>7024738</v>
+        <v>7001235</v>
       </c>
       <c r="F33" t="n">
-        <v>65.55164417424675</v>
+        <v>105.0213781545158</v>
       </c>
       <c r="G33" t="n">
-        <v>209.7828549980251</v>
+        <v>31.58898634411776</v>
       </c>
       <c r="H33" t="n">
-        <v>1.42</v>
+        <v>3.18</v>
       </c>
       <c r="I33" t="n">
-        <v>558784</v>
+        <v>556266</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7534309</v>
+        <v>7495469</v>
       </c>
       <c r="E34" t="n">
-        <v>7534309</v>
+        <v>7495469</v>
       </c>
       <c r="F34" t="n">
-        <v>3121.561972864566</v>
+        <v>2591.639643920183</v>
       </c>
       <c r="G34" t="n">
-        <v>4221.442632244042</v>
+        <v>2641.842746949927</v>
       </c>
       <c r="H34" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>436494</v>
+        <v>104476</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1563614</v>
+        <v>1568490</v>
       </c>
       <c r="E35" t="n">
-        <v>1563614</v>
+        <v>1568514</v>
       </c>
       <c r="F35" t="n">
-        <v>74.29827079960067</v>
+        <v>42.85868097670745</v>
       </c>
       <c r="G35" t="n">
-        <v>582.5104539340433</v>
+        <v>150.8641678205479</v>
       </c>
       <c r="H35" t="n">
-        <v>3.39</v>
+        <v>3.65</v>
       </c>
       <c r="I35" t="n">
-        <v>280650</v>
+        <v>286591</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15811930</v>
+        <v>15670495</v>
       </c>
       <c r="F36" t="n">
-        <v>250.0123919468178</v>
+        <v>289.1752965810393</v>
       </c>
       <c r="G36" t="n">
-        <v>185.586487256184</v>
+        <v>199.1462756263345</v>
       </c>
       <c r="H36" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>10294.45</v>
+        <v>11062.89</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59634</v>
+        <v>63731</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.890000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>1144.74</v>
+        <v>1283.76</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>141657584</v>
+        <v>139959609</v>
       </c>
       <c r="E38" t="n">
-        <v>141657584</v>
+        <v>139959609</v>
       </c>
       <c r="F38" t="n">
-        <v>302373.6180611274</v>
+        <v>267376.5696325147</v>
       </c>
       <c r="G38" t="n">
-        <v>261792.780299234</v>
+        <v>299468.5082063008</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>86817714</v>
+        <v>91096260</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65330391</v>
+        <v>64137406</v>
       </c>
       <c r="E39" t="n">
-        <v>335027647</v>
+        <v>328909776</v>
       </c>
       <c r="F39" t="n">
-        <v>85416.49508248962</v>
+        <v>92939.5657949172</v>
       </c>
       <c r="G39" t="n">
-        <v>78999.85629427091</v>
+        <v>81732.72509487397</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>27067749</v>
+        <v>25752095</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46405</v>
+        <v>46358</v>
       </c>
       <c r="E40" t="n">
-        <v>137136</v>
+        <v>136997</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>11.13</v>
+        <v>10.77</v>
       </c>
       <c r="I40" t="n">
-        <v>56</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49881</v>
+        <v>49612</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="I41" t="n">
-        <v>22401</v>
+        <v>22329</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>599300</v>
+        <v>596558</v>
       </c>
       <c r="F42" t="n">
-        <v>1853.406490391013</v>
+        <v>1887.253074984151</v>
       </c>
       <c r="G42" t="n">
-        <v>425.2432550560458</v>
+        <v>425.0663282118209</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1632.44</v>
+        <v>1231.54</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2631652</v>
+        <v>2625075</v>
       </c>
       <c r="E44" t="n">
-        <v>10576011</v>
+        <v>10549579</v>
       </c>
       <c r="F44" t="n">
-        <v>59.87147681387947</v>
+        <v>341.2617663725935</v>
       </c>
       <c r="G44" t="n">
-        <v>240.7497516170032</v>
+        <v>209.3728745842675</v>
       </c>
       <c r="H44" t="n">
-        <v>0.93</v>
+        <v>1.87</v>
       </c>
       <c r="I44" t="n">
-        <v>54959</v>
+        <v>55024</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18027394</v>
+        <v>17968888</v>
       </c>
       <c r="E45" t="n">
-        <v>126084165</v>
+        <v>125671818</v>
       </c>
       <c r="F45" t="n">
-        <v>672.5417520139592</v>
+        <v>188.6468882574303</v>
       </c>
       <c r="G45" t="n">
-        <v>160.1313858522324</v>
+        <v>286.2952936932556</v>
       </c>
       <c r="H45" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="I45" t="n">
-        <v>1069278</v>
+        <v>1135167</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>168764</v>
+        <v>168139</v>
       </c>
       <c r="E46" t="n">
-        <v>2258153</v>
+        <v>2249794</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>48178</v>
+        <v>47320</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="E47" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="F47" t="n">
-        <v>118831.7290713954</v>
+        <v>100725.4677287163</v>
       </c>
       <c r="G47" t="n">
-        <v>141398.0765247958</v>
+        <v>94754.09725747723</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>24032051</v>
+        <v>29445733</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>639739</v>
+        <v>637507</v>
       </c>
       <c r="E48" t="n">
-        <v>639739</v>
+        <v>637507</v>
       </c>
       <c r="F48" t="n">
-        <v>218.0840474233017</v>
+        <v>216.7025172562934</v>
       </c>
       <c r="G48" t="n">
-        <v>44.62734585411384</v>
+        <v>88.8560047587539</v>
       </c>
       <c r="H48" t="n">
-        <v>1.99</v>
+        <v>2.24</v>
       </c>
       <c r="I48" t="n">
-        <v>2707.06</v>
+        <v>2702.69</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>429663064</v>
+        <v>424078438</v>
       </c>
       <c r="E50" t="n">
-        <v>429607170</v>
+        <v>424078438</v>
       </c>
       <c r="F50" t="n">
-        <v>5556.640346953035</v>
+        <v>5106.107006449036</v>
       </c>
       <c r="G50" t="n">
-        <v>3377.942400932768</v>
+        <v>79279.08527381545</v>
       </c>
       <c r="H50" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I50" t="n">
-        <v>4025804</v>
+        <v>3895742</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2313780</v>
+        <v>2312374</v>
       </c>
       <c r="E51" t="n">
-        <v>2313780</v>
+        <v>2312374</v>
       </c>
       <c r="F51" t="n">
-        <v>171.3948571804611</v>
+        <v>308.1776966432374</v>
       </c>
       <c r="G51" t="n">
-        <v>73.64906262427961</v>
+        <v>2101.354854817256</v>
       </c>
       <c r="H51" t="n">
-        <v>3.81</v>
+        <v>3.66</v>
       </c>
       <c r="I51" t="n">
-        <v>104471</v>
+        <v>103508</v>
       </c>
     </row>
     <row r="52">
@@ -2237,22 +2237,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23302</v>
+        <v>23277</v>
       </c>
       <c r="E52" t="n">
-        <v>46605</v>
+        <v>46555</v>
       </c>
       <c r="F52" t="n">
-        <v>43.42047293300363</v>
+        <v>4.999188445475332</v>
       </c>
       <c r="G52" t="n">
-        <v>10.71461795590676</v>
+        <v>195.1423852620236</v>
       </c>
       <c r="H52" t="n">
-        <v>3.31</v>
+        <v>0.43</v>
       </c>
       <c r="I52" t="n">
-        <v>2865.2</v>
+        <v>2959.39</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>165394</v>
+        <v>165118</v>
       </c>
       <c r="F53" t="n">
-        <v>29.36917971432521</v>
+        <v>29.36617068167</v>
       </c>
       <c r="G53" t="n">
-        <v>50.6739442674964</v>
+        <v>50.66875244550638</v>
       </c>
       <c r="H53" t="n">
         <v>0.76</v>
       </c>
       <c r="I53" t="n">
-        <v>20980</v>
+        <v>20755</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2571832</v>
+        <v>2568785</v>
       </c>
       <c r="E54" t="n">
-        <v>6575112</v>
+        <v>6567322</v>
       </c>
       <c r="F54" t="n">
-        <v>82.20213716927334</v>
+        <v>204.373395399985</v>
       </c>
       <c r="G54" t="n">
-        <v>207.8050702891777</v>
+        <v>88.15060268965388</v>
       </c>
       <c r="H54" t="n">
-        <v>2.52</v>
+        <v>1.78</v>
       </c>
       <c r="I54" t="n">
-        <v>81022</v>
+        <v>80964</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3476.33</v>
+        <v>3468.3</v>
       </c>
       <c r="F55" t="n">
-        <v>7.756737745021636</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>8.103962794308623</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8</v>
+        <v>5.33</v>
       </c>
       <c r="I55" t="n">
-        <v>1604.28</v>
+        <v>1622.68</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64597337</v>
+        <v>62925270</v>
       </c>
       <c r="E56" t="n">
-        <v>64597337</v>
+        <v>62925270</v>
       </c>
       <c r="F56" t="n">
-        <v>3831.334156826993</v>
+        <v>3033.671103485913</v>
       </c>
       <c r="G56" t="n">
-        <v>6631.765430882565</v>
+        <v>5265.391804175604</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="I56" t="n">
-        <v>5520865</v>
+        <v>5673946</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3291808</v>
+        <v>3356595</v>
       </c>
       <c r="E57" t="n">
-        <v>4171296</v>
+        <v>4253392</v>
       </c>
       <c r="F57" t="n">
-        <v>279.758216439719</v>
+        <v>271.3007789436583</v>
       </c>
       <c r="G57" t="n">
-        <v>913.8603487167409</v>
+        <v>165.8166836274158</v>
       </c>
       <c r="H57" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>191782</v>
+        <v>194029</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4104713</v>
+        <v>4189624</v>
       </c>
       <c r="E58" t="n">
-        <v>8094840</v>
+        <v>8262292</v>
       </c>
       <c r="F58" t="n">
-        <v>963.9439938124424</v>
+        <v>3878.755844252583</v>
       </c>
       <c r="G58" t="n">
-        <v>15207.85392327247</v>
+        <v>2201.457925336739</v>
       </c>
       <c r="H58" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="I58" t="n">
-        <v>1647453</v>
+        <v>1675686</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1593207</v>
+        <v>1591726</v>
       </c>
       <c r="E59" t="n">
-        <v>9147600</v>
+        <v>9139094</v>
       </c>
       <c r="F59" t="n">
-        <v>178.5850162499841</v>
+        <v>258.2738321783248</v>
       </c>
       <c r="G59" t="n">
-        <v>598.43497508384</v>
+        <v>840.4958476709323</v>
       </c>
       <c r="H59" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
       <c r="I59" t="n">
-        <v>243196</v>
+        <v>243442</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>591863</v>
+        <v>605364</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>13.7</v>
       </c>
       <c r="I60" t="n">
-        <v>5494.23</v>
+        <v>5566.78</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31217637</v>
+        <v>31146547</v>
       </c>
       <c r="F61" t="n">
-        <v>506.0794373749388</v>
+        <v>690.5169700500339</v>
       </c>
       <c r="G61" t="n">
-        <v>1700.301632205391</v>
+        <v>1716.219646039103</v>
       </c>
       <c r="H61" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I61" t="n">
-        <v>235197</v>
+        <v>235369</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1453190</v>
+        <v>1442069</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.82</v>
+        <v>5.96</v>
       </c>
       <c r="I62" t="n">
-        <v>8917.15</v>
+        <v>8857.34</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17406111</v>
+        <v>17385235</v>
       </c>
       <c r="E63" t="n">
-        <v>18345632</v>
+        <v>18323629</v>
       </c>
       <c r="F63" t="n">
-        <v>1107.72461442472</v>
+        <v>1129.593238427649</v>
       </c>
       <c r="G63" t="n">
-        <v>1862.142631080761</v>
+        <v>1860.098318105679</v>
       </c>
       <c r="H63" t="n">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="I63" t="n">
-        <v>42514</v>
+        <v>42282</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2956233</v>
+        <v>2940755</v>
       </c>
       <c r="E64" t="n">
-        <v>2956233</v>
+        <v>2940755</v>
       </c>
       <c r="F64" t="n">
-        <v>105.0393192003751</v>
+        <v>114.6019374876339</v>
       </c>
       <c r="G64" t="n">
-        <v>4.944594346084716</v>
+        <v>0.9447405996574476</v>
       </c>
       <c r="H64" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="I64" t="n">
-        <v>16409.09</v>
+        <v>13458.62</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3359852</v>
+        <v>3335904</v>
       </c>
       <c r="E65" t="n">
-        <v>8290264</v>
+        <v>8231174</v>
       </c>
       <c r="F65" t="n">
-        <v>860.5710560725257</v>
+        <v>580.0807864570144</v>
       </c>
       <c r="G65" t="n">
-        <v>1229.253392084543</v>
+        <v>1154.984826003853</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9</v>
+        <v>0.29</v>
       </c>
       <c r="I65" t="n">
-        <v>45052</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>249189</v>
+        <v>245970</v>
       </c>
       <c r="F66" t="n">
-        <v>23.93288926525225</v>
+        <v>22.83629081210507</v>
       </c>
       <c r="G66" t="n">
-        <v>85.75194932023574</v>
+        <v>85.74316356529593</v>
       </c>
       <c r="H66" t="n">
         <v>3.57</v>
       </c>
       <c r="I66" t="n">
-        <v>3512.09</v>
+        <v>3503.89</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>86265425</v>
+        <v>83475223</v>
       </c>
       <c r="E67" t="n">
-        <v>179856483</v>
+        <v>174039136</v>
       </c>
       <c r="F67" t="n">
-        <v>50053.74922154854</v>
+        <v>31504.63657267698</v>
       </c>
       <c r="G67" t="n">
-        <v>90505.9738644055</v>
+        <v>84881.88505836729</v>
       </c>
       <c r="H67" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I67" t="n">
-        <v>68521696</v>
+        <v>68922175</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1780467</v>
+        <v>1778661</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.81</v>
       </c>
       <c r="I68" t="n">
-        <v>3856.49</v>
+        <v>3804.21</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>198258585</v>
+        <v>192091601</v>
       </c>
       <c r="F69" t="n">
-        <v>4301.777487866317</v>
+        <v>5171.627228503233</v>
       </c>
       <c r="G69" t="n">
-        <v>3122.014785464653</v>
+        <v>6072.704734656257</v>
       </c>
       <c r="H69" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="I69" t="n">
-        <v>3127389</v>
+        <v>2994873</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>187830</v>
+        <v>186964</v>
       </c>
       <c r="E70" t="n">
-        <v>196148</v>
+        <v>195243</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>200.68</v>
+        <v>192.37</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>140358157</v>
+        <v>139742972</v>
       </c>
       <c r="E71" t="n">
-        <v>140414333</v>
+        <v>139799485</v>
       </c>
       <c r="F71" t="n">
-        <v>24100.54491200277</v>
+        <v>28442.70142774662</v>
       </c>
       <c r="G71" t="n">
-        <v>30689.0146000916</v>
+        <v>27407.32786243681</v>
       </c>
       <c r="H71" t="n">
-        <v>0.35</v>
+        <v>0.14</v>
       </c>
       <c r="I71" t="n">
-        <v>3187317</v>
+        <v>3179935</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25605849</v>
+        <v>25447204</v>
       </c>
       <c r="E72" t="n">
-        <v>84033503</v>
+        <v>83512861</v>
       </c>
       <c r="F72" t="n">
-        <v>4970.617889628561</v>
+        <v>6003.072173017231</v>
       </c>
       <c r="G72" t="n">
-        <v>32580.19848338246</v>
+        <v>31558.37434505901</v>
       </c>
       <c r="H72" t="n">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
       <c r="I72" t="n">
-        <v>111642</v>
+        <v>117193</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113496</v>
+        <v>113340</v>
       </c>
       <c r="E73" t="n">
-        <v>113496</v>
+        <v>113340</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>5.32</v>
+        <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1386.51</v>
+        <v>1337.35</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>200881953</v>
+        <v>197870879</v>
       </c>
       <c r="E74" t="n">
-        <v>697882060</v>
+        <v>687421316</v>
       </c>
       <c r="F74" t="n">
-        <v>91422.14892132168</v>
+        <v>104200.5710619652</v>
       </c>
       <c r="G74" t="n">
-        <v>135995.0955611178</v>
+        <v>131719.3207401071</v>
       </c>
       <c r="H74" t="n">
         <v>0.04</v>
       </c>
       <c r="I74" t="n">
-        <v>38937962</v>
+        <v>44104693</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3448223</v>
+        <v>3355593</v>
       </c>
       <c r="E75" t="n">
-        <v>3448223</v>
+        <v>3355593</v>
       </c>
       <c r="F75" t="n">
-        <v>718.5535504414024</v>
+        <v>712.5285265630525</v>
       </c>
       <c r="G75" t="n">
-        <v>998.3374548737472</v>
+        <v>1005.158484103348</v>
       </c>
       <c r="H75" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I75" t="n">
-        <v>2520557</v>
+        <v>2489111</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>111317355</v>
+        <v>109839762</v>
       </c>
       <c r="E76" t="n">
-        <v>472315406</v>
+        <v>466013625</v>
       </c>
       <c r="F76" t="n">
-        <v>159349.2145535938</v>
+        <v>146293.3110312562</v>
       </c>
       <c r="G76" t="n">
-        <v>104338.7912545479</v>
+        <v>130398.6500734374</v>
       </c>
       <c r="H76" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="I76" t="n">
-        <v>15259745</v>
+        <v>14954737</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1825997</v>
+        <v>1821699</v>
       </c>
       <c r="F77" t="n">
-        <v>21.32453516993997</v>
+        <v>35.47312370074297</v>
       </c>
       <c r="G77" t="n">
-        <v>20.7613186773016</v>
+        <v>25.76240954436249</v>
       </c>
       <c r="H77" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I77" t="n">
-        <v>505.37</v>
+        <v>504.2</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3222989</v>
+        <v>3217929</v>
       </c>
       <c r="E78" t="n">
-        <v>16159419</v>
+        <v>16134049</v>
       </c>
       <c r="F78" t="n">
-        <v>40.43792787225961</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>911.552611430124</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="I78" t="n">
-        <v>29168</v>
+        <v>30681</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>524931</v>
+        <v>519529</v>
       </c>
       <c r="E79" t="n">
-        <v>8978913</v>
+        <v>8886511</v>
       </c>
       <c r="F79" t="n">
-        <v>108.0367981173582</v>
+        <v>2.935370530505057</v>
       </c>
       <c r="G79" t="n">
-        <v>460.73431048856</v>
+        <v>501.9719611855354</v>
       </c>
       <c r="H79" t="n">
-        <v>2.46</v>
+        <v>2.81</v>
       </c>
       <c r="I79" t="n">
-        <v>149874</v>
+        <v>137338</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5793968</v>
+        <v>5673580</v>
       </c>
       <c r="E80" t="n">
-        <v>7863477</v>
+        <v>7700087</v>
       </c>
       <c r="F80" t="n">
-        <v>323.2546471668033</v>
+        <v>340.7783246448795</v>
       </c>
       <c r="G80" t="n">
-        <v>1564.490818406384</v>
+        <v>1240.470832610879</v>
       </c>
       <c r="H80" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>5153406</v>
+        <v>5081901</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41793</v>
+        <v>41462</v>
       </c>
       <c r="F81" t="n">
-        <v>237.6233653137457</v>
+        <v>233.863286699318</v>
       </c>
       <c r="G81" t="n">
-        <v>130.3000172370276</v>
+        <v>142.5569161540641</v>
       </c>
       <c r="H81" t="n">
         <v>1.01</v>
       </c>
       <c r="I81" t="n">
-        <v>38986</v>
+        <v>38488</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41006949</v>
+        <v>40452159</v>
       </c>
       <c r="E82" t="n">
-        <v>47895143</v>
+        <v>47247161</v>
       </c>
       <c r="F82" t="n">
-        <v>4.435560640716708</v>
+        <v>462.2964182217025</v>
       </c>
       <c r="G82" t="n">
-        <v>120.3081661009419</v>
+        <v>224.1349333061393</v>
       </c>
       <c r="H82" t="n">
-        <v>2.75</v>
+        <v>2.02</v>
       </c>
       <c r="I82" t="n">
-        <v>950733</v>
+        <v>963266</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14507003</v>
+        <v>14427419</v>
       </c>
       <c r="F83" t="n">
-        <v>320.3980942616479</v>
+        <v>357.6591156140242</v>
       </c>
       <c r="G83" t="n">
-        <v>442.8643999230791</v>
+        <v>361.4183667221917</v>
       </c>
       <c r="H83" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="I83" t="n">
-        <v>226642</v>
+        <v>224251</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35377696</v>
+        <v>35617883</v>
       </c>
       <c r="E84" t="n">
-        <v>35377696</v>
+        <v>35617883</v>
       </c>
       <c r="F84" t="n">
-        <v>601.6125597118624</v>
+        <v>410.4000251968779</v>
       </c>
       <c r="G84" t="n">
-        <v>231.4318530542814</v>
+        <v>494.5871788437836</v>
       </c>
       <c r="H84" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="I84" t="n">
-        <v>864191</v>
+        <v>865507</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>564750</v>
+        <v>552441</v>
       </c>
       <c r="E85" t="n">
-        <v>6849866</v>
+        <v>6700576</v>
       </c>
       <c r="F85" t="n">
-        <v>520.587013136035</v>
+        <v>429.286869233386</v>
       </c>
       <c r="G85" t="n">
-        <v>561.6748776109108</v>
+        <v>409.3602936361581</v>
       </c>
       <c r="H85" t="n">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="I85" t="n">
-        <v>2838564</v>
+        <v>2832017</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25164598</v>
+        <v>24725399</v>
       </c>
       <c r="E86" t="n">
-        <v>35561634</v>
+        <v>34940976</v>
       </c>
       <c r="F86" t="n">
-        <v>35.22055012170687</v>
+        <v>57.89941476402828</v>
       </c>
       <c r="G86" t="n">
-        <v>362.4896087341496</v>
+        <v>382.4131926709678</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I86" t="n">
-        <v>113403</v>
+        <v>116381</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1417916499</v>
+        <v>1377469078</v>
       </c>
       <c r="E87" t="n">
-        <v>6799199995</v>
+        <v>6605246329</v>
       </c>
       <c r="F87" t="n">
-        <v>400728.398020381</v>
+        <v>475296.9070166952</v>
       </c>
       <c r="G87" t="n">
-        <v>428891.5361058448</v>
+        <v>656476.0906603213</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>451087979</v>
+        <v>459265484</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>262927043</v>
+        <v>259129831</v>
       </c>
       <c r="E88" t="n">
-        <v>1134939079</v>
+        <v>1118548204</v>
       </c>
       <c r="F88" t="n">
-        <v>954131.7577518142</v>
+        <v>922239.5223484696</v>
       </c>
       <c r="G88" t="n">
-        <v>827958.3998276741</v>
+        <v>872689.685567515</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I88" t="n">
-        <v>135676159</v>
+        <v>137426146</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>113351629</v>
+        <v>112592611</v>
       </c>
       <c r="E89" t="n">
-        <v>113351629</v>
+        <v>112592611</v>
       </c>
       <c r="F89" t="n">
-        <v>28156.43388675676</v>
+        <v>43270.09833334103</v>
       </c>
       <c r="G89" t="n">
-        <v>19674.20575612692</v>
+        <v>20169.72906673423</v>
       </c>
       <c r="H89" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="I89" t="n">
-        <v>6860865</v>
+        <v>6894912</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3809157</v>
+        <v>3791514</v>
       </c>
       <c r="E90" t="n">
-        <v>29642399</v>
+        <v>29505104</v>
       </c>
       <c r="F90" t="n">
-        <v>2559.733078581239</v>
+        <v>2699.710457698389</v>
       </c>
       <c r="G90" t="n">
-        <v>2927.732401140222</v>
+        <v>2439.754403651388</v>
       </c>
       <c r="H90" t="n">
         <v>0.03</v>
       </c>
       <c r="I90" t="n">
-        <v>22679</v>
+        <v>23288</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3787033</v>
+        <v>3767596</v>
       </c>
       <c r="F91" t="n">
-        <v>318.7572755053504</v>
+        <v>279.2372256692191</v>
       </c>
       <c r="G91" t="n">
-        <v>124.7387703482887</v>
+        <v>351.7165735977489</v>
       </c>
       <c r="H91" t="n">
-        <v>1.98</v>
+        <v>2.27</v>
       </c>
       <c r="I91" t="n">
-        <v>382105</v>
+        <v>378500</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>913240</v>
+        <v>849360</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>89.61136512861992</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>393.694048071941</v>
       </c>
       <c r="H92" t="n">
-        <v>4.68</v>
+        <v>2.3</v>
       </c>
       <c r="I92" t="n">
-        <v>9572.16</v>
+        <v>9768.809999999999</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>127083</v>
+        <v>125553</v>
       </c>
       <c r="F93" t="n">
-        <v>185.4349302165646</v>
+        <v>94.99554652801925</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01000336131916991</v>
+        <v>3.085512759410766</v>
       </c>
       <c r="H93" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="I93" t="n">
-        <v>127898</v>
+        <v>128534</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10448783</v>
+        <v>10323144</v>
       </c>
       <c r="E94" t="n">
-        <v>125805913</v>
+        <v>124293199</v>
       </c>
       <c r="F94" t="n">
-        <v>1494.903406317985</v>
+        <v>1372.163779305023</v>
       </c>
       <c r="G94" t="n">
-        <v>1779.416325885512</v>
+        <v>299.6399244321103</v>
       </c>
       <c r="H94" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>481257</v>
+        <v>486365</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15832649</v>
+        <v>15508286</v>
       </c>
       <c r="E95" t="n">
-        <v>39581624</v>
+        <v>38770716</v>
       </c>
       <c r="F95" t="n">
-        <v>5902.555024466418</v>
+        <v>6562.200498468791</v>
       </c>
       <c r="G95" t="n">
-        <v>6060.702017660516</v>
+        <v>6910.611345652219</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>4445717</v>
+        <v>4593926</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2296677</v>
+        <v>2299539</v>
       </c>
       <c r="F96" t="n">
-        <v>173.7360982478648</v>
+        <v>173.2255390216286</v>
       </c>
       <c r="G96" t="n">
-        <v>125.7471462890395</v>
+        <v>136.3478720064284</v>
       </c>
       <c r="H96" t="n">
-        <v>2.93</v>
+        <v>2.1</v>
       </c>
       <c r="I96" t="n">
-        <v>37328</v>
+        <v>37470</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19711311</v>
+        <v>19598208</v>
       </c>
       <c r="F97" t="n">
-        <v>594.3366382609636</v>
+        <v>377.2694955961406</v>
       </c>
       <c r="G97" t="n">
-        <v>1321.317238150595</v>
+        <v>1401.668876936063</v>
       </c>
       <c r="H97" t="n">
-        <v>0.51</v>
+        <v>1.02</v>
       </c>
       <c r="I97" t="n">
-        <v>73635</v>
+        <v>73680</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4265783</v>
+        <v>4189837</v>
       </c>
       <c r="E98" t="n">
-        <v>12286861</v>
+        <v>12068110</v>
       </c>
       <c r="F98" t="n">
-        <v>104.5434078896585</v>
+        <v>131.1334284151793</v>
       </c>
       <c r="G98" t="n">
-        <v>456.6397248411834</v>
+        <v>738.9489590670946</v>
       </c>
       <c r="H98" t="n">
-        <v>2.19</v>
+        <v>1.81</v>
       </c>
       <c r="I98" t="n">
-        <v>516006</v>
+        <v>504753</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1451481</v>
+        <v>1529748</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>689.6348114420645</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>105.0408057710241</v>
       </c>
       <c r="H99" t="n">
-        <v>6.15</v>
+        <v>0.68</v>
       </c>
       <c r="I99" t="n">
-        <v>268517</v>
+        <v>270229</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>79156016</v>
+        <v>78708570</v>
       </c>
       <c r="E100" t="n">
-        <v>100732182</v>
+        <v>100162773</v>
       </c>
       <c r="F100" t="n">
-        <v>8151.490586466924</v>
+        <v>9805.334925632367</v>
       </c>
       <c r="G100" t="n">
-        <v>5954.777493577853</v>
+        <v>9440.404600941376</v>
       </c>
       <c r="H100" t="n">
-        <v>0.38</v>
+        <v>0.98</v>
       </c>
       <c r="I100" t="n">
-        <v>7362236</v>
+        <v>6445887</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22318262</v>
+        <v>22141466</v>
       </c>
       <c r="E101" t="n">
-        <v>28951892</v>
+        <v>28722547</v>
       </c>
       <c r="F101" t="n">
-        <v>2786.737400534252</v>
+        <v>6270.906670407889</v>
       </c>
       <c r="G101" t="n">
-        <v>3004.416594877187</v>
+        <v>7238.597134342192</v>
       </c>
       <c r="H101" t="n">
-        <v>0.58</v>
+        <v>0.45</v>
       </c>
       <c r="I101" t="n">
-        <v>188446</v>
+        <v>210612</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1585877</v>
+        <v>1559992</v>
       </c>
       <c r="F102" t="n">
-        <v>65.92844121687862</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>7.595230440905311</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>3.77</v>
+        <v>4.4</v>
       </c>
       <c r="I102" t="n">
-        <v>8537.15</v>
+        <v>8245.860000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>627894</v>
+        <v>625614</v>
       </c>
       <c r="E103" t="n">
-        <v>627894</v>
+        <v>625614</v>
       </c>
       <c r="F103" t="n">
-        <v>278.8311903188471</v>
+        <v>417.3109670520617</v>
       </c>
       <c r="G103" t="n">
-        <v>23.3484273182411</v>
+        <v>23.48753078748889</v>
       </c>
       <c r="H103" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="I103" t="n">
-        <v>72566</v>
+        <v>70717</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40968937</v>
+        <v>40707939</v>
       </c>
       <c r="E104" t="n">
-        <v>42827189</v>
+        <v>42554352</v>
       </c>
       <c r="F104" t="n">
-        <v>375.6775174646337</v>
+        <v>793.532136822884</v>
       </c>
       <c r="G104" t="n">
-        <v>4326.807218387851</v>
+        <v>4262.801795794046</v>
       </c>
       <c r="H104" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I104" t="n">
-        <v>761837</v>
+        <v>723845</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13442480</v>
+        <v>13581896</v>
       </c>
       <c r="E105" t="n">
-        <v>13442480</v>
+        <v>13581896</v>
       </c>
       <c r="F105" t="n">
-        <v>2837.65686204804</v>
+        <v>2806.611124888375</v>
       </c>
       <c r="G105" t="n">
-        <v>3456.951404989169</v>
+        <v>2351.648697552897</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I105" t="n">
-        <v>5391438</v>
+        <v>5420491</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1112396</v>
+        <v>1159210</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.09</v>
+        <v>5.18</v>
       </c>
       <c r="I106" t="n">
-        <v>5704.72</v>
+        <v>4502.9</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50439597</v>
+        <v>50451664</v>
       </c>
       <c r="E107" t="n">
-        <v>128497757</v>
+        <v>128528499</v>
       </c>
       <c r="F107" t="n">
-        <v>2404.824626637034</v>
+        <v>2094.816506477314</v>
       </c>
       <c r="G107" t="n">
-        <v>4112.968304611934</v>
+        <v>4855.161696704574</v>
       </c>
       <c r="H107" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="I107" t="n">
-        <v>2190386</v>
+        <v>2154654</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14153175</v>
+        <v>13920821</v>
       </c>
       <c r="E108" t="n">
-        <v>68546086</v>
+        <v>67420756</v>
       </c>
       <c r="F108" t="n">
-        <v>3115.633154692276</v>
+        <v>3068.031691938533</v>
       </c>
       <c r="G108" t="n">
-        <v>2340.64236231502</v>
+        <v>4418.365279721364</v>
       </c>
       <c r="H108" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="I108" t="n">
-        <v>5332544</v>
+        <v>5258323</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>635575</v>
+        <v>625709</v>
       </c>
       <c r="F109" t="n">
-        <v>122.4128743525336</v>
+        <v>5.660262819249104</v>
       </c>
       <c r="G109" t="n">
-        <v>5.624548463413686</v>
+        <v>49.55214485300802</v>
       </c>
       <c r="H109" t="n">
-        <v>3.81</v>
+        <v>1.42</v>
       </c>
       <c r="I109" t="n">
-        <v>7770.81</v>
+        <v>8711.209999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4524622</v>
+        <v>4499704</v>
       </c>
       <c r="E110" t="n">
-        <v>10313675</v>
+        <v>10256877</v>
       </c>
       <c r="F110" t="n">
-        <v>1174.264532555949</v>
+        <v>1169.2537615695</v>
       </c>
       <c r="G110" t="n">
-        <v>1047.162135975883</v>
+        <v>1047.054848503331</v>
       </c>
       <c r="H110" t="n">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="I110" t="n">
-        <v>65424</v>
+        <v>64990</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1861621257</v>
+        <v>1850051461</v>
       </c>
       <c r="F111" t="n">
-        <v>57582.53113362796</v>
+        <v>67311.95198682828</v>
       </c>
       <c r="G111" t="n">
-        <v>44716.07994573922</v>
+        <v>31035.37775733433</v>
       </c>
       <c r="H111" t="n">
-        <v>0.59</v>
+        <v>0.09</v>
       </c>
       <c r="I111" t="n">
-        <v>29997996</v>
+        <v>30137426</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9345571</v>
+        <v>9381052</v>
       </c>
       <c r="E112" t="n">
-        <v>34002788</v>
+        <v>34131700</v>
       </c>
       <c r="F112" t="n">
-        <v>527.3135578287224</v>
+        <v>504.3888755718684</v>
       </c>
       <c r="G112" t="n">
-        <v>685.8023419702363</v>
+        <v>5972.141705652279</v>
       </c>
       <c r="H112" t="n">
-        <v>1.16</v>
+        <v>0.29</v>
       </c>
       <c r="I112" t="n">
-        <v>118617</v>
+        <v>118293</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>627330</v>
+        <v>620150</v>
       </c>
       <c r="F113" t="n">
-        <v>6.682944809344952</v>
+        <v>6.682260105197273</v>
       </c>
       <c r="G113" t="n">
-        <v>55.23907184389552</v>
+        <v>20.35519580357401</v>
       </c>
       <c r="H113" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I113" t="n">
-        <v>887</v>
+        <v>892.17</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12267301</v>
+        <v>12292363</v>
       </c>
       <c r="E114" t="n">
-        <v>17785817</v>
+        <v>17822153</v>
       </c>
       <c r="F114" t="n">
-        <v>3033.981241393222</v>
+        <v>3234.84108742891</v>
       </c>
       <c r="G114" t="n">
-        <v>3048.111454728692</v>
+        <v>5688.247126434927</v>
       </c>
       <c r="H114" t="n">
-        <v>0.72</v>
+        <v>0.33</v>
       </c>
       <c r="I114" t="n">
-        <v>2024897</v>
+        <v>2047460</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1928933</v>
+        <v>1937770</v>
       </c>
       <c r="E115" t="n">
-        <v>13832189</v>
+        <v>13895552</v>
       </c>
       <c r="F115" t="n">
-        <v>775.3109521163453</v>
+        <v>809.5196192339198</v>
       </c>
       <c r="G115" t="n">
-        <v>731.1659886026295</v>
+        <v>1055.981046302448</v>
       </c>
       <c r="H115" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="I115" t="n">
-        <v>2033701</v>
+        <v>2046715</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2708455</v>
+        <v>2697737</v>
       </c>
       <c r="E116" t="n">
-        <v>5475033</v>
+        <v>5453366</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5485.76</v>
+        <v>5364.68</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>194658457</v>
+        <v>191785265</v>
       </c>
       <c r="E117" t="n">
-        <v>1102275793</v>
+        <v>1086006011</v>
       </c>
       <c r="F117" t="n">
-        <v>153275.570288757</v>
+        <v>261452.3816660091</v>
       </c>
       <c r="G117" t="n">
-        <v>300168.2404709668</v>
+        <v>279440.747993465</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>83363945</v>
+        <v>83874767</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>658941</v>
+        <v>656936</v>
       </c>
       <c r="E118" t="n">
-        <v>2184951</v>
+        <v>2178305</v>
       </c>
       <c r="F118" t="n">
-        <v>6335.938437970536</v>
+        <v>5266.193131561004</v>
       </c>
       <c r="G118" t="n">
-        <v>8214.381421478356</v>
+        <v>6966.029285569371</v>
       </c>
       <c r="H118" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I118" t="n">
-        <v>4724.85</v>
+        <v>4769.51</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2712067</v>
+        <v>2697093</v>
       </c>
       <c r="E119" t="n">
-        <v>9602284</v>
+        <v>9549267</v>
       </c>
       <c r="F119" t="n">
-        <v>21.91320053951484</v>
+        <v>303.3418765310558</v>
       </c>
       <c r="G119" t="n">
-        <v>424.9753920870996</v>
+        <v>409.2807075345782</v>
       </c>
       <c r="H119" t="n">
-        <v>1.67</v>
+        <v>0.43</v>
       </c>
       <c r="I119" t="n">
-        <v>22728</v>
+        <v>22864</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1040771</v>
+        <v>1029460</v>
       </c>
       <c r="E120" t="n">
-        <v>1040771</v>
+        <v>1029460</v>
       </c>
       <c r="F120" t="n">
-        <v>108.5670854989646</v>
+        <v>108.7658428188196</v>
       </c>
       <c r="G120" t="n">
-        <v>19.1936767055031</v>
+        <v>8.150676981694625e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="I120" t="n">
-        <v>5680.17</v>
+        <v>5654.79</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>493483</v>
+        <v>495720</v>
       </c>
       <c r="E121" t="n">
-        <v>1660995</v>
+        <v>1668524</v>
       </c>
       <c r="F121" t="n">
-        <v>354.2959064105693</v>
+        <v>346.7150571241592</v>
       </c>
       <c r="G121" t="n">
-        <v>428.7930426884755</v>
+        <v>347.9979643625905</v>
       </c>
       <c r="H121" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="I121" t="n">
-        <v>635344</v>
+        <v>225523</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>458944</v>
+        <v>458501</v>
       </c>
       <c r="E122" t="n">
-        <v>851430</v>
+        <v>850607</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>10.87</v>
+        <v>6.74</v>
       </c>
       <c r="I122" t="n">
-        <v>223955</v>
+        <v>232499</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9462483</v>
+        <v>9752844</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>6.52</v>
+        <v>7.13</v>
       </c>
       <c r="I123" t="n">
-        <v>16600.52</v>
+        <v>17019.99</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1193874</v>
+        <v>1204542</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>6.44</v>
+        <v>5.91</v>
       </c>
       <c r="I124" t="n">
-        <v>4894.11</v>
+        <v>5313.93</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3424859</v>
+        <v>3422630</v>
       </c>
       <c r="E125" t="n">
-        <v>7997616</v>
+        <v>7992412</v>
       </c>
       <c r="F125" t="n">
-        <v>1523.083186968911</v>
+        <v>1458.328847686707</v>
       </c>
       <c r="G125" t="n">
-        <v>2304.853787888413</v>
+        <v>1650.962621062741</v>
       </c>
       <c r="H125" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="I125" t="n">
-        <v>626054</v>
+        <v>641692</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246587</v>
+        <v>249152</v>
       </c>
       <c r="E126" t="n">
-        <v>2176318</v>
+        <v>2198951</v>
       </c>
       <c r="F126" t="n">
-        <v>51.48277072156286</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>347.5635893708202</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>3.13</v>
+        <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>68311</v>
+        <v>67116</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>628912</v>
+        <v>627243</v>
       </c>
       <c r="F127" t="n">
-        <v>553.3240042836956</v>
+        <v>553.2673132213641</v>
       </c>
       <c r="G127" t="n">
-        <v>699.4825749904963</v>
+        <v>700.3533062154436</v>
       </c>
       <c r="H127" t="n">
         <v>1.96</v>
       </c>
       <c r="I127" t="n">
-        <v>12465.68</v>
+        <v>12444.51</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4777321</v>
+        <v>4800159</v>
       </c>
       <c r="E128" t="n">
-        <v>16878261</v>
+        <v>16958948</v>
       </c>
       <c r="F128" t="n">
-        <v>2076.784691859963</v>
+        <v>1701.091010320028</v>
       </c>
       <c r="G128" t="n">
-        <v>1391.673635663295</v>
+        <v>1429.80183579274</v>
       </c>
       <c r="H128" t="n">
-        <v>0.29</v>
+        <v>0.7</v>
       </c>
       <c r="I128" t="n">
-        <v>132803</v>
+        <v>134942</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2158566</v>
+        <v>2096422</v>
       </c>
       <c r="F129" t="n">
-        <v>66.64888558974815</v>
+        <v>66.18561829704615</v>
       </c>
       <c r="G129" t="n">
-        <v>81.25282506367216</v>
+        <v>219.0963407807363</v>
       </c>
       <c r="H129" t="n">
-        <v>1.08</v>
+        <v>0.05</v>
       </c>
       <c r="I129" t="n">
-        <v>5047.73</v>
+        <v>4884.47</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2513138</v>
+        <v>2476283</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2517.65</v>
+        <v>2519.81</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>80132</v>
+        <v>79671</v>
       </c>
       <c r="E131" t="n">
-        <v>80132</v>
+        <v>79671</v>
       </c>
       <c r="F131" t="n">
-        <v>12.84883382342766</v>
+        <v>12.84667032781402</v>
       </c>
       <c r="G131" t="n">
-        <v>5.244065553342027</v>
+        <v>34.31667331582872</v>
       </c>
       <c r="H131" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="I131" t="n">
-        <v>21951</v>
+        <v>21924</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4264967</v>
+        <v>4256508</v>
       </c>
       <c r="F132" t="n">
-        <v>311.7254451760943</v>
+        <v>493.1824996113886</v>
       </c>
       <c r="G132" t="n">
-        <v>976.9412483731905</v>
+        <v>348.5179208932199</v>
       </c>
       <c r="H132" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I132" t="n">
-        <v>297039</v>
+        <v>296446</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2108764</v>
+        <v>2100159</v>
       </c>
       <c r="E133" t="n">
-        <v>8611646</v>
+        <v>8576507</v>
       </c>
       <c r="F133" t="n">
-        <v>490.184260068973</v>
+        <v>453.338549663386</v>
       </c>
       <c r="G133" t="n">
-        <v>465.9767157412676</v>
+        <v>619.6876741649719</v>
       </c>
       <c r="H133" t="n">
-        <v>0.14</v>
+        <v>0.95</v>
       </c>
       <c r="I133" t="n">
-        <v>451903</v>
+        <v>452337</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7397267</v>
+        <v>7264025</v>
       </c>
       <c r="E134" t="n">
-        <v>7452253</v>
+        <v>7318021</v>
       </c>
       <c r="F134" t="n">
-        <v>298552.0136433194</v>
+        <v>270222.2422180349</v>
       </c>
       <c r="G134" t="n">
-        <v>351681.9464950639</v>
+        <v>356080.563440464</v>
       </c>
       <c r="H134" t="n">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="I134" t="n">
-        <v>5753731</v>
+        <v>5813342</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13672429</v>
+        <v>13583435</v>
       </c>
       <c r="E135" t="n">
-        <v>13718958</v>
+        <v>13629661</v>
       </c>
       <c r="F135" t="n">
-        <v>17677.09485769449</v>
+        <v>17088.81754155089</v>
       </c>
       <c r="G135" t="n">
-        <v>13144.46507001881</v>
+        <v>9199.849800738872</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>6073762</v>
+        <v>6191975</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42617679</v>
+        <v>42465573</v>
       </c>
       <c r="E136" t="n">
-        <v>72354904</v>
+        <v>72096663</v>
       </c>
       <c r="F136" t="n">
-        <v>663.8993234757302</v>
+        <v>882.5064661151938</v>
       </c>
       <c r="G136" t="n">
-        <v>415.5862155002227</v>
+        <v>803.1175703848171</v>
       </c>
       <c r="H136" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I136" t="n">
-        <v>1330773</v>
+        <v>1134348</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19827537</v>
+        <v>19400083</v>
       </c>
       <c r="E137" t="n">
-        <v>59443415</v>
+        <v>58164952</v>
       </c>
       <c r="F137" t="n">
-        <v>2038.809356306561</v>
+        <v>39018.39524778377</v>
       </c>
       <c r="G137" t="n">
-        <v>8874.384871114213</v>
+        <v>22644.66941520003</v>
       </c>
       <c r="H137" t="n">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>4305348</v>
+        <v>4362698</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>100851818</v>
+        <v>97824297</v>
       </c>
       <c r="E138" t="n">
-        <v>107214597</v>
+        <v>103996068</v>
       </c>
       <c r="F138" t="n">
-        <v>5839.728505425806</v>
+        <v>5480.607250450237</v>
       </c>
       <c r="G138" t="n">
-        <v>4747.428908235176</v>
+        <v>5177.798637459816</v>
       </c>
       <c r="H138" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I138" t="n">
-        <v>1801734</v>
+        <v>1811068</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1386764</v>
+        <v>1385383</v>
       </c>
       <c r="F139" t="n">
-        <v>505.8860848656933</v>
+        <v>505.8342540769553</v>
       </c>
       <c r="G139" t="n">
-        <v>7.664575205762169</v>
+        <v>7.663789928226098</v>
       </c>
       <c r="H139" t="n">
         <v>1.88</v>
       </c>
       <c r="I139" t="n">
-        <v>1908.42</v>
+        <v>1910.75</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>239253</v>
+        <v>239010</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.03</v>
+        <v>10.93</v>
       </c>
       <c r="I140" t="n">
-        <v>39.85</v>
+        <v>39.86</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>76768</v>
+        <v>74003</v>
       </c>
       <c r="E141" t="n">
-        <v>217774</v>
+        <v>209929</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>383.42</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47420313</v>
+        <v>47442246</v>
       </c>
       <c r="E142" t="n">
-        <v>204281523</v>
+        <v>204376006</v>
       </c>
       <c r="F142" t="n">
-        <v>41788.8339522782</v>
+        <v>47912.23414069889</v>
       </c>
       <c r="G142" t="n">
-        <v>46646.58576771175</v>
+        <v>56211.65281363457</v>
       </c>
       <c r="H142" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>11865305</v>
+        <v>12074901</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>272175</v>
+        <v>271451</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>8.59</v>
       </c>
       <c r="I143" t="n">
-        <v>7615.84</v>
+        <v>7623.69</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9619107</v>
+        <v>9651381</v>
       </c>
       <c r="F144" t="n">
-        <v>965.1757209660773</v>
+        <v>925.1835662061197</v>
       </c>
       <c r="G144" t="n">
-        <v>396.2614094405625</v>
+        <v>672.7291281334454</v>
       </c>
       <c r="H144" t="n">
         <v>0.99</v>
       </c>
       <c r="I144" t="n">
-        <v>110255</v>
+        <v>110442</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1175231</v>
+        <v>1170199</v>
       </c>
       <c r="E145" t="n">
-        <v>7834872</v>
+        <v>7801328</v>
       </c>
       <c r="F145" t="n">
-        <v>262.5087087176742</v>
+        <v>262.4818132686186</v>
       </c>
       <c r="G145" t="n">
-        <v>36.80857697152965</v>
+        <v>36.80480573204741</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4537.1</v>
+        <v>4434.33</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7577950</v>
+        <v>7393753</v>
       </c>
       <c r="F146" t="n">
-        <v>112.6778304610114</v>
+        <v>166.7571269746035</v>
       </c>
       <c r="G146" t="n">
-        <v>88.90441325168091</v>
+        <v>255.904051641223</v>
       </c>
       <c r="H146" t="n">
-        <v>2.68</v>
+        <v>1.62</v>
       </c>
       <c r="I146" t="n">
-        <v>6935937</v>
+        <v>589976</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>666843</v>
+        <v>664262</v>
       </c>
       <c r="E147" t="n">
-        <v>2406943</v>
+        <v>2397627</v>
       </c>
       <c r="F147" t="n">
-        <v>15.29460190918194</v>
+        <v>15.7130216815154</v>
       </c>
       <c r="G147" t="n">
-        <v>10.07266037176255</v>
+        <v>61.77244139414719</v>
       </c>
       <c r="H147" t="n">
         <v>0.91</v>
       </c>
       <c r="I147" t="n">
-        <v>374193</v>
+        <v>371113</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1676505</v>
+        <v>1692816</v>
       </c>
       <c r="F148" t="n">
-        <v>44.81643293763647</v>
+        <v>40.93483161603427</v>
       </c>
       <c r="G148" t="n">
-        <v>149.3827709149758</v>
+        <v>35.59709881709573</v>
       </c>
       <c r="H148" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I148" t="n">
-        <v>89799</v>
+        <v>88400</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>63017</v>
+        <v>62954</v>
       </c>
       <c r="F149" t="n">
-        <v>8.126269679286924</v>
+        <v>8.125437098633739</v>
       </c>
       <c r="G149" t="n">
-        <v>0.004146051867227998</v>
+        <v>0.004145627081599661</v>
       </c>
       <c r="H149" t="n">
         <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>3240.63</v>
+        <v>3241.05</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12595948</v>
+        <v>12433170</v>
       </c>
       <c r="E150" t="n">
-        <v>12595948</v>
+        <v>12433170</v>
       </c>
       <c r="F150" t="n">
-        <v>293.5663591504609</v>
+        <v>248.8378175327057</v>
       </c>
       <c r="G150" t="n">
-        <v>999.6054971439963</v>
+        <v>150.329483310565</v>
       </c>
       <c r="H150" t="n">
-        <v>0.47</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>3770080</v>
+        <v>3728046</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2390414</v>
+        <v>2278451</v>
       </c>
       <c r="E151" t="n">
-        <v>8677214</v>
+        <v>8270681</v>
       </c>
       <c r="F151" t="n">
-        <v>85.54702538451649</v>
+        <v>9.044786849735026</v>
       </c>
       <c r="G151" t="n">
-        <v>54.99904511900684</v>
+        <v>213.6758181302507</v>
       </c>
       <c r="H151" t="n">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>215824</v>
+        <v>218285</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1242869</v>
+        <v>1224884</v>
       </c>
       <c r="E152" t="n">
-        <v>1242869</v>
+        <v>1224884</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1015.93</v>
+        <v>1006.04</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23071112</v>
+        <v>23022834</v>
       </c>
       <c r="E153" t="n">
-        <v>26645174</v>
+        <v>26590606</v>
       </c>
       <c r="F153" t="n">
-        <v>630.2255032853827</v>
+        <v>497.1867488214515</v>
       </c>
       <c r="G153" t="n">
-        <v>560.7444762835381</v>
+        <v>575.5864843723591</v>
       </c>
       <c r="H153" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I153" t="n">
-        <v>761097</v>
+        <v>755566</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2443183</v>
+        <v>2439864</v>
       </c>
       <c r="E154" t="n">
-        <v>18384326</v>
+        <v>18359348</v>
       </c>
       <c r="F154" t="n">
-        <v>3430.213763282646</v>
+        <v>3380.775817496047</v>
       </c>
       <c r="G154" t="n">
-        <v>3416.160237457584</v>
+        <v>3176.264267221367</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161264</v>
+        <v>161534</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>18462240</v>
+        <v>19723083</v>
       </c>
       <c r="E155" t="n">
-        <v>73848961</v>
+        <v>78892332</v>
       </c>
       <c r="F155" t="n">
-        <v>3731.125158047663</v>
+        <v>1546.561784611864</v>
       </c>
       <c r="G155" t="n">
-        <v>1519.029026402176</v>
+        <v>4336.587410009367</v>
       </c>
       <c r="H155" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="I155" t="n">
-        <v>2682090</v>
+        <v>2874361</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>295233684</v>
+        <v>289700264</v>
       </c>
       <c r="E156" t="n">
-        <v>295233684</v>
+        <v>289700264</v>
       </c>
       <c r="F156" t="n">
-        <v>325544.1469202454</v>
+        <v>385568.4021394859</v>
       </c>
       <c r="G156" t="n">
-        <v>280721.4141031262</v>
+        <v>321900.3795100705</v>
       </c>
       <c r="H156" t="n">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
       <c r="I156" t="n">
-        <v>19226756</v>
+        <v>19523494</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12403730</v>
+        <v>12471647</v>
       </c>
       <c r="E157" t="n">
-        <v>39231588</v>
+        <v>39446401</v>
       </c>
       <c r="F157" t="n">
-        <v>3341.989584320326</v>
+        <v>3991.72721083457</v>
       </c>
       <c r="G157" t="n">
-        <v>3470.642946478256</v>
+        <v>2457.489941306786</v>
       </c>
       <c r="H157" t="n">
         <v>0.58</v>
       </c>
       <c r="I157" t="n">
-        <v>977259</v>
+        <v>987395</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1107064</v>
+        <v>1093997</v>
       </c>
       <c r="E158" t="n">
-        <v>2521447</v>
+        <v>2491686</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>603.9299999999999</v>
+        <v>434.14</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18076471</v>
+        <v>17702276</v>
       </c>
       <c r="E159" t="n">
-        <v>18076471</v>
+        <v>17702276</v>
       </c>
       <c r="F159" t="n">
-        <v>11172.8462416758</v>
+        <v>11785.84526109322</v>
       </c>
       <c r="G159" t="n">
-        <v>22491.81258246085</v>
+        <v>12760.80666430828</v>
       </c>
       <c r="H159" t="n">
         <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>6848851</v>
+        <v>6676327</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4613653</v>
+        <v>4611327</v>
       </c>
       <c r="E160" t="n">
-        <v>8494229</v>
+        <v>8489945</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>13.25</v>
+        <v>12.23</v>
       </c>
       <c r="I160" t="n">
-        <v>65.06999999999999</v>
+        <v>65.08</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>107562</v>
+        <v>102690</v>
       </c>
       <c r="E161" t="n">
-        <v>130347</v>
+        <v>124672</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>6.52</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I161" t="n">
-        <v>2037.61</v>
+        <v>2203.01</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>22309167</v>
+        <v>22188257</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>15.61</v>
+        <v>14.16</v>
       </c>
       <c r="I162" t="n">
-        <v>1036.01</v>
+        <v>1033.16</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>456337</v>
+        <v>453737</v>
       </c>
       <c r="E163" t="n">
-        <v>574814</v>
+        <v>571539</v>
       </c>
       <c r="F163" t="n">
-        <v>123.8197577393243</v>
+        <v>105.0487413629184</v>
       </c>
       <c r="G163" t="n">
-        <v>197.3836221716524</v>
+        <v>129.7511283302</v>
       </c>
       <c r="H163" t="n">
-        <v>1.56</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I163" t="n">
-        <v>148184</v>
+        <v>189895</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104828</v>
+        <v>104723</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>7.35</v>
+        <v>7.02</v>
       </c>
       <c r="I164" t="n">
-        <v>3073.86</v>
+        <v>3074.26</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12570624</v>
+        <v>12429548</v>
       </c>
       <c r="E165" t="n">
-        <v>19135325</v>
+        <v>18920575</v>
       </c>
       <c r="F165" t="n">
-        <v>3536.215992664805</v>
+        <v>2353.189330187328</v>
       </c>
       <c r="G165" t="n">
-        <v>870.7163903949003</v>
+        <v>1773.58763416433</v>
       </c>
       <c r="H165" t="n">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="I165" t="n">
-        <v>652278</v>
+        <v>656124</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>294635724</v>
+        <v>291687283</v>
       </c>
       <c r="E166" t="n">
-        <v>294635724</v>
+        <v>291687283</v>
       </c>
       <c r="F166" t="n">
-        <v>304838.3292028283</v>
+        <v>298987.4254381504</v>
       </c>
       <c r="G166" t="n">
-        <v>302408.9713370857</v>
+        <v>299147.7848691194</v>
       </c>
       <c r="H166" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I166" t="n">
-        <v>88306052</v>
+        <v>88224090</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10149512</v>
+        <v>10058909</v>
       </c>
       <c r="E167" t="n">
-        <v>28816158</v>
+        <v>28558919</v>
       </c>
       <c r="F167" t="n">
-        <v>71.22632224947365</v>
+        <v>63.80948044186457</v>
       </c>
       <c r="G167" t="n">
-        <v>933.7186378385248</v>
+        <v>430.7361358883483</v>
       </c>
       <c r="H167" t="n">
         <v>1.38</v>
       </c>
       <c r="I167" t="n">
-        <v>100914</v>
+        <v>88726</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11615069</v>
+        <v>11657080</v>
       </c>
       <c r="F168" t="n">
-        <v>93.50198369644036</v>
+        <v>92.46879955971664</v>
       </c>
       <c r="G168" t="n">
-        <v>881.9673232494512</v>
+        <v>1181.101654218958</v>
       </c>
       <c r="H168" t="n">
         <v>1.29</v>
       </c>
       <c r="I168" t="n">
-        <v>92859</v>
+        <v>92580</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4158481</v>
+        <v>4409223</v>
       </c>
       <c r="E169" t="n">
-        <v>28414608</v>
+        <v>30127913</v>
       </c>
       <c r="F169" t="n">
-        <v>1063.135818483472</v>
+        <v>372.8621150023844</v>
       </c>
       <c r="G169" t="n">
-        <v>3901.389569768906</v>
+        <v>3453.715011802289</v>
       </c>
       <c r="H169" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I169" t="n">
-        <v>2686957</v>
+        <v>2808855</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2807626</v>
+        <v>2776272</v>
       </c>
       <c r="E170" t="n">
-        <v>4157191</v>
+        <v>4110587</v>
       </c>
       <c r="F170" t="n">
-        <v>1906.394363174594</v>
+        <v>1475.339851759654</v>
       </c>
       <c r="G170" t="n">
-        <v>3778.686599292135</v>
+        <v>3715.575427606176</v>
       </c>
       <c r="H170" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="I170" t="n">
-        <v>93580</v>
+        <v>94180</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>86098018</v>
+        <v>85172482</v>
       </c>
       <c r="E171" t="n">
-        <v>496133915</v>
+        <v>490800579</v>
       </c>
       <c r="F171" t="n">
-        <v>76513.07777790749</v>
+        <v>360041.2298156248</v>
       </c>
       <c r="G171" t="n">
-        <v>70633.90712571394</v>
+        <v>308907.8585988614</v>
       </c>
       <c r="H171" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I171" t="n">
-        <v>20377557</v>
+        <v>20963678</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13700328</v>
+        <v>13688069</v>
       </c>
       <c r="E172" t="n">
-        <v>13700328</v>
+        <v>13688069</v>
       </c>
       <c r="F172" t="n">
-        <v>5369.409244377043</v>
+        <v>5423.446138244899</v>
       </c>
       <c r="G172" t="n">
-        <v>4581.502128715468</v>
+        <v>5873.713608406068</v>
       </c>
       <c r="H172" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="I172" t="n">
-        <v>686730</v>
+        <v>682793</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6088992</v>
+        <v>6068078</v>
       </c>
       <c r="E173" t="n">
-        <v>17297079</v>
+        <v>17237666</v>
       </c>
       <c r="F173" t="n">
-        <v>776.7548124636639</v>
+        <v>766.7235369681259</v>
       </c>
       <c r="G173" t="n">
-        <v>8720.69506167432</v>
+        <v>8821.659722307451</v>
       </c>
       <c r="H173" t="n">
-        <v>1.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I173" t="n">
-        <v>101865</v>
+        <v>99539</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>20066304</v>
+        <v>19938639</v>
       </c>
       <c r="E174" t="n">
-        <v>20066304</v>
+        <v>19938639</v>
       </c>
       <c r="F174" t="n">
-        <v>261.1583701126934</v>
+        <v>246.7027606252524</v>
       </c>
       <c r="G174" t="n">
-        <v>1.062238227202485</v>
+        <v>1.062129395102155</v>
       </c>
       <c r="H174" t="n">
-        <v>3.55</v>
+        <v>2.13</v>
       </c>
       <c r="I174" t="n">
-        <v>154083</v>
+        <v>154468</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1339361</v>
+        <v>1314286</v>
       </c>
       <c r="F175" t="n">
-        <v>90.0719039625106</v>
+        <v>150.8415153974904</v>
       </c>
       <c r="G175" t="n">
-        <v>257.4747459069671</v>
+        <v>257.386238852519</v>
       </c>
       <c r="H175" t="n">
         <v>2.16</v>
       </c>
       <c r="I175" t="n">
-        <v>40601</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="176">
@@ -6557,22 +6557,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>126051</v>
+        <v>141222</v>
       </c>
       <c r="E176" t="n">
-        <v>274410</v>
+        <v>307437</v>
       </c>
       <c r="F176" t="n">
-        <v>98.47040466655008</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>4.999699068179171</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>2.27</v>
+        <v>10.73</v>
       </c>
       <c r="I176" t="n">
-        <v>43378</v>
+        <v>48307</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3073424</v>
+        <v>3059884</v>
       </c>
       <c r="F177" t="n">
-        <v>375.5323741511658</v>
+        <v>463.9020903889141</v>
       </c>
       <c r="G177" t="n">
-        <v>727.6430460435769</v>
+        <v>211.6706036167733</v>
       </c>
       <c r="H177" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="I177" t="n">
-        <v>489001</v>
+        <v>474772</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>237801151</v>
+        <v>237325363</v>
       </c>
       <c r="E178" t="n">
-        <v>237803514</v>
+        <v>237327721</v>
       </c>
       <c r="F178" t="n">
-        <v>47741.8020302459</v>
+        <v>48020.92275735706</v>
       </c>
       <c r="G178" t="n">
-        <v>83683.42914996095</v>
+        <v>82659.41533546665</v>
       </c>
       <c r="H178" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="I178" t="n">
-        <v>1827456</v>
+        <v>1874491</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9192561</v>
+        <v>9228909</v>
       </c>
       <c r="E179" t="n">
-        <v>9192561</v>
+        <v>9228909</v>
       </c>
       <c r="F179" t="n">
-        <v>627.8920609371615</v>
+        <v>1.439766297060876</v>
       </c>
       <c r="G179" t="n">
-        <v>272.9848264133365</v>
+        <v>27.63534522934612</v>
       </c>
       <c r="H179" t="n">
-        <v>2.38</v>
+        <v>3.74</v>
       </c>
       <c r="I179" t="n">
-        <v>2895009</v>
+        <v>2924179</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>195902</v>
+        <v>196374</v>
       </c>
       <c r="E180" t="n">
-        <v>1512753</v>
+        <v>1516401</v>
       </c>
       <c r="F180" t="n">
-        <v>549.573401199662</v>
+        <v>549.4347080980242</v>
       </c>
       <c r="G180" t="n">
-        <v>65.431224882265</v>
+        <v>10.39803579029764</v>
       </c>
       <c r="H180" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="I180" t="n">
-        <v>92114</v>
+        <v>88634</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>29347489</v>
+        <v>29144485</v>
       </c>
       <c r="E181" t="n">
-        <v>131400748</v>
+        <v>130491814</v>
       </c>
       <c r="F181" t="n">
-        <v>48040.92127456747</v>
+        <v>45663.5163876798</v>
       </c>
       <c r="G181" t="n">
-        <v>66606.02157207242</v>
+        <v>65056.18886408958</v>
       </c>
       <c r="H181" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>13208214</v>
+        <v>13451554</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1275997</v>
+        <v>1266601</v>
       </c>
       <c r="F182" t="n">
-        <v>195.9256612476484</v>
+        <v>235.7523416678187</v>
       </c>
       <c r="G182" t="n">
-        <v>1288.892322415856</v>
+        <v>2593.427692684016</v>
       </c>
       <c r="H182" t="n">
-        <v>1.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I182" t="n">
-        <v>62575</v>
+        <v>89625</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3012787</v>
+        <v>2970285</v>
       </c>
       <c r="E183" t="n">
-        <v>3012787</v>
+        <v>2970285</v>
       </c>
       <c r="F183" t="n">
-        <v>224.8590262803156</v>
+        <v>647.107420090408</v>
       </c>
       <c r="G183" t="n">
-        <v>910.0474734170814</v>
+        <v>614.0944036649261</v>
       </c>
       <c r="H183" t="n">
-        <v>1.89</v>
+        <v>1.07</v>
       </c>
       <c r="I183" t="n">
-        <v>374292</v>
+        <v>356241</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>565061</v>
+        <v>559884</v>
       </c>
       <c r="E184" t="n">
-        <v>565061</v>
+        <v>559884</v>
       </c>
       <c r="F184" t="n">
-        <v>6.422275319883747</v>
+        <v>4.671611223826739</v>
       </c>
       <c r="G184" t="n">
-        <v>1.224560562540846</v>
+        <v>138.83820727508</v>
       </c>
       <c r="H184" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="I184" t="n">
-        <v>1190604</v>
+        <v>1183440</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14721795</v>
+        <v>14686959</v>
       </c>
       <c r="E185" t="n">
-        <v>18743195</v>
+        <v>18698843</v>
       </c>
       <c r="F185" t="n">
-        <v>424.6742580857573</v>
+        <v>262.7294908686779</v>
       </c>
       <c r="G185" t="n">
-        <v>159.0978214759583</v>
+        <v>360.5118937846254</v>
       </c>
       <c r="H185" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I185" t="n">
-        <v>947138</v>
+        <v>950002</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1794614</v>
+        <v>1759848</v>
       </c>
       <c r="E186" t="n">
-        <v>1794614</v>
+        <v>1759848</v>
       </c>
       <c r="F186" t="n">
-        <v>9.963605890451465</v>
+        <v>3.42351616967989</v>
       </c>
       <c r="G186" t="n">
-        <v>63.47114378913201</v>
+        <v>2.455667483928161</v>
       </c>
       <c r="H186" t="n">
-        <v>2.57</v>
+        <v>3.68</v>
       </c>
       <c r="I186" t="n">
-        <v>3774</v>
+        <v>3760.89</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>49246928</v>
+        <v>48668382</v>
       </c>
       <c r="E187" t="n">
-        <v>319353218</v>
+        <v>315601503</v>
       </c>
       <c r="F187" t="n">
-        <v>214032.7507391429</v>
+        <v>126676.6787647137</v>
       </c>
       <c r="G187" t="n">
-        <v>177758.5491173726</v>
+        <v>210513.6800439835</v>
       </c>
       <c r="H187" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I187" t="n">
-        <v>20226378</v>
+        <v>20434842</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9060860</v>
+        <v>8597422</v>
       </c>
       <c r="F188" t="n">
-        <v>324.2578716045211</v>
+        <v>364.6580898801627</v>
       </c>
       <c r="G188" t="n">
-        <v>215.0018071384581</v>
+        <v>109.5098890491974</v>
       </c>
       <c r="H188" t="n">
-        <v>2.07</v>
+        <v>0.12</v>
       </c>
       <c r="I188" t="n">
-        <v>293659</v>
+        <v>297755</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7112771</v>
+        <v>7061021</v>
       </c>
       <c r="E189" t="n">
-        <v>7122957</v>
+        <v>7071133</v>
       </c>
       <c r="F189" t="n">
-        <v>199.1878578118188</v>
+        <v>36.88299924967161</v>
       </c>
       <c r="G189" t="n">
-        <v>105.3571615881546</v>
+        <v>1544.211817258685</v>
       </c>
       <c r="H189" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="I189" t="n">
-        <v>720417</v>
+        <v>725200</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4535936</v>
+        <v>4468724</v>
       </c>
       <c r="F190" t="n">
-        <v>110.7455824021279</v>
+        <v>97.58313640029857</v>
       </c>
       <c r="G190" t="n">
-        <v>9.602137331609555</v>
+        <v>89.95515227507271</v>
       </c>
       <c r="H190" t="n">
-        <v>0.79</v>
+        <v>0.27</v>
       </c>
       <c r="I190" t="n">
-        <v>234192</v>
+        <v>237319</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>99459740</v>
+        <v>95519882</v>
       </c>
       <c r="E191" t="n">
-        <v>100530352</v>
+        <v>96548084</v>
       </c>
       <c r="F191" t="n">
-        <v>23208.29600368528</v>
+        <v>36203.01835020607</v>
       </c>
       <c r="G191" t="n">
-        <v>25922.40993148668</v>
+        <v>43700.3681120085</v>
       </c>
       <c r="H191" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I191" t="n">
-        <v>80649809</v>
+        <v>80027952</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>247465690</v>
+        <v>239072114</v>
       </c>
       <c r="E192" t="n">
-        <v>247465690</v>
+        <v>239072114</v>
       </c>
       <c r="F192" t="n">
-        <v>72143.94875374934</v>
+        <v>76084.42247464474</v>
       </c>
       <c r="G192" t="n">
-        <v>89101.61184255288</v>
+        <v>86617.06494257959</v>
       </c>
       <c r="H192" t="n">
         <v>0.04</v>
       </c>
       <c r="I192" t="n">
-        <v>85099744</v>
+        <v>87514022</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23589878</v>
+        <v>23244250</v>
       </c>
       <c r="E193" t="n">
-        <v>141142980</v>
+        <v>139075022</v>
       </c>
       <c r="F193" t="n">
-        <v>63857.44400984945</v>
+        <v>50698.75363771133</v>
       </c>
       <c r="G193" t="n">
-        <v>74068.14842795661</v>
+        <v>85240.54011416028</v>
       </c>
       <c r="H193" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>16829510</v>
+        <v>16885896</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13686750</v>
+        <v>13420146</v>
       </c>
       <c r="E194" t="n">
-        <v>41365158</v>
+        <v>40559407</v>
       </c>
       <c r="F194" t="n">
-        <v>830.8505431755615</v>
+        <v>768.7365552391175</v>
       </c>
       <c r="G194" t="n">
-        <v>837.8581527500884</v>
+        <v>994.8189864182065</v>
       </c>
       <c r="H194" t="n">
         <v>0.09</v>
       </c>
       <c r="I194" t="n">
-        <v>2552154</v>
+        <v>2463073</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52564160</v>
+        <v>52410954</v>
       </c>
       <c r="E195" t="n">
-        <v>90789733</v>
+        <v>90525111</v>
       </c>
       <c r="F195" t="n">
-        <v>7999.333055442111</v>
+        <v>7625.325994693761</v>
       </c>
       <c r="G195" t="n">
-        <v>14770.32329198171</v>
+        <v>14933.92783906783</v>
       </c>
       <c r="H195" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I195" t="n">
-        <v>2219929</v>
+        <v>2292771</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4158389</v>
+        <v>4143158</v>
       </c>
       <c r="E196" t="n">
-        <v>4158389</v>
+        <v>4143158</v>
       </c>
       <c r="F196" t="n">
-        <v>227.3720296464555</v>
+        <v>244.5186975124887</v>
       </c>
       <c r="G196" t="n">
-        <v>56.57713847332911</v>
+        <v>120.4014321333658</v>
       </c>
       <c r="H196" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="I196" t="n">
-        <v>1748167</v>
+        <v>1746123</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>195612</v>
+        <v>192565</v>
       </c>
       <c r="F197" t="n">
-        <v>45.76420181559669</v>
+        <v>171.5596781142564</v>
       </c>
       <c r="G197" t="n">
-        <v>54.89574584125852</v>
+        <v>59.15054258089693</v>
       </c>
       <c r="H197" t="n">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="I197" t="n">
-        <v>61014</v>
+        <v>60513</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6371281</v>
+        <v>6320726</v>
       </c>
       <c r="E198" t="n">
-        <v>32778302</v>
+        <v>32518213</v>
       </c>
       <c r="F198" t="n">
-        <v>335.348370082083</v>
+        <v>185.8843446436513</v>
       </c>
       <c r="G198" t="n">
-        <v>283.4225041395527</v>
+        <v>174.9130323076319</v>
       </c>
       <c r="H198" t="n">
-        <v>0.85</v>
+        <v>1.21</v>
       </c>
       <c r="I198" t="n">
-        <v>938953</v>
+        <v>941360</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>175269986</v>
+        <v>173692961</v>
       </c>
       <c r="E199" t="n">
-        <v>204767096</v>
+        <v>202924665</v>
       </c>
       <c r="F199" t="n">
-        <v>27567.77387695448</v>
+        <v>31990.32313482013</v>
       </c>
       <c r="G199" t="n">
-        <v>117289.3280134307</v>
+        <v>96797.11704310401</v>
       </c>
       <c r="H199" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I199" t="n">
-        <v>4466881</v>
+        <v>4423576</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>296230</v>
+        <v>293387</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>115.9718216479668</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>8.164454845271106</v>
       </c>
       <c r="H200" t="n">
-        <v>4.64</v>
+        <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>269204</v>
+        <v>190856</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7621708</v>
+        <v>7595531</v>
       </c>
       <c r="F201" t="n">
-        <v>966.3025611569835</v>
+        <v>962.2354834870079</v>
       </c>
       <c r="G201" t="n">
-        <v>496.3002037421828</v>
+        <v>569.2329703750768</v>
       </c>
       <c r="H201" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="I201" t="n">
-        <v>534738</v>
+        <v>540083</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34039</v>
+        <v>33974</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>223.6</v>
+        <v>223.88</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32954211</v>
+        <v>32622183</v>
       </c>
       <c r="E203" t="n">
-        <v>164456705</v>
+        <v>162799732</v>
       </c>
       <c r="F203" t="n">
-        <v>121924.5023233063</v>
+        <v>146807.1650255495</v>
       </c>
       <c r="G203" t="n">
-        <v>94359.99736236749</v>
+        <v>111070.3180726783</v>
       </c>
       <c r="H203" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I203" t="n">
-        <v>13546230</v>
+        <v>13678930</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1942615</v>
+        <v>1933942</v>
       </c>
       <c r="E204" t="n">
-        <v>1942615</v>
+        <v>1933942</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>6.79</v>
       </c>
       <c r="I204" t="n">
-        <v>7566.21</v>
+        <v>7506.19</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>169964</v>
+        <v>160799</v>
       </c>
       <c r="F205" t="n">
-        <v>26.43180673012429</v>
+        <v>21.21614626405114</v>
       </c>
       <c r="G205" t="n">
-        <v>36.03336332648966</v>
+        <v>26.9563171892124</v>
       </c>
       <c r="H205" t="n">
-        <v>3.51</v>
+        <v>1.88</v>
       </c>
       <c r="I205" t="n">
-        <v>22845</v>
+        <v>22601</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3088.11</v>
+        <v>3085.04</v>
       </c>
       <c r="E206" t="n">
-        <v>36910</v>
+        <v>36873</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>2.378984426126034</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>20.88681772067718</v>
       </c>
       <c r="H206" t="n">
-        <v>5.15</v>
+        <v>1.94</v>
       </c>
       <c r="I206" t="n">
-        <v>3834.28</v>
+        <v>3834.99</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>301568210</v>
+        <v>294496387</v>
       </c>
       <c r="E208" t="n">
-        <v>557969961</v>
+        <v>544885475</v>
       </c>
       <c r="F208" t="n">
-        <v>18949.15694849548</v>
+        <v>14579.90707273676</v>
       </c>
       <c r="G208" t="n">
-        <v>25326.39702064721</v>
+        <v>18942.31031921823</v>
       </c>
       <c r="H208" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I208" t="n">
-        <v>16127649</v>
+        <v>16471646</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>70445973</v>
+        <v>69655288</v>
       </c>
       <c r="E209" t="n">
-        <v>671944750</v>
+        <v>664397899</v>
       </c>
       <c r="F209" t="n">
-        <v>314630.482460521</v>
+        <v>217197.0967751206</v>
       </c>
       <c r="G209" t="n">
-        <v>289251.4850698991</v>
+        <v>171825.6574064841</v>
       </c>
       <c r="H209" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>23103686</v>
+        <v>23312227</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2275936</v>
+        <v>2318351</v>
       </c>
       <c r="F210" t="n">
-        <v>3.573842112818038</v>
+        <v>722.6829060736501</v>
       </c>
       <c r="G210" t="n">
-        <v>1127.316263414373</v>
+        <v>120.2439959884089</v>
       </c>
       <c r="H210" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="I210" t="n">
-        <v>45239</v>
+        <v>44115</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82252</v>
+        <v>81828</v>
       </c>
       <c r="E211" t="n">
-        <v>683774</v>
+        <v>680256</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>214.6910633355969</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>36.74191205095294</v>
       </c>
       <c r="H211" t="n">
-        <v>4.35</v>
+        <v>2.94</v>
       </c>
       <c r="I211" t="n">
-        <v>120.52</v>
+        <v>121.29</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1852298</v>
+        <v>1847340</v>
       </c>
       <c r="E212" t="n">
-        <v>5289924</v>
+        <v>5275767</v>
       </c>
       <c r="F212" t="n">
-        <v>331.2406059234135</v>
+        <v>144.6925534973011</v>
       </c>
       <c r="G212" t="n">
-        <v>234.392802067505</v>
+        <v>174.2577244772325</v>
       </c>
       <c r="H212" t="n">
-        <v>1.19</v>
+        <v>0.79</v>
       </c>
       <c r="I212" t="n">
-        <v>74411</v>
+        <v>72999</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9157599</v>
+        <v>8767198</v>
       </c>
       <c r="E213" t="n">
-        <v>27148054</v>
+        <v>25990695</v>
       </c>
       <c r="F213" t="n">
-        <v>2896.121738004121</v>
+        <v>3502.176111594086</v>
       </c>
       <c r="G213" t="n">
-        <v>1570.382962773527</v>
+        <v>2266.569312353062</v>
       </c>
       <c r="H213" t="n">
-        <v>0.64</v>
+        <v>0.38</v>
       </c>
       <c r="I213" t="n">
-        <v>6219414</v>
+        <v>6219339</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14556820</v>
+        <v>14542051</v>
       </c>
       <c r="F214" t="n">
-        <v>27.95408700474587</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>99.42028989785086</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="I214" t="n">
-        <v>410.14</v>
+        <v>410.19</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1975208</v>
+        <v>1967179</v>
       </c>
       <c r="E215" t="n">
-        <v>5713785</v>
+        <v>5690559</v>
       </c>
       <c r="F215" t="n">
-        <v>43.16856160938401</v>
+        <v>74.87279644384417</v>
       </c>
       <c r="G215" t="n">
-        <v>628.1000845673703</v>
+        <v>633.4741862676208</v>
       </c>
       <c r="H215" t="n">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="I215" t="n">
-        <v>52070</v>
+        <v>52503</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2268361</v>
+        <v>2178848</v>
       </c>
       <c r="E216" t="n">
-        <v>20008448</v>
+        <v>19218887</v>
       </c>
       <c r="F216" t="n">
-        <v>1493.229261165653</v>
+        <v>3328.956329438004</v>
       </c>
       <c r="G216" t="n">
-        <v>1163.940831308472</v>
+        <v>1336.232392789523</v>
       </c>
       <c r="H216" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="I216" t="n">
-        <v>49706</v>
+        <v>96066</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44448933</v>
+        <v>43895512</v>
       </c>
       <c r="E217" t="n">
-        <v>44448933</v>
+        <v>43895512</v>
       </c>
       <c r="F217" t="n">
-        <v>48430.15424576579</v>
+        <v>48607.71751420204</v>
       </c>
       <c r="G217" t="n">
-        <v>42818.42240420333</v>
+        <v>41164.5005840556</v>
       </c>
       <c r="H217" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I217" t="n">
-        <v>10620775</v>
+        <v>10636356</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8042026</v>
+        <v>8184633</v>
       </c>
       <c r="E218" t="n">
-        <v>11458044</v>
+        <v>11661227</v>
       </c>
       <c r="F218" t="n">
-        <v>3636.612487838755</v>
+        <v>2119.88903850263</v>
       </c>
       <c r="G218" t="n">
-        <v>182.2260869393086</v>
+        <v>2437.847114031516</v>
       </c>
       <c r="H218" t="n">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>311066</v>
+        <v>321481</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16174727</v>
+        <v>15849247</v>
       </c>
       <c r="F219" t="n">
-        <v>160.9469279236981</v>
+        <v>98.85699478753988</v>
       </c>
       <c r="G219" t="n">
-        <v>10.38962303219196</v>
+        <v>9.199625706283895</v>
       </c>
       <c r="H219" t="n">
-        <v>1.61</v>
+        <v>2.01</v>
       </c>
       <c r="I219" t="n">
-        <v>1079751</v>
+        <v>1081507</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>717452</v>
+        <v>715392</v>
       </c>
       <c r="F220" t="n">
-        <v>187.5870822146446</v>
+        <v>84.17330836427261</v>
       </c>
       <c r="G220" t="n">
-        <v>203.3539457699275</v>
+        <v>304.0978454321451</v>
       </c>
       <c r="H220" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>208554</v>
+        <v>210180</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2832623</v>
+        <v>2802123</v>
       </c>
       <c r="E221" t="n">
-        <v>2835076</v>
+        <v>2804550</v>
       </c>
       <c r="F221" t="n">
-        <v>70.23008687213485</v>
+        <v>22.2476087670048</v>
       </c>
       <c r="G221" t="n">
-        <v>25.62616632606395</v>
+        <v>55.75454991859991</v>
       </c>
       <c r="H221" t="n">
-        <v>3.12</v>
+        <v>1.89</v>
       </c>
       <c r="I221" t="n">
-        <v>76899</v>
+        <v>73815</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1293107</v>
+        <v>1306069</v>
       </c>
       <c r="E222" t="n">
-        <v>3914487</v>
+        <v>3953324</v>
       </c>
       <c r="F222" t="n">
-        <v>69.2498035074846</v>
+        <v>151.1125614012892</v>
       </c>
       <c r="G222" t="n">
-        <v>1162.967183602073</v>
+        <v>135.4934217008458</v>
       </c>
       <c r="H222" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="I222" t="n">
-        <v>41019</v>
+        <v>36155</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>32118925</v>
+        <v>31810461</v>
       </c>
       <c r="E223" t="n">
-        <v>227717939</v>
+        <v>225530979</v>
       </c>
       <c r="F223" t="n">
-        <v>33702.52007271792</v>
+        <v>42024.23524398154</v>
       </c>
       <c r="G223" t="n">
-        <v>108463.5887548065</v>
+        <v>51349.92854696669</v>
       </c>
       <c r="H223" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I223" t="n">
-        <v>4913202</v>
+        <v>5253765</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58288</v>
+        <v>58121</v>
       </c>
       <c r="E224" t="n">
-        <v>304121</v>
+        <v>303252</v>
       </c>
       <c r="F224" t="n">
-        <v>29.83899177028936</v>
+        <v>26.73606820622793</v>
       </c>
       <c r="G224" t="n">
-        <v>23.78007238949751</v>
+        <v>158.7538009651885</v>
       </c>
       <c r="H224" t="n">
         <v>1.5</v>
       </c>
       <c r="I224" t="n">
-        <v>209515</v>
+        <v>203330</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1278424</v>
+        <v>1272625</v>
       </c>
       <c r="E225" t="n">
-        <v>7928135</v>
+        <v>7891464</v>
       </c>
       <c r="F225" t="n">
-        <v>1054.188798544419</v>
+        <v>982.411715380013</v>
       </c>
       <c r="G225" t="n">
-        <v>1104.261157815554</v>
+        <v>1130.007493325773</v>
       </c>
       <c r="H225" t="n">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>792687</v>
+        <v>788846</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>587293258</v>
+        <v>580074981</v>
       </c>
       <c r="E226" t="n">
-        <v>2274500141</v>
+        <v>2246544817</v>
       </c>
       <c r="F226" t="n">
-        <v>256548.9567167105</v>
+        <v>277351.2824306222</v>
       </c>
       <c r="G226" t="n">
-        <v>271023.2258011436</v>
+        <v>307589.7324538647</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>55012523</v>
+        <v>57022681</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20949207</v>
+        <v>20858381</v>
       </c>
       <c r="F227" t="n">
-        <v>1818.050581370262</v>
+        <v>2023.942707515994</v>
       </c>
       <c r="G227" t="n">
-        <v>762.4139760741316</v>
+        <v>975.5672168793603</v>
       </c>
       <c r="H227" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I227" t="n">
-        <v>17731358</v>
+        <v>18117646</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>830954</v>
+        <v>828966</v>
       </c>
       <c r="F228" t="n">
-        <v>31.51578834416449</v>
+        <v>22.81380346225285</v>
       </c>
       <c r="G228" t="n">
-        <v>256.3917043779431</v>
+        <v>44.6871254835014</v>
       </c>
       <c r="H228" t="n">
-        <v>0.97</v>
+        <v>3.87</v>
       </c>
       <c r="I228" t="n">
-        <v>163059</v>
+        <v>141724</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5461034</v>
+        <v>5451612</v>
       </c>
       <c r="E229" t="n">
-        <v>24445930</v>
+        <v>24403721</v>
       </c>
       <c r="F229" t="n">
-        <v>1392.75056591121</v>
+        <v>1392.61306247633</v>
       </c>
       <c r="G229" t="n">
-        <v>1647.540827032276</v>
+        <v>2689.098118255634</v>
       </c>
       <c r="H229" t="n">
         <v>0.41</v>
       </c>
       <c r="I229" t="n">
-        <v>189791</v>
+        <v>190531</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6678887</v>
+        <v>6665709</v>
       </c>
       <c r="E230" t="n">
-        <v>12787271</v>
+        <v>12762040</v>
       </c>
       <c r="F230" t="n">
-        <v>139.0840341034284</v>
+        <v>71.01197733220023</v>
       </c>
       <c r="G230" t="n">
-        <v>429.1777175864652</v>
+        <v>429.1377123445398</v>
       </c>
       <c r="H230" t="n">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="I230" t="n">
-        <v>34381</v>
+        <v>33863</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3184390</v>
+        <v>3180473</v>
       </c>
       <c r="E231" t="n">
-        <v>20939806</v>
+        <v>20914047</v>
       </c>
       <c r="F231" t="n">
-        <v>234.2792518632538</v>
+        <v>186.2270996076479</v>
       </c>
       <c r="G231" t="n">
-        <v>207.5872843232248</v>
+        <v>340.1543611266697</v>
       </c>
       <c r="H231" t="n">
-        <v>1.08</v>
+        <v>1.65</v>
       </c>
       <c r="I231" t="n">
-        <v>1671736</v>
+        <v>1675560</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>110946114</v>
+        <v>109348500</v>
       </c>
       <c r="E232" t="n">
-        <v>1030832387</v>
+        <v>1015988494</v>
       </c>
       <c r="F232" t="n">
-        <v>25498.218936455</v>
+        <v>25931.35948739908</v>
       </c>
       <c r="G232" t="n">
-        <v>24216.71171405592</v>
+        <v>32969.18409734772</v>
       </c>
       <c r="H232" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I232" t="n">
-        <v>14504949</v>
+        <v>14889380</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>349.97</v>
+        <v>350.01</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>96908469</v>
+        <v>95306122</v>
       </c>
       <c r="E234" t="n">
-        <v>147836141</v>
+        <v>145391723</v>
       </c>
       <c r="F234" t="n">
-        <v>21946.52903454379</v>
+        <v>32286.15978805402</v>
       </c>
       <c r="G234" t="n">
-        <v>18505.13923003756</v>
+        <v>18837.29374119946</v>
       </c>
       <c r="H234" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>11969045</v>
+        <v>12392026</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15770211</v>
+        <v>15724737</v>
       </c>
       <c r="E235" t="n">
-        <v>21635363</v>
+        <v>21572977</v>
       </c>
       <c r="F235" t="n">
-        <v>785.6110331774422</v>
+        <v>1387.676033455134</v>
       </c>
       <c r="G235" t="n">
-        <v>1319.676483946397</v>
+        <v>359.1128308868867</v>
       </c>
       <c r="H235" t="n">
-        <v>0.33</v>
+        <v>1.02</v>
       </c>
       <c r="I235" t="n">
-        <v>915033</v>
+        <v>924770</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>122644295</v>
+        <v>121374137</v>
       </c>
       <c r="E236" t="n">
-        <v>470483257</v>
+        <v>465610725</v>
       </c>
       <c r="F236" t="n">
-        <v>414907.9032938287</v>
+        <v>400812.458884133</v>
       </c>
       <c r="G236" t="n">
-        <v>419363.129837581</v>
+        <v>417694.807768397</v>
       </c>
       <c r="H236" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>40322931</v>
+        <v>39753350</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>645721</v>
+        <v>640691</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>8.16</v>
+        <v>4.43</v>
       </c>
       <c r="I237" t="n">
-        <v>41567</v>
+        <v>40932</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>776917</v>
+        <v>780213</v>
       </c>
       <c r="F238" t="n">
-        <v>178.8627832761925</v>
+        <v>163.5693137206143</v>
       </c>
       <c r="G238" t="n">
-        <v>155.6323197921859</v>
+        <v>155.6163744121304</v>
       </c>
       <c r="H238" t="n">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="I238" t="n">
-        <v>238297</v>
+        <v>250549</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3024448</v>
+        <v>2967763</v>
       </c>
       <c r="E239" t="n">
-        <v>28657093</v>
+        <v>28119996</v>
       </c>
       <c r="F239" t="n">
-        <v>146.3971036610887</v>
+        <v>550.7236997008411</v>
       </c>
       <c r="G239" t="n">
-        <v>1471.256476872104</v>
+        <v>835.3815557530587</v>
       </c>
       <c r="H239" t="n">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
       <c r="I239" t="n">
-        <v>222997</v>
+        <v>205840</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>721798</v>
+        <v>721944</v>
       </c>
       <c r="E240" t="n">
-        <v>771598</v>
+        <v>771754</v>
       </c>
       <c r="F240" t="n">
-        <v>49.01767972356083</v>
+        <v>55.97601331458137</v>
       </c>
       <c r="G240" t="n">
-        <v>2339.703669337885</v>
+        <v>2213.199918447573</v>
       </c>
       <c r="H240" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="I240" t="n">
-        <v>120009</v>
+        <v>119984</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>384191</v>
+        <v>383801</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>13.07</v>
+        <v>12.95</v>
       </c>
       <c r="I241" t="n">
-        <v>699.55</v>
+        <v>699.64</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>130127</v>
+        <v>130972</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>6.38</v>
+        <v>7.14</v>
       </c>
       <c r="I242" t="n">
-        <v>67351</v>
+        <v>67311</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>575923</v>
+        <v>559155</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>46.97674003315036</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>3.217473739497716</v>
       </c>
       <c r="H243" t="n">
-        <v>5.1</v>
+        <v>3.09</v>
       </c>
       <c r="I243" t="n">
-        <v>8115.81</v>
+        <v>8120.92</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6584735</v>
+        <v>6563531</v>
       </c>
       <c r="E244" t="n">
-        <v>41152708</v>
+        <v>41020192</v>
       </c>
       <c r="F244" t="n">
-        <v>94.88589827196763</v>
+        <v>82.88298342988209</v>
       </c>
       <c r="G244" t="n">
-        <v>110.6666078285955</v>
+        <v>105.6668751474109</v>
       </c>
       <c r="H244" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="I244" t="n">
-        <v>415572</v>
+        <v>415412</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5108389</v>
+        <v>5083845</v>
       </c>
       <c r="E245" t="n">
-        <v>18982868</v>
+        <v>18891664</v>
       </c>
       <c r="F245" t="n">
-        <v>394.8427074669903</v>
+        <v>844.9861947975568</v>
       </c>
       <c r="G245" t="n">
-        <v>5012.892941552684</v>
+        <v>5149.118233864397</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>86699</v>
+        <v>87664</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3584225</v>
+        <v>3549026</v>
       </c>
       <c r="F246" t="n">
-        <v>281.0266481266624</v>
+        <v>173.7059823456233</v>
       </c>
       <c r="G246" t="n">
-        <v>6167.911091065513</v>
+        <v>6167.171430267071</v>
       </c>
       <c r="H246" t="n">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="I246" t="n">
-        <v>29378</v>
+        <v>29727</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>41436198</v>
+        <v>40013826</v>
       </c>
       <c r="E247" t="n">
-        <v>148522262</v>
+        <v>143423966</v>
       </c>
       <c r="F247" t="n">
-        <v>52.34360334179656</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>242.6454671622834</v>
+        <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>3.76</v>
+        <v>4.91</v>
       </c>
       <c r="I247" t="n">
-        <v>152512</v>
+        <v>151629</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1542902</v>
+        <v>1545383</v>
       </c>
       <c r="F248" t="n">
-        <v>8.44593752781633</v>
+        <v>174.5204329152936</v>
       </c>
       <c r="G248" t="n">
-        <v>101.8162265059177</v>
+        <v>45.40211713877216</v>
       </c>
       <c r="H248" t="n">
-        <v>3.82</v>
+        <v>2.55</v>
       </c>
       <c r="I248" t="n">
-        <v>605546</v>
+        <v>606610</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2153208</v>
+        <v>2126073</v>
       </c>
       <c r="E249" t="n">
-        <v>16561865</v>
+        <v>16353149</v>
       </c>
       <c r="F249" t="n">
-        <v>22.80316567691137</v>
+        <v>56.18899726212901</v>
       </c>
       <c r="G249" t="n">
-        <v>297.2301444803603</v>
+        <v>75.38644124750684</v>
       </c>
       <c r="H249" t="n">
-        <v>0.77</v>
+        <v>1.93</v>
       </c>
       <c r="I249" t="n">
-        <v>215456</v>
+        <v>217767</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103540</v>
+        <v>103131</v>
       </c>
       <c r="E250" t="n">
-        <v>822419</v>
+        <v>819170</v>
       </c>
       <c r="F250" t="n">
-        <v>161.1207424512521</v>
+        <v>158.236459216157</v>
       </c>
       <c r="G250" t="n">
-        <v>347.1775452300087</v>
+        <v>347.1359114229523</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>214.22</v>
+        <v>211.6</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87740649</v>
+        <v>87537016</v>
       </c>
       <c r="E251" t="n">
-        <v>324327648</v>
+        <v>323574835</v>
       </c>
       <c r="F251" t="n">
-        <v>5631.977307512476</v>
+        <v>5257.481381833158</v>
       </c>
       <c r="G251" t="n">
-        <v>5251.43980300818</v>
+        <v>5500.455548929589</v>
       </c>
       <c r="H251" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I251" t="n">
-        <v>229480</v>
+        <v>236682</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2181819</v>
+        <v>2177379</v>
       </c>
       <c r="E252" t="n">
-        <v>8746580</v>
+        <v>8728782</v>
       </c>
       <c r="F252" t="n">
-        <v>152.4110856065005</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>300.0989567877783</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>3.42</v>
+        <v>4.93</v>
       </c>
       <c r="I252" t="n">
-        <v>10788.13</v>
+        <v>9179.940000000001</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>576025</v>
+        <v>574567</v>
       </c>
       <c r="F253" t="n">
-        <v>436.9013553124557</v>
+        <v>387.8960087399597</v>
       </c>
       <c r="G253" t="n">
-        <v>24.9985033904141</v>
+        <v>7.428664352049354</v>
       </c>
       <c r="H253" t="n">
-        <v>1.12</v>
+        <v>3.43</v>
       </c>
       <c r="I253" t="n">
-        <v>2253.51</v>
+        <v>2303.79</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38010</v>
+        <v>37971</v>
       </c>
       <c r="F254" t="n">
-        <v>95.39952176864595</v>
+        <v>95.38808138220061</v>
       </c>
       <c r="G254" t="n">
-        <v>1.029349919500812</v>
+        <v>1.029226479040648</v>
       </c>
       <c r="H254" t="n">
         <v>3.31</v>
       </c>
       <c r="I254" t="n">
-        <v>585.92</v>
+        <v>585.99</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>769600166</v>
+        <v>758594859</v>
       </c>
       <c r="E255" t="n">
-        <v>1186791405</v>
+        <v>1169820250</v>
       </c>
       <c r="F255" t="n">
-        <v>121451.3844356497</v>
+        <v>112499.305264761</v>
       </c>
       <c r="G255" t="n">
-        <v>194128.5995601356</v>
+        <v>164341.5831569622</v>
       </c>
       <c r="H255" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I255" t="n">
-        <v>276649308</v>
+        <v>334115252</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>13327104</v>
+        <v>17899408</v>
       </c>
       <c r="E256" t="n">
-        <v>13327104</v>
+        <v>17899408</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>26.36</v>
+        <v>4.41</v>
       </c>
       <c r="I256" t="n">
-        <v>2800.19</v>
+        <v>24311</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39571025</v>
+        <v>39427393</v>
       </c>
       <c r="E257" t="n">
-        <v>188708432</v>
+        <v>188023469</v>
       </c>
       <c r="F257" t="n">
-        <v>610.3473929298593</v>
+        <v>598.4997646050268</v>
       </c>
       <c r="G257" t="n">
-        <v>335.758637658403</v>
+        <v>327.4645265475593</v>
       </c>
       <c r="H257" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I257" t="n">
-        <v>402378</v>
+        <v>401673</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>541942</v>
+        <v>541392</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>171.9</v>
+        <v>151.11</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23109013</v>
+        <v>24694506</v>
       </c>
       <c r="E259" t="n">
-        <v>38515021</v>
+        <v>41157509</v>
       </c>
       <c r="F259" t="n">
-        <v>745.4276936685869</v>
+        <v>868.7212813217154</v>
       </c>
       <c r="G259" t="n">
-        <v>18683.46220378558</v>
+        <v>185.6156830966987</v>
       </c>
       <c r="H259" t="n">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="I259" t="n">
-        <v>701695</v>
+        <v>915178</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107986</v>
+        <v>107971</v>
       </c>
       <c r="F260" t="n">
-        <v>225.6183978937494</v>
+        <v>225.5025052321316</v>
       </c>
       <c r="G260" t="n">
-        <v>175.6953480917464</v>
+        <v>175.6742785660134</v>
       </c>
       <c r="H260" t="n">
         <v>0.03</v>
       </c>
       <c r="I260" t="n">
-        <v>54808</v>
+        <v>55085</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1535387</v>
+        <v>1489809</v>
       </c>
       <c r="E261" t="n">
-        <v>6539537</v>
+        <v>6344804</v>
       </c>
       <c r="F261" t="n">
-        <v>2.882676677663637</v>
+        <v>341.2004502614215</v>
       </c>
       <c r="G261" t="n">
-        <v>343.2386970620607</v>
+        <v>11.82288296007398</v>
       </c>
       <c r="H261" t="n">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>865927</v>
+        <v>856615</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3814577</v>
+        <v>3806074</v>
       </c>
       <c r="E262" t="n">
-        <v>8315242</v>
+        <v>8296708</v>
       </c>
       <c r="F262" t="n">
-        <v>1696.324334938543</v>
+        <v>1207.678909620818</v>
       </c>
       <c r="G262" t="n">
-        <v>2798.132053987418</v>
+        <v>2709.213388954344</v>
       </c>
       <c r="H262" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="I262" t="n">
-        <v>1968711</v>
+        <v>2006880</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>481921251</v>
+        <v>474537280</v>
       </c>
       <c r="E263" t="n">
-        <v>1677527767</v>
+        <v>1651824777</v>
       </c>
       <c r="F263" t="n">
-        <v>324852.9530264481</v>
+        <v>301839.5971508488</v>
       </c>
       <c r="G263" t="n">
-        <v>361542.2009625778</v>
+        <v>353907.0692633087</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>44391686</v>
+        <v>46149432</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5609106631</v>
+        <v>5576075531</v>
       </c>
       <c r="E264" t="n">
-        <v>5609106631</v>
+        <v>5576075258</v>
       </c>
       <c r="F264" t="n">
-        <v>729.6785707433615</v>
+        <v>557.7082484548215</v>
       </c>
       <c r="G264" t="n">
-        <v>615.3366228376266</v>
+        <v>593.3851580917751</v>
       </c>
       <c r="H264" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I264" t="n">
-        <v>36054684</v>
+        <v>32692714</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22274439</v>
+        <v>22287618</v>
       </c>
       <c r="E265" t="n">
-        <v>22255091</v>
+        <v>22268258</v>
       </c>
       <c r="F265" t="n">
-        <v>586.9123115907153</v>
+        <v>371.4621781613395</v>
       </c>
       <c r="G265" t="n">
-        <v>1552.26842886614</v>
+        <v>1585.946182056372</v>
       </c>
       <c r="H265" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="I265" t="n">
-        <v>406451</v>
+        <v>407501</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11743485</v>
+        <v>11879805</v>
       </c>
       <c r="E266" t="n">
-        <v>23712320</v>
+        <v>23986339</v>
       </c>
       <c r="F266" t="n">
-        <v>898.2299420647897</v>
+        <v>667.4892827873867</v>
       </c>
       <c r="G266" t="n">
-        <v>612.9969473794141</v>
+        <v>740.3654657550364</v>
       </c>
       <c r="H266" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>56977</v>
+        <v>68722</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>149171</v>
+        <v>145316</v>
       </c>
       <c r="F267" t="n">
-        <v>201.0944200079489</v>
+        <v>163.852773257251</v>
       </c>
       <c r="G267" t="n">
-        <v>113.6076700120054</v>
+        <v>116.202504314414</v>
       </c>
       <c r="H267" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="I267" t="n">
-        <v>56782</v>
+        <v>55650</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>46412</v>
+        <v>46365</v>
       </c>
       <c r="F268" t="n">
-        <v>87.81995838709901</v>
+        <v>65.21170729619304</v>
       </c>
       <c r="G268" t="n">
-        <v>5.03073083599098</v>
+        <v>196.1402851771091</v>
       </c>
       <c r="H268" t="n">
-        <v>3.4</v>
+        <v>2.77</v>
       </c>
       <c r="I268" t="n">
-        <v>69452</v>
+        <v>69521</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2438734</v>
+        <v>2390501</v>
       </c>
       <c r="E269" t="n">
-        <v>9754938</v>
+        <v>9562005</v>
       </c>
       <c r="F269" t="n">
-        <v>24653.4008079018</v>
+        <v>37379.298310347</v>
       </c>
       <c r="G269" t="n">
-        <v>45834.71317523522</v>
+        <v>25231.66078000156</v>
       </c>
       <c r="H269" t="n">
         <v>0.73</v>
       </c>
       <c r="I269" t="n">
-        <v>7241659</v>
+        <v>7461467</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>214109161</v>
+        <v>212201081</v>
       </c>
       <c r="E270" t="n">
-        <v>658305097</v>
+        <v>652438467</v>
       </c>
       <c r="F270" t="n">
-        <v>222652.6774840842</v>
+        <v>207810.5455902399</v>
       </c>
       <c r="G270" t="n">
-        <v>196848.0091680013</v>
+        <v>190719.8572585862</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>21537059</v>
+        <v>21721728</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>138634535</v>
+        <v>137247842</v>
       </c>
       <c r="E271" t="n">
-        <v>362178878</v>
+        <v>358556179</v>
       </c>
       <c r="F271" t="n">
-        <v>58433.19624604627</v>
+        <v>66487.93753434847</v>
       </c>
       <c r="G271" t="n">
-        <v>75809.12974176576</v>
+        <v>57925.67001517676</v>
       </c>
       <c r="H271" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I271" t="n">
-        <v>9220689</v>
+        <v>9438680</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2392801</v>
+        <v>2355257</v>
       </c>
       <c r="E272" t="n">
-        <v>3284079</v>
+        <v>3232552</v>
       </c>
       <c r="F272" t="n">
-        <v>14.15811736547049</v>
+        <v>19.47827699432092</v>
       </c>
       <c r="G272" t="n">
-        <v>43.50601045375699</v>
+        <v>35.45860568589107</v>
       </c>
       <c r="H272" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I272" t="n">
-        <v>1792224</v>
+        <v>1764560</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56705</v>
+        <v>56648</v>
       </c>
       <c r="F2" t="n">
-        <v>8.362459605128338</v>
+        <v>8.361956597693665</v>
       </c>
       <c r="G2" t="n">
-        <v>10.8754127024528</v>
+        <v>10.87475853923972</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>448.18</v>
+        <v>447.71</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92472</v>
+        <v>92661</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1653.31</v>
+        <v>1576.75</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>600741831</v>
+        <v>595849863</v>
       </c>
       <c r="E4" t="n">
-        <v>1165768853</v>
+        <v>1156276155</v>
       </c>
       <c r="F4" t="n">
-        <v>18522.82033185448</v>
+        <v>22533.58772923402</v>
       </c>
       <c r="G4" t="n">
-        <v>24288.26795010161</v>
+        <v>21229.97658197416</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>40101025</v>
+        <v>40835477</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1451645</v>
+        <v>1479131</v>
       </c>
       <c r="E5" t="n">
-        <v>4692314</v>
+        <v>4781160</v>
       </c>
       <c r="F5" t="n">
-        <v>214.3350507235823</v>
+        <v>548.6966786186351</v>
       </c>
       <c r="G5" t="n">
-        <v>4209.730858771265</v>
+        <v>3200.414055790379</v>
       </c>
       <c r="H5" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="I5" t="n">
-        <v>218469</v>
+        <v>221767</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>141184537</v>
+        <v>140336257</v>
       </c>
       <c r="E6" t="n">
-        <v>156454531</v>
+        <v>155514504</v>
       </c>
       <c r="F6" t="n">
-        <v>208136.6499713101</v>
+        <v>210595.0208393777</v>
       </c>
       <c r="G6" t="n">
-        <v>288269.2148742685</v>
+        <v>258301.0138079327</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>51094367</v>
+        <v>51253632</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3818.55</v>
+        <v>3817.92</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.98</v>
+        <v>153.83</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8319655</v>
+        <v>8330406</v>
       </c>
       <c r="E8" t="n">
-        <v>8529446</v>
+        <v>8540468</v>
       </c>
       <c r="F8" t="n">
-        <v>417.3210193307555</v>
+        <v>432.2831196833875</v>
       </c>
       <c r="G8" t="n">
-        <v>4396.956826542581</v>
+        <v>4276.528171220403</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I8" t="n">
-        <v>96379</v>
+        <v>95353</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>294764</v>
+        <v>294228</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>6.12</v>
       </c>
       <c r="I9" t="n">
-        <v>745.1</v>
+        <v>741.88</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5096419</v>
+        <v>5098457</v>
       </c>
       <c r="E10" t="n">
-        <v>8142546</v>
+        <v>8145802</v>
       </c>
       <c r="F10" t="n">
-        <v>213.5843178825755</v>
+        <v>218.7609947518847</v>
       </c>
       <c r="G10" t="n">
-        <v>230.4599691260009</v>
+        <v>233.5923153407024</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="I10" t="n">
-        <v>99688</v>
+        <v>100210</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>999693</v>
+        <v>1001484</v>
       </c>
       <c r="E11" t="n">
-        <v>12233550</v>
+        <v>12255463</v>
       </c>
       <c r="F11" t="n">
-        <v>1570.146392557094</v>
+        <v>1569.762008627604</v>
       </c>
       <c r="G11" t="n">
-        <v>1381.02247576096</v>
+        <v>1342.122618470228</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>403.15</v>
+        <v>421.4</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>570008</v>
+        <v>569132</v>
       </c>
       <c r="E12" t="n">
-        <v>570008</v>
+        <v>569132</v>
       </c>
       <c r="F12" t="n">
-        <v>232.6961364012142</v>
+        <v>190.2597573009859</v>
       </c>
       <c r="G12" t="n">
-        <v>201.3006662155437</v>
+        <v>211.2348124749177</v>
       </c>
       <c r="H12" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="I12" t="n">
-        <v>28299</v>
+        <v>28320</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4261208</v>
+        <v>4246098</v>
       </c>
       <c r="E13" t="n">
-        <v>26165844</v>
+        <v>26073058</v>
       </c>
       <c r="F13" t="n">
-        <v>662.2679721288242</v>
+        <v>504.2609066709313</v>
       </c>
       <c r="G13" t="n">
-        <v>410.5710733823277</v>
+        <v>342.1476968809288</v>
       </c>
       <c r="H13" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="I13" t="n">
-        <v>668443</v>
+        <v>665465</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>196187</v>
+        <v>197582</v>
       </c>
       <c r="E14" t="n">
-        <v>2158272</v>
+        <v>2173622</v>
       </c>
       <c r="F14" t="n">
-        <v>263.6318022723446</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>340.7953580800114</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.74</v>
+        <v>13.36</v>
       </c>
       <c r="I14" t="n">
-        <v>34238</v>
+        <v>34823</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3251626</v>
+        <v>3227868</v>
       </c>
       <c r="E15" t="n">
-        <v>9250589</v>
+        <v>9182998</v>
       </c>
       <c r="F15" t="n">
-        <v>450.4692953009012</v>
+        <v>315.2142414462584</v>
       </c>
       <c r="G15" t="n">
-        <v>144.6857464022291</v>
+        <v>109.1064428523217</v>
       </c>
       <c r="H15" t="n">
-        <v>1.19</v>
+        <v>1.51</v>
       </c>
       <c r="I15" t="n">
-        <v>113137</v>
+        <v>113122</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>310705</v>
+        <v>308480</v>
       </c>
       <c r="E16" t="n">
-        <v>3585910</v>
+        <v>3560222</v>
       </c>
       <c r="F16" t="n">
-        <v>139.1451579508305</v>
+        <v>138.1053507566784</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0613921081164</v>
+        <v>130.5327555386364</v>
       </c>
       <c r="H16" t="n">
         <v>0.41</v>
       </c>
       <c r="I16" t="n">
-        <v>2494.28</v>
+        <v>890.77</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>940301</v>
+        <v>945938</v>
       </c>
       <c r="F17" t="n">
-        <v>32.19683680779934</v>
+        <v>33.24733299736489</v>
       </c>
       <c r="G17" t="n">
-        <v>10.73266987247627</v>
+        <v>64.23825501027488</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.53</v>
       </c>
       <c r="I17" t="n">
-        <v>10640.2</v>
+        <v>10626.86</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24328731</v>
+        <v>24201258</v>
       </c>
       <c r="E18" t="n">
-        <v>24373604</v>
+        <v>24245896</v>
       </c>
       <c r="F18" t="n">
-        <v>1812.269521678366</v>
+        <v>1203.395409577091</v>
       </c>
       <c r="G18" t="n">
-        <v>1202.858554157845</v>
+        <v>2643.643215124342</v>
       </c>
       <c r="H18" t="n">
-        <v>0.68</v>
+        <v>0.32</v>
       </c>
       <c r="I18" t="n">
-        <v>891669</v>
+        <v>894347</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6723481</v>
+        <v>6541020</v>
       </c>
       <c r="F19" t="n">
-        <v>13.90979246177476</v>
+        <v>13.90895577862729</v>
       </c>
       <c r="G19" t="n">
-        <v>34.64930899238865</v>
+        <v>0.400254039844077</v>
       </c>
       <c r="H19" t="n">
         <v>3.87</v>
       </c>
       <c r="I19" t="n">
-        <v>22077</v>
+        <v>19560.99</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2421781</v>
+        <v>2426461</v>
       </c>
       <c r="E20" t="n">
-        <v>2421781</v>
+        <v>2426461</v>
       </c>
       <c r="F20" t="n">
-        <v>38.66369911717496</v>
+        <v>251.5079586086188</v>
       </c>
       <c r="G20" t="n">
-        <v>122.0668107494187</v>
+        <v>24.50373571042746</v>
       </c>
       <c r="H20" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="I20" t="n">
-        <v>313675</v>
+        <v>315432</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>355739</v>
+        <v>359670</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4.78</v>
+        <v>5.56</v>
       </c>
       <c r="I21" t="n">
-        <v>9440.700000000001</v>
+        <v>9445.09</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17314222</v>
+        <v>17176303</v>
       </c>
       <c r="E22" t="n">
-        <v>22284825</v>
+        <v>22107312</v>
       </c>
       <c r="F22" t="n">
-        <v>456.4891592862787</v>
+        <v>453.6425423694068</v>
       </c>
       <c r="G22" t="n">
-        <v>10143.72066255054</v>
+        <v>2325.413436518493</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I22" t="n">
-        <v>1942021</v>
+        <v>1904390</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>495098846</v>
+        <v>488257610</v>
       </c>
       <c r="E23" t="n">
-        <v>495098846</v>
+        <v>488257615</v>
       </c>
       <c r="F23" t="n">
-        <v>46959.53546299709</v>
+        <v>39831.61697233478</v>
       </c>
       <c r="G23" t="n">
-        <v>57810.07949663348</v>
+        <v>40177.03519947475</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>70825372</v>
+        <v>84228081</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18223.08</v>
+        <v>18220.07</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.78</v>
+        <v>6.93</v>
       </c>
       <c r="I24" t="n">
-        <v>2641.26</v>
+        <v>2638.54</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4607605</v>
+        <v>4616739</v>
       </c>
       <c r="E25" t="n">
-        <v>4607605</v>
+        <v>4616739</v>
       </c>
       <c r="F25" t="n">
-        <v>337.3092842736903</v>
+        <v>413.2824151018603</v>
       </c>
       <c r="G25" t="n">
-        <v>1117.003748715265</v>
+        <v>1374.14859987989</v>
       </c>
       <c r="H25" t="n">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="I25" t="n">
-        <v>2072074</v>
+        <v>2171721</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3344639</v>
+        <v>3321363</v>
       </c>
       <c r="E26" t="n">
-        <v>3344639</v>
+        <v>3321363</v>
       </c>
       <c r="F26" t="n">
-        <v>68.92603892182989</v>
+        <v>31.20966324646565</v>
       </c>
       <c r="G26" t="n">
-        <v>1215.839452777716</v>
+        <v>1013.430382163394</v>
       </c>
       <c r="H26" t="n">
-        <v>2.35</v>
+        <v>1.45</v>
       </c>
       <c r="I26" t="n">
-        <v>603445</v>
+        <v>601402</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>310359</v>
+        <v>310538</v>
       </c>
       <c r="E27" t="n">
-        <v>1448787</v>
+        <v>1449622</v>
       </c>
       <c r="F27" t="n">
-        <v>107.4431560214084</v>
+        <v>124.0233889691357</v>
       </c>
       <c r="G27" t="n">
-        <v>325.8591304992378</v>
+        <v>31.75782904829592</v>
       </c>
       <c r="H27" t="n">
-        <v>2.89</v>
+        <v>0.85</v>
       </c>
       <c r="I27" t="n">
-        <v>692382</v>
+        <v>691103</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1876152</v>
+        <v>1775208</v>
       </c>
       <c r="F28" t="n">
-        <v>489.2165869385369</v>
+        <v>330.2052304896992</v>
       </c>
       <c r="G28" t="n">
-        <v>348.0118977909157</v>
+        <v>201.5155666924735</v>
       </c>
       <c r="H28" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I28" t="n">
-        <v>1147353</v>
+        <v>1140286</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11886209</v>
+        <v>11830458</v>
       </c>
       <c r="E29" t="n">
-        <v>29582623</v>
+        <v>29443871</v>
       </c>
       <c r="F29" t="n">
-        <v>993.8264789350079</v>
+        <v>608.2175413736343</v>
       </c>
       <c r="G29" t="n">
-        <v>1160.621693527228</v>
+        <v>1112.849543281779</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3</v>
+        <v>0.68</v>
       </c>
       <c r="I29" t="n">
-        <v>1529214</v>
+        <v>1516041</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>904782</v>
+        <v>894416</v>
       </c>
       <c r="E30" t="n">
-        <v>6333473</v>
+        <v>6260910</v>
       </c>
       <c r="F30" t="n">
-        <v>17.46182079635345</v>
+        <v>14.6136703908379</v>
       </c>
       <c r="G30" t="n">
-        <v>1003.996698504446</v>
+        <v>979.123306441925</v>
       </c>
       <c r="H30" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="I30" t="n">
-        <v>96647</v>
+        <v>230399</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176742</v>
+        <v>176309</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>777.05</v>
+        <v>774.23</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5522254</v>
+        <v>5556450</v>
       </c>
       <c r="E32" t="n">
-        <v>5786439</v>
+        <v>5822271</v>
       </c>
       <c r="F32" t="n">
-        <v>39.40991298090527</v>
+        <v>64.19999152329197</v>
       </c>
       <c r="G32" t="n">
-        <v>97.59717002236032</v>
+        <v>124.7719622234962</v>
       </c>
       <c r="H32" t="n">
-        <v>3.48</v>
+        <v>3.02</v>
       </c>
       <c r="I32" t="n">
-        <v>159864</v>
+        <v>156326</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4756099</v>
+        <v>4768213</v>
       </c>
       <c r="E33" t="n">
-        <v>7001235</v>
+        <v>7019067</v>
       </c>
       <c r="F33" t="n">
-        <v>105.0213781545158</v>
+        <v>85.74714241351091</v>
       </c>
       <c r="G33" t="n">
-        <v>31.58898634411776</v>
+        <v>108.9663711962228</v>
       </c>
       <c r="H33" t="n">
-        <v>3.18</v>
+        <v>2.51</v>
       </c>
       <c r="I33" t="n">
-        <v>556266</v>
+        <v>551141</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7495469</v>
+        <v>7495032</v>
       </c>
       <c r="E34" t="n">
-        <v>7495469</v>
+        <v>7495032</v>
       </c>
       <c r="F34" t="n">
-        <v>2591.639643920183</v>
+        <v>3061.448517411761</v>
       </c>
       <c r="G34" t="n">
-        <v>2641.842746949927</v>
+        <v>2879.939945181326</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I34" t="n">
-        <v>104476</v>
+        <v>282940</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1568490</v>
+        <v>1573665</v>
       </c>
       <c r="E35" t="n">
-        <v>1568514</v>
+        <v>1573665</v>
       </c>
       <c r="F35" t="n">
-        <v>42.85868097670745</v>
+        <v>100.9371046001107</v>
       </c>
       <c r="G35" t="n">
-        <v>150.8641678205479</v>
+        <v>101.3722177943475</v>
       </c>
       <c r="H35" t="n">
-        <v>3.65</v>
+        <v>3.58</v>
       </c>
       <c r="I35" t="n">
-        <v>286591</v>
+        <v>285233</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15670495</v>
+        <v>15733487</v>
       </c>
       <c r="F36" t="n">
-        <v>289.1752965810393</v>
+        <v>288.6383060890589</v>
       </c>
       <c r="G36" t="n">
-        <v>199.1462756263345</v>
+        <v>184.8973771352587</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>11062.89</v>
+        <v>12004.86</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63731</v>
+        <v>56793</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.51</v>
+        <v>4.65</v>
       </c>
       <c r="I37" t="n">
-        <v>1283.76</v>
+        <v>1721.65</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>139959609</v>
+        <v>138550013</v>
       </c>
       <c r="E38" t="n">
-        <v>139959609</v>
+        <v>138550013</v>
       </c>
       <c r="F38" t="n">
-        <v>267376.5696325147</v>
+        <v>277764.1083520496</v>
       </c>
       <c r="G38" t="n">
-        <v>299468.5082063008</v>
+        <v>257820.3843894316</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>91096260</v>
+        <v>91983442</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64137406</v>
+        <v>63995135</v>
       </c>
       <c r="E39" t="n">
-        <v>328909776</v>
+        <v>328180181</v>
       </c>
       <c r="F39" t="n">
-        <v>92939.5657949172</v>
+        <v>91320.96589898133</v>
       </c>
       <c r="G39" t="n">
-        <v>81732.72509487397</v>
+        <v>69459.62924257897</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>25752095</v>
+        <v>27277439</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46358</v>
+        <v>46351</v>
       </c>
       <c r="E40" t="n">
-        <v>136997</v>
+        <v>136974</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>10.77</v>
+        <v>10.74</v>
       </c>
       <c r="I40" t="n">
-        <v>18.74</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49612</v>
+        <v>49195</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.02</v>
+        <v>6.06</v>
       </c>
       <c r="I41" t="n">
-        <v>22329</v>
+        <v>22364</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>596558</v>
+        <v>598094</v>
       </c>
       <c r="F42" t="n">
-        <v>1887.253074984151</v>
+        <v>1012.744810392206</v>
       </c>
       <c r="G42" t="n">
-        <v>425.0663282118209</v>
+        <v>425.1432643875975</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1231.54</v>
+        <v>1246.55</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2625075</v>
+        <v>2634835</v>
       </c>
       <c r="E44" t="n">
-        <v>10549579</v>
+        <v>10588803</v>
       </c>
       <c r="F44" t="n">
-        <v>341.2617663725935</v>
+        <v>338.2403548333158</v>
       </c>
       <c r="G44" t="n">
-        <v>209.3728745842675</v>
+        <v>209.2243460397986</v>
       </c>
       <c r="H44" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I44" t="n">
-        <v>55024</v>
+        <v>53468</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17968888</v>
+        <v>17985022</v>
       </c>
       <c r="E45" t="n">
-        <v>125671818</v>
+        <v>125781481</v>
       </c>
       <c r="F45" t="n">
-        <v>188.6468882574303</v>
+        <v>188.886114674616</v>
       </c>
       <c r="G45" t="n">
-        <v>286.2952936932556</v>
+        <v>286.318149916894</v>
       </c>
       <c r="H45" t="n">
         <v>0.63</v>
       </c>
       <c r="I45" t="n">
-        <v>1135167</v>
+        <v>1152689</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>168139</v>
+        <v>167121</v>
       </c>
       <c r="E46" t="n">
-        <v>2249794</v>
+        <v>2236173</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>47320</v>
+        <v>47164</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>253478088</v>
+        <v>251120335</v>
       </c>
       <c r="E47" t="n">
-        <v>253478088</v>
+        <v>251120335</v>
       </c>
       <c r="F47" t="n">
-        <v>100725.4677287163</v>
+        <v>94042.79138931497</v>
       </c>
       <c r="G47" t="n">
-        <v>94754.09725747723</v>
+        <v>96213.36456177842</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>29445733</v>
+        <v>29644934</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>637507</v>
+        <v>637457</v>
       </c>
       <c r="E48" t="n">
-        <v>637507</v>
+        <v>637457</v>
       </c>
       <c r="F48" t="n">
-        <v>216.7025172562934</v>
+        <v>216.197325454732</v>
       </c>
       <c r="G48" t="n">
-        <v>88.8560047587539</v>
+        <v>87.51389843992149</v>
       </c>
       <c r="H48" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="I48" t="n">
-        <v>2702.69</v>
+        <v>2700.49</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>424078438</v>
+        <v>418430384</v>
       </c>
       <c r="E50" t="n">
-        <v>424078438</v>
+        <v>418430384</v>
       </c>
       <c r="F50" t="n">
-        <v>5106.107006449036</v>
+        <v>4917.529162679224</v>
       </c>
       <c r="G50" t="n">
-        <v>79279.08527381545</v>
+        <v>6325.391185072986</v>
       </c>
       <c r="H50" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="I50" t="n">
-        <v>3895742</v>
+        <v>3844658</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2312374</v>
+        <v>2300810</v>
       </c>
       <c r="E51" t="n">
-        <v>2312374</v>
+        <v>2300810</v>
       </c>
       <c r="F51" t="n">
-        <v>308.1776966432374</v>
+        <v>59.98797855795718</v>
       </c>
       <c r="G51" t="n">
-        <v>2101.354854817256</v>
+        <v>3319.900716292287</v>
       </c>
       <c r="H51" t="n">
-        <v>3.66</v>
+        <v>1.5</v>
       </c>
       <c r="I51" t="n">
-        <v>103508</v>
+        <v>137322</v>
       </c>
     </row>
     <row r="52">
@@ -2237,22 +2237,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23277</v>
+        <v>23287</v>
       </c>
       <c r="E52" t="n">
-        <v>46555</v>
+        <v>46574</v>
       </c>
       <c r="F52" t="n">
-        <v>4.999188445475332</v>
+        <v>4.998763892202585</v>
       </c>
       <c r="G52" t="n">
-        <v>195.1423852620236</v>
+        <v>192.6043469819903</v>
       </c>
       <c r="H52" t="n">
         <v>0.43</v>
       </c>
       <c r="I52" t="n">
-        <v>2959.39</v>
+        <v>2893.49</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>165118</v>
+        <v>164944</v>
       </c>
       <c r="F53" t="n">
-        <v>29.36617068167</v>
+        <v>70.59580084631789</v>
       </c>
       <c r="G53" t="n">
-        <v>50.66875244550638</v>
+        <v>65.48687637566454</v>
       </c>
       <c r="H53" t="n">
-        <v>0.76</v>
+        <v>2.31</v>
       </c>
       <c r="I53" t="n">
-        <v>20755</v>
+        <v>20463</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2568785</v>
+        <v>2558127</v>
       </c>
       <c r="E54" t="n">
-        <v>6567322</v>
+        <v>6540073</v>
       </c>
       <c r="F54" t="n">
-        <v>204.373395399985</v>
+        <v>82.17734397479322</v>
       </c>
       <c r="G54" t="n">
-        <v>88.15060268965388</v>
+        <v>88.48410114666493</v>
       </c>
       <c r="H54" t="n">
-        <v>1.78</v>
+        <v>2.23</v>
       </c>
       <c r="I54" t="n">
-        <v>80964</v>
+        <v>81823</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3468.3</v>
+        <v>3476.36</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>5.33</v>
       </c>
       <c r="I55" t="n">
-        <v>1622.68</v>
+        <v>1623.17</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>62925270</v>
+        <v>60984372</v>
       </c>
       <c r="E56" t="n">
-        <v>62925270</v>
+        <v>60984372</v>
       </c>
       <c r="F56" t="n">
-        <v>3033.671103485913</v>
+        <v>3324.274967685167</v>
       </c>
       <c r="G56" t="n">
-        <v>5265.391804175604</v>
+        <v>5412.150867154543</v>
       </c>
       <c r="H56" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="I56" t="n">
-        <v>5673946</v>
+        <v>5769251</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3356595</v>
+        <v>3274186</v>
       </c>
       <c r="E57" t="n">
-        <v>4253392</v>
+        <v>4148966</v>
       </c>
       <c r="F57" t="n">
-        <v>271.3007789436583</v>
+        <v>171.5792560661552</v>
       </c>
       <c r="G57" t="n">
-        <v>165.8166836274158</v>
+        <v>390.0017049979752</v>
       </c>
       <c r="H57" t="n">
-        <v>0.22</v>
+        <v>1.14</v>
       </c>
       <c r="I57" t="n">
-        <v>194029</v>
+        <v>194816</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4189624</v>
+        <v>4149899</v>
       </c>
       <c r="E58" t="n">
-        <v>8262292</v>
+        <v>8183950</v>
       </c>
       <c r="F58" t="n">
-        <v>3878.755844252583</v>
+        <v>2631.049839875173</v>
       </c>
       <c r="G58" t="n">
-        <v>2201.457925336739</v>
+        <v>2153.168007260125</v>
       </c>
       <c r="H58" t="n">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
       <c r="I58" t="n">
-        <v>1675686</v>
+        <v>1663427</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1591726</v>
+        <v>1595435</v>
       </c>
       <c r="E59" t="n">
-        <v>9139094</v>
+        <v>9160391</v>
       </c>
       <c r="F59" t="n">
-        <v>258.2738321783248</v>
+        <v>150.0571115388991</v>
       </c>
       <c r="G59" t="n">
-        <v>840.4958476709323</v>
+        <v>323.9645258006004</v>
       </c>
       <c r="H59" t="n">
-        <v>1.61</v>
+        <v>2.64</v>
       </c>
       <c r="I59" t="n">
-        <v>243442</v>
+        <v>244083</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>605364</v>
+        <v>579264</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>13.7</v>
+        <v>19.44</v>
       </c>
       <c r="I60" t="n">
-        <v>5566.78</v>
+        <v>5606.17</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31146547</v>
+        <v>31091664</v>
       </c>
       <c r="F61" t="n">
-        <v>690.5169700500339</v>
+        <v>676.9907104654631</v>
       </c>
       <c r="G61" t="n">
-        <v>1716.219646039103</v>
+        <v>1604.417588544833</v>
       </c>
       <c r="H61" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>235369</v>
+        <v>234235</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1442069</v>
+        <v>1455363</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.96</v>
+        <v>5.82</v>
       </c>
       <c r="I62" t="n">
-        <v>8857.34</v>
+        <v>8850.34</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17385235</v>
+        <v>17322706</v>
       </c>
       <c r="E63" t="n">
-        <v>18323629</v>
+        <v>18257726</v>
       </c>
       <c r="F63" t="n">
-        <v>1129.593238427649</v>
+        <v>1128.276667758197</v>
       </c>
       <c r="G63" t="n">
-        <v>1860.098318105679</v>
+        <v>1859.617400284458</v>
       </c>
       <c r="H63" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="I63" t="n">
-        <v>42282</v>
+        <v>41134</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2940755</v>
+        <v>2936969</v>
       </c>
       <c r="E64" t="n">
-        <v>2940755</v>
+        <v>2936969</v>
       </c>
       <c r="F64" t="n">
-        <v>114.6019374876339</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9447405996574476</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.68</v>
+        <v>9.83</v>
       </c>
       <c r="I64" t="n">
-        <v>13458.62</v>
+        <v>13983.99</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3335904</v>
+        <v>3351336</v>
       </c>
       <c r="E65" t="n">
-        <v>8231174</v>
+        <v>8269250</v>
       </c>
       <c r="F65" t="n">
-        <v>580.0807864570144</v>
+        <v>835.8327538055394</v>
       </c>
       <c r="G65" t="n">
-        <v>1154.984826003853</v>
+        <v>1127.131981859515</v>
       </c>
       <c r="H65" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="I65" t="n">
-        <v>44371</v>
+        <v>43207</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>245970</v>
+        <v>246012</v>
       </c>
       <c r="F66" t="n">
-        <v>22.83629081210507</v>
+        <v>22.83435114621512</v>
       </c>
       <c r="G66" t="n">
-        <v>85.74316356529593</v>
+        <v>85.73588072365443</v>
       </c>
       <c r="H66" t="n">
         <v>3.57</v>
       </c>
       <c r="I66" t="n">
-        <v>3503.89</v>
+        <v>3502.41</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>83475223</v>
+        <v>83483591</v>
       </c>
       <c r="E67" t="n">
-        <v>174039136</v>
+        <v>174056583</v>
       </c>
       <c r="F67" t="n">
-        <v>31504.63657267698</v>
+        <v>36606.24293373629</v>
       </c>
       <c r="G67" t="n">
-        <v>84881.88505836729</v>
+        <v>79955.11293293518</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="I67" t="n">
-        <v>68922175</v>
+        <v>69293829</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1778661</v>
+        <v>1778367</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.81</v>
       </c>
       <c r="I68" t="n">
-        <v>3804.21</v>
+        <v>3800.29</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>192091601</v>
+        <v>185767664</v>
       </c>
       <c r="F69" t="n">
-        <v>5171.627228503233</v>
+        <v>2374.865857632776</v>
       </c>
       <c r="G69" t="n">
-        <v>6072.704734656257</v>
+        <v>8510.265289193083</v>
       </c>
       <c r="H69" t="n">
-        <v>0.15</v>
+        <v>0.68</v>
       </c>
       <c r="I69" t="n">
-        <v>2994873</v>
+        <v>3120806</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>186964</v>
+        <v>187047</v>
       </c>
       <c r="E70" t="n">
-        <v>195243</v>
+        <v>195330</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>192.37</v>
+        <v>192.8</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>139742972</v>
+        <v>138162302</v>
       </c>
       <c r="E71" t="n">
-        <v>139799485</v>
+        <v>138218175</v>
       </c>
       <c r="F71" t="n">
-        <v>28442.70142774662</v>
+        <v>21624.98968865341</v>
       </c>
       <c r="G71" t="n">
-        <v>27407.32786243681</v>
+        <v>21744.79102921638</v>
       </c>
       <c r="H71" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="I71" t="n">
-        <v>3179935</v>
+        <v>3224625</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25447204</v>
+        <v>25395612</v>
       </c>
       <c r="E72" t="n">
-        <v>83512861</v>
+        <v>83343545</v>
       </c>
       <c r="F72" t="n">
-        <v>6003.072173017231</v>
+        <v>4912.59792907158</v>
       </c>
       <c r="G72" t="n">
-        <v>31558.37434505901</v>
+        <v>32500.32680280556</v>
       </c>
       <c r="H72" t="n">
-        <v>0.12</v>
+        <v>0.59</v>
       </c>
       <c r="I72" t="n">
-        <v>117193</v>
+        <v>130202</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113340</v>
+        <v>113308</v>
       </c>
       <c r="E73" t="n">
-        <v>113340</v>
+        <v>113308</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6.32</v>
+        <v>5.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1337.35</v>
+        <v>1335.68</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>197870879</v>
+        <v>196452022</v>
       </c>
       <c r="E74" t="n">
-        <v>687421316</v>
+        <v>682492079</v>
       </c>
       <c r="F74" t="n">
-        <v>104200.5710619652</v>
+        <v>88879.3616260788</v>
       </c>
       <c r="G74" t="n">
-        <v>131719.3207401071</v>
+        <v>83764.0930071996</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I74" t="n">
-        <v>44104693</v>
+        <v>44508733</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3355593</v>
+        <v>3363992</v>
       </c>
       <c r="E75" t="n">
-        <v>3355593</v>
+        <v>3363992</v>
       </c>
       <c r="F75" t="n">
-        <v>712.5285265630525</v>
+        <v>466.5942248009134</v>
       </c>
       <c r="G75" t="n">
-        <v>1005.158484103348</v>
+        <v>669.6005461936161</v>
       </c>
       <c r="H75" t="n">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="I75" t="n">
-        <v>2489111</v>
+        <v>2413139</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>109839762</v>
+        <v>109492732</v>
       </c>
       <c r="E76" t="n">
-        <v>466013625</v>
+        <v>464525152</v>
       </c>
       <c r="F76" t="n">
-        <v>146293.3110312562</v>
+        <v>131281.1426180947</v>
       </c>
       <c r="G76" t="n">
-        <v>130398.6500734374</v>
+        <v>135129.705218382</v>
       </c>
       <c r="H76" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="I76" t="n">
-        <v>14954737</v>
+        <v>14931993</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1821699</v>
+        <v>1815950</v>
       </c>
       <c r="F77" t="n">
-        <v>35.47312370074297</v>
+        <v>35.47011068918965</v>
       </c>
       <c r="G77" t="n">
-        <v>25.76240954436249</v>
+        <v>25.76022134018138</v>
       </c>
       <c r="H77" t="n">
         <v>1.09</v>
       </c>
       <c r="I77" t="n">
-        <v>504.2</v>
+        <v>502.28</v>
       </c>
     </row>
     <row r="78">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3217929</v>
+        <v>3233683</v>
       </c>
       <c r="E78" t="n">
-        <v>16134049</v>
+        <v>16213035</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
       <c r="I78" t="n">
-        <v>30681</v>
+        <v>30799</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>519529</v>
+        <v>520137</v>
       </c>
       <c r="E79" t="n">
-        <v>8886511</v>
+        <v>8896908</v>
       </c>
       <c r="F79" t="n">
-        <v>2.935370530505057</v>
+        <v>308.290092599548</v>
       </c>
       <c r="G79" t="n">
-        <v>501.9719611855354</v>
+        <v>119.3525356369311</v>
       </c>
       <c r="H79" t="n">
-        <v>2.81</v>
+        <v>2.91</v>
       </c>
       <c r="I79" t="n">
-        <v>137338</v>
+        <v>133527</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5673580</v>
+        <v>5671672</v>
       </c>
       <c r="E80" t="n">
-        <v>7700087</v>
+        <v>7697307</v>
       </c>
       <c r="F80" t="n">
-        <v>340.7783246448795</v>
+        <v>512.9914449195998</v>
       </c>
       <c r="G80" t="n">
-        <v>1240.470832610879</v>
+        <v>766.6610519802053</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="I80" t="n">
-        <v>5081901</v>
+        <v>5131150</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41462</v>
+        <v>41539</v>
       </c>
       <c r="F81" t="n">
-        <v>233.863286699318</v>
+        <v>233.8966657841249</v>
       </c>
       <c r="G81" t="n">
-        <v>142.5569161540641</v>
+        <v>138.7257610430587</v>
       </c>
       <c r="H81" t="n">
         <v>1.01</v>
       </c>
       <c r="I81" t="n">
-        <v>38488</v>
+        <v>38364</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40452159</v>
+        <v>39675130</v>
       </c>
       <c r="E82" t="n">
-        <v>47247161</v>
+        <v>46339610</v>
       </c>
       <c r="F82" t="n">
-        <v>462.2964182217025</v>
+        <v>469.5862982144182</v>
       </c>
       <c r="G82" t="n">
-        <v>224.1349333061393</v>
+        <v>111.5582304996011</v>
       </c>
       <c r="H82" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="I82" t="n">
-        <v>963266</v>
+        <v>967649</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14427419</v>
+        <v>14355897</v>
       </c>
       <c r="F83" t="n">
-        <v>357.6591156140242</v>
+        <v>182.4826433982662</v>
       </c>
       <c r="G83" t="n">
-        <v>361.4183667221917</v>
+        <v>377.4297046786885</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7</v>
+        <v>1.12</v>
       </c>
       <c r="I83" t="n">
-        <v>224251</v>
+        <v>223128</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35617883</v>
+        <v>35232057</v>
       </c>
       <c r="E84" t="n">
-        <v>35617883</v>
+        <v>35232057</v>
       </c>
       <c r="F84" t="n">
-        <v>410.4000251968779</v>
+        <v>575.2449428380048</v>
       </c>
       <c r="G84" t="n">
-        <v>494.5871788437836</v>
+        <v>15.73357233054644</v>
       </c>
       <c r="H84" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="I84" t="n">
-        <v>865507</v>
+        <v>870923</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>552441</v>
+        <v>547755</v>
       </c>
       <c r="E85" t="n">
-        <v>6700576</v>
+        <v>6643737</v>
       </c>
       <c r="F85" t="n">
-        <v>429.286869233386</v>
+        <v>264.1096954486545</v>
       </c>
       <c r="G85" t="n">
-        <v>409.3602936361581</v>
+        <v>422.2103690241868</v>
       </c>
       <c r="H85" t="n">
-        <v>1.08</v>
+        <v>0.44</v>
       </c>
       <c r="I85" t="n">
-        <v>2832017</v>
+        <v>2857419</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24725399</v>
+        <v>24628976</v>
       </c>
       <c r="E86" t="n">
-        <v>34940976</v>
+        <v>34804714</v>
       </c>
       <c r="F86" t="n">
-        <v>57.89941476402828</v>
+        <v>39.04867061137261</v>
       </c>
       <c r="G86" t="n">
-        <v>382.4131926709678</v>
+        <v>265.3702430971163</v>
       </c>
       <c r="H86" t="n">
-        <v>0.47</v>
+        <v>3.22</v>
       </c>
       <c r="I86" t="n">
-        <v>116381</v>
+        <v>120575</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1377469078</v>
+        <v>1356644231</v>
       </c>
       <c r="E87" t="n">
-        <v>6605246329</v>
+        <v>6505386922</v>
       </c>
       <c r="F87" t="n">
-        <v>475296.9070166952</v>
+        <v>362295.9589246108</v>
       </c>
       <c r="G87" t="n">
-        <v>656476.0906603213</v>
+        <v>326734.4062883073</v>
       </c>
       <c r="H87" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>459265484</v>
+        <v>463016695</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>259129831</v>
+        <v>258233724</v>
       </c>
       <c r="E88" t="n">
-        <v>1118548204</v>
+        <v>1114680107</v>
       </c>
       <c r="F88" t="n">
-        <v>922239.5223484696</v>
+        <v>997278.1046279473</v>
       </c>
       <c r="G88" t="n">
-        <v>872689.685567515</v>
+        <v>693792.0365799196</v>
       </c>
       <c r="H88" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I88" t="n">
-        <v>137426146</v>
+        <v>138166111</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>112592611</v>
+        <v>112216242</v>
       </c>
       <c r="E89" t="n">
-        <v>112592611</v>
+        <v>112216242</v>
       </c>
       <c r="F89" t="n">
-        <v>43270.09833334103</v>
+        <v>41587.14990436933</v>
       </c>
       <c r="G89" t="n">
-        <v>20169.72906673423</v>
+        <v>17123.20871943543</v>
       </c>
       <c r="H89" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="I89" t="n">
-        <v>6894912</v>
+        <v>6899059</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3791514</v>
+        <v>3794923</v>
       </c>
       <c r="E90" t="n">
-        <v>29505104</v>
+        <v>29531634</v>
       </c>
       <c r="F90" t="n">
-        <v>2699.710457698389</v>
+        <v>6334.003767350001</v>
       </c>
       <c r="G90" t="n">
-        <v>2439.754403651388</v>
+        <v>958.3070945710947</v>
       </c>
       <c r="H90" t="n">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
       <c r="I90" t="n">
-        <v>23288</v>
+        <v>23483</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3767596</v>
+        <v>3849289</v>
       </c>
       <c r="F91" t="n">
-        <v>279.2372256692191</v>
+        <v>275.7532424397081</v>
       </c>
       <c r="G91" t="n">
-        <v>351.7165735977489</v>
+        <v>154.5300442830595</v>
       </c>
       <c r="H91" t="n">
-        <v>2.27</v>
+        <v>1.74</v>
       </c>
       <c r="I91" t="n">
-        <v>378500</v>
+        <v>355893</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>849360</v>
+        <v>849220</v>
       </c>
       <c r="F92" t="n">
-        <v>89.61136512861992</v>
+        <v>120.3191117160244</v>
       </c>
       <c r="G92" t="n">
-        <v>393.694048071941</v>
+        <v>424.0603290954274</v>
       </c>
       <c r="H92" t="n">
-        <v>2.3</v>
+        <v>3.18</v>
       </c>
       <c r="I92" t="n">
-        <v>9768.809999999999</v>
+        <v>9758.73</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>125553</v>
+        <v>126439</v>
       </c>
       <c r="F93" t="n">
-        <v>94.99554652801925</v>
+        <v>6.158455386518336</v>
       </c>
       <c r="G93" t="n">
-        <v>3.085512759410766</v>
+        <v>3.085250723971535</v>
       </c>
       <c r="H93" t="n">
-        <v>1.23</v>
+        <v>0.98</v>
       </c>
       <c r="I93" t="n">
-        <v>128534</v>
+        <v>127782</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10323144</v>
+        <v>9902322</v>
       </c>
       <c r="E94" t="n">
-        <v>124293199</v>
+        <v>119226393</v>
       </c>
       <c r="F94" t="n">
-        <v>1372.163779305023</v>
+        <v>144.7365676418486</v>
       </c>
       <c r="G94" t="n">
-        <v>299.6399244321103</v>
+        <v>212.4546622940709</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="I94" t="n">
-        <v>486365</v>
+        <v>570517</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15508286</v>
+        <v>15736754</v>
       </c>
       <c r="E95" t="n">
-        <v>38770716</v>
+        <v>39341885</v>
       </c>
       <c r="F95" t="n">
-        <v>6562.200498468791</v>
+        <v>5411.121124090064</v>
       </c>
       <c r="G95" t="n">
-        <v>6910.611345652219</v>
+        <v>5090.403046462311</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>4593926</v>
+        <v>4660624</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2299539</v>
+        <v>2281459</v>
       </c>
       <c r="F96" t="n">
-        <v>173.2255390216286</v>
+        <v>173.0029300215912</v>
       </c>
       <c r="G96" t="n">
-        <v>136.3478720064284</v>
+        <v>172.8100547155893</v>
       </c>
       <c r="H96" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="I96" t="n">
-        <v>37470</v>
+        <v>37282</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19598208</v>
+        <v>19496859</v>
       </c>
       <c r="F97" t="n">
-        <v>377.2694955961406</v>
+        <v>404.2398395384668</v>
       </c>
       <c r="G97" t="n">
-        <v>1401.668876936063</v>
+        <v>960.6107271189713</v>
       </c>
       <c r="H97" t="n">
         <v>1.02</v>
       </c>
       <c r="I97" t="n">
-        <v>73680</v>
+        <v>70512</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4189837</v>
+        <v>4179716</v>
       </c>
       <c r="E98" t="n">
-        <v>12068110</v>
+        <v>12038959</v>
       </c>
       <c r="F98" t="n">
-        <v>131.1334284151793</v>
+        <v>1069.325206580063</v>
       </c>
       <c r="G98" t="n">
-        <v>738.9489590670946</v>
+        <v>567.4199593263779</v>
       </c>
       <c r="H98" t="n">
-        <v>1.81</v>
+        <v>0.66</v>
       </c>
       <c r="I98" t="n">
-        <v>504753</v>
+        <v>504103</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1529748</v>
+        <v>1504318</v>
       </c>
       <c r="F99" t="n">
-        <v>689.6348114420645</v>
+        <v>726.813295155276</v>
       </c>
       <c r="G99" t="n">
-        <v>105.0408057710241</v>
+        <v>104.9325508015305</v>
       </c>
       <c r="H99" t="n">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="I99" t="n">
-        <v>270229</v>
+        <v>268885</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>78708570</v>
+        <v>78392200</v>
       </c>
       <c r="E100" t="n">
-        <v>100162773</v>
+        <v>99760167</v>
       </c>
       <c r="F100" t="n">
-        <v>9805.334925632367</v>
+        <v>6699.625312660542</v>
       </c>
       <c r="G100" t="n">
-        <v>9440.404600941376</v>
+        <v>6394.66284135235</v>
       </c>
       <c r="H100" t="n">
-        <v>0.98</v>
+        <v>0.41</v>
       </c>
       <c r="I100" t="n">
-        <v>6445887</v>
+        <v>6446415</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22141466</v>
+        <v>22044833</v>
       </c>
       <c r="E101" t="n">
-        <v>28722547</v>
+        <v>28597191</v>
       </c>
       <c r="F101" t="n">
-        <v>6270.906670407889</v>
+        <v>4952.447566031617</v>
       </c>
       <c r="G101" t="n">
-        <v>7238.597134342192</v>
+        <v>6874.900835584144</v>
       </c>
       <c r="H101" t="n">
-        <v>0.45</v>
+        <v>0.76</v>
       </c>
       <c r="I101" t="n">
-        <v>210612</v>
+        <v>215297</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1559992</v>
+        <v>1560253</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>63.85067173244114</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>48.49880791855173</v>
       </c>
       <c r="H102" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I102" t="n">
-        <v>8245.860000000001</v>
+        <v>8242.549999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>625614</v>
+        <v>617802</v>
       </c>
       <c r="E103" t="n">
-        <v>625614</v>
+        <v>617802</v>
       </c>
       <c r="F103" t="n">
-        <v>417.3109670520617</v>
+        <v>12.62673567583063</v>
       </c>
       <c r="G103" t="n">
-        <v>23.48753078748889</v>
+        <v>21.02049596005072</v>
       </c>
       <c r="H103" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="I103" t="n">
-        <v>70717</v>
+        <v>69173</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40707939</v>
+        <v>40497386</v>
       </c>
       <c r="E104" t="n">
-        <v>42554352</v>
+        <v>42334249</v>
       </c>
       <c r="F104" t="n">
-        <v>793.532136822884</v>
+        <v>697.9574012219955</v>
       </c>
       <c r="G104" t="n">
-        <v>4262.801795794046</v>
+        <v>4094.137901990274</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I104" t="n">
-        <v>723845</v>
+        <v>722658</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13581896</v>
+        <v>13532084</v>
       </c>
       <c r="E105" t="n">
-        <v>13581896</v>
+        <v>13532084</v>
       </c>
       <c r="F105" t="n">
-        <v>2806.611124888375</v>
+        <v>2352.549219010136</v>
       </c>
       <c r="G105" t="n">
-        <v>2351.648697552897</v>
+        <v>2738.01455026773</v>
       </c>
       <c r="H105" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I105" t="n">
-        <v>5420491</v>
+        <v>5236498</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1159210</v>
+        <v>1101242</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>5.18</v>
+        <v>7.49</v>
       </c>
       <c r="I106" t="n">
-        <v>4502.9</v>
+        <v>3957.07</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50451664</v>
+        <v>49645907</v>
       </c>
       <c r="E107" t="n">
-        <v>128528499</v>
+        <v>126475785</v>
       </c>
       <c r="F107" t="n">
-        <v>2094.816506477314</v>
+        <v>1907.60561996386</v>
       </c>
       <c r="G107" t="n">
-        <v>4855.161696704574</v>
+        <v>4458.587810905388</v>
       </c>
       <c r="H107" t="n">
         <v>0.36</v>
       </c>
       <c r="I107" t="n">
-        <v>2154654</v>
+        <v>2174663</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13920821</v>
+        <v>13921950</v>
       </c>
       <c r="E108" t="n">
-        <v>67420756</v>
+        <v>67426228</v>
       </c>
       <c r="F108" t="n">
-        <v>3068.031691938533</v>
+        <v>1921.463019507188</v>
       </c>
       <c r="G108" t="n">
-        <v>4418.365279721364</v>
+        <v>3653.244717659026</v>
       </c>
       <c r="H108" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="I108" t="n">
-        <v>5258323</v>
+        <v>5325960</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>625709</v>
+        <v>630630</v>
       </c>
       <c r="F109" t="n">
-        <v>5.660262819249104</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>49.55214485300802</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1.42</v>
+        <v>4.81</v>
       </c>
       <c r="I109" t="n">
-        <v>8711.209999999999</v>
+        <v>9359.620000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4499704</v>
+        <v>4487527</v>
       </c>
       <c r="E110" t="n">
-        <v>10256877</v>
+        <v>10229120</v>
       </c>
       <c r="F110" t="n">
-        <v>1169.2537615695</v>
+        <v>1326.091042250188</v>
       </c>
       <c r="G110" t="n">
-        <v>1047.054848503331</v>
+        <v>1873.914195390427</v>
       </c>
       <c r="H110" t="n">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="I110" t="n">
-        <v>64990</v>
+        <v>64384</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1850051461</v>
+        <v>1845519959</v>
       </c>
       <c r="F111" t="n">
-        <v>67311.95198682828</v>
+        <v>37811.1389731912</v>
       </c>
       <c r="G111" t="n">
-        <v>31035.37775733433</v>
+        <v>19640.92997144328</v>
       </c>
       <c r="H111" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="I111" t="n">
-        <v>30137426</v>
+        <v>30066803</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9381052</v>
+        <v>9307786</v>
       </c>
       <c r="E112" t="n">
-        <v>34131700</v>
+        <v>33864624</v>
       </c>
       <c r="F112" t="n">
-        <v>504.3888755718684</v>
+        <v>334.7132124769232</v>
       </c>
       <c r="G112" t="n">
-        <v>5972.141705652279</v>
+        <v>1197.379889189214</v>
       </c>
       <c r="H112" t="n">
-        <v>0.29</v>
+        <v>0.88</v>
       </c>
       <c r="I112" t="n">
-        <v>118293</v>
+        <v>133847</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>620150</v>
+        <v>599012</v>
       </c>
       <c r="F113" t="n">
-        <v>6.682260105197273</v>
+        <v>6.681692618008511</v>
       </c>
       <c r="G113" t="n">
-        <v>20.35519580357401</v>
+        <v>57.78145518023882</v>
       </c>
       <c r="H113" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="I113" t="n">
-        <v>892.17</v>
+        <v>884.89</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12292363</v>
+        <v>11995751</v>
       </c>
       <c r="E114" t="n">
-        <v>17822153</v>
+        <v>17392109</v>
       </c>
       <c r="F114" t="n">
-        <v>3234.84108742891</v>
+        <v>1447.102782423099</v>
       </c>
       <c r="G114" t="n">
-        <v>5688.247126434927</v>
+        <v>6364.595487185575</v>
       </c>
       <c r="H114" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="I114" t="n">
-        <v>2047460</v>
+        <v>2052800</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1937770</v>
+        <v>1827661</v>
       </c>
       <c r="E115" t="n">
-        <v>13895552</v>
+        <v>13105976</v>
       </c>
       <c r="F115" t="n">
-        <v>809.5196192339198</v>
+        <v>33.05113879400929</v>
       </c>
       <c r="G115" t="n">
-        <v>1055.981046302448</v>
+        <v>332.5903898746633</v>
       </c>
       <c r="H115" t="n">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="I115" t="n">
-        <v>2046715</v>
+        <v>2029355</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2697737</v>
+        <v>2709846</v>
       </c>
       <c r="E116" t="n">
-        <v>5453366</v>
+        <v>5477844</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5364.68</v>
+        <v>5381.82</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>191785265</v>
+        <v>190422773</v>
       </c>
       <c r="E117" t="n">
-        <v>1086006011</v>
+        <v>1078290743</v>
       </c>
       <c r="F117" t="n">
-        <v>261452.3816660091</v>
+        <v>255606.6793953161</v>
       </c>
       <c r="G117" t="n">
-        <v>279440.747993465</v>
+        <v>234332.4255899089</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>83874767</v>
+        <v>84145046</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>656936</v>
+        <v>652229</v>
       </c>
       <c r="E118" t="n">
-        <v>2178305</v>
+        <v>2162694</v>
       </c>
       <c r="F118" t="n">
-        <v>5266.193131561004</v>
+        <v>4054.222122584982</v>
       </c>
       <c r="G118" t="n">
-        <v>6966.029285569371</v>
+        <v>7558.551004191006</v>
       </c>
       <c r="H118" t="n">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="I118" t="n">
-        <v>4769.51</v>
+        <v>4778.79</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2697093</v>
+        <v>2632685</v>
       </c>
       <c r="E119" t="n">
-        <v>9549267</v>
+        <v>9321226</v>
       </c>
       <c r="F119" t="n">
-        <v>303.3418765310558</v>
+        <v>295.8401089508409</v>
       </c>
       <c r="G119" t="n">
-        <v>409.2807075345782</v>
+        <v>153.1705911988909</v>
       </c>
       <c r="H119" t="n">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
       <c r="I119" t="n">
-        <v>22864</v>
+        <v>22803</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1029460</v>
+        <v>1028123</v>
       </c>
       <c r="E120" t="n">
-        <v>1029460</v>
+        <v>1028123</v>
       </c>
       <c r="F120" t="n">
-        <v>108.7658428188196</v>
+        <v>126.8437438906602</v>
       </c>
       <c r="G120" t="n">
-        <v>8.150676981694625e-06</v>
+        <v>8.149984790026831e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="I120" t="n">
-        <v>5654.79</v>
+        <v>5449.95</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>495720</v>
+        <v>487990</v>
       </c>
       <c r="E121" t="n">
-        <v>1668524</v>
+        <v>1642506</v>
       </c>
       <c r="F121" t="n">
-        <v>346.7150571241592</v>
+        <v>349.4659947499742</v>
       </c>
       <c r="G121" t="n">
-        <v>347.9979643625905</v>
+        <v>347.968410830794</v>
       </c>
       <c r="H121" t="n">
         <v>0.95</v>
       </c>
       <c r="I121" t="n">
-        <v>225523</v>
+        <v>636563</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>458501</v>
+        <v>458634</v>
       </c>
       <c r="E122" t="n">
-        <v>850607</v>
+        <v>850854</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>6.74</v>
+        <v>8.51</v>
       </c>
       <c r="I122" t="n">
-        <v>232499</v>
+        <v>235375</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9752844</v>
+        <v>9766031</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>7.13</v>
+        <v>8.41</v>
       </c>
       <c r="I123" t="n">
-        <v>17019.99</v>
+        <v>17439.35</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1204542</v>
+        <v>1193666</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="I124" t="n">
-        <v>5313.93</v>
+        <v>5281.83</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3422630</v>
+        <v>3326946</v>
       </c>
       <c r="E125" t="n">
-        <v>7992412</v>
+        <v>7768972</v>
       </c>
       <c r="F125" t="n">
-        <v>1458.328847686707</v>
+        <v>1220.182021802393</v>
       </c>
       <c r="G125" t="n">
-        <v>1650.962621062741</v>
+        <v>1359.55854482573</v>
       </c>
       <c r="H125" t="n">
-        <v>0.51</v>
+        <v>0.95</v>
       </c>
       <c r="I125" t="n">
-        <v>641692</v>
+        <v>646486</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>249152</v>
+        <v>250302</v>
       </c>
       <c r="E126" t="n">
-        <v>2198951</v>
+        <v>2209105</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1.032567781622714</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>276.048921628449</v>
       </c>
       <c r="H126" t="n">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="I126" t="n">
-        <v>67116</v>
+        <v>67917</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>627243</v>
+        <v>627692</v>
       </c>
       <c r="F127" t="n">
-        <v>553.2673132213641</v>
+        <v>556.6706411617889</v>
       </c>
       <c r="G127" t="n">
-        <v>700.3533062154436</v>
+        <v>585.6004974067422</v>
       </c>
       <c r="H127" t="n">
         <v>1.96</v>
       </c>
       <c r="I127" t="n">
-        <v>12444.51</v>
+        <v>14786.39</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4800159</v>
+        <v>4778603</v>
       </c>
       <c r="E128" t="n">
-        <v>16958948</v>
+        <v>16882791</v>
       </c>
       <c r="F128" t="n">
-        <v>1701.091010320028</v>
+        <v>1788.510672634231</v>
       </c>
       <c r="G128" t="n">
-        <v>1429.80183579274</v>
+        <v>1153.164282270028</v>
       </c>
       <c r="H128" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="I128" t="n">
-        <v>134942</v>
+        <v>136638</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2096422</v>
+        <v>2096075</v>
       </c>
       <c r="F129" t="n">
-        <v>66.18561829704615</v>
+        <v>65.9520342880016</v>
       </c>
       <c r="G129" t="n">
-        <v>219.0963407807363</v>
+        <v>219.0777341469716</v>
       </c>
       <c r="H129" t="n">
         <v>0.05</v>
       </c>
       <c r="I129" t="n">
-        <v>4884.47</v>
+        <v>4880.72</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2476283</v>
+        <v>2495872</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2519.81</v>
+        <v>2509.09</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>79671</v>
+        <v>79869</v>
       </c>
       <c r="E131" t="n">
-        <v>79671</v>
+        <v>79869</v>
       </c>
       <c r="F131" t="n">
-        <v>12.84667032781402</v>
+        <v>12.84557933154712</v>
       </c>
       <c r="G131" t="n">
-        <v>34.31667331582872</v>
+        <v>34.31375899160891</v>
       </c>
       <c r="H131" t="n">
         <v>1.24</v>
       </c>
       <c r="I131" t="n">
-        <v>21924</v>
+        <v>21689</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4256508</v>
+        <v>4259630</v>
       </c>
       <c r="F132" t="n">
-        <v>493.1824996113886</v>
+        <v>391.8656599312047</v>
       </c>
       <c r="G132" t="n">
-        <v>348.5179208932199</v>
+        <v>332.1717518765662</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I132" t="n">
-        <v>296446</v>
+        <v>295327</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2100159</v>
+        <v>2098060</v>
       </c>
       <c r="E133" t="n">
-        <v>8576507</v>
+        <v>8567935</v>
       </c>
       <c r="F133" t="n">
-        <v>453.338549663386</v>
+        <v>308.5218803864275</v>
       </c>
       <c r="G133" t="n">
-        <v>619.6876741649719</v>
+        <v>720.0712338343643</v>
       </c>
       <c r="H133" t="n">
-        <v>0.95</v>
+        <v>0.04</v>
       </c>
       <c r="I133" t="n">
-        <v>452337</v>
+        <v>441959</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7264025</v>
+        <v>7281260</v>
       </c>
       <c r="E134" t="n">
-        <v>7318021</v>
+        <v>7335384</v>
       </c>
       <c r="F134" t="n">
-        <v>270222.2422180349</v>
+        <v>304091.4587868209</v>
       </c>
       <c r="G134" t="n">
-        <v>356080.563440464</v>
+        <v>254975.5658635212</v>
       </c>
       <c r="H134" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I134" t="n">
-        <v>5813342</v>
+        <v>5793680</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13583435</v>
+        <v>13578115</v>
       </c>
       <c r="E135" t="n">
-        <v>13629661</v>
+        <v>13624323</v>
       </c>
       <c r="F135" t="n">
-        <v>17088.81754155089</v>
+        <v>13627.61035855193</v>
       </c>
       <c r="G135" t="n">
-        <v>9199.849800738872</v>
+        <v>10348.00493496268</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I135" t="n">
-        <v>6191975</v>
+        <v>6854235</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42465573</v>
+        <v>42185327</v>
       </c>
       <c r="E136" t="n">
-        <v>72096663</v>
+        <v>71620871</v>
       </c>
       <c r="F136" t="n">
-        <v>882.5064661151938</v>
+        <v>620.8474516613682</v>
       </c>
       <c r="G136" t="n">
-        <v>803.1175703848171</v>
+        <v>633.5305913086431</v>
       </c>
       <c r="H136" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I136" t="n">
-        <v>1134348</v>
+        <v>1132102</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19400083</v>
+        <v>19244560</v>
       </c>
       <c r="E137" t="n">
-        <v>58164952</v>
+        <v>57699105</v>
       </c>
       <c r="F137" t="n">
-        <v>39018.39524778377</v>
+        <v>35362.78720133581</v>
       </c>
       <c r="G137" t="n">
-        <v>22644.66941520003</v>
+        <v>21181.76215692572</v>
       </c>
       <c r="H137" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="I137" t="n">
-        <v>4362698</v>
+        <v>4392670</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>97824297</v>
+        <v>97282900</v>
       </c>
       <c r="E138" t="n">
-        <v>103996068</v>
+        <v>103420515</v>
       </c>
       <c r="F138" t="n">
-        <v>5480.607250450237</v>
+        <v>4563.853190009964</v>
       </c>
       <c r="G138" t="n">
-        <v>5177.798637459816</v>
+        <v>6956.191317053505</v>
       </c>
       <c r="H138" t="n">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="I138" t="n">
-        <v>1811068</v>
+        <v>1814962</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1385383</v>
+        <v>1358352</v>
       </c>
       <c r="F139" t="n">
-        <v>505.8342540769553</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>7.663789928226098</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1.88</v>
+        <v>5.66</v>
       </c>
       <c r="I139" t="n">
-        <v>1910.75</v>
+        <v>1924.6</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>239010</v>
+        <v>238971</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.93</v>
+        <v>10.98</v>
       </c>
       <c r="I140" t="n">
-        <v>39.86</v>
+        <v>39.82</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>74003</v>
+        <v>74194</v>
       </c>
       <c r="E141" t="n">
-        <v>209929</v>
+        <v>210471</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>416.45</v>
+        <v>415.86</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47442246</v>
+        <v>47587797</v>
       </c>
       <c r="E142" t="n">
-        <v>204376006</v>
+        <v>205003028</v>
       </c>
       <c r="F142" t="n">
-        <v>47912.23414069889</v>
+        <v>47265.18258150195</v>
       </c>
       <c r="G142" t="n">
-        <v>56211.65281363457</v>
+        <v>57104.82912729018</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>12074901</v>
+        <v>12151012</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>271451</v>
+        <v>271863</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>8.59</v>
       </c>
       <c r="I143" t="n">
-        <v>7623.69</v>
+        <v>7599.43</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9651381</v>
+        <v>9616479</v>
       </c>
       <c r="F144" t="n">
-        <v>925.1835662061197</v>
+        <v>180.1752429404769</v>
       </c>
       <c r="G144" t="n">
-        <v>672.7291281334454</v>
+        <v>364.2631680896749</v>
       </c>
       <c r="H144" t="n">
         <v>0.99</v>
       </c>
       <c r="I144" t="n">
-        <v>110442</v>
+        <v>109493</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1170199</v>
+        <v>1177992</v>
       </c>
       <c r="E145" t="n">
-        <v>7801328</v>
+        <v>7853278</v>
       </c>
       <c r="F145" t="n">
-        <v>262.4818132686186</v>
+        <v>262.4595221479547</v>
       </c>
       <c r="G145" t="n">
-        <v>36.80480573204741</v>
+        <v>36.80168010457871</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4434.33</v>
+        <v>4411.75</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7393753</v>
+        <v>7397693</v>
       </c>
       <c r="F146" t="n">
-        <v>166.7571269746035</v>
+        <v>177.4839629565879</v>
       </c>
       <c r="G146" t="n">
-        <v>255.904051641223</v>
+        <v>160.3649011397763</v>
       </c>
       <c r="H146" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="I146" t="n">
-        <v>589976</v>
+        <v>587787</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>664262</v>
+        <v>665130</v>
       </c>
       <c r="E147" t="n">
-        <v>2397627</v>
+        <v>2400761</v>
       </c>
       <c r="F147" t="n">
-        <v>15.7130216815154</v>
+        <v>16.28185575897649</v>
       </c>
       <c r="G147" t="n">
-        <v>61.77244139414719</v>
+        <v>10.07077304537991</v>
       </c>
       <c r="H147" t="n">
         <v>0.91</v>
       </c>
       <c r="I147" t="n">
-        <v>371113</v>
+        <v>375138</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1692816</v>
+        <v>1692155</v>
       </c>
       <c r="F148" t="n">
-        <v>40.93483161603427</v>
+        <v>38.65915549501828</v>
       </c>
       <c r="G148" t="n">
-        <v>35.59709881709573</v>
+        <v>42.66128294701744</v>
       </c>
       <c r="H148" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="I148" t="n">
-        <v>88400</v>
+        <v>88035</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>62954</v>
+        <v>62814</v>
       </c>
       <c r="F149" t="n">
-        <v>8.125437098633739</v>
+        <v>8.124746941317438</v>
       </c>
       <c r="G149" t="n">
-        <v>0.004145627081599661</v>
+        <v>0.004145274960867412</v>
       </c>
       <c r="H149" t="n">
         <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>3241.05</v>
+        <v>3238.56</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12433170</v>
+        <v>12419090</v>
       </c>
       <c r="E150" t="n">
-        <v>12433170</v>
+        <v>12419090</v>
       </c>
       <c r="F150" t="n">
-        <v>248.8378175327057</v>
+        <v>229.9704172523587</v>
       </c>
       <c r="G150" t="n">
-        <v>150.329483310565</v>
+        <v>341.405352538611</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I150" t="n">
-        <v>3728046</v>
+        <v>3637227</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2278451</v>
+        <v>2281209</v>
       </c>
       <c r="E151" t="n">
-        <v>8270681</v>
+        <v>8280656</v>
       </c>
       <c r="F151" t="n">
-        <v>9.044786849735026</v>
+        <v>114.4449857046641</v>
       </c>
       <c r="G151" t="n">
-        <v>213.6758181302507</v>
+        <v>52.26714993762026</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="I151" t="n">
-        <v>218285</v>
+        <v>225519</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1224884</v>
+        <v>1225230</v>
       </c>
       <c r="E152" t="n">
-        <v>1224884</v>
+        <v>1225230</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1006.04</v>
+        <v>1006.33</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23022834</v>
+        <v>23053789</v>
       </c>
       <c r="E153" t="n">
-        <v>26590606</v>
+        <v>26626936</v>
       </c>
       <c r="F153" t="n">
-        <v>497.1867488214515</v>
+        <v>434.9955702076882</v>
       </c>
       <c r="G153" t="n">
-        <v>575.5864843723591</v>
+        <v>454.3034802278784</v>
       </c>
       <c r="H153" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I153" t="n">
-        <v>755566</v>
+        <v>740718</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2439864</v>
+        <v>2443797</v>
       </c>
       <c r="E154" t="n">
-        <v>18359348</v>
+        <v>18388943</v>
       </c>
       <c r="F154" t="n">
-        <v>3380.775817496047</v>
+        <v>3609.518613015666</v>
       </c>
       <c r="G154" t="n">
-        <v>3176.264267221367</v>
+        <v>3312.449344893468</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161534</v>
+        <v>161186</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>19723083</v>
+        <v>20060308</v>
       </c>
       <c r="E155" t="n">
-        <v>78892332</v>
+        <v>80241233</v>
       </c>
       <c r="F155" t="n">
-        <v>1546.561784611864</v>
+        <v>839.9509784107192</v>
       </c>
       <c r="G155" t="n">
-        <v>4336.587410009367</v>
+        <v>523.7617110044914</v>
       </c>
       <c r="H155" t="n">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="I155" t="n">
-        <v>2874361</v>
+        <v>2946572</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>289700264</v>
+        <v>284037865</v>
       </c>
       <c r="E156" t="n">
-        <v>289700264</v>
+        <v>284037865</v>
       </c>
       <c r="F156" t="n">
-        <v>385568.4021394859</v>
+        <v>320975.2220717918</v>
       </c>
       <c r="G156" t="n">
-        <v>321900.3795100705</v>
+        <v>269078.1790963699</v>
       </c>
       <c r="H156" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="I156" t="n">
-        <v>19523494</v>
+        <v>19563830</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12471647</v>
+        <v>12555276</v>
       </c>
       <c r="E157" t="n">
-        <v>39446401</v>
+        <v>39710909</v>
       </c>
       <c r="F157" t="n">
-        <v>3991.72721083457</v>
+        <v>484.8493018862594</v>
       </c>
       <c r="G157" t="n">
-        <v>2457.489941306786</v>
+        <v>737.2849655669299</v>
       </c>
       <c r="H157" t="n">
-        <v>0.58</v>
+        <v>1.35</v>
       </c>
       <c r="I157" t="n">
-        <v>987395</v>
+        <v>1012489</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1093997</v>
+        <v>1094948</v>
       </c>
       <c r="E158" t="n">
-        <v>2491686</v>
+        <v>2493851</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>434.14</v>
+        <v>433.88</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17702276</v>
+        <v>17599060</v>
       </c>
       <c r="E159" t="n">
-        <v>17702276</v>
+        <v>17599060</v>
       </c>
       <c r="F159" t="n">
-        <v>11785.84526109322</v>
+        <v>8973.378195653881</v>
       </c>
       <c r="G159" t="n">
-        <v>12760.80666430828</v>
+        <v>12898.14303995606</v>
       </c>
       <c r="H159" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I159" t="n">
-        <v>6676327</v>
+        <v>6769895</v>
       </c>
     </row>
     <row r="160">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>12.23</v>
+        <v>13.15</v>
       </c>
       <c r="I160" t="n">
         <v>65.08</v>
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>102690</v>
+        <v>101540</v>
       </c>
       <c r="E161" t="n">
-        <v>124672</v>
+        <v>123276</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>8.789999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="I161" t="n">
-        <v>2203.01</v>
+        <v>2202.61</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>22188257</v>
+        <v>22204947</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>14.16</v>
+        <v>14.32</v>
       </c>
       <c r="I162" t="n">
-        <v>1033.16</v>
+        <v>1032.06</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>453737</v>
+        <v>454330</v>
       </c>
       <c r="E163" t="n">
-        <v>571539</v>
+        <v>572286</v>
       </c>
       <c r="F163" t="n">
-        <v>105.0487413629184</v>
+        <v>100.2523296786944</v>
       </c>
       <c r="G163" t="n">
-        <v>129.7511283302</v>
+        <v>178.3304096440838</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="I163" t="n">
-        <v>189895</v>
+        <v>132320</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104723</v>
+        <v>104704</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>7.02</v>
+        <v>6.85</v>
       </c>
       <c r="I164" t="n">
-        <v>3074.26</v>
+        <v>3071.85</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12429548</v>
+        <v>12387979</v>
       </c>
       <c r="E165" t="n">
-        <v>18920575</v>
+        <v>18857298</v>
       </c>
       <c r="F165" t="n">
-        <v>2353.189330187328</v>
+        <v>1754.728059308629</v>
       </c>
       <c r="G165" t="n">
-        <v>1773.58763416433</v>
+        <v>1114.952305773077</v>
       </c>
       <c r="H165" t="n">
-        <v>0.47</v>
+        <v>1.4</v>
       </c>
       <c r="I165" t="n">
-        <v>656124</v>
+        <v>653473</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>291687283</v>
+        <v>288734142</v>
       </c>
       <c r="E166" t="n">
-        <v>291687283</v>
+        <v>288734142</v>
       </c>
       <c r="F166" t="n">
-        <v>298987.4254381504</v>
+        <v>298742.5135978626</v>
       </c>
       <c r="G166" t="n">
-        <v>299147.7848691194</v>
+        <v>264448.8335308544</v>
       </c>
       <c r="H166" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>88224090</v>
+        <v>88676540</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10058909</v>
+        <v>10019460</v>
       </c>
       <c r="E167" t="n">
-        <v>28558919</v>
+        <v>28446919</v>
       </c>
       <c r="F167" t="n">
-        <v>63.80948044186457</v>
+        <v>115.0359375826591</v>
       </c>
       <c r="G167" t="n">
-        <v>430.7361358883483</v>
+        <v>668.507179245529</v>
       </c>
       <c r="H167" t="n">
-        <v>1.38</v>
+        <v>0.36</v>
       </c>
       <c r="I167" t="n">
-        <v>88726</v>
+        <v>90972</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11657080</v>
+        <v>11661240</v>
       </c>
       <c r="F168" t="n">
-        <v>92.46879955971664</v>
+        <v>60.92680868429724</v>
       </c>
       <c r="G168" t="n">
-        <v>1181.101654218958</v>
+        <v>408.7787003427678</v>
       </c>
       <c r="H168" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I168" t="n">
-        <v>92580</v>
+        <v>92769</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4409223</v>
+        <v>4542300</v>
       </c>
       <c r="E169" t="n">
-        <v>30127913</v>
+        <v>31037214</v>
       </c>
       <c r="F169" t="n">
-        <v>372.8621150023844</v>
+        <v>500.1247106996022</v>
       </c>
       <c r="G169" t="n">
-        <v>3453.715011802289</v>
+        <v>714.3781723341159</v>
       </c>
       <c r="H169" t="n">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="I169" t="n">
-        <v>2808855</v>
+        <v>2857796</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2776272</v>
+        <v>2766066</v>
       </c>
       <c r="E170" t="n">
-        <v>4110587</v>
+        <v>4095285</v>
       </c>
       <c r="F170" t="n">
-        <v>1475.339851759654</v>
+        <v>2988.369116449579</v>
       </c>
       <c r="G170" t="n">
-        <v>3715.575427606176</v>
+        <v>3290.733938064153</v>
       </c>
       <c r="H170" t="n">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="I170" t="n">
-        <v>94180</v>
+        <v>90442</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>85172482</v>
+        <v>84605856</v>
       </c>
       <c r="E171" t="n">
-        <v>490800579</v>
+        <v>487535435</v>
       </c>
       <c r="F171" t="n">
-        <v>360041.2298156248</v>
+        <v>404445.8617952727</v>
       </c>
       <c r="G171" t="n">
-        <v>308907.8585988614</v>
+        <v>311744.9828386242</v>
       </c>
       <c r="H171" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I171" t="n">
-        <v>20963678</v>
+        <v>21133685</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13688069</v>
+        <v>13691259</v>
       </c>
       <c r="E172" t="n">
-        <v>13688069</v>
+        <v>13691259</v>
       </c>
       <c r="F172" t="n">
-        <v>5423.446138244899</v>
+        <v>5333.048268361811</v>
       </c>
       <c r="G172" t="n">
-        <v>5873.713608406068</v>
+        <v>6245.21082198691</v>
       </c>
       <c r="H172" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="I172" t="n">
-        <v>682793</v>
+        <v>682619</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6068078</v>
+        <v>6084422</v>
       </c>
       <c r="E173" t="n">
-        <v>17237666</v>
+        <v>17284095</v>
       </c>
       <c r="F173" t="n">
-        <v>766.7235369681259</v>
+        <v>767.1382467292333</v>
       </c>
       <c r="G173" t="n">
-        <v>8821.659722307451</v>
+        <v>8671.147437097878</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="I173" t="n">
-        <v>99539</v>
+        <v>99572</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19938639</v>
+        <v>18958727</v>
       </c>
       <c r="E174" t="n">
-        <v>19938639</v>
+        <v>18958727</v>
       </c>
       <c r="F174" t="n">
-        <v>246.7027606252524</v>
+        <v>244.1946972979714</v>
       </c>
       <c r="G174" t="n">
-        <v>1.062129395102155</v>
+        <v>1.062039180094152</v>
       </c>
       <c r="H174" t="n">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
       <c r="I174" t="n">
-        <v>154468</v>
+        <v>146420</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1314286</v>
+        <v>1314683</v>
       </c>
       <c r="F175" t="n">
-        <v>150.8415153974904</v>
+        <v>158.5618177346261</v>
       </c>
       <c r="G175" t="n">
-        <v>257.386238852519</v>
+        <v>742.9891283299787</v>
       </c>
       <c r="H175" t="n">
-        <v>2.16</v>
+        <v>2.59</v>
       </c>
       <c r="I175" t="n">
-        <v>43208</v>
+        <v>43348</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>141222</v>
+        <v>141265</v>
       </c>
       <c r="E176" t="n">
-        <v>307437</v>
+        <v>307531</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>10.73</v>
+        <v>9.9</v>
       </c>
       <c r="I176" t="n">
-        <v>48307</v>
+        <v>48036</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3059884</v>
+        <v>3029485</v>
       </c>
       <c r="F177" t="n">
-        <v>463.9020903889141</v>
+        <v>447.3949746628842</v>
       </c>
       <c r="G177" t="n">
-        <v>211.6706036167733</v>
+        <v>377.4261125477789</v>
       </c>
       <c r="H177" t="n">
-        <v>1.94</v>
+        <v>2.29</v>
       </c>
       <c r="I177" t="n">
-        <v>474772</v>
+        <v>463442</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>237325363</v>
+        <v>233116187</v>
       </c>
       <c r="E178" t="n">
-        <v>237327721</v>
+        <v>233118503</v>
       </c>
       <c r="F178" t="n">
-        <v>48020.92275735706</v>
+        <v>41468.12350716961</v>
       </c>
       <c r="G178" t="n">
-        <v>82659.41533546665</v>
+        <v>81003.68179302338</v>
       </c>
       <c r="H178" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I178" t="n">
-        <v>1874491</v>
+        <v>1912813</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9228909</v>
+        <v>9263855</v>
       </c>
       <c r="E179" t="n">
-        <v>9228909</v>
+        <v>9263855</v>
       </c>
       <c r="F179" t="n">
-        <v>1.439766297060876</v>
+        <v>3.610247310433942</v>
       </c>
       <c r="G179" t="n">
-        <v>27.63534522934612</v>
+        <v>136.0085257853849</v>
       </c>
       <c r="H179" t="n">
-        <v>3.74</v>
+        <v>2.73</v>
       </c>
       <c r="I179" t="n">
-        <v>2924179</v>
+        <v>2916307</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>196374</v>
+        <v>196390</v>
       </c>
       <c r="E180" t="n">
-        <v>1516401</v>
+        <v>1516529</v>
       </c>
       <c r="F180" t="n">
-        <v>549.4347080980242</v>
+        <v>515.706472500308</v>
       </c>
       <c r="G180" t="n">
-        <v>10.39803579029764</v>
+        <v>20.79391721852154</v>
       </c>
       <c r="H180" t="n">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="I180" t="n">
-        <v>88634</v>
+        <v>82076</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>29144485</v>
+        <v>28900450</v>
       </c>
       <c r="E181" t="n">
-        <v>130491814</v>
+        <v>129399171</v>
       </c>
       <c r="F181" t="n">
-        <v>45663.5163876798</v>
+        <v>55315.773794968</v>
       </c>
       <c r="G181" t="n">
-        <v>65056.18886408958</v>
+        <v>59282.99208949629</v>
       </c>
       <c r="H181" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>13451554</v>
+        <v>13608507</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1266601</v>
+        <v>1271883</v>
       </c>
       <c r="F182" t="n">
-        <v>235.7523416678187</v>
+        <v>492.9082298056025</v>
       </c>
       <c r="G182" t="n">
-        <v>2593.427692684016</v>
+        <v>224.6867237274211</v>
       </c>
       <c r="H182" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.62</v>
       </c>
       <c r="I182" t="n">
-        <v>89625</v>
+        <v>60143</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2970285</v>
+        <v>2943914</v>
       </c>
       <c r="E183" t="n">
-        <v>2970285</v>
+        <v>2943914</v>
       </c>
       <c r="F183" t="n">
-        <v>647.107420090408</v>
+        <v>447.702117816982</v>
       </c>
       <c r="G183" t="n">
-        <v>614.0944036649261</v>
+        <v>865.7720625477277</v>
       </c>
       <c r="H183" t="n">
-        <v>1.07</v>
+        <v>0.74</v>
       </c>
       <c r="I183" t="n">
-        <v>356241</v>
+        <v>342277</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>559884</v>
+        <v>560587</v>
       </c>
       <c r="E184" t="n">
-        <v>559884</v>
+        <v>560587</v>
       </c>
       <c r="F184" t="n">
-        <v>4.671611223826739</v>
+        <v>7.484087692847142</v>
       </c>
       <c r="G184" t="n">
-        <v>138.83820727508</v>
+        <v>164.2485346390628</v>
       </c>
       <c r="H184" t="n">
-        <v>3.57</v>
+        <v>3.64</v>
       </c>
       <c r="I184" t="n">
-        <v>1183440</v>
+        <v>1184558</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14686959</v>
+        <v>14669071</v>
       </c>
       <c r="E185" t="n">
-        <v>18698843</v>
+        <v>18676069</v>
       </c>
       <c r="F185" t="n">
-        <v>262.7294908686779</v>
+        <v>804.8903590335088</v>
       </c>
       <c r="G185" t="n">
-        <v>360.5118937846254</v>
+        <v>403.934222646077</v>
       </c>
       <c r="H185" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="I185" t="n">
-        <v>950002</v>
+        <v>937990</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1759848</v>
+        <v>1746292</v>
       </c>
       <c r="E186" t="n">
-        <v>1759848</v>
+        <v>1746292</v>
       </c>
       <c r="F186" t="n">
-        <v>3.42351616967989</v>
+        <v>3.279750470896531</v>
       </c>
       <c r="G186" t="n">
-        <v>2.455667483928161</v>
+        <v>0.8106008583824957</v>
       </c>
       <c r="H186" t="n">
-        <v>3.68</v>
+        <v>3.53</v>
       </c>
       <c r="I186" t="n">
-        <v>3760.89</v>
+        <v>3671.73</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48668382</v>
+        <v>48329912</v>
       </c>
       <c r="E187" t="n">
-        <v>315601503</v>
+        <v>313406615</v>
       </c>
       <c r="F187" t="n">
-        <v>126676.6787647137</v>
+        <v>180381.5954078528</v>
       </c>
       <c r="G187" t="n">
-        <v>210513.6800439835</v>
+        <v>134946.7792285162</v>
       </c>
       <c r="H187" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I187" t="n">
-        <v>20434842</v>
+        <v>20529293</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8597422</v>
+        <v>8265145</v>
       </c>
       <c r="F188" t="n">
-        <v>364.6580898801627</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>109.5098890491974</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0.12</v>
+        <v>4.28</v>
       </c>
       <c r="I188" t="n">
-        <v>297755</v>
+        <v>316861</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7061021</v>
+        <v>7050256</v>
       </c>
       <c r="E189" t="n">
-        <v>7071133</v>
+        <v>7060353</v>
       </c>
       <c r="F189" t="n">
-        <v>36.88299924967161</v>
+        <v>146.0336157266199</v>
       </c>
       <c r="G189" t="n">
-        <v>1544.211817258685</v>
+        <v>72.83599897110906</v>
       </c>
       <c r="H189" t="n">
-        <v>0.71</v>
+        <v>1.75</v>
       </c>
       <c r="I189" t="n">
-        <v>725200</v>
+        <v>743925</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4468724</v>
+        <v>4464291</v>
       </c>
       <c r="F190" t="n">
-        <v>97.58313640029857</v>
+        <v>5.595262884587639</v>
       </c>
       <c r="G190" t="n">
-        <v>89.95515227507271</v>
+        <v>29.20646115010635</v>
       </c>
       <c r="H190" t="n">
-        <v>0.27</v>
+        <v>3.04</v>
       </c>
       <c r="I190" t="n">
-        <v>237319</v>
+        <v>218672</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>95519882</v>
+        <v>93465867</v>
       </c>
       <c r="E191" t="n">
-        <v>96548084</v>
+        <v>94471960</v>
       </c>
       <c r="F191" t="n">
-        <v>36203.01835020607</v>
+        <v>18803.53833790091</v>
       </c>
       <c r="G191" t="n">
-        <v>43700.3681120085</v>
+        <v>27341.3011708004</v>
       </c>
       <c r="H191" t="n">
         <v>0.12</v>
       </c>
       <c r="I191" t="n">
-        <v>80027952</v>
+        <v>79083526</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>239072114</v>
+        <v>238030568</v>
       </c>
       <c r="E192" t="n">
-        <v>239072114</v>
+        <v>238030568</v>
       </c>
       <c r="F192" t="n">
-        <v>76084.42247464474</v>
+        <v>49372.79025488209</v>
       </c>
       <c r="G192" t="n">
-        <v>86617.06494257959</v>
+        <v>42266.16067711868</v>
       </c>
       <c r="H192" t="n">
         <v>0.04</v>
       </c>
       <c r="I192" t="n">
-        <v>87514022</v>
+        <v>87765199</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23244250</v>
+        <v>23116096</v>
       </c>
       <c r="E193" t="n">
-        <v>139075022</v>
+        <v>138308247</v>
       </c>
       <c r="F193" t="n">
-        <v>50698.75363771133</v>
+        <v>55948.75122367855</v>
       </c>
       <c r="G193" t="n">
-        <v>85240.54011416028</v>
+        <v>74143.82017705924</v>
       </c>
       <c r="H193" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>16885896</v>
+        <v>16887761</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13420146</v>
+        <v>13449091</v>
       </c>
       <c r="E194" t="n">
-        <v>40559407</v>
+        <v>40646885</v>
       </c>
       <c r="F194" t="n">
-        <v>768.7365552391175</v>
+        <v>686.9718923281525</v>
       </c>
       <c r="G194" t="n">
-        <v>994.8189864182065</v>
+        <v>1582.545975077963</v>
       </c>
       <c r="H194" t="n">
         <v>0.09</v>
       </c>
       <c r="I194" t="n">
-        <v>2463073</v>
+        <v>2450264</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52410954</v>
+        <v>52375859</v>
       </c>
       <c r="E195" t="n">
-        <v>90525111</v>
+        <v>90464494</v>
       </c>
       <c r="F195" t="n">
-        <v>7625.325994693761</v>
+        <v>8130.263845335862</v>
       </c>
       <c r="G195" t="n">
-        <v>14933.92783906783</v>
+        <v>14690.20846542259</v>
       </c>
       <c r="H195" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I195" t="n">
-        <v>2292771</v>
+        <v>2338249</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4143158</v>
+        <v>4152125</v>
       </c>
       <c r="E196" t="n">
-        <v>4143158</v>
+        <v>4152125</v>
       </c>
       <c r="F196" t="n">
-        <v>244.5186975124887</v>
+        <v>254.7025575475985</v>
       </c>
       <c r="G196" t="n">
-        <v>120.4014321333658</v>
+        <v>21.04198114424615</v>
       </c>
       <c r="H196" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I196" t="n">
-        <v>1746123</v>
+        <v>1748096</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>192565</v>
+        <v>193508</v>
       </c>
       <c r="F197" t="n">
-        <v>171.5596781142564</v>
+        <v>173.2618780070368</v>
       </c>
       <c r="G197" t="n">
-        <v>59.15054258089693</v>
+        <v>93.12761124568057</v>
       </c>
       <c r="H197" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I197" t="n">
-        <v>60513</v>
+        <v>60299</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6320726</v>
+        <v>6290773</v>
       </c>
       <c r="E198" t="n">
-        <v>32518213</v>
+        <v>32364113</v>
       </c>
       <c r="F198" t="n">
-        <v>185.8843446436513</v>
+        <v>246.388159011417</v>
       </c>
       <c r="G198" t="n">
-        <v>174.9130323076319</v>
+        <v>780.6348739362884</v>
       </c>
       <c r="H198" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="I198" t="n">
-        <v>941360</v>
+        <v>927985</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>173692961</v>
+        <v>173451446</v>
       </c>
       <c r="E199" t="n">
-        <v>202924665</v>
+        <v>202642504</v>
       </c>
       <c r="F199" t="n">
-        <v>31990.32313482013</v>
+        <v>33136.63501582866</v>
       </c>
       <c r="G199" t="n">
-        <v>96797.11704310401</v>
+        <v>90138.06108915553</v>
       </c>
       <c r="H199" t="n">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I199" t="n">
-        <v>4423576</v>
+        <v>4564966</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>293387</v>
+        <v>293485</v>
       </c>
       <c r="F200" t="n">
-        <v>115.9718216479668</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>8.164454845271106</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="I200" t="n">
-        <v>190856</v>
+        <v>260655</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7595531</v>
+        <v>7605349</v>
       </c>
       <c r="F201" t="n">
-        <v>962.2354834870079</v>
+        <v>929.5581423626307</v>
       </c>
       <c r="G201" t="n">
-        <v>569.2329703750768</v>
+        <v>485.6553061783852</v>
       </c>
       <c r="H201" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I201" t="n">
-        <v>540083</v>
+        <v>650427</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33974</v>
+        <v>33969</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>223.88</v>
+        <v>245.89</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32622183</v>
+        <v>32416621</v>
       </c>
       <c r="E203" t="n">
-        <v>162799732</v>
+        <v>161773882</v>
       </c>
       <c r="F203" t="n">
-        <v>146807.1650255495</v>
+        <v>142561.4841287808</v>
       </c>
       <c r="G203" t="n">
-        <v>111070.3180726783</v>
+        <v>106467.1632901054</v>
       </c>
       <c r="H203" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>13678930</v>
+        <v>13587595</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1933942</v>
+        <v>1928472</v>
       </c>
       <c r="E204" t="n">
-        <v>1933942</v>
+        <v>1928472</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>6.79</v>
+        <v>8.67</v>
       </c>
       <c r="I204" t="n">
-        <v>7506.19</v>
+        <v>7479.81</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>160799</v>
+        <v>160086</v>
       </c>
       <c r="F205" t="n">
-        <v>21.21614626405114</v>
+        <v>12.35411007493311</v>
       </c>
       <c r="G205" t="n">
-        <v>26.9563171892124</v>
+        <v>31.81688884142718</v>
       </c>
       <c r="H205" t="n">
-        <v>1.88</v>
+        <v>2.42</v>
       </c>
       <c r="I205" t="n">
-        <v>22601</v>
+        <v>22555</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3085.04</v>
+        <v>3084.47</v>
       </c>
       <c r="E206" t="n">
-        <v>36873</v>
+        <v>36866</v>
       </c>
       <c r="F206" t="n">
-        <v>2.378984426126034</v>
+        <v>2.378782360257192</v>
       </c>
       <c r="G206" t="n">
-        <v>20.88681772067718</v>
+        <v>20.88504363887836</v>
       </c>
       <c r="H206" t="n">
         <v>1.94</v>
       </c>
       <c r="I206" t="n">
-        <v>3834.99</v>
+        <v>3809.2</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>294496387</v>
+        <v>289642099</v>
       </c>
       <c r="E208" t="n">
-        <v>544885475</v>
+        <v>535903935</v>
       </c>
       <c r="F208" t="n">
-        <v>14579.90707273676</v>
+        <v>19767.70235441404</v>
       </c>
       <c r="G208" t="n">
-        <v>18942.31031921823</v>
+        <v>22821.97187496797</v>
       </c>
       <c r="H208" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I208" t="n">
-        <v>16471646</v>
+        <v>17669350</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>69655288</v>
+        <v>68745988</v>
       </c>
       <c r="E209" t="n">
-        <v>664397899</v>
+        <v>655721831</v>
       </c>
       <c r="F209" t="n">
-        <v>217197.0967751206</v>
+        <v>225631.0943341613</v>
       </c>
       <c r="G209" t="n">
-        <v>171825.6574064841</v>
+        <v>140201.5919448312</v>
       </c>
       <c r="H209" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I209" t="n">
-        <v>23312227</v>
+        <v>23443199</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2318351</v>
+        <v>2252933</v>
       </c>
       <c r="F210" t="n">
-        <v>722.6829060736501</v>
+        <v>612.9083039286132</v>
       </c>
       <c r="G210" t="n">
-        <v>120.2439959884089</v>
+        <v>8.71576489213331</v>
       </c>
       <c r="H210" t="n">
-        <v>1.02</v>
+        <v>2.13</v>
       </c>
       <c r="I210" t="n">
-        <v>44115</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81828</v>
+        <v>81643</v>
       </c>
       <c r="E211" t="n">
-        <v>680256</v>
+        <v>678716</v>
       </c>
       <c r="F211" t="n">
-        <v>214.6910633355969</v>
+        <v>263.6168676463543</v>
       </c>
       <c r="G211" t="n">
-        <v>36.74191205095294</v>
+        <v>36.73879176469481</v>
       </c>
       <c r="H211" t="n">
-        <v>2.94</v>
+        <v>1.49</v>
       </c>
       <c r="I211" t="n">
-        <v>121.29</v>
+        <v>121.92</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1847340</v>
+        <v>1838994</v>
       </c>
       <c r="E212" t="n">
-        <v>5275767</v>
+        <v>5251930</v>
       </c>
       <c r="F212" t="n">
-        <v>144.6925534973011</v>
+        <v>230.6172963014944</v>
       </c>
       <c r="G212" t="n">
-        <v>174.2577244772325</v>
+        <v>995.1833754961697</v>
       </c>
       <c r="H212" t="n">
-        <v>0.79</v>
+        <v>1.2</v>
       </c>
       <c r="I212" t="n">
-        <v>72999</v>
+        <v>75042</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>8767198</v>
+        <v>8731388</v>
       </c>
       <c r="E213" t="n">
-        <v>25990695</v>
+        <v>25884534</v>
       </c>
       <c r="F213" t="n">
-        <v>3502.176111594086</v>
+        <v>2650.812619521803</v>
       </c>
       <c r="G213" t="n">
-        <v>2266.569312353062</v>
+        <v>696.9354479157792</v>
       </c>
       <c r="H213" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="I213" t="n">
-        <v>6219339</v>
+        <v>6262336</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14542051</v>
+        <v>14539647</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>201.7410963891816</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>99.58837523171528</v>
       </c>
       <c r="H214" t="n">
-        <v>6</v>
+        <v>2.87</v>
       </c>
       <c r="I214" t="n">
-        <v>410.19</v>
+        <v>409.87</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1967179</v>
+        <v>1970519</v>
       </c>
       <c r="E215" t="n">
-        <v>5690559</v>
+        <v>5700222</v>
       </c>
       <c r="F215" t="n">
-        <v>74.87279644384417</v>
+        <v>65.44083795999443</v>
       </c>
       <c r="G215" t="n">
-        <v>633.4741862676208</v>
+        <v>69.8445117542763</v>
       </c>
       <c r="H215" t="n">
         <v>1.29</v>
       </c>
       <c r="I215" t="n">
-        <v>52503</v>
+        <v>52047</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2178848</v>
+        <v>2177453</v>
       </c>
       <c r="E216" t="n">
-        <v>19218887</v>
+        <v>19206581</v>
       </c>
       <c r="F216" t="n">
-        <v>3328.956329438004</v>
+        <v>3410.655605851172</v>
       </c>
       <c r="G216" t="n">
-        <v>1336.232392789523</v>
+        <v>1463.922175899319</v>
       </c>
       <c r="H216" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="I216" t="n">
-        <v>96066</v>
+        <v>95208</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43895512</v>
+        <v>43759023</v>
       </c>
       <c r="E217" t="n">
-        <v>43895512</v>
+        <v>43759023</v>
       </c>
       <c r="F217" t="n">
-        <v>48607.71751420204</v>
+        <v>44094.94965061914</v>
       </c>
       <c r="G217" t="n">
-        <v>41164.5005840556</v>
+        <v>35723.83934830021</v>
       </c>
       <c r="H217" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I217" t="n">
-        <v>10636356</v>
+        <v>10722858</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8184633</v>
+        <v>8224015</v>
       </c>
       <c r="E218" t="n">
-        <v>11661227</v>
+        <v>11717337</v>
       </c>
       <c r="F218" t="n">
-        <v>2119.88903850263</v>
+        <v>2173.617655667814</v>
       </c>
       <c r="G218" t="n">
-        <v>2437.847114031516</v>
+        <v>2240.347634646941</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I218" t="n">
-        <v>321481</v>
+        <v>328147</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15849247</v>
+        <v>15786655</v>
       </c>
       <c r="F219" t="n">
-        <v>98.85699478753988</v>
+        <v>160.4281816272458</v>
       </c>
       <c r="G219" t="n">
-        <v>9.199625706283895</v>
+        <v>9.307187453744499</v>
       </c>
       <c r="H219" t="n">
         <v>2.01</v>
       </c>
       <c r="I219" t="n">
-        <v>1081507</v>
+        <v>1087744</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>715392</v>
+        <v>716709</v>
       </c>
       <c r="F220" t="n">
-        <v>84.17330836427261</v>
+        <v>84.16615999330524</v>
       </c>
       <c r="G220" t="n">
-        <v>304.0978454321451</v>
+        <v>303.4289001546742</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>210180</v>
+        <v>210472</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2802123</v>
+        <v>2793603</v>
       </c>
       <c r="E221" t="n">
-        <v>2804550</v>
+        <v>2796023</v>
       </c>
       <c r="F221" t="n">
-        <v>22.2476087670048</v>
+        <v>6.827071900729101</v>
       </c>
       <c r="G221" t="n">
-        <v>55.75454991859991</v>
+        <v>55.74981499474244</v>
       </c>
       <c r="H221" t="n">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="I221" t="n">
-        <v>73815</v>
+        <v>75418</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1306069</v>
+        <v>1309631</v>
       </c>
       <c r="E222" t="n">
-        <v>3953324</v>
+        <v>3963867</v>
       </c>
       <c r="F222" t="n">
-        <v>151.1125614012892</v>
+        <v>75.44072411247367</v>
       </c>
       <c r="G222" t="n">
-        <v>135.4934217008458</v>
+        <v>137.996948117165</v>
       </c>
       <c r="H222" t="n">
-        <v>2.47</v>
+        <v>0.5</v>
       </c>
       <c r="I222" t="n">
-        <v>36155</v>
+        <v>43412</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>31810461</v>
+        <v>31779821</v>
       </c>
       <c r="E223" t="n">
-        <v>225530979</v>
+        <v>225313747</v>
       </c>
       <c r="F223" t="n">
-        <v>42024.23524398154</v>
+        <v>26710.3435149922</v>
       </c>
       <c r="G223" t="n">
-        <v>51349.92854696669</v>
+        <v>32561.85273008889</v>
       </c>
       <c r="H223" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="I223" t="n">
-        <v>5253765</v>
+        <v>5335249</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58121</v>
+        <v>58797</v>
       </c>
       <c r="E224" t="n">
-        <v>303252</v>
+        <v>306777</v>
       </c>
       <c r="F224" t="n">
-        <v>26.73606820622793</v>
+        <v>27.80942737617628</v>
       </c>
       <c r="G224" t="n">
-        <v>158.7538009651885</v>
+        <v>2.286775020771207</v>
       </c>
       <c r="H224" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="I224" t="n">
-        <v>203330</v>
+        <v>202105</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1272625</v>
+        <v>1278903</v>
       </c>
       <c r="E225" t="n">
-        <v>7891464</v>
+        <v>7930394</v>
       </c>
       <c r="F225" t="n">
-        <v>982.411715380013</v>
+        <v>1392.610677540051</v>
       </c>
       <c r="G225" t="n">
-        <v>1130.007493325773</v>
+        <v>1074.991925995917</v>
       </c>
       <c r="H225" t="n">
         <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>788846</v>
+        <v>785943</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>580074981</v>
+        <v>572880365</v>
       </c>
       <c r="E226" t="n">
-        <v>2246544817</v>
+        <v>2218681129</v>
       </c>
       <c r="F226" t="n">
-        <v>277351.2824306222</v>
+        <v>238865.15027385</v>
       </c>
       <c r="G226" t="n">
-        <v>307589.7324538647</v>
+        <v>268940.0247783037</v>
       </c>
       <c r="H226" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I226" t="n">
-        <v>57022681</v>
+        <v>57861102</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20858381</v>
+        <v>20931154</v>
       </c>
       <c r="F227" t="n">
-        <v>2023.942707515994</v>
+        <v>1959.055511181358</v>
       </c>
       <c r="G227" t="n">
-        <v>975.5672168793603</v>
+        <v>1839.731766825336</v>
       </c>
       <c r="H227" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I227" t="n">
-        <v>18117646</v>
+        <v>18028772</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>828966</v>
+        <v>828455</v>
       </c>
       <c r="F228" t="n">
-        <v>22.81380346225285</v>
+        <v>31.20666636838527</v>
       </c>
       <c r="G228" t="n">
-        <v>44.6871254835014</v>
+        <v>44.68333045445206</v>
       </c>
       <c r="H228" t="n">
-        <v>3.87</v>
+        <v>2.93</v>
       </c>
       <c r="I228" t="n">
-        <v>141724</v>
+        <v>140659</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5451612</v>
+        <v>5441223</v>
       </c>
       <c r="E229" t="n">
-        <v>24403721</v>
+        <v>24357219</v>
       </c>
       <c r="F229" t="n">
-        <v>1392.61306247633</v>
+        <v>443.6176049760464</v>
       </c>
       <c r="G229" t="n">
-        <v>2689.098118255634</v>
+        <v>994.7311997036381</v>
       </c>
       <c r="H229" t="n">
         <v>0.41</v>
       </c>
       <c r="I229" t="n">
-        <v>190531</v>
+        <v>190476</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6665709</v>
+        <v>6593039</v>
       </c>
       <c r="E230" t="n">
-        <v>12762040</v>
+        <v>12622907</v>
       </c>
       <c r="F230" t="n">
-        <v>71.01197733220023</v>
+        <v>71.00594667988345</v>
       </c>
       <c r="G230" t="n">
-        <v>429.1377123445398</v>
+        <v>420.9380215543278</v>
       </c>
       <c r="H230" t="n">
-        <v>2.69</v>
+        <v>2.81</v>
       </c>
       <c r="I230" t="n">
-        <v>33863</v>
+        <v>34163</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3180473</v>
+        <v>3163745</v>
       </c>
       <c r="E231" t="n">
-        <v>20914047</v>
+        <v>20804050</v>
       </c>
       <c r="F231" t="n">
-        <v>186.2270996076479</v>
+        <v>183.7839885622267</v>
       </c>
       <c r="G231" t="n">
-        <v>340.1543611266697</v>
+        <v>204.1046299688956</v>
       </c>
       <c r="H231" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="I231" t="n">
-        <v>1675560</v>
+        <v>1678399</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>109348500</v>
+        <v>106115473</v>
       </c>
       <c r="E232" t="n">
-        <v>1015988494</v>
+        <v>1004617801</v>
       </c>
       <c r="F232" t="n">
-        <v>25931.35948739908</v>
+        <v>22319.02672908258</v>
       </c>
       <c r="G232" t="n">
-        <v>32969.18409734772</v>
+        <v>21457.77631715786</v>
       </c>
       <c r="H232" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I232" t="n">
-        <v>14889380</v>
+        <v>17450271</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>350.01</v>
+        <v>349.74</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>95306122</v>
+        <v>95847114</v>
       </c>
       <c r="E234" t="n">
-        <v>145391723</v>
+        <v>146217020</v>
       </c>
       <c r="F234" t="n">
-        <v>32286.15978805402</v>
+        <v>30339.07415401159</v>
       </c>
       <c r="G234" t="n">
-        <v>18837.29374119946</v>
+        <v>23660.0996500781</v>
       </c>
       <c r="H234" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I234" t="n">
-        <v>12392026</v>
+        <v>12481475</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15724737</v>
+        <v>15547707</v>
       </c>
       <c r="E235" t="n">
-        <v>21572977</v>
+        <v>21330107</v>
       </c>
       <c r="F235" t="n">
-        <v>1387.676033455134</v>
+        <v>1759.76967779037</v>
       </c>
       <c r="G235" t="n">
-        <v>359.1128308868867</v>
+        <v>1000.015738119663</v>
       </c>
       <c r="H235" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I235" t="n">
-        <v>924770</v>
+        <v>880102</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>121374137</v>
+        <v>121421183</v>
       </c>
       <c r="E236" t="n">
-        <v>465610725</v>
+        <v>465791202</v>
       </c>
       <c r="F236" t="n">
-        <v>400812.458884133</v>
+        <v>468954.3524667923</v>
       </c>
       <c r="G236" t="n">
-        <v>417694.807768397</v>
+        <v>347859.5064930784</v>
       </c>
       <c r="H236" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I236" t="n">
-        <v>39753350</v>
+        <v>39654016</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>640691</v>
+        <v>641045</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>347.2615409053317</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>100.2869377013247</v>
       </c>
       <c r="H237" t="n">
-        <v>4.43</v>
+        <v>3.84</v>
       </c>
       <c r="I237" t="n">
-        <v>40932</v>
+        <v>40689</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>780213</v>
+        <v>777686</v>
       </c>
       <c r="F238" t="n">
-        <v>163.5693137206143</v>
+        <v>164.9072208954116</v>
       </c>
       <c r="G238" t="n">
-        <v>155.6163744121304</v>
+        <v>152.6605591722093</v>
       </c>
       <c r="H238" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="I238" t="n">
-        <v>250549</v>
+        <v>254967</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>2967763</v>
+        <v>2970633</v>
       </c>
       <c r="E239" t="n">
-        <v>28119996</v>
+        <v>28147190</v>
       </c>
       <c r="F239" t="n">
-        <v>550.7236997008411</v>
+        <v>411.1636771882593</v>
       </c>
       <c r="G239" t="n">
-        <v>835.3815557530587</v>
+        <v>793.4127266145636</v>
       </c>
       <c r="H239" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I239" t="n">
-        <v>205840</v>
+        <v>245548</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>721944</v>
+        <v>720224</v>
       </c>
       <c r="E240" t="n">
-        <v>771754</v>
+        <v>769916</v>
       </c>
       <c r="F240" t="n">
-        <v>55.97601331458137</v>
+        <v>48.98160677505646</v>
       </c>
       <c r="G240" t="n">
-        <v>2213.199918447573</v>
+        <v>1119.310708796423</v>
       </c>
       <c r="H240" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I240" t="n">
-        <v>119984</v>
+        <v>124481</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383801</v>
+        <v>383738</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.95</v>
+        <v>12.86</v>
       </c>
       <c r="I241" t="n">
-        <v>699.64</v>
+        <v>699.09</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>130972</v>
+        <v>129348</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>7.14</v>
+        <v>7.8</v>
       </c>
       <c r="I242" t="n">
-        <v>67311</v>
+        <v>67134</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>559155</v>
+        <v>559498</v>
       </c>
       <c r="F243" t="n">
-        <v>46.97674003315036</v>
+        <v>87.52879504970421</v>
       </c>
       <c r="G243" t="n">
-        <v>3.217473739497716</v>
+        <v>3.285651571757942</v>
       </c>
       <c r="H243" t="n">
-        <v>3.09</v>
+        <v>1.03</v>
       </c>
       <c r="I243" t="n">
-        <v>8120.92</v>
+        <v>8112.9</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6563531</v>
+        <v>6580348</v>
       </c>
       <c r="E244" t="n">
-        <v>41020192</v>
+        <v>41125290</v>
       </c>
       <c r="F244" t="n">
-        <v>82.88298342988209</v>
+        <v>82.87594463903552</v>
       </c>
       <c r="G244" t="n">
-        <v>105.6668751474109</v>
+        <v>105.6579014473485</v>
       </c>
       <c r="H244" t="n">
         <v>0.17</v>
       </c>
       <c r="I244" t="n">
-        <v>415412</v>
+        <v>415427</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5083845</v>
+        <v>5095605</v>
       </c>
       <c r="E245" t="n">
-        <v>18891664</v>
+        <v>18935362</v>
       </c>
       <c r="F245" t="n">
-        <v>844.9861947975568</v>
+        <v>849.6018637798308</v>
       </c>
       <c r="G245" t="n">
-        <v>5149.118233864397</v>
+        <v>5148.680947888524</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>87664</v>
+        <v>88058</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3549026</v>
+        <v>3548372</v>
       </c>
       <c r="F246" t="n">
-        <v>173.7059823456233</v>
+        <v>173.6703789755319</v>
       </c>
       <c r="G246" t="n">
-        <v>6167.171430267071</v>
+        <v>6166.755319379186</v>
       </c>
       <c r="H246" t="n">
         <v>1.94</v>
       </c>
       <c r="I246" t="n">
-        <v>29727</v>
+        <v>29584</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>40013826</v>
+        <v>45049162</v>
       </c>
       <c r="E247" t="n">
-        <v>143423966</v>
+        <v>161472425</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>8.428395835345606</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>8.409840423707834</v>
       </c>
       <c r="H247" t="n">
-        <v>4.91</v>
+        <v>2.47</v>
       </c>
       <c r="I247" t="n">
-        <v>151629</v>
+        <v>165118</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1545383</v>
+        <v>1570173</v>
       </c>
       <c r="F248" t="n">
-        <v>174.5204329152936</v>
+        <v>124.4308685404632</v>
       </c>
       <c r="G248" t="n">
-        <v>45.40211713877216</v>
+        <v>231.7424980779271</v>
       </c>
       <c r="H248" t="n">
-        <v>2.55</v>
+        <v>3.85</v>
       </c>
       <c r="I248" t="n">
-        <v>606610</v>
+        <v>606122</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2126073</v>
+        <v>2126778</v>
       </c>
       <c r="E249" t="n">
-        <v>16353149</v>
+        <v>16358574</v>
       </c>
       <c r="F249" t="n">
-        <v>56.18899726212901</v>
+        <v>352.0623637275298</v>
       </c>
       <c r="G249" t="n">
-        <v>75.38644124750684</v>
+        <v>106.0672343334523</v>
       </c>
       <c r="H249" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="I249" t="n">
-        <v>217767</v>
+        <v>215605</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103131</v>
+        <v>103597</v>
       </c>
       <c r="E250" t="n">
-        <v>819170</v>
+        <v>822871</v>
       </c>
       <c r="F250" t="n">
-        <v>158.236459216157</v>
+        <v>158.225784823968</v>
       </c>
       <c r="G250" t="n">
-        <v>347.1359114229523</v>
+        <v>347.1124941594483</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>211.6</v>
+        <v>211.19</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87537016</v>
+        <v>87552617</v>
       </c>
       <c r="E251" t="n">
-        <v>323574835</v>
+        <v>323631757</v>
       </c>
       <c r="F251" t="n">
-        <v>5257.481381833158</v>
+        <v>5701.954714680115</v>
       </c>
       <c r="G251" t="n">
-        <v>5500.455548929589</v>
+        <v>5945.176630694154</v>
       </c>
       <c r="H251" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I251" t="n">
-        <v>236682</v>
+        <v>240788</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2177379</v>
+        <v>2182818</v>
       </c>
       <c r="E252" t="n">
-        <v>8728782</v>
+        <v>8750585</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>4.93</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I252" t="n">
-        <v>9179.940000000001</v>
+        <v>9169.610000000001</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>574567</v>
+        <v>574458</v>
       </c>
       <c r="F253" t="n">
-        <v>387.8960087399597</v>
+        <v>402.6100636438001</v>
       </c>
       <c r="G253" t="n">
-        <v>7.428664352049354</v>
+        <v>15.72611134639034</v>
       </c>
       <c r="H253" t="n">
-        <v>3.43</v>
+        <v>1.31</v>
       </c>
       <c r="I253" t="n">
-        <v>2303.79</v>
+        <v>2301.98</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37971</v>
+        <v>37965</v>
       </c>
       <c r="F254" t="n">
-        <v>95.38808138220061</v>
+        <v>95.38164664651532</v>
       </c>
       <c r="G254" t="n">
-        <v>1.029226479040648</v>
+        <v>1.029157048979188</v>
       </c>
       <c r="H254" t="n">
         <v>3.31</v>
       </c>
       <c r="I254" t="n">
-        <v>585.99</v>
+        <v>370.68</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>758594859</v>
+        <v>756543988</v>
       </c>
       <c r="E255" t="n">
-        <v>1169820250</v>
+        <v>1166657625</v>
       </c>
       <c r="F255" t="n">
-        <v>112499.305264761</v>
+        <v>67408.8954898458</v>
       </c>
       <c r="G255" t="n">
-        <v>164341.5831569622</v>
+        <v>99527.57401657486</v>
       </c>
       <c r="H255" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I255" t="n">
-        <v>334115252</v>
+        <v>328990750</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>17899408</v>
+        <v>16409726</v>
       </c>
       <c r="E256" t="n">
-        <v>17899408</v>
+        <v>16409726</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>99.55234280377584</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>12.31769159447463</v>
       </c>
       <c r="H256" t="n">
-        <v>4.41</v>
+        <v>0.19</v>
       </c>
       <c r="I256" t="n">
-        <v>24311</v>
+        <v>31475</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39427393</v>
+        <v>39509845</v>
       </c>
       <c r="E257" t="n">
-        <v>188023469</v>
+        <v>188415009</v>
       </c>
       <c r="F257" t="n">
-        <v>598.4997646050268</v>
+        <v>622.6347965126698</v>
       </c>
       <c r="G257" t="n">
-        <v>327.4645265475593</v>
+        <v>326.9200177220054</v>
       </c>
       <c r="H257" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I257" t="n">
-        <v>401673</v>
+        <v>401277</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>541392</v>
+        <v>541303</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>8.050000000000001</v>
+        <v>7.92</v>
       </c>
       <c r="I258" t="n">
-        <v>151.11</v>
+        <v>150.99</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>24694506</v>
+        <v>24370547</v>
       </c>
       <c r="E259" t="n">
-        <v>41157509</v>
+        <v>40617578</v>
       </c>
       <c r="F259" t="n">
-        <v>868.7212813217154</v>
+        <v>967.0009390481496</v>
       </c>
       <c r="G259" t="n">
-        <v>185.6156830966987</v>
+        <v>587.9371045453258</v>
       </c>
       <c r="H259" t="n">
-        <v>0.05</v>
+        <v>1.07</v>
       </c>
       <c r="I259" t="n">
-        <v>915178</v>
+        <v>911620</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107971</v>
+        <v>107880</v>
       </c>
       <c r="F260" t="n">
-        <v>225.5025052321316</v>
+        <v>225.4233693683766</v>
       </c>
       <c r="G260" t="n">
-        <v>175.6742785660134</v>
+        <v>170.6636717847684</v>
       </c>
       <c r="H260" t="n">
         <v>0.03</v>
       </c>
       <c r="I260" t="n">
-        <v>55085</v>
+        <v>55266</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1489809</v>
+        <v>1441800</v>
       </c>
       <c r="E261" t="n">
-        <v>6344804</v>
+        <v>6140342</v>
       </c>
       <c r="F261" t="n">
-        <v>341.2004502614215</v>
+        <v>1.296944510381639</v>
       </c>
       <c r="G261" t="n">
-        <v>11.82288296007398</v>
+        <v>139.6003367544898</v>
       </c>
       <c r="H261" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.17</v>
       </c>
       <c r="I261" t="n">
-        <v>856615</v>
+        <v>857247</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3806074</v>
+        <v>3811035</v>
       </c>
       <c r="E262" t="n">
-        <v>8296708</v>
+        <v>8307521</v>
       </c>
       <c r="F262" t="n">
-        <v>1207.678909620818</v>
+        <v>1231.378099748284</v>
       </c>
       <c r="G262" t="n">
-        <v>2709.213388954344</v>
+        <v>2654.982901984386</v>
       </c>
       <c r="H262" t="n">
         <v>0.72</v>
       </c>
       <c r="I262" t="n">
-        <v>2006880</v>
+        <v>2011373</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>474537280</v>
+        <v>471559919</v>
       </c>
       <c r="E263" t="n">
-        <v>1651824777</v>
+        <v>1641460834</v>
       </c>
       <c r="F263" t="n">
-        <v>301839.5971508488</v>
+        <v>306278.9305345191</v>
       </c>
       <c r="G263" t="n">
-        <v>353907.0692633087</v>
+        <v>276931.9824799758</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>46149432</v>
+        <v>46552241</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5576075531</v>
+        <v>5546519940</v>
       </c>
       <c r="E264" t="n">
-        <v>5576075258</v>
+        <v>5546519669</v>
       </c>
       <c r="F264" t="n">
-        <v>557.7082484548215</v>
+        <v>1387.38355892609</v>
       </c>
       <c r="G264" t="n">
-        <v>593.3851580917751</v>
+        <v>534.8066457732965</v>
       </c>
       <c r="H264" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="I264" t="n">
-        <v>32692714</v>
+        <v>34877315</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22287618</v>
+        <v>22313007</v>
       </c>
       <c r="E265" t="n">
-        <v>22268258</v>
+        <v>22293625</v>
       </c>
       <c r="F265" t="n">
-        <v>371.4621781613395</v>
+        <v>580.2390585379449</v>
       </c>
       <c r="G265" t="n">
-        <v>1585.946182056372</v>
+        <v>925.1880910865859</v>
       </c>
       <c r="H265" t="n">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="I265" t="n">
-        <v>407501</v>
+        <v>404579</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11879805</v>
+        <v>11891323</v>
       </c>
       <c r="E266" t="n">
-        <v>23986339</v>
+        <v>24007871</v>
       </c>
       <c r="F266" t="n">
-        <v>667.4892827873867</v>
+        <v>627.4824827067595</v>
       </c>
       <c r="G266" t="n">
-        <v>740.3654657550364</v>
+        <v>667.557011520389</v>
       </c>
       <c r="H266" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I266" t="n">
-        <v>68722</v>
+        <v>69162</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>145316</v>
+        <v>144228</v>
       </c>
       <c r="F267" t="n">
-        <v>163.852773257251</v>
+        <v>165.2970252502472</v>
       </c>
       <c r="G267" t="n">
-        <v>116.202504314414</v>
+        <v>116.1946654692418</v>
       </c>
       <c r="H267" t="n">
         <v>0.79</v>
       </c>
       <c r="I267" t="n">
-        <v>55650</v>
+        <v>55093</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>46365</v>
+        <v>46357</v>
       </c>
       <c r="F268" t="n">
-        <v>65.21170729619304</v>
+        <v>88.04489006421817</v>
       </c>
       <c r="G268" t="n">
-        <v>196.1402851771091</v>
+        <v>5.029788221956522</v>
       </c>
       <c r="H268" t="n">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="I268" t="n">
-        <v>69521</v>
+        <v>69360</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2390501</v>
+        <v>2381853</v>
       </c>
       <c r="E269" t="n">
-        <v>9562005</v>
+        <v>9527410</v>
       </c>
       <c r="F269" t="n">
-        <v>37379.298310347</v>
+        <v>13096.48385756168</v>
       </c>
       <c r="G269" t="n">
-        <v>25231.66078000156</v>
+        <v>20719.14876588407</v>
       </c>
       <c r="H269" t="n">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="I269" t="n">
-        <v>7461467</v>
+        <v>7495338</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>212201081</v>
+        <v>211601755</v>
       </c>
       <c r="E270" t="n">
-        <v>652438467</v>
+        <v>650595768</v>
       </c>
       <c r="F270" t="n">
-        <v>207810.5455902399</v>
+        <v>197239.1689554692</v>
       </c>
       <c r="G270" t="n">
-        <v>190719.8572585862</v>
+        <v>189804.9807096601</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I270" t="n">
-        <v>21721728</v>
+        <v>26693684</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>137247842</v>
+        <v>135333226</v>
       </c>
       <c r="E271" t="n">
-        <v>358556179</v>
+        <v>353554299</v>
       </c>
       <c r="F271" t="n">
-        <v>66487.93753434847</v>
+        <v>59772.29776957276</v>
       </c>
       <c r="G271" t="n">
-        <v>57925.67001517676</v>
+        <v>51609.26154271582</v>
       </c>
       <c r="H271" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="I271" t="n">
-        <v>9438680</v>
+        <v>9485120</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2355257</v>
+        <v>2327582</v>
       </c>
       <c r="E272" t="n">
-        <v>3232552</v>
+        <v>3194532</v>
       </c>
       <c r="F272" t="n">
-        <v>19.47827699432092</v>
+        <v>14.29379833696679</v>
       </c>
       <c r="G272" t="n">
-        <v>35.45860568589107</v>
+        <v>35.45621370198646</v>
       </c>
       <c r="H272" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="I272" t="n">
-        <v>1764560</v>
+        <v>1745850</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56648</v>
+        <v>58773</v>
       </c>
       <c r="F2" t="n">
-        <v>8.361956597693665</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87475853923972</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>7.14</v>
       </c>
       <c r="I2" t="n">
-        <v>447.71</v>
+        <v>467.45</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92661</v>
+        <v>92986</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1576.75</v>
+        <v>1263.89</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>595849863</v>
+        <v>584182746</v>
       </c>
       <c r="E4" t="n">
-        <v>1156276155</v>
+        <v>1133638008</v>
       </c>
       <c r="F4" t="n">
-        <v>22533.58772923402</v>
+        <v>20809.54108582543</v>
       </c>
       <c r="G4" t="n">
-        <v>21229.97658197416</v>
+        <v>21055.1954574949</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>40835477</v>
+        <v>45636728</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1479131</v>
+        <v>1477506</v>
       </c>
       <c r="E5" t="n">
-        <v>4781160</v>
+        <v>4775907</v>
       </c>
       <c r="F5" t="n">
-        <v>548.6966786186351</v>
+        <v>621.0591316724157</v>
       </c>
       <c r="G5" t="n">
-        <v>3200.414055790379</v>
+        <v>2920.617563004388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="I5" t="n">
-        <v>221767</v>
+        <v>222189</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140336257</v>
+        <v>139469578</v>
       </c>
       <c r="E6" t="n">
-        <v>155514504</v>
+        <v>154554089</v>
       </c>
       <c r="F6" t="n">
-        <v>210595.0208393777</v>
+        <v>133605.8326687924</v>
       </c>
       <c r="G6" t="n">
-        <v>258301.0138079327</v>
+        <v>381085.9041975684</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>51253632</v>
+        <v>52463331</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3817.92</v>
+        <v>3820.18</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.83</v>
+        <v>153.95</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8330406</v>
+        <v>8206651</v>
       </c>
       <c r="E8" t="n">
-        <v>8540468</v>
+        <v>8413592</v>
       </c>
       <c r="F8" t="n">
-        <v>432.2831196833875</v>
+        <v>503.5381680906302</v>
       </c>
       <c r="G8" t="n">
-        <v>4276.528171220403</v>
+        <v>3128.779708771734</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03</v>
+        <v>1.47</v>
       </c>
       <c r="I8" t="n">
-        <v>95353</v>
+        <v>97734</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>294228</v>
+        <v>294422</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.12</v>
+        <v>5.12</v>
       </c>
       <c r="I9" t="n">
-        <v>741.88</v>
+        <v>743.77</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5098457</v>
+        <v>5073379</v>
       </c>
       <c r="E10" t="n">
-        <v>8145802</v>
+        <v>8105735</v>
       </c>
       <c r="F10" t="n">
-        <v>218.7609947518847</v>
+        <v>229.822677536438</v>
       </c>
       <c r="G10" t="n">
-        <v>233.5923153407024</v>
+        <v>260.9185696081135</v>
       </c>
       <c r="H10" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="I10" t="n">
-        <v>100210</v>
+        <v>100192</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1001484</v>
+        <v>999073</v>
       </c>
       <c r="E11" t="n">
-        <v>12255463</v>
+        <v>12225954</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.762008627604</v>
+        <v>1570.188507813671</v>
       </c>
       <c r="G11" t="n">
-        <v>1342.122618470228</v>
+        <v>1381.199174464573</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>421.4</v>
+        <v>422.39</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>569132</v>
+        <v>568761</v>
       </c>
       <c r="E12" t="n">
-        <v>569132</v>
+        <v>568761</v>
       </c>
       <c r="F12" t="n">
-        <v>190.2597573009859</v>
+        <v>137.9384993174233</v>
       </c>
       <c r="G12" t="n">
-        <v>211.2348124749177</v>
+        <v>225.1612901051868</v>
       </c>
       <c r="H12" t="n">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="I12" t="n">
-        <v>28320</v>
+        <v>28434</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4246098</v>
+        <v>4266583</v>
       </c>
       <c r="E13" t="n">
-        <v>26073058</v>
+        <v>26198848</v>
       </c>
       <c r="F13" t="n">
-        <v>504.2609066709313</v>
+        <v>293.4954946123935</v>
       </c>
       <c r="G13" t="n">
-        <v>342.1476968809288</v>
+        <v>570.4444158190989</v>
       </c>
       <c r="H13" t="n">
-        <v>0.72</v>
+        <v>1.55</v>
       </c>
       <c r="I13" t="n">
-        <v>665465</v>
+        <v>650743</v>
       </c>
     </row>
     <row r="14">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197582</v>
+        <v>196945</v>
       </c>
       <c r="E14" t="n">
-        <v>2173622</v>
+        <v>2166610</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>13.36</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>34823</v>
+        <v>36039</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3227868</v>
+        <v>3209715</v>
       </c>
       <c r="E15" t="n">
-        <v>9182998</v>
+        <v>9131355</v>
       </c>
       <c r="F15" t="n">
-        <v>315.2142414462584</v>
+        <v>222.2103505776757</v>
       </c>
       <c r="G15" t="n">
-        <v>109.1064428523217</v>
+        <v>123.904269301183</v>
       </c>
       <c r="H15" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="I15" t="n">
-        <v>113122</v>
+        <v>111922</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>308480</v>
+        <v>308410</v>
       </c>
       <c r="E16" t="n">
-        <v>3560222</v>
+        <v>3559417</v>
       </c>
       <c r="F16" t="n">
-        <v>138.1053507566784</v>
+        <v>138.0969952980516</v>
       </c>
       <c r="G16" t="n">
-        <v>130.5327555386364</v>
+        <v>131.4766556936212</v>
       </c>
       <c r="H16" t="n">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>890.77</v>
+        <v>890.03</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>945938</v>
+        <v>942451</v>
       </c>
       <c r="F17" t="n">
-        <v>33.24733299736489</v>
+        <v>32.04200691881982</v>
       </c>
       <c r="G17" t="n">
-        <v>64.23825501027488</v>
+        <v>10.69339446569975</v>
       </c>
       <c r="H17" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>10626.86</v>
+        <v>10666.13</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24201258</v>
+        <v>24356994</v>
       </c>
       <c r="E18" t="n">
-        <v>24245896</v>
+        <v>24401919</v>
       </c>
       <c r="F18" t="n">
-        <v>1203.395409577091</v>
+        <v>2181.220905127716</v>
       </c>
       <c r="G18" t="n">
-        <v>2643.643215124342</v>
+        <v>1209.670332798236</v>
       </c>
       <c r="H18" t="n">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="I18" t="n">
-        <v>894347</v>
+        <v>899524</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6541020</v>
+        <v>6486328</v>
       </c>
       <c r="F19" t="n">
-        <v>13.90895577862729</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.400254039844077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.87</v>
+        <v>4.29</v>
       </c>
       <c r="I19" t="n">
-        <v>19560.99</v>
+        <v>20610</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2426461</v>
+        <v>2338431</v>
       </c>
       <c r="E20" t="n">
-        <v>2426461</v>
+        <v>2338431</v>
       </c>
       <c r="F20" t="n">
-        <v>251.5079586086188</v>
+        <v>78.14532298543611</v>
       </c>
       <c r="G20" t="n">
-        <v>24.50373571042746</v>
+        <v>28.0005900724491</v>
       </c>
       <c r="H20" t="n">
-        <v>1.95</v>
+        <v>2.66</v>
       </c>
       <c r="I20" t="n">
-        <v>315432</v>
+        <v>316591</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>359670</v>
+        <v>359792</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>5.56</v>
       </c>
       <c r="I21" t="n">
-        <v>9445.09</v>
+        <v>9452.4</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17176303</v>
+        <v>16672662</v>
       </c>
       <c r="E22" t="n">
-        <v>22107312</v>
+        <v>21459084</v>
       </c>
       <c r="F22" t="n">
-        <v>453.6425423694068</v>
+        <v>4335.405682271748</v>
       </c>
       <c r="G22" t="n">
-        <v>2325.413436518493</v>
+        <v>781.4357020793343</v>
       </c>
       <c r="H22" t="n">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>1904390</v>
+        <v>1900444</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>488257610</v>
+        <v>492400755</v>
       </c>
       <c r="E23" t="n">
-        <v>488257615</v>
+        <v>492400755</v>
       </c>
       <c r="F23" t="n">
-        <v>39831.61697233478</v>
+        <v>26259.77486945569</v>
       </c>
       <c r="G23" t="n">
-        <v>40177.03519947475</v>
+        <v>46871.00349123972</v>
       </c>
       <c r="H23" t="n">
         <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>84228081</v>
+        <v>76395233</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18220.07</v>
+        <v>18221.67</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.93</v>
+        <v>7.24</v>
       </c>
       <c r="I24" t="n">
-        <v>2638.54</v>
+        <v>2640.58</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4616739</v>
+        <v>4588896</v>
       </c>
       <c r="E25" t="n">
-        <v>4616739</v>
+        <v>4588896</v>
       </c>
       <c r="F25" t="n">
-        <v>413.2824151018603</v>
+        <v>359.0217266470368</v>
       </c>
       <c r="G25" t="n">
-        <v>1374.14859987989</v>
+        <v>1104.410341194661</v>
       </c>
       <c r="H25" t="n">
-        <v>0.33</v>
+        <v>0.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2171721</v>
+        <v>2242400</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3321363</v>
+        <v>3287587</v>
       </c>
       <c r="E26" t="n">
-        <v>3321363</v>
+        <v>3287587</v>
       </c>
       <c r="F26" t="n">
-        <v>31.20966324646565</v>
+        <v>800.3196149489323</v>
       </c>
       <c r="G26" t="n">
-        <v>1013.430382163394</v>
+        <v>108.3426205271586</v>
       </c>
       <c r="H26" t="n">
-        <v>1.45</v>
+        <v>0.39</v>
       </c>
       <c r="I26" t="n">
-        <v>601402</v>
+        <v>627189</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>310538</v>
+        <v>298741</v>
       </c>
       <c r="E27" t="n">
-        <v>1449622</v>
+        <v>1394554</v>
       </c>
       <c r="F27" t="n">
-        <v>124.0233889691357</v>
+        <v>252.9386521839529</v>
       </c>
       <c r="G27" t="n">
-        <v>31.75782904829592</v>
+        <v>129.9892191617373</v>
       </c>
       <c r="H27" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="I27" t="n">
-        <v>691103</v>
+        <v>670332</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1775208</v>
+        <v>1666286</v>
       </c>
       <c r="F28" t="n">
-        <v>330.2052304896992</v>
+        <v>370.7453728842423</v>
       </c>
       <c r="G28" t="n">
-        <v>201.5155666924735</v>
+        <v>82.4694408465332</v>
       </c>
       <c r="H28" t="n">
-        <v>0.34</v>
+        <v>0.75</v>
       </c>
       <c r="I28" t="n">
-        <v>1140286</v>
+        <v>1224033</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11830458</v>
+        <v>11854292</v>
       </c>
       <c r="E29" t="n">
-        <v>29443871</v>
+        <v>29503189</v>
       </c>
       <c r="F29" t="n">
-        <v>608.2175413736343</v>
+        <v>706.579311559866</v>
       </c>
       <c r="G29" t="n">
-        <v>1112.849543281779</v>
+        <v>1139.775053113384</v>
       </c>
       <c r="H29" t="n">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="I29" t="n">
-        <v>1516041</v>
+        <v>1532778</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>894416</v>
+        <v>868931</v>
       </c>
       <c r="E30" t="n">
-        <v>6260910</v>
+        <v>6082518</v>
       </c>
       <c r="F30" t="n">
-        <v>14.6136703908379</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>979.123306441925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.56</v>
+        <v>3.98</v>
       </c>
       <c r="I30" t="n">
-        <v>230399</v>
+        <v>247460</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176309</v>
+        <v>176219</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>774.23</v>
+        <v>771.28</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5556450</v>
+        <v>5438966</v>
       </c>
       <c r="E32" t="n">
-        <v>5822271</v>
+        <v>5699166</v>
       </c>
       <c r="F32" t="n">
-        <v>64.19999152329197</v>
+        <v>13.35662149004334</v>
       </c>
       <c r="G32" t="n">
-        <v>124.7719622234962</v>
+        <v>124.2483122650803</v>
       </c>
       <c r="H32" t="n">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="I32" t="n">
-        <v>156326</v>
+        <v>178973</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4768213</v>
+        <v>4797946</v>
       </c>
       <c r="E33" t="n">
-        <v>7019067</v>
+        <v>7062836</v>
       </c>
       <c r="F33" t="n">
-        <v>85.74714241351091</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>108.9663711962228</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.51</v>
+        <v>5.13</v>
       </c>
       <c r="I33" t="n">
-        <v>551141</v>
+        <v>561425</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7495032</v>
+        <v>7480794</v>
       </c>
       <c r="E34" t="n">
-        <v>7495032</v>
+        <v>7480794</v>
       </c>
       <c r="F34" t="n">
-        <v>3061.448517411761</v>
+        <v>2702.922761185313</v>
       </c>
       <c r="G34" t="n">
-        <v>2879.939945181326</v>
+        <v>3947.600582531938</v>
       </c>
       <c r="H34" t="n">
-        <v>0.84</v>
+        <v>1.22</v>
       </c>
       <c r="I34" t="n">
-        <v>282940</v>
+        <v>326337</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1573665</v>
+        <v>1529121</v>
       </c>
       <c r="E35" t="n">
-        <v>1573665</v>
+        <v>1529121</v>
       </c>
       <c r="F35" t="n">
-        <v>100.9371046001107</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>101.3722177943475</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3.58</v>
+        <v>3.93</v>
       </c>
       <c r="I35" t="n">
-        <v>285233</v>
+        <v>287812</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15733487</v>
+        <v>15731697</v>
       </c>
       <c r="F36" t="n">
-        <v>288.6383060890589</v>
+        <v>289.0575706869512</v>
       </c>
       <c r="G36" t="n">
-        <v>184.8973771352587</v>
+        <v>184.109578158896</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>12004.86</v>
+        <v>14098.85</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>56793</v>
+        <v>62371</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4.65</v>
+        <v>6.52</v>
       </c>
       <c r="I37" t="n">
-        <v>1721.65</v>
+        <v>2045.5</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>138550013</v>
+        <v>137091387</v>
       </c>
       <c r="E38" t="n">
-        <v>138550013</v>
+        <v>137091387</v>
       </c>
       <c r="F38" t="n">
-        <v>277764.1083520496</v>
+        <v>237649.2691783051</v>
       </c>
       <c r="G38" t="n">
-        <v>257820.3843894316</v>
+        <v>290562.9917002746</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>91983442</v>
+        <v>94640024</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>63995135</v>
+        <v>63363251</v>
       </c>
       <c r="E39" t="n">
-        <v>328180181</v>
+        <v>324939751</v>
       </c>
       <c r="F39" t="n">
-        <v>91320.96589898133</v>
+        <v>71086.00288555179</v>
       </c>
       <c r="G39" t="n">
-        <v>69459.62924257897</v>
+        <v>90376.81556009833</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>27277439</v>
+        <v>27431214</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46351</v>
+        <v>46378</v>
       </c>
       <c r="E40" t="n">
-        <v>136974</v>
+        <v>137055</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>10.74</v>
+        <v>10.69</v>
       </c>
       <c r="I40" t="n">
-        <v>18.72</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49195</v>
+        <v>49549</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.06</v>
+        <v>6.04</v>
       </c>
       <c r="I41" t="n">
-        <v>22364</v>
+        <v>22637</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>598094</v>
+        <v>597944</v>
       </c>
       <c r="F42" t="n">
-        <v>1012.744810392206</v>
+        <v>1880.834398773722</v>
       </c>
       <c r="G42" t="n">
-        <v>425.1432643875975</v>
+        <v>409.4931353484268</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="I42" t="n">
-        <v>1246.55</v>
+        <v>1244.92</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2634835</v>
+        <v>2611576</v>
       </c>
       <c r="E44" t="n">
-        <v>10588803</v>
+        <v>10495329</v>
       </c>
       <c r="F44" t="n">
-        <v>338.2403548333158</v>
+        <v>152.4412756634572</v>
       </c>
       <c r="G44" t="n">
-        <v>209.2243460397986</v>
+        <v>254.8013830097481</v>
       </c>
       <c r="H44" t="n">
-        <v>1.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>53468</v>
+        <v>55294</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17985022</v>
+        <v>17929574</v>
       </c>
       <c r="E45" t="n">
-        <v>125781481</v>
+        <v>125387725</v>
       </c>
       <c r="F45" t="n">
-        <v>188.886114674616</v>
+        <v>233.7264698990558</v>
       </c>
       <c r="G45" t="n">
-        <v>286.318149916894</v>
+        <v>271.8217957772036</v>
       </c>
       <c r="H45" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="I45" t="n">
-        <v>1152689</v>
+        <v>1176416</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>167121</v>
+        <v>166602</v>
       </c>
       <c r="E46" t="n">
-        <v>2236173</v>
+        <v>2229235</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>47164</v>
+        <v>47992</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>251120335</v>
+        <v>249090612</v>
       </c>
       <c r="E47" t="n">
-        <v>251120335</v>
+        <v>249090612</v>
       </c>
       <c r="F47" t="n">
-        <v>94042.79138931497</v>
+        <v>77863.16013005612</v>
       </c>
       <c r="G47" t="n">
-        <v>96213.36456177842</v>
+        <v>118375.993215961</v>
       </c>
       <c r="H47" t="n">
         <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>29644934</v>
+        <v>25693608</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>637457</v>
+        <v>637587</v>
       </c>
       <c r="E48" t="n">
-        <v>637457</v>
+        <v>637587</v>
       </c>
       <c r="F48" t="n">
-        <v>216.197325454732</v>
+        <v>215.5407404060238</v>
       </c>
       <c r="G48" t="n">
-        <v>87.51389843992149</v>
+        <v>77.40740000814796</v>
       </c>
       <c r="H48" t="n">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="I48" t="n">
-        <v>2700.49</v>
+        <v>2702.42</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>418430384</v>
+        <v>411484130</v>
       </c>
       <c r="E50" t="n">
-        <v>418430384</v>
+        <v>411484130</v>
       </c>
       <c r="F50" t="n">
-        <v>4917.529162679224</v>
+        <v>7960.985462530907</v>
       </c>
       <c r="G50" t="n">
-        <v>6325.391185072986</v>
+        <v>1229.480287690616</v>
       </c>
       <c r="H50" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="I50" t="n">
-        <v>3844658</v>
+        <v>4220907</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2300810</v>
+        <v>2413864</v>
       </c>
       <c r="E51" t="n">
-        <v>2300810</v>
+        <v>2413864</v>
       </c>
       <c r="F51" t="n">
-        <v>59.98797855795718</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3319.900716292287</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="I51" t="n">
-        <v>137322</v>
+        <v>108860</v>
       </c>
     </row>
     <row r="52">
@@ -2237,22 +2237,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23287</v>
+        <v>22187</v>
       </c>
       <c r="E52" t="n">
-        <v>46574</v>
+        <v>44374</v>
       </c>
       <c r="F52" t="n">
-        <v>4.998763892202585</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>192.6043469819903</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.43</v>
+        <v>5.13</v>
       </c>
       <c r="I52" t="n">
-        <v>2893.49</v>
+        <v>3707.11</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>164944</v>
+        <v>161197</v>
       </c>
       <c r="F53" t="n">
-        <v>70.59580084631789</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>65.48687637566454</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.31</v>
+        <v>4.58</v>
       </c>
       <c r="I53" t="n">
-        <v>20463</v>
+        <v>20963</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2558127</v>
+        <v>2570915</v>
       </c>
       <c r="E54" t="n">
-        <v>6540073</v>
+        <v>6572768</v>
       </c>
       <c r="F54" t="n">
-        <v>82.17734397479322</v>
+        <v>113.7521800131061</v>
       </c>
       <c r="G54" t="n">
-        <v>88.48410114666493</v>
+        <v>91.8075317446028</v>
       </c>
       <c r="H54" t="n">
-        <v>2.23</v>
+        <v>1.63</v>
       </c>
       <c r="I54" t="n">
-        <v>81823</v>
+        <v>82407</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3476.36</v>
+        <v>3473.45</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>5.33</v>
       </c>
       <c r="I55" t="n">
-        <v>1623.17</v>
+        <v>1622.08</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60984372</v>
+        <v>62133822</v>
       </c>
       <c r="E56" t="n">
-        <v>60984372</v>
+        <v>62133822</v>
       </c>
       <c r="F56" t="n">
-        <v>3324.274967685167</v>
+        <v>4938.680686547801</v>
       </c>
       <c r="G56" t="n">
-        <v>5412.150867154543</v>
+        <v>6063.865744176451</v>
       </c>
       <c r="H56" t="n">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="I56" t="n">
-        <v>5769251</v>
+        <v>6181192</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3274186</v>
+        <v>3285782</v>
       </c>
       <c r="E57" t="n">
-        <v>4148966</v>
+        <v>4163660</v>
       </c>
       <c r="F57" t="n">
-        <v>171.5792560661552</v>
+        <v>311.487150373868</v>
       </c>
       <c r="G57" t="n">
-        <v>390.0017049979752</v>
+        <v>1466.058935974768</v>
       </c>
       <c r="H57" t="n">
-        <v>1.14</v>
+        <v>0.23</v>
       </c>
       <c r="I57" t="n">
-        <v>194816</v>
+        <v>199274</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4149899</v>
+        <v>4079054</v>
       </c>
       <c r="E58" t="n">
-        <v>8183950</v>
+        <v>8044238</v>
       </c>
       <c r="F58" t="n">
-        <v>2631.049839875173</v>
+        <v>2877.043557632709</v>
       </c>
       <c r="G58" t="n">
-        <v>2153.168007260125</v>
+        <v>15474.65497003474</v>
       </c>
       <c r="H58" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="I58" t="n">
-        <v>1663427</v>
+        <v>1666552</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1595435</v>
+        <v>1598253</v>
       </c>
       <c r="E59" t="n">
-        <v>9160391</v>
+        <v>9176570</v>
       </c>
       <c r="F59" t="n">
-        <v>150.0571115388991</v>
+        <v>0.001087697580879962</v>
       </c>
       <c r="G59" t="n">
-        <v>323.9645258006004</v>
+        <v>341.1631493496538</v>
       </c>
       <c r="H59" t="n">
-        <v>2.64</v>
+        <v>0.22</v>
       </c>
       <c r="I59" t="n">
-        <v>244083</v>
+        <v>244428</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>579264</v>
+        <v>578293</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>19.44</v>
+        <v>14.49</v>
       </c>
       <c r="I60" t="n">
-        <v>5606.17</v>
+        <v>5613.05</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31091664</v>
+        <v>31123495</v>
       </c>
       <c r="F61" t="n">
-        <v>676.9907104654631</v>
+        <v>685.5449247578789</v>
       </c>
       <c r="G61" t="n">
-        <v>1604.417588544833</v>
+        <v>1525.628438964781</v>
       </c>
       <c r="H61" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I61" t="n">
-        <v>234235</v>
+        <v>233802</v>
       </c>
     </row>
     <row r="62">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1455363</v>
+        <v>1461819</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>20.18246588000431</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>230.0988815623163</v>
       </c>
       <c r="H62" t="n">
-        <v>5.82</v>
+        <v>0.71</v>
       </c>
       <c r="I62" t="n">
-        <v>8850.34</v>
+        <v>8926.709999999999</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17322706</v>
+        <v>17318324</v>
       </c>
       <c r="E63" t="n">
-        <v>18257726</v>
+        <v>18253107</v>
       </c>
       <c r="F63" t="n">
-        <v>1128.276667758197</v>
+        <v>855.4606061068341</v>
       </c>
       <c r="G63" t="n">
-        <v>1859.617400284458</v>
+        <v>2019.307088304912</v>
       </c>
       <c r="H63" t="n">
-        <v>1.34</v>
+        <v>0.96</v>
       </c>
       <c r="I63" t="n">
-        <v>41134</v>
+        <v>41153</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2936969</v>
+        <v>2927026</v>
       </c>
       <c r="E64" t="n">
-        <v>2936969</v>
+        <v>2927026</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>162.1069814226619</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>4.016988647738701</v>
       </c>
       <c r="H64" t="n">
-        <v>9.83</v>
+        <v>2.7</v>
       </c>
       <c r="I64" t="n">
-        <v>13983.99</v>
+        <v>14598.36</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3351336</v>
+        <v>3334893</v>
       </c>
       <c r="E65" t="n">
-        <v>8269250</v>
+        <v>8228678</v>
       </c>
       <c r="F65" t="n">
-        <v>835.8327538055394</v>
+        <v>599.8452718348547</v>
       </c>
       <c r="G65" t="n">
-        <v>1127.131981859515</v>
+        <v>1111.379283684163</v>
       </c>
       <c r="H65" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="I65" t="n">
-        <v>43207</v>
+        <v>44339</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>246012</v>
+        <v>246036</v>
       </c>
       <c r="F66" t="n">
-        <v>22.83435114621512</v>
+        <v>22.82525738407216</v>
       </c>
       <c r="G66" t="n">
-        <v>85.73588072365443</v>
+        <v>85.70173647749543</v>
       </c>
       <c r="H66" t="n">
         <v>3.57</v>
       </c>
       <c r="I66" t="n">
-        <v>3502.41</v>
+        <v>3477.57</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>83483591</v>
+        <v>83367188</v>
       </c>
       <c r="E67" t="n">
-        <v>174056583</v>
+        <v>173813891</v>
       </c>
       <c r="F67" t="n">
-        <v>36606.24293373629</v>
+        <v>31473.30946122599</v>
       </c>
       <c r="G67" t="n">
-        <v>79955.11293293518</v>
+        <v>85236.26831116977</v>
       </c>
       <c r="H67" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>69293829</v>
+        <v>70176925</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1778367</v>
+        <v>1779421</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>17.5410582222688</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>27.27158099359925</v>
       </c>
       <c r="H68" t="n">
-        <v>4.81</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>3800.29</v>
+        <v>3890.86</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>185767664</v>
+        <v>190454871</v>
       </c>
       <c r="F69" t="n">
-        <v>2374.865857632776</v>
+        <v>5131.446639538389</v>
       </c>
       <c r="G69" t="n">
-        <v>8510.265289193083</v>
+        <v>2260.067316925907</v>
       </c>
       <c r="H69" t="n">
-        <v>0.68</v>
+        <v>0.53</v>
       </c>
       <c r="I69" t="n">
-        <v>3120806</v>
+        <v>3517928</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>187047</v>
+        <v>187221</v>
       </c>
       <c r="E70" t="n">
-        <v>195330</v>
+        <v>195512</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>192.8</v>
+        <v>192.99</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>138162302</v>
+        <v>137639525</v>
       </c>
       <c r="E71" t="n">
-        <v>138218175</v>
+        <v>137695767</v>
       </c>
       <c r="F71" t="n">
-        <v>21624.98968865341</v>
+        <v>24272.28502647676</v>
       </c>
       <c r="G71" t="n">
-        <v>21744.79102921638</v>
+        <v>41018.93566269521</v>
       </c>
       <c r="H71" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I71" t="n">
-        <v>3224625</v>
+        <v>3286703</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25395612</v>
+        <v>25464629</v>
       </c>
       <c r="E72" t="n">
-        <v>83343545</v>
+        <v>83570045</v>
       </c>
       <c r="F72" t="n">
-        <v>4912.59792907158</v>
+        <v>5200.358040168133</v>
       </c>
       <c r="G72" t="n">
-        <v>32500.32680280556</v>
+        <v>31161.95293654597</v>
       </c>
       <c r="H72" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="I72" t="n">
-        <v>130202</v>
+        <v>158300</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113308</v>
+        <v>113328</v>
       </c>
       <c r="E73" t="n">
-        <v>113308</v>
+        <v>113328</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>5.32</v>
+        <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1335.68</v>
+        <v>1336.69</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>196452022</v>
+        <v>194781492</v>
       </c>
       <c r="E74" t="n">
-        <v>682492079</v>
+        <v>676688507</v>
       </c>
       <c r="F74" t="n">
-        <v>88879.3616260788</v>
+        <v>83028.69820734477</v>
       </c>
       <c r="G74" t="n">
-        <v>83764.0930071996</v>
+        <v>73177.03759904999</v>
       </c>
       <c r="H74" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="n">
-        <v>44508733</v>
+        <v>40679004</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3363992</v>
+        <v>3431489</v>
       </c>
       <c r="E75" t="n">
-        <v>3363992</v>
+        <v>3431489</v>
       </c>
       <c r="F75" t="n">
-        <v>466.5942248009134</v>
+        <v>308.7048648829676</v>
       </c>
       <c r="G75" t="n">
-        <v>669.6005461936161</v>
+        <v>1074.946728702995</v>
       </c>
       <c r="H75" t="n">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="I75" t="n">
-        <v>2413139</v>
+        <v>2368709</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>109492732</v>
+        <v>108921114</v>
       </c>
       <c r="E76" t="n">
-        <v>464525152</v>
+        <v>462051573</v>
       </c>
       <c r="F76" t="n">
-        <v>131281.1426180947</v>
+        <v>99452.18353277381</v>
       </c>
       <c r="G76" t="n">
-        <v>135129.705218382</v>
+        <v>168580.731629874</v>
       </c>
       <c r="H76" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="I76" t="n">
-        <v>14931993</v>
+        <v>15262173</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1815950</v>
+        <v>1805319</v>
       </c>
       <c r="F77" t="n">
-        <v>35.47011068918965</v>
+        <v>54.60630535014224</v>
       </c>
       <c r="G77" t="n">
-        <v>25.76022134018138</v>
+        <v>25.48440254718724</v>
       </c>
       <c r="H77" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I77" t="n">
-        <v>502.28</v>
+        <v>564.65</v>
       </c>
     </row>
     <row r="78">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3233683</v>
+        <v>3215165</v>
       </c>
       <c r="E78" t="n">
-        <v>16213035</v>
+        <v>16120190</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>5.23</v>
+        <v>4.12</v>
       </c>
       <c r="I78" t="n">
-        <v>30799</v>
+        <v>30615</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>520137</v>
+        <v>520559</v>
       </c>
       <c r="E79" t="n">
-        <v>8896908</v>
+        <v>8904130</v>
       </c>
       <c r="F79" t="n">
-        <v>308.290092599548</v>
+        <v>182.889705214924</v>
       </c>
       <c r="G79" t="n">
-        <v>119.3525356369311</v>
+        <v>63.2848926459504</v>
       </c>
       <c r="H79" t="n">
-        <v>2.91</v>
+        <v>3.56</v>
       </c>
       <c r="I79" t="n">
-        <v>133527</v>
+        <v>132048</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5671672</v>
+        <v>5480825</v>
       </c>
       <c r="E80" t="n">
-        <v>7697307</v>
+        <v>7438196</v>
       </c>
       <c r="F80" t="n">
-        <v>512.9914449195998</v>
+        <v>564.6214150841247</v>
       </c>
       <c r="G80" t="n">
-        <v>766.6610519802053</v>
+        <v>677.7813837386269</v>
       </c>
       <c r="H80" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="I80" t="n">
-        <v>5131150</v>
+        <v>5331079</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41539</v>
+        <v>41458</v>
       </c>
       <c r="F81" t="n">
-        <v>233.8966657841249</v>
+        <v>234.0307195990688</v>
       </c>
       <c r="G81" t="n">
-        <v>138.7257610430587</v>
+        <v>138.7215531587154</v>
       </c>
       <c r="H81" t="n">
-        <v>1.01</v>
+        <v>0.61</v>
       </c>
       <c r="I81" t="n">
-        <v>38364</v>
+        <v>39062</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>39675130</v>
+        <v>39963850</v>
       </c>
       <c r="E82" t="n">
-        <v>46339610</v>
+        <v>46676827</v>
       </c>
       <c r="F82" t="n">
-        <v>469.5862982144182</v>
+        <v>312.3984865223812</v>
       </c>
       <c r="G82" t="n">
-        <v>111.5582304996011</v>
+        <v>294.440590131436</v>
       </c>
       <c r="H82" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="I82" t="n">
-        <v>967649</v>
+        <v>965700</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14355897</v>
+        <v>14236732</v>
       </c>
       <c r="F83" t="n">
-        <v>182.4826433982662</v>
+        <v>26.18110398763118</v>
       </c>
       <c r="G83" t="n">
-        <v>377.4297046786885</v>
+        <v>445.7626853058445</v>
       </c>
       <c r="H83" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="I83" t="n">
-        <v>223128</v>
+        <v>220738</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35232057</v>
+        <v>34924083</v>
       </c>
       <c r="E84" t="n">
-        <v>35232057</v>
+        <v>34924083</v>
       </c>
       <c r="F84" t="n">
-        <v>575.2449428380048</v>
+        <v>503.2312698381363</v>
       </c>
       <c r="G84" t="n">
-        <v>15.73357233054644</v>
+        <v>253.1589014602056</v>
       </c>
       <c r="H84" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>870923</v>
+        <v>893696</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>547755</v>
+        <v>534985</v>
       </c>
       <c r="E85" t="n">
-        <v>6643737</v>
+        <v>6488851</v>
       </c>
       <c r="F85" t="n">
-        <v>264.1096954486545</v>
+        <v>499.0078709271136</v>
       </c>
       <c r="G85" t="n">
-        <v>422.2103690241868</v>
+        <v>514.8663464965432</v>
       </c>
       <c r="H85" t="n">
-        <v>0.44</v>
+        <v>1.44</v>
       </c>
       <c r="I85" t="n">
-        <v>2857419</v>
+        <v>2850417</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24628976</v>
+        <v>24692438</v>
       </c>
       <c r="E86" t="n">
-        <v>34804714</v>
+        <v>34894396</v>
       </c>
       <c r="F86" t="n">
-        <v>39.04867061137261</v>
+        <v>62.88079550594745</v>
       </c>
       <c r="G86" t="n">
-        <v>265.3702430971163</v>
+        <v>265.2645560462996</v>
       </c>
       <c r="H86" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="I86" t="n">
-        <v>120575</v>
+        <v>139748</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1356644231</v>
+        <v>1376156004</v>
       </c>
       <c r="E87" t="n">
-        <v>6505386922</v>
+        <v>6598949869</v>
       </c>
       <c r="F87" t="n">
-        <v>362295.9589246108</v>
+        <v>486493.8732899636</v>
       </c>
       <c r="G87" t="n">
-        <v>326734.4062883073</v>
+        <v>385151.9876630434</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>463016695</v>
+        <v>479589364</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>258233724</v>
+        <v>258223292</v>
       </c>
       <c r="E88" t="n">
-        <v>1114680107</v>
+        <v>1114635077</v>
       </c>
       <c r="F88" t="n">
-        <v>997278.1046279473</v>
+        <v>815263.1609284512</v>
       </c>
       <c r="G88" t="n">
-        <v>693792.0365799196</v>
+        <v>924207.2293244111</v>
       </c>
       <c r="H88" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>138166111</v>
+        <v>142716517</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>112216242</v>
+        <v>112174198</v>
       </c>
       <c r="E89" t="n">
-        <v>112216242</v>
+        <v>112174198</v>
       </c>
       <c r="F89" t="n">
-        <v>41587.14990436933</v>
+        <v>31697.72703963043</v>
       </c>
       <c r="G89" t="n">
-        <v>17123.20871943543</v>
+        <v>24203.74722230392</v>
       </c>
       <c r="H89" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="I89" t="n">
-        <v>6899059</v>
+        <v>7023785</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3794923</v>
+        <v>3808642</v>
       </c>
       <c r="E90" t="n">
-        <v>29531634</v>
+        <v>29638390</v>
       </c>
       <c r="F90" t="n">
-        <v>6334.003767350001</v>
+        <v>7447.427011144915</v>
       </c>
       <c r="G90" t="n">
-        <v>958.3070945710947</v>
+        <v>786.7220632680671</v>
       </c>
       <c r="H90" t="n">
         <v>0.24</v>
       </c>
       <c r="I90" t="n">
-        <v>23483</v>
+        <v>23661</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3849289</v>
+        <v>3812901</v>
       </c>
       <c r="F91" t="n">
-        <v>275.7532424397081</v>
+        <v>272.0611589599763</v>
       </c>
       <c r="G91" t="n">
-        <v>154.5300442830595</v>
+        <v>251.3234652379564</v>
       </c>
       <c r="H91" t="n">
-        <v>1.74</v>
+        <v>2.19</v>
       </c>
       <c r="I91" t="n">
-        <v>355893</v>
+        <v>356558</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>849220</v>
+        <v>880713</v>
       </c>
       <c r="F92" t="n">
-        <v>120.3191117160244</v>
+        <v>43.50935278909787</v>
       </c>
       <c r="G92" t="n">
-        <v>424.0603290954274</v>
+        <v>86.46240696766672</v>
       </c>
       <c r="H92" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="I92" t="n">
-        <v>9758.73</v>
+        <v>7370.58</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>126439</v>
+        <v>127851</v>
       </c>
       <c r="F93" t="n">
-        <v>6.158455386518336</v>
+        <v>222.471388015605</v>
       </c>
       <c r="G93" t="n">
-        <v>3.085250723971535</v>
+        <v>3.028044533320733</v>
       </c>
       <c r="H93" t="n">
-        <v>0.98</v>
+        <v>3.01</v>
       </c>
       <c r="I93" t="n">
-        <v>127782</v>
+        <v>125355</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9902322</v>
+        <v>10290611</v>
       </c>
       <c r="E94" t="n">
-        <v>119226393</v>
+        <v>123892526</v>
       </c>
       <c r="F94" t="n">
-        <v>144.7365676418486</v>
+        <v>1209.292417720494</v>
       </c>
       <c r="G94" t="n">
-        <v>212.4546622940709</v>
+        <v>84.71668321042539</v>
       </c>
       <c r="H94" t="n">
-        <v>1.3</v>
+        <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>570517</v>
+        <v>588880</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15736754</v>
+        <v>15638488</v>
       </c>
       <c r="E95" t="n">
-        <v>39341885</v>
+        <v>39096220</v>
       </c>
       <c r="F95" t="n">
-        <v>5411.121124090064</v>
+        <v>7099.811581293228</v>
       </c>
       <c r="G95" t="n">
-        <v>5090.403046462311</v>
+        <v>7103.210965780662</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I95" t="n">
-        <v>4660624</v>
+        <v>4811255</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2281459</v>
+        <v>2386208</v>
       </c>
       <c r="F96" t="n">
-        <v>173.0029300215912</v>
+        <v>105.5818318039615</v>
       </c>
       <c r="G96" t="n">
-        <v>172.8100547155893</v>
+        <v>234.1741277881669</v>
       </c>
       <c r="H96" t="n">
-        <v>2.52</v>
+        <v>1.62</v>
       </c>
       <c r="I96" t="n">
-        <v>37282</v>
+        <v>42512</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19496859</v>
+        <v>19490020</v>
       </c>
       <c r="F97" t="n">
-        <v>404.2398395384668</v>
+        <v>538.3765565282572</v>
       </c>
       <c r="G97" t="n">
-        <v>960.6107271189713</v>
+        <v>1073.796387066726</v>
       </c>
       <c r="H97" t="n">
         <v>1.02</v>
       </c>
       <c r="I97" t="n">
-        <v>70512</v>
+        <v>64400</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4179716</v>
+        <v>4161253</v>
       </c>
       <c r="E98" t="n">
-        <v>12038959</v>
+        <v>11985778</v>
       </c>
       <c r="F98" t="n">
-        <v>1069.325206580063</v>
+        <v>1272.58602034167</v>
       </c>
       <c r="G98" t="n">
-        <v>567.4199593263779</v>
+        <v>508.7894982158973</v>
       </c>
       <c r="H98" t="n">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>504103</v>
+        <v>493952</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1504318</v>
+        <v>1530402</v>
       </c>
       <c r="F99" t="n">
-        <v>726.813295155276</v>
+        <v>671.6052063535091</v>
       </c>
       <c r="G99" t="n">
-        <v>104.9325508015305</v>
+        <v>85.27423013738627</v>
       </c>
       <c r="H99" t="n">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="I99" t="n">
-        <v>268885</v>
+        <v>266995</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>78392200</v>
+        <v>77844820</v>
       </c>
       <c r="E100" t="n">
-        <v>99760167</v>
+        <v>99063583</v>
       </c>
       <c r="F100" t="n">
-        <v>6699.625312660542</v>
+        <v>8980.7418595294</v>
       </c>
       <c r="G100" t="n">
-        <v>6394.66284135235</v>
+        <v>7436.3869156664</v>
       </c>
       <c r="H100" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="I100" t="n">
-        <v>6446415</v>
+        <v>7466993</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22044833</v>
+        <v>21908448</v>
       </c>
       <c r="E101" t="n">
-        <v>28597191</v>
+        <v>28420268</v>
       </c>
       <c r="F101" t="n">
-        <v>4952.447566031617</v>
+        <v>5220.002074239489</v>
       </c>
       <c r="G101" t="n">
-        <v>6874.900835584144</v>
+        <v>7383.700212665261</v>
       </c>
       <c r="H101" t="n">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="I101" t="n">
-        <v>215297</v>
+        <v>223159</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1560253</v>
+        <v>1523583</v>
       </c>
       <c r="F102" t="n">
-        <v>63.85067173244114</v>
+        <v>40.64998443717696</v>
       </c>
       <c r="G102" t="n">
-        <v>48.49880791855173</v>
+        <v>352.1639926666363</v>
       </c>
       <c r="H102" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I102" t="n">
-        <v>8242.549999999999</v>
+        <v>7606.18</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>617802</v>
+        <v>598892</v>
       </c>
       <c r="E103" t="n">
-        <v>617802</v>
+        <v>598892</v>
       </c>
       <c r="F103" t="n">
-        <v>12.62673567583063</v>
+        <v>432.6054106860806</v>
       </c>
       <c r="G103" t="n">
-        <v>21.02049596005072</v>
+        <v>20.50744409046974</v>
       </c>
       <c r="H103" t="n">
-        <v>1.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>69173</v>
+        <v>67301</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40497386</v>
+        <v>40313532</v>
       </c>
       <c r="E104" t="n">
-        <v>42334249</v>
+        <v>42142056</v>
       </c>
       <c r="F104" t="n">
-        <v>697.9574012219955</v>
+        <v>669.2362900346182</v>
       </c>
       <c r="G104" t="n">
-        <v>4094.137901990274</v>
+        <v>1901.750139695475</v>
       </c>
       <c r="H104" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="I104" t="n">
-        <v>722658</v>
+        <v>733741</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13532084</v>
+        <v>13405102</v>
       </c>
       <c r="E105" t="n">
-        <v>13532084</v>
+        <v>13405102</v>
       </c>
       <c r="F105" t="n">
-        <v>2352.549219010136</v>
+        <v>2853.736941975222</v>
       </c>
       <c r="G105" t="n">
-        <v>2738.01455026773</v>
+        <v>4469.94942350866</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>5236498</v>
+        <v>5419588</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1101242</v>
+        <v>1091919</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.49</v>
+        <v>7.38</v>
       </c>
       <c r="I106" t="n">
-        <v>3957.07</v>
+        <v>3720.11</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>49645907</v>
+        <v>49249161</v>
       </c>
       <c r="E107" t="n">
-        <v>126475785</v>
+        <v>125465053</v>
       </c>
       <c r="F107" t="n">
-        <v>1907.60561996386</v>
+        <v>1689.703337705346</v>
       </c>
       <c r="G107" t="n">
-        <v>4458.587810905388</v>
+        <v>3156.494582565794</v>
       </c>
       <c r="H107" t="n">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
       <c r="I107" t="n">
-        <v>2174663</v>
+        <v>2210727</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13921950</v>
+        <v>14132735</v>
       </c>
       <c r="E108" t="n">
-        <v>67426228</v>
+        <v>68447090</v>
       </c>
       <c r="F108" t="n">
-        <v>1921.463019507188</v>
+        <v>1564.820614833317</v>
       </c>
       <c r="G108" t="n">
-        <v>3653.244717659026</v>
+        <v>3862.754219067116</v>
       </c>
       <c r="H108" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="I108" t="n">
-        <v>5325960</v>
+        <v>5440921</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>630630</v>
+        <v>622542</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>77.8888601119172</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>68.15933750796714</v>
       </c>
       <c r="H109" t="n">
-        <v>4.81</v>
+        <v>3.27</v>
       </c>
       <c r="I109" t="n">
-        <v>9359.620000000001</v>
+        <v>9778.92</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4487527</v>
+        <v>4469234</v>
       </c>
       <c r="E110" t="n">
-        <v>10229120</v>
+        <v>10187422</v>
       </c>
       <c r="F110" t="n">
-        <v>1326.091042250188</v>
+        <v>1334.224912650459</v>
       </c>
       <c r="G110" t="n">
-        <v>1873.914195390427</v>
+        <v>1501.343551488381</v>
       </c>
       <c r="H110" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="I110" t="n">
-        <v>64384</v>
+        <v>64689</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1845519959</v>
+        <v>1835743288</v>
       </c>
       <c r="F111" t="n">
-        <v>37811.1389731912</v>
+        <v>30556.08603072209</v>
       </c>
       <c r="G111" t="n">
-        <v>19640.92997144328</v>
+        <v>20319.29850990631</v>
       </c>
       <c r="H111" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="I111" t="n">
-        <v>30066803</v>
+        <v>30574698</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9307786</v>
+        <v>9196650</v>
       </c>
       <c r="E112" t="n">
-        <v>33864624</v>
+        <v>33460294</v>
       </c>
       <c r="F112" t="n">
-        <v>334.7132124769232</v>
+        <v>503.3947630566174</v>
       </c>
       <c r="G112" t="n">
-        <v>1197.379889189214</v>
+        <v>8127.126014403024</v>
       </c>
       <c r="H112" t="n">
-        <v>0.88</v>
+        <v>1.19</v>
       </c>
       <c r="I112" t="n">
-        <v>133847</v>
+        <v>147026</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>599012</v>
+        <v>632273</v>
       </c>
       <c r="F113" t="n">
-        <v>6.681692618008511</v>
+        <v>6.679031549536703</v>
       </c>
       <c r="G113" t="n">
-        <v>57.78145518023882</v>
+        <v>4.856349920558482</v>
       </c>
       <c r="H113" t="n">
-        <v>3.57</v>
+        <v>3.65</v>
       </c>
       <c r="I113" t="n">
-        <v>884.89</v>
+        <v>620.36</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11995751</v>
+        <v>11836887</v>
       </c>
       <c r="E114" t="n">
-        <v>17392109</v>
+        <v>17161778</v>
       </c>
       <c r="F114" t="n">
-        <v>1447.102782423099</v>
+        <v>3101.091438702258</v>
       </c>
       <c r="G114" t="n">
-        <v>6364.595487185575</v>
+        <v>376.9325085229325</v>
       </c>
       <c r="H114" t="n">
-        <v>0.58</v>
+        <v>1.62</v>
       </c>
       <c r="I114" t="n">
-        <v>2052800</v>
+        <v>2046400</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1827661</v>
+        <v>1834704</v>
       </c>
       <c r="E115" t="n">
-        <v>13105976</v>
+        <v>13156480</v>
       </c>
       <c r="F115" t="n">
-        <v>33.05113879400929</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>332.5903898746633</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>2.46</v>
+        <v>4.05</v>
       </c>
       <c r="I115" t="n">
-        <v>2029355</v>
+        <v>2051312</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2709846</v>
+        <v>2752128</v>
       </c>
       <c r="E116" t="n">
-        <v>5477844</v>
+        <v>5563316</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5381.82</v>
+        <v>5510.67</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>190422773</v>
+        <v>190925384</v>
       </c>
       <c r="E117" t="n">
-        <v>1078290743</v>
+        <v>1081136838</v>
       </c>
       <c r="F117" t="n">
-        <v>255606.6793953161</v>
+        <v>207354.6860037598</v>
       </c>
       <c r="G117" t="n">
-        <v>234332.4255899089</v>
+        <v>312432.2327102375</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>84145046</v>
+        <v>85811539</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>652229</v>
+        <v>654409</v>
       </c>
       <c r="E118" t="n">
-        <v>2162694</v>
+        <v>2169926</v>
       </c>
       <c r="F118" t="n">
-        <v>4054.222122584982</v>
+        <v>11864.16688171311</v>
       </c>
       <c r="G118" t="n">
-        <v>7558.551004191006</v>
+        <v>7595.703877476128</v>
       </c>
       <c r="H118" t="n">
-        <v>0.47</v>
+        <v>0.93</v>
       </c>
       <c r="I118" t="n">
-        <v>4778.79</v>
+        <v>3978.84</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2632685</v>
+        <v>2616813</v>
       </c>
       <c r="E119" t="n">
-        <v>9321226</v>
+        <v>9265031</v>
       </c>
       <c r="F119" t="n">
-        <v>295.8401089508409</v>
+        <v>14.3950039179247</v>
       </c>
       <c r="G119" t="n">
-        <v>153.1705911988909</v>
+        <v>391.4208441685984</v>
       </c>
       <c r="H119" t="n">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="I119" t="n">
-        <v>22803</v>
+        <v>26361</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1028123</v>
+        <v>1005047</v>
       </c>
       <c r="E120" t="n">
-        <v>1028123</v>
+        <v>1005047</v>
       </c>
       <c r="F120" t="n">
-        <v>126.8437438906602</v>
+        <v>125.6033637177572</v>
       </c>
       <c r="G120" t="n">
-        <v>8.149984790026831e-06</v>
+        <v>140.4811838770455</v>
       </c>
       <c r="H120" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="I120" t="n">
-        <v>5449.95</v>
+        <v>5611.47</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>487990</v>
+        <v>487105</v>
       </c>
       <c r="E121" t="n">
-        <v>1642506</v>
+        <v>1639528</v>
       </c>
       <c r="F121" t="n">
-        <v>349.4659947499742</v>
+        <v>380.2440306905611</v>
       </c>
       <c r="G121" t="n">
-        <v>347.968410830794</v>
+        <v>429.3742592206731</v>
       </c>
       <c r="H121" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I121" t="n">
-        <v>636563</v>
+        <v>641201</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>458634</v>
+        <v>468619</v>
       </c>
       <c r="E122" t="n">
-        <v>850854</v>
+        <v>869378</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>8.51</v>
+        <v>7.53</v>
       </c>
       <c r="I122" t="n">
-        <v>235375</v>
+        <v>247407</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9766031</v>
+        <v>9719375</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>8.41</v>
+        <v>7.86</v>
       </c>
       <c r="I123" t="n">
-        <v>17439.35</v>
+        <v>18173.08</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1193666</v>
+        <v>1166595</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>5.85</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I124" t="n">
-        <v>5281.83</v>
+        <v>5810.79</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3326946</v>
+        <v>3267202</v>
       </c>
       <c r="E125" t="n">
-        <v>7768972</v>
+        <v>7629461</v>
       </c>
       <c r="F125" t="n">
-        <v>1220.182021802393</v>
+        <v>1196.845967692511</v>
       </c>
       <c r="G125" t="n">
-        <v>1359.55854482573</v>
+        <v>1036.065640742844</v>
       </c>
       <c r="H125" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="I125" t="n">
-        <v>646486</v>
+        <v>635409</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>250302</v>
+        <v>249629</v>
       </c>
       <c r="E126" t="n">
-        <v>2209105</v>
+        <v>2203166</v>
       </c>
       <c r="F126" t="n">
-        <v>1.032567781622714</v>
+        <v>31.37860615707867</v>
       </c>
       <c r="G126" t="n">
-        <v>276.048921628449</v>
+        <v>37.60174064823879</v>
       </c>
       <c r="H126" t="n">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="I126" t="n">
-        <v>67917</v>
+        <v>70533</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>627692</v>
+        <v>628391</v>
       </c>
       <c r="F127" t="n">
-        <v>556.6706411617889</v>
+        <v>556.4489400484537</v>
       </c>
       <c r="G127" t="n">
-        <v>585.6004974067422</v>
+        <v>585.3672746127868</v>
       </c>
       <c r="H127" t="n">
         <v>1.96</v>
       </c>
       <c r="I127" t="n">
-        <v>14786.39</v>
+        <v>15235.76</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4778603</v>
+        <v>4746637</v>
       </c>
       <c r="E128" t="n">
-        <v>16882791</v>
+        <v>16769856</v>
       </c>
       <c r="F128" t="n">
-        <v>1788.510672634231</v>
+        <v>1648.526675588879</v>
       </c>
       <c r="G128" t="n">
-        <v>1153.164282270028</v>
+        <v>992.0670587663824</v>
       </c>
       <c r="H128" t="n">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="I128" t="n">
-        <v>136638</v>
+        <v>145713</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2096075</v>
+        <v>2083794</v>
       </c>
       <c r="F129" t="n">
-        <v>65.9520342880016</v>
+        <v>56.00178401052221</v>
       </c>
       <c r="G129" t="n">
-        <v>219.0777341469716</v>
+        <v>262.1554919941939</v>
       </c>
       <c r="H129" t="n">
-        <v>0.05</v>
+        <v>0.63</v>
       </c>
       <c r="I129" t="n">
-        <v>4880.72</v>
+        <v>4882.97</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2495872</v>
+        <v>2473607</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2509.09</v>
+        <v>2521.01</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>79869</v>
+        <v>79910</v>
       </c>
       <c r="E131" t="n">
-        <v>79869</v>
+        <v>79910</v>
       </c>
       <c r="F131" t="n">
-        <v>12.84557933154712</v>
+        <v>10.47014843194352</v>
       </c>
       <c r="G131" t="n">
-        <v>34.31375899160891</v>
+        <v>128.18051240799</v>
       </c>
       <c r="H131" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="I131" t="n">
-        <v>21689</v>
+        <v>20955</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4259630</v>
+        <v>4188532</v>
       </c>
       <c r="F132" t="n">
-        <v>391.8656599312047</v>
+        <v>366.5561511021317</v>
       </c>
       <c r="G132" t="n">
-        <v>332.1717518765662</v>
+        <v>397.7012589589827</v>
       </c>
       <c r="H132" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="I132" t="n">
-        <v>295327</v>
+        <v>297114</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2098060</v>
+        <v>2072647</v>
       </c>
       <c r="E133" t="n">
-        <v>8567935</v>
+        <v>8464152</v>
       </c>
       <c r="F133" t="n">
-        <v>308.5218803864275</v>
+        <v>566.7351236821613</v>
       </c>
       <c r="G133" t="n">
-        <v>720.0712338343643</v>
+        <v>357.2160214406657</v>
       </c>
       <c r="H133" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>441959</v>
+        <v>430080</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7281260</v>
+        <v>7251718</v>
       </c>
       <c r="E134" t="n">
-        <v>7335384</v>
+        <v>7305622</v>
       </c>
       <c r="F134" t="n">
-        <v>304091.4587868209</v>
+        <v>255642.531645855</v>
       </c>
       <c r="G134" t="n">
-        <v>254975.5658635212</v>
+        <v>252866.4637754867</v>
       </c>
       <c r="H134" t="n">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
       <c r="I134" t="n">
-        <v>5793680</v>
+        <v>5820292</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13578115</v>
+        <v>13426390</v>
       </c>
       <c r="E135" t="n">
-        <v>13624323</v>
+        <v>13472081</v>
       </c>
       <c r="F135" t="n">
-        <v>13627.61035855193</v>
+        <v>14442.60780318487</v>
       </c>
       <c r="G135" t="n">
-        <v>10348.00493496268</v>
+        <v>10708.59216170545</v>
       </c>
       <c r="H135" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I135" t="n">
-        <v>6854235</v>
+        <v>6137202</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42185327</v>
+        <v>42214090</v>
       </c>
       <c r="E136" t="n">
-        <v>71620871</v>
+        <v>71669704</v>
       </c>
       <c r="F136" t="n">
-        <v>620.8474516613682</v>
+        <v>551.1244879913787</v>
       </c>
       <c r="G136" t="n">
-        <v>633.5305913086431</v>
+        <v>716.6818054976814</v>
       </c>
       <c r="H136" t="n">
         <v>0.03</v>
       </c>
       <c r="I136" t="n">
-        <v>1132102</v>
+        <v>1138664</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19244560</v>
+        <v>19426458</v>
       </c>
       <c r="E137" t="n">
-        <v>57699105</v>
+        <v>58242350</v>
       </c>
       <c r="F137" t="n">
-        <v>35362.78720133581</v>
+        <v>36680.87203905953</v>
       </c>
       <c r="G137" t="n">
-        <v>21181.76215692572</v>
+        <v>49684.82440983957</v>
       </c>
       <c r="H137" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I137" t="n">
-        <v>4392670</v>
+        <v>4398783</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>97282900</v>
+        <v>99688764</v>
       </c>
       <c r="E138" t="n">
-        <v>103420515</v>
+        <v>105978165</v>
       </c>
       <c r="F138" t="n">
-        <v>4563.853190009964</v>
+        <v>2388.833104571746</v>
       </c>
       <c r="G138" t="n">
-        <v>6956.191317053505</v>
+        <v>4818.601282274578</v>
       </c>
       <c r="H138" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="I138" t="n">
-        <v>1814962</v>
+        <v>1821956</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1358352</v>
+        <v>1306116</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>7.719463318983381</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>0.2375053865102186</v>
       </c>
       <c r="H139" t="n">
-        <v>5.66</v>
+        <v>3.85</v>
       </c>
       <c r="I139" t="n">
-        <v>1924.6</v>
+        <v>1940.94</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>238971</v>
+        <v>239112</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.98</v>
+        <v>10.83</v>
       </c>
       <c r="I140" t="n">
-        <v>39.82</v>
+        <v>39.85</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>74194</v>
+        <v>73670</v>
       </c>
       <c r="E141" t="n">
-        <v>210471</v>
+        <v>208984</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>415.86</v>
+        <v>417.88</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47587797</v>
+        <v>50485655</v>
       </c>
       <c r="E142" t="n">
-        <v>205003028</v>
+        <v>217486680</v>
       </c>
       <c r="F142" t="n">
-        <v>47265.18258150195</v>
+        <v>41819.07526749206</v>
       </c>
       <c r="G142" t="n">
-        <v>57104.82912729018</v>
+        <v>61631.63404207131</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I142" t="n">
-        <v>12151012</v>
+        <v>12800432</v>
       </c>
     </row>
     <row r="143">
@@ -5407,19 +5407,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>271863</v>
+        <v>262840</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>28.79944174357037</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>13.53107183257472</v>
       </c>
       <c r="H143" t="n">
-        <v>8.59</v>
+        <v>0.68</v>
       </c>
       <c r="I143" t="n">
-        <v>7599.43</v>
+        <v>11433.32</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9616479</v>
+        <v>9620089</v>
       </c>
       <c r="F144" t="n">
-        <v>180.1752429404769</v>
+        <v>170.5921390425135</v>
       </c>
       <c r="G144" t="n">
-        <v>364.2631680896749</v>
+        <v>321.109387074752</v>
       </c>
       <c r="H144" t="n">
         <v>0.99</v>
       </c>
       <c r="I144" t="n">
-        <v>109493</v>
+        <v>109714</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1177992</v>
+        <v>1166344</v>
       </c>
       <c r="E145" t="n">
-        <v>7853278</v>
+        <v>7775628</v>
       </c>
       <c r="F145" t="n">
-        <v>262.4595221479547</v>
+        <v>262.3549943285169</v>
       </c>
       <c r="G145" t="n">
-        <v>36.80168010457871</v>
+        <v>36.78702337068888</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4411.75</v>
+        <v>4443.04</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7397693</v>
+        <v>7393839</v>
       </c>
       <c r="F146" t="n">
-        <v>177.4839629565879</v>
+        <v>184.4153902499399</v>
       </c>
       <c r="G146" t="n">
-        <v>160.3649011397763</v>
+        <v>232.1250860292355</v>
       </c>
       <c r="H146" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="I146" t="n">
-        <v>587787</v>
+        <v>589163</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>665130</v>
+        <v>659444</v>
       </c>
       <c r="E147" t="n">
-        <v>2400761</v>
+        <v>2380235</v>
       </c>
       <c r="F147" t="n">
-        <v>16.28185575897649</v>
+        <v>18.72232923480115</v>
       </c>
       <c r="G147" t="n">
-        <v>10.07077304537991</v>
+        <v>10.58260410971873</v>
       </c>
       <c r="H147" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I147" t="n">
-        <v>375138</v>
+        <v>400019</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1692155</v>
+        <v>1615961</v>
       </c>
       <c r="F148" t="n">
-        <v>38.65915549501828</v>
+        <v>1154.260639644388</v>
       </c>
       <c r="G148" t="n">
-        <v>42.66128294701744</v>
+        <v>59.89006641486227</v>
       </c>
       <c r="H148" t="n">
-        <v>1.45</v>
+        <v>0.59</v>
       </c>
       <c r="I148" t="n">
-        <v>88035</v>
+        <v>86862</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>62814</v>
+        <v>62979</v>
       </c>
       <c r="F149" t="n">
-        <v>8.124746941317438</v>
+        <v>8.121511267324211</v>
       </c>
       <c r="G149" t="n">
-        <v>0.004145274960867412</v>
+        <v>0.004143624108418401</v>
       </c>
       <c r="H149" t="n">
         <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>3238.56</v>
+        <v>3187.46</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12419090</v>
+        <v>12568229</v>
       </c>
       <c r="E150" t="n">
-        <v>12419090</v>
+        <v>12568229</v>
       </c>
       <c r="F150" t="n">
-        <v>229.9704172523587</v>
+        <v>215.4035710379867</v>
       </c>
       <c r="G150" t="n">
-        <v>341.405352538611</v>
+        <v>1206.95460234732</v>
       </c>
       <c r="H150" t="n">
-        <v>0.24</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I150" t="n">
-        <v>3637227</v>
+        <v>3434089</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2281209</v>
+        <v>2220656</v>
       </c>
       <c r="E151" t="n">
-        <v>8280656</v>
+        <v>8060749</v>
       </c>
       <c r="F151" t="n">
-        <v>114.4449857046641</v>
+        <v>180.5860093079007</v>
       </c>
       <c r="G151" t="n">
-        <v>52.26714993762026</v>
+        <v>108.059796970457</v>
       </c>
       <c r="H151" t="n">
         <v>1.28</v>
       </c>
       <c r="I151" t="n">
-        <v>225519</v>
+        <v>217508</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1225230</v>
+        <v>1223160</v>
       </c>
       <c r="E152" t="n">
-        <v>1225230</v>
+        <v>1223160</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1006.33</v>
+        <v>1004.11</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23053789</v>
+        <v>23043940</v>
       </c>
       <c r="E153" t="n">
-        <v>26626936</v>
+        <v>26616491</v>
       </c>
       <c r="F153" t="n">
-        <v>434.9955702076882</v>
+        <v>427.6921479933944</v>
       </c>
       <c r="G153" t="n">
-        <v>454.3034802278784</v>
+        <v>429.4085251822185</v>
       </c>
       <c r="H153" t="n">
-        <v>0.18</v>
+        <v>0.41</v>
       </c>
       <c r="I153" t="n">
-        <v>740718</v>
+        <v>758130</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2443797</v>
+        <v>2440951</v>
       </c>
       <c r="E154" t="n">
-        <v>18388943</v>
+        <v>18367528</v>
       </c>
       <c r="F154" t="n">
-        <v>3609.518613015666</v>
+        <v>3320.896720679979</v>
       </c>
       <c r="G154" t="n">
-        <v>3312.449344893468</v>
+        <v>3478.785864490213</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161186</v>
+        <v>161451</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20060308</v>
+        <v>19751105</v>
       </c>
       <c r="E155" t="n">
-        <v>80241233</v>
+        <v>79004420</v>
       </c>
       <c r="F155" t="n">
-        <v>839.9509784107192</v>
+        <v>1467.097343286579</v>
       </c>
       <c r="G155" t="n">
-        <v>523.7617110044914</v>
+        <v>18541.56132396259</v>
       </c>
       <c r="H155" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="I155" t="n">
-        <v>2946572</v>
+        <v>3194788</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>284037865</v>
+        <v>289141309</v>
       </c>
       <c r="E156" t="n">
-        <v>284037865</v>
+        <v>289141309</v>
       </c>
       <c r="F156" t="n">
-        <v>320975.2220717918</v>
+        <v>272986.0142436764</v>
       </c>
       <c r="G156" t="n">
-        <v>269078.1790963699</v>
+        <v>370913.3558187681</v>
       </c>
       <c r="H156" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I156" t="n">
-        <v>19563830</v>
+        <v>19836687</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12555276</v>
+        <v>12600975</v>
       </c>
       <c r="E157" t="n">
-        <v>39710909</v>
+        <v>39855453</v>
       </c>
       <c r="F157" t="n">
-        <v>484.8493018862594</v>
+        <v>3843.002357129411</v>
       </c>
       <c r="G157" t="n">
-        <v>737.2849655669299</v>
+        <v>14422.95837394763</v>
       </c>
       <c r="H157" t="n">
-        <v>1.35</v>
+        <v>0.47</v>
       </c>
       <c r="I157" t="n">
-        <v>1012489</v>
+        <v>1025332</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1094948</v>
+        <v>1094662</v>
       </c>
       <c r="E158" t="n">
-        <v>2493851</v>
+        <v>2493200</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>433.88</v>
+        <v>434.6</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17599060</v>
+        <v>17554751</v>
       </c>
       <c r="E159" t="n">
-        <v>17599060</v>
+        <v>17554751</v>
       </c>
       <c r="F159" t="n">
-        <v>8973.378195653881</v>
+        <v>9510.067780025458</v>
       </c>
       <c r="G159" t="n">
-        <v>12898.14303995606</v>
+        <v>17887.86844572096</v>
       </c>
       <c r="H159" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>6769895</v>
+        <v>7070678</v>
       </c>
     </row>
     <row r="160">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>13.15</v>
+        <v>13.45</v>
       </c>
       <c r="I160" t="n">
         <v>65.08</v>
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>101540</v>
+        <v>103973</v>
       </c>
       <c r="E161" t="n">
-        <v>123276</v>
+        <v>126192</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>7.93</v>
+        <v>7.52</v>
       </c>
       <c r="I161" t="n">
-        <v>2202.61</v>
+        <v>2024.58</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>22204947</v>
+        <v>21925010</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>14.32</v>
+        <v>13.33</v>
       </c>
       <c r="I162" t="n">
-        <v>1032.06</v>
+        <v>866.53</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>454330</v>
+        <v>461968</v>
       </c>
       <c r="E163" t="n">
-        <v>572286</v>
+        <v>581907</v>
       </c>
       <c r="F163" t="n">
-        <v>100.2523296786944</v>
+        <v>118.1501112637077</v>
       </c>
       <c r="G163" t="n">
-        <v>178.3304096440838</v>
+        <v>126.8117298876349</v>
       </c>
       <c r="H163" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="I163" t="n">
-        <v>132320</v>
+        <v>149680</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104704</v>
+        <v>104766</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>6.85</v>
+        <v>6.52</v>
       </c>
       <c r="I164" t="n">
-        <v>3071.85</v>
+        <v>2750.25</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12387979</v>
+        <v>12397560</v>
       </c>
       <c r="E165" t="n">
-        <v>18857298</v>
+        <v>18871882</v>
       </c>
       <c r="F165" t="n">
-        <v>1754.728059308629</v>
+        <v>1428.623707795223</v>
       </c>
       <c r="G165" t="n">
-        <v>1114.952305773077</v>
+        <v>1139.996510999135</v>
       </c>
       <c r="H165" t="n">
-        <v>1.4</v>
+        <v>0.93</v>
       </c>
       <c r="I165" t="n">
-        <v>653473</v>
+        <v>661702</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>288734142</v>
+        <v>286784523</v>
       </c>
       <c r="E166" t="n">
-        <v>288734142</v>
+        <v>286784523</v>
       </c>
       <c r="F166" t="n">
-        <v>298742.5135978626</v>
+        <v>263261.6057774118</v>
       </c>
       <c r="G166" t="n">
-        <v>264448.8335308544</v>
+        <v>238693.2557376971</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I166" t="n">
-        <v>88676540</v>
+        <v>92593088</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10019460</v>
+        <v>9805655</v>
       </c>
       <c r="E167" t="n">
-        <v>28446919</v>
+        <v>27839890</v>
       </c>
       <c r="F167" t="n">
-        <v>115.0359375826591</v>
+        <v>546.0287316659598</v>
       </c>
       <c r="G167" t="n">
-        <v>668.507179245529</v>
+        <v>348.8566125241487</v>
       </c>
       <c r="H167" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="I167" t="n">
-        <v>90972</v>
+        <v>102458</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11661240</v>
+        <v>11629469</v>
       </c>
       <c r="F168" t="n">
-        <v>60.92680868429724</v>
+        <v>101.4823005210441</v>
       </c>
       <c r="G168" t="n">
-        <v>408.7787003427678</v>
+        <v>359.122359755385</v>
       </c>
       <c r="H168" t="n">
-        <v>1.3</v>
+        <v>2.31</v>
       </c>
       <c r="I168" t="n">
-        <v>92769</v>
+        <v>90465</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4542300</v>
+        <v>4643052</v>
       </c>
       <c r="E169" t="n">
-        <v>31037214</v>
+        <v>31725648</v>
       </c>
       <c r="F169" t="n">
-        <v>500.1247106996022</v>
+        <v>1332.24714936094</v>
       </c>
       <c r="G169" t="n">
-        <v>714.3781723341159</v>
+        <v>1635.933758010068</v>
       </c>
       <c r="H169" t="n">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
       <c r="I169" t="n">
-        <v>2857796</v>
+        <v>2945092</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2766066</v>
+        <v>2644588</v>
       </c>
       <c r="E170" t="n">
-        <v>4095285</v>
+        <v>3915262</v>
       </c>
       <c r="F170" t="n">
-        <v>2988.369116449579</v>
+        <v>1014.3960739164</v>
       </c>
       <c r="G170" t="n">
-        <v>3290.733938064153</v>
+        <v>432.6967997627973</v>
       </c>
       <c r="H170" t="n">
-        <v>0.49</v>
+        <v>1.26</v>
       </c>
       <c r="I170" t="n">
-        <v>90442</v>
+        <v>91265</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>84605856</v>
+        <v>83996684</v>
       </c>
       <c r="E171" t="n">
-        <v>487535435</v>
+        <v>484025125</v>
       </c>
       <c r="F171" t="n">
-        <v>404445.8617952727</v>
+        <v>234035.9908841503</v>
       </c>
       <c r="G171" t="n">
-        <v>311744.9828386242</v>
+        <v>270528.9291537776</v>
       </c>
       <c r="H171" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="I171" t="n">
-        <v>21133685</v>
+        <v>21512599</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13691259</v>
+        <v>13807006</v>
       </c>
       <c r="E172" t="n">
-        <v>13691259</v>
+        <v>13807006</v>
       </c>
       <c r="F172" t="n">
-        <v>5333.048268361811</v>
+        <v>4331.086812557794</v>
       </c>
       <c r="G172" t="n">
-        <v>6245.21082198691</v>
+        <v>6303.138774469179</v>
       </c>
       <c r="H172" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="I172" t="n">
-        <v>682619</v>
+        <v>691694</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6084422</v>
+        <v>6059002</v>
       </c>
       <c r="E173" t="n">
-        <v>17284095</v>
+        <v>17211885</v>
       </c>
       <c r="F173" t="n">
-        <v>767.1382467292333</v>
+        <v>1112.809664180115</v>
       </c>
       <c r="G173" t="n">
-        <v>8671.147437097878</v>
+        <v>8620.524654185674</v>
       </c>
       <c r="H173" t="n">
-        <v>0.8</v>
+        <v>0.06</v>
       </c>
       <c r="I173" t="n">
-        <v>99572</v>
+        <v>97394</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18958727</v>
+        <v>18851055</v>
       </c>
       <c r="E174" t="n">
-        <v>18958727</v>
+        <v>18851055</v>
       </c>
       <c r="F174" t="n">
-        <v>244.1946972979714</v>
+        <v>1381.78170764461</v>
       </c>
       <c r="G174" t="n">
-        <v>1.062039180094152</v>
+        <v>1.061606460370777</v>
       </c>
       <c r="H174" t="n">
-        <v>1.14</v>
+        <v>2.18</v>
       </c>
       <c r="I174" t="n">
-        <v>146420</v>
+        <v>131879</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1314683</v>
+        <v>1314719</v>
       </c>
       <c r="F175" t="n">
-        <v>158.5618177346261</v>
+        <v>84.07483150882582</v>
       </c>
       <c r="G175" t="n">
-        <v>742.9891283299787</v>
+        <v>227.5950640508855</v>
       </c>
       <c r="H175" t="n">
-        <v>2.59</v>
+        <v>2.17</v>
       </c>
       <c r="I175" t="n">
-        <v>43348</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>141265</v>
+        <v>139416</v>
       </c>
       <c r="E176" t="n">
-        <v>307531</v>
+        <v>303507</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>9.9</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I176" t="n">
-        <v>48036</v>
+        <v>48002</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3029485</v>
+        <v>3033593</v>
       </c>
       <c r="F177" t="n">
-        <v>447.3949746628842</v>
+        <v>371.0036682808694</v>
       </c>
       <c r="G177" t="n">
-        <v>377.4261125477789</v>
+        <v>475.9719093327253</v>
       </c>
       <c r="H177" t="n">
         <v>2.29</v>
       </c>
       <c r="I177" t="n">
-        <v>463442</v>
+        <v>420860</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>233116187</v>
+        <v>230623899</v>
       </c>
       <c r="E178" t="n">
-        <v>233118503</v>
+        <v>230626191</v>
       </c>
       <c r="F178" t="n">
-        <v>41468.12350716961</v>
+        <v>43384.92413029794</v>
       </c>
       <c r="G178" t="n">
-        <v>81003.68179302338</v>
+        <v>76005.7760912844</v>
       </c>
       <c r="H178" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="I178" t="n">
-        <v>1912813</v>
+        <v>1951675</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9263855</v>
+        <v>9156551</v>
       </c>
       <c r="E179" t="n">
-        <v>9263855</v>
+        <v>9156551</v>
       </c>
       <c r="F179" t="n">
-        <v>3.610247310433942</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>136.0085257853849</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>2.73</v>
+        <v>4.6</v>
       </c>
       <c r="I179" t="n">
-        <v>2916307</v>
+        <v>2945369</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>196390</v>
+        <v>194666</v>
       </c>
       <c r="E180" t="n">
-        <v>1516529</v>
+        <v>1503214</v>
       </c>
       <c r="F180" t="n">
-        <v>515.706472500308</v>
+        <v>553.112084094906</v>
       </c>
       <c r="G180" t="n">
-        <v>20.79391721852154</v>
+        <v>78.20726936696238</v>
       </c>
       <c r="H180" t="n">
-        <v>1.83</v>
+        <v>3.04</v>
       </c>
       <c r="I180" t="n">
-        <v>82076</v>
+        <v>80068</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>28900450</v>
+        <v>28719746</v>
       </c>
       <c r="E181" t="n">
-        <v>129399171</v>
+        <v>128590084</v>
       </c>
       <c r="F181" t="n">
-        <v>55315.773794968</v>
+        <v>50559.8926420295</v>
       </c>
       <c r="G181" t="n">
-        <v>59282.99208949629</v>
+        <v>60836.26103027872</v>
       </c>
       <c r="H181" t="n">
         <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>13608507</v>
+        <v>14246726</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1271883</v>
+        <v>1296229</v>
       </c>
       <c r="F182" t="n">
-        <v>492.9082298056025</v>
+        <v>435.2620601553182</v>
       </c>
       <c r="G182" t="n">
-        <v>224.6867237274211</v>
+        <v>1442.464729466744</v>
       </c>
       <c r="H182" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="I182" t="n">
-        <v>60143</v>
+        <v>95754</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2943914</v>
+        <v>2920014</v>
       </c>
       <c r="E183" t="n">
-        <v>2943914</v>
+        <v>2920014</v>
       </c>
       <c r="F183" t="n">
-        <v>447.702117816982</v>
+        <v>383.276545037342</v>
       </c>
       <c r="G183" t="n">
-        <v>865.7720625477277</v>
+        <v>1469.549202312037</v>
       </c>
       <c r="H183" t="n">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="I183" t="n">
-        <v>342277</v>
+        <v>321783</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>560587</v>
+        <v>554295</v>
       </c>
       <c r="E184" t="n">
-        <v>560587</v>
+        <v>554295</v>
       </c>
       <c r="F184" t="n">
-        <v>7.484087692847142</v>
+        <v>6.442949138090092</v>
       </c>
       <c r="G184" t="n">
-        <v>164.2485346390628</v>
+        <v>6.083468535382743</v>
       </c>
       <c r="H184" t="n">
         <v>3.64</v>
       </c>
       <c r="I184" t="n">
-        <v>1184558</v>
+        <v>1195278</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14669071</v>
+        <v>14516404</v>
       </c>
       <c r="E185" t="n">
-        <v>18676069</v>
+        <v>18481700</v>
       </c>
       <c r="F185" t="n">
-        <v>804.8903590335088</v>
+        <v>753.9958287560841</v>
       </c>
       <c r="G185" t="n">
-        <v>403.934222646077</v>
+        <v>826.1586596370344</v>
       </c>
       <c r="H185" t="n">
         <v>0.68</v>
       </c>
       <c r="I185" t="n">
-        <v>937990</v>
+        <v>938574</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1746292</v>
+        <v>1741644</v>
       </c>
       <c r="E186" t="n">
-        <v>1746292</v>
+        <v>1741644</v>
       </c>
       <c r="F186" t="n">
-        <v>3.279750470896531</v>
+        <v>3.545002801265134</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8106008583824957</v>
+        <v>0.8102780263531313</v>
       </c>
       <c r="H186" t="n">
         <v>3.53</v>
       </c>
       <c r="I186" t="n">
-        <v>3671.73</v>
+        <v>3541.4</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48329912</v>
+        <v>47586036</v>
       </c>
       <c r="E187" t="n">
-        <v>313406615</v>
+        <v>308582781</v>
       </c>
       <c r="F187" t="n">
-        <v>180381.5954078528</v>
+        <v>128070.213235103</v>
       </c>
       <c r="G187" t="n">
-        <v>134946.7792285162</v>
+        <v>214884.7628803033</v>
       </c>
       <c r="H187" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I187" t="n">
-        <v>20529293</v>
+        <v>20956690</v>
       </c>
     </row>
     <row r="188">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8265145</v>
+        <v>8133512</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6989,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>4.28</v>
+        <v>4.73</v>
       </c>
       <c r="I188" t="n">
-        <v>316861</v>
+        <v>311898</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7050256</v>
+        <v>7069297</v>
       </c>
       <c r="E189" t="n">
-        <v>7060353</v>
+        <v>7079446</v>
       </c>
       <c r="F189" t="n">
-        <v>146.0336157266199</v>
+        <v>54.0469984423274</v>
       </c>
       <c r="G189" t="n">
-        <v>72.83599897110906</v>
+        <v>121.9222784835283</v>
       </c>
       <c r="H189" t="n">
         <v>1.75</v>
       </c>
       <c r="I189" t="n">
-        <v>743925</v>
+        <v>805027</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4464291</v>
+        <v>4473037</v>
       </c>
       <c r="F190" t="n">
-        <v>5.595262884587639</v>
+        <v>11.52464455383799</v>
       </c>
       <c r="G190" t="n">
-        <v>29.20646115010635</v>
+        <v>110.7352973715996</v>
       </c>
       <c r="H190" t="n">
-        <v>3.04</v>
+        <v>3.59</v>
       </c>
       <c r="I190" t="n">
-        <v>218672</v>
+        <v>221380</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>93465867</v>
+        <v>93570953</v>
       </c>
       <c r="E191" t="n">
-        <v>94471960</v>
+        <v>94578177</v>
       </c>
       <c r="F191" t="n">
-        <v>18803.53833790091</v>
+        <v>21442.54264394</v>
       </c>
       <c r="G191" t="n">
-        <v>27341.3011708004</v>
+        <v>29098.34240091655</v>
       </c>
       <c r="H191" t="n">
         <v>0.12</v>
       </c>
       <c r="I191" t="n">
-        <v>79083526</v>
+        <v>82122472</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>238030568</v>
+        <v>242493863</v>
       </c>
       <c r="E192" t="n">
-        <v>238030568</v>
+        <v>242493863</v>
       </c>
       <c r="F192" t="n">
-        <v>49372.79025488209</v>
+        <v>46264.73446708531</v>
       </c>
       <c r="G192" t="n">
-        <v>42266.16067711868</v>
+        <v>53615.44423269668</v>
       </c>
       <c r="H192" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>87765199</v>
+        <v>91660437</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23116096</v>
+        <v>22781121</v>
       </c>
       <c r="E193" t="n">
-        <v>138308247</v>
+        <v>136304027</v>
       </c>
       <c r="F193" t="n">
-        <v>55948.75122367855</v>
+        <v>32502.05111882518</v>
       </c>
       <c r="G193" t="n">
-        <v>74143.82017705924</v>
+        <v>78138.27975774191</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I193" t="n">
-        <v>16887761</v>
+        <v>17909058</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13449091</v>
+        <v>13318925</v>
       </c>
       <c r="E194" t="n">
-        <v>40646885</v>
+        <v>40253487</v>
       </c>
       <c r="F194" t="n">
-        <v>686.9718923281525</v>
+        <v>670.6407264727264</v>
       </c>
       <c r="G194" t="n">
-        <v>1582.545975077963</v>
+        <v>1762.922256062151</v>
       </c>
       <c r="H194" t="n">
-        <v>0.09</v>
+        <v>0.48</v>
       </c>
       <c r="I194" t="n">
-        <v>2450264</v>
+        <v>2390796</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52375859</v>
+        <v>52211529</v>
       </c>
       <c r="E195" t="n">
-        <v>90464494</v>
+        <v>90180662</v>
       </c>
       <c r="F195" t="n">
-        <v>8130.263845335862</v>
+        <v>7776.854208789785</v>
       </c>
       <c r="G195" t="n">
-        <v>14690.20846542259</v>
+        <v>8921.890701043059</v>
       </c>
       <c r="H195" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I195" t="n">
-        <v>2338249</v>
+        <v>2255954</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4152125</v>
+        <v>4102694</v>
       </c>
       <c r="E196" t="n">
-        <v>4152125</v>
+        <v>4102694</v>
       </c>
       <c r="F196" t="n">
-        <v>254.7025575475985</v>
+        <v>275.4547770512634</v>
       </c>
       <c r="G196" t="n">
-        <v>21.04198114424615</v>
+        <v>21.03360090950497</v>
       </c>
       <c r="H196" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="I196" t="n">
-        <v>1748096</v>
+        <v>1752379</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>193508</v>
+        <v>193033</v>
       </c>
       <c r="F197" t="n">
-        <v>173.2618780070368</v>
+        <v>4.865880385923946</v>
       </c>
       <c r="G197" t="n">
-        <v>93.12761124568057</v>
+        <v>319.7159678943901</v>
       </c>
       <c r="H197" t="n">
-        <v>3.05</v>
+        <v>2.04</v>
       </c>
       <c r="I197" t="n">
-        <v>60299</v>
+        <v>61577</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6290773</v>
+        <v>6300346</v>
       </c>
       <c r="E198" t="n">
-        <v>32364113</v>
+        <v>32413368</v>
       </c>
       <c r="F198" t="n">
-        <v>246.388159011417</v>
+        <v>187.9247967267884</v>
       </c>
       <c r="G198" t="n">
-        <v>780.6348739362884</v>
+        <v>750.1884292322678</v>
       </c>
       <c r="H198" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="I198" t="n">
-        <v>927985</v>
+        <v>950901</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>173451446</v>
+        <v>159533100</v>
       </c>
       <c r="E199" t="n">
-        <v>202642504</v>
+        <v>186381766</v>
       </c>
       <c r="F199" t="n">
-        <v>33136.63501582866</v>
+        <v>22453.42771044938</v>
       </c>
       <c r="G199" t="n">
-        <v>90138.06108915553</v>
+        <v>4396.137857550216</v>
       </c>
       <c r="H199" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="I199" t="n">
-        <v>4564966</v>
+        <v>6915153</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>293485</v>
+        <v>293102</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>32.33714834461443</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>8.121117601547786</v>
       </c>
       <c r="H200" t="n">
-        <v>5.25</v>
+        <v>2.69</v>
       </c>
       <c r="I200" t="n">
-        <v>260655</v>
+        <v>258380</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7605349</v>
+        <v>7587064</v>
       </c>
       <c r="F201" t="n">
-        <v>929.5581423626307</v>
+        <v>934.3195198787155</v>
       </c>
       <c r="G201" t="n">
-        <v>485.6553061783852</v>
+        <v>378.816193266995</v>
       </c>
       <c r="H201" t="n">
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="I201" t="n">
-        <v>650427</v>
+        <v>652306</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33969</v>
+        <v>33972</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>245.89</v>
+        <v>246.29</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32416621</v>
+        <v>32194902</v>
       </c>
       <c r="E203" t="n">
-        <v>161773882</v>
+        <v>160667405</v>
       </c>
       <c r="F203" t="n">
-        <v>142561.4841287808</v>
+        <v>138739.6678468376</v>
       </c>
       <c r="G203" t="n">
-        <v>106467.1632901054</v>
+        <v>114974.8077685764</v>
       </c>
       <c r="H203" t="n">
         <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>13587595</v>
+        <v>13926624</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1928472</v>
+        <v>1913879</v>
       </c>
       <c r="E204" t="n">
-        <v>1928472</v>
+        <v>1913879</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>8.67</v>
+        <v>17.41</v>
       </c>
       <c r="I204" t="n">
-        <v>7479.81</v>
+        <v>7560.31</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>160086</v>
+        <v>163068</v>
       </c>
       <c r="F205" t="n">
-        <v>12.35411007493311</v>
+        <v>18.55536905523256</v>
       </c>
       <c r="G205" t="n">
-        <v>31.81688884142718</v>
+        <v>72.06627761653026</v>
       </c>
       <c r="H205" t="n">
-        <v>2.42</v>
+        <v>3.49</v>
       </c>
       <c r="I205" t="n">
-        <v>22555</v>
+        <v>23484</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3084.47</v>
+        <v>3085.51</v>
       </c>
       <c r="E206" t="n">
-        <v>36866</v>
+        <v>36879</v>
       </c>
       <c r="F206" t="n">
-        <v>2.378782360257192</v>
+        <v>2.377835012078322</v>
       </c>
       <c r="G206" t="n">
-        <v>20.88504363887836</v>
+        <v>20.87672618689643</v>
       </c>
       <c r="H206" t="n">
         <v>1.94</v>
       </c>
       <c r="I206" t="n">
-        <v>3809.2</v>
+        <v>3807.41</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>289642099</v>
+        <v>290134678</v>
       </c>
       <c r="E208" t="n">
-        <v>535903935</v>
+        <v>536815318</v>
       </c>
       <c r="F208" t="n">
-        <v>19767.70235441404</v>
+        <v>63848.32974854613</v>
       </c>
       <c r="G208" t="n">
-        <v>22821.97187496797</v>
+        <v>99648.87674718525</v>
       </c>
       <c r="H208" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I208" t="n">
-        <v>17669350</v>
+        <v>17197775</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>68745988</v>
+        <v>69198362</v>
       </c>
       <c r="E209" t="n">
-        <v>655721831</v>
+        <v>660032117</v>
       </c>
       <c r="F209" t="n">
-        <v>225631.0943341613</v>
+        <v>128363.0419061214</v>
       </c>
       <c r="G209" t="n">
-        <v>140201.5919448312</v>
+        <v>199009.8739057801</v>
       </c>
       <c r="H209" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>23443199</v>
+        <v>23990638</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2252933</v>
+        <v>2243911</v>
       </c>
       <c r="F210" t="n">
-        <v>612.9083039286132</v>
+        <v>876.0171639837221</v>
       </c>
       <c r="G210" t="n">
-        <v>8.71576489213331</v>
+        <v>116.209208800008</v>
       </c>
       <c r="H210" t="n">
-        <v>2.13</v>
+        <v>3.01</v>
       </c>
       <c r="I210" t="n">
-        <v>43988</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81643</v>
+        <v>81412</v>
       </c>
       <c r="E211" t="n">
-        <v>678716</v>
+        <v>676799</v>
       </c>
       <c r="F211" t="n">
-        <v>263.6168676463543</v>
+        <v>67.48699089262928</v>
       </c>
       <c r="G211" t="n">
-        <v>36.73879176469481</v>
+        <v>36.72416007688058</v>
       </c>
       <c r="H211" t="n">
         <v>1.49</v>
       </c>
       <c r="I211" t="n">
-        <v>121.92</v>
+        <v>115.82</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1838994</v>
+        <v>1837580</v>
       </c>
       <c r="E212" t="n">
-        <v>5251930</v>
+        <v>5247891</v>
       </c>
       <c r="F212" t="n">
-        <v>230.6172963014944</v>
+        <v>89.29551426858862</v>
       </c>
       <c r="G212" t="n">
-        <v>995.1833754961697</v>
+        <v>536.6954699492757</v>
       </c>
       <c r="H212" t="n">
         <v>1.2</v>
       </c>
       <c r="I212" t="n">
-        <v>75042</v>
+        <v>73179</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>8731388</v>
+        <v>8988627</v>
       </c>
       <c r="E213" t="n">
-        <v>25884534</v>
+        <v>26647129</v>
       </c>
       <c r="F213" t="n">
-        <v>2650.812619521803</v>
+        <v>1847.67286200704</v>
       </c>
       <c r="G213" t="n">
-        <v>696.9354479157792</v>
+        <v>1023.851867503801</v>
       </c>
       <c r="H213" t="n">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="I213" t="n">
-        <v>6262336</v>
+        <v>6495533</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14539647</v>
+        <v>14548264</v>
       </c>
       <c r="F214" t="n">
-        <v>201.7410963891816</v>
+        <v>133.4294931933035</v>
       </c>
       <c r="G214" t="n">
-        <v>99.58837523171528</v>
+        <v>290.8990316784929</v>
       </c>
       <c r="H214" t="n">
-        <v>2.87</v>
+        <v>2.34</v>
       </c>
       <c r="I214" t="n">
-        <v>409.87</v>
+        <v>410.54</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1970519</v>
+        <v>1929035</v>
       </c>
       <c r="E215" t="n">
-        <v>5700222</v>
+        <v>5580219</v>
       </c>
       <c r="F215" t="n">
-        <v>65.44083795999443</v>
+        <v>151.8154426272788</v>
       </c>
       <c r="G215" t="n">
-        <v>69.8445117542763</v>
+        <v>96.13572841911179</v>
       </c>
       <c r="H215" t="n">
-        <v>1.29</v>
+        <v>0.12</v>
       </c>
       <c r="I215" t="n">
-        <v>52047</v>
+        <v>43508</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2177453</v>
+        <v>2317070</v>
       </c>
       <c r="E216" t="n">
-        <v>19206581</v>
+        <v>20438095</v>
       </c>
       <c r="F216" t="n">
-        <v>3410.655605851172</v>
+        <v>3217.078931882956</v>
       </c>
       <c r="G216" t="n">
-        <v>1463.922175899319</v>
+        <v>1391.448839179296</v>
       </c>
       <c r="H216" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="I216" t="n">
-        <v>95208</v>
+        <v>101554</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43759023</v>
+        <v>43630509</v>
       </c>
       <c r="E217" t="n">
-        <v>43759023</v>
+        <v>43630509</v>
       </c>
       <c r="F217" t="n">
-        <v>44094.94965061914</v>
+        <v>98102.06941323975</v>
       </c>
       <c r="G217" t="n">
-        <v>35723.83934830021</v>
+        <v>48014.1394403514</v>
       </c>
       <c r="H217" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I217" t="n">
-        <v>10722858</v>
+        <v>11168560</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8224015</v>
+        <v>8207386</v>
       </c>
       <c r="E218" t="n">
-        <v>11717337</v>
+        <v>11693644</v>
       </c>
       <c r="F218" t="n">
-        <v>2173.617655667814</v>
+        <v>2197.694348172902</v>
       </c>
       <c r="G218" t="n">
-        <v>2240.347634646941</v>
+        <v>2637.602594989125</v>
       </c>
       <c r="H218" t="n">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="I218" t="n">
-        <v>328147</v>
+        <v>308609</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15786655</v>
+        <v>15863541</v>
       </c>
       <c r="F219" t="n">
-        <v>160.4281816272458</v>
+        <v>169.9082731230786</v>
       </c>
       <c r="G219" t="n">
-        <v>9.307187453744499</v>
+        <v>2.079841109163454</v>
       </c>
       <c r="H219" t="n">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="I219" t="n">
-        <v>1087744</v>
+        <v>1108034</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>716709</v>
+        <v>716204</v>
       </c>
       <c r="F220" t="n">
-        <v>84.16615999330524</v>
+        <v>84.13263975710827</v>
       </c>
       <c r="G220" t="n">
-        <v>303.4289001546742</v>
+        <v>258.2797383889394</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>210472</v>
+        <v>211838</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2793603</v>
+        <v>2654722</v>
       </c>
       <c r="E221" t="n">
-        <v>2796023</v>
+        <v>2657021</v>
       </c>
       <c r="F221" t="n">
-        <v>6.827071900729101</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>55.74981499474244</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>1.58</v>
+        <v>4.85</v>
       </c>
       <c r="I221" t="n">
-        <v>75418</v>
+        <v>52064</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1309631</v>
+        <v>1295675</v>
       </c>
       <c r="E222" t="n">
-        <v>3963867</v>
+        <v>3922877</v>
       </c>
       <c r="F222" t="n">
-        <v>75.44072411247367</v>
+        <v>93.61826969663213</v>
       </c>
       <c r="G222" t="n">
-        <v>137.996948117165</v>
+        <v>774.2412733588542</v>
       </c>
       <c r="H222" t="n">
-        <v>0.5</v>
+        <v>1.52</v>
       </c>
       <c r="I222" t="n">
-        <v>43412</v>
+        <v>46169</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>31779821</v>
+        <v>33074038</v>
       </c>
       <c r="E223" t="n">
-        <v>225313747</v>
+        <v>234489535</v>
       </c>
       <c r="F223" t="n">
-        <v>26710.3435149922</v>
+        <v>306.218878346555</v>
       </c>
       <c r="G223" t="n">
-        <v>32561.85273008889</v>
+        <v>26134.62306432867</v>
       </c>
       <c r="H223" t="n">
-        <v>0.27</v>
+        <v>1.08</v>
       </c>
       <c r="I223" t="n">
-        <v>5335249</v>
+        <v>6132266</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58797</v>
+        <v>57140</v>
       </c>
       <c r="E224" t="n">
-        <v>306777</v>
+        <v>298132</v>
       </c>
       <c r="F224" t="n">
-        <v>27.80942737617628</v>
+        <v>17.61102586737658</v>
       </c>
       <c r="G224" t="n">
-        <v>2.286775020771207</v>
+        <v>148.5511049830205</v>
       </c>
       <c r="H224" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="I224" t="n">
-        <v>202105</v>
+        <v>205011</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1278903</v>
+        <v>1275068</v>
       </c>
       <c r="E225" t="n">
-        <v>7930394</v>
+        <v>7905542</v>
       </c>
       <c r="F225" t="n">
-        <v>1392.610677540051</v>
+        <v>1136.396929555955</v>
       </c>
       <c r="G225" t="n">
-        <v>1074.991925995917</v>
+        <v>1802.241222592408</v>
       </c>
       <c r="H225" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>785943</v>
+        <v>781483</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>572880365</v>
+        <v>576484279</v>
       </c>
       <c r="E226" t="n">
-        <v>2218681129</v>
+        <v>2232638558</v>
       </c>
       <c r="F226" t="n">
-        <v>238865.15027385</v>
+        <v>186345.9526321123</v>
       </c>
       <c r="G226" t="n">
-        <v>268940.0247783037</v>
+        <v>382554.7320435705</v>
       </c>
       <c r="H226" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I226" t="n">
-        <v>57861102</v>
+        <v>60172835</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20931154</v>
+        <v>20835521</v>
       </c>
       <c r="F227" t="n">
-        <v>1959.055511181358</v>
+        <v>1638.514611332903</v>
       </c>
       <c r="G227" t="n">
-        <v>1839.731766825336</v>
+        <v>2448.569036084664</v>
       </c>
       <c r="H227" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>18028772</v>
+        <v>18698412</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>828455</v>
+        <v>753775</v>
       </c>
       <c r="F228" t="n">
-        <v>31.20666636838527</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>44.68333045445206</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>2.93</v>
+        <v>6.17</v>
       </c>
       <c r="I228" t="n">
-        <v>140659</v>
+        <v>143793</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5441223</v>
+        <v>5453241</v>
       </c>
       <c r="E229" t="n">
-        <v>24357219</v>
+        <v>24409979</v>
       </c>
       <c r="F229" t="n">
-        <v>443.6176049760464</v>
+        <v>505.7619454649906</v>
       </c>
       <c r="G229" t="n">
-        <v>994.7311997036381</v>
+        <v>850.8263504410685</v>
       </c>
       <c r="H229" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="I229" t="n">
-        <v>190476</v>
+        <v>194370</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6593039</v>
+        <v>6391291</v>
       </c>
       <c r="E230" t="n">
-        <v>12622907</v>
+        <v>12236645</v>
       </c>
       <c r="F230" t="n">
-        <v>71.00594667988345</v>
+        <v>74.85375354552184</v>
       </c>
       <c r="G230" t="n">
-        <v>420.9380215543278</v>
+        <v>95.25615797244332</v>
       </c>
       <c r="H230" t="n">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="I230" t="n">
-        <v>34163</v>
+        <v>36311</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3163745</v>
+        <v>3186061</v>
       </c>
       <c r="E231" t="n">
-        <v>20804050</v>
+        <v>20950793</v>
       </c>
       <c r="F231" t="n">
-        <v>183.7839885622267</v>
+        <v>241.460290491323</v>
       </c>
       <c r="G231" t="n">
-        <v>204.1046299688956</v>
+        <v>218.1359420129482</v>
       </c>
       <c r="H231" t="n">
-        <v>1.59</v>
+        <v>1.2</v>
       </c>
       <c r="I231" t="n">
-        <v>1678399</v>
+        <v>1546701</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>106115473</v>
+        <v>107909075</v>
       </c>
       <c r="E232" t="n">
-        <v>1004617801</v>
+        <v>1021598205</v>
       </c>
       <c r="F232" t="n">
-        <v>22319.02672908258</v>
+        <v>23810.4727844389</v>
       </c>
       <c r="G232" t="n">
-        <v>21457.77631715786</v>
+        <v>24496.32225792368</v>
       </c>
       <c r="H232" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I232" t="n">
-        <v>17450271</v>
+        <v>16094468</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>349.74</v>
+        <v>350.31</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>95847114</v>
+        <v>96530665</v>
       </c>
       <c r="E234" t="n">
-        <v>146217020</v>
+        <v>147259792</v>
       </c>
       <c r="F234" t="n">
-        <v>30339.07415401159</v>
+        <v>33032.3192083234</v>
       </c>
       <c r="G234" t="n">
-        <v>23660.0996500781</v>
+        <v>21002.06265033593</v>
       </c>
       <c r="H234" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I234" t="n">
-        <v>12481475</v>
+        <v>12876361</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15547707</v>
+        <v>15454863</v>
       </c>
       <c r="E235" t="n">
-        <v>21330107</v>
+        <v>21202733</v>
       </c>
       <c r="F235" t="n">
-        <v>1759.76967779037</v>
+        <v>1051.904737572393</v>
       </c>
       <c r="G235" t="n">
-        <v>1000.015738119663</v>
+        <v>1330.131191915176</v>
       </c>
       <c r="H235" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I235" t="n">
-        <v>880102</v>
+        <v>930942</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>121421183</v>
+        <v>119777990</v>
       </c>
       <c r="E236" t="n">
-        <v>465791202</v>
+        <v>459487650</v>
       </c>
       <c r="F236" t="n">
-        <v>468954.3524667923</v>
+        <v>362620.044541929</v>
       </c>
       <c r="G236" t="n">
-        <v>347859.5064930784</v>
+        <v>426310.5673648697</v>
       </c>
       <c r="H236" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I236" t="n">
-        <v>39654016</v>
+        <v>39623860</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>641045</v>
+        <v>726533</v>
       </c>
       <c r="F237" t="n">
-        <v>347.2615409053317</v>
+        <v>278.2549171619125</v>
       </c>
       <c r="G237" t="n">
-        <v>100.2869377013247</v>
+        <v>100.2469971618076</v>
       </c>
       <c r="H237" t="n">
         <v>3.84</v>
       </c>
       <c r="I237" t="n">
-        <v>40689</v>
+        <v>46672</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>777686</v>
+        <v>775348</v>
       </c>
       <c r="F238" t="n">
-        <v>164.9072208954116</v>
+        <v>250.0113453956762</v>
       </c>
       <c r="G238" t="n">
-        <v>152.6605591722093</v>
+        <v>156.7064915796722</v>
       </c>
       <c r="H238" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="I238" t="n">
-        <v>254967</v>
+        <v>264789</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>2970633</v>
+        <v>3041025</v>
       </c>
       <c r="E239" t="n">
-        <v>28147190</v>
+        <v>28814164</v>
       </c>
       <c r="F239" t="n">
-        <v>411.1636771882593</v>
+        <v>299.6106230907275</v>
       </c>
       <c r="G239" t="n">
-        <v>793.4127266145636</v>
+        <v>1021.559486999457</v>
       </c>
       <c r="H239" t="n">
         <v>0.42</v>
       </c>
       <c r="I239" t="n">
-        <v>245548</v>
+        <v>257480</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>720224</v>
+        <v>718933</v>
       </c>
       <c r="E240" t="n">
-        <v>769916</v>
+        <v>768535</v>
       </c>
       <c r="F240" t="n">
-        <v>48.98160677505646</v>
+        <v>50.16211876355715</v>
       </c>
       <c r="G240" t="n">
-        <v>1119.310708796423</v>
+        <v>769.7029371497125</v>
       </c>
       <c r="H240" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="I240" t="n">
-        <v>124481</v>
+        <v>126465</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383738</v>
+        <v>383771</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.86</v>
+        <v>12.74</v>
       </c>
       <c r="I241" t="n">
-        <v>699.09</v>
+        <v>700.23</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>129348</v>
+        <v>129279</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>7.8</v>
+        <v>7.14</v>
       </c>
       <c r="I242" t="n">
-        <v>67134</v>
+        <v>65022</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>559498</v>
+        <v>559355</v>
       </c>
       <c r="F243" t="n">
-        <v>87.52879504970421</v>
+        <v>118.357472183072</v>
       </c>
       <c r="G243" t="n">
-        <v>3.285651571757942</v>
+        <v>3.250131113069864</v>
       </c>
       <c r="H243" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="I243" t="n">
-        <v>8112.9</v>
+        <v>8132.19</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6580348</v>
+        <v>6578586</v>
       </c>
       <c r="E244" t="n">
-        <v>41125290</v>
+        <v>41114277</v>
       </c>
       <c r="F244" t="n">
-        <v>82.87594463903552</v>
+        <v>20.57307521023668</v>
       </c>
       <c r="G244" t="n">
-        <v>105.6579014473485</v>
+        <v>95.97158296149459</v>
       </c>
       <c r="H244" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>415427</v>
+        <v>417555</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5095605</v>
+        <v>5120149</v>
       </c>
       <c r="E245" t="n">
-        <v>18935362</v>
+        <v>19026570</v>
       </c>
       <c r="F245" t="n">
-        <v>849.6018637798308</v>
+        <v>945.8473806555638</v>
       </c>
       <c r="G245" t="n">
-        <v>5148.680947888524</v>
+        <v>5388.71642608939</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>88058</v>
+        <v>91152</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3548372</v>
+        <v>3512502</v>
       </c>
       <c r="F246" t="n">
-        <v>173.6703789755319</v>
+        <v>173.4853337198903</v>
       </c>
       <c r="G246" t="n">
-        <v>6166.755319379186</v>
+        <v>5943.108255989357</v>
       </c>
       <c r="H246" t="n">
         <v>1.94</v>
       </c>
       <c r="I246" t="n">
-        <v>29584</v>
+        <v>30075</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>45049162</v>
+        <v>44019425</v>
       </c>
       <c r="E247" t="n">
-        <v>161472425</v>
+        <v>157781476</v>
       </c>
       <c r="F247" t="n">
-        <v>8.428395835345606</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>8.409840423707834</v>
+        <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>2.47</v>
+        <v>4.85</v>
       </c>
       <c r="I247" t="n">
-        <v>165118</v>
+        <v>164900</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1570173</v>
+        <v>1530079</v>
       </c>
       <c r="F248" t="n">
-        <v>124.4308685404632</v>
+        <v>35.66934026402099</v>
       </c>
       <c r="G248" t="n">
-        <v>231.7424980779271</v>
+        <v>124.5787508726815</v>
       </c>
       <c r="H248" t="n">
-        <v>3.85</v>
+        <v>1.29</v>
       </c>
       <c r="I248" t="n">
-        <v>606122</v>
+        <v>604155</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2126778</v>
+        <v>2122487</v>
       </c>
       <c r="E249" t="n">
-        <v>16358574</v>
+        <v>16325566</v>
       </c>
       <c r="F249" t="n">
-        <v>352.0623637275298</v>
+        <v>216.4357273865786</v>
       </c>
       <c r="G249" t="n">
-        <v>106.0672343334523</v>
+        <v>167.4275937193976</v>
       </c>
       <c r="H249" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="I249" t="n">
-        <v>215605</v>
+        <v>213740</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103597</v>
+        <v>103349</v>
       </c>
       <c r="E250" t="n">
-        <v>822871</v>
+        <v>820905</v>
       </c>
       <c r="F250" t="n">
-        <v>158.225784823968</v>
+        <v>158.1627694068434</v>
       </c>
       <c r="G250" t="n">
-        <v>347.1124941594483</v>
+        <v>346.9742522247791</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>211.19</v>
+        <v>194.55</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87552617</v>
+        <v>88941865</v>
       </c>
       <c r="E251" t="n">
-        <v>323631757</v>
+        <v>328766581</v>
       </c>
       <c r="F251" t="n">
-        <v>5701.954714680115</v>
+        <v>1409.047645528673</v>
       </c>
       <c r="G251" t="n">
-        <v>5945.176630694154</v>
+        <v>5405.209943018435</v>
       </c>
       <c r="H251" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="I251" t="n">
-        <v>240788</v>
+        <v>250771</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2182818</v>
+        <v>2272751</v>
       </c>
       <c r="E252" t="n">
-        <v>8750585</v>
+        <v>9111111</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>8.029999999999999</v>
+        <v>5.91</v>
       </c>
       <c r="I252" t="n">
-        <v>9169.610000000001</v>
+        <v>9895.870000000001</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>574458</v>
+        <v>574903</v>
       </c>
       <c r="F253" t="n">
-        <v>402.6100636438001</v>
+        <v>398.5546983553571</v>
       </c>
       <c r="G253" t="n">
-        <v>15.72611134639034</v>
+        <v>15.71984822393313</v>
       </c>
       <c r="H253" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="I253" t="n">
-        <v>2301.98</v>
+        <v>2300.68</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37965</v>
+        <v>37988</v>
       </c>
       <c r="F254" t="n">
-        <v>95.38164664651532</v>
+        <v>95.3436597011123</v>
       </c>
       <c r="G254" t="n">
-        <v>1.029157048979188</v>
+        <v>1.028747174186655</v>
       </c>
       <c r="H254" t="n">
         <v>3.31</v>
       </c>
       <c r="I254" t="n">
-        <v>370.68</v>
+        <v>371.28</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>756543988</v>
+        <v>753508133</v>
       </c>
       <c r="E255" t="n">
-        <v>1166657625</v>
+        <v>1161976069</v>
       </c>
       <c r="F255" t="n">
-        <v>67408.8954898458</v>
+        <v>60616.62216406189</v>
       </c>
       <c r="G255" t="n">
-        <v>99527.57401657486</v>
+        <v>109943.8647097576</v>
       </c>
       <c r="H255" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I255" t="n">
-        <v>328990750</v>
+        <v>269976031</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>16409726</v>
+        <v>9683358</v>
       </c>
       <c r="E256" t="n">
-        <v>16409726</v>
+        <v>9683358</v>
       </c>
       <c r="F256" t="n">
-        <v>99.55234280377584</v>
+        <v>58.8519942466198</v>
       </c>
       <c r="G256" t="n">
-        <v>12.31769159447463</v>
+        <v>22.45620161486669</v>
       </c>
       <c r="H256" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I256" t="n">
-        <v>31475</v>
+        <v>48729</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39509845</v>
+        <v>39846028</v>
       </c>
       <c r="E257" t="n">
-        <v>188415009</v>
+        <v>190018204</v>
       </c>
       <c r="F257" t="n">
-        <v>622.6347965126698</v>
+        <v>622.8418095386124</v>
       </c>
       <c r="G257" t="n">
-        <v>326.9200177220054</v>
+        <v>296.5371448977967</v>
       </c>
       <c r="H257" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I257" t="n">
-        <v>401277</v>
+        <v>271428</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>541303</v>
+        <v>594639</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>7.92</v>
       </c>
       <c r="I258" t="n">
-        <v>150.99</v>
+        <v>221.32</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>24370547</v>
+        <v>23663568</v>
       </c>
       <c r="E259" t="n">
-        <v>40617578</v>
+        <v>39439280</v>
       </c>
       <c r="F259" t="n">
-        <v>967.0009390481496</v>
+        <v>64.36415157638686</v>
       </c>
       <c r="G259" t="n">
-        <v>587.9371045453258</v>
+        <v>1189.60718315581</v>
       </c>
       <c r="H259" t="n">
-        <v>1.07</v>
+        <v>0.36</v>
       </c>
       <c r="I259" t="n">
-        <v>911620</v>
+        <v>492558</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107880</v>
+        <v>107869</v>
       </c>
       <c r="F260" t="n">
-        <v>225.4233693683766</v>
+        <v>230.7763036910565</v>
       </c>
       <c r="G260" t="n">
-        <v>170.6636717847684</v>
+        <v>108.1974685052022</v>
       </c>
       <c r="H260" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I260" t="n">
-        <v>55266</v>
+        <v>55900</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1441800</v>
+        <v>1264619</v>
       </c>
       <c r="E261" t="n">
-        <v>6140342</v>
+        <v>5385572</v>
       </c>
       <c r="F261" t="n">
-        <v>1.296944510381639</v>
+        <v>236.024419896703</v>
       </c>
       <c r="G261" t="n">
-        <v>139.6003367544898</v>
+        <v>2.385982767377636</v>
       </c>
       <c r="H261" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="I261" t="n">
-        <v>857247</v>
+        <v>866189</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3811035</v>
+        <v>3813944</v>
       </c>
       <c r="E262" t="n">
-        <v>8307521</v>
+        <v>8313863</v>
       </c>
       <c r="F262" t="n">
-        <v>1231.378099748284</v>
+        <v>1742.090859113566</v>
       </c>
       <c r="G262" t="n">
-        <v>2654.982901984386</v>
+        <v>2638.942651200508</v>
       </c>
       <c r="H262" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>2011373</v>
+        <v>2031342</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>471559919</v>
+        <v>466136834</v>
       </c>
       <c r="E263" t="n">
-        <v>1641460834</v>
+        <v>1622583526</v>
       </c>
       <c r="F263" t="n">
-        <v>306278.9305345191</v>
+        <v>382313.6411964979</v>
       </c>
       <c r="G263" t="n">
-        <v>276931.9824799758</v>
+        <v>627144.8729284849</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>46552241</v>
+        <v>46911324</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5546519940</v>
+        <v>5540837581</v>
       </c>
       <c r="E264" t="n">
-        <v>5546519669</v>
+        <v>5540834899</v>
       </c>
       <c r="F264" t="n">
-        <v>1387.38355892609</v>
+        <v>1480.148885592279</v>
       </c>
       <c r="G264" t="n">
-        <v>534.8066457732965</v>
+        <v>762.7140774526421</v>
       </c>
       <c r="H264" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I264" t="n">
-        <v>34877315</v>
+        <v>35283891</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22313007</v>
+        <v>22225443</v>
       </c>
       <c r="E265" t="n">
-        <v>22293625</v>
+        <v>22206137</v>
       </c>
       <c r="F265" t="n">
-        <v>580.2390585379449</v>
+        <v>328.0255604433854</v>
       </c>
       <c r="G265" t="n">
-        <v>925.1880910865859</v>
+        <v>449.2562076166541</v>
       </c>
       <c r="H265" t="n">
-        <v>1.13</v>
+        <v>1.72</v>
       </c>
       <c r="I265" t="n">
-        <v>404579</v>
+        <v>407241</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11891323</v>
+        <v>11878309</v>
       </c>
       <c r="E266" t="n">
-        <v>24007871</v>
+        <v>23980364</v>
       </c>
       <c r="F266" t="n">
-        <v>627.4824827067595</v>
+        <v>686.6143411444856</v>
       </c>
       <c r="G266" t="n">
-        <v>667.557011520389</v>
+        <v>705.3983727927746</v>
       </c>
       <c r="H266" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>69162</v>
+        <v>68196</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>144228</v>
+        <v>145541</v>
       </c>
       <c r="F267" t="n">
-        <v>165.2970252502472</v>
+        <v>163.1760861805139</v>
       </c>
       <c r="G267" t="n">
-        <v>116.1946654692418</v>
+        <v>116.1483894762338</v>
       </c>
       <c r="H267" t="n">
         <v>0.79</v>
       </c>
       <c r="I267" t="n">
-        <v>55093</v>
+        <v>55498</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>46357</v>
+        <v>45662</v>
       </c>
       <c r="F268" t="n">
-        <v>88.04489006421817</v>
+        <v>81.8644622927964</v>
       </c>
       <c r="G268" t="n">
-        <v>5.029788221956522</v>
+        <v>42.50631485726017</v>
       </c>
       <c r="H268" t="n">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="I268" t="n">
-        <v>69360</v>
+        <v>69455</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2381853</v>
+        <v>2355947</v>
       </c>
       <c r="E269" t="n">
-        <v>9527410</v>
+        <v>9423787</v>
       </c>
       <c r="F269" t="n">
-        <v>13096.48385756168</v>
+        <v>30917.36922697613</v>
       </c>
       <c r="G269" t="n">
-        <v>20719.14876588407</v>
+        <v>12611.37196227419</v>
       </c>
       <c r="H269" t="n">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="I269" t="n">
-        <v>7495338</v>
+        <v>7460557</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>211601755</v>
+        <v>209509853</v>
       </c>
       <c r="E270" t="n">
-        <v>650595768</v>
+        <v>644163954</v>
       </c>
       <c r="F270" t="n">
-        <v>197239.1689554692</v>
+        <v>167945.920665515</v>
       </c>
       <c r="G270" t="n">
-        <v>189804.9807096601</v>
+        <v>228402.5971777374</v>
       </c>
       <c r="H270" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>26693684</v>
+        <v>22415671</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>135333226</v>
+        <v>134899252</v>
       </c>
       <c r="E271" t="n">
-        <v>353554299</v>
+        <v>352420553</v>
       </c>
       <c r="F271" t="n">
-        <v>59772.29776957276</v>
+        <v>58217.61950850704</v>
       </c>
       <c r="G271" t="n">
-        <v>51609.26154271582</v>
+        <v>60272.38318930536</v>
       </c>
       <c r="H271" t="n">
         <v>0.23</v>
       </c>
       <c r="I271" t="n">
-        <v>9485120</v>
+        <v>9416461</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2327582</v>
+        <v>2388217</v>
       </c>
       <c r="E272" t="n">
-        <v>3194532</v>
+        <v>3277803</v>
       </c>
       <c r="F272" t="n">
-        <v>14.29379833696679</v>
+        <v>14.40308121943224</v>
       </c>
       <c r="G272" t="n">
-        <v>35.45621370198646</v>
+        <v>35.44132409419227</v>
       </c>
       <c r="H272" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="I272" t="n">
-        <v>1745850</v>
+        <v>1000847</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58773</v>
+        <v>54489</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.864605879408673</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.051080599557139</v>
       </c>
       <c r="H2" t="n">
-        <v>7.14</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>467.45</v>
+        <v>472.96</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92986</v>
+        <v>93743</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1263.89</v>
+        <v>879.98</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>584182746</v>
+        <v>581018232</v>
       </c>
       <c r="E4" t="n">
-        <v>1133638008</v>
+        <v>1127497495</v>
       </c>
       <c r="F4" t="n">
-        <v>20809.54108582543</v>
+        <v>14964.04753092541</v>
       </c>
       <c r="G4" t="n">
-        <v>21055.1954574949</v>
+        <v>18096.89948175156</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>45636728</v>
+        <v>46637232</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1477506</v>
+        <v>1444736</v>
       </c>
       <c r="E5" t="n">
-        <v>4775907</v>
+        <v>4669981</v>
       </c>
       <c r="F5" t="n">
-        <v>621.0591316724157</v>
+        <v>209.1429976023448</v>
       </c>
       <c r="G5" t="n">
-        <v>2920.617563004388</v>
+        <v>4703.097086072374</v>
       </c>
       <c r="H5" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="I5" t="n">
-        <v>222189</v>
+        <v>184582</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>139469578</v>
+        <v>138663937</v>
       </c>
       <c r="E6" t="n">
-        <v>154554089</v>
+        <v>153661313</v>
       </c>
       <c r="F6" t="n">
-        <v>133605.8326687924</v>
+        <v>126031.2042418834</v>
       </c>
       <c r="G6" t="n">
-        <v>381085.9041975684</v>
+        <v>327079.0293717912</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>52463331</v>
+        <v>52646571</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3820.18</v>
+        <v>3819.84</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.95</v>
+        <v>153.91</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8206651</v>
+        <v>8180894</v>
       </c>
       <c r="E8" t="n">
-        <v>8413592</v>
+        <v>8387186</v>
       </c>
       <c r="F8" t="n">
-        <v>503.5381680906302</v>
+        <v>159.5950949957299</v>
       </c>
       <c r="G8" t="n">
-        <v>3128.779708771734</v>
+        <v>2502.818397174571</v>
       </c>
       <c r="H8" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="I8" t="n">
-        <v>97734</v>
+        <v>98118</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>294422</v>
+        <v>294578</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.12</v>
+        <v>5.63</v>
       </c>
       <c r="I9" t="n">
-        <v>743.77</v>
+        <v>743.61</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5073379</v>
+        <v>5071751</v>
       </c>
       <c r="E10" t="n">
-        <v>8105735</v>
+        <v>8103134</v>
       </c>
       <c r="F10" t="n">
-        <v>229.822677536438</v>
+        <v>246.6977950198611</v>
       </c>
       <c r="G10" t="n">
-        <v>260.9185696081135</v>
+        <v>207.0458754723107</v>
       </c>
       <c r="H10" t="n">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="I10" t="n">
-        <v>100192</v>
+        <v>99222</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>999073</v>
+        <v>997109</v>
       </c>
       <c r="E11" t="n">
-        <v>12225954</v>
+        <v>12201924</v>
       </c>
       <c r="F11" t="n">
-        <v>1570.188507813671</v>
+        <v>1569.226308925092</v>
       </c>
       <c r="G11" t="n">
-        <v>1381.199174464573</v>
+        <v>1351.11133984769</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>422.39</v>
+        <v>526.12</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>568761</v>
+        <v>568629</v>
       </c>
       <c r="E12" t="n">
-        <v>568761</v>
+        <v>568629</v>
       </c>
       <c r="F12" t="n">
-        <v>137.9384993174233</v>
+        <v>51.40387140694085</v>
       </c>
       <c r="G12" t="n">
-        <v>225.1612901051868</v>
+        <v>174.4578801706078</v>
       </c>
       <c r="H12" t="n">
-        <v>1.96</v>
+        <v>1.34</v>
       </c>
       <c r="I12" t="n">
-        <v>28434</v>
+        <v>26929</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4266583</v>
+        <v>4258990</v>
       </c>
       <c r="E13" t="n">
-        <v>26198848</v>
+        <v>26149584</v>
       </c>
       <c r="F13" t="n">
-        <v>293.4954946123935</v>
+        <v>515.0248800234601</v>
       </c>
       <c r="G13" t="n">
-        <v>570.4444158190989</v>
+        <v>507.1677569959172</v>
       </c>
       <c r="H13" t="n">
-        <v>1.55</v>
+        <v>0.83</v>
       </c>
       <c r="I13" t="n">
-        <v>650743</v>
+        <v>622922</v>
       </c>
     </row>
     <row r="14">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>196945</v>
+        <v>196123</v>
       </c>
       <c r="E14" t="n">
-        <v>2166610</v>
+        <v>2157568</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.460000000000001</v>
+        <v>8.44</v>
       </c>
       <c r="I14" t="n">
-        <v>36039</v>
+        <v>36206</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3209715</v>
+        <v>3172986</v>
       </c>
       <c r="E15" t="n">
-        <v>9131355</v>
+        <v>9026865</v>
       </c>
       <c r="F15" t="n">
-        <v>222.2103505776757</v>
+        <v>298.7765888296285</v>
       </c>
       <c r="G15" t="n">
-        <v>123.904269301183</v>
+        <v>109.0557551037619</v>
       </c>
       <c r="H15" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="I15" t="n">
-        <v>111922</v>
+        <v>111227</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>308410</v>
+        <v>307903</v>
       </c>
       <c r="E16" t="n">
-        <v>3559417</v>
+        <v>3553563</v>
       </c>
       <c r="F16" t="n">
-        <v>138.0969952980516</v>
+        <v>133.0942899729329</v>
       </c>
       <c r="G16" t="n">
-        <v>131.4766556936212</v>
+        <v>130.2934038332035</v>
       </c>
       <c r="H16" t="n">
-        <v>0.61</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>890.03</v>
+        <v>888.51</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>942451</v>
+        <v>946161</v>
       </c>
       <c r="F17" t="n">
-        <v>32.04200691881982</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10.69339446569975</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>4.16</v>
       </c>
       <c r="I17" t="n">
-        <v>10666.13</v>
+        <v>10376.2</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24356994</v>
+        <v>24397650</v>
       </c>
       <c r="E18" t="n">
-        <v>24401919</v>
+        <v>24442650</v>
       </c>
       <c r="F18" t="n">
-        <v>2181.220905127716</v>
+        <v>2040.558890501209</v>
       </c>
       <c r="G18" t="n">
-        <v>1209.670332798236</v>
+        <v>1197.929056841973</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="I18" t="n">
-        <v>899524</v>
+        <v>886683</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6486328</v>
+        <v>6615211</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.29</v>
+        <v>4.56</v>
       </c>
       <c r="I19" t="n">
-        <v>20610</v>
+        <v>21134</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2338431</v>
+        <v>2352356</v>
       </c>
       <c r="E20" t="n">
-        <v>2338431</v>
+        <v>2352356</v>
       </c>
       <c r="F20" t="n">
-        <v>78.14532298543611</v>
+        <v>83.98242183801943</v>
       </c>
       <c r="G20" t="n">
-        <v>28.0005900724491</v>
+        <v>117.4669823246653</v>
       </c>
       <c r="H20" t="n">
-        <v>2.66</v>
+        <v>2.83</v>
       </c>
       <c r="I20" t="n">
-        <v>316591</v>
+        <v>312932</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>359792</v>
+        <v>359267</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5.56</v>
+        <v>5.83</v>
       </c>
       <c r="I21" t="n">
-        <v>9452.4</v>
+        <v>9450.08</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16672662</v>
+        <v>16543658</v>
       </c>
       <c r="E22" t="n">
-        <v>21459084</v>
+        <v>21293046</v>
       </c>
       <c r="F22" t="n">
-        <v>4335.405682271748</v>
+        <v>634.9937544272656</v>
       </c>
       <c r="G22" t="n">
-        <v>781.4357020793343</v>
+        <v>1768.276665199504</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="I22" t="n">
-        <v>1900444</v>
+        <v>1928108</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>492400755</v>
+        <v>492986745</v>
       </c>
       <c r="E23" t="n">
-        <v>492400755</v>
+        <v>492986745</v>
       </c>
       <c r="F23" t="n">
-        <v>26259.77486945569</v>
+        <v>31751.33410157089</v>
       </c>
       <c r="G23" t="n">
-        <v>46871.00349123972</v>
+        <v>31440.40073594199</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>76395233</v>
+        <v>75780621</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18221.67</v>
+        <v>18229.24</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.24</v>
+        <v>7.09</v>
       </c>
       <c r="I24" t="n">
-        <v>2640.58</v>
+        <v>2639.93</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4588896</v>
+        <v>4564164</v>
       </c>
       <c r="E25" t="n">
-        <v>4588896</v>
+        <v>4564164</v>
       </c>
       <c r="F25" t="n">
-        <v>359.0217266470368</v>
+        <v>510.2316027698217</v>
       </c>
       <c r="G25" t="n">
-        <v>1104.410341194661</v>
+        <v>1234.633414040024</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2242400</v>
+        <v>2231791</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3287587</v>
+        <v>3227873</v>
       </c>
       <c r="E26" t="n">
-        <v>3287587</v>
+        <v>3227873</v>
       </c>
       <c r="F26" t="n">
-        <v>800.3196149489323</v>
+        <v>929.9184982503652</v>
       </c>
       <c r="G26" t="n">
-        <v>108.3426205271586</v>
+        <v>242.6606104423446</v>
       </c>
       <c r="H26" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="I26" t="n">
-        <v>627189</v>
+        <v>645755</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>298741</v>
+        <v>297703</v>
       </c>
       <c r="E27" t="n">
-        <v>1394554</v>
+        <v>1389710</v>
       </c>
       <c r="F27" t="n">
-        <v>252.9386521839529</v>
+        <v>157.1012553054028</v>
       </c>
       <c r="G27" t="n">
-        <v>129.9892191617373</v>
+        <v>20.3427719739119</v>
       </c>
       <c r="H27" t="n">
-        <v>0.78</v>
+        <v>1.21</v>
       </c>
       <c r="I27" t="n">
-        <v>670332</v>
+        <v>674292</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1666286</v>
+        <v>1821530</v>
       </c>
       <c r="F28" t="n">
-        <v>370.7453728842423</v>
+        <v>323.9214601981045</v>
       </c>
       <c r="G28" t="n">
-        <v>82.4694408465332</v>
+        <v>179.2867655972497</v>
       </c>
       <c r="H28" t="n">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="I28" t="n">
-        <v>1224033</v>
+        <v>1293748</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11854292</v>
+        <v>11905584</v>
       </c>
       <c r="E29" t="n">
-        <v>29503189</v>
+        <v>29630845</v>
       </c>
       <c r="F29" t="n">
-        <v>706.579311559866</v>
+        <v>811.9617419054484</v>
       </c>
       <c r="G29" t="n">
-        <v>1139.775053113384</v>
+        <v>1003.539407723339</v>
       </c>
       <c r="H29" t="n">
-        <v>0.41</v>
+        <v>0.71</v>
       </c>
       <c r="I29" t="n">
-        <v>1532778</v>
+        <v>1582844</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>868931</v>
+        <v>879401</v>
       </c>
       <c r="E30" t="n">
-        <v>6082518</v>
+        <v>6155804</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>20.12941780634437</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>809.8996382816044</v>
       </c>
       <c r="H30" t="n">
-        <v>3.98</v>
+        <v>1.73</v>
       </c>
       <c r="I30" t="n">
-        <v>247460</v>
+        <v>251208</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176219</v>
+        <v>176186</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>771.28</v>
+        <v>770.67</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5438966</v>
+        <v>5464378</v>
       </c>
       <c r="E32" t="n">
-        <v>5699166</v>
+        <v>5725794</v>
       </c>
       <c r="F32" t="n">
-        <v>13.35662149004334</v>
+        <v>22.6831091726564</v>
       </c>
       <c r="G32" t="n">
-        <v>124.2483122650803</v>
+        <v>31.56578422121777</v>
       </c>
       <c r="H32" t="n">
-        <v>2.98</v>
+        <v>3.74</v>
       </c>
       <c r="I32" t="n">
-        <v>178973</v>
+        <v>175485</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4797946</v>
+        <v>4674918</v>
       </c>
       <c r="E33" t="n">
-        <v>7062836</v>
+        <v>6881732</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>105.3717815111434</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>19.25483410987372</v>
       </c>
       <c r="H33" t="n">
-        <v>5.13</v>
+        <v>3.34</v>
       </c>
       <c r="I33" t="n">
-        <v>561425</v>
+        <v>556078</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7480794</v>
+        <v>7485235</v>
       </c>
       <c r="E34" t="n">
-        <v>7480794</v>
+        <v>7485235</v>
       </c>
       <c r="F34" t="n">
-        <v>2702.922761185313</v>
+        <v>1683.952562153477</v>
       </c>
       <c r="G34" t="n">
-        <v>3947.600582531938</v>
+        <v>3037.129075685552</v>
       </c>
       <c r="H34" t="n">
-        <v>1.22</v>
+        <v>0.84</v>
       </c>
       <c r="I34" t="n">
-        <v>326337</v>
+        <v>287738</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1529121</v>
+        <v>1506629</v>
       </c>
       <c r="E35" t="n">
-        <v>1529121</v>
+        <v>1506629</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>33.5660640996233</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>88.24433044762765</v>
       </c>
       <c r="H35" t="n">
-        <v>3.93</v>
+        <v>2.27</v>
       </c>
       <c r="I35" t="n">
-        <v>287812</v>
+        <v>288041</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15731697</v>
+        <v>15725917</v>
       </c>
       <c r="F36" t="n">
-        <v>289.0575706869512</v>
+        <v>289.0550581074936</v>
       </c>
       <c r="G36" t="n">
-        <v>184.109578158896</v>
+        <v>184.104446954633</v>
       </c>
       <c r="H36" t="n">
         <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>14098.85</v>
+        <v>14252.63</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>62371</v>
+        <v>62264</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.52</v>
       </c>
       <c r="I37" t="n">
-        <v>2045.5</v>
+        <v>2044.94</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>137091387</v>
+        <v>136017377</v>
       </c>
       <c r="E38" t="n">
-        <v>137091387</v>
+        <v>136017377</v>
       </c>
       <c r="F38" t="n">
-        <v>237649.2691783051</v>
+        <v>235079.7126586881</v>
       </c>
       <c r="G38" t="n">
-        <v>290562.9917002746</v>
+        <v>233654.6857508061</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>94640024</v>
+        <v>91006230</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>63363251</v>
+        <v>62754207</v>
       </c>
       <c r="E39" t="n">
-        <v>324939751</v>
+        <v>321816445</v>
       </c>
       <c r="F39" t="n">
-        <v>71086.00288555179</v>
+        <v>62452.46404861445</v>
       </c>
       <c r="G39" t="n">
-        <v>90376.81556009833</v>
+        <v>83571.01148048727</v>
       </c>
       <c r="H39" t="n">
         <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>27431214</v>
+        <v>27288651</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46378</v>
+        <v>46374</v>
       </c>
       <c r="E40" t="n">
-        <v>137055</v>
+        <v>137043</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>10.69</v>
+        <v>10.63</v>
       </c>
       <c r="I40" t="n">
-        <v>18.74</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49549</v>
+        <v>50081</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.04</v>
       </c>
       <c r="I41" t="n">
-        <v>22637</v>
+        <v>23239</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>597944</v>
+        <v>597677</v>
       </c>
       <c r="F42" t="n">
-        <v>1880.834398773722</v>
+        <v>995.2833150421842</v>
       </c>
       <c r="G42" t="n">
-        <v>409.4931353484268</v>
+        <v>425.2632689934815</v>
       </c>
       <c r="H42" t="n">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1244.92</v>
+        <v>633.98</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2611576</v>
+        <v>2614926</v>
       </c>
       <c r="E44" t="n">
-        <v>10495329</v>
+        <v>10508794</v>
       </c>
       <c r="F44" t="n">
-        <v>152.4412756634572</v>
+        <v>59.84748281751314</v>
       </c>
       <c r="G44" t="n">
-        <v>254.8013830097481</v>
+        <v>318.0554070555368</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I44" t="n">
-        <v>55294</v>
+        <v>52718</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17929574</v>
+        <v>17977595</v>
       </c>
       <c r="E45" t="n">
-        <v>125387725</v>
+        <v>125719808</v>
       </c>
       <c r="F45" t="n">
-        <v>233.7264698990558</v>
+        <v>230.1429007851665</v>
       </c>
       <c r="G45" t="n">
-        <v>271.8217957772036</v>
+        <v>318.1840413590486</v>
       </c>
       <c r="H45" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="I45" t="n">
-        <v>1176416</v>
+        <v>1133023</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>166602</v>
+        <v>165863</v>
       </c>
       <c r="E46" t="n">
-        <v>2229235</v>
+        <v>2219338</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>47992</v>
+        <v>47114</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>249090612</v>
+        <v>248024356</v>
       </c>
       <c r="E47" t="n">
-        <v>249090612</v>
+        <v>248024356</v>
       </c>
       <c r="F47" t="n">
-        <v>77863.16013005612</v>
+        <v>50871.8014203171</v>
       </c>
       <c r="G47" t="n">
-        <v>118375.993215961</v>
+        <v>73199.67148649223</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>25693608</v>
+        <v>25875536</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>637587</v>
+        <v>635826</v>
       </c>
       <c r="E48" t="n">
-        <v>637587</v>
+        <v>635826</v>
       </c>
       <c r="F48" t="n">
-        <v>215.5407404060238</v>
+        <v>214.8941448754442</v>
       </c>
       <c r="G48" t="n">
-        <v>77.40740000814796</v>
+        <v>112.9700941886926</v>
       </c>
       <c r="H48" t="n">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="I48" t="n">
-        <v>2702.42</v>
+        <v>2695.1</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>411484130</v>
+        <v>412135485</v>
       </c>
       <c r="E50" t="n">
-        <v>411484130</v>
+        <v>412135485</v>
       </c>
       <c r="F50" t="n">
-        <v>7960.985462530907</v>
+        <v>8028.495182040418</v>
       </c>
       <c r="G50" t="n">
-        <v>1229.480287690616</v>
+        <v>1501.291726607244</v>
       </c>
       <c r="H50" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="I50" t="n">
-        <v>4220907</v>
+        <v>4249005</v>
       </c>
     </row>
     <row r="51">
@@ -2202,10 +2202,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2413864</v>
+        <v>2391428</v>
       </c>
       <c r="E51" t="n">
-        <v>2413864</v>
+        <v>2391428</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>4.9</v>
+        <v>3.93</v>
       </c>
       <c r="I51" t="n">
-        <v>108860</v>
+        <v>154677</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22187</v>
+        <v>22199</v>
       </c>
       <c r="E52" t="n">
-        <v>44374</v>
+        <v>44397</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.13</v>
+        <v>6.33</v>
       </c>
       <c r="I52" t="n">
-        <v>3707.11</v>
+        <v>3685.66</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>161197</v>
+        <v>161317</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>22.48175991469838</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>25.42629058606729</v>
       </c>
       <c r="H53" t="n">
-        <v>4.58</v>
+        <v>3.82</v>
       </c>
       <c r="I53" t="n">
-        <v>20963</v>
+        <v>20864</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2570915</v>
+        <v>2574122</v>
       </c>
       <c r="E54" t="n">
-        <v>6572768</v>
+        <v>6580966</v>
       </c>
       <c r="F54" t="n">
-        <v>113.7521800131061</v>
+        <v>248.1702612649424</v>
       </c>
       <c r="G54" t="n">
-        <v>91.8075317446028</v>
+        <v>93.55275244129713</v>
       </c>
       <c r="H54" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="I54" t="n">
-        <v>82407</v>
+        <v>80675</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3473.45</v>
+        <v>3473.98</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>5.33</v>
+        <v>4.57</v>
       </c>
       <c r="I55" t="n">
-        <v>1622.08</v>
+        <v>1622.06</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>62133822</v>
+        <v>64130121</v>
       </c>
       <c r="E56" t="n">
-        <v>62133822</v>
+        <v>64130121</v>
       </c>
       <c r="F56" t="n">
-        <v>4938.680686547801</v>
+        <v>4026.936058402602</v>
       </c>
       <c r="G56" t="n">
-        <v>6063.865744176451</v>
+        <v>10559.80594829162</v>
       </c>
       <c r="H56" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I56" t="n">
-        <v>6181192</v>
+        <v>6579928</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3285782</v>
+        <v>3258176</v>
       </c>
       <c r="E57" t="n">
-        <v>4163660</v>
+        <v>4128678</v>
       </c>
       <c r="F57" t="n">
-        <v>311.487150373868</v>
+        <v>344.1813193306319</v>
       </c>
       <c r="G57" t="n">
-        <v>1466.058935974768</v>
+        <v>332.1497825614735</v>
       </c>
       <c r="H57" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I57" t="n">
-        <v>199274</v>
+        <v>197702</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4079054</v>
+        <v>4078241</v>
       </c>
       <c r="E58" t="n">
-        <v>8044238</v>
+        <v>8042635</v>
       </c>
       <c r="F58" t="n">
-        <v>2877.043557632709</v>
+        <v>1993.648639313441</v>
       </c>
       <c r="G58" t="n">
-        <v>15474.65497003474</v>
+        <v>13433.04523069997</v>
       </c>
       <c r="H58" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="I58" t="n">
-        <v>1666552</v>
+        <v>1676778</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1598253</v>
+        <v>1601610</v>
       </c>
       <c r="E59" t="n">
-        <v>9176570</v>
+        <v>9195849</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001087697580879962</v>
+        <v>4.871749270750311</v>
       </c>
       <c r="G59" t="n">
-        <v>341.1631493496538</v>
+        <v>16.51225606330076</v>
       </c>
       <c r="H59" t="n">
-        <v>0.22</v>
+        <v>3.43</v>
       </c>
       <c r="I59" t="n">
-        <v>244428</v>
+        <v>245491</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>578293</v>
+        <v>596625</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>14.49</v>
+        <v>9.52</v>
       </c>
       <c r="I60" t="n">
-        <v>5613.05</v>
+        <v>5523.33</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31123495</v>
+        <v>31166398</v>
       </c>
       <c r="F61" t="n">
-        <v>685.5449247578789</v>
+        <v>594.9646588549872</v>
       </c>
       <c r="G61" t="n">
-        <v>1525.628438964781</v>
+        <v>1564.506164123646</v>
       </c>
       <c r="H61" t="n">
         <v>0.09</v>
       </c>
       <c r="I61" t="n">
-        <v>233802</v>
+        <v>233426</v>
       </c>
     </row>
     <row r="62">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1461819</v>
+        <v>1468398</v>
       </c>
       <c r="F62" t="n">
-        <v>20.18246588000431</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>230.0988815623163</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.71</v>
+        <v>9.16</v>
       </c>
       <c r="I62" t="n">
-        <v>8926.709999999999</v>
+        <v>9049.200000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17318324</v>
+        <v>17404335</v>
       </c>
       <c r="E63" t="n">
-        <v>18253107</v>
+        <v>18343761</v>
       </c>
       <c r="F63" t="n">
-        <v>855.4606061068341</v>
+        <v>940.1345161999077</v>
       </c>
       <c r="G63" t="n">
-        <v>2019.307088304912</v>
+        <v>1899.147197911707</v>
       </c>
       <c r="H63" t="n">
-        <v>0.96</v>
+        <v>1.79</v>
       </c>
       <c r="I63" t="n">
-        <v>41153</v>
+        <v>47647</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2927026</v>
+        <v>2896647</v>
       </c>
       <c r="E64" t="n">
-        <v>2927026</v>
+        <v>2896647</v>
       </c>
       <c r="F64" t="n">
-        <v>162.1069814226619</v>
+        <v>162.3391795707121</v>
       </c>
       <c r="G64" t="n">
-        <v>4.016988647738701</v>
+        <v>170.7320019860765</v>
       </c>
       <c r="H64" t="n">
-        <v>2.7</v>
+        <v>3.53</v>
       </c>
       <c r="I64" t="n">
-        <v>14598.36</v>
+        <v>14611.47</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3334893</v>
+        <v>3339280</v>
       </c>
       <c r="E65" t="n">
-        <v>8228678</v>
+        <v>8239502</v>
       </c>
       <c r="F65" t="n">
-        <v>599.8452718348547</v>
+        <v>827.8160589077287</v>
       </c>
       <c r="G65" t="n">
-        <v>1111.379283684163</v>
+        <v>1105.844622265635</v>
       </c>
       <c r="H65" t="n">
-        <v>0.29</v>
+        <v>0.73</v>
       </c>
       <c r="I65" t="n">
-        <v>44339</v>
+        <v>43541</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>246036</v>
+        <v>247481</v>
       </c>
       <c r="F66" t="n">
-        <v>22.82525738407216</v>
+        <v>7.515118324301255</v>
       </c>
       <c r="G66" t="n">
-        <v>85.70173647749543</v>
+        <v>47.40020561832578</v>
       </c>
       <c r="H66" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="I66" t="n">
-        <v>3477.57</v>
+        <v>3785.75</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>83367188</v>
+        <v>82313344</v>
       </c>
       <c r="E67" t="n">
-        <v>173813891</v>
+        <v>171616712</v>
       </c>
       <c r="F67" t="n">
-        <v>31473.30946122599</v>
+        <v>21651.00949451851</v>
       </c>
       <c r="G67" t="n">
-        <v>85236.26831116977</v>
+        <v>50022.39700280107</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>70176925</v>
+        <v>70804551</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1779421</v>
+        <v>1766394</v>
       </c>
       <c r="F68" t="n">
-        <v>17.5410582222688</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>27.27158099359925</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5600000000000001</v>
+        <v>4.35</v>
       </c>
       <c r="I68" t="n">
-        <v>3890.86</v>
+        <v>3213.17</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>190454871</v>
+        <v>189472236</v>
       </c>
       <c r="F69" t="n">
-        <v>5131.446639538389</v>
+        <v>1747.306546318728</v>
       </c>
       <c r="G69" t="n">
-        <v>2260.067316925907</v>
+        <v>3326.614840758337</v>
       </c>
       <c r="H69" t="n">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
       <c r="I69" t="n">
-        <v>3517928</v>
+        <v>3395394</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>187221</v>
+        <v>186472</v>
       </c>
       <c r="E70" t="n">
-        <v>195512</v>
+        <v>194730</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>192.99</v>
+        <v>180.89</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>137639525</v>
+        <v>136589072</v>
       </c>
       <c r="E71" t="n">
-        <v>137695767</v>
+        <v>136645437</v>
       </c>
       <c r="F71" t="n">
-        <v>24272.28502647676</v>
+        <v>28832.21903948368</v>
       </c>
       <c r="G71" t="n">
-        <v>41018.93566269521</v>
+        <v>36628.47042514975</v>
       </c>
       <c r="H71" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="I71" t="n">
-        <v>3286703</v>
+        <v>3329949</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25464629</v>
+        <v>25333151</v>
       </c>
       <c r="E72" t="n">
-        <v>83570045</v>
+        <v>83138558</v>
       </c>
       <c r="F72" t="n">
-        <v>5200.358040168133</v>
+        <v>17060.64549771981</v>
       </c>
       <c r="G72" t="n">
-        <v>31161.95293654597</v>
+        <v>31737.5262938569</v>
       </c>
       <c r="H72" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="I72" t="n">
-        <v>158300</v>
+        <v>169476</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113328</v>
+        <v>113330</v>
       </c>
       <c r="E73" t="n">
-        <v>113328</v>
+        <v>113330</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1336.69</v>
+        <v>1335.28</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>194781492</v>
+        <v>193202141</v>
       </c>
       <c r="E74" t="n">
-        <v>676688507</v>
+        <v>671201698</v>
       </c>
       <c r="F74" t="n">
-        <v>83028.69820734477</v>
+        <v>79422.7013367793</v>
       </c>
       <c r="G74" t="n">
-        <v>73177.03759904999</v>
+        <v>56040.66059918229</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>40679004</v>
+        <v>40946791</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3431489</v>
+        <v>3355961</v>
       </c>
       <c r="E75" t="n">
-        <v>3431489</v>
+        <v>3355961</v>
       </c>
       <c r="F75" t="n">
-        <v>308.7048648829676</v>
+        <v>580.2048929695715</v>
       </c>
       <c r="G75" t="n">
-        <v>1074.946728702995</v>
+        <v>891.2467233794978</v>
       </c>
       <c r="H75" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="I75" t="n">
-        <v>2368709</v>
+        <v>2289287</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>108921114</v>
+        <v>108140429</v>
       </c>
       <c r="E76" t="n">
-        <v>462051573</v>
+        <v>458707953</v>
       </c>
       <c r="F76" t="n">
-        <v>99452.18353277381</v>
+        <v>133740.4727871389</v>
       </c>
       <c r="G76" t="n">
-        <v>168580.731629874</v>
+        <v>129623.172572171</v>
       </c>
       <c r="H76" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="I76" t="n">
-        <v>15262173</v>
+        <v>15156830</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1805319</v>
+        <v>1800973</v>
       </c>
       <c r="F77" t="n">
-        <v>54.60630535014224</v>
+        <v>54.60478394270125</v>
       </c>
       <c r="G77" t="n">
-        <v>25.48440254718724</v>
+        <v>25.48367472835225</v>
       </c>
       <c r="H77" t="n">
         <v>1.1</v>
       </c>
       <c r="I77" t="n">
-        <v>564.65</v>
+        <v>563.61</v>
       </c>
     </row>
     <row r="78">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3215165</v>
+        <v>3261399</v>
       </c>
       <c r="E78" t="n">
-        <v>16120190</v>
+        <v>16353045</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>4.12</v>
+        <v>4.65</v>
       </c>
       <c r="I78" t="n">
-        <v>30615</v>
+        <v>30764</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>520559</v>
+        <v>520927</v>
       </c>
       <c r="E79" t="n">
-        <v>8904130</v>
+        <v>8910413</v>
       </c>
       <c r="F79" t="n">
-        <v>182.889705214924</v>
+        <v>83.87781335870474</v>
       </c>
       <c r="G79" t="n">
-        <v>63.2848926459504</v>
+        <v>6.099010252512533</v>
       </c>
       <c r="H79" t="n">
-        <v>3.56</v>
+        <v>1.79</v>
       </c>
       <c r="I79" t="n">
-        <v>132048</v>
+        <v>125040</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5480825</v>
+        <v>5630694</v>
       </c>
       <c r="E80" t="n">
-        <v>7438196</v>
+        <v>7641494</v>
       </c>
       <c r="F80" t="n">
-        <v>564.6214150841247</v>
+        <v>526.3451247654947</v>
       </c>
       <c r="G80" t="n">
-        <v>677.7813837386269</v>
+        <v>957.0356478329541</v>
       </c>
       <c r="H80" t="n">
-        <v>0.29</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>5331079</v>
+        <v>5501158</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41458</v>
+        <v>41476</v>
       </c>
       <c r="F81" t="n">
-        <v>234.0307195990688</v>
+        <v>230.9238995432731</v>
       </c>
       <c r="G81" t="n">
-        <v>138.7215531587154</v>
+        <v>193.5808132909285</v>
       </c>
       <c r="H81" t="n">
-        <v>0.61</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>39062</v>
+        <v>39526</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>39963850</v>
+        <v>38570222</v>
       </c>
       <c r="E82" t="n">
-        <v>46676827</v>
+        <v>45049103</v>
       </c>
       <c r="F82" t="n">
-        <v>312.3984865223812</v>
+        <v>385.4811569562131</v>
       </c>
       <c r="G82" t="n">
-        <v>294.440590131436</v>
+        <v>147.3037813292964</v>
       </c>
       <c r="H82" t="n">
-        <v>2.46</v>
+        <v>1.57</v>
       </c>
       <c r="I82" t="n">
-        <v>965700</v>
+        <v>956319</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14236732</v>
+        <v>14206698</v>
       </c>
       <c r="F83" t="n">
-        <v>26.18110398763118</v>
+        <v>233.6742434215787</v>
       </c>
       <c r="G83" t="n">
-        <v>445.7626853058445</v>
+        <v>181.0723630419124</v>
       </c>
       <c r="H83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="I83" t="n">
-        <v>220738</v>
+        <v>222422</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>34924083</v>
+        <v>34479463</v>
       </c>
       <c r="E84" t="n">
-        <v>34924083</v>
+        <v>34479463</v>
       </c>
       <c r="F84" t="n">
-        <v>503.2312698381363</v>
+        <v>40.19830001343151</v>
       </c>
       <c r="G84" t="n">
-        <v>253.1589014602056</v>
+        <v>143.3046918477813</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="I84" t="n">
-        <v>893696</v>
+        <v>903795</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>534985</v>
+        <v>536051</v>
       </c>
       <c r="E85" t="n">
-        <v>6488851</v>
+        <v>6501772</v>
       </c>
       <c r="F85" t="n">
-        <v>499.0078709271136</v>
+        <v>561.0036586080929</v>
       </c>
       <c r="G85" t="n">
-        <v>514.8663464965432</v>
+        <v>452.4385488934757</v>
       </c>
       <c r="H85" t="n">
-        <v>1.44</v>
+        <v>0.32</v>
       </c>
       <c r="I85" t="n">
-        <v>2850417</v>
+        <v>2868420</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24692438</v>
+        <v>24762291</v>
       </c>
       <c r="E86" t="n">
-        <v>34894396</v>
+        <v>34993109</v>
       </c>
       <c r="F86" t="n">
-        <v>62.88079550594745</v>
+        <v>1.123303259274354</v>
       </c>
       <c r="G86" t="n">
-        <v>265.2645560462996</v>
+        <v>134.9477231643833</v>
       </c>
       <c r="H86" t="n">
-        <v>3.44</v>
+        <v>2.76</v>
       </c>
       <c r="I86" t="n">
-        <v>139748</v>
+        <v>125462</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1376156004</v>
+        <v>1376498244</v>
       </c>
       <c r="E87" t="n">
-        <v>6598949869</v>
+        <v>6600590979</v>
       </c>
       <c r="F87" t="n">
-        <v>486493.8732899636</v>
+        <v>548378.1054522611</v>
       </c>
       <c r="G87" t="n">
-        <v>385151.9876630434</v>
+        <v>556236.9317803498</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>479589364</v>
+        <v>486470363</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>258223292</v>
+        <v>256721173</v>
       </c>
       <c r="E88" t="n">
-        <v>1114635077</v>
+        <v>1108151099</v>
       </c>
       <c r="F88" t="n">
-        <v>815263.1609284512</v>
+        <v>754186.1791011256</v>
       </c>
       <c r="G88" t="n">
-        <v>924207.2293244111</v>
+        <v>670340.6180222217</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I88" t="n">
-        <v>142716517</v>
+        <v>141941207</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>112174198</v>
+        <v>112118486</v>
       </c>
       <c r="E89" t="n">
-        <v>112174198</v>
+        <v>112118486</v>
       </c>
       <c r="F89" t="n">
-        <v>31697.72703963043</v>
+        <v>34077.95177923554</v>
       </c>
       <c r="G89" t="n">
-        <v>24203.74722230392</v>
+        <v>20302.37043888832</v>
       </c>
       <c r="H89" t="n">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="I89" t="n">
-        <v>7023785</v>
+        <v>7041056</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3808642</v>
+        <v>3807976</v>
       </c>
       <c r="E90" t="n">
-        <v>29638390</v>
+        <v>29633212</v>
       </c>
       <c r="F90" t="n">
-        <v>7447.427011144915</v>
+        <v>8234.14185797635</v>
       </c>
       <c r="G90" t="n">
-        <v>786.7220632680671</v>
+        <v>688.5554081990831</v>
       </c>
       <c r="H90" t="n">
         <v>0.24</v>
       </c>
       <c r="I90" t="n">
-        <v>23661</v>
+        <v>23701</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3812901</v>
+        <v>3882905</v>
       </c>
       <c r="F91" t="n">
-        <v>272.0611589599763</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>251.3234652379564</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>2.19</v>
+        <v>5.53</v>
       </c>
       <c r="I91" t="n">
-        <v>356558</v>
+        <v>358526</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>880713</v>
+        <v>853646</v>
       </c>
       <c r="F92" t="n">
-        <v>43.50935278909787</v>
+        <v>50.28382072640611</v>
       </c>
       <c r="G92" t="n">
-        <v>86.46240696766672</v>
+        <v>451.2993655919269</v>
       </c>
       <c r="H92" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="I92" t="n">
-        <v>7370.58</v>
+        <v>4650.6</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>127851</v>
+        <v>127245</v>
       </c>
       <c r="F93" t="n">
-        <v>222.471388015605</v>
+        <v>352.4712810596887</v>
       </c>
       <c r="G93" t="n">
-        <v>3.028044533320733</v>
+        <v>3.027960167798196</v>
       </c>
       <c r="H93" t="n">
-        <v>3.01</v>
+        <v>2.82</v>
       </c>
       <c r="I93" t="n">
-        <v>125355</v>
+        <v>125853</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10290611</v>
+        <v>10288717</v>
       </c>
       <c r="E94" t="n">
-        <v>123892526</v>
+        <v>123869719</v>
       </c>
       <c r="F94" t="n">
-        <v>1209.292417720494</v>
+        <v>827.211772994281</v>
       </c>
       <c r="G94" t="n">
-        <v>84.71668321042539</v>
+        <v>425.1823093608209</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>588880</v>
+        <v>589607</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15638488</v>
+        <v>15613312</v>
       </c>
       <c r="E95" t="n">
-        <v>39096220</v>
+        <v>39033281</v>
       </c>
       <c r="F95" t="n">
-        <v>7099.811581293228</v>
+        <v>9713.494754226002</v>
       </c>
       <c r="G95" t="n">
-        <v>7103.210965780662</v>
+        <v>6343.242397095531</v>
       </c>
       <c r="H95" t="n">
         <v>0.13</v>
       </c>
       <c r="I95" t="n">
-        <v>4811255</v>
+        <v>4888450</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2386208</v>
+        <v>2520566</v>
       </c>
       <c r="F96" t="n">
-        <v>105.5818318039615</v>
+        <v>144.6796393231476</v>
       </c>
       <c r="G96" t="n">
-        <v>234.1741277881669</v>
+        <v>138.9336462002905</v>
       </c>
       <c r="H96" t="n">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="I96" t="n">
-        <v>42512</v>
+        <v>24929</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19490020</v>
+        <v>19435133</v>
       </c>
       <c r="F97" t="n">
-        <v>538.3765565282572</v>
+        <v>819.1806831621666</v>
       </c>
       <c r="G97" t="n">
-        <v>1073.796387066726</v>
+        <v>801.6861879994281</v>
       </c>
       <c r="H97" t="n">
         <v>1.02</v>
       </c>
       <c r="I97" t="n">
-        <v>64400</v>
+        <v>67218</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4161253</v>
+        <v>4143739</v>
       </c>
       <c r="E98" t="n">
-        <v>11985778</v>
+        <v>11934474</v>
       </c>
       <c r="F98" t="n">
-        <v>1272.58602034167</v>
+        <v>1038.881344613375</v>
       </c>
       <c r="G98" t="n">
-        <v>508.7894982158973</v>
+        <v>783.3389406064191</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="I98" t="n">
-        <v>493952</v>
+        <v>491358</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1530402</v>
+        <v>1515571</v>
       </c>
       <c r="F99" t="n">
-        <v>671.6052063535091</v>
+        <v>722.2901980361188</v>
       </c>
       <c r="G99" t="n">
-        <v>85.27423013738627</v>
+        <v>104.9573988248602</v>
       </c>
       <c r="H99" t="n">
-        <v>1.09</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I99" t="n">
-        <v>266995</v>
+        <v>269979</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>77844820</v>
+        <v>77777333</v>
       </c>
       <c r="E100" t="n">
-        <v>99063583</v>
+        <v>98977701</v>
       </c>
       <c r="F100" t="n">
-        <v>8980.7418595294</v>
+        <v>9218.556819411207</v>
       </c>
       <c r="G100" t="n">
-        <v>7436.3869156664</v>
+        <v>11268.37184461411</v>
       </c>
       <c r="H100" t="n">
-        <v>0.82</v>
+        <v>0.35</v>
       </c>
       <c r="I100" t="n">
-        <v>7466993</v>
+        <v>6479171</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21908448</v>
+        <v>21854307</v>
       </c>
       <c r="E101" t="n">
-        <v>28420268</v>
+        <v>28350035</v>
       </c>
       <c r="F101" t="n">
-        <v>5220.002074239489</v>
+        <v>2834.358012884382</v>
       </c>
       <c r="G101" t="n">
-        <v>7383.700212665261</v>
+        <v>5897.330781802279</v>
       </c>
       <c r="H101" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="I101" t="n">
-        <v>223159</v>
+        <v>203254</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1523583</v>
+        <v>1492316</v>
       </c>
       <c r="F102" t="n">
-        <v>40.64998443717696</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>352.1639926666363</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="I102" t="n">
-        <v>7606.18</v>
+        <v>7934.92</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>598892</v>
+        <v>599367</v>
       </c>
       <c r="E103" t="n">
-        <v>598892</v>
+        <v>599367</v>
       </c>
       <c r="F103" t="n">
-        <v>432.6054106860806</v>
+        <v>327.4724604266658</v>
       </c>
       <c r="G103" t="n">
-        <v>20.50744409046974</v>
+        <v>20.50687354464799</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I103" t="n">
-        <v>67301</v>
+        <v>65953</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40313532</v>
+        <v>40273938</v>
       </c>
       <c r="E104" t="n">
-        <v>42142056</v>
+        <v>42100666</v>
       </c>
       <c r="F104" t="n">
-        <v>669.2362900346182</v>
+        <v>749.4003948327218</v>
       </c>
       <c r="G104" t="n">
-        <v>1901.750139695475</v>
+        <v>1473.707680026877</v>
       </c>
       <c r="H104" t="n">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="I104" t="n">
-        <v>733741</v>
+        <v>741350</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13405102</v>
+        <v>13459578</v>
       </c>
       <c r="E105" t="n">
-        <v>13405102</v>
+        <v>13459578</v>
       </c>
       <c r="F105" t="n">
-        <v>2853.736941975222</v>
+        <v>3950.019378049323</v>
       </c>
       <c r="G105" t="n">
-        <v>4469.94942350866</v>
+        <v>3074.345049425233</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I105" t="n">
-        <v>5419588</v>
+        <v>5438881</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1091919</v>
+        <v>1127611</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.38</v>
+        <v>7.22</v>
       </c>
       <c r="I106" t="n">
-        <v>3720.11</v>
+        <v>3722.65</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>49249161</v>
+        <v>49008533</v>
       </c>
       <c r="E107" t="n">
-        <v>125465053</v>
+        <v>124852039</v>
       </c>
       <c r="F107" t="n">
-        <v>1689.703337705346</v>
+        <v>2145.638645426924</v>
       </c>
       <c r="G107" t="n">
-        <v>3156.494582565794</v>
+        <v>3011.722187057732</v>
       </c>
       <c r="H107" t="n">
         <v>0.55</v>
       </c>
       <c r="I107" t="n">
-        <v>2210727</v>
+        <v>2176271</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14132735</v>
+        <v>13701332</v>
       </c>
       <c r="E108" t="n">
-        <v>68447090</v>
+        <v>66357736</v>
       </c>
       <c r="F108" t="n">
-        <v>1564.820614833317</v>
+        <v>2542.357926376367</v>
       </c>
       <c r="G108" t="n">
-        <v>3862.754219067116</v>
+        <v>4086.858538747931</v>
       </c>
       <c r="H108" t="n">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="I108" t="n">
-        <v>5440921</v>
+        <v>5537548</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>622542</v>
+        <v>635142</v>
       </c>
       <c r="F109" t="n">
-        <v>77.8888601119172</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>68.15933750796714</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>3.27</v>
+        <v>4.06</v>
       </c>
       <c r="I109" t="n">
-        <v>9778.92</v>
+        <v>11466.76</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4469234</v>
+        <v>4460138</v>
       </c>
       <c r="E110" t="n">
-        <v>10187422</v>
+        <v>10166687</v>
       </c>
       <c r="F110" t="n">
-        <v>1334.224912650459</v>
+        <v>787.8142883192102</v>
       </c>
       <c r="G110" t="n">
-        <v>1501.343551488381</v>
+        <v>1593.423863668066</v>
       </c>
       <c r="H110" t="n">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
       <c r="I110" t="n">
-        <v>64689</v>
+        <v>65512</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1835743288</v>
+        <v>1837177035</v>
       </c>
       <c r="F111" t="n">
-        <v>30556.08603072209</v>
+        <v>33352.45981251489</v>
       </c>
       <c r="G111" t="n">
-        <v>20319.29850990631</v>
+        <v>19192.2203332276</v>
       </c>
       <c r="H111" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I111" t="n">
-        <v>30574698</v>
+        <v>30784514</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9196650</v>
+        <v>9237156</v>
       </c>
       <c r="E112" t="n">
-        <v>33460294</v>
+        <v>33607608</v>
       </c>
       <c r="F112" t="n">
-        <v>503.3947630566174</v>
+        <v>502.2816731818536</v>
       </c>
       <c r="G112" t="n">
-        <v>8127.126014403024</v>
+        <v>8126.89958139473</v>
       </c>
       <c r="H112" t="n">
         <v>1.19</v>
       </c>
       <c r="I112" t="n">
-        <v>147026</v>
+        <v>147942</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>632273</v>
+        <v>630567</v>
       </c>
       <c r="F113" t="n">
-        <v>6.679031549536703</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>4.856349920558482</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>620.36</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11836887</v>
+        <v>11614775</v>
       </c>
       <c r="E114" t="n">
-        <v>17161778</v>
+        <v>16839748</v>
       </c>
       <c r="F114" t="n">
-        <v>3101.091438702258</v>
+        <v>3024.697972202577</v>
       </c>
       <c r="G114" t="n">
-        <v>376.9325085229325</v>
+        <v>250.5755776310342</v>
       </c>
       <c r="H114" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="I114" t="n">
-        <v>2046400</v>
+        <v>2023255</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1834704</v>
+        <v>1827321</v>
       </c>
       <c r="E115" t="n">
-        <v>13156480</v>
+        <v>13103539</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>68.20714050480966</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>5.886322587742476</v>
       </c>
       <c r="H115" t="n">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="I115" t="n">
-        <v>2051312</v>
+        <v>2050936</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2752128</v>
+        <v>2717720</v>
       </c>
       <c r="E116" t="n">
-        <v>5563316</v>
+        <v>5493762</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5510.67</v>
+        <v>4463.71</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>190925384</v>
+        <v>190853391</v>
       </c>
       <c r="E117" t="n">
-        <v>1081136838</v>
+        <v>1080729168</v>
       </c>
       <c r="F117" t="n">
-        <v>207354.6860037598</v>
+        <v>283143.1814147298</v>
       </c>
       <c r="G117" t="n">
-        <v>312432.2327102375</v>
+        <v>312642.4891548334</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>85811539</v>
+        <v>85859233</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>654409</v>
+        <v>656089</v>
       </c>
       <c r="E118" t="n">
-        <v>2169926</v>
+        <v>2175494</v>
       </c>
       <c r="F118" t="n">
-        <v>11864.16688171311</v>
+        <v>5267.694006155057</v>
       </c>
       <c r="G118" t="n">
-        <v>7595.703877476128</v>
+        <v>10343.716457018</v>
       </c>
       <c r="H118" t="n">
         <v>0.93</v>
       </c>
       <c r="I118" t="n">
-        <v>3978.84</v>
+        <v>3986.36</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2616813</v>
+        <v>2587574</v>
       </c>
       <c r="E119" t="n">
-        <v>9265031</v>
+        <v>9161508</v>
       </c>
       <c r="F119" t="n">
-        <v>14.3950039179247</v>
+        <v>297.2647430079506</v>
       </c>
       <c r="G119" t="n">
-        <v>391.4208441685984</v>
+        <v>215.6376183830162</v>
       </c>
       <c r="H119" t="n">
-        <v>0.97</v>
+        <v>1.31</v>
       </c>
       <c r="I119" t="n">
-        <v>26361</v>
+        <v>26483</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1005047</v>
+        <v>1008778</v>
       </c>
       <c r="E120" t="n">
-        <v>1005047</v>
+        <v>1008778</v>
       </c>
       <c r="F120" t="n">
-        <v>125.6033637177572</v>
+        <v>125.3534396095113</v>
       </c>
       <c r="G120" t="n">
-        <v>140.4811838770455</v>
+        <v>140.4772698763252</v>
       </c>
       <c r="H120" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="I120" t="n">
-        <v>5611.47</v>
+        <v>5533.24</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>487105</v>
+        <v>487739</v>
       </c>
       <c r="E121" t="n">
-        <v>1639528</v>
+        <v>1641661</v>
       </c>
       <c r="F121" t="n">
-        <v>380.2440306905611</v>
+        <v>354.8769031751419</v>
       </c>
       <c r="G121" t="n">
-        <v>429.3742592206731</v>
+        <v>398.6407434072553</v>
       </c>
       <c r="H121" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I121" t="n">
-        <v>641201</v>
+        <v>640811</v>
       </c>
     </row>
     <row r="122">
@@ -4677,22 +4677,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>468619</v>
+        <v>468460</v>
       </c>
       <c r="E122" t="n">
-        <v>869378</v>
+        <v>869083</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>91.67065024855056</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>4.016890959274299</v>
       </c>
       <c r="H122" t="n">
-        <v>7.53</v>
+        <v>2.27</v>
       </c>
       <c r="I122" t="n">
-        <v>247407</v>
+        <v>263980</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9719375</v>
+        <v>9680238</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>7.86</v>
+        <v>7.73</v>
       </c>
       <c r="I123" t="n">
-        <v>18173.08</v>
+        <v>18802.84</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1166595</v>
+        <v>1166140</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>9.210000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="I124" t="n">
-        <v>5810.79</v>
+        <v>6000.77</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3267202</v>
+        <v>3261817</v>
       </c>
       <c r="E125" t="n">
-        <v>7629461</v>
+        <v>7616886</v>
       </c>
       <c r="F125" t="n">
-        <v>1196.845967692511</v>
+        <v>877.6441989105024</v>
       </c>
       <c r="G125" t="n">
-        <v>1036.065640742844</v>
+        <v>1174.80579250665</v>
       </c>
       <c r="H125" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="I125" t="n">
-        <v>635409</v>
+        <v>610396</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>249629</v>
+        <v>245832</v>
       </c>
       <c r="E126" t="n">
-        <v>2203166</v>
+        <v>2169652</v>
       </c>
       <c r="F126" t="n">
-        <v>31.37860615707867</v>
+        <v>65.14658639442503</v>
       </c>
       <c r="G126" t="n">
-        <v>37.60174064823879</v>
+        <v>27.00237643145954</v>
       </c>
       <c r="H126" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="I126" t="n">
-        <v>70533</v>
+        <v>71082</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>628391</v>
+        <v>623486</v>
       </c>
       <c r="F127" t="n">
-        <v>556.4489400484537</v>
+        <v>540.6509733431348</v>
       </c>
       <c r="G127" t="n">
-        <v>585.3672746127868</v>
+        <v>710.2502164632449</v>
       </c>
       <c r="H127" t="n">
-        <v>1.96</v>
+        <v>0.99</v>
       </c>
       <c r="I127" t="n">
-        <v>15235.76</v>
+        <v>16121.85</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4746637</v>
+        <v>4717242</v>
       </c>
       <c r="E128" t="n">
-        <v>16769856</v>
+        <v>16666001</v>
       </c>
       <c r="F128" t="n">
-        <v>1648.526675588879</v>
+        <v>1311.555510344062</v>
       </c>
       <c r="G128" t="n">
-        <v>992.0670587663824</v>
+        <v>1241.54589410491</v>
       </c>
       <c r="H128" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="I128" t="n">
-        <v>145713</v>
+        <v>152353</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2083794</v>
+        <v>2133115</v>
       </c>
       <c r="F129" t="n">
-        <v>56.00178401052221</v>
+        <v>12.57325418284378</v>
       </c>
       <c r="G129" t="n">
-        <v>262.1554919941939</v>
+        <v>41.7578572335878</v>
       </c>
       <c r="H129" t="n">
-        <v>0.63</v>
+        <v>0.05</v>
       </c>
       <c r="I129" t="n">
-        <v>4882.97</v>
+        <v>5089.51</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2473607</v>
+        <v>2441609</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2521.01</v>
+        <v>2526.09</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>79910</v>
+        <v>79812</v>
       </c>
       <c r="E131" t="n">
-        <v>79910</v>
+        <v>79812</v>
       </c>
       <c r="F131" t="n">
-        <v>10.47014843194352</v>
+        <v>9.496621868314634</v>
       </c>
       <c r="G131" t="n">
-        <v>128.18051240799</v>
+        <v>27.20063882410966</v>
       </c>
       <c r="H131" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="I131" t="n">
-        <v>20955</v>
+        <v>20154</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4188532</v>
+        <v>4140607</v>
       </c>
       <c r="F132" t="n">
-        <v>366.5561511021317</v>
+        <v>220.3507155921817</v>
       </c>
       <c r="G132" t="n">
-        <v>397.7012589589827</v>
+        <v>418.1828102716465</v>
       </c>
       <c r="H132" t="n">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
       <c r="I132" t="n">
-        <v>297114</v>
+        <v>269071</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2072647</v>
+        <v>2089283</v>
       </c>
       <c r="E133" t="n">
-        <v>8464152</v>
+        <v>8532092</v>
       </c>
       <c r="F133" t="n">
-        <v>566.7351236821613</v>
+        <v>427.0892004101057</v>
       </c>
       <c r="G133" t="n">
-        <v>357.2160214406657</v>
+        <v>2.714789815415244</v>
       </c>
       <c r="H133" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I133" t="n">
-        <v>430080</v>
+        <v>217846</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7251718</v>
+        <v>7256765</v>
       </c>
       <c r="E134" t="n">
-        <v>7305622</v>
+        <v>7310707</v>
       </c>
       <c r="F134" t="n">
-        <v>255642.531645855</v>
+        <v>299373.4125627194</v>
       </c>
       <c r="G134" t="n">
-        <v>252866.4637754867</v>
+        <v>304723.3545139541</v>
       </c>
       <c r="H134" t="n">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
       <c r="I134" t="n">
-        <v>5820292</v>
+        <v>5786434</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13426390</v>
+        <v>13303870</v>
       </c>
       <c r="E135" t="n">
-        <v>13472081</v>
+        <v>13349144</v>
       </c>
       <c r="F135" t="n">
-        <v>14442.60780318487</v>
+        <v>10634.26077872171</v>
       </c>
       <c r="G135" t="n">
-        <v>10708.59216170545</v>
+        <v>5289.864210374069</v>
       </c>
       <c r="H135" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I135" t="n">
-        <v>6137202</v>
+        <v>6877904</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42214090</v>
+        <v>42192456</v>
       </c>
       <c r="E136" t="n">
-        <v>71669704</v>
+        <v>71632974</v>
       </c>
       <c r="F136" t="n">
-        <v>551.1244879913787</v>
+        <v>658.5447778770792</v>
       </c>
       <c r="G136" t="n">
-        <v>716.6818054976814</v>
+        <v>668.2710980235287</v>
       </c>
       <c r="H136" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I136" t="n">
-        <v>1138664</v>
+        <v>1126627</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19426458</v>
+        <v>19396989</v>
       </c>
       <c r="E137" t="n">
-        <v>58242350</v>
+        <v>58157459</v>
       </c>
       <c r="F137" t="n">
-        <v>36680.87203905953</v>
+        <v>38810.06470142187</v>
       </c>
       <c r="G137" t="n">
-        <v>49684.82440983957</v>
+        <v>23212.31803472098</v>
       </c>
       <c r="H137" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I137" t="n">
-        <v>4398783</v>
+        <v>4334746</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>99688764</v>
+        <v>97179587</v>
       </c>
       <c r="E138" t="n">
-        <v>105978165</v>
+        <v>103310683</v>
       </c>
       <c r="F138" t="n">
-        <v>2388.833104571746</v>
+        <v>1944.135946548818</v>
       </c>
       <c r="G138" t="n">
-        <v>4818.601282274578</v>
+        <v>3536.113886685635</v>
       </c>
       <c r="H138" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="I138" t="n">
-        <v>1821956</v>
+        <v>1815433</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1306116</v>
+        <v>1306658</v>
       </c>
       <c r="F139" t="n">
-        <v>7.719463318983381</v>
+        <v>7.719248244023471</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2375053865102186</v>
+        <v>0.2374987692805782</v>
       </c>
       <c r="H139" t="n">
         <v>3.85</v>
       </c>
       <c r="I139" t="n">
-        <v>1940.94</v>
+        <v>1939.37</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>239112</v>
+        <v>234092</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.83</v>
+        <v>10.55</v>
       </c>
       <c r="I140" t="n">
-        <v>39.85</v>
+        <v>63.51</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>73670</v>
+        <v>70857</v>
       </c>
       <c r="E141" t="n">
-        <v>208984</v>
+        <v>201004</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>417.88</v>
+        <v>424.16</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50485655</v>
+        <v>50138929</v>
       </c>
       <c r="E142" t="n">
-        <v>217486680</v>
+        <v>215993025</v>
       </c>
       <c r="F142" t="n">
-        <v>41819.07526749206</v>
+        <v>44824.61899109493</v>
       </c>
       <c r="G142" t="n">
-        <v>61631.63404207131</v>
+        <v>54687.28673741747</v>
       </c>
       <c r="H142" t="n">
         <v>0.19</v>
       </c>
       <c r="I142" t="n">
-        <v>12800432</v>
+        <v>13078910</v>
       </c>
     </row>
     <row r="143">
@@ -5407,19 +5407,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>262840</v>
+        <v>281035</v>
       </c>
       <c r="F143" t="n">
-        <v>28.79944174357037</v>
+        <v>23.73837306415374</v>
       </c>
       <c r="G143" t="n">
-        <v>13.53107183257472</v>
+        <v>13.53069471643462</v>
       </c>
       <c r="H143" t="n">
         <v>0.68</v>
       </c>
       <c r="I143" t="n">
-        <v>11433.32</v>
+        <v>12998.2</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9620089</v>
+        <v>9833671</v>
       </c>
       <c r="F144" t="n">
-        <v>170.5921390425135</v>
+        <v>240.0217546424651</v>
       </c>
       <c r="G144" t="n">
-        <v>321.109387074752</v>
+        <v>333.7601204224656</v>
       </c>
       <c r="H144" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I144" t="n">
-        <v>109714</v>
+        <v>171125</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1166344</v>
+        <v>1168984</v>
       </c>
       <c r="E145" t="n">
-        <v>7775628</v>
+        <v>7793227</v>
       </c>
       <c r="F145" t="n">
-        <v>262.3549943285169</v>
+        <v>262.3476847543204</v>
       </c>
       <c r="G145" t="n">
-        <v>36.78702337068888</v>
+        <v>36.78599843317059</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4443.04</v>
+        <v>4369.79</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7393839</v>
+        <v>7592615</v>
       </c>
       <c r="F146" t="n">
-        <v>184.4153902499399</v>
+        <v>166.5089576652029</v>
       </c>
       <c r="G146" t="n">
-        <v>232.1250860292355</v>
+        <v>99.54987868444329</v>
       </c>
       <c r="H146" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="I146" t="n">
-        <v>589163</v>
+        <v>7184834</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>659444</v>
+        <v>659295</v>
       </c>
       <c r="E147" t="n">
-        <v>2380235</v>
+        <v>2379700</v>
       </c>
       <c r="F147" t="n">
-        <v>18.72232923480115</v>
+        <v>10.6107977519726</v>
       </c>
       <c r="G147" t="n">
-        <v>10.58260410971873</v>
+        <v>10.58230926368338</v>
       </c>
       <c r="H147" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>400019</v>
+        <v>403265</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1615961</v>
+        <v>1547618</v>
       </c>
       <c r="F148" t="n">
-        <v>1154.260639644388</v>
+        <v>1146.031983483164</v>
       </c>
       <c r="G148" t="n">
-        <v>59.89006641486227</v>
+        <v>56.28465887237503</v>
       </c>
       <c r="H148" t="n">
-        <v>0.59</v>
+        <v>0.03</v>
       </c>
       <c r="I148" t="n">
-        <v>86862</v>
+        <v>86239</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>62979</v>
+        <v>62872</v>
       </c>
       <c r="F149" t="n">
-        <v>8.121511267324211</v>
+        <v>8.121284990750562</v>
       </c>
       <c r="G149" t="n">
-        <v>0.004143624108418401</v>
+        <v>0.004143508661300878</v>
       </c>
       <c r="H149" t="n">
         <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>3187.46</v>
+        <v>3143.5</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12568229</v>
+        <v>12486906</v>
       </c>
       <c r="E150" t="n">
-        <v>12568229</v>
+        <v>12486906</v>
       </c>
       <c r="F150" t="n">
-        <v>215.4035710379867</v>
+        <v>272.5843517352737</v>
       </c>
       <c r="G150" t="n">
-        <v>1206.95460234732</v>
+        <v>1107.187594951313</v>
       </c>
       <c r="H150" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I150" t="n">
-        <v>3434089</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2220656</v>
+        <v>2259914</v>
       </c>
       <c r="E151" t="n">
-        <v>8060749</v>
+        <v>8203144</v>
       </c>
       <c r="F151" t="n">
-        <v>180.5860093079007</v>
+        <v>225.0142586390087</v>
       </c>
       <c r="G151" t="n">
-        <v>108.059796970457</v>
+        <v>151.756738959609</v>
       </c>
       <c r="H151" t="n">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="I151" t="n">
-        <v>217508</v>
+        <v>220753</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1223160</v>
+        <v>1218508</v>
       </c>
       <c r="E152" t="n">
-        <v>1223160</v>
+        <v>1218508</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1004.11</v>
+        <v>1000.29</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23043940</v>
+        <v>23001121</v>
       </c>
       <c r="E153" t="n">
-        <v>26616491</v>
+        <v>26568963</v>
       </c>
       <c r="F153" t="n">
-        <v>427.6921479933944</v>
+        <v>674.5697805334817</v>
       </c>
       <c r="G153" t="n">
-        <v>429.4085251822185</v>
+        <v>435.1354312862866</v>
       </c>
       <c r="H153" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="I153" t="n">
-        <v>758130</v>
+        <v>738844</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2440951</v>
+        <v>2442222</v>
       </c>
       <c r="E154" t="n">
-        <v>18367528</v>
+        <v>18377089</v>
       </c>
       <c r="F154" t="n">
-        <v>3320.896720679979</v>
+        <v>3301.144788140908</v>
       </c>
       <c r="G154" t="n">
-        <v>3478.785864490213</v>
+        <v>3404.905372284581</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161451</v>
+        <v>161439</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>19751105</v>
+        <v>19588019</v>
       </c>
       <c r="E155" t="n">
-        <v>79004420</v>
+        <v>78352075</v>
       </c>
       <c r="F155" t="n">
-        <v>1467.097343286579</v>
+        <v>342.5057215230122</v>
       </c>
       <c r="G155" t="n">
-        <v>18541.56132396259</v>
+        <v>4299.353924828577</v>
       </c>
       <c r="H155" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="I155" t="n">
-        <v>3194788</v>
+        <v>3612902</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>289141309</v>
+        <v>284671666</v>
       </c>
       <c r="E156" t="n">
-        <v>289141309</v>
+        <v>284671666</v>
       </c>
       <c r="F156" t="n">
-        <v>272986.0142436764</v>
+        <v>249744.7740009327</v>
       </c>
       <c r="G156" t="n">
-        <v>370913.3558187681</v>
+        <v>313390.0907313352</v>
       </c>
       <c r="H156" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="I156" t="n">
-        <v>19836687</v>
+        <v>19775718</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12600975</v>
+        <v>12626242</v>
       </c>
       <c r="E157" t="n">
-        <v>39855453</v>
+        <v>39935156</v>
       </c>
       <c r="F157" t="n">
-        <v>3843.002357129411</v>
+        <v>4079.22054548447</v>
       </c>
       <c r="G157" t="n">
-        <v>14422.95837394763</v>
+        <v>9942.266956083702</v>
       </c>
       <c r="H157" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I157" t="n">
-        <v>1025332</v>
+        <v>1005395</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1094662</v>
+        <v>1094199</v>
       </c>
       <c r="E158" t="n">
-        <v>2493200</v>
+        <v>2492146</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>434.6</v>
+        <v>453.11</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17554751</v>
+        <v>17328157</v>
       </c>
       <c r="E159" t="n">
-        <v>17554751</v>
+        <v>17328157</v>
       </c>
       <c r="F159" t="n">
-        <v>9510.067780025458</v>
+        <v>9001.955443755056</v>
       </c>
       <c r="G159" t="n">
-        <v>17887.86844572096</v>
+        <v>18041.20540874336</v>
       </c>
       <c r="H159" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>7070678</v>
+        <v>7102607</v>
       </c>
     </row>
     <row r="160">
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>13.45</v>
+        <v>13.27</v>
       </c>
       <c r="I160" t="n">
-        <v>65.08</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>103973</v>
+        <v>103746</v>
       </c>
       <c r="E161" t="n">
-        <v>126192</v>
+        <v>125917</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>7.52</v>
+        <v>7.43</v>
       </c>
       <c r="I161" t="n">
-        <v>2024.58</v>
+        <v>1965.31</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>21925010</v>
+        <v>22090986</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>13.33</v>
+        <v>12.72</v>
       </c>
       <c r="I162" t="n">
-        <v>866.53</v>
+        <v>1754.45</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>461968</v>
+        <v>460803</v>
       </c>
       <c r="E163" t="n">
-        <v>581907</v>
+        <v>580440</v>
       </c>
       <c r="F163" t="n">
-        <v>118.1501112637077</v>
+        <v>115.3638005730173</v>
       </c>
       <c r="G163" t="n">
-        <v>126.8117298876349</v>
+        <v>144.7051481263126</v>
       </c>
       <c r="H163" t="n">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
       <c r="I163" t="n">
-        <v>149680</v>
+        <v>187194</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104766</v>
+        <v>104586</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>18.53925076296893</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>193.6781553459476</v>
       </c>
       <c r="H164" t="n">
-        <v>6.52</v>
+        <v>0.1</v>
       </c>
       <c r="I164" t="n">
-        <v>2750.25</v>
+        <v>2748.66</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12397560</v>
+        <v>12455705</v>
       </c>
       <c r="E165" t="n">
-        <v>18871882</v>
+        <v>18960392</v>
       </c>
       <c r="F165" t="n">
-        <v>1428.623707795223</v>
+        <v>964.8289120799521</v>
       </c>
       <c r="G165" t="n">
-        <v>1139.996510999135</v>
+        <v>1099.101636182506</v>
       </c>
       <c r="H165" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I165" t="n">
-        <v>661702</v>
+        <v>652751</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>286784523</v>
+        <v>285783967</v>
       </c>
       <c r="E166" t="n">
-        <v>286784523</v>
+        <v>285783967</v>
       </c>
       <c r="F166" t="n">
-        <v>263261.6057774118</v>
+        <v>188924.4808669476</v>
       </c>
       <c r="G166" t="n">
-        <v>238693.2557376971</v>
+        <v>315723.5363433901</v>
       </c>
       <c r="H166" t="n">
         <v>0.11</v>
       </c>
       <c r="I166" t="n">
-        <v>92593088</v>
+        <v>93408418</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9805655</v>
+        <v>9821562</v>
       </c>
       <c r="E167" t="n">
-        <v>27839890</v>
+        <v>27885053</v>
       </c>
       <c r="F167" t="n">
-        <v>546.0287316659598</v>
+        <v>365.7640314028154</v>
       </c>
       <c r="G167" t="n">
-        <v>348.8566125241487</v>
+        <v>1012.48983756031</v>
       </c>
       <c r="H167" t="n">
-        <v>0.71</v>
+        <v>2.14</v>
       </c>
       <c r="I167" t="n">
-        <v>102458</v>
+        <v>90842</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11629469</v>
+        <v>11642578</v>
       </c>
       <c r="F168" t="n">
-        <v>101.4823005210441</v>
+        <v>137.948386535703</v>
       </c>
       <c r="G168" t="n">
-        <v>359.122359755385</v>
+        <v>211.145849032915</v>
       </c>
       <c r="H168" t="n">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="I168" t="n">
-        <v>90465</v>
+        <v>89237</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4643052</v>
+        <v>4644822</v>
       </c>
       <c r="E169" t="n">
-        <v>31725648</v>
+        <v>31737745</v>
       </c>
       <c r="F169" t="n">
-        <v>1332.24714936094</v>
+        <v>1233.78452996791</v>
       </c>
       <c r="G169" t="n">
-        <v>1635.933758010068</v>
+        <v>430.8939856017762</v>
       </c>
       <c r="H169" t="n">
-        <v>0.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2945092</v>
+        <v>2976623</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2644588</v>
+        <v>2638279</v>
       </c>
       <c r="E170" t="n">
-        <v>3915262</v>
+        <v>3905434</v>
       </c>
       <c r="F170" t="n">
-        <v>1014.3960739164</v>
+        <v>855.9136907996575</v>
       </c>
       <c r="G170" t="n">
-        <v>432.6967997627973</v>
+        <v>357.0199537725606</v>
       </c>
       <c r="H170" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="I170" t="n">
-        <v>91265</v>
+        <v>86869</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>83996684</v>
+        <v>83677659</v>
       </c>
       <c r="E171" t="n">
-        <v>484025125</v>
+        <v>482186762</v>
       </c>
       <c r="F171" t="n">
-        <v>234035.9908841503</v>
+        <v>238673.2145920286</v>
       </c>
       <c r="G171" t="n">
-        <v>270528.9291537776</v>
+        <v>302767.7759780724</v>
       </c>
       <c r="H171" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="I171" t="n">
-        <v>21512599</v>
+        <v>21250499</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13807006</v>
+        <v>13851835</v>
       </c>
       <c r="E172" t="n">
-        <v>13807006</v>
+        <v>13851835</v>
       </c>
       <c r="F172" t="n">
-        <v>4331.086812557794</v>
+        <v>5032.469692852031</v>
       </c>
       <c r="G172" t="n">
-        <v>6303.138774469179</v>
+        <v>5046.365815014398</v>
       </c>
       <c r="H172" t="n">
         <v>1.49</v>
       </c>
       <c r="I172" t="n">
-        <v>691694</v>
+        <v>697925</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6059002</v>
+        <v>6074905</v>
       </c>
       <c r="E173" t="n">
-        <v>17211885</v>
+        <v>17257060</v>
       </c>
       <c r="F173" t="n">
-        <v>1112.809664180115</v>
+        <v>297.176873153623</v>
       </c>
       <c r="G173" t="n">
-        <v>8620.524654185674</v>
+        <v>7619.404236585524</v>
       </c>
       <c r="H173" t="n">
-        <v>0.06</v>
+        <v>0.8</v>
       </c>
       <c r="I173" t="n">
-        <v>97394</v>
+        <v>94497</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18851055</v>
+        <v>18662533</v>
       </c>
       <c r="E174" t="n">
-        <v>18851055</v>
+        <v>18662533</v>
       </c>
       <c r="F174" t="n">
-        <v>1381.78170764461</v>
+        <v>37.50539663944169</v>
       </c>
       <c r="G174" t="n">
-        <v>1.061606460370777</v>
+        <v>1.061586645736081</v>
       </c>
       <c r="H174" t="n">
-        <v>2.18</v>
+        <v>1.35</v>
       </c>
       <c r="I174" t="n">
-        <v>131879</v>
+        <v>105044</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1314719</v>
+        <v>1315159</v>
       </c>
       <c r="F175" t="n">
-        <v>84.07483150882582</v>
+        <v>82.8897779190129</v>
       </c>
       <c r="G175" t="n">
-        <v>227.5950640508855</v>
+        <v>234.6023454013247</v>
       </c>
       <c r="H175" t="n">
         <v>2.17</v>
       </c>
       <c r="I175" t="n">
-        <v>45403</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>139416</v>
+        <v>121354</v>
       </c>
       <c r="E176" t="n">
-        <v>303507</v>
+        <v>264185</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>9.289999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I176" t="n">
-        <v>48002</v>
+        <v>41157</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3033593</v>
+        <v>2963182</v>
       </c>
       <c r="F177" t="n">
-        <v>371.0036682808694</v>
+        <v>159.9392964191171</v>
       </c>
       <c r="G177" t="n">
-        <v>475.9719093327253</v>
+        <v>351.0834492040845</v>
       </c>
       <c r="H177" t="n">
-        <v>2.29</v>
+        <v>1.68</v>
       </c>
       <c r="I177" t="n">
-        <v>420860</v>
+        <v>375730</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>230623899</v>
+        <v>230671060</v>
       </c>
       <c r="E178" t="n">
-        <v>230626191</v>
+        <v>230673351</v>
       </c>
       <c r="F178" t="n">
-        <v>43384.92413029794</v>
+        <v>4906.826361525556</v>
       </c>
       <c r="G178" t="n">
-        <v>76005.7760912844</v>
+        <v>45177.38040391286</v>
       </c>
       <c r="H178" t="n">
-        <v>0.37</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I178" t="n">
-        <v>1951675</v>
+        <v>1947462</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9156551</v>
+        <v>9129448</v>
       </c>
       <c r="E179" t="n">
-        <v>9156551</v>
+        <v>9129448</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>194.8706366275322</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>957.5982924797123</v>
       </c>
       <c r="H179" t="n">
-        <v>4.6</v>
+        <v>1.38</v>
       </c>
       <c r="I179" t="n">
-        <v>2945369</v>
+        <v>2957092</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>194666</v>
+        <v>190418</v>
       </c>
       <c r="E180" t="n">
-        <v>1503214</v>
+        <v>1470411</v>
       </c>
       <c r="F180" t="n">
-        <v>553.112084094906</v>
+        <v>526.0156391865511</v>
       </c>
       <c r="G180" t="n">
-        <v>78.20726936696238</v>
+        <v>108.2679590497589</v>
       </c>
       <c r="H180" t="n">
-        <v>3.04</v>
+        <v>1.54</v>
       </c>
       <c r="I180" t="n">
-        <v>80068</v>
+        <v>55940</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>28719746</v>
+        <v>28912351</v>
       </c>
       <c r="E181" t="n">
-        <v>128590084</v>
+        <v>129452457</v>
       </c>
       <c r="F181" t="n">
-        <v>50559.8926420295</v>
+        <v>21888.39160343915</v>
       </c>
       <c r="G181" t="n">
-        <v>60836.26103027872</v>
+        <v>52424.60140538933</v>
       </c>
       <c r="H181" t="n">
         <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>14246726</v>
+        <v>14505721</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1296229</v>
+        <v>1313226</v>
       </c>
       <c r="F182" t="n">
-        <v>435.2620601553182</v>
+        <v>499.4924766714856</v>
       </c>
       <c r="G182" t="n">
-        <v>1442.464729466744</v>
+        <v>31.61004312101555</v>
       </c>
       <c r="H182" t="n">
-        <v>2.14</v>
+        <v>1.15</v>
       </c>
       <c r="I182" t="n">
-        <v>95754</v>
+        <v>95049</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2920014</v>
+        <v>2892440</v>
       </c>
       <c r="E183" t="n">
-        <v>2920014</v>
+        <v>2892440</v>
       </c>
       <c r="F183" t="n">
-        <v>383.276545037342</v>
+        <v>727.3237050362727</v>
       </c>
       <c r="G183" t="n">
-        <v>1469.549202312037</v>
+        <v>548.8498007424332</v>
       </c>
       <c r="H183" t="n">
-        <v>1.74</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>321783</v>
+        <v>315267</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>554295</v>
+        <v>551805</v>
       </c>
       <c r="E184" t="n">
-        <v>554295</v>
+        <v>551805</v>
       </c>
       <c r="F184" t="n">
-        <v>6.442949138090092</v>
+        <v>9.259700059830919</v>
       </c>
       <c r="G184" t="n">
-        <v>6.083468535382743</v>
+        <v>6.083299041507678</v>
       </c>
       <c r="H184" t="n">
         <v>3.64</v>
       </c>
       <c r="I184" t="n">
-        <v>1195278</v>
+        <v>1131568</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14516404</v>
+        <v>14105735</v>
       </c>
       <c r="E185" t="n">
-        <v>18481700</v>
+        <v>17958852</v>
       </c>
       <c r="F185" t="n">
-        <v>753.9958287560841</v>
+        <v>90.6735417828736</v>
       </c>
       <c r="G185" t="n">
-        <v>826.1586596370344</v>
+        <v>505.8934284103278</v>
       </c>
       <c r="H185" t="n">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="I185" t="n">
-        <v>938574</v>
+        <v>925876</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1741644</v>
+        <v>1742275</v>
       </c>
       <c r="E186" t="n">
-        <v>1741644</v>
+        <v>1742275</v>
       </c>
       <c r="F186" t="n">
-        <v>3.545002801265134</v>
+        <v>4.101890601950284</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8102780263531313</v>
+        <v>0.810255450882942</v>
       </c>
       <c r="H186" t="n">
         <v>3.53</v>
       </c>
       <c r="I186" t="n">
-        <v>3541.4</v>
+        <v>3520.14</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47586036</v>
+        <v>47448556</v>
       </c>
       <c r="E187" t="n">
-        <v>308582781</v>
+        <v>307691256</v>
       </c>
       <c r="F187" t="n">
-        <v>128070.213235103</v>
+        <v>165752.7824842059</v>
       </c>
       <c r="G187" t="n">
-        <v>214884.7628803033</v>
+        <v>191014.903055764</v>
       </c>
       <c r="H187" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I187" t="n">
-        <v>20956690</v>
+        <v>21340206</v>
       </c>
     </row>
     <row r="188">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8133512</v>
+        <v>8058146</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6989,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>4.73</v>
+        <v>4.37</v>
       </c>
       <c r="I188" t="n">
-        <v>311898</v>
+        <v>310736</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7069297</v>
+        <v>7053783</v>
       </c>
       <c r="E189" t="n">
-        <v>7079446</v>
+        <v>7063884</v>
       </c>
       <c r="F189" t="n">
-        <v>54.0469984423274</v>
+        <v>194.3613247872866</v>
       </c>
       <c r="G189" t="n">
-        <v>121.9222784835283</v>
+        <v>86.03764071255267</v>
       </c>
       <c r="H189" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="I189" t="n">
-        <v>805027</v>
+        <v>659958</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4473037</v>
+        <v>4494691</v>
       </c>
       <c r="F190" t="n">
-        <v>11.52464455383799</v>
+        <v>8.337858272809271</v>
       </c>
       <c r="G190" t="n">
-        <v>110.7352973715996</v>
+        <v>19.57472278522505</v>
       </c>
       <c r="H190" t="n">
-        <v>3.59</v>
+        <v>3.39</v>
       </c>
       <c r="I190" t="n">
-        <v>221380</v>
+        <v>246491</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>93570953</v>
+        <v>91059535</v>
       </c>
       <c r="E191" t="n">
-        <v>94578177</v>
+        <v>92039725</v>
       </c>
       <c r="F191" t="n">
-        <v>21442.54264394</v>
+        <v>9486.311877274991</v>
       </c>
       <c r="G191" t="n">
-        <v>29098.34240091655</v>
+        <v>20060.70129228693</v>
       </c>
       <c r="H191" t="n">
         <v>0.12</v>
       </c>
       <c r="I191" t="n">
-        <v>82122472</v>
+        <v>81161223</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>242493863</v>
+        <v>243437056</v>
       </c>
       <c r="E192" t="n">
-        <v>242493863</v>
+        <v>243437056</v>
       </c>
       <c r="F192" t="n">
-        <v>46264.73446708531</v>
+        <v>31946.99358063646</v>
       </c>
       <c r="G192" t="n">
-        <v>53615.44423269668</v>
+        <v>40106.29927715052</v>
       </c>
       <c r="H192" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I192" t="n">
-        <v>91660437</v>
+        <v>93546933</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>22781121</v>
+        <v>22653552</v>
       </c>
       <c r="E193" t="n">
-        <v>136304027</v>
+        <v>135540756</v>
       </c>
       <c r="F193" t="n">
-        <v>32502.05111882518</v>
+        <v>46628.59398874891</v>
       </c>
       <c r="G193" t="n">
-        <v>78138.27975774191</v>
+        <v>105428.8433000732</v>
       </c>
       <c r="H193" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I193" t="n">
-        <v>17909058</v>
+        <v>18012310</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13318925</v>
+        <v>13258376</v>
       </c>
       <c r="E194" t="n">
-        <v>40253487</v>
+        <v>40070493</v>
       </c>
       <c r="F194" t="n">
-        <v>670.6407264727264</v>
+        <v>638.8623393130522</v>
       </c>
       <c r="G194" t="n">
-        <v>1762.922256062151</v>
+        <v>773.0729238233929</v>
       </c>
       <c r="H194" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="I194" t="n">
-        <v>2390796</v>
+        <v>2412955</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52211529</v>
+        <v>52155408</v>
       </c>
       <c r="E195" t="n">
-        <v>90180662</v>
+        <v>90083728</v>
       </c>
       <c r="F195" t="n">
-        <v>7776.854208789785</v>
+        <v>7808.803124992721</v>
       </c>
       <c r="G195" t="n">
-        <v>8921.890701043059</v>
+        <v>9106.633160715059</v>
       </c>
       <c r="H195" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I195" t="n">
-        <v>2255954</v>
+        <v>2296000</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4102694</v>
+        <v>4092191</v>
       </c>
       <c r="E196" t="n">
-        <v>4102694</v>
+        <v>4092191</v>
       </c>
       <c r="F196" t="n">
-        <v>275.4547770512634</v>
+        <v>250.1177008421493</v>
       </c>
       <c r="G196" t="n">
-        <v>21.03360090950497</v>
+        <v>21.03301488419654</v>
       </c>
       <c r="H196" t="n">
-        <v>1.3</v>
+        <v>2.12</v>
       </c>
       <c r="I196" t="n">
-        <v>1752379</v>
+        <v>1747741</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>193033</v>
+        <v>188562</v>
       </c>
       <c r="F197" t="n">
-        <v>4.865880385923946</v>
+        <v>3.028477659182121</v>
       </c>
       <c r="G197" t="n">
-        <v>319.7159678943901</v>
+        <v>153.6682053965822</v>
       </c>
       <c r="H197" t="n">
-        <v>2.04</v>
+        <v>3.69</v>
       </c>
       <c r="I197" t="n">
-        <v>61577</v>
+        <v>62801</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6300346</v>
+        <v>6282867</v>
       </c>
       <c r="E198" t="n">
-        <v>32413368</v>
+        <v>32323440</v>
       </c>
       <c r="F198" t="n">
-        <v>187.9247967267884</v>
+        <v>249.7487598370717</v>
       </c>
       <c r="G198" t="n">
-        <v>750.1884292322678</v>
+        <v>622.651107446413</v>
       </c>
       <c r="H198" t="n">
-        <v>1.19</v>
+        <v>1.89</v>
       </c>
       <c r="I198" t="n">
-        <v>950901</v>
+        <v>951319</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>159533100</v>
+        <v>164545539</v>
       </c>
       <c r="E199" t="n">
-        <v>186381766</v>
+        <v>192237775</v>
       </c>
       <c r="F199" t="n">
-        <v>22453.42771044938</v>
+        <v>11268.57170177424</v>
       </c>
       <c r="G199" t="n">
-        <v>4396.137857550216</v>
+        <v>5545.105742078706</v>
       </c>
       <c r="H199" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I199" t="n">
-        <v>6915153</v>
+        <v>7294442</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>293102</v>
+        <v>300158</v>
       </c>
       <c r="F200" t="n">
-        <v>32.33714834461443</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>8.121117601547786</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>2.69</v>
+        <v>4.89</v>
       </c>
       <c r="I200" t="n">
-        <v>258380</v>
+        <v>259411</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7587064</v>
+        <v>7594277</v>
       </c>
       <c r="F201" t="n">
-        <v>934.3195198787155</v>
+        <v>945.6780159773268</v>
       </c>
       <c r="G201" t="n">
-        <v>378.816193266995</v>
+        <v>387.9175811213889</v>
       </c>
       <c r="H201" t="n">
         <v>0.32</v>
       </c>
       <c r="I201" t="n">
-        <v>652306</v>
+        <v>657519</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33972</v>
+        <v>33986</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>246.29</v>
+        <v>245.88</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32194902</v>
+        <v>32054684</v>
       </c>
       <c r="E203" t="n">
-        <v>160667405</v>
+        <v>159967649</v>
       </c>
       <c r="F203" t="n">
-        <v>138739.6678468376</v>
+        <v>119906.0386725098</v>
       </c>
       <c r="G203" t="n">
-        <v>114974.8077685764</v>
+        <v>108319.9252122497</v>
       </c>
       <c r="H203" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I203" t="n">
-        <v>13926624</v>
+        <v>14030576</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1913879</v>
+        <v>1916830</v>
       </c>
       <c r="E204" t="n">
-        <v>1913879</v>
+        <v>1916830</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>17.41</v>
+        <v>16.2</v>
       </c>
       <c r="I204" t="n">
-        <v>7560.31</v>
+        <v>5305.48</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>163068</v>
+        <v>151664</v>
       </c>
       <c r="F205" t="n">
-        <v>18.55536905523256</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>72.06627761653026</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>3.49</v>
+        <v>4.32</v>
       </c>
       <c r="I205" t="n">
-        <v>23484</v>
+        <v>30050</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3085.51</v>
+        <v>3081.01</v>
       </c>
       <c r="E206" t="n">
-        <v>36879</v>
+        <v>36825</v>
       </c>
       <c r="F206" t="n">
-        <v>2.377835012078322</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>20.87672618689643</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>1.94</v>
+        <v>6.14</v>
       </c>
       <c r="I206" t="n">
-        <v>3807.41</v>
+        <v>3838.24</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>290134678</v>
+        <v>286836510</v>
       </c>
       <c r="E208" t="n">
-        <v>536815318</v>
+        <v>530712955</v>
       </c>
       <c r="F208" t="n">
-        <v>63848.32974854613</v>
+        <v>53082.28746800053</v>
       </c>
       <c r="G208" t="n">
-        <v>99648.87674718525</v>
+        <v>52579.71051873598</v>
       </c>
       <c r="H208" t="n">
         <v>0.04</v>
       </c>
       <c r="I208" t="n">
-        <v>17197775</v>
+        <v>17349172</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>69198362</v>
+        <v>68609219</v>
       </c>
       <c r="E209" t="n">
-        <v>660032117</v>
+        <v>654405242</v>
       </c>
       <c r="F209" t="n">
-        <v>128363.0419061214</v>
+        <v>266984.5366173427</v>
       </c>
       <c r="G209" t="n">
-        <v>199009.8739057801</v>
+        <v>340952.9930265804</v>
       </c>
       <c r="H209" t="n">
         <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>23990638</v>
+        <v>23792371</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2243911</v>
+        <v>2241675</v>
       </c>
       <c r="F210" t="n">
-        <v>876.0171639837221</v>
+        <v>1244.248607680106</v>
       </c>
       <c r="G210" t="n">
-        <v>116.209208800008</v>
+        <v>109.7400019502902</v>
       </c>
       <c r="H210" t="n">
-        <v>3.01</v>
+        <v>2.46</v>
       </c>
       <c r="I210" t="n">
-        <v>44926</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81412</v>
+        <v>76034</v>
       </c>
       <c r="E211" t="n">
-        <v>676799</v>
+        <v>632088</v>
       </c>
       <c r="F211" t="n">
-        <v>67.48699089262928</v>
+        <v>326.4556630931267</v>
       </c>
       <c r="G211" t="n">
-        <v>36.72416007688058</v>
+        <v>36.72313689082089</v>
       </c>
       <c r="H211" t="n">
         <v>1.49</v>
       </c>
       <c r="I211" t="n">
-        <v>115.82</v>
+        <v>125.04</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1837580</v>
+        <v>1835565</v>
       </c>
       <c r="E212" t="n">
-        <v>5247891</v>
+        <v>5242139</v>
       </c>
       <c r="F212" t="n">
-        <v>89.29551426858862</v>
+        <v>101.5472901833043</v>
       </c>
       <c r="G212" t="n">
-        <v>536.6954699492757</v>
+        <v>888.3200914349483</v>
       </c>
       <c r="H212" t="n">
         <v>1.2</v>
       </c>
       <c r="I212" t="n">
-        <v>73179</v>
+        <v>73006</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>8988627</v>
+        <v>8795279</v>
       </c>
       <c r="E213" t="n">
-        <v>26647129</v>
+        <v>26073944</v>
       </c>
       <c r="F213" t="n">
-        <v>1847.67286200704</v>
+        <v>2463.532189262884</v>
       </c>
       <c r="G213" t="n">
-        <v>1023.851867503801</v>
+        <v>2549.234280951856</v>
       </c>
       <c r="H213" t="n">
-        <v>0.75</v>
+        <v>0.48</v>
       </c>
       <c r="I213" t="n">
-        <v>6495533</v>
+        <v>6440767</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14548264</v>
+        <v>14546967</v>
       </c>
       <c r="F214" t="n">
-        <v>133.4294931933035</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>290.8990316784929</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>2.34</v>
+        <v>4.93</v>
       </c>
       <c r="I214" t="n">
-        <v>410.54</v>
+        <v>409.86</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1929035</v>
+        <v>1945637</v>
       </c>
       <c r="E215" t="n">
-        <v>5580219</v>
+        <v>5628243</v>
       </c>
       <c r="F215" t="n">
-        <v>151.8154426272788</v>
+        <v>127.1891708377753</v>
       </c>
       <c r="G215" t="n">
-        <v>96.13572841911179</v>
+        <v>92.29645956242661</v>
       </c>
       <c r="H215" t="n">
-        <v>0.12</v>
+        <v>1.57</v>
       </c>
       <c r="I215" t="n">
-        <v>43508</v>
+        <v>53224</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2317070</v>
+        <v>2287300</v>
       </c>
       <c r="E216" t="n">
-        <v>20438095</v>
+        <v>20175501</v>
       </c>
       <c r="F216" t="n">
-        <v>3217.078931882956</v>
+        <v>1949.687383237626</v>
       </c>
       <c r="G216" t="n">
-        <v>1391.448839179296</v>
+        <v>1367.383128805375</v>
       </c>
       <c r="H216" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="I216" t="n">
-        <v>101554</v>
+        <v>90917</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43630509</v>
+        <v>43278648</v>
       </c>
       <c r="E217" t="n">
-        <v>43630509</v>
+        <v>43278648</v>
       </c>
       <c r="F217" t="n">
-        <v>98102.06941323975</v>
+        <v>37299.9838274898</v>
       </c>
       <c r="G217" t="n">
-        <v>48014.1394403514</v>
+        <v>32082.75116732615</v>
       </c>
       <c r="H217" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I217" t="n">
-        <v>11168560</v>
+        <v>9978593</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8207386</v>
+        <v>8224425</v>
       </c>
       <c r="E218" t="n">
-        <v>11693644</v>
+        <v>11717922</v>
       </c>
       <c r="F218" t="n">
-        <v>2197.694348172902</v>
+        <v>2256.730262448268</v>
       </c>
       <c r="G218" t="n">
-        <v>2637.602594989125</v>
+        <v>1691.578796724603</v>
       </c>
       <c r="H218" t="n">
-        <v>0.85</v>
+        <v>1.07</v>
       </c>
       <c r="I218" t="n">
-        <v>308609</v>
+        <v>311051</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15863541</v>
+        <v>15770265</v>
       </c>
       <c r="F219" t="n">
-        <v>169.9082731230786</v>
+        <v>2.122521059163384</v>
       </c>
       <c r="G219" t="n">
-        <v>2.079841109163454</v>
+        <v>412.7330103477984</v>
       </c>
       <c r="H219" t="n">
-        <v>1.86</v>
+        <v>0.54</v>
       </c>
       <c r="I219" t="n">
-        <v>1108034</v>
+        <v>1110414</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>716204</v>
+        <v>716844</v>
       </c>
       <c r="F220" t="n">
-        <v>84.13263975710827</v>
+        <v>84.13050622758047</v>
       </c>
       <c r="G220" t="n">
-        <v>258.2797383889394</v>
+        <v>258.2022691210606</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>211838</v>
+        <v>210735</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2654722</v>
+        <v>2580875</v>
       </c>
       <c r="E221" t="n">
-        <v>2657021</v>
+        <v>2583110</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>278.3257285009151</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>18.69704126670149</v>
       </c>
       <c r="H221" t="n">
-        <v>4.85</v>
+        <v>3.1</v>
       </c>
       <c r="I221" t="n">
-        <v>52064</v>
+        <v>66464</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1295675</v>
+        <v>1313894</v>
       </c>
       <c r="E222" t="n">
-        <v>3922877</v>
+        <v>3977606</v>
       </c>
       <c r="F222" t="n">
-        <v>93.61826969663213</v>
+        <v>278.1561480643794</v>
       </c>
       <c r="G222" t="n">
-        <v>774.2412733588542</v>
+        <v>403.6873005857111</v>
       </c>
       <c r="H222" t="n">
-        <v>1.52</v>
+        <v>2.01</v>
       </c>
       <c r="I222" t="n">
-        <v>46169</v>
+        <v>29250</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33074038</v>
+        <v>33097094</v>
       </c>
       <c r="E223" t="n">
-        <v>234489535</v>
+        <v>234652999</v>
       </c>
       <c r="F223" t="n">
-        <v>306.218878346555</v>
+        <v>26105.84950023609</v>
       </c>
       <c r="G223" t="n">
-        <v>26134.62306432867</v>
+        <v>27085.86913883593</v>
       </c>
       <c r="H223" t="n">
-        <v>1.08</v>
+        <v>0.34</v>
       </c>
       <c r="I223" t="n">
-        <v>6132266</v>
+        <v>6310353</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>57140</v>
+        <v>57295</v>
       </c>
       <c r="E224" t="n">
-        <v>298132</v>
+        <v>298943</v>
       </c>
       <c r="F224" t="n">
-        <v>17.61102586737658</v>
+        <v>17.56178350909485</v>
       </c>
       <c r="G224" t="n">
-        <v>148.5511049830205</v>
+        <v>149.4964634149416</v>
       </c>
       <c r="H224" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="I224" t="n">
-        <v>205011</v>
+        <v>206945</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1275068</v>
+        <v>1256538</v>
       </c>
       <c r="E225" t="n">
-        <v>7905542</v>
+        <v>7790653</v>
       </c>
       <c r="F225" t="n">
-        <v>1136.396929555955</v>
+        <v>945.8794761607097</v>
       </c>
       <c r="G225" t="n">
-        <v>1802.241222592408</v>
+        <v>1634.779906450071</v>
       </c>
       <c r="H225" t="n">
         <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>781483</v>
+        <v>778322</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>576484279</v>
+        <v>572957303</v>
       </c>
       <c r="E226" t="n">
-        <v>2232638558</v>
+        <v>2218979099</v>
       </c>
       <c r="F226" t="n">
-        <v>186345.9526321123</v>
+        <v>241284.7663157477</v>
       </c>
       <c r="G226" t="n">
-        <v>382554.7320435705</v>
+        <v>240927.9286584267</v>
       </c>
       <c r="H226" t="n">
         <v>0.09</v>
       </c>
       <c r="I226" t="n">
-        <v>60172835</v>
+        <v>60999454</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20835521</v>
+        <v>20901112</v>
       </c>
       <c r="F227" t="n">
-        <v>1638.514611332903</v>
+        <v>1541.571410983942</v>
       </c>
       <c r="G227" t="n">
-        <v>2448.569036084664</v>
+        <v>2398.147134681594</v>
       </c>
       <c r="H227" t="n">
         <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>18698412</v>
+        <v>18852755</v>
       </c>
     </row>
     <row r="228">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>753775</v>
+        <v>759613</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>6.17</v>
+        <v>4.37</v>
       </c>
       <c r="I228" t="n">
-        <v>143793</v>
+        <v>143293</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5453241</v>
+        <v>5433534</v>
       </c>
       <c r="E229" t="n">
-        <v>24409979</v>
+        <v>24321769</v>
       </c>
       <c r="F229" t="n">
-        <v>505.7619454649906</v>
+        <v>92.50232603762943</v>
       </c>
       <c r="G229" t="n">
-        <v>850.8263504410685</v>
+        <v>608.0414887462109</v>
       </c>
       <c r="H229" t="n">
-        <v>0.82</v>
+        <v>1.23</v>
       </c>
       <c r="I229" t="n">
-        <v>194370</v>
+        <v>191648</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6391291</v>
+        <v>6408527</v>
       </c>
       <c r="E230" t="n">
-        <v>12236645</v>
+        <v>12269644</v>
       </c>
       <c r="F230" t="n">
-        <v>74.85375354552184</v>
+        <v>74.85185532036314</v>
       </c>
       <c r="G230" t="n">
-        <v>95.25615797244332</v>
+        <v>105.2469592983511</v>
       </c>
       <c r="H230" t="n">
         <v>2.5</v>
       </c>
       <c r="I230" t="n">
-        <v>36311</v>
+        <v>35870</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3186061</v>
+        <v>3173307</v>
       </c>
       <c r="E231" t="n">
-        <v>20950793</v>
+        <v>20866930</v>
       </c>
       <c r="F231" t="n">
-        <v>241.460290491323</v>
+        <v>894.6779283849909</v>
       </c>
       <c r="G231" t="n">
-        <v>218.1359420129482</v>
+        <v>254.525623725889</v>
       </c>
       <c r="H231" t="n">
-        <v>1.2</v>
+        <v>0.74</v>
       </c>
       <c r="I231" t="n">
-        <v>1546701</v>
+        <v>1635582</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>107909075</v>
+        <v>106668954</v>
       </c>
       <c r="E232" t="n">
-        <v>1021598205</v>
+        <v>1009857716</v>
       </c>
       <c r="F232" t="n">
-        <v>23810.4727844389</v>
+        <v>20809.4883736414</v>
       </c>
       <c r="G232" t="n">
-        <v>24496.32225792368</v>
+        <v>25185.88611719281</v>
       </c>
       <c r="H232" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I232" t="n">
-        <v>16094468</v>
+        <v>16232893</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>350.31</v>
+        <v>349.73</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>96530665</v>
+        <v>97740177</v>
       </c>
       <c r="E234" t="n">
-        <v>147259792</v>
+        <v>149104931</v>
       </c>
       <c r="F234" t="n">
-        <v>33032.3192083234</v>
+        <v>5480.308489301967</v>
       </c>
       <c r="G234" t="n">
-        <v>21002.06265033593</v>
+        <v>4828.397712639651</v>
       </c>
       <c r="H234" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I234" t="n">
-        <v>12876361</v>
+        <v>13183195</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15454863</v>
+        <v>15580552</v>
       </c>
       <c r="E235" t="n">
-        <v>21202733</v>
+        <v>21375168</v>
       </c>
       <c r="F235" t="n">
-        <v>1051.904737572393</v>
+        <v>587.6919843965031</v>
       </c>
       <c r="G235" t="n">
-        <v>1330.131191915176</v>
+        <v>2799.824169654856</v>
       </c>
       <c r="H235" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="I235" t="n">
-        <v>930942</v>
+        <v>942896</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>119777990</v>
+        <v>120865969</v>
       </c>
       <c r="E236" t="n">
-        <v>459487650</v>
+        <v>463661313</v>
       </c>
       <c r="F236" t="n">
-        <v>362620.044541929</v>
+        <v>407643.7083122726</v>
       </c>
       <c r="G236" t="n">
-        <v>426310.5673648697</v>
+        <v>371760.7426774635</v>
       </c>
       <c r="H236" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>39623860</v>
+        <v>39635482</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>726533</v>
+        <v>724498</v>
       </c>
       <c r="F237" t="n">
-        <v>278.2549171619125</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>100.2469971618076</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>3.84</v>
+        <v>4.2</v>
       </c>
       <c r="I237" t="n">
-        <v>46672</v>
+        <v>45750</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>775348</v>
+        <v>777578</v>
       </c>
       <c r="F238" t="n">
-        <v>250.0113453956762</v>
+        <v>232.2269933447748</v>
       </c>
       <c r="G238" t="n">
-        <v>156.7064915796722</v>
+        <v>139.3300577366352</v>
       </c>
       <c r="H238" t="n">
-        <v>1.65</v>
+        <v>1.12</v>
       </c>
       <c r="I238" t="n">
-        <v>264789</v>
+        <v>270455</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3041025</v>
+        <v>3094788</v>
       </c>
       <c r="E239" t="n">
-        <v>28814164</v>
+        <v>29323571</v>
       </c>
       <c r="F239" t="n">
-        <v>299.6106230907275</v>
+        <v>909.6668720045677</v>
       </c>
       <c r="G239" t="n">
-        <v>1021.559486999457</v>
+        <v>836.1690468113832</v>
       </c>
       <c r="H239" t="n">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="I239" t="n">
-        <v>257480</v>
+        <v>265199</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>718933</v>
+        <v>724301</v>
       </c>
       <c r="E240" t="n">
-        <v>768535</v>
+        <v>774274</v>
       </c>
       <c r="F240" t="n">
-        <v>50.16211876355715</v>
+        <v>25.39129609893192</v>
       </c>
       <c r="G240" t="n">
-        <v>769.7029371497125</v>
+        <v>769.6834181622093</v>
       </c>
       <c r="H240" t="n">
-        <v>1.73</v>
+        <v>2.65</v>
       </c>
       <c r="I240" t="n">
-        <v>126465</v>
+        <v>126657</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383771</v>
+        <v>383931</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.74</v>
+        <v>12.61</v>
       </c>
       <c r="I241" t="n">
-        <v>700.23</v>
+        <v>699.08</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>129279</v>
+        <v>133583</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>7.14</v>
+        <v>4.44</v>
       </c>
       <c r="I242" t="n">
-        <v>65022</v>
+        <v>64423</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>559355</v>
+        <v>559558</v>
       </c>
       <c r="F243" t="n">
-        <v>118.357472183072</v>
+        <v>111.5034871580505</v>
       </c>
       <c r="G243" t="n">
-        <v>3.250131113069864</v>
+        <v>3.215837653742296</v>
       </c>
       <c r="H243" t="n">
-        <v>2.06</v>
+        <v>3.09</v>
       </c>
       <c r="I243" t="n">
-        <v>8132.19</v>
+        <v>8118.49</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6578586</v>
+        <v>6580882</v>
       </c>
       <c r="E244" t="n">
-        <v>41114277</v>
+        <v>41128631</v>
       </c>
       <c r="F244" t="n">
-        <v>20.57307521023668</v>
+        <v>272.1003777163649</v>
       </c>
       <c r="G244" t="n">
-        <v>95.97158296149459</v>
+        <v>37.54287866717432</v>
       </c>
       <c r="H244" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>417555</v>
+        <v>418902</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5120149</v>
+        <v>5126188</v>
       </c>
       <c r="E245" t="n">
-        <v>19026570</v>
+        <v>19049010</v>
       </c>
       <c r="F245" t="n">
-        <v>945.8473806555638</v>
+        <v>945.8233948003567</v>
       </c>
       <c r="G245" t="n">
-        <v>5388.71642608939</v>
+        <v>5388.579772994406</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>91152</v>
+        <v>138603</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3512502</v>
+        <v>3597620</v>
       </c>
       <c r="F246" t="n">
-        <v>173.4853337198903</v>
+        <v>215.4939107946963</v>
       </c>
       <c r="G246" t="n">
-        <v>5943.108255989357</v>
+        <v>5904.603123015364</v>
       </c>
       <c r="H246" t="n">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="I246" t="n">
-        <v>30075</v>
+        <v>30128</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>44019425</v>
+        <v>43947109</v>
       </c>
       <c r="E247" t="n">
-        <v>157781476</v>
+        <v>157522271</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>529.5339252437237</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>32.12344398280692</v>
       </c>
       <c r="H247" t="n">
-        <v>4.85</v>
+        <v>1.01</v>
       </c>
       <c r="I247" t="n">
-        <v>164900</v>
+        <v>176785</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1530079</v>
+        <v>1508264</v>
       </c>
       <c r="F248" t="n">
-        <v>35.66934026402099</v>
+        <v>159.1592304868421</v>
       </c>
       <c r="G248" t="n">
-        <v>124.5787508726815</v>
+        <v>18.29721473120036</v>
       </c>
       <c r="H248" t="n">
-        <v>1.29</v>
+        <v>3.82</v>
       </c>
       <c r="I248" t="n">
-        <v>604155</v>
+        <v>600390</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2122487</v>
+        <v>2131075</v>
       </c>
       <c r="E249" t="n">
-        <v>16325566</v>
+        <v>16391624</v>
       </c>
       <c r="F249" t="n">
-        <v>216.4357273865786</v>
+        <v>977.7120905371364</v>
       </c>
       <c r="G249" t="n">
-        <v>167.4275937193976</v>
+        <v>137.6990457090301</v>
       </c>
       <c r="H249" t="n">
-        <v>1.03</v>
+        <v>0.06</v>
       </c>
       <c r="I249" t="n">
-        <v>213740</v>
+        <v>194227</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103349</v>
+        <v>103309</v>
       </c>
       <c r="E250" t="n">
-        <v>820905</v>
+        <v>820583</v>
       </c>
       <c r="F250" t="n">
-        <v>158.1627694068434</v>
+        <v>158.1587585385324</v>
       </c>
       <c r="G250" t="n">
-        <v>346.9742522247791</v>
+        <v>346.9654532638213</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>194.55</v>
+        <v>71.04000000000001</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88941865</v>
+        <v>89375347</v>
       </c>
       <c r="E251" t="n">
-        <v>328766581</v>
+        <v>330367977</v>
       </c>
       <c r="F251" t="n">
-        <v>1409.047645528673</v>
+        <v>1442.57615385865</v>
       </c>
       <c r="G251" t="n">
-        <v>5405.209943018435</v>
+        <v>5983.104274158831</v>
       </c>
       <c r="H251" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="I251" t="n">
-        <v>250771</v>
+        <v>271335</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2272751</v>
+        <v>2269930</v>
       </c>
       <c r="E252" t="n">
-        <v>9111111</v>
+        <v>9099801</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>5.91</v>
+        <v>6.87</v>
       </c>
       <c r="I252" t="n">
-        <v>9895.870000000001</v>
+        <v>9871.98</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>574903</v>
+        <v>563095</v>
       </c>
       <c r="F253" t="n">
-        <v>398.5546983553571</v>
+        <v>384.7195939830506</v>
       </c>
       <c r="G253" t="n">
-        <v>15.71984822393313</v>
+        <v>10.99262217577811</v>
       </c>
       <c r="H253" t="n">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="I253" t="n">
-        <v>2300.68</v>
+        <v>2311.75</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37988</v>
+        <v>37984</v>
       </c>
       <c r="F254" t="n">
-        <v>95.3436597011123</v>
+        <v>95.3411904038321</v>
       </c>
       <c r="G254" t="n">
-        <v>1.028747174186655</v>
+        <v>1.028720530751662</v>
       </c>
       <c r="H254" t="n">
         <v>3.31</v>
       </c>
       <c r="I254" t="n">
-        <v>371.28</v>
+        <v>370.67</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>753508133</v>
+        <v>748613750</v>
       </c>
       <c r="E255" t="n">
-        <v>1161976069</v>
+        <v>1154428498</v>
       </c>
       <c r="F255" t="n">
-        <v>60616.62216406189</v>
+        <v>43606.0101690533</v>
       </c>
       <c r="G255" t="n">
-        <v>109943.8647097576</v>
+        <v>77185.0214961731</v>
       </c>
       <c r="H255" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I255" t="n">
-        <v>269976031</v>
+        <v>380131497</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>9683358</v>
+        <v>8811392</v>
       </c>
       <c r="E256" t="n">
-        <v>9683358</v>
+        <v>8811392</v>
       </c>
       <c r="F256" t="n">
-        <v>58.8519942466198</v>
+        <v>75.38887449379683</v>
       </c>
       <c r="G256" t="n">
-        <v>22.45620161486669</v>
+        <v>0.06795439163208288</v>
       </c>
       <c r="H256" t="n">
-        <v>0.11</v>
+        <v>0.7</v>
       </c>
       <c r="I256" t="n">
-        <v>48729</v>
+        <v>61795</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39846028</v>
+        <v>39574036</v>
       </c>
       <c r="E257" t="n">
-        <v>190018204</v>
+        <v>188721124</v>
       </c>
       <c r="F257" t="n">
-        <v>622.8418095386124</v>
+        <v>687.1423536925962</v>
       </c>
       <c r="G257" t="n">
-        <v>296.5371448977967</v>
+        <v>177.551632599088</v>
       </c>
       <c r="H257" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="I257" t="n">
-        <v>271428</v>
+        <v>271081</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>594639</v>
+        <v>595272</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>7.92</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>221.32</v>
+        <v>219.17</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23663568</v>
+        <v>22692015</v>
       </c>
       <c r="E259" t="n">
-        <v>39439280</v>
+        <v>37820024</v>
       </c>
       <c r="F259" t="n">
-        <v>64.36415157638686</v>
+        <v>2744.67551460606</v>
       </c>
       <c r="G259" t="n">
-        <v>1189.60718315581</v>
+        <v>371.5398697628486</v>
       </c>
       <c r="H259" t="n">
-        <v>0.36</v>
+        <v>1.19</v>
       </c>
       <c r="I259" t="n">
-        <v>492558</v>
+        <v>1138232</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107869</v>
+        <v>107933</v>
       </c>
       <c r="F260" t="n">
-        <v>230.7763036910565</v>
+        <v>230.7704514075711</v>
       </c>
       <c r="G260" t="n">
-        <v>108.1974685052022</v>
+        <v>108.1947247128458</v>
       </c>
       <c r="H260" t="n">
         <v>0.02</v>
       </c>
       <c r="I260" t="n">
-        <v>55900</v>
+        <v>55766</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1264619</v>
+        <v>1221687</v>
       </c>
       <c r="E261" t="n">
-        <v>5385572</v>
+        <v>5202678</v>
       </c>
       <c r="F261" t="n">
-        <v>236.024419896703</v>
+        <v>3.115895131310415</v>
       </c>
       <c r="G261" t="n">
-        <v>2.385982767377636</v>
+        <v>137.2904284571767</v>
       </c>
       <c r="H261" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="I261" t="n">
-        <v>866189</v>
+        <v>868900</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3813944</v>
+        <v>3800413</v>
       </c>
       <c r="E262" t="n">
-        <v>8313863</v>
+        <v>8284366</v>
       </c>
       <c r="F262" t="n">
-        <v>1742.090859113566</v>
+        <v>1664.689256947069</v>
       </c>
       <c r="G262" t="n">
-        <v>2638.942651200508</v>
+        <v>1650.790574207108</v>
       </c>
       <c r="H262" t="n">
         <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>2031342</v>
+        <v>2036624</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>466136834</v>
+        <v>463832283</v>
       </c>
       <c r="E263" t="n">
-        <v>1622583526</v>
+        <v>1614561575</v>
       </c>
       <c r="F263" t="n">
-        <v>382313.6411964979</v>
+        <v>388002.9097794443</v>
       </c>
       <c r="G263" t="n">
-        <v>627144.8729284849</v>
+        <v>553023.2591162527</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>46911324</v>
+        <v>47205964</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5540837581</v>
+        <v>5504144575</v>
       </c>
       <c r="E264" t="n">
-        <v>5540834899</v>
+        <v>5504144575</v>
       </c>
       <c r="F264" t="n">
-        <v>1480.148885592279</v>
+        <v>1977.248030292403</v>
       </c>
       <c r="G264" t="n">
-        <v>762.7140774526421</v>
+        <v>802.8459380817618</v>
       </c>
       <c r="H264" t="n">
         <v>0.15</v>
       </c>
       <c r="I264" t="n">
-        <v>35283891</v>
+        <v>35738649</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22225443</v>
+        <v>22249263</v>
       </c>
       <c r="E265" t="n">
-        <v>22206137</v>
+        <v>22229936</v>
       </c>
       <c r="F265" t="n">
-        <v>328.0255604433854</v>
+        <v>666.1984482347199</v>
       </c>
       <c r="G265" t="n">
-        <v>449.2562076166541</v>
+        <v>432.4559229831348</v>
       </c>
       <c r="H265" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="I265" t="n">
-        <v>407241</v>
+        <v>406807</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11878309</v>
+        <v>11874778</v>
       </c>
       <c r="E266" t="n">
-        <v>23980364</v>
+        <v>23970264</v>
       </c>
       <c r="F266" t="n">
-        <v>686.6143411444856</v>
+        <v>692.3666773779443</v>
       </c>
       <c r="G266" t="n">
-        <v>705.3983727927746</v>
+        <v>521.1034920254937</v>
       </c>
       <c r="H266" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="I266" t="n">
-        <v>68196</v>
+        <v>66599</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>145541</v>
+        <v>144740</v>
       </c>
       <c r="F267" t="n">
-        <v>163.1760861805139</v>
+        <v>163.1719481789119</v>
       </c>
       <c r="G267" t="n">
-        <v>116.1483894762338</v>
+        <v>116.1454440555354</v>
       </c>
       <c r="H267" t="n">
         <v>0.79</v>
       </c>
       <c r="I267" t="n">
-        <v>55498</v>
+        <v>54752</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>45662</v>
+        <v>45681</v>
       </c>
       <c r="F268" t="n">
-        <v>81.8644622927964</v>
+        <v>64.34760454452885</v>
       </c>
       <c r="G268" t="n">
-        <v>42.50631485726017</v>
+        <v>146.5498266520724</v>
       </c>
       <c r="H268" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="I268" t="n">
-        <v>69455</v>
+        <v>68873</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2355947</v>
+        <v>2360569</v>
       </c>
       <c r="E269" t="n">
-        <v>9423787</v>
+        <v>9442274</v>
       </c>
       <c r="F269" t="n">
-        <v>30917.36922697613</v>
+        <v>27710.21693086749</v>
       </c>
       <c r="G269" t="n">
-        <v>12611.37196227419</v>
+        <v>14888.67835417013</v>
       </c>
       <c r="H269" t="n">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="I269" t="n">
-        <v>7460557</v>
+        <v>7507045</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>209509853</v>
+        <v>207944683</v>
       </c>
       <c r="E270" t="n">
-        <v>644163954</v>
+        <v>639351646</v>
       </c>
       <c r="F270" t="n">
-        <v>167945.920665515</v>
+        <v>163617.8580713826</v>
       </c>
       <c r="G270" t="n">
-        <v>228402.5971777374</v>
+        <v>198027.2595126706</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I270" t="n">
-        <v>22415671</v>
+        <v>22566567</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>134899252</v>
+        <v>134085123</v>
       </c>
       <c r="E271" t="n">
-        <v>352420553</v>
+        <v>350293663</v>
       </c>
       <c r="F271" t="n">
-        <v>58217.61950850704</v>
+        <v>54779.51680315637</v>
       </c>
       <c r="G271" t="n">
-        <v>60272.38318930536</v>
+        <v>56194.56242308844</v>
       </c>
       <c r="H271" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I271" t="n">
-        <v>9416461</v>
+        <v>8868834</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2388217</v>
+        <v>2321686</v>
       </c>
       <c r="E272" t="n">
-        <v>3277803</v>
+        <v>3186489</v>
       </c>
       <c r="F272" t="n">
-        <v>14.40308121943224</v>
+        <v>21.30124682432734</v>
       </c>
       <c r="G272" t="n">
-        <v>35.44132409419227</v>
+        <v>24.31881674772672</v>
       </c>
       <c r="H272" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="I272" t="n">
-        <v>1000847</v>
+        <v>967571</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54489</v>
+        <v>54577</v>
       </c>
       <c r="F2" t="n">
-        <v>1.864605879408673</v>
+        <v>1.864383207388837</v>
       </c>
       <c r="G2" t="n">
-        <v>9.051080599557139</v>
+        <v>9.049999715697954</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>472.96</v>
+        <v>472.68</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93743</v>
+        <v>93989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>879.98</v>
+        <v>824.14</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>581018232</v>
+        <v>580230194</v>
       </c>
       <c r="E4" t="n">
-        <v>1127497495</v>
+        <v>1125968267</v>
       </c>
       <c r="F4" t="n">
-        <v>14964.04753092541</v>
+        <v>15949.68983027868</v>
       </c>
       <c r="G4" t="n">
-        <v>18096.89948175156</v>
+        <v>19539.36293217523</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I4" t="n">
-        <v>46637232</v>
+        <v>45744897</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1444736</v>
+        <v>1446247</v>
       </c>
       <c r="E5" t="n">
-        <v>4669981</v>
+        <v>4674865</v>
       </c>
       <c r="F5" t="n">
-        <v>209.1429976023448</v>
+        <v>214.2947254218153</v>
       </c>
       <c r="G5" t="n">
-        <v>4703.097086072374</v>
+        <v>4168.614134939768</v>
       </c>
       <c r="H5" t="n">
         <v>0.43</v>
       </c>
       <c r="I5" t="n">
-        <v>184582</v>
+        <v>222724</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>138663937</v>
+        <v>138266723</v>
       </c>
       <c r="E6" t="n">
-        <v>153661313</v>
+        <v>153221138</v>
       </c>
       <c r="F6" t="n">
-        <v>126031.2042418834</v>
+        <v>149614.5558880144</v>
       </c>
       <c r="G6" t="n">
-        <v>327079.0293717912</v>
+        <v>282262.8712053697</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>52646571</v>
+        <v>52536379</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3819.84</v>
+        <v>3819.83</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.91</v>
+        <v>153.81</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8180894</v>
+        <v>8211110</v>
       </c>
       <c r="E8" t="n">
-        <v>8387186</v>
+        <v>8418163</v>
       </c>
       <c r="F8" t="n">
-        <v>159.5950949957299</v>
+        <v>2549.160149795412</v>
       </c>
       <c r="G8" t="n">
-        <v>2502.818397174571</v>
+        <v>804.7156851213721</v>
       </c>
       <c r="H8" t="n">
-        <v>1.44</v>
+        <v>0.85</v>
       </c>
       <c r="I8" t="n">
-        <v>98118</v>
+        <v>102100</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>294578</v>
+        <v>294580</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.63</v>
+        <v>5.37</v>
       </c>
       <c r="I9" t="n">
-        <v>743.61</v>
+        <v>743.36</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5071751</v>
+        <v>5023327</v>
       </c>
       <c r="E10" t="n">
-        <v>8103134</v>
+        <v>8025768</v>
       </c>
       <c r="F10" t="n">
-        <v>246.6977950198611</v>
+        <v>246.1817628805246</v>
       </c>
       <c r="G10" t="n">
-        <v>207.0458754723107</v>
+        <v>212.8396090374094</v>
       </c>
       <c r="H10" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>99222</v>
+        <v>99507</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>997109</v>
+        <v>996637</v>
       </c>
       <c r="E11" t="n">
-        <v>12201924</v>
+        <v>12196144</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.226308925092</v>
+        <v>1569.625012673754</v>
       </c>
       <c r="G11" t="n">
-        <v>1351.11133984769</v>
+        <v>1340.659770664258</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>526.12</v>
+        <v>581.16</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>568629</v>
+        <v>558034</v>
       </c>
       <c r="E12" t="n">
-        <v>568629</v>
+        <v>558034</v>
       </c>
       <c r="F12" t="n">
-        <v>51.40387140694085</v>
+        <v>95.59945792357405</v>
       </c>
       <c r="G12" t="n">
-        <v>174.4578801706078</v>
+        <v>103.9307093165057</v>
       </c>
       <c r="H12" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="I12" t="n">
-        <v>26929</v>
+        <v>26799</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4258990</v>
+        <v>4261188</v>
       </c>
       <c r="E13" t="n">
-        <v>26149584</v>
+        <v>26163081</v>
       </c>
       <c r="F13" t="n">
-        <v>515.0248800234601</v>
+        <v>296.3827216718</v>
       </c>
       <c r="G13" t="n">
-        <v>507.1677569959172</v>
+        <v>732.8643504069261</v>
       </c>
       <c r="H13" t="n">
-        <v>0.83</v>
+        <v>1.59</v>
       </c>
       <c r="I13" t="n">
-        <v>622922</v>
+        <v>608553</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>196123</v>
+        <v>195238</v>
       </c>
       <c r="E14" t="n">
-        <v>2157568</v>
+        <v>2147836</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>32.170514971286</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.998754162676999</v>
       </c>
       <c r="H14" t="n">
-        <v>8.44</v>
+        <v>0.91</v>
       </c>
       <c r="I14" t="n">
-        <v>36206</v>
+        <v>36064</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3172986</v>
+        <v>3167824</v>
       </c>
       <c r="E15" t="n">
-        <v>9026865</v>
+        <v>9012180</v>
       </c>
       <c r="F15" t="n">
-        <v>298.7765888296285</v>
+        <v>299.9634470754253</v>
       </c>
       <c r="G15" t="n">
-        <v>109.0557551037619</v>
+        <v>151.6809391143975</v>
       </c>
       <c r="H15" t="n">
-        <v>1.2</v>
+        <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>111227</v>
+        <v>111234</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>307903</v>
+        <v>308337</v>
       </c>
       <c r="E16" t="n">
-        <v>3553563</v>
+        <v>3558575</v>
       </c>
       <c r="F16" t="n">
-        <v>133.0942899729329</v>
+        <v>138.5107659460675</v>
       </c>
       <c r="G16" t="n">
-        <v>130.2934038332035</v>
+        <v>130.7577085208914</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>888.51</v>
+        <v>886.16</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>946161</v>
+        <v>950094</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.16</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>10376.2</v>
+        <v>10370.84</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24397650</v>
+        <v>23977685</v>
       </c>
       <c r="E18" t="n">
-        <v>24442650</v>
+        <v>24021911</v>
       </c>
       <c r="F18" t="n">
-        <v>2040.558890501209</v>
+        <v>724.7290465771492</v>
       </c>
       <c r="G18" t="n">
-        <v>1197.929056841973</v>
+        <v>2078.620730544245</v>
       </c>
       <c r="H18" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="I18" t="n">
-        <v>886683</v>
+        <v>883860</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6615211</v>
+        <v>6844419</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.56</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>21134</v>
+        <v>18899.69</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2352356</v>
+        <v>2348397</v>
       </c>
       <c r="E20" t="n">
-        <v>2352356</v>
+        <v>2348397</v>
       </c>
       <c r="F20" t="n">
-        <v>83.98242183801943</v>
+        <v>228.5781260701451</v>
       </c>
       <c r="G20" t="n">
-        <v>117.4669823246653</v>
+        <v>24.77320892326814</v>
       </c>
       <c r="H20" t="n">
-        <v>2.83</v>
+        <v>2.65</v>
       </c>
       <c r="I20" t="n">
-        <v>312932</v>
+        <v>313132</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>359267</v>
+        <v>359849</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5.83</v>
+        <v>4.49</v>
       </c>
       <c r="I21" t="n">
-        <v>9450.08</v>
+        <v>9444.440000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16543658</v>
+        <v>16451450</v>
       </c>
       <c r="E22" t="n">
-        <v>21293046</v>
+        <v>21174366</v>
       </c>
       <c r="F22" t="n">
-        <v>634.9937544272656</v>
+        <v>809.4317899216924</v>
       </c>
       <c r="G22" t="n">
-        <v>1768.276665199504</v>
+        <v>651.5662092097945</v>
       </c>
       <c r="H22" t="n">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="I22" t="n">
-        <v>1928108</v>
+        <v>1914791</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>492986745</v>
+        <v>494364281</v>
       </c>
       <c r="E23" t="n">
-        <v>492986745</v>
+        <v>494364281</v>
       </c>
       <c r="F23" t="n">
-        <v>31751.33410157089</v>
+        <v>28413.26021051201</v>
       </c>
       <c r="G23" t="n">
-        <v>31440.40073594199</v>
+        <v>43817.07653387233</v>
       </c>
       <c r="H23" t="n">
         <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>75780621</v>
+        <v>75729448</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18229.24</v>
+        <v>18229.15</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.09</v>
+        <v>6.31</v>
       </c>
       <c r="I24" t="n">
-        <v>2639.93</v>
+        <v>2638.36</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4564164</v>
+        <v>4561850</v>
       </c>
       <c r="E25" t="n">
-        <v>4564164</v>
+        <v>4561850</v>
       </c>
       <c r="F25" t="n">
-        <v>510.2316027698217</v>
+        <v>502.4459832161492</v>
       </c>
       <c r="G25" t="n">
-        <v>1234.633414040024</v>
+        <v>1323.867766585309</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="I25" t="n">
-        <v>2231791</v>
+        <v>2258705</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3227873</v>
+        <v>3222160</v>
       </c>
       <c r="E26" t="n">
-        <v>3227873</v>
+        <v>3222160</v>
       </c>
       <c r="F26" t="n">
-        <v>929.9184982503652</v>
+        <v>918.9896250432442</v>
       </c>
       <c r="G26" t="n">
-        <v>242.6606104423446</v>
+        <v>313.8943787407418</v>
       </c>
       <c r="H26" t="n">
-        <v>0.52</v>
+        <v>0.84</v>
       </c>
       <c r="I26" t="n">
-        <v>645755</v>
+        <v>643483</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>297703</v>
+        <v>297413</v>
       </c>
       <c r="E27" t="n">
-        <v>1389710</v>
+        <v>1388355</v>
       </c>
       <c r="F27" t="n">
-        <v>157.1012553054028</v>
+        <v>316.0904975784575</v>
       </c>
       <c r="G27" t="n">
-        <v>20.3427719739119</v>
+        <v>79.85168891652103</v>
       </c>
       <c r="H27" t="n">
-        <v>1.21</v>
+        <v>0.58</v>
       </c>
       <c r="I27" t="n">
-        <v>674292</v>
+        <v>679599</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1821530</v>
+        <v>1890186</v>
       </c>
       <c r="F28" t="n">
-        <v>323.9214601981045</v>
+        <v>64.31762390778498</v>
       </c>
       <c r="G28" t="n">
-        <v>179.2867655972497</v>
+        <v>220.5178744976183</v>
       </c>
       <c r="H28" t="n">
-        <v>1.19</v>
+        <v>0.76</v>
       </c>
       <c r="I28" t="n">
-        <v>1293748</v>
+        <v>1220368</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11905584</v>
+        <v>11824615</v>
       </c>
       <c r="E29" t="n">
-        <v>29630845</v>
+        <v>29429328</v>
       </c>
       <c r="F29" t="n">
-        <v>811.9617419054484</v>
+        <v>709.9253747727328</v>
       </c>
       <c r="G29" t="n">
-        <v>1003.539407723339</v>
+        <v>1102.439299657311</v>
       </c>
       <c r="H29" t="n">
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="I29" t="n">
-        <v>1582844</v>
+        <v>1521882</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>879401</v>
+        <v>884231</v>
       </c>
       <c r="E30" t="n">
-        <v>6155804</v>
+        <v>6189615</v>
       </c>
       <c r="F30" t="n">
-        <v>20.12941780634437</v>
+        <v>23.33946628787453</v>
       </c>
       <c r="G30" t="n">
-        <v>809.8996382816044</v>
+        <v>105.9203333453033</v>
       </c>
       <c r="H30" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="I30" t="n">
-        <v>251208</v>
+        <v>230587</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176186</v>
+        <v>175808</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.94</v>
       </c>
       <c r="I31" t="n">
-        <v>770.67</v>
+        <v>766.4299999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5464378</v>
+        <v>5453836</v>
       </c>
       <c r="E32" t="n">
-        <v>5725794</v>
+        <v>5714748</v>
       </c>
       <c r="F32" t="n">
-        <v>22.6831091726564</v>
+        <v>190.9703500211296</v>
       </c>
       <c r="G32" t="n">
-        <v>31.56578422121777</v>
+        <v>31.6186526977412</v>
       </c>
       <c r="H32" t="n">
-        <v>3.74</v>
+        <v>1.09</v>
       </c>
       <c r="I32" t="n">
-        <v>175485</v>
+        <v>149338</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4674918</v>
+        <v>4681281</v>
       </c>
       <c r="E33" t="n">
-        <v>6881732</v>
+        <v>6891099</v>
       </c>
       <c r="F33" t="n">
-        <v>105.3717815111434</v>
+        <v>104.124141427664</v>
       </c>
       <c r="G33" t="n">
-        <v>19.25483410987372</v>
+        <v>19.25271273877929</v>
       </c>
       <c r="H33" t="n">
-        <v>3.34</v>
+        <v>2.61</v>
       </c>
       <c r="I33" t="n">
-        <v>556078</v>
+        <v>142553</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7485235</v>
+        <v>7471563</v>
       </c>
       <c r="E34" t="n">
-        <v>7485235</v>
+        <v>7471563</v>
       </c>
       <c r="F34" t="n">
-        <v>1683.952562153477</v>
+        <v>1738.55802479172</v>
       </c>
       <c r="G34" t="n">
-        <v>3037.129075685552</v>
+        <v>4548.280226281297</v>
       </c>
       <c r="H34" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="I34" t="n">
-        <v>287738</v>
+        <v>328923</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1506629</v>
+        <v>1491365</v>
       </c>
       <c r="E35" t="n">
-        <v>1506629</v>
+        <v>1491365</v>
       </c>
       <c r="F35" t="n">
-        <v>33.5660640996233</v>
+        <v>35.78179857115457</v>
       </c>
       <c r="G35" t="n">
-        <v>88.24433044762765</v>
+        <v>600.6170444058739</v>
       </c>
       <c r="H35" t="n">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="I35" t="n">
-        <v>288041</v>
+        <v>288431</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15725917</v>
+        <v>15720360</v>
       </c>
       <c r="F36" t="n">
-        <v>289.0550581074936</v>
+        <v>289.0076607418299</v>
       </c>
       <c r="G36" t="n">
-        <v>184.104446954633</v>
+        <v>184.0742587065887</v>
       </c>
       <c r="H36" t="n">
         <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>14252.63</v>
+        <v>14269.61</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>62264</v>
+        <v>62365</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.52</v>
       </c>
       <c r="I37" t="n">
-        <v>2044.94</v>
+        <v>2043.71</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>136017377</v>
+        <v>135470129</v>
       </c>
       <c r="E38" t="n">
-        <v>136017377</v>
+        <v>135470129</v>
       </c>
       <c r="F38" t="n">
-        <v>235079.7126586881</v>
+        <v>199405.7915521533</v>
       </c>
       <c r="G38" t="n">
-        <v>233654.6857508061</v>
+        <v>309543.2115884676</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>91006230</v>
+        <v>90380814</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>62754207</v>
+        <v>62667939</v>
       </c>
       <c r="E39" t="n">
-        <v>321816445</v>
+        <v>321374046</v>
       </c>
       <c r="F39" t="n">
-        <v>62452.46404861445</v>
+        <v>76142.6048871493</v>
       </c>
       <c r="G39" t="n">
-        <v>83571.01148048727</v>
+        <v>83107.67850480315</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>27288651</v>
+        <v>27253836</v>
       </c>
     </row>
     <row r="40">
@@ -1826,7 +1826,7 @@
         <v>46374</v>
       </c>
       <c r="E40" t="n">
-        <v>137043</v>
+        <v>137042</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>10.63</v>
       </c>
       <c r="I40" t="n">
-        <v>18.73</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>50081</v>
+        <v>49797</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.04</v>
       </c>
       <c r="I41" t="n">
-        <v>23239</v>
+        <v>23133</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>597677</v>
+        <v>597257</v>
       </c>
       <c r="F42" t="n">
-        <v>995.2833150421842</v>
+        <v>1887.808505225958</v>
       </c>
       <c r="G42" t="n">
-        <v>425.2632689934815</v>
+        <v>424.9957782467185</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>633.98</v>
+        <v>633.54</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2614926</v>
+        <v>2611885</v>
       </c>
       <c r="E44" t="n">
-        <v>10508794</v>
+        <v>10496569</v>
       </c>
       <c r="F44" t="n">
-        <v>59.84748281751314</v>
+        <v>373.9488986447879</v>
       </c>
       <c r="G44" t="n">
-        <v>318.0554070555368</v>
+        <v>284.8458995389502</v>
       </c>
       <c r="H44" t="n">
         <v>0.95</v>
       </c>
       <c r="I44" t="n">
-        <v>52718</v>
+        <v>50104</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17977595</v>
+        <v>18035649</v>
       </c>
       <c r="E45" t="n">
-        <v>125719808</v>
+        <v>126124834</v>
       </c>
       <c r="F45" t="n">
-        <v>230.1429007851665</v>
+        <v>227.3646697623684</v>
       </c>
       <c r="G45" t="n">
-        <v>318.1840413590486</v>
+        <v>315.7978535656262</v>
       </c>
       <c r="H45" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="I45" t="n">
-        <v>1133023</v>
+        <v>1100593</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>165863</v>
+        <v>165427</v>
       </c>
       <c r="E46" t="n">
-        <v>2219338</v>
+        <v>2213504</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>47114</v>
+        <v>46837</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>248024356</v>
+        <v>247411839</v>
       </c>
       <c r="E47" t="n">
-        <v>248024356</v>
+        <v>247411839</v>
       </c>
       <c r="F47" t="n">
-        <v>50871.8014203171</v>
+        <v>59565.46495952208</v>
       </c>
       <c r="G47" t="n">
-        <v>73199.67148649223</v>
+        <v>90064.60956347686</v>
       </c>
       <c r="H47" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>25875536</v>
+        <v>25906541</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>635826</v>
+        <v>636039</v>
       </c>
       <c r="E48" t="n">
-        <v>635826</v>
+        <v>636039</v>
       </c>
       <c r="F48" t="n">
-        <v>214.8941448754442</v>
+        <v>214.2918575235645</v>
       </c>
       <c r="G48" t="n">
-        <v>112.9700941886926</v>
+        <v>70.62471370644624</v>
       </c>
       <c r="H48" t="n">
-        <v>2.42</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
-        <v>2695.1</v>
+        <v>2682.39</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>412135485</v>
+        <v>414553911</v>
       </c>
       <c r="E50" t="n">
-        <v>412135485</v>
+        <v>414553911</v>
       </c>
       <c r="F50" t="n">
-        <v>8028.495182040418</v>
+        <v>8456.412628466353</v>
       </c>
       <c r="G50" t="n">
-        <v>1501.291726607244</v>
+        <v>1465.073840836089</v>
       </c>
       <c r="H50" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="I50" t="n">
-        <v>4249005</v>
+        <v>4201643</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2391428</v>
+        <v>2380879</v>
       </c>
       <c r="E51" t="n">
-        <v>2391428</v>
+        <v>2380879</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>17.7929721352342</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>57.08136552910553</v>
       </c>
       <c r="H51" t="n">
-        <v>3.93</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
-        <v>154677</v>
+        <v>154579</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22199</v>
+        <v>22196</v>
       </c>
       <c r="E52" t="n">
-        <v>44397</v>
+        <v>44392</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>6.33</v>
       </c>
       <c r="I52" t="n">
-        <v>3685.66</v>
+        <v>3683.54</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>161317</v>
+        <v>161348</v>
       </c>
       <c r="F53" t="n">
-        <v>22.48175991469838</v>
+        <v>22.4790751334559</v>
       </c>
       <c r="G53" t="n">
-        <v>25.42629058606729</v>
+        <v>25.42325416773125</v>
       </c>
       <c r="H53" t="n">
         <v>3.82</v>
       </c>
       <c r="I53" t="n">
-        <v>20864</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2574122</v>
+        <v>2572744</v>
       </c>
       <c r="E54" t="n">
-        <v>6580966</v>
+        <v>6577443</v>
       </c>
       <c r="F54" t="n">
-        <v>248.1702612649424</v>
+        <v>69.64288561345272</v>
       </c>
       <c r="G54" t="n">
-        <v>93.55275244129713</v>
+        <v>102.7550211095957</v>
       </c>
       <c r="H54" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="I54" t="n">
-        <v>80675</v>
+        <v>80123</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3473.98</v>
+        <v>3473.41</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>4.57</v>
       </c>
       <c r="I55" t="n">
-        <v>1622.06</v>
+        <v>1619.44</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64130121</v>
+        <v>63676736</v>
       </c>
       <c r="E56" t="n">
-        <v>64130121</v>
+        <v>63676736</v>
       </c>
       <c r="F56" t="n">
-        <v>4026.936058402602</v>
+        <v>3664.383117122687</v>
       </c>
       <c r="G56" t="n">
-        <v>10559.80594829162</v>
+        <v>6876.956847816291</v>
       </c>
       <c r="H56" t="n">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="I56" t="n">
-        <v>6579928</v>
+        <v>6722919</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3258176</v>
+        <v>3269301</v>
       </c>
       <c r="E57" t="n">
-        <v>4128678</v>
+        <v>4142776</v>
       </c>
       <c r="F57" t="n">
-        <v>344.1813193306319</v>
+        <v>431.5046902462365</v>
       </c>
       <c r="G57" t="n">
-        <v>332.1497825614735</v>
+        <v>1115.88265261604</v>
       </c>
       <c r="H57" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I57" t="n">
-        <v>197702</v>
+        <v>199092</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4078241</v>
+        <v>4056882</v>
       </c>
       <c r="E58" t="n">
-        <v>8042635</v>
+        <v>8000512</v>
       </c>
       <c r="F58" t="n">
-        <v>1993.648639313441</v>
+        <v>2262.75836548264</v>
       </c>
       <c r="G58" t="n">
-        <v>13433.04523069997</v>
+        <v>13229.59420008724</v>
       </c>
       <c r="H58" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="I58" t="n">
-        <v>1676778</v>
+        <v>1683341</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1601610</v>
+        <v>1598030</v>
       </c>
       <c r="E59" t="n">
-        <v>9195849</v>
+        <v>9175289</v>
       </c>
       <c r="F59" t="n">
-        <v>4.871749270750311</v>
+        <v>93.37593601803715</v>
       </c>
       <c r="G59" t="n">
-        <v>16.51225606330076</v>
+        <v>224.5768667836378</v>
       </c>
       <c r="H59" t="n">
-        <v>3.43</v>
+        <v>2.19</v>
       </c>
       <c r="I59" t="n">
-        <v>245491</v>
+        <v>245432</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>596625</v>
+        <v>592427</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>9.52</v>
       </c>
       <c r="I60" t="n">
-        <v>5523.33</v>
+        <v>5538.9</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31166398</v>
+        <v>31211543</v>
       </c>
       <c r="F61" t="n">
-        <v>594.9646588549872</v>
+        <v>687.5119296677084</v>
       </c>
       <c r="G61" t="n">
-        <v>1564.506164123646</v>
+        <v>1815.073366798314</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>233426</v>
+        <v>230728</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1468398</v>
+        <v>1495753</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>9.16</v>
+        <v>8.91</v>
       </c>
       <c r="I62" t="n">
-        <v>9049.200000000001</v>
+        <v>9108.68</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17404335</v>
+        <v>17400089</v>
       </c>
       <c r="E63" t="n">
-        <v>18343761</v>
+        <v>18339286</v>
       </c>
       <c r="F63" t="n">
-        <v>940.1345161999077</v>
+        <v>1378.934680224218</v>
       </c>
       <c r="G63" t="n">
-        <v>1899.147197911707</v>
+        <v>1547.32001794816</v>
       </c>
       <c r="H63" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I63" t="n">
-        <v>47647</v>
+        <v>47898</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2896647</v>
+        <v>2893338</v>
       </c>
       <c r="E64" t="n">
-        <v>2896647</v>
+        <v>2893338</v>
       </c>
       <c r="F64" t="n">
-        <v>162.3391795707121</v>
+        <v>102.6781687473993</v>
       </c>
       <c r="G64" t="n">
-        <v>170.7320019860765</v>
+        <v>232.067737440275</v>
       </c>
       <c r="H64" t="n">
-        <v>3.53</v>
+        <v>3.01</v>
       </c>
       <c r="I64" t="n">
-        <v>14611.47</v>
+        <v>14036.8</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3339280</v>
+        <v>3337094</v>
       </c>
       <c r="E65" t="n">
-        <v>8239502</v>
+        <v>8234110</v>
       </c>
       <c r="F65" t="n">
-        <v>827.8160589077287</v>
+        <v>826.2936622882635</v>
       </c>
       <c r="G65" t="n">
-        <v>1105.844622265635</v>
+        <v>1074.30375579082</v>
       </c>
       <c r="H65" t="n">
         <v>0.73</v>
       </c>
       <c r="I65" t="n">
-        <v>43541</v>
+        <v>43416</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>247481</v>
+        <v>247464</v>
       </c>
       <c r="F66" t="n">
-        <v>7.515118324301255</v>
+        <v>6.379914275698084</v>
       </c>
       <c r="G66" t="n">
-        <v>47.40020561832578</v>
+        <v>47.39454506579713</v>
       </c>
       <c r="H66" t="n">
         <v>3.51</v>
       </c>
       <c r="I66" t="n">
-        <v>3785.75</v>
+        <v>3785.21</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>82313344</v>
+        <v>81734984</v>
       </c>
       <c r="E67" t="n">
-        <v>171616712</v>
+        <v>170410876</v>
       </c>
       <c r="F67" t="n">
-        <v>21651.00949451851</v>
+        <v>26982.9826944258</v>
       </c>
       <c r="G67" t="n">
-        <v>50022.39700280107</v>
+        <v>75572.53867192812</v>
       </c>
       <c r="H67" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>70804551</v>
+        <v>70723246</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1766394</v>
+        <v>1769258</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.35</v>
       </c>
       <c r="I68" t="n">
-        <v>3213.17</v>
+        <v>2828.72</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>189472236</v>
+        <v>188099465</v>
       </c>
       <c r="F69" t="n">
-        <v>1747.306546318728</v>
+        <v>2552.366579917209</v>
       </c>
       <c r="G69" t="n">
-        <v>3326.614840758337</v>
+        <v>2934.040228979129</v>
       </c>
       <c r="H69" t="n">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="I69" t="n">
-        <v>3395394</v>
+        <v>3361604</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>186472</v>
+        <v>186972</v>
       </c>
       <c r="E70" t="n">
-        <v>194730</v>
+        <v>195252</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>180.89</v>
+        <v>183.56</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>136589072</v>
+        <v>136221502</v>
       </c>
       <c r="E71" t="n">
-        <v>136645437</v>
+        <v>136277991</v>
       </c>
       <c r="F71" t="n">
-        <v>28832.21903948368</v>
+        <v>27599.74146091069</v>
       </c>
       <c r="G71" t="n">
-        <v>36628.47042514975</v>
+        <v>39147.90052774869</v>
       </c>
       <c r="H71" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="I71" t="n">
-        <v>3329949</v>
+        <v>3333643</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25333151</v>
+        <v>25228510</v>
       </c>
       <c r="E72" t="n">
-        <v>83138558</v>
+        <v>82795148</v>
       </c>
       <c r="F72" t="n">
-        <v>17060.64549771981</v>
+        <v>14335.21267013528</v>
       </c>
       <c r="G72" t="n">
-        <v>31737.5262938569</v>
+        <v>34270.60984585147</v>
       </c>
       <c r="H72" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I72" t="n">
-        <v>169476</v>
+        <v>254203</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113330</v>
+        <v>113306</v>
       </c>
       <c r="E73" t="n">
-        <v>113330</v>
+        <v>113306</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1335.28</v>
+        <v>1334.42</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>193202141</v>
+        <v>193745876</v>
       </c>
       <c r="E74" t="n">
-        <v>671201698</v>
+        <v>673090684</v>
       </c>
       <c r="F74" t="n">
-        <v>79422.7013367793</v>
+        <v>71004.93019310111</v>
       </c>
       <c r="G74" t="n">
-        <v>56040.66059918229</v>
+        <v>64498.85860293878</v>
       </c>
       <c r="H74" t="n">
         <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>40946791</v>
+        <v>41173386</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3355961</v>
+        <v>3367074</v>
       </c>
       <c r="E75" t="n">
-        <v>3355961</v>
+        <v>3367074</v>
       </c>
       <c r="F75" t="n">
-        <v>580.2048929695715</v>
+        <v>463.0686043915363</v>
       </c>
       <c r="G75" t="n">
-        <v>891.2467233794978</v>
+        <v>846.6864479460799</v>
       </c>
       <c r="H75" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I75" t="n">
-        <v>2289287</v>
+        <v>2259449</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>108140429</v>
+        <v>107741040</v>
       </c>
       <c r="E76" t="n">
-        <v>458707953</v>
+        <v>456997901</v>
       </c>
       <c r="F76" t="n">
-        <v>133740.4727871389</v>
+        <v>178279.1924650671</v>
       </c>
       <c r="G76" t="n">
-        <v>129623.172572171</v>
+        <v>107613.9463405482</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I76" t="n">
-        <v>15156830</v>
+        <v>15087702</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1800973</v>
+        <v>1799273</v>
       </c>
       <c r="F77" t="n">
-        <v>54.60478394270125</v>
+        <v>54.59826301639319</v>
       </c>
       <c r="G77" t="n">
-        <v>25.48367472835225</v>
+        <v>25.48063145717776</v>
       </c>
       <c r="H77" t="n">
         <v>1.1</v>
       </c>
       <c r="I77" t="n">
-        <v>563.61</v>
+        <v>562.39</v>
       </c>
     </row>
     <row r="78">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3261399</v>
+        <v>3275248</v>
       </c>
       <c r="E78" t="n">
-        <v>16353045</v>
+        <v>16422485</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>4.65</v>
       </c>
       <c r="I78" t="n">
-        <v>30764</v>
+        <v>30613</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>520927</v>
+        <v>520833</v>
       </c>
       <c r="E79" t="n">
-        <v>8910413</v>
+        <v>8908817</v>
       </c>
       <c r="F79" t="n">
-        <v>83.87781335870474</v>
+        <v>90.22028872422132</v>
       </c>
       <c r="G79" t="n">
-        <v>6.099010252512533</v>
+        <v>6.098338303640864</v>
       </c>
       <c r="H79" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="I79" t="n">
-        <v>125040</v>
+        <v>122973</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5630694</v>
+        <v>5618676</v>
       </c>
       <c r="E80" t="n">
-        <v>7641494</v>
+        <v>7625303</v>
       </c>
       <c r="F80" t="n">
-        <v>526.3451247654947</v>
+        <v>664.1851805927872</v>
       </c>
       <c r="G80" t="n">
-        <v>957.0356478329541</v>
+        <v>882.7951540005572</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I80" t="n">
-        <v>5501158</v>
+        <v>5508486</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41476</v>
+        <v>41560</v>
       </c>
       <c r="F81" t="n">
-        <v>230.9238995432731</v>
+        <v>179.3893711290406</v>
       </c>
       <c r="G81" t="n">
-        <v>193.5808132909285</v>
+        <v>152.8776947766826</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>39526</v>
+        <v>40032</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>38570222</v>
+        <v>38539158</v>
       </c>
       <c r="E82" t="n">
-        <v>45049103</v>
+        <v>45012821</v>
       </c>
       <c r="F82" t="n">
-        <v>385.4811569562131</v>
+        <v>397.455304059169</v>
       </c>
       <c r="G82" t="n">
-        <v>147.3037813292964</v>
+        <v>174.6228401489946</v>
       </c>
       <c r="H82" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="I82" t="n">
-        <v>956319</v>
+        <v>942946</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14206698</v>
+        <v>14076569</v>
       </c>
       <c r="F83" t="n">
-        <v>233.6742434215787</v>
+        <v>180.6527967143632</v>
       </c>
       <c r="G83" t="n">
-        <v>181.0723630419124</v>
+        <v>101.7453620915523</v>
       </c>
       <c r="H83" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="I83" t="n">
-        <v>222422</v>
+        <v>223899</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>34479463</v>
+        <v>34393361</v>
       </c>
       <c r="E84" t="n">
-        <v>34479463</v>
+        <v>34393361</v>
       </c>
       <c r="F84" t="n">
-        <v>40.19830001343151</v>
+        <v>659.2566446219587</v>
       </c>
       <c r="G84" t="n">
-        <v>143.3046918477813</v>
+        <v>69.84115936655614</v>
       </c>
       <c r="H84" t="n">
-        <v>2.1</v>
+        <v>2.79</v>
       </c>
       <c r="I84" t="n">
-        <v>903795</v>
+        <v>937105</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>536051</v>
+        <v>532754</v>
       </c>
       <c r="E85" t="n">
-        <v>6501772</v>
+        <v>6461790</v>
       </c>
       <c r="F85" t="n">
-        <v>561.0036586080929</v>
+        <v>546.6078674078727</v>
       </c>
       <c r="G85" t="n">
-        <v>452.4385488934757</v>
+        <v>396.0470585222242</v>
       </c>
       <c r="H85" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I85" t="n">
-        <v>2868420</v>
+        <v>2872404</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24762291</v>
+        <v>24676202</v>
       </c>
       <c r="E86" t="n">
-        <v>34993109</v>
+        <v>34871453</v>
       </c>
       <c r="F86" t="n">
-        <v>1.123303259274354</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>134.9477231643833</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.76</v>
+        <v>8.31</v>
       </c>
       <c r="I86" t="n">
-        <v>125462</v>
+        <v>139992</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1376498244</v>
+        <v>1381268416</v>
       </c>
       <c r="E87" t="n">
-        <v>6600590979</v>
+        <v>6623464933</v>
       </c>
       <c r="F87" t="n">
-        <v>548378.1054522611</v>
+        <v>530609.3516873436</v>
       </c>
       <c r="G87" t="n">
-        <v>556236.9317803498</v>
+        <v>534828.8813352408</v>
       </c>
       <c r="H87" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>486470363</v>
+        <v>488217475</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>256721173</v>
+        <v>255260033</v>
       </c>
       <c r="E88" t="n">
-        <v>1108151099</v>
+        <v>1101844008</v>
       </c>
       <c r="F88" t="n">
-        <v>754186.1791011256</v>
+        <v>871556.9624137857</v>
       </c>
       <c r="G88" t="n">
-        <v>670340.6180222217</v>
+        <v>813461.1628767269</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I88" t="n">
-        <v>141941207</v>
+        <v>141928183</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>112118486</v>
+        <v>111878923</v>
       </c>
       <c r="E89" t="n">
-        <v>112118486</v>
+        <v>111878923</v>
       </c>
       <c r="F89" t="n">
-        <v>34077.95177923554</v>
+        <v>37853.50263332467</v>
       </c>
       <c r="G89" t="n">
-        <v>20302.37043888832</v>
+        <v>19656.84573709407</v>
       </c>
       <c r="H89" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="I89" t="n">
-        <v>7041056</v>
+        <v>7049608</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3807976</v>
+        <v>3772079</v>
       </c>
       <c r="E90" t="n">
-        <v>29633212</v>
+        <v>29353867</v>
       </c>
       <c r="F90" t="n">
-        <v>8234.14185797635</v>
+        <v>8233.150111106239</v>
       </c>
       <c r="G90" t="n">
-        <v>688.5554081990831</v>
+        <v>871.024930153897</v>
       </c>
       <c r="H90" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="I90" t="n">
-        <v>23701</v>
+        <v>36600</v>
       </c>
     </row>
     <row r="91">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3882905</v>
+        <v>3823111</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>5.53</v>
+        <v>5.24</v>
       </c>
       <c r="I91" t="n">
-        <v>358526</v>
+        <v>355810</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>853646</v>
+        <v>849643</v>
       </c>
       <c r="F92" t="n">
-        <v>50.28382072640611</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>451.2993655919269</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>3.07</v>
+        <v>4.17</v>
       </c>
       <c r="I92" t="n">
-        <v>4650.6</v>
+        <v>5512.59</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>127245</v>
+        <v>125842</v>
       </c>
       <c r="F93" t="n">
-        <v>352.4712810596887</v>
+        <v>352.5199387396787</v>
       </c>
       <c r="G93" t="n">
-        <v>3.027960167798196</v>
+        <v>3.027598567519022</v>
       </c>
       <c r="H93" t="n">
         <v>2.82</v>
       </c>
       <c r="I93" t="n">
-        <v>125853</v>
+        <v>125011</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10288717</v>
+        <v>10235198</v>
       </c>
       <c r="E94" t="n">
-        <v>123869719</v>
+        <v>123225384</v>
       </c>
       <c r="F94" t="n">
-        <v>827.211772994281</v>
+        <v>1209.18933204907</v>
       </c>
       <c r="G94" t="n">
-        <v>425.1823093608209</v>
+        <v>228.500655506448</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>589607</v>
+        <v>267526</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15613312</v>
+        <v>15714614</v>
       </c>
       <c r="E95" t="n">
-        <v>39033281</v>
+        <v>39286534</v>
       </c>
       <c r="F95" t="n">
-        <v>9713.494754226002</v>
+        <v>7404.552144562831</v>
       </c>
       <c r="G95" t="n">
-        <v>6343.242397095531</v>
+        <v>8932.296505709128</v>
       </c>
       <c r="H95" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="I95" t="n">
-        <v>4888450</v>
+        <v>4923459</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2520566</v>
+        <v>2525106</v>
       </c>
       <c r="F96" t="n">
-        <v>144.6796393231476</v>
+        <v>238.0192605457974</v>
       </c>
       <c r="G96" t="n">
-        <v>138.9336462002905</v>
+        <v>147.7239381430478</v>
       </c>
       <c r="H96" t="n">
-        <v>2.55</v>
+        <v>2.16</v>
       </c>
       <c r="I96" t="n">
-        <v>24929</v>
+        <v>48396</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19435133</v>
+        <v>19396374</v>
       </c>
       <c r="F97" t="n">
-        <v>819.1806831621666</v>
+        <v>1380.063791758739</v>
       </c>
       <c r="G97" t="n">
-        <v>801.6861879994281</v>
+        <v>1006.844271445815</v>
       </c>
       <c r="H97" t="n">
         <v>1.02</v>
       </c>
       <c r="I97" t="n">
-        <v>67218</v>
+        <v>67138</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4143739</v>
+        <v>4106453</v>
       </c>
       <c r="E98" t="n">
-        <v>11934474</v>
+        <v>11827084</v>
       </c>
       <c r="F98" t="n">
-        <v>1038.881344613375</v>
+        <v>604.1636627028075</v>
       </c>
       <c r="G98" t="n">
-        <v>783.3389406064191</v>
+        <v>745.6265302136628</v>
       </c>
       <c r="H98" t="n">
-        <v>0.59</v>
+        <v>0.93</v>
       </c>
       <c r="I98" t="n">
-        <v>491358</v>
+        <v>490571</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1515571</v>
+        <v>1515564</v>
       </c>
       <c r="F99" t="n">
-        <v>722.2901980361188</v>
+        <v>721.6349581431406</v>
       </c>
       <c r="G99" t="n">
-        <v>104.9573988248602</v>
+        <v>85.25630135481863</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="I99" t="n">
-        <v>269979</v>
+        <v>272444</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>77777333</v>
+        <v>77826207</v>
       </c>
       <c r="E100" t="n">
-        <v>98977701</v>
+        <v>99039898</v>
       </c>
       <c r="F100" t="n">
-        <v>9218.556819411207</v>
+        <v>4432.190676991735</v>
       </c>
       <c r="G100" t="n">
-        <v>11268.37184461411</v>
+        <v>10559.35195946336</v>
       </c>
       <c r="H100" t="n">
-        <v>0.35</v>
+        <v>0.99</v>
       </c>
       <c r="I100" t="n">
-        <v>6479171</v>
+        <v>6528976</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21854307</v>
+        <v>21818054</v>
       </c>
       <c r="E101" t="n">
-        <v>28350035</v>
+        <v>28303007</v>
       </c>
       <c r="F101" t="n">
-        <v>2834.358012884382</v>
+        <v>2211.369473710185</v>
       </c>
       <c r="G101" t="n">
-        <v>5897.330781802279</v>
+        <v>5106.193489729062</v>
       </c>
       <c r="H101" t="n">
-        <v>0.57</v>
+        <v>0.2</v>
       </c>
       <c r="I101" t="n">
-        <v>203254</v>
+        <v>206033</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1492316</v>
+        <v>1492675</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>248.298943492345</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>117.6352919672683</v>
       </c>
       <c r="H102" t="n">
-        <v>5.7</v>
+        <v>2.63</v>
       </c>
       <c r="I102" t="n">
-        <v>7934.92</v>
+        <v>7933.79</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>599367</v>
+        <v>599413</v>
       </c>
       <c r="E103" t="n">
-        <v>599367</v>
+        <v>599413</v>
       </c>
       <c r="F103" t="n">
-        <v>327.4724604266658</v>
+        <v>137.8086887870572</v>
       </c>
       <c r="G103" t="n">
-        <v>20.50687354464799</v>
+        <v>20.504424605168</v>
       </c>
       <c r="H103" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="I103" t="n">
-        <v>65953</v>
+        <v>65508</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40273938</v>
+        <v>40484406</v>
       </c>
       <c r="E104" t="n">
-        <v>42100666</v>
+        <v>42320681</v>
       </c>
       <c r="F104" t="n">
-        <v>749.4003948327218</v>
+        <v>275.7301861625294</v>
       </c>
       <c r="G104" t="n">
-        <v>1473.707680026877</v>
+        <v>1509.147744270444</v>
       </c>
       <c r="H104" t="n">
         <v>0.59</v>
       </c>
       <c r="I104" t="n">
-        <v>741350</v>
+        <v>740714</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13459578</v>
+        <v>13554685</v>
       </c>
       <c r="E105" t="n">
-        <v>13459578</v>
+        <v>13554685</v>
       </c>
       <c r="F105" t="n">
-        <v>3950.019378049323</v>
+        <v>3671.473921462517</v>
       </c>
       <c r="G105" t="n">
-        <v>3074.345049425233</v>
+        <v>2918.490355986886</v>
       </c>
       <c r="H105" t="n">
         <v>0.2</v>
       </c>
       <c r="I105" t="n">
-        <v>5438881</v>
+        <v>5470841</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1127611</v>
+        <v>1127335</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.22</v>
+        <v>7.17</v>
       </c>
       <c r="I106" t="n">
-        <v>3722.65</v>
+        <v>3645.95</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>49008533</v>
+        <v>48775670</v>
       </c>
       <c r="E107" t="n">
-        <v>124852039</v>
+        <v>124258808</v>
       </c>
       <c r="F107" t="n">
-        <v>2145.638645426924</v>
+        <v>1992.267161805731</v>
       </c>
       <c r="G107" t="n">
-        <v>3011.722187057732</v>
+        <v>3633.925877386251</v>
       </c>
       <c r="H107" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="I107" t="n">
-        <v>2176271</v>
+        <v>2197103</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13701332</v>
+        <v>13603613</v>
       </c>
       <c r="E108" t="n">
-        <v>66357736</v>
+        <v>65884467</v>
       </c>
       <c r="F108" t="n">
-        <v>2542.357926376367</v>
+        <v>2297.04211173483</v>
       </c>
       <c r="G108" t="n">
-        <v>4086.858538747931</v>
+        <v>4380.651206400498</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I108" t="n">
-        <v>5537548</v>
+        <v>5484256</v>
       </c>
     </row>
     <row r="109">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>635142</v>
+        <v>625985</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>4.06</v>
+        <v>4.3</v>
       </c>
       <c r="I109" t="n">
-        <v>11466.76</v>
+        <v>11803.87</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4460138</v>
+        <v>4510837</v>
       </c>
       <c r="E110" t="n">
-        <v>10166687</v>
+        <v>10282254</v>
       </c>
       <c r="F110" t="n">
-        <v>787.8142883192102</v>
+        <v>1331.286551055362</v>
       </c>
       <c r="G110" t="n">
-        <v>1593.423863668066</v>
+        <v>1494.078037730818</v>
       </c>
       <c r="H110" t="n">
         <v>0.97</v>
       </c>
       <c r="I110" t="n">
-        <v>65512</v>
+        <v>12349.27</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1837177035</v>
+        <v>1834713770</v>
       </c>
       <c r="F111" t="n">
-        <v>33352.45981251489</v>
+        <v>30552.21556824281</v>
       </c>
       <c r="G111" t="n">
-        <v>19192.2203332276</v>
+        <v>20632.88374799944</v>
       </c>
       <c r="H111" t="n">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="I111" t="n">
-        <v>30784514</v>
+        <v>30790299</v>
       </c>
     </row>
     <row r="112">
@@ -4329,16 +4329,16 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9237156</v>
+        <v>9227131</v>
       </c>
       <c r="E112" t="n">
-        <v>33607608</v>
+        <v>33571138</v>
       </c>
       <c r="F112" t="n">
-        <v>502.2816731818536</v>
+        <v>502.2220252272836</v>
       </c>
       <c r="G112" t="n">
-        <v>8126.89958139473</v>
+        <v>8125.929063622169</v>
       </c>
       <c r="H112" t="n">
         <v>1.19</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>630567</v>
+        <v>637759</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>648.53</v>
+        <v>675.34</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11614775</v>
+        <v>11648805</v>
       </c>
       <c r="E114" t="n">
-        <v>16839748</v>
+        <v>16889086</v>
       </c>
       <c r="F114" t="n">
-        <v>3024.697972202577</v>
+        <v>2999.819934362974</v>
       </c>
       <c r="G114" t="n">
-        <v>250.5755776310342</v>
+        <v>258.1486394359412</v>
       </c>
       <c r="H114" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="I114" t="n">
-        <v>2023255</v>
+        <v>2018843</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1827321</v>
+        <v>1788621</v>
       </c>
       <c r="E115" t="n">
-        <v>13103539</v>
+        <v>12826025</v>
       </c>
       <c r="F115" t="n">
-        <v>68.20714050480966</v>
+        <v>6.412816278467432</v>
       </c>
       <c r="G115" t="n">
-        <v>5.886322587742476</v>
+        <v>36.7400035415509</v>
       </c>
       <c r="H115" t="n">
-        <v>3.5</v>
+        <v>3.01</v>
       </c>
       <c r="I115" t="n">
-        <v>2050936</v>
+        <v>2082156</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2717720</v>
+        <v>2728373</v>
       </c>
       <c r="E116" t="n">
-        <v>5493762</v>
+        <v>5515296</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4463.71</v>
+        <v>4477.82</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>190853391</v>
+        <v>191474990</v>
       </c>
       <c r="E117" t="n">
-        <v>1080729168</v>
+        <v>1084249045</v>
       </c>
       <c r="F117" t="n">
-        <v>283143.1814147298</v>
+        <v>271417.8662111023</v>
       </c>
       <c r="G117" t="n">
-        <v>312642.4891548334</v>
+        <v>350797.1423983331</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>85859233</v>
+        <v>86017221</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>656089</v>
+        <v>652763</v>
       </c>
       <c r="E118" t="n">
-        <v>2175494</v>
+        <v>2164468</v>
       </c>
       <c r="F118" t="n">
-        <v>5267.694006155057</v>
+        <v>7606.799101542567</v>
       </c>
       <c r="G118" t="n">
-        <v>10343.716457018</v>
+        <v>7036.085022784136</v>
       </c>
       <c r="H118" t="n">
         <v>0.93</v>
       </c>
       <c r="I118" t="n">
-        <v>3986.36</v>
+        <v>3984.86</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2587574</v>
+        <v>2612084</v>
       </c>
       <c r="E119" t="n">
-        <v>9161508</v>
+        <v>9248287</v>
       </c>
       <c r="F119" t="n">
-        <v>297.2647430079506</v>
+        <v>292.3959172277841</v>
       </c>
       <c r="G119" t="n">
-        <v>215.6376183830162</v>
+        <v>384.941983482427</v>
       </c>
       <c r="H119" t="n">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="I119" t="n">
-        <v>26483</v>
+        <v>27768</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1008778</v>
+        <v>1008451</v>
       </c>
       <c r="E120" t="n">
-        <v>1008778</v>
+        <v>1008451</v>
       </c>
       <c r="F120" t="n">
-        <v>125.3534396095113</v>
+        <v>125.3396278638863</v>
       </c>
       <c r="G120" t="n">
-        <v>140.4772698763252</v>
+        <v>140.4617917504463</v>
       </c>
       <c r="H120" t="n">
         <v>2.31</v>
       </c>
       <c r="I120" t="n">
-        <v>5533.24</v>
+        <v>5505.68</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>487739</v>
+        <v>495047</v>
       </c>
       <c r="E121" t="n">
-        <v>1641661</v>
+        <v>1666259</v>
       </c>
       <c r="F121" t="n">
-        <v>354.8769031751419</v>
+        <v>356.3984196966122</v>
       </c>
       <c r="G121" t="n">
-        <v>398.6407434072553</v>
+        <v>362.5855243532673</v>
       </c>
       <c r="H121" t="n">
         <v>0.95</v>
       </c>
       <c r="I121" t="n">
-        <v>640811</v>
+        <v>641085</v>
       </c>
     </row>
     <row r="122">
@@ -4677,22 +4677,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>468460</v>
+        <v>463522</v>
       </c>
       <c r="E122" t="n">
-        <v>869083</v>
+        <v>859922</v>
       </c>
       <c r="F122" t="n">
-        <v>91.67065024855056</v>
+        <v>91.66054975424855</v>
       </c>
       <c r="G122" t="n">
-        <v>4.016890959274299</v>
+        <v>4.016448368498125</v>
       </c>
       <c r="H122" t="n">
         <v>2.27</v>
       </c>
       <c r="I122" t="n">
-        <v>263980</v>
+        <v>268377</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9680238</v>
+        <v>9695931</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>7.73</v>
+        <v>8.09</v>
       </c>
       <c r="I123" t="n">
-        <v>18802.84</v>
+        <v>18707.38</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1166140</v>
+        <v>1163741</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>8.85</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I124" t="n">
-        <v>6000.77</v>
+        <v>5989.96</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3261817</v>
+        <v>3267074</v>
       </c>
       <c r="E125" t="n">
-        <v>7616886</v>
+        <v>7629163</v>
       </c>
       <c r="F125" t="n">
-        <v>877.6441989105024</v>
+        <v>1029.270133087181</v>
       </c>
       <c r="G125" t="n">
-        <v>1174.80579250665</v>
+        <v>1256.366799914282</v>
       </c>
       <c r="H125" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="I125" t="n">
-        <v>610396</v>
+        <v>611512</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>245832</v>
+        <v>246886</v>
       </c>
       <c r="E126" t="n">
-        <v>2169652</v>
+        <v>2178956</v>
       </c>
       <c r="F126" t="n">
-        <v>65.14658639442503</v>
+        <v>11.40392307394065</v>
       </c>
       <c r="G126" t="n">
-        <v>27.00237643145954</v>
+        <v>408.0826979898679</v>
       </c>
       <c r="H126" t="n">
-        <v>3.09</v>
+        <v>2.45</v>
       </c>
       <c r="I126" t="n">
-        <v>71082</v>
+        <v>72117</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>623486</v>
+        <v>623077</v>
       </c>
       <c r="F127" t="n">
-        <v>540.6509733431348</v>
+        <v>540.5583651123709</v>
       </c>
       <c r="G127" t="n">
-        <v>710.2502164632449</v>
+        <v>710.1285575387458</v>
       </c>
       <c r="H127" t="n">
         <v>0.99</v>
       </c>
       <c r="I127" t="n">
-        <v>16121.85</v>
+        <v>16117.37</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4717242</v>
+        <v>4705403</v>
       </c>
       <c r="E128" t="n">
-        <v>16666001</v>
+        <v>16624176</v>
       </c>
       <c r="F128" t="n">
-        <v>1311.555510344062</v>
+        <v>1468.586925625351</v>
       </c>
       <c r="G128" t="n">
-        <v>1241.54589410491</v>
+        <v>1013.379048287529</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I128" t="n">
-        <v>152353</v>
+        <v>152301</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2133115</v>
+        <v>2133105</v>
       </c>
       <c r="F129" t="n">
-        <v>12.57325418284378</v>
+        <v>12.57175267953109</v>
       </c>
       <c r="G129" t="n">
-        <v>41.7578572335878</v>
+        <v>41.76248418728468</v>
       </c>
       <c r="H129" t="n">
         <v>0.05</v>
       </c>
       <c r="I129" t="n">
-        <v>5089.51</v>
+        <v>5089.33</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2441609</v>
+        <v>2441890</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2526.09</v>
+        <v>2524.68</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>79812</v>
+        <v>79275</v>
       </c>
       <c r="E131" t="n">
-        <v>79812</v>
+        <v>79275</v>
       </c>
       <c r="F131" t="n">
-        <v>9.496621868314634</v>
+        <v>14.52032986804925</v>
       </c>
       <c r="G131" t="n">
-        <v>27.20063882410966</v>
+        <v>27.24789135149049</v>
       </c>
       <c r="H131" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="I131" t="n">
-        <v>20154</v>
+        <v>19938.98</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4140607</v>
+        <v>4135219</v>
       </c>
       <c r="F132" t="n">
-        <v>220.3507155921817</v>
+        <v>167.5083028820095</v>
       </c>
       <c r="G132" t="n">
-        <v>418.1828102716465</v>
+        <v>435.0376216035847</v>
       </c>
       <c r="H132" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I132" t="n">
-        <v>269071</v>
+        <v>269574</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2089283</v>
+        <v>2096494</v>
       </c>
       <c r="E133" t="n">
-        <v>8532092</v>
+        <v>8561538</v>
       </c>
       <c r="F133" t="n">
-        <v>427.0892004101057</v>
+        <v>408.434577003485</v>
       </c>
       <c r="G133" t="n">
-        <v>2.714789815415244</v>
+        <v>167.6843621015101</v>
       </c>
       <c r="H133" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="I133" t="n">
-        <v>217846</v>
+        <v>422809</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7256765</v>
+        <v>7264538</v>
       </c>
       <c r="E134" t="n">
-        <v>7310707</v>
+        <v>7318537</v>
       </c>
       <c r="F134" t="n">
-        <v>299373.4125627194</v>
+        <v>299163.8411328073</v>
       </c>
       <c r="G134" t="n">
-        <v>304723.3545139541</v>
+        <v>253793.0578818079</v>
       </c>
       <c r="H134" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="I134" t="n">
-        <v>5786434</v>
+        <v>5908215</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13303870</v>
+        <v>13282906</v>
       </c>
       <c r="E135" t="n">
-        <v>13349144</v>
+        <v>13328109</v>
       </c>
       <c r="F135" t="n">
-        <v>10634.26077872171</v>
+        <v>12548.98946194239</v>
       </c>
       <c r="G135" t="n">
-        <v>5289.864210374069</v>
+        <v>10538.98343854709</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>6877904</v>
+        <v>6892945</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42192456</v>
+        <v>42207545</v>
       </c>
       <c r="E136" t="n">
-        <v>71632974</v>
+        <v>71658592</v>
       </c>
       <c r="F136" t="n">
-        <v>658.5447778770792</v>
+        <v>585.2202989592341</v>
       </c>
       <c r="G136" t="n">
-        <v>668.2710980235287</v>
+        <v>1758.239577896577</v>
       </c>
       <c r="H136" t="n">
         <v>0.08</v>
       </c>
       <c r="I136" t="n">
-        <v>1126627</v>
+        <v>1130709</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19396989</v>
+        <v>19244971</v>
       </c>
       <c r="E137" t="n">
-        <v>58157459</v>
+        <v>57699435</v>
       </c>
       <c r="F137" t="n">
-        <v>38810.06470142187</v>
+        <v>37876.84418875314</v>
       </c>
       <c r="G137" t="n">
-        <v>23212.31803472098</v>
+        <v>21923.66396784384</v>
       </c>
       <c r="H137" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I137" t="n">
-        <v>4334746</v>
+        <v>3625702</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>97179587</v>
+        <v>100320899</v>
       </c>
       <c r="E138" t="n">
-        <v>103310683</v>
+        <v>106650182</v>
       </c>
       <c r="F138" t="n">
-        <v>1944.135946548818</v>
+        <v>1478.131499753015</v>
       </c>
       <c r="G138" t="n">
-        <v>3536.113886685635</v>
+        <v>3006.245561631816</v>
       </c>
       <c r="H138" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I138" t="n">
-        <v>1815433</v>
+        <v>1818991</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1306658</v>
+        <v>1306652</v>
       </c>
       <c r="F139" t="n">
-        <v>7.719248244023471</v>
+        <v>7.717868606131862</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2374987692805782</v>
+        <v>0.2374563218438652</v>
       </c>
       <c r="H139" t="n">
         <v>3.85</v>
       </c>
       <c r="I139" t="n">
-        <v>1939.37</v>
+        <v>1939.3</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>234092</v>
+        <v>234457</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.55</v>
+        <v>9.92</v>
       </c>
       <c r="I140" t="n">
-        <v>63.51</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>70857</v>
+        <v>70749</v>
       </c>
       <c r="E141" t="n">
-        <v>201004</v>
+        <v>200700</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>424.16</v>
+        <v>424.48</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50138929</v>
+        <v>49544852</v>
       </c>
       <c r="E142" t="n">
-        <v>215993025</v>
+        <v>213433804</v>
       </c>
       <c r="F142" t="n">
-        <v>44824.61899109493</v>
+        <v>53458.30199877671</v>
       </c>
       <c r="G142" t="n">
-        <v>54687.28673741747</v>
+        <v>71417.5895972416</v>
       </c>
       <c r="H142" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>13078910</v>
+        <v>13246804</v>
       </c>
     </row>
     <row r="143">
@@ -5407,19 +5407,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>281035</v>
+        <v>280932</v>
       </c>
       <c r="F143" t="n">
-        <v>23.73837306415374</v>
+        <v>23.73430691271949</v>
       </c>
       <c r="G143" t="n">
-        <v>13.53069471643462</v>
+        <v>13.52837704059479</v>
       </c>
       <c r="H143" t="n">
         <v>0.68</v>
       </c>
       <c r="I143" t="n">
-        <v>12998.2</v>
+        <v>12990.92</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9833671</v>
+        <v>10113871</v>
       </c>
       <c r="F144" t="n">
-        <v>240.0217546424651</v>
+        <v>161.8454056884412</v>
       </c>
       <c r="G144" t="n">
-        <v>333.7601204224656</v>
+        <v>295.9481496393195</v>
       </c>
       <c r="H144" t="n">
         <v>0.98</v>
       </c>
       <c r="I144" t="n">
-        <v>171125</v>
+        <v>63851</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1168984</v>
+        <v>1168425</v>
       </c>
       <c r="E145" t="n">
-        <v>7793227</v>
+        <v>7789499</v>
       </c>
       <c r="F145" t="n">
-        <v>262.3476847543204</v>
+        <v>262.3007961461009</v>
       </c>
       <c r="G145" t="n">
-        <v>36.78599843317059</v>
+        <v>36.77942378293073</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4369.79</v>
+        <v>4364.52</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7592615</v>
+        <v>7586774</v>
       </c>
       <c r="F146" t="n">
-        <v>166.5089576652029</v>
+        <v>155.7446936688453</v>
       </c>
       <c r="G146" t="n">
-        <v>99.54987868444329</v>
+        <v>702.2473756405835</v>
       </c>
       <c r="H146" t="n">
-        <v>1.08</v>
+        <v>1.89</v>
       </c>
       <c r="I146" t="n">
-        <v>7184834</v>
+        <v>7144818</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>659295</v>
+        <v>659886</v>
       </c>
       <c r="E147" t="n">
-        <v>2379700</v>
+        <v>2381833</v>
       </c>
       <c r="F147" t="n">
-        <v>10.6107977519726</v>
+        <v>19.8960852856377</v>
       </c>
       <c r="G147" t="n">
-        <v>10.58230926368338</v>
+        <v>149.1319861083935</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I147" t="n">
-        <v>403265</v>
+        <v>402275</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1547618</v>
+        <v>1547670</v>
       </c>
       <c r="F148" t="n">
-        <v>1146.031983483164</v>
+        <v>1131.045462980402</v>
       </c>
       <c r="G148" t="n">
-        <v>56.28465887237503</v>
+        <v>56.27613687439782</v>
       </c>
       <c r="H148" t="n">
         <v>0.03</v>
       </c>
       <c r="I148" t="n">
-        <v>86239</v>
+        <v>87072</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>62872</v>
+        <v>62974</v>
       </c>
       <c r="F149" t="n">
-        <v>8.121284990750562</v>
+        <v>0.9950053133785204</v>
       </c>
       <c r="G149" t="n">
-        <v>0.004143508661300878</v>
+        <v>36.57127024315193</v>
       </c>
       <c r="H149" t="n">
-        <v>3.23</v>
+        <v>3.33</v>
       </c>
       <c r="I149" t="n">
-        <v>3143.5</v>
+        <v>3143.39</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12486906</v>
+        <v>12471023</v>
       </c>
       <c r="E150" t="n">
-        <v>12486906</v>
+        <v>12471023</v>
       </c>
       <c r="F150" t="n">
-        <v>272.5843517352737</v>
+        <v>236.9374254263159</v>
       </c>
       <c r="G150" t="n">
-        <v>1107.187594951313</v>
+        <v>458.625691144684</v>
       </c>
       <c r="H150" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="I150" t="n">
-        <v>3208900</v>
+        <v>3152340</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2259914</v>
+        <v>2264285</v>
       </c>
       <c r="E151" t="n">
-        <v>8203144</v>
+        <v>8219012</v>
       </c>
       <c r="F151" t="n">
-        <v>225.0142586390087</v>
+        <v>19.32984693782154</v>
       </c>
       <c r="G151" t="n">
-        <v>151.756738959609</v>
+        <v>44.41984330695603</v>
       </c>
       <c r="H151" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="I151" t="n">
-        <v>220753</v>
+        <v>221280</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1218508</v>
+        <v>1206442</v>
       </c>
       <c r="E152" t="n">
-        <v>1218508</v>
+        <v>1206442</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1000.29</v>
+        <v>991.75</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23001121</v>
+        <v>22997294</v>
       </c>
       <c r="E153" t="n">
-        <v>26568963</v>
+        <v>26565473</v>
       </c>
       <c r="F153" t="n">
-        <v>674.5697805334817</v>
+        <v>633.7992088703053</v>
       </c>
       <c r="G153" t="n">
-        <v>435.1354312862866</v>
+        <v>553.218694270271</v>
       </c>
       <c r="H153" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="I153" t="n">
-        <v>738844</v>
+        <v>759650</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2442222</v>
+        <v>2441573</v>
       </c>
       <c r="E154" t="n">
-        <v>18377089</v>
+        <v>18372211</v>
       </c>
       <c r="F154" t="n">
-        <v>3301.144788140908</v>
+        <v>3414.827711898991</v>
       </c>
       <c r="G154" t="n">
-        <v>3404.905372284581</v>
+        <v>3432.846338087557</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161439</v>
+        <v>161359</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>19588019</v>
+        <v>19611310</v>
       </c>
       <c r="E155" t="n">
-        <v>78352075</v>
+        <v>78445240</v>
       </c>
       <c r="F155" t="n">
-        <v>342.5057215230122</v>
+        <v>978.7279443650854</v>
       </c>
       <c r="G155" t="n">
-        <v>4299.353924828577</v>
+        <v>735.909899030785</v>
       </c>
       <c r="H155" t="n">
         <v>1.89</v>
       </c>
       <c r="I155" t="n">
-        <v>3612902</v>
+        <v>3708397</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>284671666</v>
+        <v>283660814</v>
       </c>
       <c r="E156" t="n">
-        <v>284671666</v>
+        <v>283660814</v>
       </c>
       <c r="F156" t="n">
-        <v>249744.7740009327</v>
+        <v>355857.5329301996</v>
       </c>
       <c r="G156" t="n">
-        <v>313390.0907313352</v>
+        <v>265775.9927371133</v>
       </c>
       <c r="H156" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="I156" t="n">
-        <v>19775718</v>
+        <v>19791253</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12626242</v>
+        <v>12580996</v>
       </c>
       <c r="E157" t="n">
-        <v>39935156</v>
+        <v>39792050</v>
       </c>
       <c r="F157" t="n">
-        <v>4079.22054548447</v>
+        <v>4686.524002258386</v>
       </c>
       <c r="G157" t="n">
-        <v>9942.266956083702</v>
+        <v>3110.951550383936</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="I157" t="n">
-        <v>1005395</v>
+        <v>1025151</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1094199</v>
+        <v>1094588</v>
       </c>
       <c r="E158" t="n">
-        <v>2492146</v>
+        <v>2493031</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.75</v>
       </c>
       <c r="I158" t="n">
-        <v>453.11</v>
+        <v>453.05</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17328157</v>
+        <v>17263661</v>
       </c>
       <c r="E159" t="n">
-        <v>17328157</v>
+        <v>17263661</v>
       </c>
       <c r="F159" t="n">
-        <v>9001.955443755056</v>
+        <v>7125.787960490034</v>
       </c>
       <c r="G159" t="n">
-        <v>18041.20540874336</v>
+        <v>25359.73582556993</v>
       </c>
       <c r="H159" t="n">
         <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>7102607</v>
+        <v>7219771</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4611327</v>
+        <v>4610508</v>
       </c>
       <c r="E160" t="n">
-        <v>8489945</v>
+        <v>8488438</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>13.27</v>
+        <v>13.55</v>
       </c>
       <c r="I160" t="n">
-        <v>57</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>103746</v>
+        <v>103855</v>
       </c>
       <c r="E161" t="n">
-        <v>125917</v>
+        <v>126049</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>7.43</v>
+        <v>7.4</v>
       </c>
       <c r="I161" t="n">
-        <v>1965.31</v>
+        <v>1969.74</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>22090986</v>
+        <v>27879153</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>12.72</v>
+        <v>12.4</v>
       </c>
       <c r="I162" t="n">
-        <v>1754.45</v>
+        <v>2377.13</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>460803</v>
+        <v>460880</v>
       </c>
       <c r="E163" t="n">
-        <v>580440</v>
+        <v>580537</v>
       </c>
       <c r="F163" t="n">
-        <v>115.3638005730173</v>
+        <v>165.5957258856439</v>
       </c>
       <c r="G163" t="n">
-        <v>144.7051481263126</v>
+        <v>114.9829797461646</v>
       </c>
       <c r="H163" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="I163" t="n">
-        <v>187194</v>
+        <v>149146</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104586</v>
+        <v>104756</v>
       </c>
       <c r="F164" t="n">
-        <v>18.53925076296893</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>193.6781553459476</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.1</v>
+        <v>6.01</v>
       </c>
       <c r="I164" t="n">
-        <v>2748.66</v>
+        <v>2785.63</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12455705</v>
+        <v>12253818</v>
       </c>
       <c r="E165" t="n">
-        <v>18960392</v>
+        <v>18653075</v>
       </c>
       <c r="F165" t="n">
-        <v>964.8289120799521</v>
+        <v>1577.132717677928</v>
       </c>
       <c r="G165" t="n">
-        <v>1099.101636182506</v>
+        <v>1089.400744043484</v>
       </c>
       <c r="H165" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I165" t="n">
-        <v>652751</v>
+        <v>649154</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>285783967</v>
+        <v>286230369</v>
       </c>
       <c r="E166" t="n">
-        <v>285783967</v>
+        <v>286230369</v>
       </c>
       <c r="F166" t="n">
-        <v>188924.4808669476</v>
+        <v>204092.0070231937</v>
       </c>
       <c r="G166" t="n">
-        <v>315723.5363433901</v>
+        <v>293352.8512908514</v>
       </c>
       <c r="H166" t="n">
         <v>0.11</v>
       </c>
       <c r="I166" t="n">
-        <v>93408418</v>
+        <v>93031335</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9821562</v>
+        <v>9813571</v>
       </c>
       <c r="E167" t="n">
-        <v>27885053</v>
+        <v>27862366</v>
       </c>
       <c r="F167" t="n">
-        <v>365.7640314028154</v>
+        <v>402.5970629611706</v>
       </c>
       <c r="G167" t="n">
-        <v>1012.48983756031</v>
+        <v>985.7561547008004</v>
       </c>
       <c r="H167" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="I167" t="n">
-        <v>90842</v>
+        <v>90043</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11642578</v>
+        <v>11623126</v>
       </c>
       <c r="F168" t="n">
-        <v>137.948386535703</v>
+        <v>304.8816513287684</v>
       </c>
       <c r="G168" t="n">
-        <v>211.145849032915</v>
+        <v>69.67149312973261</v>
       </c>
       <c r="H168" t="n">
-        <v>2.29</v>
+        <v>1.8</v>
       </c>
       <c r="I168" t="n">
-        <v>89237</v>
+        <v>89429</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4644822</v>
+        <v>4579436</v>
       </c>
       <c r="E169" t="n">
-        <v>31737745</v>
+        <v>31290965</v>
       </c>
       <c r="F169" t="n">
-        <v>1233.78452996791</v>
+        <v>1158.758008866931</v>
       </c>
       <c r="G169" t="n">
-        <v>430.8939856017762</v>
+        <v>1401.472933516236</v>
       </c>
       <c r="H169" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="I169" t="n">
-        <v>2976623</v>
+        <v>2984377</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2638279</v>
+        <v>2637058</v>
       </c>
       <c r="E170" t="n">
-        <v>3905434</v>
+        <v>3903490</v>
       </c>
       <c r="F170" t="n">
-        <v>855.9136907996575</v>
+        <v>1555.131104039572</v>
       </c>
       <c r="G170" t="n">
-        <v>357.0199537725606</v>
+        <v>1371.771538286757</v>
       </c>
       <c r="H170" t="n">
         <v>1.02</v>
       </c>
       <c r="I170" t="n">
-        <v>86869</v>
+        <v>86865</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>83677659</v>
+        <v>83414356</v>
       </c>
       <c r="E171" t="n">
-        <v>482186762</v>
+        <v>480669498</v>
       </c>
       <c r="F171" t="n">
-        <v>238673.2145920286</v>
+        <v>267340.2018927576</v>
       </c>
       <c r="G171" t="n">
-        <v>302767.7759780724</v>
+        <v>195145.2819524701</v>
       </c>
       <c r="H171" t="n">
         <v>0.23</v>
       </c>
       <c r="I171" t="n">
-        <v>21250499</v>
+        <v>21188073</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13851835</v>
+        <v>13810855</v>
       </c>
       <c r="E172" t="n">
-        <v>13851835</v>
+        <v>13810855</v>
       </c>
       <c r="F172" t="n">
-        <v>5032.469692852031</v>
+        <v>4928.309263287592</v>
       </c>
       <c r="G172" t="n">
-        <v>5046.365815014398</v>
+        <v>4143.57671585259</v>
       </c>
       <c r="H172" t="n">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="I172" t="n">
-        <v>697925</v>
+        <v>701286</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6074905</v>
+        <v>6086298</v>
       </c>
       <c r="E173" t="n">
-        <v>17257060</v>
+        <v>17289425</v>
       </c>
       <c r="F173" t="n">
-        <v>297.176873153623</v>
+        <v>724.7438578065884</v>
       </c>
       <c r="G173" t="n">
-        <v>7619.404236585524</v>
+        <v>7931.660133427627</v>
       </c>
       <c r="H173" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I173" t="n">
-        <v>94497</v>
+        <v>95172</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18662533</v>
+        <v>18610492</v>
       </c>
       <c r="E174" t="n">
-        <v>18662533</v>
+        <v>18610492</v>
       </c>
       <c r="F174" t="n">
-        <v>37.50539663944169</v>
+        <v>884.3089769462588</v>
       </c>
       <c r="G174" t="n">
-        <v>1.061586645736081</v>
+        <v>1.061396911565682</v>
       </c>
       <c r="H174" t="n">
-        <v>1.35</v>
+        <v>0.84</v>
       </c>
       <c r="I174" t="n">
-        <v>105044</v>
+        <v>110622</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1315159</v>
+        <v>1334686</v>
       </c>
       <c r="F175" t="n">
-        <v>82.8897779190129</v>
+        <v>1410.045645894742</v>
       </c>
       <c r="G175" t="n">
-        <v>234.6023454013247</v>
+        <v>266.9715380992635</v>
       </c>
       <c r="H175" t="n">
-        <v>2.17</v>
+        <v>0.08</v>
       </c>
       <c r="I175" t="n">
-        <v>42104</v>
+        <v>42847</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>121354</v>
+        <v>122067</v>
       </c>
       <c r="E176" t="n">
-        <v>264185</v>
+        <v>265737</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="I176" t="n">
-        <v>41157</v>
+        <v>41492</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2963182</v>
+        <v>2960195</v>
       </c>
       <c r="F177" t="n">
-        <v>159.9392964191171</v>
+        <v>567.5176827417804</v>
       </c>
       <c r="G177" t="n">
-        <v>351.0834492040845</v>
+        <v>175.9442016830089</v>
       </c>
       <c r="H177" t="n">
-        <v>1.68</v>
+        <v>2.01</v>
       </c>
       <c r="I177" t="n">
-        <v>375730</v>
+        <v>369918</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>230671060</v>
+        <v>230544140</v>
       </c>
       <c r="E178" t="n">
-        <v>230673351</v>
+        <v>230546431</v>
       </c>
       <c r="F178" t="n">
-        <v>4906.826361525556</v>
+        <v>4890.528089631322</v>
       </c>
       <c r="G178" t="n">
-        <v>45177.38040391286</v>
+        <v>43118.39282174003</v>
       </c>
       <c r="H178" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I178" t="n">
-        <v>1947462</v>
+        <v>1951152</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9129448</v>
+        <v>9101863</v>
       </c>
       <c r="E179" t="n">
-        <v>9129448</v>
+        <v>9101863</v>
       </c>
       <c r="F179" t="n">
-        <v>194.8706366275322</v>
+        <v>262.2268501920103</v>
       </c>
       <c r="G179" t="n">
-        <v>957.5982924797123</v>
+        <v>960.8587886035608</v>
       </c>
       <c r="H179" t="n">
         <v>1.38</v>
       </c>
       <c r="I179" t="n">
-        <v>2957092</v>
+        <v>2952546</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>190418</v>
+        <v>190453</v>
       </c>
       <c r="E180" t="n">
-        <v>1470411</v>
+        <v>1470683</v>
       </c>
       <c r="F180" t="n">
-        <v>526.0156391865511</v>
+        <v>546.923513241221</v>
       </c>
       <c r="G180" t="n">
-        <v>108.2679590497589</v>
+        <v>83.08695389820473</v>
       </c>
       <c r="H180" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="I180" t="n">
-        <v>55940</v>
+        <v>46032</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>28912351</v>
+        <v>28749906</v>
       </c>
       <c r="E181" t="n">
-        <v>129452457</v>
+        <v>128725121</v>
       </c>
       <c r="F181" t="n">
-        <v>21888.39160343915</v>
+        <v>28913.14095557374</v>
       </c>
       <c r="G181" t="n">
-        <v>52424.60140538933</v>
+        <v>56254.68416865516</v>
       </c>
       <c r="H181" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I181" t="n">
-        <v>14505721</v>
+        <v>14578791</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1313226</v>
+        <v>1313330</v>
       </c>
       <c r="F182" t="n">
-        <v>499.4924766714856</v>
+        <v>530.3950161547125</v>
       </c>
       <c r="G182" t="n">
-        <v>31.61004312101555</v>
+        <v>31.60462862938945</v>
       </c>
       <c r="H182" t="n">
-        <v>1.15</v>
+        <v>0.61</v>
       </c>
       <c r="I182" t="n">
-        <v>95049</v>
+        <v>95039</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2892440</v>
+        <v>2889191</v>
       </c>
       <c r="E183" t="n">
-        <v>2892440</v>
+        <v>2889191</v>
       </c>
       <c r="F183" t="n">
-        <v>727.3237050362727</v>
+        <v>663.01873741273</v>
       </c>
       <c r="G183" t="n">
-        <v>548.8498007424332</v>
+        <v>555.4725144875296</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="I183" t="n">
-        <v>315267</v>
+        <v>312413</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>551805</v>
+        <v>550570</v>
       </c>
       <c r="E184" t="n">
-        <v>551805</v>
+        <v>550570</v>
       </c>
       <c r="F184" t="n">
-        <v>9.259700059830919</v>
+        <v>9.258045101645402</v>
       </c>
       <c r="G184" t="n">
-        <v>6.083299041507678</v>
+        <v>30.59834756741349</v>
       </c>
       <c r="H184" t="n">
         <v>3.64</v>
       </c>
       <c r="I184" t="n">
-        <v>1131568</v>
+        <v>1184414</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14105735</v>
+        <v>14171307</v>
       </c>
       <c r="E185" t="n">
-        <v>17958852</v>
+        <v>18042337</v>
       </c>
       <c r="F185" t="n">
-        <v>90.6735417828736</v>
+        <v>358.7973859517806</v>
       </c>
       <c r="G185" t="n">
-        <v>505.8934284103278</v>
+        <v>2024.179896543223</v>
       </c>
       <c r="H185" t="n">
         <v>0.93</v>
       </c>
       <c r="I185" t="n">
-        <v>925876</v>
+        <v>917114</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1742275</v>
+        <v>1742003</v>
       </c>
       <c r="E186" t="n">
-        <v>1742275</v>
+        <v>1742003</v>
       </c>
       <c r="F186" t="n">
-        <v>4.101890601950284</v>
+        <v>11.98410857736201</v>
       </c>
       <c r="G186" t="n">
-        <v>0.810255450882942</v>
+        <v>0.8101106363768421</v>
       </c>
       <c r="H186" t="n">
-        <v>3.53</v>
+        <v>3.37</v>
       </c>
       <c r="I186" t="n">
-        <v>3520.14</v>
+        <v>3518.41</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47448556</v>
+        <v>47269183</v>
       </c>
       <c r="E187" t="n">
-        <v>307691256</v>
+        <v>306528070</v>
       </c>
       <c r="F187" t="n">
-        <v>165752.7824842059</v>
+        <v>148876.6929003655</v>
       </c>
       <c r="G187" t="n">
-        <v>191014.903055764</v>
+        <v>153774.5741268534</v>
       </c>
       <c r="H187" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I187" t="n">
-        <v>21340206</v>
+        <v>21244444</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8058146</v>
+        <v>7993730</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>148.4947119909863</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>9.991650895390046</v>
       </c>
       <c r="H188" t="n">
-        <v>4.37</v>
+        <v>2.72</v>
       </c>
       <c r="I188" t="n">
-        <v>310736</v>
+        <v>310467</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7053783</v>
+        <v>7066720</v>
       </c>
       <c r="E189" t="n">
-        <v>7063884</v>
+        <v>7076840</v>
       </c>
       <c r="F189" t="n">
-        <v>194.3613247872866</v>
+        <v>158.3723406820069</v>
       </c>
       <c r="G189" t="n">
-        <v>86.03764071255267</v>
+        <v>66.46879457378263</v>
       </c>
       <c r="H189" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="I189" t="n">
-        <v>659958</v>
+        <v>852960</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4494691</v>
+        <v>4521677</v>
       </c>
       <c r="F190" t="n">
-        <v>8.337858272809271</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>19.57472278522505</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>3.39</v>
+        <v>3.97</v>
       </c>
       <c r="I190" t="n">
-        <v>246491</v>
+        <v>254573</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>91059535</v>
+        <v>90120745</v>
       </c>
       <c r="E191" t="n">
-        <v>92039725</v>
+        <v>91090830</v>
       </c>
       <c r="F191" t="n">
-        <v>9486.311877274991</v>
+        <v>9240.730045506747</v>
       </c>
       <c r="G191" t="n">
-        <v>20060.70129228693</v>
+        <v>44411.37633235132</v>
       </c>
       <c r="H191" t="n">
         <v>0.12</v>
       </c>
       <c r="I191" t="n">
-        <v>81161223</v>
+        <v>81297036</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>243437056</v>
+        <v>240196527</v>
       </c>
       <c r="E192" t="n">
-        <v>243437056</v>
+        <v>240196527</v>
       </c>
       <c r="F192" t="n">
-        <v>31946.99358063646</v>
+        <v>31809.94923069681</v>
       </c>
       <c r="G192" t="n">
-        <v>40106.29927715052</v>
+        <v>35090.4880223574</v>
       </c>
       <c r="H192" t="n">
         <v>0.16</v>
       </c>
       <c r="I192" t="n">
-        <v>93546933</v>
+        <v>93633945</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>22653552</v>
+        <v>22561329</v>
       </c>
       <c r="E193" t="n">
-        <v>135540756</v>
+        <v>134988967</v>
       </c>
       <c r="F193" t="n">
-        <v>46628.59398874891</v>
+        <v>69429.77570351215</v>
       </c>
       <c r="G193" t="n">
-        <v>105428.8433000732</v>
+        <v>74074.44043753936</v>
       </c>
       <c r="H193" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>18012310</v>
+        <v>18065938</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13258376</v>
+        <v>13304376</v>
       </c>
       <c r="E194" t="n">
-        <v>40070493</v>
+        <v>40209516</v>
       </c>
       <c r="F194" t="n">
-        <v>638.8623393130522</v>
+        <v>817.4862085453394</v>
       </c>
       <c r="G194" t="n">
-        <v>773.0729238233929</v>
+        <v>1028.276595429679</v>
       </c>
       <c r="H194" t="n">
         <v>0.54</v>
       </c>
       <c r="I194" t="n">
-        <v>2412955</v>
+        <v>2418495</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52155408</v>
+        <v>52180859</v>
       </c>
       <c r="E195" t="n">
-        <v>90083728</v>
+        <v>90127688</v>
       </c>
       <c r="F195" t="n">
-        <v>7808.803124992721</v>
+        <v>7845.645776367816</v>
       </c>
       <c r="G195" t="n">
-        <v>9106.633160715059</v>
+        <v>9120.353240128097</v>
       </c>
       <c r="H195" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I195" t="n">
-        <v>2296000</v>
+        <v>2271791</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4092191</v>
+        <v>4078087</v>
       </c>
       <c r="E196" t="n">
-        <v>4092191</v>
+        <v>4078087</v>
       </c>
       <c r="F196" t="n">
-        <v>250.1177008421493</v>
+        <v>234.7330360670358</v>
       </c>
       <c r="G196" t="n">
-        <v>21.03301488419654</v>
+        <v>22.07491844272543</v>
       </c>
       <c r="H196" t="n">
-        <v>2.12</v>
+        <v>0.34</v>
       </c>
       <c r="I196" t="n">
-        <v>1747741</v>
+        <v>1742298</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>188562</v>
+        <v>186667</v>
       </c>
       <c r="F197" t="n">
-        <v>3.028477659182121</v>
+        <v>403.6080394883736</v>
       </c>
       <c r="G197" t="n">
-        <v>153.6682053965822</v>
+        <v>86.97375380709286</v>
       </c>
       <c r="H197" t="n">
-        <v>3.69</v>
+        <v>3.12</v>
       </c>
       <c r="I197" t="n">
-        <v>62801</v>
+        <v>62977</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6282867</v>
+        <v>6240469</v>
       </c>
       <c r="E198" t="n">
-        <v>32323440</v>
+        <v>32105318</v>
       </c>
       <c r="F198" t="n">
-        <v>249.7487598370717</v>
+        <v>292.0203994980924</v>
       </c>
       <c r="G198" t="n">
-        <v>622.651107446413</v>
+        <v>601.8349433964329</v>
       </c>
       <c r="H198" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="I198" t="n">
-        <v>951319</v>
+        <v>956545</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>164545539</v>
+        <v>163942559</v>
       </c>
       <c r="E199" t="n">
-        <v>192237775</v>
+        <v>191533316</v>
       </c>
       <c r="F199" t="n">
-        <v>11268.57170177424</v>
+        <v>14920.280750738</v>
       </c>
       <c r="G199" t="n">
-        <v>5545.105742078706</v>
+        <v>5136.098597880135</v>
       </c>
       <c r="H199" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I199" t="n">
-        <v>7294442</v>
+        <v>7145067</v>
       </c>
     </row>
     <row r="200">
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>300158</v>
+        <v>299832</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -7409,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>4.89</v>
+        <v>4.28</v>
       </c>
       <c r="I200" t="n">
-        <v>259411</v>
+        <v>235443</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7594277</v>
+        <v>7597449</v>
       </c>
       <c r="F201" t="n">
-        <v>945.6780159773268</v>
+        <v>965.1999609771892</v>
       </c>
       <c r="G201" t="n">
-        <v>387.9175811213889</v>
+        <v>387.837931881856</v>
       </c>
       <c r="H201" t="n">
         <v>0.32</v>
       </c>
       <c r="I201" t="n">
-        <v>657519</v>
+        <v>658167</v>
       </c>
     </row>
     <row r="202">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32054684</v>
+        <v>31874220</v>
       </c>
       <c r="E203" t="n">
-        <v>159967649</v>
+        <v>159067050</v>
       </c>
       <c r="F203" t="n">
-        <v>119906.0386725098</v>
+        <v>137823.0994591772</v>
       </c>
       <c r="G203" t="n">
-        <v>108319.9252122497</v>
+        <v>105541.1547133099</v>
       </c>
       <c r="H203" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I203" t="n">
-        <v>14030576</v>
+        <v>13980585</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1916830</v>
+        <v>1907484</v>
       </c>
       <c r="E204" t="n">
-        <v>1916830</v>
+        <v>1907484</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>16.2</v>
+        <v>20.39</v>
       </c>
       <c r="I204" t="n">
-        <v>5305.48</v>
+        <v>5296.19</v>
       </c>
     </row>
     <row r="205">
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>151664</v>
+        <v>153376</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>4.32</v>
       </c>
       <c r="I205" t="n">
-        <v>30050</v>
+        <v>30272</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3081.01</v>
+        <v>3086</v>
       </c>
       <c r="E206" t="n">
-        <v>36825</v>
+        <v>36885</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.14</v>
+        <v>6.99</v>
       </c>
       <c r="I206" t="n">
-        <v>3838.24</v>
+        <v>3835.95</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>286836510</v>
+        <v>286782706</v>
       </c>
       <c r="E208" t="n">
-        <v>530712955</v>
+        <v>530613406</v>
       </c>
       <c r="F208" t="n">
-        <v>53082.28746800053</v>
+        <v>80187.18099755776</v>
       </c>
       <c r="G208" t="n">
-        <v>52579.71051873598</v>
+        <v>82615.69121576146</v>
       </c>
       <c r="H208" t="n">
         <v>0.04</v>
       </c>
       <c r="I208" t="n">
-        <v>17349172</v>
+        <v>17635409</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>68609219</v>
+        <v>68519998</v>
       </c>
       <c r="E209" t="n">
-        <v>654405242</v>
+        <v>653551750</v>
       </c>
       <c r="F209" t="n">
-        <v>266984.5366173427</v>
+        <v>279517.4992111599</v>
       </c>
       <c r="G209" t="n">
-        <v>340952.9930265804</v>
+        <v>270498.7237514218</v>
       </c>
       <c r="H209" t="n">
         <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>23792371</v>
+        <v>23917717</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2241675</v>
+        <v>2240538</v>
       </c>
       <c r="F210" t="n">
-        <v>1244.248607680106</v>
+        <v>744.1793857227774</v>
       </c>
       <c r="G210" t="n">
-        <v>109.7400019502902</v>
+        <v>109.7203884516528</v>
       </c>
       <c r="H210" t="n">
-        <v>2.46</v>
+        <v>3.01</v>
       </c>
       <c r="I210" t="n">
-        <v>44721</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>76034</v>
+        <v>75924</v>
       </c>
       <c r="E211" t="n">
-        <v>632088</v>
+        <v>631174</v>
       </c>
       <c r="F211" t="n">
-        <v>326.4556630931267</v>
+        <v>526.2269109751849</v>
       </c>
       <c r="G211" t="n">
-        <v>36.72313689082089</v>
+        <v>36.71657347563438</v>
       </c>
       <c r="H211" t="n">
         <v>1.49</v>
       </c>
       <c r="I211" t="n">
-        <v>125.04</v>
+        <v>125.03</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1835565</v>
+        <v>1825875</v>
       </c>
       <c r="E212" t="n">
-        <v>5242139</v>
+        <v>5214465</v>
       </c>
       <c r="F212" t="n">
-        <v>101.5472901833043</v>
+        <v>2773.273520038071</v>
       </c>
       <c r="G212" t="n">
-        <v>888.3200914349483</v>
+        <v>414.7261373816546</v>
       </c>
       <c r="H212" t="n">
         <v>1.2</v>
       </c>
       <c r="I212" t="n">
-        <v>73006</v>
+        <v>72891</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>8795279</v>
+        <v>8803070</v>
       </c>
       <c r="E213" t="n">
-        <v>26073944</v>
+        <v>26097039</v>
       </c>
       <c r="F213" t="n">
-        <v>2463.532189262884</v>
+        <v>2228.429416054268</v>
       </c>
       <c r="G213" t="n">
-        <v>2549.234280951856</v>
+        <v>498.9323078475769</v>
       </c>
       <c r="H213" t="n">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
       <c r="I213" t="n">
-        <v>6440767</v>
+        <v>6444472</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14546967</v>
+        <v>14546895</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>4.93</v>
+        <v>4.95</v>
       </c>
       <c r="I214" t="n">
-        <v>409.86</v>
+        <v>409.85</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1945637</v>
+        <v>1938825</v>
       </c>
       <c r="E215" t="n">
-        <v>5628243</v>
+        <v>5608538</v>
       </c>
       <c r="F215" t="n">
-        <v>127.1891708377753</v>
+        <v>127.2407782641498</v>
       </c>
       <c r="G215" t="n">
-        <v>92.29645956242661</v>
+        <v>148.9293358468234</v>
       </c>
       <c r="H215" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="I215" t="n">
-        <v>53224</v>
+        <v>53341</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2287300</v>
+        <v>2280840</v>
       </c>
       <c r="E216" t="n">
-        <v>20175501</v>
+        <v>20118525</v>
       </c>
       <c r="F216" t="n">
-        <v>1949.687383237626</v>
+        <v>1965.0847603752</v>
       </c>
       <c r="G216" t="n">
-        <v>1367.383128805375</v>
+        <v>1316.954975463205</v>
       </c>
       <c r="H216" t="n">
-        <v>1.63</v>
+        <v>2.17</v>
       </c>
       <c r="I216" t="n">
-        <v>90917</v>
+        <v>84834</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43278648</v>
+        <v>43184138</v>
       </c>
       <c r="E217" t="n">
-        <v>43278648</v>
+        <v>43184138</v>
       </c>
       <c r="F217" t="n">
-        <v>37299.9838274898</v>
+        <v>39743.4140071314</v>
       </c>
       <c r="G217" t="n">
-        <v>32082.75116732615</v>
+        <v>34334.91518706098</v>
       </c>
       <c r="H217" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I217" t="n">
-        <v>9978593</v>
+        <v>11816883</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8224425</v>
+        <v>8218831</v>
       </c>
       <c r="E218" t="n">
-        <v>11717922</v>
+        <v>11709952</v>
       </c>
       <c r="F218" t="n">
-        <v>2256.730262448268</v>
+        <v>2298.341855757126</v>
       </c>
       <c r="G218" t="n">
-        <v>1691.578796724603</v>
+        <v>1339.676875300355</v>
       </c>
       <c r="H218" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="I218" t="n">
-        <v>311051</v>
+        <v>315093</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15770265</v>
+        <v>15791250</v>
       </c>
       <c r="F219" t="n">
-        <v>2.122521059163384</v>
+        <v>2.122137542639895</v>
       </c>
       <c r="G219" t="n">
-        <v>412.7330103477984</v>
+        <v>412.6584339714772</v>
       </c>
       <c r="H219" t="n">
         <v>0.54</v>
       </c>
       <c r="I219" t="n">
-        <v>1110414</v>
+        <v>1110623</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>716844</v>
+        <v>716806</v>
       </c>
       <c r="F220" t="n">
-        <v>84.13050622758047</v>
+        <v>123.4779862429798</v>
       </c>
       <c r="G220" t="n">
-        <v>258.2022691210606</v>
+        <v>258.0138584126406</v>
       </c>
       <c r="H220" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="I220" t="n">
-        <v>210735</v>
+        <v>208907</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2580875</v>
+        <v>2558304</v>
       </c>
       <c r="E221" t="n">
-        <v>2583110</v>
+        <v>2560520</v>
       </c>
       <c r="F221" t="n">
-        <v>278.3257285009151</v>
+        <v>6.257341861203382</v>
       </c>
       <c r="G221" t="n">
-        <v>18.69704126670149</v>
+        <v>520.7810629974664</v>
       </c>
       <c r="H221" t="n">
-        <v>3.1</v>
+        <v>0.35</v>
       </c>
       <c r="I221" t="n">
-        <v>66464</v>
+        <v>105619</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1313894</v>
+        <v>1314146</v>
       </c>
       <c r="E222" t="n">
-        <v>3977606</v>
+        <v>3977501</v>
       </c>
       <c r="F222" t="n">
-        <v>278.1561480643794</v>
+        <v>279.5704736420835</v>
       </c>
       <c r="G222" t="n">
-        <v>403.6873005857111</v>
+        <v>427.001716899977</v>
       </c>
       <c r="H222" t="n">
         <v>2.01</v>
       </c>
       <c r="I222" t="n">
-        <v>29250</v>
+        <v>29255</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33097094</v>
+        <v>32767720</v>
       </c>
       <c r="E223" t="n">
-        <v>234652999</v>
+        <v>232317792</v>
       </c>
       <c r="F223" t="n">
-        <v>26105.84950023609</v>
+        <v>26156.70987260327</v>
       </c>
       <c r="G223" t="n">
-        <v>27085.86913883593</v>
+        <v>32467.85362971223</v>
       </c>
       <c r="H223" t="n">
-        <v>0.34</v>
+        <v>0.89</v>
       </c>
       <c r="I223" t="n">
-        <v>6310353</v>
+        <v>6294754</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>57295</v>
+        <v>55925</v>
       </c>
       <c r="E224" t="n">
-        <v>298943</v>
+        <v>291794</v>
       </c>
       <c r="F224" t="n">
-        <v>17.56178350909485</v>
+        <v>18.14360092944685</v>
       </c>
       <c r="G224" t="n">
-        <v>149.4964634149416</v>
+        <v>127.3188206052452</v>
       </c>
       <c r="H224" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="I224" t="n">
-        <v>206945</v>
+        <v>207039</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1256538</v>
+        <v>1253402</v>
       </c>
       <c r="E225" t="n">
-        <v>7790653</v>
+        <v>7771210</v>
       </c>
       <c r="F225" t="n">
-        <v>945.8794761607097</v>
+        <v>886.2711721069471</v>
       </c>
       <c r="G225" t="n">
-        <v>1634.779906450071</v>
+        <v>1587.009449821144</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>778322</v>
+        <v>775269</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>572957303</v>
+        <v>571219353</v>
       </c>
       <c r="E226" t="n">
-        <v>2218979099</v>
+        <v>2212248278</v>
       </c>
       <c r="F226" t="n">
-        <v>241284.7663157477</v>
+        <v>223174.9021951471</v>
       </c>
       <c r="G226" t="n">
-        <v>240927.9286584267</v>
+        <v>285005.6921796972</v>
       </c>
       <c r="H226" t="n">
         <v>0.09</v>
       </c>
       <c r="I226" t="n">
-        <v>60999454</v>
+        <v>60609672</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20901112</v>
+        <v>20867334</v>
       </c>
       <c r="F227" t="n">
-        <v>1541.571410983942</v>
+        <v>1629.172065801475</v>
       </c>
       <c r="G227" t="n">
-        <v>2398.147134681594</v>
+        <v>2396.398512871585</v>
       </c>
       <c r="H227" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I227" t="n">
-        <v>18852755</v>
+        <v>19093537</v>
       </c>
     </row>
     <row r="228">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>759613</v>
+        <v>759143</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>4.37</v>
+        <v>5.38</v>
       </c>
       <c r="I228" t="n">
-        <v>143293</v>
+        <v>143164</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5433534</v>
+        <v>5433419</v>
       </c>
       <c r="E229" t="n">
-        <v>24321769</v>
+        <v>24321251</v>
       </c>
       <c r="F229" t="n">
-        <v>92.50232603762943</v>
+        <v>501.8106277508655</v>
       </c>
       <c r="G229" t="n">
-        <v>608.0414887462109</v>
+        <v>698.0558994618696</v>
       </c>
       <c r="H229" t="n">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
       <c r="I229" t="n">
-        <v>191648</v>
+        <v>191790</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6408527</v>
+        <v>6493275</v>
       </c>
       <c r="E230" t="n">
-        <v>12269644</v>
+        <v>12431902</v>
       </c>
       <c r="F230" t="n">
-        <v>74.85185532036314</v>
+        <v>77.25662369652493</v>
       </c>
       <c r="G230" t="n">
-        <v>105.2469592983511</v>
+        <v>107.437811289399</v>
       </c>
       <c r="H230" t="n">
         <v>2.5</v>
       </c>
       <c r="I230" t="n">
-        <v>35870</v>
+        <v>35088</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3173307</v>
+        <v>3177857</v>
       </c>
       <c r="E231" t="n">
-        <v>20866930</v>
+        <v>20896849</v>
       </c>
       <c r="F231" t="n">
-        <v>894.6779283849909</v>
+        <v>171.5496302520994</v>
       </c>
       <c r="G231" t="n">
-        <v>254.525623725889</v>
+        <v>197.3889200994995</v>
       </c>
       <c r="H231" t="n">
-        <v>0.74</v>
+        <v>1.19</v>
       </c>
       <c r="I231" t="n">
-        <v>1635582</v>
+        <v>1678633</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>106668954</v>
+        <v>106708127</v>
       </c>
       <c r="E232" t="n">
-        <v>1009857716</v>
+        <v>1010228578</v>
       </c>
       <c r="F232" t="n">
-        <v>20809.4883736414</v>
+        <v>24695.13477787299</v>
       </c>
       <c r="G232" t="n">
-        <v>25185.88611719281</v>
+        <v>37179.12511463258</v>
       </c>
       <c r="H232" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I232" t="n">
-        <v>16232893</v>
+        <v>16331273</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>349.73</v>
+        <v>349.72</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>97740177</v>
+        <v>98460999</v>
       </c>
       <c r="E234" t="n">
-        <v>149104931</v>
+        <v>150204562</v>
       </c>
       <c r="F234" t="n">
-        <v>5480.308489301967</v>
+        <v>5552.682034075567</v>
       </c>
       <c r="G234" t="n">
-        <v>4828.397712639651</v>
+        <v>32292.16138374733</v>
       </c>
       <c r="H234" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I234" t="n">
-        <v>13183195</v>
+        <v>13181245</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15580552</v>
+        <v>15568052</v>
       </c>
       <c r="E235" t="n">
-        <v>21375168</v>
+        <v>21358019</v>
       </c>
       <c r="F235" t="n">
-        <v>587.6919843965031</v>
+        <v>754.3457657578184</v>
       </c>
       <c r="G235" t="n">
-        <v>2799.824169654856</v>
+        <v>1910.019126368971</v>
       </c>
       <c r="H235" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="I235" t="n">
-        <v>942896</v>
+        <v>945280</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>120865969</v>
+        <v>120296882</v>
       </c>
       <c r="E236" t="n">
-        <v>463661313</v>
+        <v>461478201</v>
       </c>
       <c r="F236" t="n">
-        <v>407643.7083122726</v>
+        <v>453183.6437559718</v>
       </c>
       <c r="G236" t="n">
-        <v>371760.7426774635</v>
+        <v>330810.5365231198</v>
       </c>
       <c r="H236" t="n">
         <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>39635482</v>
+        <v>39516262</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>724498</v>
+        <v>721889</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>278.1974343196396</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>99.08305045901092</v>
       </c>
       <c r="H237" t="n">
-        <v>4.2</v>
+        <v>3.84</v>
       </c>
       <c r="I237" t="n">
-        <v>45750</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>777578</v>
+        <v>778373</v>
       </c>
       <c r="F238" t="n">
-        <v>232.2269933447748</v>
+        <v>522.1799078367295</v>
       </c>
       <c r="G238" t="n">
-        <v>139.3300577366352</v>
+        <v>139.3048071089021</v>
       </c>
       <c r="H238" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="I238" t="n">
-        <v>270455</v>
+        <v>272183</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3094788</v>
+        <v>3099404</v>
       </c>
       <c r="E239" t="n">
-        <v>29323571</v>
+        <v>29367314</v>
       </c>
       <c r="F239" t="n">
-        <v>909.6668720045677</v>
+        <v>781.0218772176574</v>
       </c>
       <c r="G239" t="n">
-        <v>836.1690468113832</v>
+        <v>723.8909596152735</v>
       </c>
       <c r="H239" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I239" t="n">
-        <v>265199</v>
+        <v>261668</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>724301</v>
+        <v>719853</v>
       </c>
       <c r="E240" t="n">
-        <v>774274</v>
+        <v>769518</v>
       </c>
       <c r="F240" t="n">
-        <v>25.39129609893192</v>
+        <v>25.38688306298279</v>
       </c>
       <c r="G240" t="n">
-        <v>769.6834181622093</v>
+        <v>776.1093030445909</v>
       </c>
       <c r="H240" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="I240" t="n">
-        <v>126657</v>
+        <v>128147</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383931</v>
+        <v>383929</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.61</v>
+        <v>12.57</v>
       </c>
       <c r="I241" t="n">
-        <v>699.08</v>
+        <v>698.3099999999999</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>133583</v>
+        <v>131779</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>4.44</v>
+        <v>5.15</v>
       </c>
       <c r="I242" t="n">
-        <v>64423</v>
+        <v>64569</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>559558</v>
+        <v>559473</v>
       </c>
       <c r="F243" t="n">
-        <v>111.5034871580505</v>
+        <v>112.9209227527271</v>
       </c>
       <c r="G243" t="n">
-        <v>3.215837653742296</v>
+        <v>3.215254851145615</v>
       </c>
       <c r="H243" t="n">
         <v>3.09</v>
       </c>
       <c r="I243" t="n">
-        <v>8118.49</v>
+        <v>8110.48</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6580882</v>
+        <v>6585173</v>
       </c>
       <c r="E244" t="n">
-        <v>41128631</v>
+        <v>41155449</v>
       </c>
       <c r="F244" t="n">
-        <v>272.1003777163649</v>
+        <v>245.5541390917523</v>
       </c>
       <c r="G244" t="n">
-        <v>37.54287866717432</v>
+        <v>175.5797693778812</v>
       </c>
       <c r="H244" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="I244" t="n">
-        <v>418902</v>
+        <v>421169</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5126188</v>
+        <v>5120849</v>
       </c>
       <c r="E245" t="n">
-        <v>19049010</v>
+        <v>19029172</v>
       </c>
       <c r="F245" t="n">
-        <v>945.8233948003567</v>
+        <v>928.2736930754506</v>
       </c>
       <c r="G245" t="n">
-        <v>5388.579772994406</v>
+        <v>1869.300803291236</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>138603</v>
+        <v>144376</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3597620</v>
+        <v>3597602</v>
       </c>
       <c r="F246" t="n">
-        <v>215.4939107946963</v>
+        <v>215.4548570785878</v>
       </c>
       <c r="G246" t="n">
-        <v>5904.603123015364</v>
+        <v>5903.533038513909</v>
       </c>
       <c r="H246" t="n">
         <v>1.67</v>
       </c>
       <c r="I246" t="n">
-        <v>30128</v>
+        <v>30127</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>43947109</v>
+        <v>42884671</v>
       </c>
       <c r="E247" t="n">
-        <v>157522271</v>
+        <v>153714110</v>
       </c>
       <c r="F247" t="n">
-        <v>529.5339252437237</v>
+        <v>31.39923074860941</v>
       </c>
       <c r="G247" t="n">
-        <v>32.12344398280692</v>
+        <v>2094.001929511003</v>
       </c>
       <c r="H247" t="n">
         <v>1.01</v>
       </c>
       <c r="I247" t="n">
-        <v>176785</v>
+        <v>173711</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1508264</v>
+        <v>1491405</v>
       </c>
       <c r="F248" t="n">
-        <v>159.1592304868421</v>
+        <v>8.385494989719732</v>
       </c>
       <c r="G248" t="n">
-        <v>18.29721473120036</v>
+        <v>27.36882185281853</v>
       </c>
       <c r="H248" t="n">
-        <v>3.82</v>
+        <v>3.21</v>
       </c>
       <c r="I248" t="n">
-        <v>600390</v>
+        <v>600536</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2131075</v>
+        <v>2090297</v>
       </c>
       <c r="E249" t="n">
-        <v>16391624</v>
+        <v>16077968</v>
       </c>
       <c r="F249" t="n">
-        <v>977.7120905371364</v>
+        <v>296.5293469425717</v>
       </c>
       <c r="G249" t="n">
-        <v>137.6990457090301</v>
+        <v>95.08860260482047</v>
       </c>
       <c r="H249" t="n">
         <v>0.06</v>
       </c>
       <c r="I249" t="n">
-        <v>194227</v>
+        <v>206401</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103309</v>
+        <v>103393</v>
       </c>
       <c r="E250" t="n">
-        <v>820583</v>
+        <v>821250</v>
       </c>
       <c r="F250" t="n">
-        <v>158.1587585385324</v>
+        <v>158.1312703676103</v>
       </c>
       <c r="G250" t="n">
-        <v>346.9654532638213</v>
+        <v>346.9051502760418</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>71.04000000000001</v>
+        <v>42.38</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>89375347</v>
+        <v>89327141</v>
       </c>
       <c r="E251" t="n">
-        <v>330367977</v>
+        <v>330188757</v>
       </c>
       <c r="F251" t="n">
-        <v>1442.57615385865</v>
+        <v>2146.508210653226</v>
       </c>
       <c r="G251" t="n">
-        <v>5983.104274158831</v>
+        <v>5432.406229832173</v>
       </c>
       <c r="H251" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I251" t="n">
-        <v>271335</v>
+        <v>271945</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2269930</v>
+        <v>2269749</v>
       </c>
       <c r="E252" t="n">
-        <v>9099801</v>
+        <v>9099077</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>5.154786513482073</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>4.316320143638792</v>
       </c>
       <c r="H252" t="n">
-        <v>6.87</v>
+        <v>3.89</v>
       </c>
       <c r="I252" t="n">
-        <v>9871.98</v>
+        <v>9860.98</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>563095</v>
+        <v>549444</v>
       </c>
       <c r="F253" t="n">
-        <v>384.7195939830506</v>
+        <v>356.8656439113945</v>
       </c>
       <c r="G253" t="n">
-        <v>10.99262217577811</v>
+        <v>5.545718026847073</v>
       </c>
       <c r="H253" t="n">
-        <v>1.26</v>
+        <v>0.09</v>
       </c>
       <c r="I253" t="n">
-        <v>2311.75</v>
+        <v>2320.09</v>
       </c>
     </row>
     <row r="254">
@@ -9279,16 +9279,16 @@
         <v>37984</v>
       </c>
       <c r="F254" t="n">
-        <v>95.3411904038321</v>
+        <v>95.32396328529252</v>
       </c>
       <c r="G254" t="n">
-        <v>1.028720530751662</v>
+        <v>1.028534652114608</v>
       </c>
       <c r="H254" t="n">
         <v>3.31</v>
       </c>
       <c r="I254" t="n">
-        <v>370.67</v>
+        <v>370.27</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>748613750</v>
+        <v>746822488</v>
       </c>
       <c r="E255" t="n">
-        <v>1154428498</v>
+        <v>1151666214</v>
       </c>
       <c r="F255" t="n">
-        <v>43606.0101690533</v>
+        <v>64881.30583207929</v>
       </c>
       <c r="G255" t="n">
-        <v>77185.0214961731</v>
+        <v>98770.67373516735</v>
       </c>
       <c r="H255" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I255" t="n">
-        <v>380131497</v>
+        <v>328517354</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>8811392</v>
+        <v>8555001</v>
       </c>
       <c r="E256" t="n">
-        <v>8811392</v>
+        <v>8555001</v>
       </c>
       <c r="F256" t="n">
-        <v>75.38887449379683</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06795439163208288</v>
+        <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.7</v>
+        <v>7.29</v>
       </c>
       <c r="I256" t="n">
-        <v>61795</v>
+        <v>61574</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39574036</v>
+        <v>39852882</v>
       </c>
       <c r="E257" t="n">
-        <v>188721124</v>
+        <v>190050890</v>
       </c>
       <c r="F257" t="n">
-        <v>687.1423536925962</v>
+        <v>687.0873085562135</v>
       </c>
       <c r="G257" t="n">
-        <v>177.551632599088</v>
+        <v>234.0361086607664</v>
       </c>
       <c r="H257" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="I257" t="n">
-        <v>271081</v>
+        <v>271965</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>595272</v>
+        <v>594879</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>8.050000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="I258" t="n">
-        <v>219.17</v>
+        <v>219.16</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>22692015</v>
+        <v>22621497</v>
       </c>
       <c r="E259" t="n">
-        <v>37820024</v>
+        <v>37702495</v>
       </c>
       <c r="F259" t="n">
-        <v>2744.67551460606</v>
+        <v>3109.95313158071</v>
       </c>
       <c r="G259" t="n">
-        <v>371.5398697628486</v>
+        <v>248.0101832040773</v>
       </c>
       <c r="H259" t="n">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="I259" t="n">
-        <v>1138232</v>
+        <v>1135599</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107933</v>
+        <v>107646</v>
       </c>
       <c r="F260" t="n">
-        <v>230.7704514075711</v>
+        <v>230.7303432423915</v>
       </c>
       <c r="G260" t="n">
-        <v>108.1947247128458</v>
+        <v>108.1759203474521</v>
       </c>
       <c r="H260" t="n">
         <v>0.02</v>
       </c>
       <c r="I260" t="n">
-        <v>55766</v>
+        <v>54916</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1221687</v>
+        <v>1220602</v>
       </c>
       <c r="E261" t="n">
-        <v>5202678</v>
+        <v>5197705</v>
       </c>
       <c r="F261" t="n">
-        <v>3.115895131310415</v>
+        <v>244.5784529999277</v>
       </c>
       <c r="G261" t="n">
-        <v>137.2904284571767</v>
+        <v>1.185996528663434</v>
       </c>
       <c r="H261" t="n">
-        <v>1.75</v>
+        <v>1.99</v>
       </c>
       <c r="I261" t="n">
-        <v>868900</v>
+        <v>869447</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3800413</v>
+        <v>3797258</v>
       </c>
       <c r="E262" t="n">
-        <v>8284366</v>
+        <v>8277489</v>
       </c>
       <c r="F262" t="n">
-        <v>1664.689256947069</v>
+        <v>1847.332887923594</v>
       </c>
       <c r="G262" t="n">
-        <v>1650.790574207108</v>
+        <v>1599.1248760773</v>
       </c>
       <c r="H262" t="n">
         <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>2036624</v>
+        <v>2050190</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>463832283</v>
+        <v>460817069</v>
       </c>
       <c r="E263" t="n">
-        <v>1614561575</v>
+        <v>1604065867</v>
       </c>
       <c r="F263" t="n">
-        <v>388002.9097794443</v>
+        <v>547591.9025963416</v>
       </c>
       <c r="G263" t="n">
-        <v>553023.2591162527</v>
+        <v>501222.0285750414</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>47205964</v>
+        <v>47311936</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5504144575</v>
+        <v>5487095704</v>
       </c>
       <c r="E264" t="n">
-        <v>5504144575</v>
+        <v>5487095704</v>
       </c>
       <c r="F264" t="n">
-        <v>1977.248030292403</v>
+        <v>1727.073055819987</v>
       </c>
       <c r="G264" t="n">
-        <v>802.8459380817618</v>
+        <v>659.4380924730103</v>
       </c>
       <c r="H264" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I264" t="n">
-        <v>35738649</v>
+        <v>35238447</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22249263</v>
+        <v>22247612</v>
       </c>
       <c r="E265" t="n">
-        <v>22229936</v>
+        <v>22228287</v>
       </c>
       <c r="F265" t="n">
-        <v>666.1984482347199</v>
+        <v>614.0137419949153</v>
       </c>
       <c r="G265" t="n">
-        <v>432.4559229831348</v>
+        <v>425.3358351539231</v>
       </c>
       <c r="H265" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="I265" t="n">
-        <v>406807</v>
+        <v>372834</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11874778</v>
+        <v>11837335</v>
       </c>
       <c r="E266" t="n">
-        <v>23970264</v>
+        <v>23892963</v>
       </c>
       <c r="F266" t="n">
-        <v>692.3666773779443</v>
+        <v>768.1813853424362</v>
       </c>
       <c r="G266" t="n">
-        <v>521.1034920254937</v>
+        <v>452.5902574224141</v>
       </c>
       <c r="H266" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="I266" t="n">
-        <v>66599</v>
+        <v>66759</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>144740</v>
+        <v>146518</v>
       </c>
       <c r="F267" t="n">
-        <v>163.1719481789119</v>
+        <v>165.1970596032722</v>
       </c>
       <c r="G267" t="n">
-        <v>116.1454440555354</v>
+        <v>116.1243951489435</v>
       </c>
       <c r="H267" t="n">
         <v>0.79</v>
       </c>
       <c r="I267" t="n">
-        <v>54752</v>
+        <v>54056</v>
       </c>
     </row>
     <row r="268">
@@ -9769,16 +9769,16 @@
         <v>45681</v>
       </c>
       <c r="F268" t="n">
-        <v>64.34760454452885</v>
+        <v>82.05915421549574</v>
       </c>
       <c r="G268" t="n">
-        <v>146.5498266520724</v>
+        <v>147.1276032246297</v>
       </c>
       <c r="H268" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="I268" t="n">
-        <v>68873</v>
+        <v>68670</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2360569</v>
+        <v>2350364</v>
       </c>
       <c r="E269" t="n">
-        <v>9442274</v>
+        <v>9401455</v>
       </c>
       <c r="F269" t="n">
-        <v>27710.21693086749</v>
+        <v>23894.95402052925</v>
       </c>
       <c r="G269" t="n">
-        <v>14888.67835417013</v>
+        <v>24997.87852016502</v>
       </c>
       <c r="H269" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="I269" t="n">
-        <v>7507045</v>
+        <v>7615648</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>207944683</v>
+        <v>208240635</v>
       </c>
       <c r="E270" t="n">
-        <v>639351646</v>
+        <v>640261586</v>
       </c>
       <c r="F270" t="n">
-        <v>163617.8580713826</v>
+        <v>164729.830856123</v>
       </c>
       <c r="G270" t="n">
-        <v>198027.2595126706</v>
+        <v>175983.8617005558</v>
       </c>
       <c r="H270" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>22566567</v>
+        <v>22656609</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>134085123</v>
+        <v>133605170</v>
       </c>
       <c r="E271" t="n">
-        <v>350293663</v>
+        <v>349039800</v>
       </c>
       <c r="F271" t="n">
-        <v>54779.51680315637</v>
+        <v>62074.82177751027</v>
       </c>
       <c r="G271" t="n">
-        <v>56194.56242308844</v>
+        <v>55955.27018749253</v>
       </c>
       <c r="H271" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="I271" t="n">
-        <v>8868834</v>
+        <v>8792567</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2321686</v>
+        <v>2389378</v>
       </c>
       <c r="E272" t="n">
-        <v>3186489</v>
+        <v>3279396</v>
       </c>
       <c r="F272" t="n">
-        <v>21.30124682432734</v>
+        <v>125.4625056912127</v>
       </c>
       <c r="G272" t="n">
-        <v>24.31881674772672</v>
+        <v>32.34842621693385</v>
       </c>
       <c r="H272" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I272" t="n">
-        <v>967571</v>
+        <v>964538</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54577</v>
+        <v>54533</v>
       </c>
       <c r="F2" t="n">
-        <v>1.864383207388837</v>
+        <v>1.864357889395528</v>
       </c>
       <c r="G2" t="n">
-        <v>9.049999715697954</v>
+        <v>9.049876818306828</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>472.68</v>
+        <v>399.88</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93989</v>
+        <v>93220</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>824.14</v>
+        <v>583.25</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>580230194</v>
+        <v>590922192</v>
       </c>
       <c r="E4" t="n">
-        <v>1125968267</v>
+        <v>1146806473</v>
       </c>
       <c r="F4" t="n">
-        <v>15949.68983027868</v>
+        <v>20388.60296246328</v>
       </c>
       <c r="G4" t="n">
-        <v>19539.36293217523</v>
+        <v>19208.39093975644</v>
       </c>
       <c r="H4" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>45744897</v>
+        <v>47207900</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1446247</v>
+        <v>1408080</v>
       </c>
       <c r="E5" t="n">
-        <v>4674865</v>
+        <v>4551492</v>
       </c>
       <c r="F5" t="n">
-        <v>214.2947254218153</v>
+        <v>133.105299152887</v>
       </c>
       <c r="G5" t="n">
-        <v>4168.614134939768</v>
+        <v>4257.473682642394</v>
       </c>
       <c r="H5" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I5" t="n">
-        <v>222724</v>
+        <v>226975</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>138266723</v>
+        <v>140348431</v>
       </c>
       <c r="E6" t="n">
-        <v>153221138</v>
+        <v>155527995</v>
       </c>
       <c r="F6" t="n">
-        <v>149614.5558880144</v>
+        <v>168566.3810805562</v>
       </c>
       <c r="G6" t="n">
-        <v>282262.8712053697</v>
+        <v>236638.1689227105</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>52536379</v>
+        <v>53582874</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3819.83</v>
+        <v>3816.73</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.81</v>
+        <v>153.8</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8211110</v>
+        <v>8256008</v>
       </c>
       <c r="E8" t="n">
-        <v>8418163</v>
+        <v>8464194</v>
       </c>
       <c r="F8" t="n">
-        <v>2549.160149795412</v>
+        <v>1448.799243121894</v>
       </c>
       <c r="G8" t="n">
-        <v>804.7156851213721</v>
+        <v>932.4139037395316</v>
       </c>
       <c r="H8" t="n">
-        <v>0.85</v>
+        <v>1.19</v>
       </c>
       <c r="I8" t="n">
-        <v>102100</v>
+        <v>74755</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>294580</v>
+        <v>304607</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.37</v>
+        <v>5.9</v>
       </c>
       <c r="I9" t="n">
-        <v>743.36</v>
+        <v>743.9299999999999</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5023327</v>
+        <v>4986099</v>
       </c>
       <c r="E10" t="n">
-        <v>8025768</v>
+        <v>7966287</v>
       </c>
       <c r="F10" t="n">
-        <v>246.1817628805246</v>
+        <v>260.4561896592795</v>
       </c>
       <c r="G10" t="n">
-        <v>212.8396090374094</v>
+        <v>204.2987466030278</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="I10" t="n">
-        <v>99507</v>
+        <v>99865</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>996637</v>
+        <v>997211</v>
       </c>
       <c r="E11" t="n">
-        <v>12196144</v>
+        <v>12203178</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.625012673754</v>
+        <v>1569.361251442951</v>
       </c>
       <c r="G11" t="n">
-        <v>1340.659770664258</v>
+        <v>1351.27671890424</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>581.16</v>
+        <v>613.85</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>558034</v>
+        <v>562426</v>
       </c>
       <c r="E12" t="n">
-        <v>558034</v>
+        <v>562426</v>
       </c>
       <c r="F12" t="n">
-        <v>95.59945792357405</v>
+        <v>169.5771934020953</v>
       </c>
       <c r="G12" t="n">
-        <v>103.9307093165057</v>
+        <v>66.77163215756229</v>
       </c>
       <c r="H12" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="I12" t="n">
-        <v>26799</v>
+        <v>20942</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4261188</v>
+        <v>4362612</v>
       </c>
       <c r="E13" t="n">
-        <v>26163081</v>
+        <v>26785778</v>
       </c>
       <c r="F13" t="n">
-        <v>296.3827216718</v>
+        <v>183.3667866228155</v>
       </c>
       <c r="G13" t="n">
-        <v>732.8643504069261</v>
+        <v>330.3274878337356</v>
       </c>
       <c r="H13" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="I13" t="n">
-        <v>608553</v>
+        <v>598046</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>195238</v>
+        <v>195707</v>
       </c>
       <c r="E14" t="n">
-        <v>2147836</v>
+        <v>2152990</v>
       </c>
       <c r="F14" t="n">
-        <v>32.170514971286</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.998754162676999</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.91</v>
+        <v>7.59</v>
       </c>
       <c r="I14" t="n">
-        <v>36064</v>
+        <v>36613</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3167824</v>
+        <v>3189486</v>
       </c>
       <c r="E15" t="n">
-        <v>9012180</v>
+        <v>9073804</v>
       </c>
       <c r="F15" t="n">
-        <v>299.9634470754253</v>
+        <v>257.0611928842966</v>
       </c>
       <c r="G15" t="n">
-        <v>151.6809391143975</v>
+        <v>28.21209448933542</v>
       </c>
       <c r="H15" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="I15" t="n">
-        <v>111234</v>
+        <v>109551</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>308337</v>
+        <v>306308</v>
       </c>
       <c r="E16" t="n">
-        <v>3558575</v>
+        <v>3535163</v>
       </c>
       <c r="F16" t="n">
-        <v>138.5107659460675</v>
+        <v>138.7651782243855</v>
       </c>
       <c r="G16" t="n">
-        <v>130.7577085208914</v>
+        <v>131.3266743964527</v>
       </c>
       <c r="H16" t="n">
         <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>886.16</v>
+        <v>916.0599999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>950094</v>
+        <v>945427</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.85</v>
       </c>
       <c r="I17" t="n">
-        <v>10370.84</v>
+        <v>10681.47</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23977685</v>
+        <v>23617241</v>
       </c>
       <c r="E18" t="n">
-        <v>24021911</v>
+        <v>23660802</v>
       </c>
       <c r="F18" t="n">
-        <v>724.7290465771492</v>
+        <v>1863.460021529634</v>
       </c>
       <c r="G18" t="n">
-        <v>2078.620730544245</v>
+        <v>2092.888364706477</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="I18" t="n">
-        <v>883860</v>
+        <v>869874</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6844419</v>
+        <v>6705990</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>4.84</v>
       </c>
       <c r="I19" t="n">
-        <v>18899.69</v>
+        <v>18333.71</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2348397</v>
+        <v>2348966</v>
       </c>
       <c r="E20" t="n">
-        <v>2348397</v>
+        <v>2348966</v>
       </c>
       <c r="F20" t="n">
-        <v>228.5781260701451</v>
+        <v>228.1679587670328</v>
       </c>
       <c r="G20" t="n">
-        <v>24.77320892326814</v>
+        <v>90.2080592325468</v>
       </c>
       <c r="H20" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="I20" t="n">
-        <v>313132</v>
+        <v>312418</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>359849</v>
+        <v>359558</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4.49</v>
+        <v>5.71</v>
       </c>
       <c r="I21" t="n">
-        <v>9444.440000000001</v>
+        <v>9440.879999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16451450</v>
+        <v>16234569</v>
       </c>
       <c r="E22" t="n">
-        <v>21174366</v>
+        <v>20895223</v>
       </c>
       <c r="F22" t="n">
-        <v>809.4317899216924</v>
+        <v>840.9625777309408</v>
       </c>
       <c r="G22" t="n">
-        <v>651.5662092097945</v>
+        <v>1289.257546973231</v>
       </c>
       <c r="H22" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1914791</v>
+        <v>1923139</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>494364281</v>
+        <v>497109266</v>
       </c>
       <c r="E23" t="n">
-        <v>494364281</v>
+        <v>497109266</v>
       </c>
       <c r="F23" t="n">
-        <v>28413.26021051201</v>
+        <v>16610.00633471403</v>
       </c>
       <c r="G23" t="n">
-        <v>43817.07653387233</v>
+        <v>49282.99506770324</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I23" t="n">
-        <v>75729448</v>
+        <v>75640395</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18229.15</v>
+        <v>18214.4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.31</v>
+        <v>5.43</v>
       </c>
       <c r="I24" t="n">
-        <v>2638.36</v>
+        <v>2638.08</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4561850</v>
+        <v>4560490</v>
       </c>
       <c r="E25" t="n">
-        <v>4561850</v>
+        <v>4560490</v>
       </c>
       <c r="F25" t="n">
-        <v>502.4459832161492</v>
+        <v>425.3866447766287</v>
       </c>
       <c r="G25" t="n">
-        <v>1323.867766585309</v>
+        <v>1212.438452251507</v>
       </c>
       <c r="H25" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>2258705</v>
+        <v>2248260</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3222160</v>
+        <v>3212464</v>
       </c>
       <c r="E26" t="n">
-        <v>3222160</v>
+        <v>3212464</v>
       </c>
       <c r="F26" t="n">
-        <v>918.9896250432442</v>
+        <v>963.8569913560533</v>
       </c>
       <c r="G26" t="n">
-        <v>313.8943787407418</v>
+        <v>302.7905635364064</v>
       </c>
       <c r="H26" t="n">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="I26" t="n">
-        <v>643483</v>
+        <v>653912</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>297413</v>
+        <v>298999</v>
       </c>
       <c r="E27" t="n">
-        <v>1388355</v>
+        <v>1395759</v>
       </c>
       <c r="F27" t="n">
-        <v>316.0904975784575</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>79.85168891652103</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.58</v>
+        <v>5.71</v>
       </c>
       <c r="I27" t="n">
-        <v>679599</v>
+        <v>683725</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1890186</v>
+        <v>1765642</v>
       </c>
       <c r="F28" t="n">
-        <v>64.31762390778498</v>
+        <v>202.6534329083979</v>
       </c>
       <c r="G28" t="n">
-        <v>220.5178744976183</v>
+        <v>237.9722347096024</v>
       </c>
       <c r="H28" t="n">
-        <v>0.76</v>
+        <v>1.25</v>
       </c>
       <c r="I28" t="n">
-        <v>1220368</v>
+        <v>1222393</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11824615</v>
+        <v>11853817</v>
       </c>
       <c r="E29" t="n">
-        <v>29429328</v>
+        <v>29502008</v>
       </c>
       <c r="F29" t="n">
-        <v>709.9253747727328</v>
+        <v>602.7580425566299</v>
       </c>
       <c r="G29" t="n">
-        <v>1102.439299657311</v>
+        <v>1158.275953200112</v>
       </c>
       <c r="H29" t="n">
-        <v>0.24</v>
+        <v>0.58</v>
       </c>
       <c r="I29" t="n">
-        <v>1521882</v>
+        <v>1519286</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>884231</v>
+        <v>885229</v>
       </c>
       <c r="E30" t="n">
-        <v>6189615</v>
+        <v>6196604</v>
       </c>
       <c r="F30" t="n">
-        <v>23.33946628787453</v>
+        <v>22.47912158784764</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9203333453033</v>
+        <v>757.9474357942521</v>
       </c>
       <c r="H30" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="I30" t="n">
-        <v>230587</v>
+        <v>211491</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>175808</v>
+        <v>176487</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.94</v>
+        <v>6.84</v>
       </c>
       <c r="I31" t="n">
-        <v>766.4299999999999</v>
+        <v>748.9299999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5453836</v>
+        <v>5478321</v>
       </c>
       <c r="E32" t="n">
-        <v>5714748</v>
+        <v>5740404</v>
       </c>
       <c r="F32" t="n">
-        <v>190.9703500211296</v>
+        <v>327.8533353092051</v>
       </c>
       <c r="G32" t="n">
-        <v>31.6186526977412</v>
+        <v>48.47060230484114</v>
       </c>
       <c r="H32" t="n">
-        <v>1.09</v>
+        <v>2.03</v>
       </c>
       <c r="I32" t="n">
-        <v>149338</v>
+        <v>169634</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4681281</v>
+        <v>4684634</v>
       </c>
       <c r="E33" t="n">
-        <v>6891099</v>
+        <v>6896035</v>
       </c>
       <c r="F33" t="n">
-        <v>104.124141427664</v>
+        <v>63.827672687085</v>
       </c>
       <c r="G33" t="n">
-        <v>19.25271273877929</v>
+        <v>29.11222551941534</v>
       </c>
       <c r="H33" t="n">
-        <v>2.61</v>
+        <v>1.88</v>
       </c>
       <c r="I33" t="n">
-        <v>142553</v>
+        <v>565536</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7471563</v>
+        <v>7511552</v>
       </c>
       <c r="E34" t="n">
-        <v>7471563</v>
+        <v>7511552</v>
       </c>
       <c r="F34" t="n">
-        <v>1738.55802479172</v>
+        <v>2368.312755028467</v>
       </c>
       <c r="G34" t="n">
-        <v>4548.280226281297</v>
+        <v>3429.646904002649</v>
       </c>
       <c r="H34" t="n">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="I34" t="n">
-        <v>328923</v>
+        <v>280030</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1491365</v>
+        <v>1487252</v>
       </c>
       <c r="E35" t="n">
-        <v>1491365</v>
+        <v>1487252</v>
       </c>
       <c r="F35" t="n">
-        <v>35.78179857115457</v>
+        <v>150.8680453774386</v>
       </c>
       <c r="G35" t="n">
-        <v>600.6170444058739</v>
+        <v>61.78461543996772</v>
       </c>
       <c r="H35" t="n">
-        <v>2.14</v>
+        <v>2.75</v>
       </c>
       <c r="I35" t="n">
-        <v>288431</v>
+        <v>286180</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15720360</v>
+        <v>15785850</v>
       </c>
       <c r="F36" t="n">
-        <v>289.0076607418299</v>
+        <v>288.4697943432634</v>
       </c>
       <c r="G36" t="n">
-        <v>184.0742587065887</v>
+        <v>164.6721065058649</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>14269.61</v>
+        <v>14579.23</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>62365</v>
+        <v>59545</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.52</v>
+        <v>6.67</v>
       </c>
       <c r="I37" t="n">
-        <v>2043.71</v>
+        <v>2046.1</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>135470129</v>
+        <v>137493799</v>
       </c>
       <c r="E38" t="n">
-        <v>135470129</v>
+        <v>137493799</v>
       </c>
       <c r="F38" t="n">
-        <v>199405.7915521533</v>
+        <v>261935.9759758696</v>
       </c>
       <c r="G38" t="n">
-        <v>309543.2115884676</v>
+        <v>239087.5200278167</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>90380814</v>
+        <v>95020664</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>62667939</v>
+        <v>63386582</v>
       </c>
       <c r="E39" t="n">
-        <v>321374046</v>
+        <v>325059394</v>
       </c>
       <c r="F39" t="n">
-        <v>76142.6048871493</v>
+        <v>75478.09230861087</v>
       </c>
       <c r="G39" t="n">
-        <v>83107.67850480315</v>
+        <v>68488.67322995095</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>27253836</v>
+        <v>27326596</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46374</v>
+        <v>46336</v>
       </c>
       <c r="E40" t="n">
-        <v>137042</v>
+        <v>136932</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>10.63</v>
+        <v>9.92</v>
       </c>
       <c r="I40" t="n">
         <v>8.029999999999999</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49797</v>
+        <v>50108</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.04</v>
+        <v>4.46</v>
       </c>
       <c r="I41" t="n">
-        <v>23133</v>
+        <v>23564</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>597257</v>
+        <v>597646</v>
       </c>
       <c r="F42" t="n">
-        <v>1887.808505225958</v>
+        <v>1890.52471574868</v>
       </c>
       <c r="G42" t="n">
-        <v>424.9957782467185</v>
+        <v>424.8741656791022</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>633.54</v>
+        <v>527.11</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2611885</v>
+        <v>2603129</v>
       </c>
       <c r="E44" t="n">
-        <v>10496569</v>
+        <v>10461382</v>
       </c>
       <c r="F44" t="n">
-        <v>373.9488986447879</v>
+        <v>210.0059232295671</v>
       </c>
       <c r="G44" t="n">
-        <v>284.8458995389502</v>
+        <v>292.9206400083229</v>
       </c>
       <c r="H44" t="n">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="I44" t="n">
-        <v>50104</v>
+        <v>38396</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18035649</v>
+        <v>18143603</v>
       </c>
       <c r="E45" t="n">
-        <v>126124834</v>
+        <v>126876655</v>
       </c>
       <c r="F45" t="n">
-        <v>227.3646697623684</v>
+        <v>196.1459368300495</v>
       </c>
       <c r="G45" t="n">
-        <v>315.7978535656262</v>
+        <v>274.6470728994457</v>
       </c>
       <c r="H45" t="n">
-        <v>0.59</v>
+        <v>0.86</v>
       </c>
       <c r="I45" t="n">
-        <v>1100593</v>
+        <v>1062161</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>165427</v>
+        <v>166379</v>
       </c>
       <c r="E46" t="n">
-        <v>2213504</v>
+        <v>2226245</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46837</v>
+        <v>46134</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>247411839</v>
+        <v>249327965</v>
       </c>
       <c r="E47" t="n">
-        <v>247411839</v>
+        <v>249327965</v>
       </c>
       <c r="F47" t="n">
-        <v>59565.46495952208</v>
+        <v>75295.70419822006</v>
       </c>
       <c r="G47" t="n">
-        <v>90064.60956347686</v>
+        <v>96426.17179202406</v>
       </c>
       <c r="H47" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>25906541</v>
+        <v>26103087</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>636039</v>
+        <v>635023</v>
       </c>
       <c r="E48" t="n">
-        <v>636039</v>
+        <v>635023</v>
       </c>
       <c r="F48" t="n">
-        <v>214.2918575235645</v>
+        <v>152.6538923971576</v>
       </c>
       <c r="G48" t="n">
-        <v>70.62471370644624</v>
+        <v>147.6474355632926</v>
       </c>
       <c r="H48" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="I48" t="n">
-        <v>2682.39</v>
+        <v>2686.29</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>414553911</v>
+        <v>416039008</v>
       </c>
       <c r="E50" t="n">
-        <v>414553911</v>
+        <v>416039008</v>
       </c>
       <c r="F50" t="n">
-        <v>8456.412628466353</v>
+        <v>8970.440029635183</v>
       </c>
       <c r="G50" t="n">
-        <v>1465.073840836089</v>
+        <v>1341.736610290919</v>
       </c>
       <c r="H50" t="n">
         <v>0.39</v>
       </c>
       <c r="I50" t="n">
-        <v>4201643</v>
+        <v>4139028</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2380879</v>
+        <v>2482143</v>
       </c>
       <c r="E51" t="n">
-        <v>2380879</v>
+        <v>2482143</v>
       </c>
       <c r="F51" t="n">
-        <v>17.7929721352342</v>
+        <v>24.41694779583571</v>
       </c>
       <c r="G51" t="n">
-        <v>57.08136552910553</v>
+        <v>45.66885038680836</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="I51" t="n">
-        <v>154579</v>
+        <v>159755</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22196</v>
+        <v>22187</v>
       </c>
       <c r="E52" t="n">
-        <v>44392</v>
+        <v>44374</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.33</v>
+        <v>5.93</v>
       </c>
       <c r="I52" t="n">
-        <v>3683.54</v>
+        <v>3329.04</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>161348</v>
+        <v>161243</v>
       </c>
       <c r="F53" t="n">
-        <v>22.4790751334559</v>
+        <v>22.47876987160224</v>
       </c>
       <c r="G53" t="n">
-        <v>25.42325416773125</v>
+        <v>25.42290892444846</v>
       </c>
       <c r="H53" t="n">
         <v>3.82</v>
       </c>
       <c r="I53" t="n">
-        <v>20375</v>
+        <v>19381.91</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2572744</v>
+        <v>2569031</v>
       </c>
       <c r="E54" t="n">
-        <v>6577443</v>
+        <v>6567950</v>
       </c>
       <c r="F54" t="n">
-        <v>69.64288561345272</v>
+        <v>149.6347884338563</v>
       </c>
       <c r="G54" t="n">
-        <v>102.7550211095957</v>
+        <v>68.87634273728395</v>
       </c>
       <c r="H54" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="I54" t="n">
-        <v>80123</v>
+        <v>81318</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3473.41</v>
+        <v>3471.54</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>4.57</v>
       </c>
       <c r="I55" t="n">
-        <v>1619.44</v>
+        <v>1618.93</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>63676736</v>
+        <v>64824310</v>
       </c>
       <c r="E56" t="n">
-        <v>63676736</v>
+        <v>64824310</v>
       </c>
       <c r="F56" t="n">
-        <v>3664.383117122687</v>
+        <v>1942.155229588302</v>
       </c>
       <c r="G56" t="n">
-        <v>6876.956847816291</v>
+        <v>3696.499329817453</v>
       </c>
       <c r="H56" t="n">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="I56" t="n">
-        <v>6722919</v>
+        <v>7240864</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3269301</v>
+        <v>3315972</v>
       </c>
       <c r="E57" t="n">
-        <v>4142776</v>
+        <v>4201916</v>
       </c>
       <c r="F57" t="n">
-        <v>431.5046902462365</v>
+        <v>379.041097087523</v>
       </c>
       <c r="G57" t="n">
-        <v>1115.88265261604</v>
+        <v>291.9517428867997</v>
       </c>
       <c r="H57" t="n">
-        <v>0.68</v>
+        <v>1.12</v>
       </c>
       <c r="I57" t="n">
-        <v>199092</v>
+        <v>200270</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4056882</v>
+        <v>4067269</v>
       </c>
       <c r="E58" t="n">
-        <v>8000512</v>
+        <v>8020997</v>
       </c>
       <c r="F58" t="n">
-        <v>2262.75836548264</v>
+        <v>1852.136915627513</v>
       </c>
       <c r="G58" t="n">
-        <v>13229.59420008724</v>
+        <v>13221.88021223279</v>
       </c>
       <c r="H58" t="n">
-        <v>0.39</v>
+        <v>0.68</v>
       </c>
       <c r="I58" t="n">
-        <v>1683341</v>
+        <v>1675280</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1598030</v>
+        <v>1600492</v>
       </c>
       <c r="E59" t="n">
-        <v>9175289</v>
+        <v>9189430</v>
       </c>
       <c r="F59" t="n">
-        <v>93.37593601803715</v>
+        <v>26.96533713749621</v>
       </c>
       <c r="G59" t="n">
-        <v>224.5768667836378</v>
+        <v>259.520127286373</v>
       </c>
       <c r="H59" t="n">
-        <v>2.19</v>
+        <v>1.03</v>
       </c>
       <c r="I59" t="n">
-        <v>245432</v>
+        <v>247149</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>592427</v>
+        <v>567894</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>9.52</v>
+        <v>8.06</v>
       </c>
       <c r="I60" t="n">
-        <v>5538.9</v>
+        <v>5354.99</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31211543</v>
+        <v>31193696</v>
       </c>
       <c r="F61" t="n">
-        <v>687.5119296677084</v>
+        <v>648.8328730016627</v>
       </c>
       <c r="G61" t="n">
-        <v>1815.073366798314</v>
+        <v>1675.685394266536</v>
       </c>
       <c r="H61" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I61" t="n">
-        <v>230728</v>
+        <v>225396</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1495753</v>
+        <v>1498425</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>8.91</v>
+        <v>9.81</v>
       </c>
       <c r="I62" t="n">
-        <v>9108.68</v>
+        <v>9055.780000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17400089</v>
+        <v>17217944</v>
       </c>
       <c r="E63" t="n">
-        <v>18339286</v>
+        <v>18147309</v>
       </c>
       <c r="F63" t="n">
-        <v>1378.934680224218</v>
+        <v>959.8053395428153</v>
       </c>
       <c r="G63" t="n">
-        <v>1547.32001794816</v>
+        <v>1941.086185571429</v>
       </c>
       <c r="H63" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="I63" t="n">
-        <v>47898</v>
+        <v>50691</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2893338</v>
+        <v>2938816</v>
       </c>
       <c r="E64" t="n">
-        <v>2893338</v>
+        <v>2938816</v>
       </c>
       <c r="F64" t="n">
-        <v>102.6781687473993</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>232.067737440275</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.01</v>
+        <v>9.44</v>
       </c>
       <c r="I64" t="n">
-        <v>14036.8</v>
+        <v>14466.18</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3337094</v>
+        <v>3316130</v>
       </c>
       <c r="E65" t="n">
-        <v>8234110</v>
+        <v>8182383</v>
       </c>
       <c r="F65" t="n">
-        <v>826.2936622882635</v>
+        <v>852.6180144799654</v>
       </c>
       <c r="G65" t="n">
-        <v>1074.30375579082</v>
+        <v>1149.738680627365</v>
       </c>
       <c r="H65" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I65" t="n">
-        <v>43416</v>
+        <v>42715</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>247464</v>
+        <v>248636</v>
       </c>
       <c r="F66" t="n">
-        <v>6.379914275698084</v>
+        <v>5.152017899361934</v>
       </c>
       <c r="G66" t="n">
-        <v>47.39454506579713</v>
+        <v>47.85523496560431</v>
       </c>
       <c r="H66" t="n">
-        <v>3.51</v>
+        <v>1.75</v>
       </c>
       <c r="I66" t="n">
-        <v>3785.21</v>
+        <v>3878.76</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>81734984</v>
+        <v>84383497</v>
       </c>
       <c r="E67" t="n">
-        <v>170410876</v>
+        <v>175932814</v>
       </c>
       <c r="F67" t="n">
-        <v>26982.9826944258</v>
+        <v>48733.46924868168</v>
       </c>
       <c r="G67" t="n">
-        <v>75572.53867192812</v>
+        <v>72873.40269371001</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>70723246</v>
+        <v>72083859</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1769258</v>
+        <v>1767826</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3.707458728371156</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>26.60853155802925</v>
       </c>
       <c r="H68" t="n">
-        <v>4.35</v>
+        <v>2.22</v>
       </c>
       <c r="I68" t="n">
-        <v>2828.72</v>
+        <v>2747.86</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>188099465</v>
+        <v>187888791</v>
       </c>
       <c r="F69" t="n">
-        <v>2552.366579917209</v>
+        <v>6505.884334257404</v>
       </c>
       <c r="G69" t="n">
-        <v>2934.040228979129</v>
+        <v>1391.402020059283</v>
       </c>
       <c r="H69" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="I69" t="n">
-        <v>3361604</v>
+        <v>3308084</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>186972</v>
+        <v>187288</v>
       </c>
       <c r="E70" t="n">
-        <v>195252</v>
+        <v>195582</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>183.56</v>
+        <v>183.34</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>136221502</v>
+        <v>137649062</v>
       </c>
       <c r="E71" t="n">
-        <v>136277991</v>
+        <v>137706706</v>
       </c>
       <c r="F71" t="n">
-        <v>27599.74146091069</v>
+        <v>22252.68765206859</v>
       </c>
       <c r="G71" t="n">
-        <v>39147.90052774869</v>
+        <v>30790.99564696576</v>
       </c>
       <c r="H71" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="I71" t="n">
-        <v>3333643</v>
+        <v>3431492</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25228510</v>
+        <v>25345172</v>
       </c>
       <c r="E72" t="n">
-        <v>82795148</v>
+        <v>83178010</v>
       </c>
       <c r="F72" t="n">
-        <v>14335.21267013528</v>
+        <v>4985.788226705875</v>
       </c>
       <c r="G72" t="n">
-        <v>34270.60984585147</v>
+        <v>35585.98874342393</v>
       </c>
       <c r="H72" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I72" t="n">
-        <v>254203</v>
+        <v>257456</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113306</v>
+        <v>113267</v>
       </c>
       <c r="E73" t="n">
-        <v>113306</v>
+        <v>113267</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1334.42</v>
+        <v>1334.49</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>193745876</v>
+        <v>195548969</v>
       </c>
       <c r="E74" t="n">
-        <v>673090684</v>
+        <v>679354792</v>
       </c>
       <c r="F74" t="n">
-        <v>71004.93019310111</v>
+        <v>69710.15469165516</v>
       </c>
       <c r="G74" t="n">
-        <v>64498.85860293878</v>
+        <v>71209.79275557099</v>
       </c>
       <c r="H74" t="n">
         <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>41173386</v>
+        <v>41296335</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3367074</v>
+        <v>3337991</v>
       </c>
       <c r="E75" t="n">
-        <v>3367074</v>
+        <v>3337991</v>
       </c>
       <c r="F75" t="n">
-        <v>463.0686043915363</v>
+        <v>631.7148606642571</v>
       </c>
       <c r="G75" t="n">
-        <v>846.6864479460799</v>
+        <v>659.8898772369948</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="I75" t="n">
-        <v>2259449</v>
+        <v>1954260</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>107741040</v>
+        <v>108901702</v>
       </c>
       <c r="E76" t="n">
-        <v>456997901</v>
+        <v>461872888</v>
       </c>
       <c r="F76" t="n">
-        <v>178279.1924650671</v>
+        <v>106748.084935218</v>
       </c>
       <c r="G76" t="n">
-        <v>107613.9463405482</v>
+        <v>147149.696436979</v>
       </c>
       <c r="H76" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="I76" t="n">
-        <v>15087702</v>
+        <v>15025563</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1799273</v>
+        <v>1808273</v>
       </c>
       <c r="F77" t="n">
-        <v>54.59826301639319</v>
+        <v>54.5975215816644</v>
       </c>
       <c r="G77" t="n">
-        <v>25.48063145717776</v>
+        <v>25.48028543472156</v>
       </c>
       <c r="H77" t="n">
         <v>1.1</v>
       </c>
       <c r="I77" t="n">
-        <v>562.39</v>
+        <v>564.5599999999999</v>
       </c>
     </row>
     <row r="78">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3275248</v>
+        <v>3230824</v>
       </c>
       <c r="E78" t="n">
-        <v>16422485</v>
+        <v>16199740</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>4.65</v>
+        <v>4.09</v>
       </c>
       <c r="I78" t="n">
-        <v>30613</v>
+        <v>31214</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>520833</v>
+        <v>515370</v>
       </c>
       <c r="E79" t="n">
-        <v>8908817</v>
+        <v>8815375</v>
       </c>
       <c r="F79" t="n">
-        <v>90.22028872422132</v>
+        <v>249.726306860484</v>
       </c>
       <c r="G79" t="n">
-        <v>6.098338303640864</v>
+        <v>51.7554375937117</v>
       </c>
       <c r="H79" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="I79" t="n">
-        <v>122973</v>
+        <v>120946</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5618676</v>
+        <v>5625640</v>
       </c>
       <c r="E80" t="n">
-        <v>7625303</v>
+        <v>7634593</v>
       </c>
       <c r="F80" t="n">
-        <v>664.1851805927872</v>
+        <v>503.4341196558935</v>
       </c>
       <c r="G80" t="n">
-        <v>882.7951540005572</v>
+        <v>606.1960826442522</v>
       </c>
       <c r="H80" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="I80" t="n">
-        <v>5508486</v>
+        <v>5463948</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41560</v>
+        <v>41358</v>
       </c>
       <c r="F81" t="n">
-        <v>179.3893711290406</v>
+        <v>128.2155463655363</v>
       </c>
       <c r="G81" t="n">
-        <v>152.8776947766826</v>
+        <v>69.34222068028866</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="I81" t="n">
-        <v>40032</v>
+        <v>40105</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>38539158</v>
+        <v>38533175</v>
       </c>
       <c r="E82" t="n">
-        <v>45012821</v>
+        <v>45005833</v>
       </c>
       <c r="F82" t="n">
-        <v>397.455304059169</v>
+        <v>496.9867555048266</v>
       </c>
       <c r="G82" t="n">
-        <v>174.6228401489946</v>
+        <v>315.3624987587616</v>
       </c>
       <c r="H82" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="I82" t="n">
-        <v>942946</v>
+        <v>899980</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14076569</v>
+        <v>14082237</v>
       </c>
       <c r="F83" t="n">
-        <v>180.6527967143632</v>
+        <v>169.0351167740096</v>
       </c>
       <c r="G83" t="n">
-        <v>101.7453620915523</v>
+        <v>238.2708121158935</v>
       </c>
       <c r="H83" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="I83" t="n">
-        <v>223899</v>
+        <v>232054</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>34393361</v>
+        <v>34664387</v>
       </c>
       <c r="E84" t="n">
-        <v>34393361</v>
+        <v>34664387</v>
       </c>
       <c r="F84" t="n">
-        <v>659.2566446219587</v>
+        <v>264.9522264741647</v>
       </c>
       <c r="G84" t="n">
-        <v>69.84115936655614</v>
+        <v>941.0004137389308</v>
       </c>
       <c r="H84" t="n">
-        <v>2.79</v>
+        <v>2.4</v>
       </c>
       <c r="I84" t="n">
-        <v>937105</v>
+        <v>951888</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>532754</v>
+        <v>544914</v>
       </c>
       <c r="E85" t="n">
-        <v>6461790</v>
+        <v>6609274</v>
       </c>
       <c r="F85" t="n">
-        <v>546.6078674078727</v>
+        <v>186.7218734747349</v>
       </c>
       <c r="G85" t="n">
-        <v>396.0470585222242</v>
+        <v>588.0923326417923</v>
       </c>
       <c r="H85" t="n">
-        <v>0.35</v>
+        <v>2.4</v>
       </c>
       <c r="I85" t="n">
-        <v>2872404</v>
+        <v>2904293</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24676202</v>
+        <v>24272274</v>
       </c>
       <c r="E86" t="n">
-        <v>34871453</v>
+        <v>34300637</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1.749165250480209</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>9.190502556356954</v>
       </c>
       <c r="H86" t="n">
-        <v>8.31</v>
+        <v>3.13</v>
       </c>
       <c r="I86" t="n">
-        <v>139992</v>
+        <v>156292</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1381268416</v>
+        <v>1415741026</v>
       </c>
       <c r="E87" t="n">
-        <v>6623464933</v>
+        <v>6788768154</v>
       </c>
       <c r="F87" t="n">
-        <v>530609.3516873436</v>
+        <v>353847.5304519094</v>
       </c>
       <c r="G87" t="n">
-        <v>534828.8813352408</v>
+        <v>365587.4775708314</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>488217475</v>
+        <v>500673519</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>255260033</v>
+        <v>257918306</v>
       </c>
       <c r="E88" t="n">
-        <v>1101844008</v>
+        <v>1113318588</v>
       </c>
       <c r="F88" t="n">
-        <v>871556.9624137857</v>
+        <v>896685.1770488009</v>
       </c>
       <c r="G88" t="n">
-        <v>813461.1628767269</v>
+        <v>717264.5546634195</v>
       </c>
       <c r="H88" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I88" t="n">
-        <v>141928183</v>
+        <v>142750594</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>111878923</v>
+        <v>112151048</v>
       </c>
       <c r="E89" t="n">
-        <v>111878923</v>
+        <v>112151048</v>
       </c>
       <c r="F89" t="n">
-        <v>37853.50263332467</v>
+        <v>40992.27386509634</v>
       </c>
       <c r="G89" t="n">
-        <v>19656.84573709407</v>
+        <v>29622.96679114207</v>
       </c>
       <c r="H89" t="n">
         <v>0.44</v>
       </c>
       <c r="I89" t="n">
-        <v>7049608</v>
+        <v>7081805</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3772079</v>
+        <v>3768524</v>
       </c>
       <c r="E90" t="n">
-        <v>29353867</v>
+        <v>29326202</v>
       </c>
       <c r="F90" t="n">
-        <v>8233.150111106239</v>
+        <v>1287.511774184874</v>
       </c>
       <c r="G90" t="n">
-        <v>871.024930153897</v>
+        <v>2463.475897060309</v>
       </c>
       <c r="H90" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="I90" t="n">
-        <v>36600</v>
+        <v>39949</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3823111</v>
+        <v>3945287</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1692.448879990095</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2596.499585554593</v>
       </c>
       <c r="H91" t="n">
-        <v>5.24</v>
+        <v>0.88</v>
       </c>
       <c r="I91" t="n">
-        <v>355810</v>
+        <v>367673</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>849643</v>
+        <v>848956</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>170.8189687557341</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>49.96272345752195</v>
       </c>
       <c r="H92" t="n">
-        <v>4.17</v>
+        <v>2.86</v>
       </c>
       <c r="I92" t="n">
-        <v>5512.59</v>
+        <v>5486.5</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>125842</v>
+        <v>126647</v>
       </c>
       <c r="F93" t="n">
-        <v>352.5199387396787</v>
+        <v>210.9357500369829</v>
       </c>
       <c r="G93" t="n">
-        <v>3.027598567519022</v>
+        <v>3.027741525964474</v>
       </c>
       <c r="H93" t="n">
         <v>2.82</v>
       </c>
       <c r="I93" t="n">
-        <v>125011</v>
+        <v>117751</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10235198</v>
+        <v>10049174</v>
       </c>
       <c r="E94" t="n">
-        <v>123225384</v>
+        <v>120985776</v>
       </c>
       <c r="F94" t="n">
-        <v>1209.18933204907</v>
+        <v>1276.510947068414</v>
       </c>
       <c r="G94" t="n">
-        <v>228.500655506448</v>
+        <v>351.8925118879659</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>267526</v>
+        <v>527439</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15714614</v>
+        <v>16184649</v>
       </c>
       <c r="E95" t="n">
-        <v>39286534</v>
+        <v>40461624</v>
       </c>
       <c r="F95" t="n">
-        <v>7404.552144562831</v>
+        <v>6643.536558224024</v>
       </c>
       <c r="G95" t="n">
-        <v>8932.296505709128</v>
+        <v>6761.188017348646</v>
       </c>
       <c r="H95" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="I95" t="n">
-        <v>4923459</v>
+        <v>5053206</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2525106</v>
+        <v>2457607</v>
       </c>
       <c r="F96" t="n">
-        <v>238.0192605457974</v>
+        <v>148.3340846070383</v>
       </c>
       <c r="G96" t="n">
-        <v>147.7239381430478</v>
+        <v>274.0604269385699</v>
       </c>
       <c r="H96" t="n">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="I96" t="n">
-        <v>48396</v>
+        <v>48421</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19396374</v>
+        <v>19105395</v>
       </c>
       <c r="F97" t="n">
-        <v>1380.063791758739</v>
+        <v>253.7792317288806</v>
       </c>
       <c r="G97" t="n">
-        <v>1006.844271445815</v>
+        <v>740.8240641570974</v>
       </c>
       <c r="H97" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I97" t="n">
-        <v>67138</v>
+        <v>68669</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4106453</v>
+        <v>4047077</v>
       </c>
       <c r="E98" t="n">
-        <v>11827084</v>
+        <v>11656076</v>
       </c>
       <c r="F98" t="n">
-        <v>604.1636627028075</v>
+        <v>1156.97346839662</v>
       </c>
       <c r="G98" t="n">
-        <v>745.6265302136628</v>
+        <v>450.1389526189903</v>
       </c>
       <c r="H98" t="n">
-        <v>0.93</v>
+        <v>0.51</v>
       </c>
       <c r="I98" t="n">
-        <v>490571</v>
+        <v>487061</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1515564</v>
+        <v>1522727</v>
       </c>
       <c r="F99" t="n">
-        <v>721.6349581431406</v>
+        <v>474.6732604173312</v>
       </c>
       <c r="G99" t="n">
-        <v>85.25630135481863</v>
+        <v>85.26032702335921</v>
       </c>
       <c r="H99" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I99" t="n">
-        <v>272444</v>
+        <v>272714</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>77826207</v>
+        <v>78281716</v>
       </c>
       <c r="E100" t="n">
-        <v>99039898</v>
+        <v>99619568</v>
       </c>
       <c r="F100" t="n">
-        <v>4432.190676991735</v>
+        <v>9000.803127275616</v>
       </c>
       <c r="G100" t="n">
-        <v>10559.35195946336</v>
+        <v>7498.030636193145</v>
       </c>
       <c r="H100" t="n">
-        <v>0.99</v>
+        <v>1.3</v>
       </c>
       <c r="I100" t="n">
-        <v>6528976</v>
+        <v>6511037</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21818054</v>
+        <v>21765611</v>
       </c>
       <c r="E101" t="n">
-        <v>28303007</v>
+        <v>28234976</v>
       </c>
       <c r="F101" t="n">
-        <v>2211.369473710185</v>
+        <v>4376.928945392717</v>
       </c>
       <c r="G101" t="n">
-        <v>5106.193489729062</v>
+        <v>6600.507009064863</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="I101" t="n">
-        <v>206033</v>
+        <v>224892</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1492675</v>
+        <v>1437480</v>
       </c>
       <c r="F102" t="n">
-        <v>248.298943492345</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>117.6352919672683</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>2.63</v>
+        <v>5.37</v>
       </c>
       <c r="I102" t="n">
-        <v>7933.79</v>
+        <v>8068.24</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>599413</v>
+        <v>602463</v>
       </c>
       <c r="E103" t="n">
-        <v>599413</v>
+        <v>602463</v>
       </c>
       <c r="F103" t="n">
-        <v>137.8086887870572</v>
+        <v>28.56679478024058</v>
       </c>
       <c r="G103" t="n">
-        <v>20.504424605168</v>
+        <v>21.21206404001151</v>
       </c>
       <c r="H103" t="n">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="I103" t="n">
-        <v>65508</v>
+        <v>64151</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40484406</v>
+        <v>40059234</v>
       </c>
       <c r="E104" t="n">
-        <v>42320681</v>
+        <v>41876224</v>
       </c>
       <c r="F104" t="n">
-        <v>275.7301861625294</v>
+        <v>405.2982011444721</v>
       </c>
       <c r="G104" t="n">
-        <v>1509.147744270444</v>
+        <v>1618.165642619609</v>
       </c>
       <c r="H104" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="I104" t="n">
-        <v>740714</v>
+        <v>746117</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13554685</v>
+        <v>13747352</v>
       </c>
       <c r="E105" t="n">
-        <v>13554685</v>
+        <v>13747352</v>
       </c>
       <c r="F105" t="n">
-        <v>3671.473921462517</v>
+        <v>3067.52416820904</v>
       </c>
       <c r="G105" t="n">
-        <v>2918.490355986886</v>
+        <v>2729.41490677295</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I105" t="n">
-        <v>5470841</v>
+        <v>5558525</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1127335</v>
+        <v>1127920</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.17</v>
+        <v>7.49</v>
       </c>
       <c r="I106" t="n">
-        <v>3645.95</v>
+        <v>3595.64</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>48775670</v>
+        <v>49896585</v>
       </c>
       <c r="E107" t="n">
-        <v>124258808</v>
+        <v>127114403</v>
       </c>
       <c r="F107" t="n">
-        <v>1992.267161805731</v>
+        <v>2155.022918603178</v>
       </c>
       <c r="G107" t="n">
-        <v>3633.925877386251</v>
+        <v>3305.012911062783</v>
       </c>
       <c r="H107" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I107" t="n">
-        <v>2197103</v>
+        <v>2253459</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13603613</v>
+        <v>13937032</v>
       </c>
       <c r="E108" t="n">
-        <v>65884467</v>
+        <v>67499271</v>
       </c>
       <c r="F108" t="n">
-        <v>2297.04211173483</v>
+        <v>1659.325388455477</v>
       </c>
       <c r="G108" t="n">
-        <v>4380.651206400498</v>
+        <v>3799.567508155064</v>
       </c>
       <c r="H108" t="n">
-        <v>0.45</v>
+        <v>0.62</v>
       </c>
       <c r="I108" t="n">
-        <v>5484256</v>
+        <v>5543055</v>
       </c>
     </row>
     <row r="109">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>625985</v>
+        <v>627658</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>4.3</v>
+        <v>5.27</v>
       </c>
       <c r="I109" t="n">
-        <v>11803.87</v>
+        <v>11971.14</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4510837</v>
+        <v>4436721</v>
       </c>
       <c r="E110" t="n">
-        <v>10282254</v>
+        <v>10113309</v>
       </c>
       <c r="F110" t="n">
-        <v>1331.286551055362</v>
+        <v>1309.865167156383</v>
       </c>
       <c r="G110" t="n">
-        <v>1494.078037730818</v>
+        <v>2114.536685875724</v>
       </c>
       <c r="H110" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="I110" t="n">
-        <v>12349.27</v>
+        <v>66994</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1834713770</v>
+        <v>1844541893</v>
       </c>
       <c r="F111" t="n">
-        <v>30552.21556824281</v>
+        <v>36558.964835759</v>
       </c>
       <c r="G111" t="n">
-        <v>20632.88374799944</v>
+        <v>17065.64581128531</v>
       </c>
       <c r="H111" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I111" t="n">
-        <v>30790299</v>
+        <v>30727632</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9227131</v>
+        <v>9169396</v>
       </c>
       <c r="E112" t="n">
-        <v>33571138</v>
+        <v>33361012</v>
       </c>
       <c r="F112" t="n">
-        <v>502.2220252272836</v>
+        <v>1453.634643727623</v>
       </c>
       <c r="G112" t="n">
-        <v>8125.929063622169</v>
+        <v>342.8546135000453</v>
       </c>
       <c r="H112" t="n">
-        <v>1.19</v>
+        <v>0.63</v>
       </c>
       <c r="I112" t="n">
-        <v>147942</v>
+        <v>150855</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>637759</v>
+        <v>632213</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>8.990757351690469</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>7.241236696316353</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>0.78</v>
       </c>
       <c r="I113" t="n">
-        <v>675.34</v>
+        <v>684.04</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11648805</v>
+        <v>11660659</v>
       </c>
       <c r="E114" t="n">
-        <v>16889086</v>
+        <v>16906272</v>
       </c>
       <c r="F114" t="n">
-        <v>2999.819934362974</v>
+        <v>2855.420346977853</v>
       </c>
       <c r="G114" t="n">
-        <v>258.1486394359412</v>
+        <v>8562.080285471777</v>
       </c>
       <c r="H114" t="n">
-        <v>1.47</v>
+        <v>0.29</v>
       </c>
       <c r="I114" t="n">
-        <v>2018843</v>
+        <v>2021867</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1788621</v>
+        <v>1817265</v>
       </c>
       <c r="E115" t="n">
-        <v>12826025</v>
+        <v>13031428</v>
       </c>
       <c r="F115" t="n">
-        <v>6.412816278467432</v>
+        <v>55.82221570427662</v>
       </c>
       <c r="G115" t="n">
-        <v>36.7400035415509</v>
+        <v>10.00416122641781</v>
       </c>
       <c r="H115" t="n">
-        <v>3.01</v>
+        <v>3.7</v>
       </c>
       <c r="I115" t="n">
-        <v>2082156</v>
+        <v>2064042</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2728373</v>
+        <v>2712612</v>
       </c>
       <c r="E116" t="n">
-        <v>5515296</v>
+        <v>5483435</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4477.82</v>
+        <v>4446.14</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>191474990</v>
+        <v>192722507</v>
       </c>
       <c r="E117" t="n">
-        <v>1084249045</v>
+        <v>1091313253</v>
       </c>
       <c r="F117" t="n">
-        <v>271417.8662111023</v>
+        <v>326619.7506719389</v>
       </c>
       <c r="G117" t="n">
-        <v>350797.1423983331</v>
+        <v>273249.0601089635</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>86017221</v>
+        <v>86413731</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>652763</v>
+        <v>656145</v>
       </c>
       <c r="E118" t="n">
-        <v>2164468</v>
+        <v>2175680</v>
       </c>
       <c r="F118" t="n">
-        <v>7606.799101542567</v>
+        <v>4051.66107416745</v>
       </c>
       <c r="G118" t="n">
-        <v>7036.085022784136</v>
+        <v>7553.779182049747</v>
       </c>
       <c r="H118" t="n">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="I118" t="n">
-        <v>3984.86</v>
+        <v>3980.51</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2612084</v>
+        <v>2618603</v>
       </c>
       <c r="E119" t="n">
-        <v>9248287</v>
+        <v>9271367</v>
       </c>
       <c r="F119" t="n">
-        <v>292.3959172277841</v>
+        <v>335.5956981207352</v>
       </c>
       <c r="G119" t="n">
-        <v>384.941983482427</v>
+        <v>419.8447005183992</v>
       </c>
       <c r="H119" t="n">
-        <v>0.88</v>
+        <v>1.42</v>
       </c>
       <c r="I119" t="n">
-        <v>27768</v>
+        <v>27923</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1008451</v>
+        <v>1005260</v>
       </c>
       <c r="E120" t="n">
-        <v>1008451</v>
+        <v>1005260</v>
       </c>
       <c r="F120" t="n">
-        <v>125.3396278638863</v>
+        <v>148.82570792595</v>
       </c>
       <c r="G120" t="n">
-        <v>140.4617917504463</v>
+        <v>140.4671263453077</v>
       </c>
       <c r="H120" t="n">
-        <v>2.31</v>
+        <v>2.12</v>
       </c>
       <c r="I120" t="n">
-        <v>5505.68</v>
+        <v>5412.65</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>495047</v>
+        <v>487319</v>
       </c>
       <c r="E121" t="n">
-        <v>1666259</v>
+        <v>1640249</v>
       </c>
       <c r="F121" t="n">
-        <v>356.3984196966122</v>
+        <v>367.9003365099913</v>
       </c>
       <c r="G121" t="n">
-        <v>362.5855243532673</v>
+        <v>368.7465021022625</v>
       </c>
       <c r="H121" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="I121" t="n">
-        <v>641085</v>
+        <v>639895</v>
       </c>
     </row>
     <row r="122">
@@ -4677,22 +4677,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>463522</v>
+        <v>457841</v>
       </c>
       <c r="E122" t="n">
-        <v>859922</v>
+        <v>849383</v>
       </c>
       <c r="F122" t="n">
-        <v>91.66054975424855</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>4.016448368498125</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2.27</v>
+        <v>6.52</v>
       </c>
       <c r="I122" t="n">
-        <v>268377</v>
+        <v>280314</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9695931</v>
+        <v>9708061</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>8.09</v>
+        <v>6.45</v>
       </c>
       <c r="I123" t="n">
-        <v>18707.38</v>
+        <v>20072</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1163741</v>
+        <v>1169353</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>8.710000000000001</v>
+        <v>11.65</v>
       </c>
       <c r="I124" t="n">
-        <v>5989.96</v>
+        <v>6039.98</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3267074</v>
+        <v>3300391</v>
       </c>
       <c r="E125" t="n">
-        <v>7629163</v>
+        <v>7706963</v>
       </c>
       <c r="F125" t="n">
-        <v>1029.270133087181</v>
+        <v>1018.629472013432</v>
       </c>
       <c r="G125" t="n">
-        <v>1256.366799914282</v>
+        <v>962.7828476162574</v>
       </c>
       <c r="H125" t="n">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="I125" t="n">
-        <v>611512</v>
+        <v>610741</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246886</v>
+        <v>250050</v>
       </c>
       <c r="E126" t="n">
-        <v>2178956</v>
+        <v>2206879</v>
       </c>
       <c r="F126" t="n">
-        <v>11.40392307394065</v>
+        <v>479.2060142140659</v>
       </c>
       <c r="G126" t="n">
-        <v>408.0826979898679</v>
+        <v>188.1596106734045</v>
       </c>
       <c r="H126" t="n">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="I126" t="n">
-        <v>72117</v>
+        <v>75051</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>623077</v>
+        <v>625737</v>
       </c>
       <c r="F127" t="n">
-        <v>540.5583651123709</v>
+        <v>540.6119390791365</v>
       </c>
       <c r="G127" t="n">
-        <v>710.1285575387458</v>
+        <v>710.1989373648595</v>
       </c>
       <c r="H127" t="n">
         <v>0.99</v>
       </c>
       <c r="I127" t="n">
-        <v>16117.37</v>
+        <v>16188.64</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4705403</v>
+        <v>4716213</v>
       </c>
       <c r="E128" t="n">
-        <v>16624176</v>
+        <v>16662365</v>
       </c>
       <c r="F128" t="n">
-        <v>1468.586925625351</v>
+        <v>1003.625919967415</v>
       </c>
       <c r="G128" t="n">
-        <v>1013.379048287529</v>
+        <v>872.5411874036264</v>
       </c>
       <c r="H128" t="n">
         <v>0.72</v>
       </c>
       <c r="I128" t="n">
-        <v>152301</v>
+        <v>155115</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2133105</v>
+        <v>2145362</v>
       </c>
       <c r="F129" t="n">
-        <v>12.57175267953109</v>
+        <v>23.15853037781123</v>
       </c>
       <c r="G129" t="n">
-        <v>41.76248418728468</v>
+        <v>67.50584313157489</v>
       </c>
       <c r="H129" t="n">
         <v>0.05</v>
       </c>
       <c r="I129" t="n">
-        <v>5089.33</v>
+        <v>5131.14</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2441890</v>
+        <v>2430057</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2524.68</v>
+        <v>2520.16</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>79275</v>
+        <v>78632</v>
       </c>
       <c r="E131" t="n">
-        <v>79275</v>
+        <v>78632</v>
       </c>
       <c r="F131" t="n">
-        <v>14.52032986804925</v>
+        <v>10.10375793454797</v>
       </c>
       <c r="G131" t="n">
-        <v>27.24789135149049</v>
+        <v>6.624208724116582</v>
       </c>
       <c r="H131" t="n">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="I131" t="n">
-        <v>19938.98</v>
+        <v>19407.85</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4135219</v>
+        <v>4099174</v>
       </c>
       <c r="F132" t="n">
-        <v>167.5083028820095</v>
+        <v>216.6142189439273</v>
       </c>
       <c r="G132" t="n">
-        <v>435.0376216035847</v>
+        <v>380.3903267395351</v>
       </c>
       <c r="H132" t="n">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c r="I132" t="n">
-        <v>269574</v>
+        <v>258714</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2096494</v>
+        <v>2095235</v>
       </c>
       <c r="E133" t="n">
-        <v>8561538</v>
+        <v>8556399</v>
       </c>
       <c r="F133" t="n">
-        <v>408.434577003485</v>
+        <v>417.9386297080065</v>
       </c>
       <c r="G133" t="n">
-        <v>167.6843621015101</v>
+        <v>474.5152220024456</v>
       </c>
       <c r="H133" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
       <c r="I133" t="n">
-        <v>422809</v>
+        <v>403331</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7264538</v>
+        <v>7370013</v>
       </c>
       <c r="E134" t="n">
-        <v>7318537</v>
+        <v>7424796</v>
       </c>
       <c r="F134" t="n">
-        <v>299163.8411328073</v>
+        <v>161132.874252442</v>
       </c>
       <c r="G134" t="n">
-        <v>253793.0578818079</v>
+        <v>209211.8344430831</v>
       </c>
       <c r="H134" t="n">
-        <v>0.28</v>
+        <v>0.73</v>
       </c>
       <c r="I134" t="n">
-        <v>5908215</v>
+        <v>6004282</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13282906</v>
+        <v>13350071</v>
       </c>
       <c r="E135" t="n">
-        <v>13328109</v>
+        <v>13395503</v>
       </c>
       <c r="F135" t="n">
-        <v>12548.98946194239</v>
+        <v>14419.57108327117</v>
       </c>
       <c r="G135" t="n">
-        <v>10538.98343854709</v>
+        <v>13273.53006106818</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>6892945</v>
+        <v>6948747</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42207545</v>
+        <v>42116772</v>
       </c>
       <c r="E136" t="n">
-        <v>71658592</v>
+        <v>71504482</v>
       </c>
       <c r="F136" t="n">
-        <v>585.2202989592341</v>
+        <v>560.4953271738782</v>
       </c>
       <c r="G136" t="n">
-        <v>1758.239577896577</v>
+        <v>1341.855310835723</v>
       </c>
       <c r="H136" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1130709</v>
+        <v>1154324</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19244971</v>
+        <v>19784699</v>
       </c>
       <c r="E137" t="n">
-        <v>57699435</v>
+        <v>59317623</v>
       </c>
       <c r="F137" t="n">
-        <v>37876.84418875314</v>
+        <v>21290.47739299741</v>
       </c>
       <c r="G137" t="n">
-        <v>21923.66396784384</v>
+        <v>40908.40941398149</v>
       </c>
       <c r="H137" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I137" t="n">
-        <v>3625702</v>
+        <v>4425746</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>100320899</v>
+        <v>100072451</v>
       </c>
       <c r="E138" t="n">
-        <v>106650182</v>
+        <v>106386060</v>
       </c>
       <c r="F138" t="n">
-        <v>1478.131499753015</v>
+        <v>3701.798481108301</v>
       </c>
       <c r="G138" t="n">
-        <v>3006.245561631816</v>
+        <v>3688.937348473884</v>
       </c>
       <c r="H138" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="I138" t="n">
-        <v>1818991</v>
+        <v>534991</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1306652</v>
+        <v>1267242</v>
       </c>
       <c r="F139" t="n">
-        <v>7.717868606131862</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2374563218438652</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>3.85</v>
+        <v>7.37</v>
       </c>
       <c r="I139" t="n">
-        <v>1939.3</v>
+        <v>2042.77</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>234457</v>
+        <v>234282</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>9.92</v>
+        <v>10.69</v>
       </c>
       <c r="I140" t="n">
         <v>63.47</v>
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>70749</v>
+        <v>77876</v>
       </c>
       <c r="E141" t="n">
-        <v>200700</v>
+        <v>220918</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>424.48</v>
+        <v>590.03</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>49544852</v>
+        <v>49497602</v>
       </c>
       <c r="E142" t="n">
-        <v>213433804</v>
+        <v>213230256</v>
       </c>
       <c r="F142" t="n">
-        <v>53458.30199877671</v>
+        <v>52075.01208148769</v>
       </c>
       <c r="G142" t="n">
-        <v>71417.5895972416</v>
+        <v>68349.37510233533</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="I142" t="n">
-        <v>13246804</v>
+        <v>12421366</v>
       </c>
     </row>
     <row r="143">
@@ -5407,19 +5407,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280932</v>
+        <v>280632</v>
       </c>
       <c r="F143" t="n">
-        <v>23.73430691271949</v>
+        <v>23.73665918594624</v>
       </c>
       <c r="G143" t="n">
-        <v>13.52837704059479</v>
+        <v>13.52971781870266</v>
       </c>
       <c r="H143" t="n">
         <v>0.68</v>
       </c>
       <c r="I143" t="n">
-        <v>12990.92</v>
+        <v>14811.89</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>10113871</v>
+        <v>11377289</v>
       </c>
       <c r="F144" t="n">
-        <v>161.8454056884412</v>
+        <v>106.5155852731651</v>
       </c>
       <c r="G144" t="n">
-        <v>295.9481496393195</v>
+        <v>267.3305663330402</v>
       </c>
       <c r="H144" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I144" t="n">
-        <v>63851</v>
+        <v>833550</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1168425</v>
+        <v>1173991</v>
       </c>
       <c r="E145" t="n">
-        <v>7789499</v>
+        <v>7826606</v>
       </c>
       <c r="F145" t="n">
-        <v>262.3007961461009</v>
+        <v>262.3287412492251</v>
       </c>
       <c r="G145" t="n">
-        <v>36.77942378293073</v>
+        <v>36.78334220333037</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4364.52</v>
+        <v>4358.68</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7586774</v>
+        <v>7395612</v>
       </c>
       <c r="F146" t="n">
-        <v>155.7446936688453</v>
+        <v>23.95638728483317</v>
       </c>
       <c r="G146" t="n">
-        <v>702.2473756405835</v>
+        <v>192.8124529928726</v>
       </c>
       <c r="H146" t="n">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="I146" t="n">
-        <v>7144818</v>
+        <v>576767</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>659886</v>
+        <v>657724</v>
       </c>
       <c r="E147" t="n">
-        <v>2381833</v>
+        <v>2374028</v>
       </c>
       <c r="F147" t="n">
-        <v>19.8960852856377</v>
+        <v>20.17371900908503</v>
       </c>
       <c r="G147" t="n">
-        <v>149.1319861083935</v>
+        <v>40.50521710649417</v>
       </c>
       <c r="H147" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="I147" t="n">
-        <v>402275</v>
+        <v>398907</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1547670</v>
+        <v>1574061</v>
       </c>
       <c r="F148" t="n">
-        <v>1131.045462980402</v>
+        <v>1131.307500424114</v>
       </c>
       <c r="G148" t="n">
-        <v>56.27613687439782</v>
+        <v>56.13051160804999</v>
       </c>
       <c r="H148" t="n">
         <v>0.03</v>
       </c>
       <c r="I148" t="n">
-        <v>87072</v>
+        <v>87513</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>62974</v>
+        <v>65020</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9950053133785204</v>
+        <v>3.997348170226836</v>
       </c>
       <c r="G149" t="n">
-        <v>36.57127024315193</v>
+        <v>36.57516648720966</v>
       </c>
       <c r="H149" t="n">
         <v>3.33</v>
       </c>
       <c r="I149" t="n">
-        <v>3143.39</v>
+        <v>3145.07</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12471023</v>
+        <v>12376572</v>
       </c>
       <c r="E150" t="n">
-        <v>12471023</v>
+        <v>12376572</v>
       </c>
       <c r="F150" t="n">
-        <v>236.9374254263159</v>
+        <v>146.1807181611275</v>
       </c>
       <c r="G150" t="n">
-        <v>458.625691144684</v>
+        <v>1010.14221528705</v>
       </c>
       <c r="H150" t="n">
-        <v>0.64</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>3152340</v>
+        <v>2966737</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2264285</v>
+        <v>2277969</v>
       </c>
       <c r="E151" t="n">
-        <v>8219012</v>
+        <v>8268573</v>
       </c>
       <c r="F151" t="n">
-        <v>19.32984693782154</v>
+        <v>29.28943432126376</v>
       </c>
       <c r="G151" t="n">
-        <v>44.41984330695603</v>
+        <v>127.7747955350585</v>
       </c>
       <c r="H151" t="n">
-        <v>1.76</v>
+        <v>0.26</v>
       </c>
       <c r="I151" t="n">
-        <v>221280</v>
+        <v>223587</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1206442</v>
+        <v>1209131</v>
       </c>
       <c r="E152" t="n">
-        <v>1206442</v>
+        <v>1209131</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>991.75</v>
+        <v>995.8200000000001</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>22997294</v>
+        <v>22952695</v>
       </c>
       <c r="E153" t="n">
-        <v>26565473</v>
+        <v>26513954</v>
       </c>
       <c r="F153" t="n">
-        <v>633.7992088703053</v>
+        <v>556.8872419918933</v>
       </c>
       <c r="G153" t="n">
-        <v>553.218694270271</v>
+        <v>409.9656325815241</v>
       </c>
       <c r="H153" t="n">
         <v>0.33</v>
       </c>
       <c r="I153" t="n">
-        <v>759650</v>
+        <v>753244</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2441573</v>
+        <v>2439943</v>
       </c>
       <c r="E154" t="n">
-        <v>18372211</v>
+        <v>18359944</v>
       </c>
       <c r="F154" t="n">
-        <v>3414.827711898991</v>
+        <v>3340.509841445373</v>
       </c>
       <c r="G154" t="n">
-        <v>3432.846338087557</v>
+        <v>3436.015223206186</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161359</v>
+        <v>161055</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>19611310</v>
+        <v>19455012</v>
       </c>
       <c r="E155" t="n">
-        <v>78445240</v>
+        <v>77820046</v>
       </c>
       <c r="F155" t="n">
-        <v>978.7279443650854</v>
+        <v>1328.855268727627</v>
       </c>
       <c r="G155" t="n">
-        <v>735.909899030785</v>
+        <v>4923.301687733382</v>
       </c>
       <c r="H155" t="n">
-        <v>1.89</v>
+        <v>0.39</v>
       </c>
       <c r="I155" t="n">
-        <v>3708397</v>
+        <v>3692542</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>283660814</v>
+        <v>289381575</v>
       </c>
       <c r="E156" t="n">
-        <v>283660814</v>
+        <v>289381575</v>
       </c>
       <c r="F156" t="n">
-        <v>355857.5329301996</v>
+        <v>267202.1854823025</v>
       </c>
       <c r="G156" t="n">
-        <v>265775.9927371133</v>
+        <v>262152.5090237812</v>
       </c>
       <c r="H156" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="I156" t="n">
-        <v>19791253</v>
+        <v>20094740</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12580996</v>
+        <v>12601631</v>
       </c>
       <c r="E157" t="n">
-        <v>39792050</v>
+        <v>39857315</v>
       </c>
       <c r="F157" t="n">
-        <v>4686.524002258386</v>
+        <v>4153.007630338786</v>
       </c>
       <c r="G157" t="n">
-        <v>3110.951550383936</v>
+        <v>9027.163505658675</v>
       </c>
       <c r="H157" t="n">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="I157" t="n">
-        <v>1025151</v>
+        <v>1006317</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1094588</v>
+        <v>1093678</v>
       </c>
       <c r="E158" t="n">
-        <v>2493031</v>
+        <v>2490960</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>5.75</v>
+        <v>4.98</v>
       </c>
       <c r="I158" t="n">
-        <v>453.05</v>
+        <v>452.97</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17263661</v>
+        <v>17436054</v>
       </c>
       <c r="E159" t="n">
-        <v>17263661</v>
+        <v>17436054</v>
       </c>
       <c r="F159" t="n">
-        <v>7125.787960490034</v>
+        <v>5853.206966314799</v>
       </c>
       <c r="G159" t="n">
-        <v>25359.73582556993</v>
+        <v>13590.14008090823</v>
       </c>
       <c r="H159" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I159" t="n">
-        <v>7219771</v>
+        <v>7199386</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4610508</v>
+        <v>4606777</v>
       </c>
       <c r="E160" t="n">
-        <v>8488438</v>
+        <v>8481569</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>13.55</v>
+        <v>13.45</v>
       </c>
       <c r="I160" t="n">
-        <v>54.92</v>
+        <v>54.91</v>
       </c>
     </row>
     <row r="161">
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>103855</v>
+        <v>100707</v>
       </c>
       <c r="E161" t="n">
-        <v>126049</v>
+        <v>122700</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>329.2228503996695</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>4.316411082598204</v>
       </c>
       <c r="H161" t="n">
-        <v>7.4</v>
+        <v>0.28</v>
       </c>
       <c r="I161" t="n">
-        <v>1969.74</v>
+        <v>1879.17</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>27879153</v>
+        <v>19346441</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>12.4</v>
+        <v>21.39</v>
       </c>
       <c r="I162" t="n">
-        <v>2377.13</v>
+        <v>3532.02</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>460880</v>
+        <v>461472</v>
       </c>
       <c r="E163" t="n">
-        <v>580537</v>
+        <v>581282</v>
       </c>
       <c r="F163" t="n">
-        <v>165.5957258856439</v>
+        <v>135.3795394815165</v>
       </c>
       <c r="G163" t="n">
-        <v>114.9829797461646</v>
+        <v>84.179586516841</v>
       </c>
       <c r="H163" t="n">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
       <c r="I163" t="n">
-        <v>149146</v>
+        <v>185940</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104756</v>
+        <v>104671</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>6.01</v>
+        <v>6.51</v>
       </c>
       <c r="I164" t="n">
-        <v>2785.63</v>
+        <v>2785.34</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12253818</v>
+        <v>12229608</v>
       </c>
       <c r="E165" t="n">
-        <v>18653075</v>
+        <v>18616221</v>
       </c>
       <c r="F165" t="n">
-        <v>1577.132717677928</v>
+        <v>2724.790968952836</v>
       </c>
       <c r="G165" t="n">
-        <v>1089.400744043484</v>
+        <v>2275.086228843029</v>
       </c>
       <c r="H165" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="I165" t="n">
-        <v>649154</v>
+        <v>670672</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>286230369</v>
+        <v>289572255</v>
       </c>
       <c r="E166" t="n">
-        <v>286230369</v>
+        <v>289572255</v>
       </c>
       <c r="F166" t="n">
-        <v>204092.0070231937</v>
+        <v>211013.0618521755</v>
       </c>
       <c r="G166" t="n">
-        <v>293352.8512908514</v>
+        <v>244768.7887345717</v>
       </c>
       <c r="H166" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>93031335</v>
+        <v>93612597</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9813571</v>
+        <v>9714650</v>
       </c>
       <c r="E167" t="n">
-        <v>27862366</v>
+        <v>27581513</v>
       </c>
       <c r="F167" t="n">
-        <v>402.5970629611706</v>
+        <v>400.8247739943919</v>
       </c>
       <c r="G167" t="n">
-        <v>985.7561547008004</v>
+        <v>1205.806048758347</v>
       </c>
       <c r="H167" t="n">
         <v>1.79</v>
       </c>
       <c r="I167" t="n">
-        <v>90043</v>
+        <v>91683</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11623126</v>
+        <v>11625841</v>
       </c>
       <c r="F168" t="n">
-        <v>304.8816513287684</v>
+        <v>360.9761324704688</v>
       </c>
       <c r="G168" t="n">
-        <v>69.67149312973261</v>
+        <v>185.6504342357596</v>
       </c>
       <c r="H168" t="n">
-        <v>1.8</v>
+        <v>2.39</v>
       </c>
       <c r="I168" t="n">
-        <v>89429</v>
+        <v>80501</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4579436</v>
+        <v>4585942</v>
       </c>
       <c r="E169" t="n">
-        <v>31290965</v>
+        <v>31335421</v>
       </c>
       <c r="F169" t="n">
-        <v>1158.758008866931</v>
+        <v>4407.792089041764</v>
       </c>
       <c r="G169" t="n">
-        <v>1401.472933516236</v>
+        <v>5162.170730674076</v>
       </c>
       <c r="H169" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I169" t="n">
-        <v>2984377</v>
+        <v>3003874</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2637058</v>
+        <v>2634626</v>
       </c>
       <c r="E170" t="n">
-        <v>3903490</v>
+        <v>3899587</v>
       </c>
       <c r="F170" t="n">
-        <v>1555.131104039572</v>
+        <v>2481.941756727722</v>
       </c>
       <c r="G170" t="n">
-        <v>1371.771538286757</v>
+        <v>2505.455678059839</v>
       </c>
       <c r="H170" t="n">
-        <v>1.02</v>
+        <v>0.51</v>
       </c>
       <c r="I170" t="n">
-        <v>86865</v>
+        <v>86495</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>83414356</v>
+        <v>84350209</v>
       </c>
       <c r="E171" t="n">
-        <v>480669498</v>
+        <v>486062286</v>
       </c>
       <c r="F171" t="n">
-        <v>267340.2018927576</v>
+        <v>394501.0538929103</v>
       </c>
       <c r="G171" t="n">
-        <v>195145.2819524701</v>
+        <v>313961.4927635935</v>
       </c>
       <c r="H171" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="I171" t="n">
-        <v>21188073</v>
+        <v>21212482</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13810855</v>
+        <v>13809871</v>
       </c>
       <c r="E172" t="n">
-        <v>13810855</v>
+        <v>13809871</v>
       </c>
       <c r="F172" t="n">
-        <v>4928.309263287592</v>
+        <v>5091.796411875837</v>
       </c>
       <c r="G172" t="n">
-        <v>4143.57671585259</v>
+        <v>5576.310892961343</v>
       </c>
       <c r="H172" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="I172" t="n">
-        <v>701286</v>
+        <v>710509</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6086298</v>
+        <v>6077626</v>
       </c>
       <c r="E173" t="n">
-        <v>17289425</v>
+        <v>17264790</v>
       </c>
       <c r="F173" t="n">
-        <v>724.7438578065884</v>
+        <v>767.6623072790109</v>
       </c>
       <c r="G173" t="n">
-        <v>7931.660133427627</v>
+        <v>7977.310573245778</v>
       </c>
       <c r="H173" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="I173" t="n">
-        <v>95172</v>
+        <v>93602</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18610492</v>
+        <v>19187615</v>
       </c>
       <c r="E174" t="n">
-        <v>18610492</v>
+        <v>19187615</v>
       </c>
       <c r="F174" t="n">
-        <v>884.3089769462588</v>
+        <v>8.55328987047932</v>
       </c>
       <c r="G174" t="n">
-        <v>1.061396911565682</v>
+        <v>1.061509991078154</v>
       </c>
       <c r="H174" t="n">
-        <v>0.84</v>
+        <v>1.67</v>
       </c>
       <c r="I174" t="n">
-        <v>110622</v>
+        <v>58575</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1334686</v>
+        <v>1312286</v>
       </c>
       <c r="F175" t="n">
-        <v>1410.045645894742</v>
+        <v>88.97804817491833</v>
       </c>
       <c r="G175" t="n">
-        <v>266.9715380992635</v>
+        <v>237.4356817234701</v>
       </c>
       <c r="H175" t="n">
-        <v>0.08</v>
+        <v>2.08</v>
       </c>
       <c r="I175" t="n">
-        <v>42847</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>122067</v>
+        <v>123286</v>
       </c>
       <c r="E176" t="n">
-        <v>265737</v>
+        <v>268391</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>8.119999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="I176" t="n">
-        <v>41492</v>
+        <v>42576</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2960195</v>
+        <v>2852688</v>
       </c>
       <c r="F177" t="n">
-        <v>567.5176827417804</v>
+        <v>93.75384248118451</v>
       </c>
       <c r="G177" t="n">
-        <v>175.9442016830089</v>
+        <v>83.33783606120039</v>
       </c>
       <c r="H177" t="n">
-        <v>2.01</v>
+        <v>3.47</v>
       </c>
       <c r="I177" t="n">
-        <v>369918</v>
+        <v>365920</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>230544140</v>
+        <v>233168482</v>
       </c>
       <c r="E178" t="n">
-        <v>230546431</v>
+        <v>233170799</v>
       </c>
       <c r="F178" t="n">
-        <v>4890.528089631322</v>
+        <v>15825.16177017151</v>
       </c>
       <c r="G178" t="n">
-        <v>43118.39282174003</v>
+        <v>89418.36892579871</v>
       </c>
       <c r="H178" t="n">
-        <v>0.84</v>
+        <v>0.32</v>
       </c>
       <c r="I178" t="n">
-        <v>1951152</v>
+        <v>1998090</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9101863</v>
+        <v>9133006</v>
       </c>
       <c r="E179" t="n">
-        <v>9101863</v>
+        <v>9133006</v>
       </c>
       <c r="F179" t="n">
-        <v>262.2268501920103</v>
+        <v>611.2808841077256</v>
       </c>
       <c r="G179" t="n">
-        <v>960.8587886035608</v>
+        <v>65.85649486491528</v>
       </c>
       <c r="H179" t="n">
-        <v>1.38</v>
+        <v>3.25</v>
       </c>
       <c r="I179" t="n">
-        <v>2952546</v>
+        <v>2936127</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>190453</v>
+        <v>188369</v>
       </c>
       <c r="E180" t="n">
-        <v>1470683</v>
+        <v>1454586</v>
       </c>
       <c r="F180" t="n">
-        <v>546.923513241221</v>
+        <v>607.8327463246637</v>
       </c>
       <c r="G180" t="n">
-        <v>83.08695389820473</v>
+        <v>105.066098674299</v>
       </c>
       <c r="H180" t="n">
-        <v>1.49</v>
+        <v>0.55</v>
       </c>
       <c r="I180" t="n">
-        <v>46032</v>
+        <v>46903</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>28749906</v>
+        <v>29180678</v>
       </c>
       <c r="E181" t="n">
-        <v>128725121</v>
+        <v>130653865</v>
       </c>
       <c r="F181" t="n">
-        <v>28913.14095557374</v>
+        <v>35609.86896066023</v>
       </c>
       <c r="G181" t="n">
-        <v>56254.68416865516</v>
+        <v>58559.75107983296</v>
       </c>
       <c r="H181" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>14578791</v>
+        <v>14830873</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1313330</v>
+        <v>1310017</v>
       </c>
       <c r="F182" t="n">
-        <v>530.3950161547125</v>
+        <v>508.7515664900421</v>
       </c>
       <c r="G182" t="n">
-        <v>31.60462862938945</v>
+        <v>586.6514728496196</v>
       </c>
       <c r="H182" t="n">
-        <v>0.61</v>
+        <v>2.09</v>
       </c>
       <c r="I182" t="n">
-        <v>95039</v>
+        <v>90037</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2889191</v>
+        <v>2883092</v>
       </c>
       <c r="E183" t="n">
-        <v>2889191</v>
+        <v>2883092</v>
       </c>
       <c r="F183" t="n">
-        <v>663.01873741273</v>
+        <v>524.6316920762214</v>
       </c>
       <c r="G183" t="n">
-        <v>555.4725144875296</v>
+        <v>616.5368273579492</v>
       </c>
       <c r="H183" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="I183" t="n">
-        <v>312413</v>
+        <v>298029</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>550570</v>
+        <v>559597</v>
       </c>
       <c r="E184" t="n">
-        <v>550570</v>
+        <v>559597</v>
       </c>
       <c r="F184" t="n">
-        <v>9.258045101645402</v>
+        <v>6.442304411447747</v>
       </c>
       <c r="G184" t="n">
-        <v>30.59834756741349</v>
+        <v>178.2232451863169</v>
       </c>
       <c r="H184" t="n">
         <v>3.64</v>
       </c>
       <c r="I184" t="n">
-        <v>1184414</v>
+        <v>1146008</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14171307</v>
+        <v>14254196</v>
       </c>
       <c r="E185" t="n">
-        <v>18042337</v>
+        <v>18147867</v>
       </c>
       <c r="F185" t="n">
-        <v>358.7973859517806</v>
+        <v>100.4301575703585</v>
       </c>
       <c r="G185" t="n">
-        <v>2024.179896543223</v>
+        <v>2434.383847611347</v>
       </c>
       <c r="H185" t="n">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="I185" t="n">
-        <v>917114</v>
+        <v>920636</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1742003</v>
+        <v>1741919</v>
       </c>
       <c r="E186" t="n">
-        <v>1742003</v>
+        <v>1741919</v>
       </c>
       <c r="F186" t="n">
-        <v>11.98410857736201</v>
+        <v>4.712587278092631</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8101106363768421</v>
+        <v>0.8101969442554613</v>
       </c>
       <c r="H186" t="n">
         <v>3.37</v>
       </c>
       <c r="I186" t="n">
-        <v>3518.41</v>
+        <v>3357.22</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47269183</v>
+        <v>48103556</v>
       </c>
       <c r="E187" t="n">
-        <v>306528070</v>
+        <v>311938759</v>
       </c>
       <c r="F187" t="n">
-        <v>148876.6929003655</v>
+        <v>145747.3170702735</v>
       </c>
       <c r="G187" t="n">
-        <v>153774.5741268534</v>
+        <v>151989.2129940723</v>
       </c>
       <c r="H187" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I187" t="n">
-        <v>21244444</v>
+        <v>21807428</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>7993730</v>
+        <v>8036436</v>
       </c>
       <c r="F188" t="n">
-        <v>148.4947119909863</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>9.991650895390046</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>2.72</v>
+        <v>6.68</v>
       </c>
       <c r="I188" t="n">
-        <v>310467</v>
+        <v>308481</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7066720</v>
+        <v>7152178</v>
       </c>
       <c r="E189" t="n">
-        <v>7076840</v>
+        <v>7162339</v>
       </c>
       <c r="F189" t="n">
-        <v>158.3723406820069</v>
+        <v>33.17588001663665</v>
       </c>
       <c r="G189" t="n">
-        <v>66.46879457378263</v>
+        <v>1387.541669958698</v>
       </c>
       <c r="H189" t="n">
-        <v>2.26</v>
+        <v>0.86</v>
       </c>
       <c r="I189" t="n">
-        <v>852960</v>
+        <v>917385</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4521677</v>
+        <v>4412305</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>24.97988982669241</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>13.04309380467465</v>
       </c>
       <c r="H190" t="n">
-        <v>3.97</v>
+        <v>2.83</v>
       </c>
       <c r="I190" t="n">
-        <v>254573</v>
+        <v>207822</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>90120745</v>
+        <v>93567380</v>
       </c>
       <c r="E191" t="n">
-        <v>91090830</v>
+        <v>94574564</v>
       </c>
       <c r="F191" t="n">
-        <v>9240.730045506747</v>
+        <v>21201.19174147212</v>
       </c>
       <c r="G191" t="n">
-        <v>44411.37633235132</v>
+        <v>36960.62928911322</v>
       </c>
       <c r="H191" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I191" t="n">
-        <v>81297036</v>
+        <v>82667486</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>240196527</v>
+        <v>244547598</v>
       </c>
       <c r="E192" t="n">
-        <v>240196527</v>
+        <v>244547598</v>
       </c>
       <c r="F192" t="n">
-        <v>31809.94923069681</v>
+        <v>45976.36141944295</v>
       </c>
       <c r="G192" t="n">
-        <v>35090.4880223574</v>
+        <v>38292.40116156748</v>
       </c>
       <c r="H192" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I192" t="n">
-        <v>93633945</v>
+        <v>94321951</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>22561329</v>
+        <v>23053341</v>
       </c>
       <c r="E193" t="n">
-        <v>134988967</v>
+        <v>137932776</v>
       </c>
       <c r="F193" t="n">
-        <v>69429.77570351215</v>
+        <v>61688.68870290023</v>
       </c>
       <c r="G193" t="n">
-        <v>74074.44043753936</v>
+        <v>73941.3127922475</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I193" t="n">
-        <v>18065938</v>
+        <v>18277233</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13304376</v>
+        <v>13319126</v>
       </c>
       <c r="E194" t="n">
-        <v>40209516</v>
+        <v>40254095</v>
       </c>
       <c r="F194" t="n">
-        <v>817.4862085453394</v>
+        <v>616.931085692582</v>
       </c>
       <c r="G194" t="n">
-        <v>1028.276595429679</v>
+        <v>1334.842896983278</v>
       </c>
       <c r="H194" t="n">
         <v>0.54</v>
       </c>
       <c r="I194" t="n">
-        <v>2418495</v>
+        <v>2432995</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52180859</v>
+        <v>52104071</v>
       </c>
       <c r="E195" t="n">
-        <v>90127688</v>
+        <v>89995059</v>
       </c>
       <c r="F195" t="n">
-        <v>7845.645776367816</v>
+        <v>8302.651750210711</v>
       </c>
       <c r="G195" t="n">
-        <v>9120.353240128097</v>
+        <v>8560.487110863671</v>
       </c>
       <c r="H195" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I195" t="n">
-        <v>2271791</v>
+        <v>2278043</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4078087</v>
+        <v>4098792</v>
       </c>
       <c r="E196" t="n">
-        <v>4078087</v>
+        <v>4098792</v>
       </c>
       <c r="F196" t="n">
-        <v>234.7330360670358</v>
+        <v>252.7944501040454</v>
       </c>
       <c r="G196" t="n">
-        <v>22.07491844272543</v>
+        <v>21.03149613999645</v>
       </c>
       <c r="H196" t="n">
-        <v>0.34</v>
+        <v>2.14</v>
       </c>
       <c r="I196" t="n">
-        <v>1742298</v>
+        <v>1753469</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>186667</v>
+        <v>186509</v>
       </c>
       <c r="F197" t="n">
-        <v>403.6080394883736</v>
+        <v>404.5499418512528</v>
       </c>
       <c r="G197" t="n">
-        <v>86.97375380709286</v>
+        <v>4.856301833531023</v>
       </c>
       <c r="H197" t="n">
-        <v>3.12</v>
+        <v>3.78</v>
       </c>
       <c r="I197" t="n">
-        <v>62977</v>
+        <v>64423</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6240469</v>
+        <v>6260427</v>
       </c>
       <c r="E198" t="n">
-        <v>32105318</v>
+        <v>32207993</v>
       </c>
       <c r="F198" t="n">
-        <v>292.0203994980924</v>
+        <v>209.5541619008229</v>
       </c>
       <c r="G198" t="n">
-        <v>601.8349433964329</v>
+        <v>741.212384698336</v>
       </c>
       <c r="H198" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="I198" t="n">
-        <v>956545</v>
+        <v>962371</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>163942559</v>
+        <v>169076986</v>
       </c>
       <c r="E199" t="n">
-        <v>191533316</v>
+        <v>197531843</v>
       </c>
       <c r="F199" t="n">
-        <v>14920.280750738</v>
+        <v>39779.20155388686</v>
       </c>
       <c r="G199" t="n">
-        <v>5136.098597880135</v>
+        <v>6062.856222977178</v>
       </c>
       <c r="H199" t="n">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="I199" t="n">
-        <v>7145067</v>
+        <v>7301322</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>299832</v>
+        <v>298460</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>26.58947279535993</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>202.1242846465846</v>
       </c>
       <c r="H200" t="n">
-        <v>4.28</v>
+        <v>2.98</v>
       </c>
       <c r="I200" t="n">
-        <v>235443</v>
+        <v>229536</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7597449</v>
+        <v>7587503</v>
       </c>
       <c r="F201" t="n">
-        <v>965.1999609771892</v>
+        <v>942.9154694292938</v>
       </c>
       <c r="G201" t="n">
-        <v>387.837931881856</v>
+        <v>550.0869199354596</v>
       </c>
       <c r="H201" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="I201" t="n">
-        <v>658167</v>
+        <v>656640</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33986</v>
+        <v>33958</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>245.88</v>
+        <v>90.69</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>31874220</v>
+        <v>32287575</v>
       </c>
       <c r="E203" t="n">
-        <v>159067050</v>
+        <v>161129885</v>
       </c>
       <c r="F203" t="n">
-        <v>137823.0994591772</v>
+        <v>145692.8938883048</v>
       </c>
       <c r="G203" t="n">
-        <v>105541.1547133099</v>
+        <v>106939.5180075089</v>
       </c>
       <c r="H203" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>13980585</v>
+        <v>14197448</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1907484</v>
+        <v>1920021</v>
       </c>
       <c r="E204" t="n">
-        <v>1907484</v>
+        <v>1920021</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>20.39</v>
+        <v>21.53</v>
       </c>
       <c r="I204" t="n">
-        <v>5296.19</v>
+        <v>5346.34</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>153376</v>
+        <v>152992</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>4.59510392809088</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>63.46457286402464</v>
       </c>
       <c r="H205" t="n">
-        <v>4.32</v>
+        <v>1.9</v>
       </c>
       <c r="I205" t="n">
-        <v>30272</v>
+        <v>31068</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3086</v>
+        <v>3083.51</v>
       </c>
       <c r="E206" t="n">
-        <v>36885</v>
+        <v>36855</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>6.99</v>
       </c>
       <c r="I206" t="n">
-        <v>3835.95</v>
+        <v>3808.69</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>286782706</v>
+        <v>287874264</v>
       </c>
       <c r="E208" t="n">
-        <v>530613406</v>
+        <v>532633037</v>
       </c>
       <c r="F208" t="n">
-        <v>80187.18099755776</v>
+        <v>82621.29701199589</v>
       </c>
       <c r="G208" t="n">
-        <v>82615.69121576146</v>
+        <v>89382.27291278794</v>
       </c>
       <c r="H208" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I208" t="n">
-        <v>17635409</v>
+        <v>18573256</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>68519998</v>
+        <v>69133108</v>
       </c>
       <c r="E209" t="n">
-        <v>653551750</v>
+        <v>659389435</v>
       </c>
       <c r="F209" t="n">
-        <v>279517.4992111599</v>
+        <v>294485.6937173915</v>
       </c>
       <c r="G209" t="n">
-        <v>270498.7237514218</v>
+        <v>259407.8517854265</v>
       </c>
       <c r="H209" t="n">
         <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>23917717</v>
+        <v>24016933</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2240538</v>
+        <v>2228388</v>
       </c>
       <c r="F210" t="n">
-        <v>744.1793857227774</v>
+        <v>687.9706041778844</v>
       </c>
       <c r="G210" t="n">
-        <v>109.7203884516528</v>
+        <v>147.6326078574584</v>
       </c>
       <c r="H210" t="n">
-        <v>3.01</v>
+        <v>2.55</v>
       </c>
       <c r="I210" t="n">
-        <v>44695</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>75924</v>
+        <v>191517</v>
       </c>
       <c r="E211" t="n">
-        <v>631174</v>
+        <v>1592123</v>
       </c>
       <c r="F211" t="n">
-        <v>526.2269109751849</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>36.71657347563438</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>1.49</v>
+        <v>5.13</v>
       </c>
       <c r="I211" t="n">
-        <v>125.03</v>
+        <v>29563</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1825875</v>
+        <v>1834078</v>
       </c>
       <c r="E212" t="n">
-        <v>5214465</v>
+        <v>5237892</v>
       </c>
       <c r="F212" t="n">
-        <v>2773.273520038071</v>
+        <v>1977.125488792388</v>
       </c>
       <c r="G212" t="n">
-        <v>414.7261373816546</v>
+        <v>332.5692876019366</v>
       </c>
       <c r="H212" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I212" t="n">
-        <v>72891</v>
+        <v>72697</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>8803070</v>
+        <v>9180025</v>
       </c>
       <c r="E213" t="n">
-        <v>26097039</v>
+        <v>27214537</v>
       </c>
       <c r="F213" t="n">
-        <v>2228.429416054268</v>
+        <v>1278.44469263546</v>
       </c>
       <c r="G213" t="n">
-        <v>498.9323078475769</v>
+        <v>1571.801497885196</v>
       </c>
       <c r="H213" t="n">
-        <v>0.67</v>
+        <v>0.28</v>
       </c>
       <c r="I213" t="n">
-        <v>6444472</v>
+        <v>6551523</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14546895</v>
+        <v>14535124</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>201.4812097335003</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>101.1792676563486</v>
       </c>
       <c r="H214" t="n">
-        <v>4.95</v>
+        <v>1.1</v>
       </c>
       <c r="I214" t="n">
-        <v>409.85</v>
+        <v>409.48</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1938825</v>
+        <v>1939378</v>
       </c>
       <c r="E215" t="n">
-        <v>5608538</v>
+        <v>5610138</v>
       </c>
       <c r="F215" t="n">
-        <v>127.2407782641498</v>
+        <v>127.2547607230455</v>
       </c>
       <c r="G215" t="n">
-        <v>148.9293358468234</v>
+        <v>63.47624364847186</v>
       </c>
       <c r="H215" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="I215" t="n">
-        <v>53341</v>
+        <v>45059</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2280840</v>
+        <v>2169621</v>
       </c>
       <c r="E216" t="n">
-        <v>20118525</v>
+        <v>19137496</v>
       </c>
       <c r="F216" t="n">
-        <v>1965.0847603752</v>
+        <v>2058.785074006144</v>
       </c>
       <c r="G216" t="n">
-        <v>1316.954975463205</v>
+        <v>1373.865117767712</v>
       </c>
       <c r="H216" t="n">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="I216" t="n">
-        <v>84834</v>
+        <v>85676</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43184138</v>
+        <v>43372119</v>
       </c>
       <c r="E217" t="n">
-        <v>43184138</v>
+        <v>43372119</v>
       </c>
       <c r="F217" t="n">
-        <v>39743.4140071314</v>
+        <v>33697.14088879832</v>
       </c>
       <c r="G217" t="n">
-        <v>34334.91518706098</v>
+        <v>40442.88058828377</v>
       </c>
       <c r="H217" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I217" t="n">
-        <v>11816883</v>
+        <v>12001190</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8218831</v>
+        <v>8263760</v>
       </c>
       <c r="E218" t="n">
-        <v>11709952</v>
+        <v>11773965</v>
       </c>
       <c r="F218" t="n">
-        <v>2298.341855757126</v>
+        <v>2132.920807963402</v>
       </c>
       <c r="G218" t="n">
-        <v>1339.676875300355</v>
+        <v>1356.63456050493</v>
       </c>
       <c r="H218" t="n">
-        <v>1.24</v>
+        <v>0.91</v>
       </c>
       <c r="I218" t="n">
-        <v>315093</v>
+        <v>309623</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15791250</v>
+        <v>15703367</v>
       </c>
       <c r="F219" t="n">
-        <v>2.122137542639895</v>
+        <v>2.122363631745776</v>
       </c>
       <c r="G219" t="n">
-        <v>412.6584339714772</v>
+        <v>412.702397934461</v>
       </c>
       <c r="H219" t="n">
         <v>0.54</v>
       </c>
       <c r="I219" t="n">
-        <v>1110623</v>
+        <v>1106925</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>716806</v>
+        <v>717470</v>
       </c>
       <c r="F220" t="n">
-        <v>123.4779862429798</v>
+        <v>59.06443808319024</v>
       </c>
       <c r="G220" t="n">
-        <v>258.0138584126406</v>
+        <v>258.1829788851468</v>
       </c>
       <c r="H220" t="n">
-        <v>0.28</v>
+        <v>0.49</v>
       </c>
       <c r="I220" t="n">
-        <v>208907</v>
+        <v>194115</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2558304</v>
+        <v>2615785</v>
       </c>
       <c r="E221" t="n">
-        <v>2560520</v>
+        <v>2618050</v>
       </c>
       <c r="F221" t="n">
-        <v>6.257341861203382</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>520.7810629974664</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0.35</v>
+        <v>5.54</v>
       </c>
       <c r="I221" t="n">
-        <v>105619</v>
+        <v>105410</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1314146</v>
+        <v>1312929</v>
       </c>
       <c r="E222" t="n">
-        <v>3977501</v>
+        <v>3973410</v>
       </c>
       <c r="F222" t="n">
-        <v>279.5704736420835</v>
+        <v>278.1355172188609</v>
       </c>
       <c r="G222" t="n">
-        <v>427.001716899977</v>
+        <v>425.421581572462</v>
       </c>
       <c r="H222" t="n">
         <v>2.01</v>
       </c>
       <c r="I222" t="n">
-        <v>29255</v>
+        <v>37820</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>32767720</v>
+        <v>33582789</v>
       </c>
       <c r="E223" t="n">
-        <v>232317792</v>
+        <v>238096495</v>
       </c>
       <c r="F223" t="n">
-        <v>26156.70987260327</v>
+        <v>26685.34769968389</v>
       </c>
       <c r="G223" t="n">
-        <v>32467.85362971223</v>
+        <v>37512.69353051129</v>
       </c>
       <c r="H223" t="n">
-        <v>0.89</v>
+        <v>0.08</v>
       </c>
       <c r="I223" t="n">
-        <v>6294754</v>
+        <v>6363674</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>55925</v>
+        <v>54871</v>
       </c>
       <c r="E224" t="n">
-        <v>291794</v>
+        <v>286292</v>
       </c>
       <c r="F224" t="n">
-        <v>18.14360092944685</v>
+        <v>12.66323636935139</v>
       </c>
       <c r="G224" t="n">
-        <v>127.3188206052452</v>
+        <v>141.8169215656114</v>
       </c>
       <c r="H224" t="n">
-        <v>1.52</v>
+        <v>0.91</v>
       </c>
       <c r="I224" t="n">
-        <v>207039</v>
+        <v>205542</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1253402</v>
+        <v>1258693</v>
       </c>
       <c r="E225" t="n">
-        <v>7771210</v>
+        <v>7804014</v>
       </c>
       <c r="F225" t="n">
-        <v>886.2711721069471</v>
+        <v>962.352835074206</v>
       </c>
       <c r="G225" t="n">
-        <v>1587.009449821144</v>
+        <v>1554.166631207706</v>
       </c>
       <c r="H225" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>775269</v>
+        <v>772663</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>571219353</v>
+        <v>577581156</v>
       </c>
       <c r="E226" t="n">
-        <v>2212248278</v>
+        <v>2236886601</v>
       </c>
       <c r="F226" t="n">
-        <v>223174.9021951471</v>
+        <v>210504.5363868705</v>
       </c>
       <c r="G226" t="n">
-        <v>285005.6921796972</v>
+        <v>228634.9141083128</v>
       </c>
       <c r="H226" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I226" t="n">
-        <v>60609672</v>
+        <v>61750359</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20867334</v>
+        <v>20933542</v>
       </c>
       <c r="F227" t="n">
-        <v>1629.172065801475</v>
+        <v>980.860653593381</v>
       </c>
       <c r="G227" t="n">
-        <v>2396.398512871585</v>
+        <v>2482.717927760822</v>
       </c>
       <c r="H227" t="n">
         <v>0.14</v>
       </c>
       <c r="I227" t="n">
-        <v>19093537</v>
+        <v>19384494</v>
       </c>
     </row>
     <row r="228">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>759143</v>
+        <v>757949</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>5.38</v>
+        <v>5.12</v>
       </c>
       <c r="I228" t="n">
-        <v>143164</v>
+        <v>142590</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5433419</v>
+        <v>5474346</v>
       </c>
       <c r="E229" t="n">
-        <v>24321251</v>
+        <v>24504450</v>
       </c>
       <c r="F229" t="n">
-        <v>501.8106277508655</v>
+        <v>531.2474348153445</v>
       </c>
       <c r="G229" t="n">
-        <v>698.0558994618696</v>
+        <v>779.7334860702507</v>
       </c>
       <c r="H229" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I229" t="n">
-        <v>191790</v>
+        <v>193109</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6493275</v>
+        <v>6469870</v>
       </c>
       <c r="E230" t="n">
-        <v>12431902</v>
+        <v>12387091</v>
       </c>
       <c r="F230" t="n">
-        <v>77.25662369652493</v>
+        <v>126.8288959070936</v>
       </c>
       <c r="G230" t="n">
-        <v>107.437811289399</v>
+        <v>102.9432228745931</v>
       </c>
       <c r="H230" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="I230" t="n">
-        <v>35088</v>
+        <v>32438</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3177857</v>
+        <v>3180335</v>
       </c>
       <c r="E231" t="n">
-        <v>20896849</v>
+        <v>20913142</v>
       </c>
       <c r="F231" t="n">
-        <v>171.5496302520994</v>
+        <v>168.0115776344618</v>
       </c>
       <c r="G231" t="n">
-        <v>197.3889200994995</v>
+        <v>254.0392043083245</v>
       </c>
       <c r="H231" t="n">
-        <v>1.19</v>
+        <v>1.48</v>
       </c>
       <c r="I231" t="n">
-        <v>1678633</v>
+        <v>1633379</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>106708127</v>
+        <v>108668687</v>
       </c>
       <c r="E232" t="n">
-        <v>1010228578</v>
+        <v>1028789614</v>
       </c>
       <c r="F232" t="n">
-        <v>24695.13477787299</v>
+        <v>17714.70594922412</v>
       </c>
       <c r="G232" t="n">
-        <v>37179.12511463258</v>
+        <v>20135.31821827022</v>
       </c>
       <c r="H232" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I232" t="n">
-        <v>16331273</v>
+        <v>17160444</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>349.72</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>98460999</v>
+        <v>101536253</v>
       </c>
       <c r="E234" t="n">
-        <v>150204562</v>
+        <v>154895934</v>
       </c>
       <c r="F234" t="n">
-        <v>5552.682034075567</v>
+        <v>9451.002935027194</v>
       </c>
       <c r="G234" t="n">
-        <v>32292.16138374733</v>
+        <v>32349.26593066542</v>
       </c>
       <c r="H234" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>13181245</v>
+        <v>13230258</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15568052</v>
+        <v>15501819</v>
       </c>
       <c r="E235" t="n">
-        <v>21358019</v>
+        <v>21267153</v>
       </c>
       <c r="F235" t="n">
-        <v>754.3457657578184</v>
+        <v>1226.544900589623</v>
       </c>
       <c r="G235" t="n">
-        <v>1910.019126368971</v>
+        <v>3527.085436578676</v>
       </c>
       <c r="H235" t="n">
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
       <c r="I235" t="n">
-        <v>945280</v>
+        <v>940639</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>120296882</v>
+        <v>121117275</v>
       </c>
       <c r="E236" t="n">
-        <v>461478201</v>
+        <v>464625362</v>
       </c>
       <c r="F236" t="n">
-        <v>453183.6437559718</v>
+        <v>426769.4058130221</v>
       </c>
       <c r="G236" t="n">
-        <v>330810.5365231198</v>
+        <v>351899.4959653542</v>
       </c>
       <c r="H236" t="n">
         <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>39516262</v>
+        <v>37284434</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>721889</v>
+        <v>639651</v>
       </c>
       <c r="F237" t="n">
-        <v>278.1974343196396</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>99.08305045901092</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>3.84</v>
+        <v>4.32</v>
       </c>
       <c r="I237" t="n">
-        <v>45649</v>
+        <v>41064</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>778373</v>
+        <v>758767</v>
       </c>
       <c r="F238" t="n">
-        <v>522.1799078367295</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>139.3048071089021</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>1.02</v>
+        <v>6.04</v>
       </c>
       <c r="I238" t="n">
-        <v>272183</v>
+        <v>278657</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3099404</v>
+        <v>3066820</v>
       </c>
       <c r="E239" t="n">
-        <v>29367314</v>
+        <v>29058574</v>
       </c>
       <c r="F239" t="n">
-        <v>781.0218772176574</v>
+        <v>1030.789485511516</v>
       </c>
       <c r="G239" t="n">
-        <v>723.8909596152735</v>
+        <v>1235.672095908556</v>
       </c>
       <c r="H239" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="I239" t="n">
-        <v>261668</v>
+        <v>220850</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>719853</v>
+        <v>725126</v>
       </c>
       <c r="E240" t="n">
-        <v>769518</v>
+        <v>775155</v>
       </c>
       <c r="F240" t="n">
-        <v>25.38688306298279</v>
+        <v>25.39024550133105</v>
       </c>
       <c r="G240" t="n">
-        <v>776.1093030445909</v>
+        <v>777.8566216540211</v>
       </c>
       <c r="H240" t="n">
         <v>2.63</v>
       </c>
       <c r="I240" t="n">
-        <v>128147</v>
+        <v>129471</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383929</v>
+        <v>383618</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.57</v>
+        <v>12.4</v>
       </c>
       <c r="I241" t="n">
-        <v>698.3099999999999</v>
+        <v>698.42</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>131779</v>
+        <v>130031</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>5.15</v>
+        <v>4.44</v>
       </c>
       <c r="I242" t="n">
-        <v>64569</v>
+        <v>64186</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>559473</v>
+        <v>559060</v>
       </c>
       <c r="F243" t="n">
-        <v>112.9209227527271</v>
+        <v>72.35952238136184</v>
       </c>
       <c r="G243" t="n">
-        <v>3.215254851145615</v>
+        <v>133.6937266447628</v>
       </c>
       <c r="H243" t="n">
         <v>3.09</v>
       </c>
       <c r="I243" t="n">
-        <v>8110.48</v>
+        <v>8109.1</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6585173</v>
+        <v>6579761</v>
       </c>
       <c r="E244" t="n">
-        <v>41155449</v>
+        <v>41121625</v>
       </c>
       <c r="F244" t="n">
-        <v>245.5541390917523</v>
+        <v>45.92648719497165</v>
       </c>
       <c r="G244" t="n">
-        <v>175.5797693778812</v>
+        <v>500.1725568046662</v>
       </c>
       <c r="H244" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>421169</v>
+        <v>345195</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5120849</v>
+        <v>5151505</v>
       </c>
       <c r="E245" t="n">
-        <v>19029172</v>
+        <v>19143088</v>
       </c>
       <c r="F245" t="n">
-        <v>928.2736930754506</v>
+        <v>915.4890250536013</v>
       </c>
       <c r="G245" t="n">
-        <v>1869.300803291236</v>
+        <v>852.5424635909063</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>144376</v>
+        <v>145078</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3597602</v>
+        <v>3594691</v>
       </c>
       <c r="F246" t="n">
-        <v>215.4548570785878</v>
+        <v>215.4300689033686</v>
       </c>
       <c r="G246" t="n">
-        <v>5903.533038513909</v>
+        <v>5904.161991387792</v>
       </c>
       <c r="H246" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="I246" t="n">
-        <v>30127</v>
+        <v>30099</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>42884671</v>
+        <v>44116407</v>
       </c>
       <c r="E247" t="n">
-        <v>153714110</v>
+        <v>158129097</v>
       </c>
       <c r="F247" t="n">
-        <v>31.39923074860941</v>
+        <v>63.39917484616935</v>
       </c>
       <c r="G247" t="n">
-        <v>2094.001929511003</v>
+        <v>1933.721314136489</v>
       </c>
       <c r="H247" t="n">
-        <v>1.01</v>
+        <v>0.44</v>
       </c>
       <c r="I247" t="n">
-        <v>173711</v>
+        <v>178034</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1491405</v>
+        <v>1498476</v>
       </c>
       <c r="F248" t="n">
-        <v>8.385494989719732</v>
+        <v>5.36597237653171</v>
       </c>
       <c r="G248" t="n">
-        <v>27.36882185281853</v>
+        <v>18.68987971482059</v>
       </c>
       <c r="H248" t="n">
-        <v>3.21</v>
+        <v>3.87</v>
       </c>
       <c r="I248" t="n">
-        <v>600536</v>
+        <v>595850</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2090297</v>
+        <v>2097601</v>
       </c>
       <c r="E249" t="n">
-        <v>16077968</v>
+        <v>16134152</v>
       </c>
       <c r="F249" t="n">
-        <v>296.5293469425717</v>
+        <v>19.9852568580846</v>
       </c>
       <c r="G249" t="n">
-        <v>95.08860260482047</v>
+        <v>131.261432958201</v>
       </c>
       <c r="H249" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I249" t="n">
-        <v>206401</v>
+        <v>207854</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103393</v>
+        <v>103259</v>
       </c>
       <c r="E250" t="n">
-        <v>821250</v>
+        <v>820188</v>
       </c>
       <c r="F250" t="n">
-        <v>158.1312703676103</v>
+        <v>158.1469425317466</v>
       </c>
       <c r="G250" t="n">
-        <v>346.9051502760418</v>
+        <v>346.9395315495382</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>42.38</v>
+        <v>42.33</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>89327141</v>
+        <v>89436357</v>
       </c>
       <c r="E251" t="n">
-        <v>330188757</v>
+        <v>330591394</v>
       </c>
       <c r="F251" t="n">
-        <v>2146.508210653226</v>
+        <v>673.295271504189</v>
       </c>
       <c r="G251" t="n">
-        <v>5432.406229832173</v>
+        <v>5379.213854756097</v>
       </c>
       <c r="H251" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="I251" t="n">
-        <v>271945</v>
+        <v>282451</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2269749</v>
+        <v>2270938</v>
       </c>
       <c r="E252" t="n">
-        <v>9099077</v>
+        <v>9103845</v>
       </c>
       <c r="F252" t="n">
-        <v>5.154786513482073</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>4.316320143638792</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>3.89</v>
+        <v>6.16</v>
       </c>
       <c r="I252" t="n">
-        <v>9860.98</v>
+        <v>8839.17</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>549444</v>
+        <v>548946</v>
       </c>
       <c r="F253" t="n">
-        <v>356.8656439113945</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>5.545718026847073</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>0.09</v>
+        <v>4.2</v>
       </c>
       <c r="I253" t="n">
-        <v>2320.09</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37984</v>
+        <v>37953</v>
       </c>
       <c r="F254" t="n">
-        <v>95.32396328529252</v>
+        <v>95.33411894636311</v>
       </c>
       <c r="G254" t="n">
-        <v>1.028534652114608</v>
+        <v>1.028644230535041</v>
       </c>
       <c r="H254" t="n">
         <v>3.31</v>
       </c>
       <c r="I254" t="n">
-        <v>370.27</v>
+        <v>370.32</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>746822488</v>
+        <v>750678237</v>
       </c>
       <c r="E255" t="n">
-        <v>1151666214</v>
+        <v>1157612120</v>
       </c>
       <c r="F255" t="n">
-        <v>64881.30583207929</v>
+        <v>59867.42153318555</v>
       </c>
       <c r="G255" t="n">
-        <v>98770.67373516735</v>
+        <v>97112.71590893574</v>
       </c>
       <c r="H255" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I255" t="n">
-        <v>328517354</v>
+        <v>269961035</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>8555001</v>
+        <v>9240776</v>
       </c>
       <c r="E256" t="n">
-        <v>8555001</v>
+        <v>9240776</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>7.29</v>
+        <v>14.12</v>
       </c>
       <c r="I256" t="n">
-        <v>61574</v>
+        <v>62208</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39852882</v>
+        <v>39800357</v>
       </c>
       <c r="E257" t="n">
-        <v>190050890</v>
+        <v>189800405</v>
       </c>
       <c r="F257" t="n">
-        <v>687.0873085562135</v>
+        <v>712.0364609419157</v>
       </c>
       <c r="G257" t="n">
-        <v>234.0361086607664</v>
+        <v>257.870959183997</v>
       </c>
       <c r="H257" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="I257" t="n">
-        <v>271965</v>
+        <v>270700</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>594879</v>
+        <v>592148</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>7.81</v>
+        <v>7.93</v>
       </c>
       <c r="I258" t="n">
-        <v>219.16</v>
+        <v>219.26</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>22621497</v>
+        <v>22513592</v>
       </c>
       <c r="E259" t="n">
-        <v>37702495</v>
+        <v>37522653</v>
       </c>
       <c r="F259" t="n">
-        <v>3109.95313158071</v>
+        <v>3362.930789921623</v>
       </c>
       <c r="G259" t="n">
-        <v>248.0101832040773</v>
+        <v>8.414974873512246</v>
       </c>
       <c r="H259" t="n">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
       <c r="I259" t="n">
-        <v>1135599</v>
+        <v>1102471</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107646</v>
+        <v>108012</v>
       </c>
       <c r="F260" t="n">
-        <v>230.7303432423915</v>
+        <v>230.7807345431101</v>
       </c>
       <c r="G260" t="n">
-        <v>108.1759203474521</v>
+        <v>108.1984597280726</v>
       </c>
       <c r="H260" t="n">
         <v>0.02</v>
       </c>
       <c r="I260" t="n">
-        <v>54916</v>
+        <v>54602</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1220602</v>
+        <v>1255335</v>
       </c>
       <c r="E261" t="n">
-        <v>5197705</v>
+        <v>5345533</v>
       </c>
       <c r="F261" t="n">
-        <v>244.5784529999277</v>
+        <v>24.212397046423</v>
       </c>
       <c r="G261" t="n">
-        <v>1.185996528663434</v>
+        <v>369.7188762199838</v>
       </c>
       <c r="H261" t="n">
-        <v>1.99</v>
+        <v>0.17</v>
       </c>
       <c r="I261" t="n">
-        <v>869447</v>
+        <v>860443</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3797258</v>
+        <v>3794882</v>
       </c>
       <c r="E262" t="n">
-        <v>8277489</v>
+        <v>8272311</v>
       </c>
       <c r="F262" t="n">
-        <v>1847.332887923594</v>
+        <v>1847.454969070399</v>
       </c>
       <c r="G262" t="n">
-        <v>1599.1248760773</v>
+        <v>1599.912747663544</v>
       </c>
       <c r="H262" t="n">
         <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>2050190</v>
+        <v>2070833</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>460817069</v>
+        <v>469423662</v>
       </c>
       <c r="E263" t="n">
-        <v>1604065867</v>
+        <v>1634024699</v>
       </c>
       <c r="F263" t="n">
-        <v>547591.9025963416</v>
+        <v>552602.0530199712</v>
       </c>
       <c r="G263" t="n">
-        <v>501222.0285750414</v>
+        <v>505518.097469853</v>
       </c>
       <c r="H263" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I263" t="n">
-        <v>47311936</v>
+        <v>47778451</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5487095704</v>
+        <v>5510617273</v>
       </c>
       <c r="E264" t="n">
-        <v>5487095704</v>
+        <v>5510617273</v>
       </c>
       <c r="F264" t="n">
-        <v>1727.073055819987</v>
+        <v>1304.651180262717</v>
       </c>
       <c r="G264" t="n">
-        <v>659.4380924730103</v>
+        <v>597.7633489492722</v>
       </c>
       <c r="H264" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
       <c r="I264" t="n">
-        <v>35238447</v>
+        <v>35561631</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22247612</v>
+        <v>22308252</v>
       </c>
       <c r="E265" t="n">
-        <v>22228287</v>
+        <v>22288875</v>
       </c>
       <c r="F265" t="n">
-        <v>614.0137419949153</v>
+        <v>417.0707733304178</v>
       </c>
       <c r="G265" t="n">
-        <v>425.3358351539231</v>
+        <v>1287.623300439689</v>
       </c>
       <c r="H265" t="n">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="I265" t="n">
-        <v>372834</v>
+        <v>409490</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11837335</v>
+        <v>11984697</v>
       </c>
       <c r="E266" t="n">
-        <v>23892963</v>
+        <v>24189169</v>
       </c>
       <c r="F266" t="n">
-        <v>768.1813853424362</v>
+        <v>793.3090510886728</v>
       </c>
       <c r="G266" t="n">
-        <v>452.5902574224141</v>
+        <v>721.996133392776</v>
       </c>
       <c r="H266" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>66759</v>
+        <v>58561</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>146518</v>
+        <v>142684</v>
       </c>
       <c r="F267" t="n">
-        <v>165.1970596032722</v>
+        <v>163.1775810756419</v>
       </c>
       <c r="G267" t="n">
-        <v>116.1243951489435</v>
+        <v>116.1494535393918</v>
       </c>
       <c r="H267" t="n">
         <v>0.79</v>
       </c>
       <c r="I267" t="n">
-        <v>54056</v>
+        <v>53787</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>45681</v>
+        <v>45644</v>
       </c>
       <c r="F268" t="n">
-        <v>82.05915421549574</v>
+        <v>82.19956094024276</v>
       </c>
       <c r="G268" t="n">
-        <v>147.1276032246297</v>
+        <v>148.0421977907</v>
       </c>
       <c r="H268" t="n">
-        <v>1.73</v>
+        <v>1.09</v>
       </c>
       <c r="I268" t="n">
-        <v>68670</v>
+        <v>68631</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2350364</v>
+        <v>2313228</v>
       </c>
       <c r="E269" t="n">
-        <v>9401455</v>
+        <v>9252913</v>
       </c>
       <c r="F269" t="n">
-        <v>23894.95402052925</v>
+        <v>32215.70710056774</v>
       </c>
       <c r="G269" t="n">
-        <v>24997.87852016502</v>
+        <v>50322.35391475323</v>
       </c>
       <c r="H269" t="n">
-        <v>0.74</v>
+        <v>0.22</v>
       </c>
       <c r="I269" t="n">
-        <v>7615648</v>
+        <v>7762078</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>208240635</v>
+        <v>210605962</v>
       </c>
       <c r="E270" t="n">
-        <v>640261586</v>
+        <v>647534079</v>
       </c>
       <c r="F270" t="n">
-        <v>164729.830856123</v>
+        <v>167492.7217723693</v>
       </c>
       <c r="G270" t="n">
-        <v>175983.8617005558</v>
+        <v>192252.412593593</v>
       </c>
       <c r="H270" t="n">
         <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>22656609</v>
+        <v>22951722</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>133605170</v>
+        <v>135567558</v>
       </c>
       <c r="E271" t="n">
-        <v>349039800</v>
+        <v>354166485</v>
       </c>
       <c r="F271" t="n">
-        <v>62074.82177751027</v>
+        <v>64076.32489686317</v>
       </c>
       <c r="G271" t="n">
-        <v>55955.27018749253</v>
+        <v>47589.17960826791</v>
       </c>
       <c r="H271" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="I271" t="n">
-        <v>8792567</v>
+        <v>8384044</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2389378</v>
+        <v>2326190</v>
       </c>
       <c r="E272" t="n">
-        <v>3279396</v>
+        <v>3192592</v>
       </c>
       <c r="F272" t="n">
-        <v>125.4625056912127</v>
+        <v>124.9202108153374</v>
       </c>
       <c r="G272" t="n">
-        <v>32.34842621693385</v>
+        <v>32.27494528116151</v>
       </c>
       <c r="H272" t="n">
         <v>1.91</v>
       </c>
       <c r="I272" t="n">
-        <v>964538</v>
+        <v>968184</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54533</v>
+        <v>54568</v>
       </c>
       <c r="F2" t="n">
-        <v>1.864357889395528</v>
+        <v>1.864717650294255</v>
       </c>
       <c r="G2" t="n">
-        <v>9.049876818306828</v>
+        <v>9.051623152439365</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>399.88</v>
+        <v>348.79</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93220</v>
+        <v>94252</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>583.25</v>
+        <v>427.15</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>590922192</v>
+        <v>587953168</v>
       </c>
       <c r="E4" t="n">
-        <v>1146806473</v>
+        <v>1141067602</v>
       </c>
       <c r="F4" t="n">
-        <v>20388.60296246328</v>
+        <v>17871.87957222846</v>
       </c>
       <c r="G4" t="n">
-        <v>19208.39093975644</v>
+        <v>23396.91950475074</v>
       </c>
       <c r="H4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>47207900</v>
+        <v>47441950</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1408080</v>
+        <v>1415502</v>
       </c>
       <c r="E5" t="n">
-        <v>4551492</v>
+        <v>4575483</v>
       </c>
       <c r="F5" t="n">
-        <v>133.105299152887</v>
+        <v>154.194907160814</v>
       </c>
       <c r="G5" t="n">
-        <v>4257.473682642394</v>
+        <v>4192.091490411885</v>
       </c>
       <c r="H5" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I5" t="n">
-        <v>226975</v>
+        <v>228800</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140348431</v>
+        <v>140098388</v>
       </c>
       <c r="E6" t="n">
-        <v>155527995</v>
+        <v>155250908</v>
       </c>
       <c r="F6" t="n">
-        <v>168566.3810805562</v>
+        <v>155002.3960789166</v>
       </c>
       <c r="G6" t="n">
-        <v>236638.1689227105</v>
+        <v>303201.2222243181</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>53582874</v>
+        <v>53874421</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3816.73</v>
+        <v>3820.21</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.8</v>
+        <v>153.92</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8256008</v>
+        <v>8338147</v>
       </c>
       <c r="E8" t="n">
-        <v>8464194</v>
+        <v>8548405</v>
       </c>
       <c r="F8" t="n">
-        <v>1448.799243121894</v>
+        <v>2.12221063065184</v>
       </c>
       <c r="G8" t="n">
-        <v>932.4139037395316</v>
+        <v>957.8236185791631</v>
       </c>
       <c r="H8" t="n">
-        <v>1.19</v>
+        <v>1.95</v>
       </c>
       <c r="I8" t="n">
-        <v>74755</v>
+        <v>63142</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>304607</v>
+        <v>304889</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9</v>
+        <v>4.87</v>
       </c>
       <c r="I9" t="n">
-        <v>743.9299999999999</v>
+        <v>743.96</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4986099</v>
+        <v>4978544</v>
       </c>
       <c r="E10" t="n">
-        <v>7966287</v>
+        <v>7954217</v>
       </c>
       <c r="F10" t="n">
-        <v>260.4561896592795</v>
+        <v>246.7372837088148</v>
       </c>
       <c r="G10" t="n">
-        <v>204.2987466030278</v>
+        <v>406.8180063190698</v>
       </c>
       <c r="H10" t="n">
-        <v>0.38</v>
+        <v>0.59</v>
       </c>
       <c r="I10" t="n">
-        <v>99865</v>
+        <v>98717</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>997211</v>
+        <v>997005</v>
       </c>
       <c r="E11" t="n">
-        <v>12203178</v>
+        <v>12200651</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.361251442951</v>
+        <v>1571.391918431668</v>
       </c>
       <c r="G11" t="n">
-        <v>1351.27671890424</v>
+        <v>1360.795236175448</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>613.85</v>
+        <v>591.13</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>562426</v>
+        <v>555747</v>
       </c>
       <c r="E12" t="n">
-        <v>562426</v>
+        <v>555747</v>
       </c>
       <c r="F12" t="n">
-        <v>169.5771934020953</v>
+        <v>62.1063846259409</v>
       </c>
       <c r="G12" t="n">
-        <v>66.77163215756229</v>
+        <v>36.51191610068436</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>20942</v>
+        <v>19813.3</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4362612</v>
+        <v>4358662</v>
       </c>
       <c r="E13" t="n">
-        <v>26785778</v>
+        <v>26761524</v>
       </c>
       <c r="F13" t="n">
-        <v>183.3667866228155</v>
+        <v>375.331087125946</v>
       </c>
       <c r="G13" t="n">
-        <v>330.3274878337356</v>
+        <v>988.3097541102105</v>
       </c>
       <c r="H13" t="n">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="I13" t="n">
-        <v>598046</v>
+        <v>573387</v>
       </c>
     </row>
     <row r="14">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>195707</v>
+        <v>195690</v>
       </c>
       <c r="E14" t="n">
-        <v>2152990</v>
+        <v>2152801</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.59</v>
+        <v>8.44</v>
       </c>
       <c r="I14" t="n">
-        <v>36613</v>
+        <v>35773</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3189486</v>
+        <v>3190638</v>
       </c>
       <c r="E15" t="n">
-        <v>9073804</v>
+        <v>9077084</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0611928842966</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>28.21209448933542</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.17</v>
+        <v>5.88</v>
       </c>
       <c r="I15" t="n">
-        <v>109551</v>
+        <v>109889</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>306308</v>
+        <v>306642</v>
       </c>
       <c r="E16" t="n">
-        <v>3535163</v>
+        <v>3539011</v>
       </c>
       <c r="F16" t="n">
-        <v>138.7651782243855</v>
+        <v>138.5121310640023</v>
       </c>
       <c r="G16" t="n">
-        <v>131.3266743964527</v>
+        <v>131.2541934329217</v>
       </c>
       <c r="H16" t="n">
         <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>916.0599999999999</v>
+        <v>917.17</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>945427</v>
+        <v>944244</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>10681.47</v>
+        <v>10761.42</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23617241</v>
+        <v>23897775</v>
       </c>
       <c r="E18" t="n">
-        <v>23660802</v>
+        <v>23941854</v>
       </c>
       <c r="F18" t="n">
-        <v>1863.460021529634</v>
+        <v>1670.026413021961</v>
       </c>
       <c r="G18" t="n">
-        <v>2092.888364706477</v>
+        <v>2022.827321417529</v>
       </c>
       <c r="H18" t="n">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="I18" t="n">
-        <v>869874</v>
+        <v>870739</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6705990</v>
+        <v>6664354</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.84</v>
+        <v>5.12</v>
       </c>
       <c r="I19" t="n">
-        <v>18333.71</v>
+        <v>21644</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2348966</v>
+        <v>2352206</v>
       </c>
       <c r="E20" t="n">
-        <v>2348966</v>
+        <v>2352206</v>
       </c>
       <c r="F20" t="n">
-        <v>228.1679587670328</v>
+        <v>54.23165002994105</v>
       </c>
       <c r="G20" t="n">
-        <v>90.2080592325468</v>
+        <v>24.48033088968885</v>
       </c>
       <c r="H20" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="I20" t="n">
-        <v>312418</v>
+        <v>312126</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>359558</v>
+        <v>340802</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>13.52296482449831</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>55.15711966269065</v>
       </c>
       <c r="H21" t="n">
-        <v>5.71</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
-        <v>9440.879999999999</v>
+        <v>9488.43</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16234569</v>
+        <v>16207543</v>
       </c>
       <c r="E22" t="n">
-        <v>20895223</v>
+        <v>20860438</v>
       </c>
       <c r="F22" t="n">
-        <v>840.9625777309408</v>
+        <v>4397.379144016259</v>
       </c>
       <c r="G22" t="n">
-        <v>1289.257546973231</v>
+        <v>1103.749724781688</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1923139</v>
+        <v>1904111</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>497109266</v>
+        <v>492958291</v>
       </c>
       <c r="E23" t="n">
-        <v>497109266</v>
+        <v>492958295</v>
       </c>
       <c r="F23" t="n">
-        <v>16610.00633471403</v>
+        <v>37163.91829842494</v>
       </c>
       <c r="G23" t="n">
-        <v>49282.99506770324</v>
+        <v>47923.81005443152</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>75640395</v>
+        <v>77378083</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18214.4</v>
+        <v>18297.51</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.43</v>
+        <v>6.62</v>
       </c>
       <c r="I24" t="n">
-        <v>2638.08</v>
+        <v>2648.9</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4560490</v>
+        <v>4544508</v>
       </c>
       <c r="E25" t="n">
-        <v>4560490</v>
+        <v>4544508</v>
       </c>
       <c r="F25" t="n">
-        <v>425.3866447766287</v>
+        <v>337.0053022629096</v>
       </c>
       <c r="G25" t="n">
-        <v>1212.438452251507</v>
+        <v>1564.80403374612</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I25" t="n">
-        <v>2248260</v>
+        <v>2235437</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3212464</v>
+        <v>3174441</v>
       </c>
       <c r="E26" t="n">
-        <v>3212464</v>
+        <v>3174441</v>
       </c>
       <c r="F26" t="n">
-        <v>963.8569913560533</v>
+        <v>266.0660467932202</v>
       </c>
       <c r="G26" t="n">
-        <v>302.7905635364064</v>
+        <v>310.5218809038279</v>
       </c>
       <c r="H26" t="n">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="I26" t="n">
-        <v>653912</v>
+        <v>658070</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>298999</v>
+        <v>302595</v>
       </c>
       <c r="E27" t="n">
-        <v>1395759</v>
+        <v>1412543</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>195.3203871832179</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>261.7518535064168</v>
       </c>
       <c r="H27" t="n">
-        <v>5.71</v>
+        <v>1.91</v>
       </c>
       <c r="I27" t="n">
-        <v>683725</v>
+        <v>679153</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1765642</v>
+        <v>1718650</v>
       </c>
       <c r="F28" t="n">
-        <v>202.6534329083979</v>
+        <v>449.0708801346024</v>
       </c>
       <c r="G28" t="n">
-        <v>237.9722347096024</v>
+        <v>268.7080749846714</v>
       </c>
       <c r="H28" t="n">
-        <v>1.25</v>
+        <v>0.29</v>
       </c>
       <c r="I28" t="n">
-        <v>1222393</v>
+        <v>1308467</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11853817</v>
+        <v>11933848</v>
       </c>
       <c r="E29" t="n">
-        <v>29502008</v>
+        <v>29701190</v>
       </c>
       <c r="F29" t="n">
-        <v>602.7580425566299</v>
+        <v>725.0428953740235</v>
       </c>
       <c r="G29" t="n">
-        <v>1158.275953200112</v>
+        <v>1379.293724794297</v>
       </c>
       <c r="H29" t="n">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="I29" t="n">
-        <v>1519286</v>
+        <v>1509874</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>885229</v>
+        <v>887867</v>
       </c>
       <c r="E30" t="n">
-        <v>6196604</v>
+        <v>6215071</v>
       </c>
       <c r="F30" t="n">
-        <v>22.47912158784764</v>
+        <v>12.91390806536702</v>
       </c>
       <c r="G30" t="n">
-        <v>757.9474357942521</v>
+        <v>719.6411163905269</v>
       </c>
       <c r="H30" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="I30" t="n">
-        <v>211491</v>
+        <v>204201</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176487</v>
+        <v>176498</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>6.84</v>
       </c>
       <c r="I31" t="n">
-        <v>748.9299999999999</v>
+        <v>749.0700000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5478321</v>
+        <v>5364325</v>
       </c>
       <c r="E32" t="n">
-        <v>5740404</v>
+        <v>5620954</v>
       </c>
       <c r="F32" t="n">
-        <v>327.8533353092051</v>
+        <v>55.62366942285214</v>
       </c>
       <c r="G32" t="n">
-        <v>48.47060230484114</v>
+        <v>356.0828736562112</v>
       </c>
       <c r="H32" t="n">
-        <v>2.03</v>
+        <v>2.88</v>
       </c>
       <c r="I32" t="n">
-        <v>169634</v>
+        <v>137586</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4684634</v>
+        <v>4684591</v>
       </c>
       <c r="E33" t="n">
-        <v>6896035</v>
+        <v>6895971</v>
       </c>
       <c r="F33" t="n">
-        <v>63.827672687085</v>
+        <v>59.34480432255207</v>
       </c>
       <c r="G33" t="n">
-        <v>29.11222551941534</v>
+        <v>170.4052400272133</v>
       </c>
       <c r="H33" t="n">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
       <c r="I33" t="n">
-        <v>565536</v>
+        <v>573446</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7511552</v>
+        <v>7500053</v>
       </c>
       <c r="E34" t="n">
-        <v>7511552</v>
+        <v>7500053</v>
       </c>
       <c r="F34" t="n">
-        <v>2368.312755028467</v>
+        <v>1723.512961528099</v>
       </c>
       <c r="G34" t="n">
-        <v>3429.646904002649</v>
+        <v>4130.459928691863</v>
       </c>
       <c r="H34" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="I34" t="n">
-        <v>280030</v>
+        <v>327437</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1487252</v>
+        <v>1469356</v>
       </c>
       <c r="E35" t="n">
-        <v>1487252</v>
+        <v>1469356</v>
       </c>
       <c r="F35" t="n">
-        <v>150.8680453774386</v>
+        <v>104.753421471011</v>
       </c>
       <c r="G35" t="n">
-        <v>61.78461543996772</v>
+        <v>133.7968755318263</v>
       </c>
       <c r="H35" t="n">
-        <v>2.75</v>
+        <v>1.31</v>
       </c>
       <c r="I35" t="n">
-        <v>286180</v>
+        <v>285485</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15785850</v>
+        <v>15759346</v>
       </c>
       <c r="F36" t="n">
-        <v>288.4697943432634</v>
+        <v>287.9719949196062</v>
       </c>
       <c r="G36" t="n">
-        <v>164.6721065058649</v>
+        <v>199.1756841027428</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>14579.23</v>
+        <v>15862.71</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59545</v>
+        <v>59596</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.67</v>
       </c>
       <c r="I37" t="n">
-        <v>2046.1</v>
+        <v>2047.64</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>137493799</v>
+        <v>137261467</v>
       </c>
       <c r="E38" t="n">
-        <v>137493799</v>
+        <v>137261467</v>
       </c>
       <c r="F38" t="n">
-        <v>261935.9759758696</v>
+        <v>255770.0308340838</v>
       </c>
       <c r="G38" t="n">
-        <v>239087.5200278167</v>
+        <v>252751.9787332229</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>95020664</v>
+        <v>91152730</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>63386582</v>
+        <v>63121878</v>
       </c>
       <c r="E39" t="n">
-        <v>325059394</v>
+        <v>323701936</v>
       </c>
       <c r="F39" t="n">
-        <v>75478.09230861087</v>
+        <v>67796.10293630257</v>
       </c>
       <c r="G39" t="n">
-        <v>68488.67322995095</v>
+        <v>82538.35293647376</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>27326596</v>
+        <v>26916488</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46336</v>
+        <v>46391</v>
       </c>
       <c r="E40" t="n">
-        <v>136932</v>
+        <v>137095</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.92</v>
+        <v>11.49</v>
       </c>
       <c r="I40" t="n">
-        <v>8.029999999999999</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>50108</v>
+        <v>50170</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>4.46</v>
       </c>
       <c r="I41" t="n">
-        <v>23564</v>
+        <v>23410</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>597646</v>
+        <v>598435</v>
       </c>
       <c r="F42" t="n">
-        <v>1890.52471574868</v>
+        <v>1873.995306733402</v>
       </c>
       <c r="G42" t="n">
-        <v>424.8741656791022</v>
+        <v>409.4160893873893</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="I42" t="n">
-        <v>527.11</v>
+        <v>527.6</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2603129</v>
+        <v>2611106</v>
       </c>
       <c r="E44" t="n">
-        <v>10461382</v>
+        <v>10493442</v>
       </c>
       <c r="F44" t="n">
-        <v>210.0059232295671</v>
+        <v>211.2531074197816</v>
       </c>
       <c r="G44" t="n">
-        <v>292.9206400083229</v>
+        <v>119.4627204922642</v>
       </c>
       <c r="H44" t="n">
-        <v>1.9</v>
+        <v>2.83</v>
       </c>
       <c r="I44" t="n">
-        <v>38396</v>
+        <v>38220</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18143603</v>
+        <v>18238877</v>
       </c>
       <c r="E45" t="n">
-        <v>126876655</v>
+        <v>127541385</v>
       </c>
       <c r="F45" t="n">
-        <v>196.1459368300495</v>
+        <v>570.0244227007105</v>
       </c>
       <c r="G45" t="n">
-        <v>274.6470728994457</v>
+        <v>280.6180568261984</v>
       </c>
       <c r="H45" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="I45" t="n">
-        <v>1062161</v>
+        <v>1063129</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>166379</v>
+        <v>142288</v>
       </c>
       <c r="E46" t="n">
-        <v>2226245</v>
+        <v>1903890</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46134</v>
+        <v>39850</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>249327965</v>
+        <v>248629418</v>
       </c>
       <c r="E47" t="n">
-        <v>249327965</v>
+        <v>248629418</v>
       </c>
       <c r="F47" t="n">
-        <v>75295.70419822006</v>
+        <v>69944.93702607212</v>
       </c>
       <c r="G47" t="n">
-        <v>96426.17179202406</v>
+        <v>117284.5436295546</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>26103087</v>
+        <v>26297204</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>635023</v>
+        <v>636146</v>
       </c>
       <c r="E48" t="n">
-        <v>635023</v>
+        <v>636146</v>
       </c>
       <c r="F48" t="n">
-        <v>152.6538923971576</v>
+        <v>214.2993987715258</v>
       </c>
       <c r="G48" t="n">
-        <v>147.6474355632926</v>
+        <v>87.45461539138617</v>
       </c>
       <c r="H48" t="n">
-        <v>2.98</v>
+        <v>2.59</v>
       </c>
       <c r="I48" t="n">
-        <v>2686.29</v>
+        <v>2687.2</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>416039008</v>
+        <v>415934849</v>
       </c>
       <c r="E50" t="n">
-        <v>416039008</v>
+        <v>415934849</v>
       </c>
       <c r="F50" t="n">
-        <v>8970.440029635183</v>
+        <v>7586.219441419214</v>
       </c>
       <c r="G50" t="n">
-        <v>1341.736610290919</v>
+        <v>1872.425074154586</v>
       </c>
       <c r="H50" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="I50" t="n">
-        <v>4139028</v>
+        <v>4135315</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2482143</v>
+        <v>2466865</v>
       </c>
       <c r="E51" t="n">
-        <v>2482143</v>
+        <v>2466865</v>
       </c>
       <c r="F51" t="n">
-        <v>24.41694779583571</v>
+        <v>55.34097240840235</v>
       </c>
       <c r="G51" t="n">
-        <v>45.66885038680836</v>
+        <v>267.3425207646266</v>
       </c>
       <c r="H51" t="n">
-        <v>3.29</v>
+        <v>2.6</v>
       </c>
       <c r="I51" t="n">
-        <v>159755</v>
+        <v>162657</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22187</v>
+        <v>22208</v>
       </c>
       <c r="E52" t="n">
-        <v>44374</v>
+        <v>44417</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>5.93</v>
       </c>
       <c r="I52" t="n">
-        <v>3329.04</v>
+        <v>3486.54</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>161243</v>
+        <v>162492</v>
       </c>
       <c r="F53" t="n">
-        <v>22.47876987160224</v>
+        <v>26.8363401923984</v>
       </c>
       <c r="G53" t="n">
-        <v>25.42290892444846</v>
+        <v>26.05762698533777</v>
       </c>
       <c r="H53" t="n">
         <v>3.82</v>
       </c>
       <c r="I53" t="n">
-        <v>19381.91</v>
+        <v>19198.29</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2569031</v>
+        <v>2571315</v>
       </c>
       <c r="E54" t="n">
-        <v>6567950</v>
+        <v>6573789</v>
       </c>
       <c r="F54" t="n">
-        <v>149.6347884338563</v>
+        <v>163.6536636995685</v>
       </c>
       <c r="G54" t="n">
-        <v>68.87634273728395</v>
+        <v>93.58755537526839</v>
       </c>
       <c r="H54" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="I54" t="n">
-        <v>81318</v>
+        <v>80897</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3471.54</v>
+        <v>3473.41</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>4.57</v>
       </c>
       <c r="I55" t="n">
-        <v>1618.93</v>
+        <v>1618.14</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64824310</v>
+        <v>65968968</v>
       </c>
       <c r="E56" t="n">
-        <v>64824310</v>
+        <v>65968968</v>
       </c>
       <c r="F56" t="n">
-        <v>1942.155229588302</v>
+        <v>4555.490351808427</v>
       </c>
       <c r="G56" t="n">
-        <v>3696.499329817453</v>
+        <v>7571.512292870748</v>
       </c>
       <c r="H56" t="n">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="I56" t="n">
-        <v>7240864</v>
+        <v>7318065</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3315972</v>
+        <v>3315780</v>
       </c>
       <c r="E57" t="n">
-        <v>4201916</v>
+        <v>4201673</v>
       </c>
       <c r="F57" t="n">
-        <v>379.041097087523</v>
+        <v>528.6567714830654</v>
       </c>
       <c r="G57" t="n">
-        <v>291.9517428867997</v>
+        <v>224.8016702887644</v>
       </c>
       <c r="H57" t="n">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="I57" t="n">
-        <v>200270</v>
+        <v>200872</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4067269</v>
+        <v>4069828</v>
       </c>
       <c r="E58" t="n">
-        <v>8020997</v>
+        <v>8026042</v>
       </c>
       <c r="F58" t="n">
-        <v>1852.136915627513</v>
+        <v>1866.906656133673</v>
       </c>
       <c r="G58" t="n">
-        <v>13221.88021223279</v>
+        <v>10367.22321929167</v>
       </c>
       <c r="H58" t="n">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
       <c r="I58" t="n">
-        <v>1675280</v>
+        <v>1684812</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1600492</v>
+        <v>1601069</v>
       </c>
       <c r="E59" t="n">
-        <v>9189430</v>
+        <v>9192742</v>
       </c>
       <c r="F59" t="n">
-        <v>26.96533713749621</v>
+        <v>22.9268712105384</v>
       </c>
       <c r="G59" t="n">
-        <v>259.520127286373</v>
+        <v>173.8722540314396</v>
       </c>
       <c r="H59" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="I59" t="n">
-        <v>247149</v>
+        <v>254214</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>567894</v>
+        <v>513610</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.06</v>
       </c>
       <c r="I60" t="n">
-        <v>5354.99</v>
+        <v>5368.51</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31193696</v>
+        <v>31140515</v>
       </c>
       <c r="F61" t="n">
-        <v>648.8328730016627</v>
+        <v>696.1476970498711</v>
       </c>
       <c r="G61" t="n">
-        <v>1675.685394266536</v>
+        <v>1570.446524351726</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>225396</v>
+        <v>222709</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1498425</v>
+        <v>1527228</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>9.81</v>
+        <v>8.6</v>
       </c>
       <c r="I62" t="n">
-        <v>9055.780000000001</v>
+        <v>9194.59</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17217944</v>
+        <v>17150629</v>
       </c>
       <c r="E63" t="n">
-        <v>18147309</v>
+        <v>18076361</v>
       </c>
       <c r="F63" t="n">
-        <v>959.8053395428153</v>
+        <v>1388.697723828858</v>
       </c>
       <c r="G63" t="n">
-        <v>1941.086185571429</v>
+        <v>1479.873227057934</v>
       </c>
       <c r="H63" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I63" t="n">
-        <v>50691</v>
+        <v>51315</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2938816</v>
+        <v>2903496</v>
       </c>
       <c r="E64" t="n">
-        <v>2938816</v>
+        <v>2903496</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>61.79104631667961</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>5.63986707679826</v>
       </c>
       <c r="H64" t="n">
-        <v>9.44</v>
+        <v>3.82</v>
       </c>
       <c r="I64" t="n">
-        <v>14466.18</v>
+        <v>15526.34</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3316130</v>
+        <v>3322125</v>
       </c>
       <c r="E65" t="n">
-        <v>8182383</v>
+        <v>8197173</v>
       </c>
       <c r="F65" t="n">
-        <v>852.6180144799654</v>
+        <v>625.5883361425297</v>
       </c>
       <c r="G65" t="n">
-        <v>1149.738680627365</v>
+        <v>1116.941859497105</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="I65" t="n">
-        <v>42715</v>
+        <v>32777</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>248636</v>
+        <v>245753</v>
       </c>
       <c r="F66" t="n">
-        <v>5.152017899361934</v>
+        <v>5.153014002716547</v>
       </c>
       <c r="G66" t="n">
-        <v>47.85523496560431</v>
+        <v>47.86448741018354</v>
       </c>
       <c r="H66" t="n">
         <v>1.75</v>
       </c>
       <c r="I66" t="n">
-        <v>3878.76</v>
+        <v>3880.68</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>84383497</v>
+        <v>87958598</v>
       </c>
       <c r="E67" t="n">
-        <v>175932814</v>
+        <v>183386613</v>
       </c>
       <c r="F67" t="n">
-        <v>48733.46924868168</v>
+        <v>37353.90174498868</v>
       </c>
       <c r="G67" t="n">
-        <v>72873.40269371001</v>
+        <v>76873.41999630579</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>72083859</v>
+        <v>76782228</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1767826</v>
+        <v>1759437</v>
       </c>
       <c r="F68" t="n">
-        <v>3.707458728371156</v>
+        <v>0.6570942326415552</v>
       </c>
       <c r="G68" t="n">
-        <v>26.60853155802925</v>
+        <v>25.98179861665895</v>
       </c>
       <c r="H68" t="n">
-        <v>2.22</v>
+        <v>3.83</v>
       </c>
       <c r="I68" t="n">
-        <v>2747.86</v>
+        <v>1653.58</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>187888791</v>
+        <v>185869514</v>
       </c>
       <c r="F69" t="n">
-        <v>6505.884334257404</v>
+        <v>2407.854266841027</v>
       </c>
       <c r="G69" t="n">
-        <v>1391.402020059283</v>
+        <v>4801.205805256797</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="I69" t="n">
-        <v>3308084</v>
+        <v>3427650</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>187288</v>
+        <v>187586</v>
       </c>
       <c r="E70" t="n">
-        <v>195582</v>
+        <v>195894</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>183.34</v>
+        <v>185.31</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>137649062</v>
+        <v>138375180</v>
       </c>
       <c r="E71" t="n">
-        <v>137706706</v>
+        <v>138433128</v>
       </c>
       <c r="F71" t="n">
-        <v>22252.68765206859</v>
+        <v>18851.6094650653</v>
       </c>
       <c r="G71" t="n">
-        <v>30790.99564696576</v>
+        <v>39711.73324587622</v>
       </c>
       <c r="H71" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="I71" t="n">
-        <v>3431492</v>
+        <v>3468836</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25345172</v>
+        <v>25340699</v>
       </c>
       <c r="E72" t="n">
-        <v>83178010</v>
+        <v>83163331</v>
       </c>
       <c r="F72" t="n">
-        <v>4985.788226705875</v>
+        <v>19609.95736053728</v>
       </c>
       <c r="G72" t="n">
-        <v>35585.98874342393</v>
+        <v>35408.49325018895</v>
       </c>
       <c r="H72" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="I72" t="n">
-        <v>257456</v>
+        <v>254168</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113267</v>
+        <v>113385</v>
       </c>
       <c r="E73" t="n">
-        <v>113267</v>
+        <v>113385</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6.32</v>
+        <v>5.26</v>
       </c>
       <c r="I73" t="n">
-        <v>1334.49</v>
+        <v>1335.86</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>195548969</v>
+        <v>194815792</v>
       </c>
       <c r="E74" t="n">
-        <v>679354792</v>
+        <v>676807667</v>
       </c>
       <c r="F74" t="n">
-        <v>69710.15469165516</v>
+        <v>80180.85236718434</v>
       </c>
       <c r="G74" t="n">
-        <v>71209.79275557099</v>
+        <v>64260.18978175388</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>41296335</v>
+        <v>41312903</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3337991</v>
+        <v>3269869</v>
       </c>
       <c r="E75" t="n">
-        <v>3337991</v>
+        <v>3269869</v>
       </c>
       <c r="F75" t="n">
-        <v>631.7148606642571</v>
+        <v>1025.644006596975</v>
       </c>
       <c r="G75" t="n">
-        <v>659.8898772369948</v>
+        <v>1574.700311486815</v>
       </c>
       <c r="H75" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I75" t="n">
-        <v>1954260</v>
+        <v>2023836</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>108901702</v>
+        <v>108874001</v>
       </c>
       <c r="E76" t="n">
-        <v>461872888</v>
+        <v>461707203</v>
       </c>
       <c r="F76" t="n">
-        <v>106748.084935218</v>
+        <v>120246.0703939803</v>
       </c>
       <c r="G76" t="n">
-        <v>147149.696436979</v>
+        <v>142558.0143781978</v>
       </c>
       <c r="H76" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I76" t="n">
-        <v>15025563</v>
+        <v>15084879</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1808273</v>
+        <v>1804081</v>
       </c>
       <c r="F77" t="n">
-        <v>54.5975215816644</v>
+        <v>54.608077595922</v>
       </c>
       <c r="G77" t="n">
-        <v>25.48028543472156</v>
+        <v>25.48521185351392</v>
       </c>
       <c r="H77" t="n">
         <v>1.1</v>
       </c>
       <c r="I77" t="n">
-        <v>564.5599999999999</v>
+        <v>567.08</v>
       </c>
     </row>
     <row r="78">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3230824</v>
+        <v>3202796</v>
       </c>
       <c r="E78" t="n">
-        <v>16199740</v>
+        <v>16059201</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>4.09</v>
+        <v>4.12</v>
       </c>
       <c r="I78" t="n">
-        <v>31214</v>
+        <v>32109</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>515370</v>
+        <v>535784</v>
       </c>
       <c r="E79" t="n">
-        <v>8815375</v>
+        <v>9164556</v>
       </c>
       <c r="F79" t="n">
-        <v>249.726306860484</v>
+        <v>118.1459955947832</v>
       </c>
       <c r="G79" t="n">
-        <v>51.7554375937117</v>
+        <v>26.10699717698063</v>
       </c>
       <c r="H79" t="n">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="I79" t="n">
-        <v>120946</v>
+        <v>132485</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5625640</v>
+        <v>5667626</v>
       </c>
       <c r="E80" t="n">
-        <v>7634593</v>
+        <v>7691455</v>
       </c>
       <c r="F80" t="n">
-        <v>503.4341196558935</v>
+        <v>448.0469940712321</v>
       </c>
       <c r="G80" t="n">
-        <v>606.1960826442522</v>
+        <v>958.7059553021362</v>
       </c>
       <c r="H80" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="I80" t="n">
-        <v>5463948</v>
+        <v>5552295</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41358</v>
+        <v>40901</v>
       </c>
       <c r="F81" t="n">
-        <v>128.2155463655363</v>
+        <v>196.3951427086831</v>
       </c>
       <c r="G81" t="n">
-        <v>69.34222068028866</v>
+        <v>53.34795104469114</v>
       </c>
       <c r="H81" t="n">
-        <v>0.41</v>
+        <v>1.64</v>
       </c>
       <c r="I81" t="n">
-        <v>40105</v>
+        <v>40648</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>38533175</v>
+        <v>38679778</v>
       </c>
       <c r="E82" t="n">
-        <v>45005833</v>
+        <v>45177062</v>
       </c>
       <c r="F82" t="n">
-        <v>496.9867555048266</v>
+        <v>503.3315313172455</v>
       </c>
       <c r="G82" t="n">
-        <v>315.3624987587616</v>
+        <v>145.6978094124553</v>
       </c>
       <c r="H82" t="n">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="I82" t="n">
-        <v>899980</v>
+        <v>905993</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14082237</v>
+        <v>14097720</v>
       </c>
       <c r="F83" t="n">
-        <v>169.0351167740096</v>
+        <v>238.697973890693</v>
       </c>
       <c r="G83" t="n">
-        <v>238.2708121158935</v>
+        <v>315.1921782665777</v>
       </c>
       <c r="H83" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="I83" t="n">
-        <v>232054</v>
+        <v>232812</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>34664387</v>
+        <v>34944004</v>
       </c>
       <c r="E84" t="n">
-        <v>34664387</v>
+        <v>34944004</v>
       </c>
       <c r="F84" t="n">
-        <v>264.9522264741647</v>
+        <v>157.94124570516</v>
       </c>
       <c r="G84" t="n">
-        <v>941.0004137389308</v>
+        <v>1051.848622179101</v>
       </c>
       <c r="H84" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="I84" t="n">
-        <v>951888</v>
+        <v>952168</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>544914</v>
+        <v>551261</v>
       </c>
       <c r="E85" t="n">
-        <v>6609274</v>
+        <v>6686259</v>
       </c>
       <c r="F85" t="n">
-        <v>186.7218734747349</v>
+        <v>292.7730682382549</v>
       </c>
       <c r="G85" t="n">
-        <v>588.0923326417923</v>
+        <v>452.0244985154478</v>
       </c>
       <c r="H85" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="I85" t="n">
-        <v>2904293</v>
+        <v>2960783</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24272274</v>
+        <v>24333501</v>
       </c>
       <c r="E86" t="n">
-        <v>34300637</v>
+        <v>34387161</v>
       </c>
       <c r="F86" t="n">
-        <v>1.749165250480209</v>
+        <v>416.76068992026</v>
       </c>
       <c r="G86" t="n">
-        <v>9.190502556356954</v>
+        <v>6.146983937733259</v>
       </c>
       <c r="H86" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="I86" t="n">
-        <v>156292</v>
+        <v>174775</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1415741026</v>
+        <v>1456643172</v>
       </c>
       <c r="E87" t="n">
-        <v>6788768154</v>
+        <v>6984902325</v>
       </c>
       <c r="F87" t="n">
-        <v>353847.5304519094</v>
+        <v>569644.7239119411</v>
       </c>
       <c r="G87" t="n">
-        <v>365587.4775708314</v>
+        <v>586231.2754607194</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I87" t="n">
-        <v>500673519</v>
+        <v>520202841</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>257918306</v>
+        <v>258845526</v>
       </c>
       <c r="E88" t="n">
-        <v>1113318588</v>
+        <v>1117320987</v>
       </c>
       <c r="F88" t="n">
-        <v>896685.1770488009</v>
+        <v>826533.9222224734</v>
       </c>
       <c r="G88" t="n">
-        <v>717264.5546634195</v>
+        <v>889760.237375848</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>142750594</v>
+        <v>142328265</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>112151048</v>
+        <v>112401388</v>
       </c>
       <c r="E89" t="n">
-        <v>112151048</v>
+        <v>112401388</v>
       </c>
       <c r="F89" t="n">
-        <v>40992.27386509634</v>
+        <v>38504.11922680237</v>
       </c>
       <c r="G89" t="n">
-        <v>29622.96679114207</v>
+        <v>22930.02427188805</v>
       </c>
       <c r="H89" t="n">
-        <v>0.44</v>
+        <v>0.57</v>
       </c>
       <c r="I89" t="n">
-        <v>7081805</v>
+        <v>7066407</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3768524</v>
+        <v>3762183</v>
       </c>
       <c r="E90" t="n">
-        <v>29326202</v>
+        <v>29276857</v>
       </c>
       <c r="F90" t="n">
-        <v>1287.511774184874</v>
+        <v>3272.978891041465</v>
       </c>
       <c r="G90" t="n">
-        <v>2463.475897060309</v>
+        <v>2526.508578567126</v>
       </c>
       <c r="H90" t="n">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>39949</v>
+        <v>41903</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3945287</v>
+        <v>3977792</v>
       </c>
       <c r="F91" t="n">
-        <v>1692.448879990095</v>
+        <v>4045.800115729816</v>
       </c>
       <c r="G91" t="n">
-        <v>2596.499585554593</v>
+        <v>2725.37959075154</v>
       </c>
       <c r="H91" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>367673</v>
+        <v>352455</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>848956</v>
+        <v>849970</v>
       </c>
       <c r="F92" t="n">
-        <v>170.8189687557341</v>
+        <v>203.3443644641287</v>
       </c>
       <c r="G92" t="n">
-        <v>49.96272345752195</v>
+        <v>49.96932656164901</v>
       </c>
       <c r="H92" t="n">
-        <v>2.86</v>
+        <v>2.07</v>
       </c>
       <c r="I92" t="n">
-        <v>5486.5</v>
+        <v>5306.29</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>126647</v>
+        <v>116393</v>
       </c>
       <c r="F93" t="n">
-        <v>210.9357500369829</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>3.027741525964474</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>2.82</v>
+        <v>5.54</v>
       </c>
       <c r="I93" t="n">
-        <v>117751</v>
+        <v>111892</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10049174</v>
+        <v>10170166</v>
       </c>
       <c r="E94" t="n">
-        <v>120985776</v>
+        <v>122442437</v>
       </c>
       <c r="F94" t="n">
-        <v>1276.510947068414</v>
+        <v>867.0926370436824</v>
       </c>
       <c r="G94" t="n">
-        <v>351.8925118879659</v>
+        <v>467.9962016369246</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>527439</v>
+        <v>535780</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>16184649</v>
+        <v>15954805</v>
       </c>
       <c r="E95" t="n">
-        <v>40461624</v>
+        <v>39887013</v>
       </c>
       <c r="F95" t="n">
-        <v>6643.536558224024</v>
+        <v>6000.262895775462</v>
       </c>
       <c r="G95" t="n">
-        <v>6761.188017348646</v>
+        <v>11006.21275655556</v>
       </c>
       <c r="H95" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="I95" t="n">
-        <v>5053206</v>
+        <v>5088235</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2457607</v>
+        <v>2449763</v>
       </c>
       <c r="F96" t="n">
-        <v>148.3340846070383</v>
+        <v>237.6553624851526</v>
       </c>
       <c r="G96" t="n">
-        <v>274.0604269385699</v>
+        <v>186.2113926089339</v>
       </c>
       <c r="H96" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="I96" t="n">
-        <v>48421</v>
+        <v>48880</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19105395</v>
+        <v>19121855</v>
       </c>
       <c r="F97" t="n">
-        <v>253.7792317288806</v>
+        <v>805.9133156904196</v>
       </c>
       <c r="G97" t="n">
-        <v>740.8240641570974</v>
+        <v>3099.176134538453</v>
       </c>
       <c r="H97" t="n">
-        <v>1.04</v>
+        <v>0.52</v>
       </c>
       <c r="I97" t="n">
-        <v>68669</v>
+        <v>68907</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4047077</v>
+        <v>4047717</v>
       </c>
       <c r="E98" t="n">
-        <v>11656076</v>
+        <v>11657885</v>
       </c>
       <c r="F98" t="n">
-        <v>1156.97346839662</v>
+        <v>1126.3797598343</v>
       </c>
       <c r="G98" t="n">
-        <v>450.1389526189903</v>
+        <v>597.9555027477275</v>
       </c>
       <c r="H98" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>487061</v>
+        <v>485346</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1522727</v>
+        <v>1519843</v>
       </c>
       <c r="F99" t="n">
-        <v>474.6732604173312</v>
+        <v>474.4090179966055</v>
       </c>
       <c r="G99" t="n">
-        <v>85.26032702335921</v>
+        <v>85.23607182731479</v>
       </c>
       <c r="H99" t="n">
         <v>0.28</v>
       </c>
       <c r="I99" t="n">
-        <v>272714</v>
+        <v>274529</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>78281716</v>
+        <v>78257958</v>
       </c>
       <c r="E100" t="n">
-        <v>99619568</v>
+        <v>99589334</v>
       </c>
       <c r="F100" t="n">
-        <v>9000.803127275616</v>
+        <v>3397.939532111706</v>
       </c>
       <c r="G100" t="n">
-        <v>7498.030636193145</v>
+        <v>4306.520633437008</v>
       </c>
       <c r="H100" t="n">
-        <v>1.3</v>
+        <v>0.73</v>
       </c>
       <c r="I100" t="n">
-        <v>6511037</v>
+        <v>6553128</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21765611</v>
+        <v>21876315</v>
       </c>
       <c r="E101" t="n">
-        <v>28234976</v>
+        <v>28378585</v>
       </c>
       <c r="F101" t="n">
-        <v>4376.928945392717</v>
+        <v>7054.740767792327</v>
       </c>
       <c r="G101" t="n">
-        <v>6600.507009064863</v>
+        <v>6392.467457550152</v>
       </c>
       <c r="H101" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="I101" t="n">
-        <v>224892</v>
+        <v>233770</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1437480</v>
+        <v>1453015</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>5.37</v>
       </c>
       <c r="I102" t="n">
-        <v>8068.24</v>
+        <v>7952.05</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>602463</v>
+        <v>603826</v>
       </c>
       <c r="E103" t="n">
-        <v>602463</v>
+        <v>603826</v>
       </c>
       <c r="F103" t="n">
-        <v>28.56679478024058</v>
+        <v>15.34722236485159</v>
       </c>
       <c r="G103" t="n">
-        <v>21.21206404001151</v>
+        <v>116.6532466239963</v>
       </c>
       <c r="H103" t="n">
         <v>1.11</v>
       </c>
       <c r="I103" t="n">
-        <v>64151</v>
+        <v>62100</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40059234</v>
+        <v>40388165</v>
       </c>
       <c r="E104" t="n">
-        <v>41876224</v>
+        <v>42220075</v>
       </c>
       <c r="F104" t="n">
-        <v>405.2982011444721</v>
+        <v>273.5468113583946</v>
       </c>
       <c r="G104" t="n">
-        <v>1618.165642619609</v>
+        <v>1727.769979059258</v>
       </c>
       <c r="H104" t="n">
         <v>0.48</v>
       </c>
       <c r="I104" t="n">
-        <v>746117</v>
+        <v>708338</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13747352</v>
+        <v>14078425</v>
       </c>
       <c r="E105" t="n">
-        <v>13747352</v>
+        <v>14078425</v>
       </c>
       <c r="F105" t="n">
-        <v>3067.52416820904</v>
+        <v>2902.363294551837</v>
       </c>
       <c r="G105" t="n">
-        <v>2729.41490677295</v>
+        <v>2310.729598673959</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="I105" t="n">
-        <v>5558525</v>
+        <v>5694287</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1127920</v>
+        <v>1128113</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>14.41287614202242</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>4.685686335377865</v>
       </c>
       <c r="H106" t="n">
-        <v>7.49</v>
+        <v>3.83</v>
       </c>
       <c r="I106" t="n">
-        <v>3595.64</v>
+        <v>3617.6</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>49896585</v>
+        <v>50072697</v>
       </c>
       <c r="E107" t="n">
-        <v>127114403</v>
+        <v>127563058</v>
       </c>
       <c r="F107" t="n">
-        <v>2155.022918603178</v>
+        <v>2467.055577096825</v>
       </c>
       <c r="G107" t="n">
-        <v>3305.012911062783</v>
+        <v>2446.796748341088</v>
       </c>
       <c r="H107" t="n">
         <v>0.36</v>
       </c>
       <c r="I107" t="n">
-        <v>2253459</v>
+        <v>2265706</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13937032</v>
+        <v>14045645</v>
       </c>
       <c r="E108" t="n">
-        <v>67499271</v>
+        <v>68025298</v>
       </c>
       <c r="F108" t="n">
-        <v>1659.325388455477</v>
+        <v>1942.326327993964</v>
       </c>
       <c r="G108" t="n">
-        <v>3799.567508155064</v>
+        <v>4150.282424918434</v>
       </c>
       <c r="H108" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="I108" t="n">
-        <v>5543055</v>
+        <v>5654788</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>627658</v>
+        <v>627862</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>177.4068415652053</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>3.380524831429438</v>
       </c>
       <c r="H109" t="n">
-        <v>5.27</v>
+        <v>3.36</v>
       </c>
       <c r="I109" t="n">
-        <v>11971.14</v>
+        <v>11909.18</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4436721</v>
+        <v>4398068</v>
       </c>
       <c r="E110" t="n">
-        <v>10113309</v>
+        <v>10025203</v>
       </c>
       <c r="F110" t="n">
-        <v>1309.865167156383</v>
+        <v>1168.803519199792</v>
       </c>
       <c r="G110" t="n">
-        <v>2114.536685875724</v>
+        <v>2073.152909477657</v>
       </c>
       <c r="H110" t="n">
-        <v>0.79</v>
+        <v>1.09</v>
       </c>
       <c r="I110" t="n">
-        <v>66994</v>
+        <v>66191</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1844541893</v>
+        <v>1844644801</v>
       </c>
       <c r="F111" t="n">
-        <v>36558.964835759</v>
+        <v>40167.03807906986</v>
       </c>
       <c r="G111" t="n">
-        <v>17065.64581128531</v>
+        <v>17678.59613801274</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I111" t="n">
-        <v>30727632</v>
+        <v>31170370</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9169396</v>
+        <v>9103815</v>
       </c>
       <c r="E112" t="n">
-        <v>33361012</v>
+        <v>33122380</v>
       </c>
       <c r="F112" t="n">
-        <v>1453.634643727623</v>
+        <v>450.2592562975702</v>
       </c>
       <c r="G112" t="n">
-        <v>342.8546135000453</v>
+        <v>420.242051162848</v>
       </c>
       <c r="H112" t="n">
-        <v>0.63</v>
+        <v>0.91</v>
       </c>
       <c r="I112" t="n">
-        <v>150855</v>
+        <v>156672</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>632213</v>
+        <v>632311</v>
       </c>
       <c r="F113" t="n">
-        <v>8.990757351690469</v>
+        <v>8.991948943840075</v>
       </c>
       <c r="G113" t="n">
-        <v>7.241236696316353</v>
+        <v>2.315002414851191</v>
       </c>
       <c r="H113" t="n">
         <v>0.78</v>
       </c>
       <c r="I113" t="n">
-        <v>684.04</v>
+        <v>684.88</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11660659</v>
+        <v>11898503</v>
       </c>
       <c r="E114" t="n">
-        <v>16906272</v>
+        <v>17251113</v>
       </c>
       <c r="F114" t="n">
-        <v>2855.420346977853</v>
+        <v>804.4111447505588</v>
       </c>
       <c r="G114" t="n">
-        <v>8562.080285471777</v>
+        <v>254.2693666417544</v>
       </c>
       <c r="H114" t="n">
-        <v>0.29</v>
+        <v>1.67</v>
       </c>
       <c r="I114" t="n">
-        <v>2021867</v>
+        <v>1951059</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1817265</v>
+        <v>1824175</v>
       </c>
       <c r="E115" t="n">
-        <v>13031428</v>
+        <v>13080978</v>
       </c>
       <c r="F115" t="n">
-        <v>55.82221570427662</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>10.00416122641781</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>3.7</v>
+        <v>4.13</v>
       </c>
       <c r="I115" t="n">
-        <v>2064042</v>
+        <v>2069157</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2712612</v>
+        <v>2732646</v>
       </c>
       <c r="E116" t="n">
-        <v>5483435</v>
+        <v>5523933</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4446.14</v>
+        <v>4479.89</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>192722507</v>
+        <v>193170320</v>
       </c>
       <c r="E117" t="n">
-        <v>1091313253</v>
+        <v>1093849043</v>
       </c>
       <c r="F117" t="n">
-        <v>326619.7506719389</v>
+        <v>211931.0336945524</v>
       </c>
       <c r="G117" t="n">
-        <v>273249.0601089635</v>
+        <v>314294.9830457731</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I117" t="n">
-        <v>86413731</v>
+        <v>86581082</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>656145</v>
+        <v>653091</v>
       </c>
       <c r="E118" t="n">
-        <v>2175680</v>
+        <v>2165554</v>
       </c>
       <c r="F118" t="n">
-        <v>4051.66107416745</v>
+        <v>8834.98106937617</v>
       </c>
       <c r="G118" t="n">
-        <v>7553.779182049747</v>
+        <v>7517.588355880457</v>
       </c>
       <c r="H118" t="n">
-        <v>0.47</v>
+        <v>0.93</v>
       </c>
       <c r="I118" t="n">
-        <v>3980.51</v>
+        <v>5597.03</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2618603</v>
+        <v>2608602</v>
       </c>
       <c r="E119" t="n">
-        <v>9271367</v>
+        <v>9235961</v>
       </c>
       <c r="F119" t="n">
-        <v>335.5956981207352</v>
+        <v>20.87468951107919</v>
       </c>
       <c r="G119" t="n">
-        <v>419.8447005183992</v>
+        <v>644.4499815559842</v>
       </c>
       <c r="H119" t="n">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="I119" t="n">
-        <v>27923</v>
+        <v>28152</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1005260</v>
+        <v>1010854</v>
       </c>
       <c r="E120" t="n">
-        <v>1005260</v>
+        <v>1010854</v>
       </c>
       <c r="F120" t="n">
-        <v>148.82570792595</v>
+        <v>136.4421658352017</v>
       </c>
       <c r="G120" t="n">
-        <v>140.4671263453077</v>
+        <v>140.4856905667412</v>
       </c>
       <c r="H120" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="I120" t="n">
-        <v>5412.65</v>
+        <v>4953.12</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>487319</v>
+        <v>495621</v>
       </c>
       <c r="E121" t="n">
-        <v>1640249</v>
+        <v>1668190</v>
       </c>
       <c r="F121" t="n">
-        <v>367.9003365099913</v>
+        <v>309.7532776543005</v>
       </c>
       <c r="G121" t="n">
-        <v>368.7465021022625</v>
+        <v>479.786407631485</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I121" t="n">
-        <v>639895</v>
+        <v>641928</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>457841</v>
+        <v>463405</v>
       </c>
       <c r="E122" t="n">
-        <v>849383</v>
+        <v>859706</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>6.52</v>
+        <v>6.59</v>
       </c>
       <c r="I122" t="n">
-        <v>280314</v>
+        <v>288559</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9708061</v>
+        <v>9644410</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>6.45</v>
+        <v>7.33</v>
       </c>
       <c r="I123" t="n">
-        <v>20072</v>
+        <v>21080</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1169353</v>
+        <v>1163791</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>11.65</v>
+        <v>11.22</v>
       </c>
       <c r="I124" t="n">
-        <v>6039.98</v>
+        <v>6320.43</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3300391</v>
+        <v>3307141</v>
       </c>
       <c r="E125" t="n">
-        <v>7706963</v>
+        <v>7722727</v>
       </c>
       <c r="F125" t="n">
-        <v>1018.629472013432</v>
+        <v>1195.149387703598</v>
       </c>
       <c r="G125" t="n">
-        <v>962.7828476162574</v>
+        <v>1266.90946679794</v>
       </c>
       <c r="H125" t="n">
-        <v>1.55</v>
+        <v>0.53</v>
       </c>
       <c r="I125" t="n">
-        <v>610741</v>
+        <v>603818</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>250050</v>
+        <v>251463</v>
       </c>
       <c r="E126" t="n">
-        <v>2206879</v>
+        <v>2219347</v>
       </c>
       <c r="F126" t="n">
-        <v>479.2060142140659</v>
+        <v>16.60466696090871</v>
       </c>
       <c r="G126" t="n">
-        <v>188.1596106734045</v>
+        <v>153.7041401372945</v>
       </c>
       <c r="H126" t="n">
-        <v>1.85</v>
+        <v>3.64</v>
       </c>
       <c r="I126" t="n">
-        <v>75051</v>
+        <v>76574</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>625737</v>
+        <v>626032</v>
       </c>
       <c r="F127" t="n">
-        <v>540.6119390791365</v>
+        <v>540.6833866840515</v>
       </c>
       <c r="G127" t="n">
-        <v>710.1989373648595</v>
+        <v>567.9318724903976</v>
       </c>
       <c r="H127" t="n">
-        <v>0.99</v>
+        <v>1.98</v>
       </c>
       <c r="I127" t="n">
-        <v>16188.64</v>
+        <v>16202.65</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4716213</v>
+        <v>4721212</v>
       </c>
       <c r="E128" t="n">
-        <v>16662365</v>
+        <v>16680030</v>
       </c>
       <c r="F128" t="n">
-        <v>1003.625919967415</v>
+        <v>1031.993763451237</v>
       </c>
       <c r="G128" t="n">
-        <v>872.5411874036264</v>
+        <v>955.6707054794759</v>
       </c>
       <c r="H128" t="n">
         <v>0.72</v>
       </c>
       <c r="I128" t="n">
-        <v>155115</v>
+        <v>159257</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2145362</v>
+        <v>2164206</v>
       </c>
       <c r="F129" t="n">
-        <v>23.15853037781123</v>
+        <v>107.8350195367598</v>
       </c>
       <c r="G129" t="n">
-        <v>67.50584313157489</v>
+        <v>68.74227490515638</v>
       </c>
       <c r="H129" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>5131.14</v>
+        <v>4451.29</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2430057</v>
+        <v>2471292</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2520.16</v>
+        <v>2534.44</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>78632</v>
+        <v>78862</v>
       </c>
       <c r="E131" t="n">
-        <v>78632</v>
+        <v>78862</v>
       </c>
       <c r="F131" t="n">
-        <v>10.10375793454797</v>
+        <v>10.10461388077274</v>
       </c>
       <c r="G131" t="n">
-        <v>6.624208724116582</v>
+        <v>6.625107073565361</v>
       </c>
       <c r="H131" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="I131" t="n">
-        <v>19407.85</v>
+        <v>19308.68</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4099174</v>
+        <v>4125764</v>
       </c>
       <c r="F132" t="n">
-        <v>216.6142189439273</v>
+        <v>466.5501452553015</v>
       </c>
       <c r="G132" t="n">
-        <v>380.3903267395351</v>
+        <v>205.8262814028643</v>
       </c>
       <c r="H132" t="n">
         <v>0.46</v>
       </c>
       <c r="I132" t="n">
-        <v>258714</v>
+        <v>258923</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2095235</v>
+        <v>2107764</v>
       </c>
       <c r="E133" t="n">
-        <v>8556399</v>
+        <v>8607561</v>
       </c>
       <c r="F133" t="n">
-        <v>417.9386297080065</v>
+        <v>399.7119767581135</v>
       </c>
       <c r="G133" t="n">
-        <v>474.5152220024456</v>
+        <v>964.5695672899842</v>
       </c>
       <c r="H133" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I133" t="n">
-        <v>403331</v>
+        <v>394021</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7370013</v>
+        <v>7286514</v>
       </c>
       <c r="E134" t="n">
-        <v>7424796</v>
+        <v>7340677</v>
       </c>
       <c r="F134" t="n">
-        <v>161132.874252442</v>
+        <v>266383.3778034078</v>
       </c>
       <c r="G134" t="n">
-        <v>209211.8344430831</v>
+        <v>346999.4337659538</v>
       </c>
       <c r="H134" t="n">
-        <v>0.73</v>
+        <v>0.28</v>
       </c>
       <c r="I134" t="n">
-        <v>6004282</v>
+        <v>6040805</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13350071</v>
+        <v>13381313</v>
       </c>
       <c r="E135" t="n">
-        <v>13395503</v>
+        <v>13426851</v>
       </c>
       <c r="F135" t="n">
-        <v>14419.57108327117</v>
+        <v>13988.83780600521</v>
       </c>
       <c r="G135" t="n">
-        <v>13273.53006106818</v>
+        <v>13610.66637689065</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>6948747</v>
+        <v>7118894</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42116772</v>
+        <v>41931848</v>
       </c>
       <c r="E136" t="n">
-        <v>71504482</v>
+        <v>71190523</v>
       </c>
       <c r="F136" t="n">
-        <v>560.4953271738782</v>
+        <v>554.7775882538585</v>
       </c>
       <c r="G136" t="n">
-        <v>1341.855310835723</v>
+        <v>1391.995516497313</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1154324</v>
+        <v>1155006</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19784699</v>
+        <v>19554026</v>
       </c>
       <c r="E137" t="n">
-        <v>59317623</v>
+        <v>58626029</v>
       </c>
       <c r="F137" t="n">
-        <v>21290.47739299741</v>
+        <v>40187.4385570911</v>
       </c>
       <c r="G137" t="n">
-        <v>40908.40941398149</v>
+        <v>39890.57432414122</v>
       </c>
       <c r="H137" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>4425746</v>
+        <v>4380210</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>100072451</v>
+        <v>97757257</v>
       </c>
       <c r="E138" t="n">
-        <v>106386060</v>
+        <v>103924799</v>
       </c>
       <c r="F138" t="n">
-        <v>3701.798481108301</v>
+        <v>4127.047246541969</v>
       </c>
       <c r="G138" t="n">
-        <v>3688.937348473884</v>
+        <v>3484.9936953541</v>
       </c>
       <c r="H138" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="I138" t="n">
-        <v>534991</v>
+        <v>536088</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1267242</v>
+        <v>1268755</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>7.37</v>
+        <v>7.29</v>
       </c>
       <c r="I139" t="n">
-        <v>2042.77</v>
+        <v>2033.24</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>234282</v>
+        <v>234484</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.69</v>
+        <v>10.43</v>
       </c>
       <c r="I140" t="n">
-        <v>63.47</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>77876</v>
+        <v>76263</v>
       </c>
       <c r="E141" t="n">
-        <v>220918</v>
+        <v>216340</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>590.03</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>49497602</v>
+        <v>49884383</v>
       </c>
       <c r="E142" t="n">
-        <v>213230256</v>
+        <v>214896469</v>
       </c>
       <c r="F142" t="n">
-        <v>52075.01208148769</v>
+        <v>49808.71160616788</v>
       </c>
       <c r="G142" t="n">
-        <v>68349.37510233533</v>
+        <v>76256.20030915405</v>
       </c>
       <c r="H142" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I142" t="n">
-        <v>12421366</v>
+        <v>13194785</v>
       </c>
     </row>
     <row r="143">
@@ -5407,19 +5407,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280632</v>
+        <v>280918</v>
       </c>
       <c r="F143" t="n">
-        <v>23.73665918594624</v>
+        <v>23.74003568246891</v>
       </c>
       <c r="G143" t="n">
-        <v>13.52971781870266</v>
+        <v>13.53164239641217</v>
       </c>
       <c r="H143" t="n">
         <v>0.68</v>
       </c>
       <c r="I143" t="n">
-        <v>14811.89</v>
+        <v>16337.45</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>11377289</v>
+        <v>10194780</v>
       </c>
       <c r="F144" t="n">
-        <v>106.5155852731651</v>
+        <v>145.7246890489751</v>
       </c>
       <c r="G144" t="n">
-        <v>267.3305663330402</v>
+        <v>199.0839293791321</v>
       </c>
       <c r="H144" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I144" t="n">
-        <v>833550</v>
+        <v>860279</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1173991</v>
+        <v>1176780</v>
       </c>
       <c r="E145" t="n">
-        <v>7826606</v>
+        <v>7845202</v>
       </c>
       <c r="F145" t="n">
-        <v>262.3287412492251</v>
+        <v>262.3660570347231</v>
       </c>
       <c r="G145" t="n">
-        <v>36.78334220333037</v>
+        <v>36.78857456674211</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>4358.68</v>
+        <v>3972.09</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7395612</v>
+        <v>7405124</v>
       </c>
       <c r="F146" t="n">
-        <v>23.95638728483317</v>
+        <v>10.73717511708569</v>
       </c>
       <c r="G146" t="n">
-        <v>192.8124529928726</v>
+        <v>113.2644903551878</v>
       </c>
       <c r="H146" t="n">
-        <v>1.21</v>
+        <v>2.4</v>
       </c>
       <c r="I146" t="n">
-        <v>576767</v>
+        <v>573148</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>657724</v>
+        <v>659600</v>
       </c>
       <c r="E147" t="n">
-        <v>2374028</v>
+        <v>2380798</v>
       </c>
       <c r="F147" t="n">
-        <v>20.17371900908503</v>
+        <v>15.90593386236169</v>
       </c>
       <c r="G147" t="n">
-        <v>40.50521710649417</v>
+        <v>40.50243726507294</v>
       </c>
       <c r="H147" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>398907</v>
+        <v>398137</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1574061</v>
+        <v>1586190</v>
       </c>
       <c r="F148" t="n">
-        <v>1131.307500424114</v>
+        <v>1131.465711630047</v>
       </c>
       <c r="G148" t="n">
-        <v>56.13051160804999</v>
+        <v>56.28794354572779</v>
       </c>
       <c r="H148" t="n">
         <v>0.03</v>
       </c>
       <c r="I148" t="n">
-        <v>87513</v>
+        <v>87773</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>65020</v>
+        <v>60878</v>
       </c>
       <c r="F149" t="n">
-        <v>3.997348170226836</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>36.57516648720966</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>3.33</v>
+        <v>6.67</v>
       </c>
       <c r="I149" t="n">
-        <v>3145.07</v>
+        <v>3220.05</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12376572</v>
+        <v>12428739</v>
       </c>
       <c r="E150" t="n">
-        <v>12376572</v>
+        <v>12428739</v>
       </c>
       <c r="F150" t="n">
-        <v>146.1807181611275</v>
+        <v>195.887570448762</v>
       </c>
       <c r="G150" t="n">
-        <v>1010.14221528705</v>
+        <v>952.6071769495384</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I150" t="n">
-        <v>2966737</v>
+        <v>2746354</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2277969</v>
+        <v>2250149</v>
       </c>
       <c r="E151" t="n">
-        <v>8268573</v>
+        <v>8167557</v>
       </c>
       <c r="F151" t="n">
-        <v>29.28943432126376</v>
+        <v>105.2632572428701</v>
       </c>
       <c r="G151" t="n">
-        <v>127.7747955350585</v>
+        <v>29.17716447001099</v>
       </c>
       <c r="H151" t="n">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="I151" t="n">
-        <v>223587</v>
+        <v>224455</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1209131</v>
+        <v>1211157</v>
       </c>
       <c r="E152" t="n">
-        <v>1209131</v>
+        <v>1211157</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>995.8200000000001</v>
+        <v>995.0700000000001</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>22952695</v>
+        <v>22991959</v>
       </c>
       <c r="E153" t="n">
-        <v>26513954</v>
+        <v>26561074</v>
       </c>
       <c r="F153" t="n">
-        <v>556.8872419918933</v>
+        <v>572.4310261836566</v>
       </c>
       <c r="G153" t="n">
-        <v>409.9656325815241</v>
+        <v>627.9700741073763</v>
       </c>
       <c r="H153" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I153" t="n">
-        <v>753244</v>
+        <v>735225</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2439943</v>
+        <v>2441655</v>
       </c>
       <c r="E154" t="n">
-        <v>18359944</v>
+        <v>18372827</v>
       </c>
       <c r="F154" t="n">
-        <v>3340.509841445373</v>
+        <v>3230.574634911379</v>
       </c>
       <c r="G154" t="n">
-        <v>3436.015223206186</v>
+        <v>3728.678501140536</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161055</v>
+        <v>159386</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>19455012</v>
+        <v>19653651</v>
       </c>
       <c r="E155" t="n">
-        <v>77820046</v>
+        <v>78614605</v>
       </c>
       <c r="F155" t="n">
-        <v>1328.855268727627</v>
+        <v>637.8924270453629</v>
       </c>
       <c r="G155" t="n">
-        <v>4923.301687733382</v>
+        <v>491.4215420349892</v>
       </c>
       <c r="H155" t="n">
-        <v>0.39</v>
+        <v>2.4</v>
       </c>
       <c r="I155" t="n">
-        <v>3692542</v>
+        <v>3792506</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>289381575</v>
+        <v>286979637</v>
       </c>
       <c r="E156" t="n">
-        <v>289381575</v>
+        <v>286979637</v>
       </c>
       <c r="F156" t="n">
-        <v>267202.1854823025</v>
+        <v>258475.0223383419</v>
       </c>
       <c r="G156" t="n">
-        <v>262152.5090237812</v>
+        <v>370058.5581821827</v>
       </c>
       <c r="H156" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="I156" t="n">
-        <v>20094740</v>
+        <v>19914083</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12601631</v>
+        <v>12797303</v>
       </c>
       <c r="E157" t="n">
-        <v>39857315</v>
+        <v>40475900</v>
       </c>
       <c r="F157" t="n">
-        <v>4153.007630338786</v>
+        <v>3767.15901917599</v>
       </c>
       <c r="G157" t="n">
-        <v>9027.163505658675</v>
+        <v>11560.20545519814</v>
       </c>
       <c r="H157" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="I157" t="n">
-        <v>1006317</v>
+        <v>1039455</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1093678</v>
+        <v>1093119</v>
       </c>
       <c r="E158" t="n">
-        <v>2490960</v>
+        <v>2489686</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>4.98</v>
+        <v>6.92</v>
       </c>
       <c r="I158" t="n">
-        <v>452.97</v>
+        <v>427.02</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17436054</v>
+        <v>17285900</v>
       </c>
       <c r="E159" t="n">
-        <v>17436054</v>
+        <v>17285900</v>
       </c>
       <c r="F159" t="n">
-        <v>5853.206966314799</v>
+        <v>6127.734419869785</v>
       </c>
       <c r="G159" t="n">
-        <v>13590.14008090823</v>
+        <v>17081.22272094845</v>
       </c>
       <c r="H159" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>7199386</v>
+        <v>7235041</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4606777</v>
+        <v>4610752</v>
       </c>
       <c r="E160" t="n">
-        <v>8481569</v>
+        <v>8488887</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>13.45</v>
+        <v>12.23</v>
       </c>
       <c r="I160" t="n">
-        <v>54.91</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="161">
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>100707</v>
+        <v>97545</v>
       </c>
       <c r="E161" t="n">
-        <v>122700</v>
+        <v>118846</v>
       </c>
       <c r="F161" t="n">
-        <v>329.2228503996695</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>4.316411082598204</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.28</v>
+        <v>11.27</v>
       </c>
       <c r="I161" t="n">
-        <v>1879.17</v>
+        <v>2054.24</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19346441</v>
+        <v>19897661</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>21.39</v>
+        <v>20.62</v>
       </c>
       <c r="I162" t="n">
-        <v>3532.02</v>
+        <v>3613.06</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>461472</v>
+        <v>462933</v>
       </c>
       <c r="E163" t="n">
-        <v>581282</v>
+        <v>583122</v>
       </c>
       <c r="F163" t="n">
-        <v>135.3795394815165</v>
+        <v>115.6228395023325</v>
       </c>
       <c r="G163" t="n">
-        <v>84.179586516841</v>
+        <v>141.1225559139664</v>
       </c>
       <c r="H163" t="n">
         <v>0.51</v>
       </c>
       <c r="I163" t="n">
-        <v>185940</v>
+        <v>187203</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>104671</v>
+        <v>105961</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>6.51</v>
+        <v>6.35</v>
       </c>
       <c r="I164" t="n">
-        <v>2785.34</v>
+        <v>3201.61</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12229608</v>
+        <v>12124055</v>
       </c>
       <c r="E165" t="n">
-        <v>18616221</v>
+        <v>18455546</v>
       </c>
       <c r="F165" t="n">
-        <v>2724.790968952836</v>
+        <v>2573.62494619587</v>
       </c>
       <c r="G165" t="n">
-        <v>2275.086228843029</v>
+        <v>1480.14945326494</v>
       </c>
       <c r="H165" t="n">
         <v>0.96</v>
       </c>
       <c r="I165" t="n">
-        <v>670672</v>
+        <v>671445</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>289572255</v>
+        <v>288598960</v>
       </c>
       <c r="E166" t="n">
-        <v>289572255</v>
+        <v>288598960</v>
       </c>
       <c r="F166" t="n">
-        <v>211013.0618521755</v>
+        <v>209686.9706378854</v>
       </c>
       <c r="G166" t="n">
-        <v>244768.7887345717</v>
+        <v>339539.2602266967</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I166" t="n">
-        <v>93612597</v>
+        <v>93133165</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9714650</v>
+        <v>10154674</v>
       </c>
       <c r="E167" t="n">
-        <v>27581513</v>
+        <v>28830813</v>
       </c>
       <c r="F167" t="n">
-        <v>400.8247739943919</v>
+        <v>492.9532189256576</v>
       </c>
       <c r="G167" t="n">
-        <v>1205.806048758347</v>
+        <v>601.5032518939603</v>
       </c>
       <c r="H167" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="I167" t="n">
-        <v>91683</v>
+        <v>101257</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11625841</v>
+        <v>11630690</v>
       </c>
       <c r="F168" t="n">
-        <v>360.9761324704688</v>
+        <v>187.6523618623847</v>
       </c>
       <c r="G168" t="n">
-        <v>185.6504342357596</v>
+        <v>193.6790648870896</v>
       </c>
       <c r="H168" t="n">
-        <v>2.39</v>
+        <v>1.38</v>
       </c>
       <c r="I168" t="n">
-        <v>80501</v>
+        <v>79472</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4585942</v>
+        <v>4557466</v>
       </c>
       <c r="E169" t="n">
-        <v>31335421</v>
+        <v>31140845</v>
       </c>
       <c r="F169" t="n">
-        <v>4407.792089041764</v>
+        <v>1465.654076571729</v>
       </c>
       <c r="G169" t="n">
-        <v>5162.170730674076</v>
+        <v>1643.740942599705</v>
       </c>
       <c r="H169" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="I169" t="n">
-        <v>3003874</v>
+        <v>3007231</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2634626</v>
+        <v>2655961</v>
       </c>
       <c r="E170" t="n">
-        <v>3899587</v>
+        <v>3930934</v>
       </c>
       <c r="F170" t="n">
-        <v>2481.941756727722</v>
+        <v>2936.75187535126</v>
       </c>
       <c r="G170" t="n">
-        <v>2505.455678059839</v>
+        <v>1881.248567678036</v>
       </c>
       <c r="H170" t="n">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="I170" t="n">
-        <v>86495</v>
+        <v>92254</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>84350209</v>
+        <v>84069589</v>
       </c>
       <c r="E171" t="n">
-        <v>486062286</v>
+        <v>484445235</v>
       </c>
       <c r="F171" t="n">
-        <v>394501.0538929103</v>
+        <v>282486.0591515334</v>
       </c>
       <c r="G171" t="n">
-        <v>313961.4927635935</v>
+        <v>255112.6866524541</v>
       </c>
       <c r="H171" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I171" t="n">
-        <v>21212482</v>
+        <v>21276859</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13809871</v>
+        <v>13809733</v>
       </c>
       <c r="E172" t="n">
-        <v>13809871</v>
+        <v>13809733</v>
       </c>
       <c r="F172" t="n">
-        <v>5091.796411875837</v>
+        <v>5264.736027591975</v>
       </c>
       <c r="G172" t="n">
-        <v>5576.310892961343</v>
+        <v>5721.038085598985</v>
       </c>
       <c r="H172" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="I172" t="n">
-        <v>710509</v>
+        <v>709907</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6077626</v>
+        <v>6114866</v>
       </c>
       <c r="E173" t="n">
-        <v>17264790</v>
+        <v>17370580</v>
       </c>
       <c r="F173" t="n">
-        <v>767.6623072790109</v>
+        <v>765.8520658567346</v>
       </c>
       <c r="G173" t="n">
-        <v>7977.310573245778</v>
+        <v>7939.11117395311</v>
       </c>
       <c r="H173" t="n">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="I173" t="n">
-        <v>93602</v>
+        <v>83794</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19187615</v>
+        <v>19918710</v>
       </c>
       <c r="E174" t="n">
-        <v>19187615</v>
+        <v>19918710</v>
       </c>
       <c r="F174" t="n">
-        <v>8.55328987047932</v>
+        <v>8.554506560379899</v>
       </c>
       <c r="G174" t="n">
-        <v>1.061509991078154</v>
+        <v>1.061660988940388</v>
       </c>
       <c r="H174" t="n">
         <v>1.67</v>
       </c>
       <c r="I174" t="n">
-        <v>58575</v>
+        <v>111081</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1312286</v>
+        <v>1313448</v>
       </c>
       <c r="F175" t="n">
-        <v>88.97804817491833</v>
+        <v>87.89690054227721</v>
       </c>
       <c r="G175" t="n">
-        <v>237.4356817234701</v>
+        <v>704.9982272784112</v>
       </c>
       <c r="H175" t="n">
         <v>2.08</v>
       </c>
       <c r="I175" t="n">
-        <v>44810</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>123286</v>
+        <v>121707</v>
       </c>
       <c r="E176" t="n">
-        <v>268391</v>
+        <v>264953</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>5.7</v>
       </c>
       <c r="I176" t="n">
-        <v>42576</v>
+        <v>42165</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2852688</v>
+        <v>2875283</v>
       </c>
       <c r="F177" t="n">
-        <v>93.75384248118451</v>
+        <v>445.9440373349846</v>
       </c>
       <c r="G177" t="n">
-        <v>83.33783606120039</v>
+        <v>307.7971728047576</v>
       </c>
       <c r="H177" t="n">
-        <v>3.47</v>
+        <v>2.08</v>
       </c>
       <c r="I177" t="n">
-        <v>365920</v>
+        <v>354126</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>233168482</v>
+        <v>235995985</v>
       </c>
       <c r="E178" t="n">
-        <v>233170799</v>
+        <v>235998330</v>
       </c>
       <c r="F178" t="n">
-        <v>15825.16177017151</v>
+        <v>44376.42554259187</v>
       </c>
       <c r="G178" t="n">
-        <v>89418.36892579871</v>
+        <v>83367.65217613449</v>
       </c>
       <c r="H178" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I178" t="n">
-        <v>1998090</v>
+        <v>2959069</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9133006</v>
+        <v>9157575</v>
       </c>
       <c r="E179" t="n">
-        <v>9133006</v>
+        <v>9157575</v>
       </c>
       <c r="F179" t="n">
-        <v>611.2808841077256</v>
+        <v>611.3637836460942</v>
       </c>
       <c r="G179" t="n">
-        <v>65.85649486491528</v>
+        <v>54.3413823620407</v>
       </c>
       <c r="H179" t="n">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="I179" t="n">
-        <v>2936127</v>
+        <v>2951659</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>188369</v>
+        <v>188995</v>
       </c>
       <c r="E180" t="n">
-        <v>1454586</v>
+        <v>1459424</v>
       </c>
       <c r="F180" t="n">
-        <v>607.8327463246637</v>
+        <v>575.669687686493</v>
       </c>
       <c r="G180" t="n">
-        <v>105.066098674299</v>
+        <v>50.21600277010368</v>
       </c>
       <c r="H180" t="n">
-        <v>0.55</v>
+        <v>1.71</v>
       </c>
       <c r="I180" t="n">
-        <v>46903</v>
+        <v>46709</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>29180678</v>
+        <v>29432778</v>
       </c>
       <c r="E181" t="n">
-        <v>130653865</v>
+        <v>131782622</v>
       </c>
       <c r="F181" t="n">
-        <v>35609.86896066023</v>
+        <v>32330.79973708188</v>
       </c>
       <c r="G181" t="n">
-        <v>58559.75107983296</v>
+        <v>64889.26637803176</v>
       </c>
       <c r="H181" t="n">
         <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>14830873</v>
+        <v>15062345</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1310017</v>
+        <v>1319581</v>
       </c>
       <c r="F182" t="n">
-        <v>508.7515664900421</v>
+        <v>15.06830187962295</v>
       </c>
       <c r="G182" t="n">
-        <v>586.6514728496196</v>
+        <v>452.6533846204446</v>
       </c>
       <c r="H182" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="I182" t="n">
-        <v>90037</v>
+        <v>93363</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2883092</v>
+        <v>2890126</v>
       </c>
       <c r="E183" t="n">
-        <v>2883092</v>
+        <v>2890126</v>
       </c>
       <c r="F183" t="n">
-        <v>524.6316920762214</v>
+        <v>289.1882610122215</v>
       </c>
       <c r="G183" t="n">
-        <v>616.5368273579492</v>
+        <v>190.3702907397489</v>
       </c>
       <c r="H183" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="I183" t="n">
-        <v>298029</v>
+        <v>293478</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>559597</v>
+        <v>553342</v>
       </c>
       <c r="E184" t="n">
-        <v>559597</v>
+        <v>553342</v>
       </c>
       <c r="F184" t="n">
-        <v>6.442304411447747</v>
+        <v>9.991016443180735</v>
       </c>
       <c r="G184" t="n">
-        <v>178.2232451863169</v>
+        <v>178.2485971182343</v>
       </c>
       <c r="H184" t="n">
         <v>3.64</v>
       </c>
       <c r="I184" t="n">
-        <v>1146008</v>
+        <v>1175554</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14254196</v>
+        <v>14302580</v>
       </c>
       <c r="E185" t="n">
-        <v>18147867</v>
+        <v>18209468</v>
       </c>
       <c r="F185" t="n">
-        <v>100.4301575703585</v>
+        <v>164.1904936243149</v>
       </c>
       <c r="G185" t="n">
-        <v>2434.383847611347</v>
+        <v>337.1809837209361</v>
       </c>
       <c r="H185" t="n">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="I185" t="n">
-        <v>920636</v>
+        <v>934008</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1741919</v>
+        <v>1743994</v>
       </c>
       <c r="E186" t="n">
-        <v>1741919</v>
+        <v>1743994</v>
       </c>
       <c r="F186" t="n">
-        <v>4.712587278092631</v>
+        <v>45.00561415180007</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8101969442554613</v>
+        <v>0.8103121932946594</v>
       </c>
       <c r="H186" t="n">
-        <v>3.37</v>
+        <v>3.83</v>
       </c>
       <c r="I186" t="n">
-        <v>3357.22</v>
+        <v>3042.45</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48103556</v>
+        <v>48041119</v>
       </c>
       <c r="E187" t="n">
-        <v>311938759</v>
+        <v>311533871</v>
       </c>
       <c r="F187" t="n">
-        <v>145747.3170702735</v>
+        <v>126935.6581620002</v>
       </c>
       <c r="G187" t="n">
-        <v>151989.2129940723</v>
+        <v>171551.3996425384</v>
       </c>
       <c r="H187" t="n">
         <v>0.08</v>
       </c>
       <c r="I187" t="n">
-        <v>21807428</v>
+        <v>21952483</v>
       </c>
     </row>
     <row r="188">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8036436</v>
+        <v>8133786</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6989,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>6.68</v>
+        <v>6.16</v>
       </c>
       <c r="I188" t="n">
-        <v>308481</v>
+        <v>308152</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7152178</v>
+        <v>7230891</v>
       </c>
       <c r="E189" t="n">
-        <v>7162339</v>
+        <v>7241237</v>
       </c>
       <c r="F189" t="n">
-        <v>33.17588001663665</v>
+        <v>500.0059113704094</v>
       </c>
       <c r="G189" t="n">
-        <v>1387.541669958698</v>
+        <v>106.5089149726798</v>
       </c>
       <c r="H189" t="n">
         <v>0.86</v>
       </c>
       <c r="I189" t="n">
-        <v>917385</v>
+        <v>937050</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4412305</v>
+        <v>4413253</v>
       </c>
       <c r="F190" t="n">
-        <v>24.97988982669241</v>
+        <v>4.9020843365862</v>
       </c>
       <c r="G190" t="n">
-        <v>13.04309380467465</v>
+        <v>71.786101916909</v>
       </c>
       <c r="H190" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="I190" t="n">
-        <v>207822</v>
+        <v>213488</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>93567380</v>
+        <v>94387585</v>
       </c>
       <c r="E191" t="n">
-        <v>94574564</v>
+        <v>95403598</v>
       </c>
       <c r="F191" t="n">
-        <v>21201.19174147212</v>
+        <v>34178.7654730416</v>
       </c>
       <c r="G191" t="n">
-        <v>36960.62928911322</v>
+        <v>27400.45975740188</v>
       </c>
       <c r="H191" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I191" t="n">
-        <v>82667486</v>
+        <v>79534719</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>244547598</v>
+        <v>242339951</v>
       </c>
       <c r="E192" t="n">
-        <v>244547598</v>
+        <v>242339951</v>
       </c>
       <c r="F192" t="n">
-        <v>45976.36141944295</v>
+        <v>34850.0628707028</v>
       </c>
       <c r="G192" t="n">
-        <v>38292.40116156748</v>
+        <v>50189.48507239308</v>
       </c>
       <c r="H192" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>94321951</v>
+        <v>94139640</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23053341</v>
+        <v>22940181</v>
       </c>
       <c r="E193" t="n">
-        <v>137932776</v>
+        <v>137255712</v>
       </c>
       <c r="F193" t="n">
-        <v>61688.68870290023</v>
+        <v>34627.72756769854</v>
       </c>
       <c r="G193" t="n">
-        <v>73941.3127922475</v>
+        <v>81214.14687069664</v>
       </c>
       <c r="H193" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>18277233</v>
+        <v>18394159</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13319126</v>
+        <v>13321753</v>
       </c>
       <c r="E194" t="n">
-        <v>40254095</v>
+        <v>40262036</v>
       </c>
       <c r="F194" t="n">
-        <v>616.931085692582</v>
+        <v>623.7923495726009</v>
       </c>
       <c r="G194" t="n">
-        <v>1334.842896983278</v>
+        <v>1070.25325708906</v>
       </c>
       <c r="H194" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="I194" t="n">
-        <v>2432995</v>
+        <v>2443745</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52104071</v>
+        <v>52100007</v>
       </c>
       <c r="E195" t="n">
-        <v>89995059</v>
+        <v>89988038</v>
       </c>
       <c r="F195" t="n">
-        <v>8302.651750210711</v>
+        <v>14918.17472873104</v>
       </c>
       <c r="G195" t="n">
-        <v>8560.487110863671</v>
+        <v>8767.883672094638</v>
       </c>
       <c r="H195" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="I195" t="n">
-        <v>2278043</v>
+        <v>2247514</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4098792</v>
+        <v>4067654</v>
       </c>
       <c r="E196" t="n">
-        <v>4098792</v>
+        <v>4067654</v>
       </c>
       <c r="F196" t="n">
-        <v>252.7944501040454</v>
+        <v>14.27759441083484</v>
       </c>
       <c r="G196" t="n">
-        <v>21.03149613999645</v>
+        <v>21.03351895590444</v>
       </c>
       <c r="H196" t="n">
-        <v>2.14</v>
+        <v>0.68</v>
       </c>
       <c r="I196" t="n">
-        <v>1753469</v>
+        <v>1758701</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>186509</v>
+        <v>186735</v>
       </c>
       <c r="F197" t="n">
-        <v>404.5499418512528</v>
+        <v>568.6494457788268</v>
       </c>
       <c r="G197" t="n">
-        <v>4.856301833531023</v>
+        <v>4.856992633619</v>
       </c>
       <c r="H197" t="n">
-        <v>3.78</v>
+        <v>3.34</v>
       </c>
       <c r="I197" t="n">
-        <v>64423</v>
+        <v>65756</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6260427</v>
+        <v>6307976</v>
       </c>
       <c r="E198" t="n">
-        <v>32207993</v>
+        <v>32452619</v>
       </c>
       <c r="F198" t="n">
-        <v>209.5541619008229</v>
+        <v>161.163148863888</v>
       </c>
       <c r="G198" t="n">
-        <v>741.212384698336</v>
+        <v>838.9518986711755</v>
       </c>
       <c r="H198" t="n">
         <v>1.05</v>
       </c>
       <c r="I198" t="n">
-        <v>962371</v>
+        <v>966603</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>169076986</v>
+        <v>168481759</v>
       </c>
       <c r="E199" t="n">
-        <v>197531843</v>
+        <v>196836441</v>
       </c>
       <c r="F199" t="n">
-        <v>39779.20155388686</v>
+        <v>25712.42645692554</v>
       </c>
       <c r="G199" t="n">
-        <v>6062.856222977178</v>
+        <v>5418.022233272824</v>
       </c>
       <c r="H199" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="I199" t="n">
-        <v>7301322</v>
+        <v>7319470</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>298460</v>
+        <v>301006</v>
       </c>
       <c r="F200" t="n">
-        <v>26.58947279535993</v>
+        <v>6.900725271062416</v>
       </c>
       <c r="G200" t="n">
-        <v>202.1242846465846</v>
+        <v>14.28275173213268</v>
       </c>
       <c r="H200" t="n">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="I200" t="n">
-        <v>229536</v>
+        <v>254323</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7587503</v>
+        <v>7583537</v>
       </c>
       <c r="F201" t="n">
-        <v>942.9154694292938</v>
+        <v>922.5007965476881</v>
       </c>
       <c r="G201" t="n">
-        <v>550.0869199354596</v>
+        <v>545.1599773957092</v>
       </c>
       <c r="H201" t="n">
         <v>0.11</v>
       </c>
       <c r="I201" t="n">
-        <v>656640</v>
+        <v>650064</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33958</v>
+        <v>33999</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>90.69</v>
+        <v>90.86</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32287575</v>
+        <v>32448946</v>
       </c>
       <c r="E203" t="n">
-        <v>161129885</v>
+        <v>161935199</v>
       </c>
       <c r="F203" t="n">
-        <v>145692.8938883048</v>
+        <v>87880.3971024334</v>
       </c>
       <c r="G203" t="n">
-        <v>106939.5180075089</v>
+        <v>116774.8680235699</v>
       </c>
       <c r="H203" t="n">
         <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>14197448</v>
+        <v>14445101</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1920021</v>
+        <v>1913620</v>
       </c>
       <c r="E204" t="n">
-        <v>1920021</v>
+        <v>1913620</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>21.53</v>
       </c>
       <c r="I204" t="n">
-        <v>5346.34</v>
+        <v>5363.38</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>152992</v>
+        <v>152965</v>
       </c>
       <c r="F205" t="n">
-        <v>4.59510392809088</v>
+        <v>24.76431643385614</v>
       </c>
       <c r="G205" t="n">
-        <v>63.46457286402464</v>
+        <v>18.24090331984595</v>
       </c>
       <c r="H205" t="n">
-        <v>1.9</v>
+        <v>3.12</v>
       </c>
       <c r="I205" t="n">
-        <v>31068</v>
+        <v>30366</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3083.51</v>
+        <v>3086.17</v>
       </c>
       <c r="E206" t="n">
-        <v>36855</v>
+        <v>36886</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>6.99</v>
       </c>
       <c r="I206" t="n">
-        <v>3808.69</v>
+        <v>3814.6</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>287874264</v>
+        <v>283050649</v>
       </c>
       <c r="E208" t="n">
-        <v>532633037</v>
+        <v>523708249</v>
       </c>
       <c r="F208" t="n">
-        <v>82621.29701199589</v>
+        <v>28401.62083066322</v>
       </c>
       <c r="G208" t="n">
-        <v>89382.27291278794</v>
+        <v>23608.80913888193</v>
       </c>
       <c r="H208" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>18573256</v>
+        <v>21297886</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>69133108</v>
+        <v>69585528</v>
       </c>
       <c r="E209" t="n">
-        <v>659389435</v>
+        <v>663701152</v>
       </c>
       <c r="F209" t="n">
-        <v>294485.6937173915</v>
+        <v>225844.8974741757</v>
       </c>
       <c r="G209" t="n">
-        <v>259407.8517854265</v>
+        <v>279091.0078287853</v>
       </c>
       <c r="H209" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I209" t="n">
-        <v>24016933</v>
+        <v>23872860</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2228388</v>
+        <v>2246306</v>
       </c>
       <c r="F210" t="n">
-        <v>687.9706041778844</v>
+        <v>999.6176988312216</v>
       </c>
       <c r="G210" t="n">
-        <v>147.6326078574584</v>
+        <v>429.1613792286476</v>
       </c>
       <c r="H210" t="n">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="I210" t="n">
-        <v>44574</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>191517</v>
+        <v>92628</v>
       </c>
       <c r="E211" t="n">
-        <v>1592123</v>
+        <v>770036</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>0.52610144888864</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>13.68121011839366</v>
       </c>
       <c r="H211" t="n">
-        <v>5.13</v>
+        <v>3.7</v>
       </c>
       <c r="I211" t="n">
-        <v>29563</v>
+        <v>55006</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1834078</v>
+        <v>1831881</v>
       </c>
       <c r="E212" t="n">
-        <v>5237892</v>
+        <v>5231617</v>
       </c>
       <c r="F212" t="n">
-        <v>1977.125488792388</v>
+        <v>89.23883607008612</v>
       </c>
       <c r="G212" t="n">
-        <v>332.5692876019366</v>
+        <v>917.4709010570098</v>
       </c>
       <c r="H212" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I212" t="n">
-        <v>72697</v>
+        <v>72371</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9180025</v>
+        <v>9043561</v>
       </c>
       <c r="E213" t="n">
-        <v>27214537</v>
+        <v>26809984</v>
       </c>
       <c r="F213" t="n">
-        <v>1278.44469263546</v>
+        <v>2045.022755737143</v>
       </c>
       <c r="G213" t="n">
-        <v>1571.801497885196</v>
+        <v>1997.126738434231</v>
       </c>
       <c r="H213" t="n">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="I213" t="n">
-        <v>6551523</v>
+        <v>6593256</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14535124</v>
+        <v>15056466</v>
       </c>
       <c r="F214" t="n">
-        <v>201.4812097335003</v>
+        <v>190.988480704661</v>
       </c>
       <c r="G214" t="n">
-        <v>101.1792676563486</v>
+        <v>92.8599803730115</v>
       </c>
       <c r="H214" t="n">
-        <v>1.1</v>
+        <v>1.92</v>
       </c>
       <c r="I214" t="n">
-        <v>409.48</v>
+        <v>426.81</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1939378</v>
+        <v>1941603</v>
       </c>
       <c r="E215" t="n">
-        <v>5610138</v>
+        <v>5616574</v>
       </c>
       <c r="F215" t="n">
-        <v>127.2547607230455</v>
+        <v>125.7447254236224</v>
       </c>
       <c r="G215" t="n">
-        <v>63.47624364847186</v>
+        <v>63.53016143415758</v>
       </c>
       <c r="H215" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="I215" t="n">
-        <v>45059</v>
+        <v>54232</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2169621</v>
+        <v>2187839</v>
       </c>
       <c r="E216" t="n">
-        <v>19137496</v>
+        <v>19298189</v>
       </c>
       <c r="F216" t="n">
-        <v>2058.785074006144</v>
+        <v>2021.79802951753</v>
       </c>
       <c r="G216" t="n">
-        <v>1373.865117767712</v>
+        <v>1443.638617546995</v>
       </c>
       <c r="H216" t="n">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="I216" t="n">
-        <v>85676</v>
+        <v>86387</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43372119</v>
+        <v>43347726</v>
       </c>
       <c r="E217" t="n">
-        <v>43372119</v>
+        <v>43347726</v>
       </c>
       <c r="F217" t="n">
-        <v>33697.14088879832</v>
+        <v>35682.54633045823</v>
       </c>
       <c r="G217" t="n">
-        <v>40442.88058828377</v>
+        <v>44754.43472872226</v>
       </c>
       <c r="H217" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I217" t="n">
-        <v>12001190</v>
+        <v>11692806</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8263760</v>
+        <v>8279559</v>
       </c>
       <c r="E218" t="n">
-        <v>11773965</v>
+        <v>11796474</v>
       </c>
       <c r="F218" t="n">
-        <v>2132.920807963402</v>
+        <v>2130.523148928421</v>
       </c>
       <c r="G218" t="n">
-        <v>1356.63456050493</v>
+        <v>2192.690838058232</v>
       </c>
       <c r="H218" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="I218" t="n">
-        <v>309623</v>
+        <v>293510</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15703367</v>
+        <v>15863347</v>
       </c>
       <c r="F219" t="n">
-        <v>2.122363631745776</v>
+        <v>2.122651458455062</v>
       </c>
       <c r="G219" t="n">
-        <v>412.702397934461</v>
+        <v>412.723535005592</v>
       </c>
       <c r="H219" t="n">
         <v>0.54</v>
       </c>
       <c r="I219" t="n">
-        <v>1106925</v>
+        <v>1114669</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>717470</v>
+        <v>715973</v>
       </c>
       <c r="F220" t="n">
-        <v>59.06443808319024</v>
+        <v>84.1361873727287</v>
       </c>
       <c r="G220" t="n">
-        <v>258.1829788851468</v>
+        <v>258.1488794132907</v>
       </c>
       <c r="H220" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>194115</v>
+        <v>180135</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2615785</v>
+        <v>2624397</v>
       </c>
       <c r="E221" t="n">
-        <v>2618050</v>
+        <v>2626670</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>5.54</v>
+        <v>4.3</v>
       </c>
       <c r="I221" t="n">
-        <v>105410</v>
+        <v>103972</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1312929</v>
+        <v>1305993</v>
       </c>
       <c r="E222" t="n">
-        <v>3973410</v>
+        <v>3951748</v>
       </c>
       <c r="F222" t="n">
-        <v>278.1355172188609</v>
+        <v>278.1750811691707</v>
       </c>
       <c r="G222" t="n">
-        <v>425.421581572462</v>
+        <v>452.476061130385</v>
       </c>
       <c r="H222" t="n">
         <v>2.01</v>
       </c>
       <c r="I222" t="n">
-        <v>37820</v>
+        <v>46694</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33582789</v>
+        <v>33618913</v>
       </c>
       <c r="E223" t="n">
-        <v>238096495</v>
+        <v>238352610</v>
       </c>
       <c r="F223" t="n">
-        <v>26685.34769968389</v>
+        <v>37150.30190068326</v>
       </c>
       <c r="G223" t="n">
-        <v>37512.69353051129</v>
+        <v>1718.138503758297</v>
       </c>
       <c r="H223" t="n">
-        <v>0.08</v>
+        <v>1.15</v>
       </c>
       <c r="I223" t="n">
-        <v>6363674</v>
+        <v>6398631</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>54871</v>
+        <v>54548</v>
       </c>
       <c r="E224" t="n">
-        <v>286292</v>
+        <v>284608</v>
       </c>
       <c r="F224" t="n">
-        <v>12.66323636935139</v>
+        <v>17.44107377617206</v>
       </c>
       <c r="G224" t="n">
-        <v>141.8169215656114</v>
+        <v>149.1061967794559</v>
       </c>
       <c r="H224" t="n">
-        <v>0.91</v>
+        <v>1.33</v>
       </c>
       <c r="I224" t="n">
-        <v>205542</v>
+        <v>201391</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1258693</v>
+        <v>1244915</v>
       </c>
       <c r="E225" t="n">
-        <v>7804014</v>
+        <v>7718587</v>
       </c>
       <c r="F225" t="n">
-        <v>962.352835074206</v>
+        <v>907.506926396131</v>
       </c>
       <c r="G225" t="n">
-        <v>1554.166631207706</v>
+        <v>840.2821049000844</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I225" t="n">
-        <v>772663</v>
+        <v>773289</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>577581156</v>
+        <v>578423029</v>
       </c>
       <c r="E226" t="n">
-        <v>2236886601</v>
+        <v>2240147051</v>
       </c>
       <c r="F226" t="n">
-        <v>210504.5363868705</v>
+        <v>147495.9796804853</v>
       </c>
       <c r="G226" t="n">
-        <v>228634.9141083128</v>
+        <v>326629.4384664791</v>
       </c>
       <c r="H226" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>61750359</v>
+        <v>62412116</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20933542</v>
+        <v>20928023</v>
       </c>
       <c r="F227" t="n">
-        <v>980.860653593381</v>
+        <v>1037.379336174158</v>
       </c>
       <c r="G227" t="n">
-        <v>2482.717927760822</v>
+        <v>2553.924175441675</v>
       </c>
       <c r="H227" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I227" t="n">
-        <v>19384494</v>
+        <v>19841362</v>
       </c>
     </row>
     <row r="228">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>757949</v>
+        <v>763441</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>5.12</v>
+        <v>5.01</v>
       </c>
       <c r="I228" t="n">
-        <v>142590</v>
+        <v>143439</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5474346</v>
+        <v>5486377</v>
       </c>
       <c r="E229" t="n">
-        <v>24504450</v>
+        <v>24558303</v>
       </c>
       <c r="F229" t="n">
-        <v>531.2474348153445</v>
+        <v>796.609857127799</v>
       </c>
       <c r="G229" t="n">
-        <v>779.7334860702507</v>
+        <v>605.7900121358153</v>
       </c>
       <c r="H229" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I229" t="n">
-        <v>193109</v>
+        <v>191918</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6469870</v>
+        <v>6463867</v>
       </c>
       <c r="E230" t="n">
-        <v>12387091</v>
+        <v>12375597</v>
       </c>
       <c r="F230" t="n">
-        <v>126.8288959070936</v>
+        <v>126.4644599469576</v>
       </c>
       <c r="G230" t="n">
-        <v>102.9432228745931</v>
+        <v>104.4740212201481</v>
       </c>
       <c r="H230" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>32438</v>
+        <v>33029</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3180335</v>
+        <v>3183989</v>
       </c>
       <c r="E231" t="n">
-        <v>20913142</v>
+        <v>20937171</v>
       </c>
       <c r="F231" t="n">
-        <v>168.0115776344618</v>
+        <v>142.7819878026221</v>
       </c>
       <c r="G231" t="n">
-        <v>254.0392043083245</v>
+        <v>224.1281688234401</v>
       </c>
       <c r="H231" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="I231" t="n">
-        <v>1633379</v>
+        <v>1652024</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>108668687</v>
+        <v>109230563</v>
       </c>
       <c r="E232" t="n">
-        <v>1028789614</v>
+        <v>1034109019</v>
       </c>
       <c r="F232" t="n">
-        <v>17714.70594922412</v>
+        <v>63363.43247657646</v>
       </c>
       <c r="G232" t="n">
-        <v>20135.31821827022</v>
+        <v>25767.47211618556</v>
       </c>
       <c r="H232" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="I232" t="n">
-        <v>17160444</v>
+        <v>17635754</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>349.4</v>
+        <v>308.1</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>101536253</v>
+        <v>100028130</v>
       </c>
       <c r="E234" t="n">
-        <v>154895934</v>
+        <v>152595257</v>
       </c>
       <c r="F234" t="n">
-        <v>9451.002935027194</v>
+        <v>32810.93568956257</v>
       </c>
       <c r="G234" t="n">
-        <v>32349.26593066542</v>
+        <v>29682.56952250545</v>
       </c>
       <c r="H234" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I234" t="n">
-        <v>13230258</v>
+        <v>13419098</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15501819</v>
+        <v>15533363</v>
       </c>
       <c r="E235" t="n">
-        <v>21267153</v>
+        <v>21310429</v>
       </c>
       <c r="F235" t="n">
-        <v>1226.544900589623</v>
+        <v>1052.839293653233</v>
       </c>
       <c r="G235" t="n">
-        <v>3527.085436578676</v>
+        <v>1870.46719883597</v>
       </c>
       <c r="H235" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="I235" t="n">
-        <v>940639</v>
+        <v>957334</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>121117275</v>
+        <v>120120831</v>
       </c>
       <c r="E236" t="n">
-        <v>464625362</v>
+        <v>460802843</v>
       </c>
       <c r="F236" t="n">
-        <v>426769.4058130221</v>
+        <v>342314.4291660946</v>
       </c>
       <c r="G236" t="n">
-        <v>351899.4959653542</v>
+        <v>431341.8971834416</v>
       </c>
       <c r="H236" t="n">
         <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>37284434</v>
+        <v>33456682</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>639651</v>
+        <v>637028</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>438.1197430236587</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>99.10770249215514</v>
       </c>
       <c r="H237" t="n">
-        <v>4.32</v>
+        <v>3.84</v>
       </c>
       <c r="I237" t="n">
-        <v>41064</v>
+        <v>41338</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>758767</v>
+        <v>769518</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>102.3019172267466</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>105.5661636706939</v>
       </c>
       <c r="H238" t="n">
-        <v>6.04</v>
+        <v>2.02</v>
       </c>
       <c r="I238" t="n">
-        <v>278657</v>
+        <v>284256</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3066820</v>
+        <v>3083372</v>
       </c>
       <c r="E239" t="n">
-        <v>29058574</v>
+        <v>29215405</v>
       </c>
       <c r="F239" t="n">
-        <v>1030.789485511516</v>
+        <v>887.9069407542263</v>
       </c>
       <c r="G239" t="n">
-        <v>1235.672095908556</v>
+        <v>1722.504479336336</v>
       </c>
       <c r="H239" t="n">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="I239" t="n">
-        <v>220850</v>
+        <v>222022</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>725126</v>
+        <v>724389</v>
       </c>
       <c r="E240" t="n">
-        <v>775155</v>
+        <v>774367</v>
       </c>
       <c r="F240" t="n">
-        <v>25.39024550133105</v>
+        <v>197.1191850478201</v>
       </c>
       <c r="G240" t="n">
-        <v>777.8566216540211</v>
+        <v>787.8360017182262</v>
       </c>
       <c r="H240" t="n">
-        <v>2.63</v>
+        <v>3.26</v>
       </c>
       <c r="I240" t="n">
-        <v>129471</v>
+        <v>126226</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383618</v>
+        <v>384044</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.4</v>
+        <v>12.18</v>
       </c>
       <c r="I241" t="n">
-        <v>698.42</v>
+        <v>699.6799999999999</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>130031</v>
+        <v>129155</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>8.276941096929322</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>1.252930240173945</v>
       </c>
       <c r="H242" t="n">
-        <v>4.44</v>
+        <v>3.73</v>
       </c>
       <c r="I242" t="n">
-        <v>64186</v>
+        <v>62675</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>559060</v>
+        <v>596794</v>
       </c>
       <c r="F243" t="n">
-        <v>72.35952238136184</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>133.6937266447628</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>3.09</v>
+        <v>10.91</v>
       </c>
       <c r="I243" t="n">
-        <v>8109.1</v>
+        <v>8786.85</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6579761</v>
+        <v>6548093</v>
       </c>
       <c r="E244" t="n">
-        <v>41121625</v>
+        <v>40923704</v>
       </c>
       <c r="F244" t="n">
-        <v>45.92648719497165</v>
+        <v>60.95938834460123</v>
       </c>
       <c r="G244" t="n">
-        <v>500.1725568046662</v>
+        <v>141.9071918232844</v>
       </c>
       <c r="H244" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="I244" t="n">
-        <v>345195</v>
+        <v>418406</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5151505</v>
+        <v>5096972</v>
       </c>
       <c r="E245" t="n">
-        <v>19143088</v>
+        <v>18940445</v>
       </c>
       <c r="F245" t="n">
-        <v>915.4890250536013</v>
+        <v>928.4019221700242</v>
       </c>
       <c r="G245" t="n">
-        <v>852.5424635909063</v>
+        <v>852.6637362030792</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>145078</v>
+        <v>97140</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3594691</v>
+        <v>3597793</v>
       </c>
       <c r="F246" t="n">
-        <v>215.4300689033686</v>
+        <v>215.4607134381716</v>
       </c>
       <c r="G246" t="n">
-        <v>5904.161991387792</v>
+        <v>5905.001847674096</v>
       </c>
       <c r="H246" t="n">
         <v>1.58</v>
       </c>
       <c r="I246" t="n">
-        <v>30099</v>
+        <v>29105</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>44116407</v>
+        <v>43865768</v>
       </c>
       <c r="E247" t="n">
-        <v>158129097</v>
+        <v>157230716</v>
       </c>
       <c r="F247" t="n">
-        <v>63.39917484616935</v>
+        <v>44.36780690574007</v>
       </c>
       <c r="G247" t="n">
-        <v>1933.721314136489</v>
+        <v>1794.687203504861</v>
       </c>
       <c r="H247" t="n">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="I247" t="n">
-        <v>178034</v>
+        <v>178646</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1498476</v>
+        <v>1511083</v>
       </c>
       <c r="F248" t="n">
-        <v>5.36597237653171</v>
+        <v>6.236235852173104</v>
       </c>
       <c r="G248" t="n">
-        <v>18.68987971482059</v>
+        <v>18.18195849852295</v>
       </c>
       <c r="H248" t="n">
-        <v>3.87</v>
+        <v>3.21</v>
       </c>
       <c r="I248" t="n">
-        <v>595850</v>
+        <v>597285</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2097601</v>
+        <v>2102914</v>
       </c>
       <c r="E249" t="n">
-        <v>16134152</v>
+        <v>16175015</v>
       </c>
       <c r="F249" t="n">
-        <v>19.9852568580846</v>
+        <v>82.95069774587782</v>
       </c>
       <c r="G249" t="n">
-        <v>131.261432958201</v>
+        <v>402.7033753925214</v>
       </c>
       <c r="H249" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I249" t="n">
-        <v>207854</v>
+        <v>165490</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103259</v>
+        <v>103370</v>
       </c>
       <c r="E250" t="n">
-        <v>820188</v>
+        <v>821069</v>
       </c>
       <c r="F250" t="n">
-        <v>158.1469425317466</v>
+        <v>158.169438464084</v>
       </c>
       <c r="G250" t="n">
-        <v>346.9395315495382</v>
+        <v>346.9888826663031</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>42.33</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>89436357</v>
+        <v>90918729</v>
       </c>
       <c r="E251" t="n">
-        <v>330591394</v>
+        <v>336070243</v>
       </c>
       <c r="F251" t="n">
-        <v>673.295271504189</v>
+        <v>965.0799868497521</v>
       </c>
       <c r="G251" t="n">
-        <v>5379.213854756097</v>
+        <v>6614.20693760082</v>
       </c>
       <c r="H251" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I251" t="n">
-        <v>282451</v>
+        <v>310039</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2270938</v>
+        <v>2272802</v>
       </c>
       <c r="E252" t="n">
-        <v>9103845</v>
+        <v>9111317</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>6.16</v>
+        <v>5.99</v>
       </c>
       <c r="I252" t="n">
-        <v>8839.17</v>
+        <v>8996.9</v>
       </c>
     </row>
     <row r="253">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>548946</v>
+        <v>550775</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="I253" t="n">
-        <v>2687</v>
+        <v>2610.58</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37953</v>
+        <v>37199</v>
       </c>
       <c r="F254" t="n">
-        <v>95.33411894636311</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>1.028644230535041</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3.31</v>
+        <v>5.12</v>
       </c>
       <c r="I254" t="n">
-        <v>370.32</v>
+        <v>1044.58</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>750678237</v>
+        <v>737417339</v>
       </c>
       <c r="E255" t="n">
-        <v>1157612120</v>
+        <v>1137162645</v>
       </c>
       <c r="F255" t="n">
-        <v>59867.42153318555</v>
+        <v>62103.22352578073</v>
       </c>
       <c r="G255" t="n">
-        <v>97112.71590893574</v>
+        <v>93084.53304560752</v>
       </c>
       <c r="H255" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I255" t="n">
-        <v>269961035</v>
+        <v>273886148</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>9240776</v>
+        <v>7440784</v>
       </c>
       <c r="E256" t="n">
-        <v>9240776</v>
+        <v>7440784</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>42.2526266135954</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>131.6504506196885</v>
       </c>
       <c r="H256" t="n">
-        <v>14.12</v>
+        <v>0.41</v>
       </c>
       <c r="I256" t="n">
-        <v>62208</v>
+        <v>64726</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39800357</v>
+        <v>39885587</v>
       </c>
       <c r="E257" t="n">
-        <v>189800405</v>
+        <v>190206337</v>
       </c>
       <c r="F257" t="n">
-        <v>712.0364609419157</v>
+        <v>709.5599957480811</v>
       </c>
       <c r="G257" t="n">
-        <v>257.870959183997</v>
+        <v>370.4807569869533</v>
       </c>
       <c r="H257" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I257" t="n">
-        <v>270700</v>
+        <v>269390</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>592148</v>
+        <v>593355</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>7.93</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>219.26</v>
+        <v>219.88</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>22513592</v>
+        <v>22475254</v>
       </c>
       <c r="E259" t="n">
-        <v>37522653</v>
+        <v>37458757</v>
       </c>
       <c r="F259" t="n">
-        <v>3362.930789921623</v>
+        <v>2302.027636409978</v>
       </c>
       <c r="G259" t="n">
-        <v>8.414974873512246</v>
+        <v>464.1543647102541</v>
       </c>
       <c r="H259" t="n">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="I259" t="n">
-        <v>1102471</v>
+        <v>1104371</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>108012</v>
+        <v>107837</v>
       </c>
       <c r="F260" t="n">
-        <v>230.7807345431101</v>
+        <v>230.7883515522787</v>
       </c>
       <c r="G260" t="n">
-        <v>108.1984597280726</v>
+        <v>108.2020308609118</v>
       </c>
       <c r="H260" t="n">
         <v>0.02</v>
       </c>
       <c r="I260" t="n">
-        <v>54602</v>
+        <v>54434</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1255335</v>
+        <v>1257838</v>
       </c>
       <c r="E261" t="n">
-        <v>5345533</v>
+        <v>5356192</v>
       </c>
       <c r="F261" t="n">
-        <v>24.212397046423</v>
+        <v>25.42615365359409</v>
       </c>
       <c r="G261" t="n">
-        <v>369.7188762199838</v>
+        <v>354.2397935675369</v>
       </c>
       <c r="H261" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I261" t="n">
-        <v>860443</v>
+        <v>862181</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3794882</v>
+        <v>3808401</v>
       </c>
       <c r="E262" t="n">
-        <v>8272311</v>
+        <v>8301781</v>
       </c>
       <c r="F262" t="n">
-        <v>1847.454969070399</v>
+        <v>1850.932401901153</v>
       </c>
       <c r="G262" t="n">
-        <v>1599.912747663544</v>
+        <v>1493.379488209476</v>
       </c>
       <c r="H262" t="n">
         <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>2070833</v>
+        <v>2088693</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>469423662</v>
+        <v>467785611</v>
       </c>
       <c r="E263" t="n">
-        <v>1634024699</v>
+        <v>1628322780</v>
       </c>
       <c r="F263" t="n">
-        <v>552602.0530199712</v>
+        <v>246244.1005605567</v>
       </c>
       <c r="G263" t="n">
-        <v>505518.097469853</v>
+        <v>384443.641728538</v>
       </c>
       <c r="H263" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>47778451</v>
+        <v>47796945</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5510617273</v>
+        <v>5531886095</v>
       </c>
       <c r="E264" t="n">
-        <v>5510617273</v>
+        <v>5531886095</v>
       </c>
       <c r="F264" t="n">
-        <v>1304.651180262717</v>
+        <v>1045.896767907743</v>
       </c>
       <c r="G264" t="n">
-        <v>597.7633489492722</v>
+        <v>862.2714450646462</v>
       </c>
       <c r="H264" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="I264" t="n">
-        <v>35561631</v>
+        <v>34859878</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22308252</v>
+        <v>22265423</v>
       </c>
       <c r="E265" t="n">
-        <v>22288875</v>
+        <v>22246083</v>
       </c>
       <c r="F265" t="n">
-        <v>417.0707733304178</v>
+        <v>507.5332308240576</v>
       </c>
       <c r="G265" t="n">
-        <v>1287.623300439689</v>
+        <v>645.5427614144786</v>
       </c>
       <c r="H265" t="n">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>409490</v>
+        <v>410212</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11984697</v>
+        <v>11934686</v>
       </c>
       <c r="E266" t="n">
-        <v>24189169</v>
+        <v>24084598</v>
       </c>
       <c r="F266" t="n">
-        <v>793.3090510886728</v>
+        <v>697.7338894621425</v>
       </c>
       <c r="G266" t="n">
-        <v>721.996133392776</v>
+        <v>855.2883447079598</v>
       </c>
       <c r="H266" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I266" t="n">
-        <v>58561</v>
+        <v>54453</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>142684</v>
+        <v>143535</v>
       </c>
       <c r="F267" t="n">
-        <v>163.1775810756419</v>
+        <v>163.1829668160661</v>
       </c>
       <c r="G267" t="n">
-        <v>116.1494535393918</v>
+        <v>116.1532870979177</v>
       </c>
       <c r="H267" t="n">
         <v>0.79</v>
       </c>
       <c r="I267" t="n">
-        <v>53787</v>
+        <v>54571</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>45644</v>
+        <v>45698</v>
       </c>
       <c r="F268" t="n">
-        <v>82.19956094024276</v>
+        <v>63.79719160663522</v>
       </c>
       <c r="G268" t="n">
-        <v>148.0421977907</v>
+        <v>6.301609408157358</v>
       </c>
       <c r="H268" t="n">
         <v>1.09</v>
       </c>
       <c r="I268" t="n">
-        <v>68631</v>
+        <v>68768</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2313228</v>
+        <v>2321989</v>
       </c>
       <c r="E269" t="n">
-        <v>9252913</v>
+        <v>9287957</v>
       </c>
       <c r="F269" t="n">
-        <v>32215.70710056774</v>
+        <v>36894.52934248929</v>
       </c>
       <c r="G269" t="n">
-        <v>50322.35391475323</v>
+        <v>31329.94111216486</v>
       </c>
       <c r="H269" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="I269" t="n">
-        <v>7762078</v>
+        <v>7702470</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>210605962</v>
+        <v>210515112</v>
       </c>
       <c r="E270" t="n">
-        <v>647534079</v>
+        <v>647254746</v>
       </c>
       <c r="F270" t="n">
-        <v>167492.7217723693</v>
+        <v>176295.9650520337</v>
       </c>
       <c r="G270" t="n">
-        <v>192252.412593593</v>
+        <v>192480.985130809</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>22951722</v>
+        <v>23003250</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>135567558</v>
+        <v>135951145</v>
       </c>
       <c r="E271" t="n">
-        <v>354166485</v>
+        <v>355168594</v>
       </c>
       <c r="F271" t="n">
-        <v>64076.32489686317</v>
+        <v>60641.27705932178</v>
       </c>
       <c r="G271" t="n">
-        <v>47589.17960826791</v>
+        <v>61552.91807625556</v>
       </c>
       <c r="H271" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I271" t="n">
-        <v>8384044</v>
+        <v>8319811</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2326190</v>
+        <v>2326916</v>
       </c>
       <c r="E272" t="n">
-        <v>3192592</v>
+        <v>3193632</v>
       </c>
       <c r="F272" t="n">
-        <v>124.9202108153374</v>
+        <v>266.6296667200903</v>
       </c>
       <c r="G272" t="n">
-        <v>32.27494528116151</v>
+        <v>26.25136066448226</v>
       </c>
       <c r="H272" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="I272" t="n">
-        <v>968184</v>
+        <v>971284</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54568</v>
+        <v>54576</v>
       </c>
       <c r="F2" t="n">
-        <v>1.864717650294255</v>
+        <v>1.864735076403077</v>
       </c>
       <c r="G2" t="n">
-        <v>9.051623152439365</v>
+        <v>9.051707741422605</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>348.79</v>
+        <v>348.89</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>94252</v>
+        <v>94248</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>427.15</v>
+        <v>412.73</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>587953168</v>
+        <v>591375570</v>
       </c>
       <c r="E4" t="n">
-        <v>1141067602</v>
+        <v>1147709613</v>
       </c>
       <c r="F4" t="n">
-        <v>17871.87957222846</v>
+        <v>18684.95589895324</v>
       </c>
       <c r="G4" t="n">
-        <v>23396.91950475074</v>
+        <v>22723.65669103936</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>47441950</v>
+        <v>47559569</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1415502</v>
+        <v>1414961</v>
       </c>
       <c r="E5" t="n">
-        <v>4575483</v>
+        <v>4573736</v>
       </c>
       <c r="F5" t="n">
-        <v>154.194907160814</v>
+        <v>175.7880191488324</v>
       </c>
       <c r="G5" t="n">
-        <v>4192.091490411885</v>
+        <v>4185.605714484561</v>
       </c>
       <c r="H5" t="n">
         <v>0.43</v>
       </c>
       <c r="I5" t="n">
-        <v>228800</v>
+        <v>229207</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140098388</v>
+        <v>140156167</v>
       </c>
       <c r="E6" t="n">
-        <v>155250908</v>
+        <v>155314937</v>
       </c>
       <c r="F6" t="n">
-        <v>155002.3960789166</v>
+        <v>190297.374927676</v>
       </c>
       <c r="G6" t="n">
-        <v>303201.2222243181</v>
+        <v>223943.839413966</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>53874421</v>
+        <v>53689514</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3820.21</v>
+        <v>3818.59</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.92</v>
+        <v>153.89</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8338147</v>
+        <v>8333746</v>
       </c>
       <c r="E8" t="n">
-        <v>8548405</v>
+        <v>8543892</v>
       </c>
       <c r="F8" t="n">
-        <v>2.12221063065184</v>
+        <v>1453.827065758701</v>
       </c>
       <c r="G8" t="n">
-        <v>957.8236185791631</v>
+        <v>955.1092871797857</v>
       </c>
       <c r="H8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="I8" t="n">
-        <v>63142</v>
+        <v>61681</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>304889</v>
+        <v>304682</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.87</v>
+        <v>4.62</v>
       </c>
       <c r="I9" t="n">
-        <v>743.96</v>
+        <v>743.8099999999999</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4978544</v>
+        <v>4964127</v>
       </c>
       <c r="E10" t="n">
-        <v>7954217</v>
+        <v>7931183</v>
       </c>
       <c r="F10" t="n">
-        <v>246.7372837088148</v>
+        <v>490.5724001064703</v>
       </c>
       <c r="G10" t="n">
-        <v>406.8180063190698</v>
+        <v>406.9580989405958</v>
       </c>
       <c r="H10" t="n">
-        <v>0.59</v>
+        <v>0.08</v>
       </c>
       <c r="I10" t="n">
-        <v>98717</v>
+        <v>96411</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>997005</v>
+        <v>996686</v>
       </c>
       <c r="E11" t="n">
-        <v>12200651</v>
+        <v>12196748</v>
       </c>
       <c r="F11" t="n">
-        <v>1571.391918431668</v>
+        <v>1569.762041162205</v>
       </c>
       <c r="G11" t="n">
-        <v>1360.795236175448</v>
+        <v>1351.047967305887</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>591.13</v>
+        <v>591.16</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>555747</v>
+        <v>555257</v>
       </c>
       <c r="E12" t="n">
-        <v>555747</v>
+        <v>555257</v>
       </c>
       <c r="F12" t="n">
-        <v>62.1063846259409</v>
+        <v>130.2892342707505</v>
       </c>
       <c r="G12" t="n">
-        <v>36.51191610068436</v>
+        <v>47.04166962971532</v>
       </c>
       <c r="H12" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="I12" t="n">
-        <v>19813.3</v>
+        <v>20343</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4358662</v>
+        <v>4347979</v>
       </c>
       <c r="E13" t="n">
-        <v>26761524</v>
+        <v>26695935</v>
       </c>
       <c r="F13" t="n">
-        <v>375.331087125946</v>
+        <v>299.0157149103852</v>
       </c>
       <c r="G13" t="n">
-        <v>988.3097541102105</v>
+        <v>1166.177188081626</v>
       </c>
       <c r="H13" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="I13" t="n">
-        <v>573387</v>
+        <v>561799</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>195690</v>
+        <v>196221</v>
       </c>
       <c r="E14" t="n">
-        <v>2152801</v>
+        <v>2158646</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>41.48924911856261</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>4.017150097912445</v>
       </c>
       <c r="H14" t="n">
-        <v>8.44</v>
+        <v>3.56</v>
       </c>
       <c r="I14" t="n">
-        <v>35773</v>
+        <v>35776</v>
       </c>
     </row>
     <row r="15">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3190638</v>
+        <v>3185809</v>
       </c>
       <c r="E15" t="n">
-        <v>9077084</v>
+        <v>9063344</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5.88</v>
+        <v>4.45</v>
       </c>
       <c r="I15" t="n">
-        <v>109889</v>
+        <v>108621</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>306642</v>
+        <v>306490</v>
       </c>
       <c r="E16" t="n">
-        <v>3539011</v>
+        <v>3537258</v>
       </c>
       <c r="F16" t="n">
-        <v>138.5121310640023</v>
+        <v>138.5647895278371</v>
       </c>
       <c r="G16" t="n">
-        <v>131.2541934329217</v>
+        <v>130.4817543842188</v>
       </c>
       <c r="H16" t="n">
         <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>917.17</v>
+        <v>917.11</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>944244</v>
+        <v>942061</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>46.17156710028654</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18.00487174266005</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3.74</v>
       </c>
       <c r="I17" t="n">
-        <v>10761.42</v>
+        <v>10834.04</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23897775</v>
+        <v>23997720</v>
       </c>
       <c r="E18" t="n">
-        <v>23941854</v>
+        <v>24041982</v>
       </c>
       <c r="F18" t="n">
-        <v>1670.026413021961</v>
+        <v>1471.322368854795</v>
       </c>
       <c r="G18" t="n">
-        <v>2022.827321417529</v>
+        <v>1345.498209545542</v>
       </c>
       <c r="H18" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I18" t="n">
-        <v>870739</v>
+        <v>871382</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6664354</v>
+        <v>6873016</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>5.12</v>
       </c>
       <c r="I19" t="n">
-        <v>21644</v>
+        <v>19660.78</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2352206</v>
+        <v>2352955</v>
       </c>
       <c r="E20" t="n">
-        <v>2352206</v>
+        <v>2352955</v>
       </c>
       <c r="F20" t="n">
-        <v>54.23165002994105</v>
+        <v>224.5204675576561</v>
       </c>
       <c r="G20" t="n">
-        <v>24.48033088968885</v>
+        <v>71.7080556636427</v>
       </c>
       <c r="H20" t="n">
-        <v>3.48</v>
+        <v>2.29</v>
       </c>
       <c r="I20" t="n">
-        <v>312126</v>
+        <v>313321</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>340802</v>
+        <v>336997</v>
       </c>
       <c r="F21" t="n">
-        <v>13.52296482449831</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>55.15711966269065</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>5.11</v>
       </c>
       <c r="I21" t="n">
-        <v>9488.43</v>
+        <v>9735.98</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16207543</v>
+        <v>16258880</v>
       </c>
       <c r="E22" t="n">
-        <v>20860438</v>
+        <v>20926513</v>
       </c>
       <c r="F22" t="n">
-        <v>4397.379144016259</v>
+        <v>4356.758665801452</v>
       </c>
       <c r="G22" t="n">
-        <v>1103.749724781688</v>
+        <v>1187.824518364668</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I22" t="n">
-        <v>1904111</v>
+        <v>1881419</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>492958291</v>
+        <v>491536218</v>
       </c>
       <c r="E23" t="n">
-        <v>492958295</v>
+        <v>491536218</v>
       </c>
       <c r="F23" t="n">
-        <v>37163.91829842494</v>
+        <v>39411.41730609439</v>
       </c>
       <c r="G23" t="n">
-        <v>47923.81005443152</v>
+        <v>48861.95857021213</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>77378083</v>
+        <v>76533656</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18297.51</v>
+        <v>18288.13</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.62</v>
+        <v>6.78</v>
       </c>
       <c r="I24" t="n">
-        <v>2648.9</v>
+        <v>2649.73</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4544508</v>
+        <v>4546876</v>
       </c>
       <c r="E25" t="n">
-        <v>4544508</v>
+        <v>4546876</v>
       </c>
       <c r="F25" t="n">
-        <v>337.0053022629096</v>
+        <v>261.3029634133105</v>
       </c>
       <c r="G25" t="n">
-        <v>1564.80403374612</v>
+        <v>1200.944428070699</v>
       </c>
       <c r="H25" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="I25" t="n">
-        <v>2235437</v>
+        <v>2235508</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3174441</v>
+        <v>3203045</v>
       </c>
       <c r="E26" t="n">
-        <v>3174441</v>
+        <v>3203045</v>
       </c>
       <c r="F26" t="n">
-        <v>266.0660467932202</v>
+        <v>188.909135097723</v>
       </c>
       <c r="G26" t="n">
-        <v>310.5218809038279</v>
+        <v>1176.238983853791</v>
       </c>
       <c r="H26" t="n">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="I26" t="n">
-        <v>658070</v>
+        <v>666211</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>302595</v>
+        <v>301596</v>
       </c>
       <c r="E27" t="n">
-        <v>1412543</v>
+        <v>1407881</v>
       </c>
       <c r="F27" t="n">
-        <v>195.3203871832179</v>
+        <v>76.44092151978019</v>
       </c>
       <c r="G27" t="n">
-        <v>261.7518535064168</v>
+        <v>261.7479202615702</v>
       </c>
       <c r="H27" t="n">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="I27" t="n">
-        <v>679153</v>
+        <v>678591</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1718650</v>
+        <v>1697447</v>
       </c>
       <c r="F28" t="n">
-        <v>449.0708801346024</v>
+        <v>480.2977231376233</v>
       </c>
       <c r="G28" t="n">
-        <v>268.7080749846714</v>
+        <v>336.5897073161282</v>
       </c>
       <c r="H28" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="I28" t="n">
-        <v>1308467</v>
+        <v>1309523</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11933848</v>
+        <v>11902374</v>
       </c>
       <c r="E29" t="n">
-        <v>29701190</v>
+        <v>29622856</v>
       </c>
       <c r="F29" t="n">
-        <v>725.0428953740235</v>
+        <v>710.2360062327978</v>
       </c>
       <c r="G29" t="n">
-        <v>1379.293724794297</v>
+        <v>1588.23877143807</v>
       </c>
       <c r="H29" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I29" t="n">
-        <v>1509874</v>
+        <v>1506132</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>887867</v>
+        <v>886271</v>
       </c>
       <c r="E30" t="n">
-        <v>6215071</v>
+        <v>6203896</v>
       </c>
       <c r="F30" t="n">
-        <v>12.91390806536702</v>
+        <v>12.91402391080795</v>
       </c>
       <c r="G30" t="n">
-        <v>719.6411163905269</v>
+        <v>152.3030690126281</v>
       </c>
       <c r="H30" t="n">
-        <v>2.59</v>
+        <v>2.75</v>
       </c>
       <c r="I30" t="n">
-        <v>204201</v>
+        <v>204001</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176498</v>
+        <v>176694</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>6.84</v>
       </c>
       <c r="I31" t="n">
-        <v>749.0700000000001</v>
+        <v>750.1799999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5364325</v>
+        <v>5329089</v>
       </c>
       <c r="E32" t="n">
-        <v>5620954</v>
+        <v>5584033</v>
       </c>
       <c r="F32" t="n">
-        <v>55.62366942285214</v>
+        <v>145.95164439716</v>
       </c>
       <c r="G32" t="n">
-        <v>356.0828736562112</v>
+        <v>1075.869237185047</v>
       </c>
       <c r="H32" t="n">
-        <v>2.88</v>
+        <v>2.44</v>
       </c>
       <c r="I32" t="n">
-        <v>137586</v>
+        <v>153291</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4684591</v>
+        <v>4674977</v>
       </c>
       <c r="E33" t="n">
-        <v>6895971</v>
+        <v>6881819</v>
       </c>
       <c r="F33" t="n">
-        <v>59.34480432255207</v>
+        <v>26.90441063979429</v>
       </c>
       <c r="G33" t="n">
-        <v>170.4052400272133</v>
+        <v>131.8303543171683</v>
       </c>
       <c r="H33" t="n">
         <v>2.28</v>
       </c>
       <c r="I33" t="n">
-        <v>573446</v>
+        <v>567257</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7500053</v>
+        <v>7513580</v>
       </c>
       <c r="E34" t="n">
-        <v>7500053</v>
+        <v>7513580</v>
       </c>
       <c r="F34" t="n">
-        <v>1723.512961528099</v>
+        <v>2896.807905265288</v>
       </c>
       <c r="G34" t="n">
-        <v>4130.459928691863</v>
+        <v>4216.33929502389</v>
       </c>
       <c r="H34" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="I34" t="n">
-        <v>327437</v>
+        <v>326438</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1469356</v>
+        <v>1480346</v>
       </c>
       <c r="E35" t="n">
-        <v>1469356</v>
+        <v>1480346</v>
       </c>
       <c r="F35" t="n">
-        <v>104.753421471011</v>
+        <v>54.98374273154788</v>
       </c>
       <c r="G35" t="n">
-        <v>133.7968755318263</v>
+        <v>629.8179269463626</v>
       </c>
       <c r="H35" t="n">
-        <v>1.31</v>
+        <v>1.72</v>
       </c>
       <c r="I35" t="n">
-        <v>285485</v>
+        <v>285711</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15759346</v>
+        <v>15759740</v>
       </c>
       <c r="F36" t="n">
-        <v>287.9719949196062</v>
+        <v>288.5281560232366</v>
       </c>
       <c r="G36" t="n">
-        <v>199.1756841027428</v>
+        <v>211.0207944299032</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>15862.71</v>
+        <v>15839.95</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59596</v>
+        <v>59586</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.67</v>
       </c>
       <c r="I37" t="n">
-        <v>2047.64</v>
+        <v>2048.37</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>137261467</v>
+        <v>137094017</v>
       </c>
       <c r="E38" t="n">
-        <v>137261467</v>
+        <v>137094017</v>
       </c>
       <c r="F38" t="n">
-        <v>255770.0308340838</v>
+        <v>279002.2480850164</v>
       </c>
       <c r="G38" t="n">
-        <v>252751.9787332229</v>
+        <v>249654.2029699348</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>91152730</v>
+        <v>91415410</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>63121878</v>
+        <v>63232179</v>
       </c>
       <c r="E39" t="n">
-        <v>323701936</v>
+        <v>324267586</v>
       </c>
       <c r="F39" t="n">
-        <v>67796.10293630257</v>
+        <v>73353.43720583234</v>
       </c>
       <c r="G39" t="n">
-        <v>82538.35293647376</v>
+        <v>73447.74824242649</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>26916488</v>
+        <v>26637857</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46391</v>
+        <v>46368</v>
       </c>
       <c r="E40" t="n">
-        <v>137095</v>
+        <v>137025</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>11.49</v>
+        <v>10.51</v>
       </c>
       <c r="I40" t="n">
         <v>8.039999999999999</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>50170</v>
+        <v>50087</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>4.46</v>
       </c>
       <c r="I41" t="n">
-        <v>23410</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>598435</v>
+        <v>598053</v>
       </c>
       <c r="F42" t="n">
-        <v>1873.995306733402</v>
+        <v>1037.774113379721</v>
       </c>
       <c r="G42" t="n">
-        <v>409.4160893873893</v>
+        <v>424.5772073782514</v>
       </c>
       <c r="H42" t="n">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>527.6</v>
+        <v>527.48</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2611106</v>
+        <v>2598046</v>
       </c>
       <c r="E44" t="n">
-        <v>10493442</v>
+        <v>10440955</v>
       </c>
       <c r="F44" t="n">
-        <v>211.2531074197816</v>
+        <v>265.4983901834931</v>
       </c>
       <c r="G44" t="n">
-        <v>119.4627204922642</v>
+        <v>375.7032395993813</v>
       </c>
       <c r="H44" t="n">
-        <v>2.83</v>
+        <v>1.9</v>
       </c>
       <c r="I44" t="n">
-        <v>38220</v>
+        <v>48645</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18238877</v>
+        <v>18280377</v>
       </c>
       <c r="E45" t="n">
-        <v>127541385</v>
+        <v>127831591</v>
       </c>
       <c r="F45" t="n">
-        <v>570.0244227007105</v>
+        <v>533.1160960015944</v>
       </c>
       <c r="G45" t="n">
-        <v>280.6180568261984</v>
+        <v>275.8842868086462</v>
       </c>
       <c r="H45" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="I45" t="n">
-        <v>1063129</v>
+        <v>1065858</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>142288</v>
+        <v>142712</v>
       </c>
       <c r="E46" t="n">
-        <v>1903890</v>
+        <v>1909564</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>39850</v>
+        <v>40021</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>248629418</v>
+        <v>248910997</v>
       </c>
       <c r="E47" t="n">
-        <v>248629418</v>
+        <v>248910997</v>
       </c>
       <c r="F47" t="n">
-        <v>69944.93702607212</v>
+        <v>79653.37165048321</v>
       </c>
       <c r="G47" t="n">
-        <v>117284.5436295546</v>
+        <v>104083.9386858441</v>
       </c>
       <c r="H47" t="n">
         <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>26297204</v>
+        <v>26349920</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>636146</v>
+        <v>637240</v>
       </c>
       <c r="E48" t="n">
-        <v>636146</v>
+        <v>637240</v>
       </c>
       <c r="F48" t="n">
-        <v>214.2993987715258</v>
+        <v>182.657019375542</v>
       </c>
       <c r="G48" t="n">
-        <v>87.45461539138617</v>
+        <v>122.2351764051656</v>
       </c>
       <c r="H48" t="n">
-        <v>2.59</v>
+        <v>2.27</v>
       </c>
       <c r="I48" t="n">
-        <v>2687.2</v>
+        <v>2690.88</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>415934849</v>
+        <v>416533217</v>
       </c>
       <c r="E50" t="n">
-        <v>415934849</v>
+        <v>416533217</v>
       </c>
       <c r="F50" t="n">
-        <v>7586.219441419214</v>
+        <v>6788.731469882509</v>
       </c>
       <c r="G50" t="n">
-        <v>1872.425074154586</v>
+        <v>1874.644117028725</v>
       </c>
       <c r="H50" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I50" t="n">
-        <v>4135315</v>
+        <v>4120337</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2466865</v>
+        <v>2466662</v>
       </c>
       <c r="E51" t="n">
-        <v>2466865</v>
+        <v>2466662</v>
       </c>
       <c r="F51" t="n">
-        <v>55.34097240840235</v>
+        <v>55.34495740712524</v>
       </c>
       <c r="G51" t="n">
-        <v>267.3425207646266</v>
+        <v>359.2745140555077</v>
       </c>
       <c r="H51" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="I51" t="n">
-        <v>162657</v>
+        <v>162886</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22208</v>
+        <v>22199</v>
       </c>
       <c r="E52" t="n">
-        <v>44417</v>
+        <v>44399</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>5.93</v>
       </c>
       <c r="I52" t="n">
-        <v>3486.54</v>
+        <v>3486.89</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>162492</v>
+        <v>162559</v>
       </c>
       <c r="F53" t="n">
-        <v>26.8363401923984</v>
+        <v>22.48331765719076</v>
       </c>
       <c r="G53" t="n">
-        <v>26.05762698533777</v>
+        <v>26.05786073775976</v>
       </c>
       <c r="H53" t="n">
         <v>3.82</v>
       </c>
       <c r="I53" t="n">
-        <v>19198.29</v>
+        <v>18937.49</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2571315</v>
+        <v>2569681</v>
       </c>
       <c r="E54" t="n">
-        <v>6573789</v>
+        <v>6569598</v>
       </c>
       <c r="F54" t="n">
-        <v>163.6536636995685</v>
+        <v>63.01132648634927</v>
       </c>
       <c r="G54" t="n">
-        <v>93.58755537526839</v>
+        <v>76.42149206167055</v>
       </c>
       <c r="H54" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="I54" t="n">
-        <v>80897</v>
+        <v>81024</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3473.41</v>
+        <v>3475.39</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>4.57</v>
       </c>
       <c r="I55" t="n">
-        <v>1618.14</v>
+        <v>1617.87</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>65968968</v>
+        <v>65970071</v>
       </c>
       <c r="E56" t="n">
-        <v>65968968</v>
+        <v>65970071</v>
       </c>
       <c r="F56" t="n">
-        <v>4555.490351808427</v>
+        <v>5083.466806479265</v>
       </c>
       <c r="G56" t="n">
-        <v>7571.512292870748</v>
+        <v>7145.384679217022</v>
       </c>
       <c r="H56" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I56" t="n">
-        <v>7318065</v>
+        <v>7281997</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3315780</v>
+        <v>3329347</v>
       </c>
       <c r="E57" t="n">
-        <v>4201673</v>
+        <v>4218864</v>
       </c>
       <c r="F57" t="n">
-        <v>528.6567714830654</v>
+        <v>218.3667716430008</v>
       </c>
       <c r="G57" t="n">
-        <v>224.8016702887644</v>
+        <v>123.9608915660891</v>
       </c>
       <c r="H57" t="n">
-        <v>1.35</v>
+        <v>0.9</v>
       </c>
       <c r="I57" t="n">
-        <v>200872</v>
+        <v>200517</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4069828</v>
+        <v>4064712</v>
       </c>
       <c r="E58" t="n">
-        <v>8026042</v>
+        <v>8015954</v>
       </c>
       <c r="F58" t="n">
-        <v>1866.906656133673</v>
+        <v>2051.825938554802</v>
       </c>
       <c r="G58" t="n">
-        <v>10367.22321929167</v>
+        <v>9888.163269953195</v>
       </c>
       <c r="H58" t="n">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1684812</v>
+        <v>1703527</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1601069</v>
+        <v>1604307</v>
       </c>
       <c r="E59" t="n">
-        <v>9192742</v>
+        <v>9211333</v>
       </c>
       <c r="F59" t="n">
-        <v>22.9268712105384</v>
+        <v>238.35403665073</v>
       </c>
       <c r="G59" t="n">
-        <v>173.8722540314396</v>
+        <v>122.2247106000119</v>
       </c>
       <c r="H59" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="I59" t="n">
-        <v>254214</v>
+        <v>256621</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>513610</v>
+        <v>513020</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.06</v>
       </c>
       <c r="I60" t="n">
-        <v>5368.51</v>
+        <v>5366.71</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31140515</v>
+        <v>31166076</v>
       </c>
       <c r="F61" t="n">
-        <v>696.1476970498711</v>
+        <v>606.8200309665656</v>
       </c>
       <c r="G61" t="n">
-        <v>1570.446524351726</v>
+        <v>1810.439145802981</v>
       </c>
       <c r="H61" t="n">
         <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>222709</v>
+        <v>222191</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1527228</v>
+        <v>1528036</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>8.6</v>
+        <v>7.77</v>
       </c>
       <c r="I62" t="n">
-        <v>9194.59</v>
+        <v>9195.48</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17150629</v>
+        <v>17155233</v>
       </c>
       <c r="E63" t="n">
-        <v>18076361</v>
+        <v>18081214</v>
       </c>
       <c r="F63" t="n">
-        <v>1388.697723828858</v>
+        <v>1388.709985072832</v>
       </c>
       <c r="G63" t="n">
-        <v>1479.873227057934</v>
+        <v>1479.886293318775</v>
       </c>
       <c r="H63" t="n">
         <v>1.6</v>
       </c>
       <c r="I63" t="n">
-        <v>51315</v>
+        <v>50216</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2903496</v>
+        <v>2910844</v>
       </c>
       <c r="E64" t="n">
-        <v>2903496</v>
+        <v>2910844</v>
       </c>
       <c r="F64" t="n">
-        <v>61.79104631667961</v>
+        <v>179.1490194006836</v>
       </c>
       <c r="G64" t="n">
-        <v>5.63986707679826</v>
+        <v>22.67036318913709</v>
       </c>
       <c r="H64" t="n">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="I64" t="n">
-        <v>15526.34</v>
+        <v>15429.82</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3322125</v>
+        <v>3327700</v>
       </c>
       <c r="E65" t="n">
-        <v>8197173</v>
+        <v>8210930</v>
       </c>
       <c r="F65" t="n">
-        <v>625.5883361425297</v>
+        <v>595.1135816768455</v>
       </c>
       <c r="G65" t="n">
-        <v>1116.941859497105</v>
+        <v>1145.358592875353</v>
       </c>
       <c r="H65" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I65" t="n">
-        <v>32777</v>
+        <v>32768</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>245753</v>
+        <v>244276</v>
       </c>
       <c r="F66" t="n">
-        <v>5.153014002716547</v>
+        <v>48.15399888085886</v>
       </c>
       <c r="G66" t="n">
-        <v>47.86448741018354</v>
+        <v>56.29221967388958</v>
       </c>
       <c r="H66" t="n">
-        <v>1.75</v>
+        <v>3.57</v>
       </c>
       <c r="I66" t="n">
-        <v>3880.68</v>
+        <v>5491.78</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>87958598</v>
+        <v>87689778</v>
       </c>
       <c r="E67" t="n">
-        <v>183386613</v>
+        <v>182826144</v>
       </c>
       <c r="F67" t="n">
-        <v>37353.90174498868</v>
+        <v>42008.9464341851</v>
       </c>
       <c r="G67" t="n">
-        <v>76873.41999630579</v>
+        <v>85195.64763104499</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>76782228</v>
+        <v>77153594</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1759437</v>
+        <v>1758692</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6570942326415552</v>
+        <v>0.6570977640281511</v>
       </c>
       <c r="G68" t="n">
-        <v>25.98179861665895</v>
+        <v>25.98193824925778</v>
       </c>
       <c r="H68" t="n">
         <v>3.83</v>
       </c>
       <c r="I68" t="n">
-        <v>1653.58</v>
+        <v>1653.22</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>185869514</v>
+        <v>186328614</v>
       </c>
       <c r="F69" t="n">
-        <v>2407.854266841027</v>
+        <v>2389.809013248286</v>
       </c>
       <c r="G69" t="n">
-        <v>4801.205805256797</v>
+        <v>7690.707327422851</v>
       </c>
       <c r="H69" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="I69" t="n">
-        <v>3427650</v>
+        <v>3408782</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>187586</v>
+        <v>186991</v>
       </c>
       <c r="E70" t="n">
-        <v>195894</v>
+        <v>195271</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>185.31</v>
+        <v>184.82</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>138375180</v>
+        <v>138513587</v>
       </c>
       <c r="E71" t="n">
-        <v>138433128</v>
+        <v>138572206</v>
       </c>
       <c r="F71" t="n">
-        <v>18851.6094650653</v>
+        <v>23843.92725047699</v>
       </c>
       <c r="G71" t="n">
-        <v>39711.73324587622</v>
+        <v>42171.06609528937</v>
       </c>
       <c r="H71" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="I71" t="n">
-        <v>3468836</v>
+        <v>3462733</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25340699</v>
+        <v>25426171</v>
       </c>
       <c r="E72" t="n">
-        <v>83163331</v>
+        <v>83443832</v>
       </c>
       <c r="F72" t="n">
-        <v>19609.95736053728</v>
+        <v>21396.09817334442</v>
       </c>
       <c r="G72" t="n">
-        <v>35408.49325018895</v>
+        <v>21064.88332384236</v>
       </c>
       <c r="H72" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="I72" t="n">
-        <v>254168</v>
+        <v>257398</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113385</v>
+        <v>113290</v>
       </c>
       <c r="E73" t="n">
-        <v>113385</v>
+        <v>113290</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>5.26</v>
+        <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1335.86</v>
+        <v>1175.71</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>194815792</v>
+        <v>195474535</v>
       </c>
       <c r="E74" t="n">
-        <v>676807667</v>
+        <v>679096201</v>
       </c>
       <c r="F74" t="n">
-        <v>80180.85236718434</v>
+        <v>82398.76634806202</v>
       </c>
       <c r="G74" t="n">
-        <v>64260.18978175388</v>
+        <v>67397.06256306678</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>41312903</v>
+        <v>41335510</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3269869</v>
+        <v>3298050</v>
       </c>
       <c r="E75" t="n">
-        <v>3269869</v>
+        <v>3298049</v>
       </c>
       <c r="F75" t="n">
-        <v>1025.644006596975</v>
+        <v>579.8251962565455</v>
       </c>
       <c r="G75" t="n">
-        <v>1574.700311486815</v>
+        <v>909.3169867318794</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I75" t="n">
-        <v>2023836</v>
+        <v>2004076</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>108874001</v>
+        <v>109000859</v>
       </c>
       <c r="E76" t="n">
-        <v>461707203</v>
+        <v>462245177</v>
       </c>
       <c r="F76" t="n">
-        <v>120246.0703939803</v>
+        <v>144150.7295878114</v>
       </c>
       <c r="G76" t="n">
-        <v>142558.0143781978</v>
+        <v>118521.6445540772</v>
       </c>
       <c r="H76" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I76" t="n">
-        <v>15084879</v>
+        <v>15066431</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1804081</v>
+        <v>1806822</v>
       </c>
       <c r="F77" t="n">
-        <v>54.608077595922</v>
+        <v>54.60856746287749</v>
       </c>
       <c r="G77" t="n">
-        <v>25.48521185351392</v>
+        <v>25.48544047103152</v>
       </c>
       <c r="H77" t="n">
         <v>1.1</v>
       </c>
       <c r="I77" t="n">
-        <v>567.08</v>
+        <v>567.62</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3202796</v>
+        <v>3281766</v>
       </c>
       <c r="E78" t="n">
-        <v>16059201</v>
+        <v>16455167</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>10.97887208966769</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>688.1420980420615</v>
       </c>
       <c r="H78" t="n">
-        <v>4.12</v>
+        <v>3.55</v>
       </c>
       <c r="I78" t="n">
-        <v>32109</v>
+        <v>32413</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>535784</v>
+        <v>527691</v>
       </c>
       <c r="E79" t="n">
-        <v>9164556</v>
+        <v>9026126</v>
       </c>
       <c r="F79" t="n">
-        <v>118.1459955947832</v>
+        <v>132.7697338794501</v>
       </c>
       <c r="G79" t="n">
-        <v>26.10699717698063</v>
+        <v>26.10715094998778</v>
       </c>
       <c r="H79" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="I79" t="n">
-        <v>132485</v>
+        <v>140152</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5667626</v>
+        <v>5663406</v>
       </c>
       <c r="E80" t="n">
-        <v>7691455</v>
+        <v>7686007</v>
       </c>
       <c r="F80" t="n">
-        <v>448.0469940712321</v>
+        <v>620.7117985931891</v>
       </c>
       <c r="G80" t="n">
-        <v>958.7059553021362</v>
+        <v>875.7322283688419</v>
       </c>
       <c r="H80" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="I80" t="n">
-        <v>5552295</v>
+        <v>5565414</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>40901</v>
+        <v>40880</v>
       </c>
       <c r="F81" t="n">
-        <v>196.3951427086831</v>
+        <v>121.9574399208836</v>
       </c>
       <c r="G81" t="n">
-        <v>53.34795104469114</v>
+        <v>42.98082510784739</v>
       </c>
       <c r="H81" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="I81" t="n">
-        <v>40648</v>
+        <v>40540</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>38679778</v>
+        <v>38842150</v>
       </c>
       <c r="E82" t="n">
-        <v>45177062</v>
+        <v>45366709</v>
       </c>
       <c r="F82" t="n">
-        <v>503.3315313172455</v>
+        <v>293.8940425133194</v>
       </c>
       <c r="G82" t="n">
-        <v>145.6978094124553</v>
+        <v>121.4739484114461</v>
       </c>
       <c r="H82" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I82" t="n">
-        <v>905993</v>
+        <v>927283</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14097720</v>
+        <v>14112115</v>
       </c>
       <c r="F83" t="n">
-        <v>238.697973890693</v>
+        <v>248.4981370816466</v>
       </c>
       <c r="G83" t="n">
-        <v>315.1921782665777</v>
+        <v>464.0082816127456</v>
       </c>
       <c r="H83" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="I83" t="n">
-        <v>232812</v>
+        <v>235229</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>34944004</v>
+        <v>35078732</v>
       </c>
       <c r="E84" t="n">
-        <v>34944004</v>
+        <v>35078732</v>
       </c>
       <c r="F84" t="n">
-        <v>157.94124570516</v>
+        <v>233.9431235773382</v>
       </c>
       <c r="G84" t="n">
-        <v>1051.848622179101</v>
+        <v>1073.311967101388</v>
       </c>
       <c r="H84" t="n">
-        <v>2.28</v>
+        <v>2.77</v>
       </c>
       <c r="I84" t="n">
-        <v>952168</v>
+        <v>295013</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>551261</v>
+        <v>562439</v>
       </c>
       <c r="E85" t="n">
-        <v>6686259</v>
+        <v>6821840</v>
       </c>
       <c r="F85" t="n">
-        <v>292.7730682382549</v>
+        <v>186.9320266914613</v>
       </c>
       <c r="G85" t="n">
-        <v>452.0244985154478</v>
+        <v>871.2569170135487</v>
       </c>
       <c r="H85" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="I85" t="n">
-        <v>2960783</v>
+        <v>2943371</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24333501</v>
+        <v>24319074</v>
       </c>
       <c r="E86" t="n">
-        <v>34387161</v>
+        <v>34366773</v>
       </c>
       <c r="F86" t="n">
-        <v>416.76068992026</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>6.146983937733259</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>3.11</v>
+        <v>4.16</v>
       </c>
       <c r="I86" t="n">
-        <v>174775</v>
+        <v>177098</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1456643172</v>
+        <v>1457736844</v>
       </c>
       <c r="E87" t="n">
-        <v>6984902325</v>
+        <v>6990146704</v>
       </c>
       <c r="F87" t="n">
-        <v>569644.7239119411</v>
+        <v>509618.9165100107</v>
       </c>
       <c r="G87" t="n">
-        <v>586231.2754607194</v>
+        <v>668678.2953040637</v>
       </c>
       <c r="H87" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>520202841</v>
+        <v>523682413</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>258845526</v>
+        <v>258740722</v>
       </c>
       <c r="E88" t="n">
-        <v>1117320987</v>
+        <v>1116868593</v>
       </c>
       <c r="F88" t="n">
-        <v>826533.9222224734</v>
+        <v>813909.4160804504</v>
       </c>
       <c r="G88" t="n">
-        <v>889760.237375848</v>
+        <v>903891.1372678728</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>142328265</v>
+        <v>141459131</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>112401388</v>
+        <v>112305247</v>
       </c>
       <c r="E89" t="n">
-        <v>112401388</v>
+        <v>112305247</v>
       </c>
       <c r="F89" t="n">
-        <v>38504.11922680237</v>
+        <v>36304.71056975635</v>
       </c>
       <c r="G89" t="n">
-        <v>22930.02427188805</v>
+        <v>25570.21019862708</v>
       </c>
       <c r="H89" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="I89" t="n">
-        <v>7066407</v>
+        <v>7012879</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3762183</v>
+        <v>3750491</v>
       </c>
       <c r="E90" t="n">
-        <v>29276857</v>
+        <v>29185871</v>
       </c>
       <c r="F90" t="n">
-        <v>3272.978891041465</v>
+        <v>7870.382788906462</v>
       </c>
       <c r="G90" t="n">
-        <v>2526.508578567126</v>
+        <v>2820.975771384181</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I90" t="n">
-        <v>41903</v>
+        <v>41963</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3977792</v>
+        <v>3973483</v>
       </c>
       <c r="F91" t="n">
-        <v>4045.800115729816</v>
+        <v>4483.898539122421</v>
       </c>
       <c r="G91" t="n">
-        <v>2725.37959075154</v>
+        <v>2694.181956980881</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="I91" t="n">
-        <v>352455</v>
+        <v>350752</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>849970</v>
+        <v>863526</v>
       </c>
       <c r="F92" t="n">
-        <v>203.3443644641287</v>
+        <v>17.84328908618111</v>
       </c>
       <c r="G92" t="n">
-        <v>49.96932656164901</v>
+        <v>116.9668129085808</v>
       </c>
       <c r="H92" t="n">
-        <v>2.07</v>
+        <v>1.5</v>
       </c>
       <c r="I92" t="n">
-        <v>5306.29</v>
+        <v>6114.27</v>
       </c>
     </row>
     <row r="93">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>116393</v>
+        <v>115849</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>5.54</v>
+        <v>5.05</v>
       </c>
       <c r="I93" t="n">
-        <v>111892</v>
+        <v>112049</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10170166</v>
+        <v>10154485</v>
       </c>
       <c r="E94" t="n">
-        <v>122442437</v>
+        <v>122253644</v>
       </c>
       <c r="F94" t="n">
-        <v>867.0926370436824</v>
+        <v>867.100740174282</v>
       </c>
       <c r="G94" t="n">
-        <v>467.9962016369246</v>
+        <v>498.4361059034089</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>535780</v>
+        <v>535706</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15954805</v>
+        <v>16018393</v>
       </c>
       <c r="E95" t="n">
-        <v>39887013</v>
+        <v>40045983</v>
       </c>
       <c r="F95" t="n">
-        <v>6000.262895775462</v>
+        <v>5942.644497634907</v>
       </c>
       <c r="G95" t="n">
-        <v>11006.21275655556</v>
+        <v>9797.740306762498</v>
       </c>
       <c r="H95" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I95" t="n">
-        <v>5088235</v>
+        <v>5076178</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2449763</v>
+        <v>2449056</v>
       </c>
       <c r="F96" t="n">
-        <v>237.6553624851526</v>
+        <v>144.0419974625389</v>
       </c>
       <c r="G96" t="n">
-        <v>186.2113926089339</v>
+        <v>293.7571034702969</v>
       </c>
       <c r="H96" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="I96" t="n">
-        <v>48880</v>
+        <v>48909</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19121855</v>
+        <v>19312435</v>
       </c>
       <c r="F97" t="n">
-        <v>805.9133156904196</v>
+        <v>173.7842767793216</v>
       </c>
       <c r="G97" t="n">
-        <v>3099.176134538453</v>
+        <v>807.449624097113</v>
       </c>
       <c r="H97" t="n">
-        <v>0.52</v>
+        <v>1.03</v>
       </c>
       <c r="I97" t="n">
-        <v>68907</v>
+        <v>79267</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4047717</v>
+        <v>4057116</v>
       </c>
       <c r="E98" t="n">
-        <v>11657885</v>
+        <v>11684956</v>
       </c>
       <c r="F98" t="n">
-        <v>1126.3797598343</v>
+        <v>362.8859088535653</v>
       </c>
       <c r="G98" t="n">
-        <v>597.9555027477275</v>
+        <v>941.9174605547209</v>
       </c>
       <c r="H98" t="n">
-        <v>0.34</v>
+        <v>0.76</v>
       </c>
       <c r="I98" t="n">
-        <v>485346</v>
+        <v>483918</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1519843</v>
+        <v>1525863</v>
       </c>
       <c r="F99" t="n">
-        <v>474.4090179966055</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>85.23607182731479</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.28</v>
+        <v>6.84</v>
       </c>
       <c r="I99" t="n">
-        <v>274529</v>
+        <v>274914</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>78257958</v>
+        <v>77956834</v>
       </c>
       <c r="E100" t="n">
-        <v>99589334</v>
+        <v>99206130</v>
       </c>
       <c r="F100" t="n">
-        <v>3397.939532111706</v>
+        <v>6245.134554410904</v>
       </c>
       <c r="G100" t="n">
-        <v>4306.520633437008</v>
+        <v>9787.474298264826</v>
       </c>
       <c r="H100" t="n">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="I100" t="n">
-        <v>6553128</v>
+        <v>6555123</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21876315</v>
+        <v>21845765</v>
       </c>
       <c r="E101" t="n">
-        <v>28378585</v>
+        <v>28338955</v>
       </c>
       <c r="F101" t="n">
-        <v>7054.740767792327</v>
+        <v>6838.347710680242</v>
       </c>
       <c r="G101" t="n">
-        <v>6392.467457550152</v>
+        <v>6830.538655361184</v>
       </c>
       <c r="H101" t="n">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="I101" t="n">
-        <v>233770</v>
+        <v>232535</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1453015</v>
+        <v>1459568</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>5.37</v>
+        <v>10.19</v>
       </c>
       <c r="I102" t="n">
-        <v>7952.05</v>
+        <v>7816.11</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>603826</v>
+        <v>604271</v>
       </c>
       <c r="E103" t="n">
-        <v>603826</v>
+        <v>604271</v>
       </c>
       <c r="F103" t="n">
-        <v>15.34722236485159</v>
+        <v>16.63219403507033</v>
       </c>
       <c r="G103" t="n">
-        <v>116.6532466239963</v>
+        <v>116.6539337241023</v>
       </c>
       <c r="H103" t="n">
         <v>1.11</v>
       </c>
       <c r="I103" t="n">
-        <v>62100</v>
+        <v>61651</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40388165</v>
+        <v>40443557</v>
       </c>
       <c r="E104" t="n">
-        <v>42220075</v>
+        <v>42277978</v>
       </c>
       <c r="F104" t="n">
-        <v>273.5468113583946</v>
+        <v>847.534634645382</v>
       </c>
       <c r="G104" t="n">
-        <v>1727.769979059258</v>
+        <v>1031.867030233407</v>
       </c>
       <c r="H104" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I104" t="n">
-        <v>708338</v>
+        <v>709071</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14078425</v>
+        <v>14093738</v>
       </c>
       <c r="E105" t="n">
-        <v>14078425</v>
+        <v>14093738</v>
       </c>
       <c r="F105" t="n">
-        <v>2902.363294551837</v>
+        <v>1918.479141564454</v>
       </c>
       <c r="G105" t="n">
-        <v>2310.729598673959</v>
+        <v>2926.093112776296</v>
       </c>
       <c r="H105" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I105" t="n">
-        <v>5694287</v>
+        <v>5751249</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1128113</v>
+        <v>1127464</v>
       </c>
       <c r="F106" t="n">
-        <v>14.41287614202242</v>
+        <v>2.875985879237158</v>
       </c>
       <c r="G106" t="n">
-        <v>4.685686335377865</v>
+        <v>4.685711517412794</v>
       </c>
       <c r="H106" t="n">
-        <v>3.83</v>
+        <v>3.88</v>
       </c>
       <c r="I106" t="n">
-        <v>3617.6</v>
+        <v>3602.94</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50072697</v>
+        <v>50345193</v>
       </c>
       <c r="E107" t="n">
-        <v>127563058</v>
+        <v>128257258</v>
       </c>
       <c r="F107" t="n">
-        <v>2467.055577096825</v>
+        <v>1754.147171444164</v>
       </c>
       <c r="G107" t="n">
-        <v>2446.796748341088</v>
+        <v>2775.024610320474</v>
       </c>
       <c r="H107" t="n">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
       <c r="I107" t="n">
-        <v>2265706</v>
+        <v>2235842</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14045645</v>
+        <v>14185972</v>
       </c>
       <c r="E108" t="n">
-        <v>68025298</v>
+        <v>68704928</v>
       </c>
       <c r="F108" t="n">
-        <v>1942.326327993964</v>
+        <v>3281.800615953243</v>
       </c>
       <c r="G108" t="n">
-        <v>4150.282424918434</v>
+        <v>4514.975053664039</v>
       </c>
       <c r="H108" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="I108" t="n">
-        <v>5654788</v>
+        <v>5657773</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>627862</v>
+        <v>627535</v>
       </c>
       <c r="F109" t="n">
-        <v>177.4068415652053</v>
+        <v>177.4025614065682</v>
       </c>
       <c r="G109" t="n">
-        <v>3.380524831429438</v>
+        <v>3.393476744288908</v>
       </c>
       <c r="H109" t="n">
         <v>3.36</v>
       </c>
       <c r="I109" t="n">
-        <v>11909.18</v>
+        <v>11907.24</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4398068</v>
+        <v>4388744</v>
       </c>
       <c r="E110" t="n">
-        <v>10025203</v>
+        <v>10003949</v>
       </c>
       <c r="F110" t="n">
-        <v>1168.803519199792</v>
+        <v>1174.179225075215</v>
       </c>
       <c r="G110" t="n">
-        <v>2073.152909477657</v>
+        <v>2175.077169693116</v>
       </c>
       <c r="H110" t="n">
-        <v>1.09</v>
+        <v>0.7</v>
       </c>
       <c r="I110" t="n">
-        <v>66191</v>
+        <v>66353</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1844644801</v>
+        <v>1846155036</v>
       </c>
       <c r="F111" t="n">
-        <v>40167.03807906986</v>
+        <v>37468.4168960116</v>
       </c>
       <c r="G111" t="n">
-        <v>17678.59613801274</v>
+        <v>19089.25683883732</v>
       </c>
       <c r="H111" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="I111" t="n">
-        <v>31170370</v>
+        <v>31489978</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9103815</v>
+        <v>9115953</v>
       </c>
       <c r="E112" t="n">
-        <v>33122380</v>
+        <v>33166528</v>
       </c>
       <c r="F112" t="n">
-        <v>450.2592562975702</v>
+        <v>452.3709116859885</v>
       </c>
       <c r="G112" t="n">
-        <v>420.242051162848</v>
+        <v>420.2458209841498</v>
       </c>
       <c r="H112" t="n">
         <v>0.91</v>
       </c>
       <c r="I112" t="n">
-        <v>156672</v>
+        <v>152933</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>632311</v>
+        <v>632817</v>
       </c>
       <c r="F113" t="n">
-        <v>8.991948943840075</v>
+        <v>8.992029606973569</v>
       </c>
       <c r="G113" t="n">
-        <v>2.315002414851191</v>
+        <v>2.315023181800603</v>
       </c>
       <c r="H113" t="n">
         <v>0.78</v>
       </c>
       <c r="I113" t="n">
-        <v>684.88</v>
+        <v>681.49</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11898503</v>
+        <v>11888069</v>
       </c>
       <c r="E114" t="n">
-        <v>17251113</v>
+        <v>17235984</v>
       </c>
       <c r="F114" t="n">
-        <v>804.4111447505588</v>
+        <v>2642.738659056663</v>
       </c>
       <c r="G114" t="n">
-        <v>254.2693666417544</v>
+        <v>5124.372708174857</v>
       </c>
       <c r="H114" t="n">
-        <v>1.67</v>
+        <v>0.75</v>
       </c>
       <c r="I114" t="n">
-        <v>1951059</v>
+        <v>1946700</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1824175</v>
+        <v>1826128</v>
       </c>
       <c r="E115" t="n">
-        <v>13080978</v>
+        <v>13094979</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>72.14417878932009</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>284.156140662618</v>
       </c>
       <c r="H115" t="n">
-        <v>4.13</v>
+        <v>3.1</v>
       </c>
       <c r="I115" t="n">
-        <v>2069157</v>
+        <v>2076632</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2732646</v>
+        <v>2724364</v>
       </c>
       <c r="E116" t="n">
-        <v>5523933</v>
+        <v>5507193</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4479.89</v>
+        <v>4472.89</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>193170320</v>
+        <v>192899985</v>
       </c>
       <c r="E117" t="n">
-        <v>1093849043</v>
+        <v>1092318243</v>
       </c>
       <c r="F117" t="n">
-        <v>211931.0336945524</v>
+        <v>262399.6228352713</v>
       </c>
       <c r="G117" t="n">
-        <v>314294.9830457731</v>
+        <v>229975.4327195045</v>
       </c>
       <c r="H117" t="n">
         <v>0.15</v>
       </c>
       <c r="I117" t="n">
-        <v>86581082</v>
+        <v>86077704</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>653091</v>
+        <v>656724</v>
       </c>
       <c r="E118" t="n">
-        <v>2165554</v>
+        <v>2177600</v>
       </c>
       <c r="F118" t="n">
-        <v>8834.98106937617</v>
+        <v>7387.516296299782</v>
       </c>
       <c r="G118" t="n">
-        <v>7517.588355880457</v>
+        <v>7064.753544541214</v>
       </c>
       <c r="H118" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="I118" t="n">
-        <v>5597.03</v>
+        <v>5626.31</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2608602</v>
+        <v>2612477</v>
       </c>
       <c r="E119" t="n">
-        <v>9235961</v>
+        <v>9249680</v>
       </c>
       <c r="F119" t="n">
-        <v>20.87468951107919</v>
+        <v>20.97232570164276</v>
       </c>
       <c r="G119" t="n">
-        <v>644.4499815559842</v>
+        <v>1613.873212862697</v>
       </c>
       <c r="H119" t="n">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="I119" t="n">
-        <v>28152</v>
+        <v>28171</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1010854</v>
+        <v>1012046</v>
       </c>
       <c r="E120" t="n">
-        <v>1010854</v>
+        <v>1012046</v>
       </c>
       <c r="F120" t="n">
-        <v>136.4421658352017</v>
+        <v>136.4434409108301</v>
       </c>
       <c r="G120" t="n">
-        <v>140.4856905667412</v>
+        <v>140.4870034298073</v>
       </c>
       <c r="H120" t="n">
         <v>1.83</v>
       </c>
       <c r="I120" t="n">
-        <v>4953.12</v>
+        <v>4945.67</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>495621</v>
+        <v>498547</v>
       </c>
       <c r="E121" t="n">
-        <v>1668190</v>
+        <v>1678039</v>
       </c>
       <c r="F121" t="n">
-        <v>309.7532776543005</v>
+        <v>320.5314454437823</v>
       </c>
       <c r="G121" t="n">
-        <v>479.786407631485</v>
+        <v>442.6403683083086</v>
       </c>
       <c r="H121" t="n">
         <v>0.89</v>
       </c>
       <c r="I121" t="n">
-        <v>641928</v>
+        <v>556291</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>463405</v>
+        <v>458191</v>
       </c>
       <c r="E122" t="n">
-        <v>859706</v>
+        <v>850032</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>6.59</v>
       </c>
       <c r="I122" t="n">
-        <v>288559</v>
+        <v>290613</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9644410</v>
+        <v>9664925</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>7.33</v>
+        <v>7.63</v>
       </c>
       <c r="I123" t="n">
-        <v>21080</v>
+        <v>21214</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1163791</v>
+        <v>1161653</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>11.22</v>
+        <v>11.58</v>
       </c>
       <c r="I124" t="n">
-        <v>6320.43</v>
+        <v>6466.93</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3307141</v>
+        <v>3319386</v>
       </c>
       <c r="E125" t="n">
-        <v>7722727</v>
+        <v>7751320</v>
       </c>
       <c r="F125" t="n">
-        <v>1195.149387703598</v>
+        <v>1306.52182648552</v>
       </c>
       <c r="G125" t="n">
-        <v>1266.90946679794</v>
+        <v>1513.305218963287</v>
       </c>
       <c r="H125" t="n">
-        <v>0.53</v>
+        <v>1.14</v>
       </c>
       <c r="I125" t="n">
-        <v>603818</v>
+        <v>600520</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>251463</v>
+        <v>252759</v>
       </c>
       <c r="E126" t="n">
-        <v>2219347</v>
+        <v>2230788</v>
       </c>
       <c r="F126" t="n">
-        <v>16.60466696090871</v>
+        <v>19.67144786689875</v>
       </c>
       <c r="G126" t="n">
-        <v>153.7041401372945</v>
+        <v>69.20957277275458</v>
       </c>
       <c r="H126" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="I126" t="n">
-        <v>76574</v>
+        <v>75986</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>626032</v>
+        <v>625911</v>
       </c>
       <c r="F127" t="n">
-        <v>540.6833866840515</v>
+        <v>540.6887923327736</v>
       </c>
       <c r="G127" t="n">
-        <v>567.9318724903976</v>
+        <v>567.9375505642507</v>
       </c>
       <c r="H127" t="n">
         <v>1.98</v>
       </c>
       <c r="I127" t="n">
-        <v>16202.65</v>
+        <v>16204.69</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4721212</v>
+        <v>4714348</v>
       </c>
       <c r="E128" t="n">
-        <v>16680030</v>
+        <v>16655777</v>
       </c>
       <c r="F128" t="n">
-        <v>1031.993763451237</v>
+        <v>1032.003021049476</v>
       </c>
       <c r="G128" t="n">
-        <v>955.6707054794759</v>
+        <v>933.3556504512919</v>
       </c>
       <c r="H128" t="n">
         <v>0.72</v>
       </c>
       <c r="I128" t="n">
-        <v>159257</v>
+        <v>159199</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2164206</v>
+        <v>2163813</v>
       </c>
       <c r="F129" t="n">
-        <v>107.8350195367598</v>
+        <v>97.25512228929531</v>
       </c>
       <c r="G129" t="n">
-        <v>68.74227490515638</v>
+        <v>68.57246793671285</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="I129" t="n">
-        <v>4451.29</v>
+        <v>4431.2</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2471292</v>
+        <v>2467309</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2534.44</v>
+        <v>2533.79</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>78862</v>
+        <v>78763</v>
       </c>
       <c r="E131" t="n">
-        <v>78862</v>
+        <v>78763</v>
       </c>
       <c r="F131" t="n">
-        <v>10.10461388077274</v>
+        <v>10.22026701045506</v>
       </c>
       <c r="G131" t="n">
-        <v>6.625107073565361</v>
+        <v>6.367928996936805</v>
       </c>
       <c r="H131" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="I131" t="n">
-        <v>19308.68</v>
+        <v>19210.94</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4125764</v>
+        <v>4158095</v>
       </c>
       <c r="F132" t="n">
-        <v>466.5501452553015</v>
+        <v>271.1596053418193</v>
       </c>
       <c r="G132" t="n">
-        <v>205.8262814028643</v>
+        <v>420.8070283508667</v>
       </c>
       <c r="H132" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I132" t="n">
-        <v>258923</v>
+        <v>261167</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2107764</v>
+        <v>2106898</v>
       </c>
       <c r="E133" t="n">
-        <v>8607561</v>
+        <v>8604024</v>
       </c>
       <c r="F133" t="n">
-        <v>399.7119767581135</v>
+        <v>368.5313724650537</v>
       </c>
       <c r="G133" t="n">
-        <v>964.5695672899842</v>
+        <v>566.199025779327</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
       <c r="I133" t="n">
-        <v>394021</v>
+        <v>390359</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7286514</v>
+        <v>7245427</v>
       </c>
       <c r="E134" t="n">
-        <v>7340677</v>
+        <v>7299285</v>
       </c>
       <c r="F134" t="n">
-        <v>266383.3778034078</v>
+        <v>250043.887530439</v>
       </c>
       <c r="G134" t="n">
-        <v>346999.4337659538</v>
+        <v>247970.8521012312</v>
       </c>
       <c r="H134" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I134" t="n">
-        <v>6040805</v>
+        <v>6003254</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13381313</v>
+        <v>13434819</v>
       </c>
       <c r="E135" t="n">
-        <v>13426851</v>
+        <v>13480539</v>
       </c>
       <c r="F135" t="n">
-        <v>13988.83780600521</v>
+        <v>11706.35417004131</v>
       </c>
       <c r="G135" t="n">
-        <v>13610.66637689065</v>
+        <v>12352.74587475076</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>7118894</v>
+        <v>6989003</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>41931848</v>
+        <v>41904572</v>
       </c>
       <c r="E136" t="n">
-        <v>71190523</v>
+        <v>71144215</v>
       </c>
       <c r="F136" t="n">
-        <v>554.7775882538585</v>
+        <v>542.594304834297</v>
       </c>
       <c r="G136" t="n">
-        <v>1391.995516497313</v>
+        <v>1626.156906054655</v>
       </c>
       <c r="H136" t="n">
         <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1155006</v>
+        <v>1153490</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19554026</v>
+        <v>19527992</v>
       </c>
       <c r="E137" t="n">
-        <v>58626029</v>
+        <v>58547976</v>
       </c>
       <c r="F137" t="n">
-        <v>40187.4385570911</v>
+        <v>41461.26321473347</v>
       </c>
       <c r="G137" t="n">
-        <v>39890.57432414122</v>
+        <v>44965.32700667295</v>
       </c>
       <c r="H137" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I137" t="n">
-        <v>4380210</v>
+        <v>3671724</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>97757257</v>
+        <v>97837424</v>
       </c>
       <c r="E138" t="n">
-        <v>103924799</v>
+        <v>104010024</v>
       </c>
       <c r="F138" t="n">
-        <v>4127.047246541969</v>
+        <v>4401.559001284432</v>
       </c>
       <c r="G138" t="n">
-        <v>3484.9936953541</v>
+        <v>4854.44406599744</v>
       </c>
       <c r="H138" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="I138" t="n">
-        <v>536088</v>
+        <v>536184</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1268755</v>
+        <v>1268247</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>7.29</v>
+        <v>7.23</v>
       </c>
       <c r="I139" t="n">
-        <v>2033.24</v>
+        <v>2033.2</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>234484</v>
+        <v>234441</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.43</v>
+        <v>10.57</v>
       </c>
       <c r="I140" t="n">
-        <v>63.52</v>
+        <v>83.61</v>
       </c>
     </row>
     <row r="141">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>49884383</v>
+        <v>49930018</v>
       </c>
       <c r="E142" t="n">
-        <v>214896469</v>
+        <v>215093058</v>
       </c>
       <c r="F142" t="n">
-        <v>49808.71160616788</v>
+        <v>49214.11712945432</v>
       </c>
       <c r="G142" t="n">
-        <v>76256.20030915405</v>
+        <v>76390.04266885185</v>
       </c>
       <c r="H142" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>13194785</v>
+        <v>13220556</v>
       </c>
     </row>
     <row r="143">
@@ -5407,19 +5407,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280918</v>
+        <v>280542</v>
       </c>
       <c r="F143" t="n">
-        <v>23.74003568246891</v>
+        <v>23.74003358328571</v>
       </c>
       <c r="G143" t="n">
-        <v>13.53164239641217</v>
+        <v>13.53164119989348</v>
       </c>
       <c r="H143" t="n">
         <v>0.68</v>
       </c>
       <c r="I143" t="n">
-        <v>16337.45</v>
+        <v>16326.28</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>10194780</v>
+        <v>10008822</v>
       </c>
       <c r="F144" t="n">
-        <v>145.7246890489751</v>
+        <v>103.178485302641</v>
       </c>
       <c r="G144" t="n">
-        <v>199.0839293791321</v>
+        <v>374.7887545468487</v>
       </c>
       <c r="H144" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I144" t="n">
-        <v>860279</v>
+        <v>897328</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1176780</v>
+        <v>1180336</v>
       </c>
       <c r="E145" t="n">
-        <v>7845202</v>
+        <v>7868906</v>
       </c>
       <c r="F145" t="n">
-        <v>262.3660570347231</v>
+        <v>262.3660337212731</v>
       </c>
       <c r="G145" t="n">
-        <v>36.78857456674211</v>
+        <v>36.78857129776516</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>3972.09</v>
+        <v>3968.38</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7405124</v>
+        <v>7393787</v>
       </c>
       <c r="F146" t="n">
-        <v>10.73717511708569</v>
+        <v>10.73717416299659</v>
       </c>
       <c r="G146" t="n">
-        <v>113.2644903551878</v>
+        <v>112.1752828194053</v>
       </c>
       <c r="H146" t="n">
         <v>2.4</v>
       </c>
       <c r="I146" t="n">
-        <v>573148</v>
+        <v>7165574</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>659600</v>
+        <v>659469</v>
       </c>
       <c r="E147" t="n">
-        <v>2380798</v>
+        <v>2380327</v>
       </c>
       <c r="F147" t="n">
-        <v>15.90593386236169</v>
+        <v>305.2982519609776</v>
       </c>
       <c r="G147" t="n">
-        <v>40.50243726507294</v>
+        <v>150.3318742182852</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="I147" t="n">
-        <v>398137</v>
+        <v>399641</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1586190</v>
+        <v>1594286</v>
       </c>
       <c r="F148" t="n">
-        <v>1131.465711630047</v>
+        <v>1125.512271336101</v>
       </c>
       <c r="G148" t="n">
-        <v>56.28794354572779</v>
+        <v>56.28748245377871</v>
       </c>
       <c r="H148" t="n">
         <v>0.03</v>
       </c>
       <c r="I148" t="n">
-        <v>87773</v>
+        <v>88326</v>
       </c>
     </row>
     <row r="149">
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>60878</v>
+        <v>60867</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5629,7 +5629,7 @@
         <v>6.67</v>
       </c>
       <c r="I149" t="n">
-        <v>3220.05</v>
+        <v>3220.53</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12428739</v>
+        <v>12396689</v>
       </c>
       <c r="E150" t="n">
-        <v>12428739</v>
+        <v>12396689</v>
       </c>
       <c r="F150" t="n">
-        <v>195.887570448762</v>
+        <v>195.8640196491716</v>
       </c>
       <c r="G150" t="n">
-        <v>952.6071769495384</v>
+        <v>948.4505599254026</v>
       </c>
       <c r="H150" t="n">
         <v>0.16</v>
       </c>
       <c r="I150" t="n">
-        <v>2746354</v>
+        <v>2703932</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2250149</v>
+        <v>2239731</v>
       </c>
       <c r="E151" t="n">
-        <v>8167557</v>
+        <v>8129744</v>
       </c>
       <c r="F151" t="n">
-        <v>105.2632572428701</v>
+        <v>105.3332784131815</v>
       </c>
       <c r="G151" t="n">
-        <v>29.17716447001099</v>
+        <v>29.1771618773724</v>
       </c>
       <c r="H151" t="n">
         <v>0.52</v>
       </c>
       <c r="I151" t="n">
-        <v>224455</v>
+        <v>224574</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1211157</v>
+        <v>1222299</v>
       </c>
       <c r="E152" t="n">
-        <v>1211157</v>
+        <v>1222299</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>995.0700000000001</v>
+        <v>776.76</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>22991959</v>
+        <v>22978572</v>
       </c>
       <c r="E153" t="n">
-        <v>26561074</v>
+        <v>26547561</v>
       </c>
       <c r="F153" t="n">
-        <v>572.4310261836566</v>
+        <v>680.4819205254073</v>
       </c>
       <c r="G153" t="n">
-        <v>627.9700741073763</v>
+        <v>594.623535173043</v>
       </c>
       <c r="H153" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="I153" t="n">
-        <v>735225</v>
+        <v>736978</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2441655</v>
+        <v>2440793</v>
       </c>
       <c r="E154" t="n">
-        <v>18372827</v>
+        <v>18366337</v>
       </c>
       <c r="F154" t="n">
-        <v>3230.574634911379</v>
+        <v>3216.744553743719</v>
       </c>
       <c r="G154" t="n">
-        <v>3728.678501140536</v>
+        <v>3406.79696134019</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>159386</v>
+        <v>158853</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>19653651</v>
+        <v>19716804</v>
       </c>
       <c r="E155" t="n">
-        <v>78614605</v>
+        <v>78867216</v>
       </c>
       <c r="F155" t="n">
-        <v>637.8924270453629</v>
+        <v>902.1898111990906</v>
       </c>
       <c r="G155" t="n">
-        <v>491.4215420349892</v>
+        <v>3006.793634600643</v>
       </c>
       <c r="H155" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="I155" t="n">
-        <v>3792506</v>
+        <v>3818589</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>286979637</v>
+        <v>287301915</v>
       </c>
       <c r="E156" t="n">
-        <v>286979637</v>
+        <v>287301915</v>
       </c>
       <c r="F156" t="n">
-        <v>258475.0223383419</v>
+        <v>363492.2172424165</v>
       </c>
       <c r="G156" t="n">
-        <v>370058.5581821827</v>
+        <v>281517.4840261528</v>
       </c>
       <c r="H156" t="n">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="I156" t="n">
-        <v>19914083</v>
+        <v>19877051</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12797303</v>
+        <v>12853256</v>
       </c>
       <c r="E157" t="n">
-        <v>40475900</v>
+        <v>40652872</v>
       </c>
       <c r="F157" t="n">
-        <v>3767.15901917599</v>
+        <v>2738.366618314448</v>
       </c>
       <c r="G157" t="n">
-        <v>11560.20545519814</v>
+        <v>11045.78874727798</v>
       </c>
       <c r="H157" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I157" t="n">
-        <v>1039455</v>
+        <v>1079549</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1093119</v>
+        <v>1092410</v>
       </c>
       <c r="E158" t="n">
-        <v>2489686</v>
+        <v>2488071</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6.92</v>
+        <v>6.54</v>
       </c>
       <c r="I158" t="n">
-        <v>427.02</v>
+        <v>426.89</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17285900</v>
+        <v>17342176</v>
       </c>
       <c r="E159" t="n">
-        <v>17285900</v>
+        <v>17342176</v>
       </c>
       <c r="F159" t="n">
-        <v>6127.734419869785</v>
+        <v>7049.18712348074</v>
       </c>
       <c r="G159" t="n">
-        <v>17081.22272094845</v>
+        <v>16334.15295336893</v>
       </c>
       <c r="H159" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>7235041</v>
+        <v>7248106</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4610752</v>
+        <v>4609915</v>
       </c>
       <c r="E160" t="n">
-        <v>8488887</v>
+        <v>8487346</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>12.23</v>
+        <v>12.12</v>
       </c>
       <c r="I160" t="n">
         <v>54.95</v>
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>97545</v>
+        <v>97561</v>
       </c>
       <c r="E161" t="n">
-        <v>118846</v>
+        <v>118866</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>11.27</v>
+        <v>10.66</v>
       </c>
       <c r="I161" t="n">
-        <v>2054.24</v>
+        <v>2054.16</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19897661</v>
+        <v>19888760</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>20.62</v>
+        <v>20.64</v>
       </c>
       <c r="I162" t="n">
-        <v>3613.06</v>
+        <v>3612.64</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>462933</v>
+        <v>461353</v>
       </c>
       <c r="E163" t="n">
-        <v>583122</v>
+        <v>581132</v>
       </c>
       <c r="F163" t="n">
-        <v>115.6228395023325</v>
+        <v>113.5427895098464</v>
       </c>
       <c r="G163" t="n">
-        <v>141.1225559139664</v>
+        <v>141.8712341946936</v>
       </c>
       <c r="H163" t="n">
         <v>0.51</v>
       </c>
       <c r="I163" t="n">
-        <v>187203</v>
+        <v>151763</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>105961</v>
+        <v>105942</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>6.35</v>
+        <v>6.18</v>
       </c>
       <c r="I164" t="n">
-        <v>3201.61</v>
+        <v>3201.55</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12124055</v>
+        <v>12138300</v>
       </c>
       <c r="E165" t="n">
-        <v>18455546</v>
+        <v>18477230</v>
       </c>
       <c r="F165" t="n">
-        <v>2573.62494619587</v>
+        <v>3725.364845913088</v>
       </c>
       <c r="G165" t="n">
-        <v>1480.14945326494</v>
+        <v>1170.721035976513</v>
       </c>
       <c r="H165" t="n">
         <v>0.96</v>
       </c>
       <c r="I165" t="n">
-        <v>671445</v>
+        <v>673580</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>288598960</v>
+        <v>288958357</v>
       </c>
       <c r="E166" t="n">
-        <v>288598960</v>
+        <v>288958357</v>
       </c>
       <c r="F166" t="n">
-        <v>209686.9706378854</v>
+        <v>233097.0809361343</v>
       </c>
       <c r="G166" t="n">
-        <v>339539.2602266967</v>
+        <v>305366.7607551231</v>
       </c>
       <c r="H166" t="n">
         <v>0.04</v>
       </c>
       <c r="I166" t="n">
-        <v>93133165</v>
+        <v>93211987</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10154674</v>
+        <v>10148338</v>
       </c>
       <c r="E167" t="n">
-        <v>28830813</v>
+        <v>28812824</v>
       </c>
       <c r="F167" t="n">
-        <v>492.9532189256576</v>
+        <v>492.9502139102121</v>
       </c>
       <c r="G167" t="n">
-        <v>601.5032518939603</v>
+        <v>505.535462424293</v>
       </c>
       <c r="H167" t="n">
         <v>1.03</v>
       </c>
       <c r="I167" t="n">
-        <v>101257</v>
+        <v>101338</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11630690</v>
+        <v>11666256</v>
       </c>
       <c r="F168" t="n">
-        <v>187.6523618623847</v>
+        <v>189.3666712803587</v>
       </c>
       <c r="G168" t="n">
-        <v>193.6790648870896</v>
+        <v>390.7227887498391</v>
       </c>
       <c r="H168" t="n">
-        <v>1.38</v>
+        <v>2.16</v>
       </c>
       <c r="I168" t="n">
-        <v>79472</v>
+        <v>77142</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4557466</v>
+        <v>4567527</v>
       </c>
       <c r="E169" t="n">
-        <v>31140845</v>
+        <v>31209593</v>
       </c>
       <c r="F169" t="n">
-        <v>1465.654076571729</v>
+        <v>482.9871034590134</v>
       </c>
       <c r="G169" t="n">
-        <v>1643.740942599705</v>
+        <v>1483.224746163245</v>
       </c>
       <c r="H169" t="n">
         <v>0.64</v>
       </c>
       <c r="I169" t="n">
-        <v>3007231</v>
+        <v>3009045</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2655961</v>
+        <v>2658707</v>
       </c>
       <c r="E170" t="n">
-        <v>3930934</v>
+        <v>3934777</v>
       </c>
       <c r="F170" t="n">
-        <v>2936.75187535126</v>
+        <v>1725.777958195076</v>
       </c>
       <c r="G170" t="n">
-        <v>1881.248567678036</v>
+        <v>4319.470195305474</v>
       </c>
       <c r="H170" t="n">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="I170" t="n">
-        <v>92254</v>
+        <v>92423</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>84069589</v>
+        <v>84171987</v>
       </c>
       <c r="E171" t="n">
-        <v>484445235</v>
+        <v>485035297</v>
       </c>
       <c r="F171" t="n">
-        <v>282486.0591515334</v>
+        <v>345678.0196966866</v>
       </c>
       <c r="G171" t="n">
-        <v>255112.6866524541</v>
+        <v>275998.7827001509</v>
       </c>
       <c r="H171" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="I171" t="n">
-        <v>21276859</v>
+        <v>20908220</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13809733</v>
+        <v>13806710</v>
       </c>
       <c r="E172" t="n">
-        <v>13809733</v>
+        <v>13806710</v>
       </c>
       <c r="F172" t="n">
-        <v>5264.736027591975</v>
+        <v>5448.381615987277</v>
       </c>
       <c r="G172" t="n">
-        <v>5721.038085598985</v>
+        <v>5935.831118876812</v>
       </c>
       <c r="H172" t="n">
         <v>1.44</v>
       </c>
       <c r="I172" t="n">
-        <v>709907</v>
+        <v>711097</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6114866</v>
+        <v>6107482</v>
       </c>
       <c r="E173" t="n">
-        <v>17370580</v>
+        <v>17349602</v>
       </c>
       <c r="F173" t="n">
-        <v>765.8520658567346</v>
+        <v>733.7658860205657</v>
       </c>
       <c r="G173" t="n">
-        <v>7939.11117395311</v>
+        <v>8494.101106860511</v>
       </c>
       <c r="H173" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="I173" t="n">
-        <v>83794</v>
+        <v>84629</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19918710</v>
+        <v>20159376</v>
       </c>
       <c r="E174" t="n">
-        <v>19918710</v>
+        <v>20159376</v>
       </c>
       <c r="F174" t="n">
-        <v>8.554506560379899</v>
+        <v>8.554505800239417</v>
       </c>
       <c r="G174" t="n">
-        <v>1.061660988940388</v>
+        <v>1.061660894602803</v>
       </c>
       <c r="H174" t="n">
         <v>1.67</v>
       </c>
       <c r="I174" t="n">
-        <v>111081</v>
+        <v>112189</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1313448</v>
+        <v>1313009</v>
       </c>
       <c r="F175" t="n">
-        <v>87.89690054227721</v>
+        <v>88.98907041466073</v>
       </c>
       <c r="G175" t="n">
-        <v>704.9982272784112</v>
+        <v>713.3808403451151</v>
       </c>
       <c r="H175" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="I175" t="n">
-        <v>42832</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>121707</v>
+        <v>122545</v>
       </c>
       <c r="E176" t="n">
-        <v>264953</v>
+        <v>266777</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>5.7</v>
       </c>
       <c r="I176" t="n">
-        <v>42165</v>
+        <v>42812</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2875283</v>
+        <v>2880706</v>
       </c>
       <c r="F177" t="n">
-        <v>445.9440373349846</v>
+        <v>244.8455032172812</v>
       </c>
       <c r="G177" t="n">
-        <v>307.7971728047576</v>
+        <v>307.7971454543676</v>
       </c>
       <c r="H177" t="n">
         <v>2.08</v>
       </c>
       <c r="I177" t="n">
-        <v>354126</v>
+        <v>355368</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>235995985</v>
+        <v>235690541</v>
       </c>
       <c r="E178" t="n">
-        <v>235998330</v>
+        <v>235692882</v>
       </c>
       <c r="F178" t="n">
-        <v>44376.42554259187</v>
+        <v>44697.71800156825</v>
       </c>
       <c r="G178" t="n">
-        <v>83367.65217613449</v>
+        <v>81804.82012605936</v>
       </c>
       <c r="H178" t="n">
         <v>0.28</v>
       </c>
       <c r="I178" t="n">
-        <v>2959069</v>
+        <v>2957899</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9157575</v>
+        <v>9143905</v>
       </c>
       <c r="E179" t="n">
-        <v>9157575</v>
+        <v>9143905</v>
       </c>
       <c r="F179" t="n">
-        <v>611.3637836460942</v>
+        <v>611.3677833745598</v>
       </c>
       <c r="G179" t="n">
-        <v>54.3413823620407</v>
+        <v>54.34173787994953</v>
       </c>
       <c r="H179" t="n">
         <v>3.62</v>
       </c>
       <c r="I179" t="n">
-        <v>2951659</v>
+        <v>2953548</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>188995</v>
+        <v>188403</v>
       </c>
       <c r="E180" t="n">
-        <v>1459424</v>
+        <v>1454847</v>
       </c>
       <c r="F180" t="n">
-        <v>575.669687686493</v>
+        <v>547.5962892641569</v>
       </c>
       <c r="G180" t="n">
-        <v>50.21600277010368</v>
+        <v>7.039100223059298</v>
       </c>
       <c r="H180" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="I180" t="n">
-        <v>46709</v>
+        <v>46519</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>29432778</v>
+        <v>29599391</v>
       </c>
       <c r="E181" t="n">
-        <v>131782622</v>
+        <v>132528616</v>
       </c>
       <c r="F181" t="n">
-        <v>32330.79973708188</v>
+        <v>38737.54506170661</v>
       </c>
       <c r="G181" t="n">
-        <v>64889.26637803176</v>
+        <v>66624.75774897338</v>
       </c>
       <c r="H181" t="n">
         <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>15062345</v>
+        <v>15229381</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1319581</v>
+        <v>1319143</v>
       </c>
       <c r="F182" t="n">
-        <v>15.06830187962295</v>
+        <v>14.90205390075318</v>
       </c>
       <c r="G182" t="n">
-        <v>452.6533846204446</v>
+        <v>896.648481599113</v>
       </c>
       <c r="H182" t="n">
-        <v>1.7</v>
+        <v>0.55</v>
       </c>
       <c r="I182" t="n">
-        <v>93363</v>
+        <v>93367</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2890126</v>
+        <v>2884803</v>
       </c>
       <c r="E183" t="n">
-        <v>2890126</v>
+        <v>2884803</v>
       </c>
       <c r="F183" t="n">
-        <v>289.1882610122215</v>
+        <v>197.1422606982693</v>
       </c>
       <c r="G183" t="n">
-        <v>190.3702907397489</v>
+        <v>490.4864848187115</v>
       </c>
       <c r="H183" t="n">
-        <v>1.69</v>
+        <v>1.18</v>
       </c>
       <c r="I183" t="n">
-        <v>293478</v>
+        <v>293365</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>553342</v>
+        <v>553508</v>
       </c>
       <c r="E184" t="n">
-        <v>553342</v>
+        <v>553508</v>
       </c>
       <c r="F184" t="n">
-        <v>9.991016443180735</v>
+        <v>6.443220244978015</v>
       </c>
       <c r="G184" t="n">
-        <v>178.2485971182343</v>
+        <v>178.2485812793343</v>
       </c>
       <c r="H184" t="n">
         <v>3.64</v>
       </c>
       <c r="I184" t="n">
-        <v>1175554</v>
+        <v>1162140</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14302580</v>
+        <v>14326670</v>
       </c>
       <c r="E185" t="n">
-        <v>18209468</v>
+        <v>18240138</v>
       </c>
       <c r="F185" t="n">
-        <v>164.1904936243149</v>
+        <v>223.400169243127</v>
       </c>
       <c r="G185" t="n">
-        <v>337.1809837209361</v>
+        <v>133.1613159133573</v>
       </c>
       <c r="H185" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I185" t="n">
-        <v>934008</v>
+        <v>937785</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1743994</v>
+        <v>1785048</v>
       </c>
       <c r="E186" t="n">
-        <v>1743994</v>
+        <v>1785048</v>
       </c>
       <c r="F186" t="n">
-        <v>45.00561415180007</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8103121932946594</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>3.83</v>
+        <v>4.14</v>
       </c>
       <c r="I186" t="n">
-        <v>3042.45</v>
+        <v>3042.38</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48041119</v>
+        <v>48040098</v>
       </c>
       <c r="E187" t="n">
-        <v>311533871</v>
+        <v>311527251</v>
       </c>
       <c r="F187" t="n">
-        <v>126935.6581620002</v>
+        <v>116325.1191920297</v>
       </c>
       <c r="G187" t="n">
-        <v>171551.3996425384</v>
+        <v>193620.4020684583</v>
       </c>
       <c r="H187" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I187" t="n">
-        <v>21952483</v>
+        <v>21991387</v>
       </c>
     </row>
     <row r="188">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8133786</v>
+        <v>8092544</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6989,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>6.16</v>
+        <v>5.93</v>
       </c>
       <c r="I188" t="n">
-        <v>308152</v>
+        <v>307383</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7230891</v>
+        <v>7262722</v>
       </c>
       <c r="E189" t="n">
-        <v>7241237</v>
+        <v>7273122</v>
       </c>
       <c r="F189" t="n">
-        <v>500.0059113704094</v>
+        <v>342.0887295479506</v>
       </c>
       <c r="G189" t="n">
-        <v>106.5089149726798</v>
+        <v>106.5138621162451</v>
       </c>
       <c r="H189" t="n">
-        <v>0.86</v>
+        <v>0.51</v>
       </c>
       <c r="I189" t="n">
-        <v>937050</v>
+        <v>941686</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4413253</v>
+        <v>4422315</v>
       </c>
       <c r="F190" t="n">
-        <v>4.9020843365862</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>71.786101916909</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>2.87</v>
+        <v>4.24</v>
       </c>
       <c r="I190" t="n">
-        <v>213488</v>
+        <v>214719</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>94387585</v>
+        <v>94534430</v>
       </c>
       <c r="E191" t="n">
-        <v>95403598</v>
+        <v>95552024</v>
       </c>
       <c r="F191" t="n">
-        <v>34178.7654730416</v>
+        <v>29846.59094620359</v>
       </c>
       <c r="G191" t="n">
-        <v>27400.45975740188</v>
+        <v>38374.00136643174</v>
       </c>
       <c r="H191" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I191" t="n">
-        <v>79534719</v>
+        <v>78520617</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>242339951</v>
+        <v>241542330</v>
       </c>
       <c r="E192" t="n">
-        <v>242339951</v>
+        <v>241542330</v>
       </c>
       <c r="F192" t="n">
-        <v>34850.0628707028</v>
+        <v>39516.68936444406</v>
       </c>
       <c r="G192" t="n">
-        <v>50189.48507239308</v>
+        <v>57004.35644448807</v>
       </c>
       <c r="H192" t="n">
         <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>94139640</v>
+        <v>94023108</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>22940181</v>
+        <v>22959505</v>
       </c>
       <c r="E193" t="n">
-        <v>137255712</v>
+        <v>137371331</v>
       </c>
       <c r="F193" t="n">
-        <v>34627.72756769854</v>
+        <v>42174.53474980956</v>
       </c>
       <c r="G193" t="n">
-        <v>81214.14687069664</v>
+        <v>67670.78827078424</v>
       </c>
       <c r="H193" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>18394159</v>
+        <v>18217874</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13321753</v>
+        <v>13309528</v>
       </c>
       <c r="E194" t="n">
-        <v>40262036</v>
+        <v>40225087</v>
       </c>
       <c r="F194" t="n">
-        <v>623.7923495726009</v>
+        <v>580.0095552361227</v>
       </c>
       <c r="G194" t="n">
-        <v>1070.25325708906</v>
+        <v>874.4135782973091</v>
       </c>
       <c r="H194" t="n">
         <v>0.48</v>
       </c>
       <c r="I194" t="n">
-        <v>2443745</v>
+        <v>2461713</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52100007</v>
+        <v>52183667</v>
       </c>
       <c r="E195" t="n">
-        <v>89988038</v>
+        <v>90132538</v>
       </c>
       <c r="F195" t="n">
-        <v>14918.17472873104</v>
+        <v>15009.60157970196</v>
       </c>
       <c r="G195" t="n">
-        <v>8767.883672094638</v>
+        <v>8989.952786714006</v>
       </c>
       <c r="H195" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I195" t="n">
-        <v>2247514</v>
+        <v>2284012</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4067654</v>
+        <v>4079087</v>
       </c>
       <c r="E196" t="n">
-        <v>4067654</v>
+        <v>4079087</v>
       </c>
       <c r="F196" t="n">
-        <v>14.27759441083484</v>
+        <v>234.9156119122873</v>
       </c>
       <c r="G196" t="n">
-        <v>21.03351895590444</v>
+        <v>19.98773376819764</v>
       </c>
       <c r="H196" t="n">
-        <v>0.68</v>
+        <v>1.68</v>
       </c>
       <c r="I196" t="n">
-        <v>1758701</v>
+        <v>1753748</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>186735</v>
+        <v>186567</v>
       </c>
       <c r="F197" t="n">
-        <v>568.6494457788268</v>
+        <v>571.1209307084378</v>
       </c>
       <c r="G197" t="n">
-        <v>4.856992633619</v>
+        <v>4.856992202033999</v>
       </c>
       <c r="H197" t="n">
         <v>3.34</v>
       </c>
       <c r="I197" t="n">
-        <v>65756</v>
+        <v>66544</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6307976</v>
+        <v>6296151</v>
       </c>
       <c r="E198" t="n">
-        <v>32452619</v>
+        <v>32391784</v>
       </c>
       <c r="F198" t="n">
-        <v>161.163148863888</v>
+        <v>207.0860878904212</v>
       </c>
       <c r="G198" t="n">
-        <v>838.9518986711755</v>
+        <v>788.1798843209776</v>
       </c>
       <c r="H198" t="n">
         <v>1.05</v>
       </c>
       <c r="I198" t="n">
-        <v>966603</v>
+        <v>967554</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>168481759</v>
+        <v>169039682</v>
       </c>
       <c r="E199" t="n">
-        <v>196836441</v>
+        <v>197488261</v>
       </c>
       <c r="F199" t="n">
-        <v>25712.42645692554</v>
+        <v>38559.47439999908</v>
       </c>
       <c r="G199" t="n">
-        <v>5418.022233272824</v>
+        <v>4866.832316227905</v>
       </c>
       <c r="H199" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="I199" t="n">
-        <v>7319470</v>
+        <v>7314228</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>301006</v>
+        <v>297897</v>
       </c>
       <c r="F200" t="n">
-        <v>6.900725271062416</v>
+        <v>15.43139734573087</v>
       </c>
       <c r="G200" t="n">
-        <v>14.28275173213268</v>
+        <v>66.96743717462883</v>
       </c>
       <c r="H200" t="n">
-        <v>3.26</v>
+        <v>1.69</v>
       </c>
       <c r="I200" t="n">
-        <v>254323</v>
+        <v>252692</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7583537</v>
+        <v>7583640</v>
       </c>
       <c r="F201" t="n">
-        <v>922.5007965476881</v>
+        <v>928.9919721213982</v>
       </c>
       <c r="G201" t="n">
-        <v>545.1599773957092</v>
+        <v>544.5634593314963</v>
       </c>
       <c r="H201" t="n">
         <v>0.11</v>
       </c>
       <c r="I201" t="n">
-        <v>650064</v>
+        <v>651746</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33999</v>
+        <v>33981</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>90.86</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32448946</v>
+        <v>32422476</v>
       </c>
       <c r="E203" t="n">
-        <v>161935199</v>
+        <v>161803101</v>
       </c>
       <c r="F203" t="n">
-        <v>87880.3971024334</v>
+        <v>109150.9533667594</v>
       </c>
       <c r="G203" t="n">
-        <v>116774.8680235699</v>
+        <v>113153.9348534493</v>
       </c>
       <c r="H203" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I203" t="n">
-        <v>14445101</v>
+        <v>14425538</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1913620</v>
+        <v>1913591</v>
       </c>
       <c r="E204" t="n">
-        <v>1913620</v>
+        <v>1913591</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>21.53</v>
       </c>
       <c r="I204" t="n">
-        <v>5363.38</v>
+        <v>4354.1</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>152965</v>
+        <v>152892</v>
       </c>
       <c r="F205" t="n">
-        <v>24.76431643385614</v>
+        <v>1126.74943383399</v>
       </c>
       <c r="G205" t="n">
-        <v>18.24090331984595</v>
+        <v>56.27661626901276</v>
       </c>
       <c r="H205" t="n">
-        <v>3.12</v>
+        <v>2.52</v>
       </c>
       <c r="I205" t="n">
-        <v>30366</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3086.17</v>
+        <v>3085.61</v>
       </c>
       <c r="E206" t="n">
-        <v>36886</v>
+        <v>36880</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>6.99</v>
       </c>
       <c r="I206" t="n">
-        <v>3814.6</v>
+        <v>3807.37</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>283050649</v>
+        <v>284251449</v>
       </c>
       <c r="E208" t="n">
-        <v>523708249</v>
+        <v>525930003</v>
       </c>
       <c r="F208" t="n">
-        <v>28401.62083066322</v>
+        <v>26644.67900827838</v>
       </c>
       <c r="G208" t="n">
-        <v>23608.80913888193</v>
+        <v>23933.52571527378</v>
       </c>
       <c r="H208" t="n">
         <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>21297886</v>
+        <v>21443541</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>69585528</v>
+        <v>69581169</v>
       </c>
       <c r="E209" t="n">
-        <v>663701152</v>
+        <v>663658672</v>
       </c>
       <c r="F209" t="n">
-        <v>225844.8974741757</v>
+        <v>277987.1121779628</v>
       </c>
       <c r="G209" t="n">
-        <v>279091.0078287853</v>
+        <v>301966.8950666212</v>
       </c>
       <c r="H209" t="n">
         <v>0.02</v>
       </c>
       <c r="I209" t="n">
-        <v>23872860</v>
+        <v>23890273</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2246306</v>
+        <v>2247994</v>
       </c>
       <c r="F210" t="n">
-        <v>999.6176988312216</v>
+        <v>2.541759585908581</v>
       </c>
       <c r="G210" t="n">
-        <v>429.1613792286476</v>
+        <v>1289.090403539473</v>
       </c>
       <c r="H210" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="I210" t="n">
-        <v>44265</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="211">
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>92628</v>
+        <v>93423</v>
       </c>
       <c r="E211" t="n">
-        <v>770036</v>
+        <v>776647</v>
       </c>
       <c r="F211" t="n">
-        <v>0.52610144888864</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>13.68121011839366</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>3.7</v>
+        <v>6.25</v>
       </c>
       <c r="I211" t="n">
-        <v>55006</v>
+        <v>55878</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1831881</v>
+        <v>1834042</v>
       </c>
       <c r="E212" t="n">
-        <v>5231617</v>
+        <v>5237789</v>
       </c>
       <c r="F212" t="n">
-        <v>89.23883607008612</v>
+        <v>109.6922507807432</v>
       </c>
       <c r="G212" t="n">
-        <v>917.4709010570098</v>
+        <v>946.7189329771365</v>
       </c>
       <c r="H212" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I212" t="n">
-        <v>72371</v>
+        <v>72510</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9043561</v>
+        <v>9138149</v>
       </c>
       <c r="E213" t="n">
-        <v>26809984</v>
+        <v>27090394</v>
       </c>
       <c r="F213" t="n">
-        <v>2045.022755737143</v>
+        <v>1759.151236353272</v>
       </c>
       <c r="G213" t="n">
-        <v>1997.126738434231</v>
+        <v>821.8784888855312</v>
       </c>
       <c r="H213" t="n">
         <v>0.46</v>
       </c>
       <c r="I213" t="n">
-        <v>6593256</v>
+        <v>6617946</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>15056466</v>
+        <v>15048748</v>
       </c>
       <c r="F214" t="n">
-        <v>190.988480704661</v>
+        <v>201.6692359455442</v>
       </c>
       <c r="G214" t="n">
-        <v>92.8599803730115</v>
+        <v>92.85997212161445</v>
       </c>
       <c r="H214" t="n">
         <v>1.92</v>
       </c>
       <c r="I214" t="n">
-        <v>426.81</v>
+        <v>426.78</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1941603</v>
+        <v>1940274</v>
       </c>
       <c r="E215" t="n">
-        <v>5616574</v>
+        <v>5612729</v>
       </c>
       <c r="F215" t="n">
-        <v>125.7447254236224</v>
+        <v>127.0185607821246</v>
       </c>
       <c r="G215" t="n">
-        <v>63.53016143415758</v>
+        <v>117.5000159647282</v>
       </c>
       <c r="H215" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
       <c r="I215" t="n">
-        <v>54232</v>
+        <v>54123</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2187839</v>
+        <v>2190447</v>
       </c>
       <c r="E216" t="n">
-        <v>19298189</v>
+        <v>19321195</v>
       </c>
       <c r="F216" t="n">
-        <v>2021.79802951753</v>
+        <v>2144.774090241147</v>
       </c>
       <c r="G216" t="n">
-        <v>1443.638617546995</v>
+        <v>561.9807309410073</v>
       </c>
       <c r="H216" t="n">
         <v>1.48</v>
       </c>
       <c r="I216" t="n">
-        <v>86387</v>
+        <v>86295</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43347726</v>
+        <v>43291804</v>
       </c>
       <c r="E217" t="n">
-        <v>43347726</v>
+        <v>43291804</v>
       </c>
       <c r="F217" t="n">
-        <v>35682.54633045823</v>
+        <v>36151.82094838462</v>
       </c>
       <c r="G217" t="n">
-        <v>44754.43472872226</v>
+        <v>43645.45880103354</v>
       </c>
       <c r="H217" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I217" t="n">
-        <v>11692806</v>
+        <v>9303139</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8279559</v>
+        <v>8280219</v>
       </c>
       <c r="E218" t="n">
-        <v>11796474</v>
+        <v>11797415</v>
       </c>
       <c r="F218" t="n">
-        <v>2130.523148928421</v>
+        <v>1989.050043284807</v>
       </c>
       <c r="G218" t="n">
-        <v>2192.690838058232</v>
+        <v>3613.608623386469</v>
       </c>
       <c r="H218" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="I218" t="n">
-        <v>293510</v>
+        <v>295071</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15863347</v>
+        <v>15828823</v>
       </c>
       <c r="F219" t="n">
-        <v>2.122651458455062</v>
+        <v>2.122665345488753</v>
       </c>
       <c r="G219" t="n">
-        <v>412.723535005592</v>
+        <v>412.7262351689244</v>
       </c>
       <c r="H219" t="n">
         <v>0.54</v>
       </c>
       <c r="I219" t="n">
-        <v>1114669</v>
+        <v>1118918</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>715973</v>
+        <v>715368</v>
       </c>
       <c r="F220" t="n">
-        <v>84.1361873727287</v>
+        <v>84.13617989651468</v>
       </c>
       <c r="G220" t="n">
-        <v>258.1488794132907</v>
+        <v>258.1488564745727</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>180135</v>
+        <v>177739</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2624397</v>
+        <v>2633694</v>
       </c>
       <c r="E221" t="n">
-        <v>2626670</v>
+        <v>2635975</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>4.3</v>
+        <v>6.15</v>
       </c>
       <c r="I221" t="n">
-        <v>103972</v>
+        <v>105042</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1305993</v>
+        <v>1310909</v>
       </c>
       <c r="E222" t="n">
-        <v>3951748</v>
+        <v>3960400</v>
       </c>
       <c r="F222" t="n">
-        <v>278.1750811691707</v>
+        <v>278.1750568921553</v>
       </c>
       <c r="G222" t="n">
-        <v>452.476061130385</v>
+        <v>452.4760216416996</v>
       </c>
       <c r="H222" t="n">
         <v>2.01</v>
       </c>
       <c r="I222" t="n">
-        <v>46694</v>
+        <v>31533</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33618913</v>
+        <v>33814241</v>
       </c>
       <c r="E223" t="n">
-        <v>238352610</v>
+        <v>239737455</v>
       </c>
       <c r="F223" t="n">
-        <v>37150.30190068326</v>
+        <v>36491.62579836917</v>
       </c>
       <c r="G223" t="n">
-        <v>1718.138503758297</v>
+        <v>12189.52462540411</v>
       </c>
       <c r="H223" t="n">
-        <v>1.15</v>
+        <v>0.37</v>
       </c>
       <c r="I223" t="n">
-        <v>6398631</v>
+        <v>6403570</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>54548</v>
+        <v>54664</v>
       </c>
       <c r="E224" t="n">
-        <v>284608</v>
+        <v>285216</v>
       </c>
       <c r="F224" t="n">
-        <v>17.44107377617206</v>
+        <v>17.44107218625335</v>
       </c>
       <c r="G224" t="n">
-        <v>149.1061967794559</v>
+        <v>163.9271041972272</v>
       </c>
       <c r="H224" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="I224" t="n">
-        <v>201391</v>
+        <v>200732</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1244915</v>
+        <v>1253272</v>
       </c>
       <c r="E225" t="n">
-        <v>7718587</v>
+        <v>7770400</v>
       </c>
       <c r="F225" t="n">
-        <v>907.506926396131</v>
+        <v>1190.698601700912</v>
       </c>
       <c r="G225" t="n">
-        <v>840.2821049000844</v>
+        <v>914.0423893105811</v>
       </c>
       <c r="H225" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>773289</v>
+        <v>776011</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>578423029</v>
+        <v>579548419</v>
       </c>
       <c r="E226" t="n">
-        <v>2240147051</v>
+        <v>2244505520</v>
       </c>
       <c r="F226" t="n">
-        <v>147495.9796804853</v>
+        <v>165682.846696048</v>
       </c>
       <c r="G226" t="n">
-        <v>326629.4384664791</v>
+        <v>346483.2820954039</v>
       </c>
       <c r="H226" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I226" t="n">
-        <v>62412116</v>
+        <v>62010989</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20928023</v>
+        <v>20876541</v>
       </c>
       <c r="F227" t="n">
-        <v>1037.379336174158</v>
+        <v>1113.627889072213</v>
       </c>
       <c r="G227" t="n">
-        <v>2553.924175441675</v>
+        <v>3250.67735312987</v>
       </c>
       <c r="H227" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>19841362</v>
+        <v>19980949</v>
       </c>
     </row>
     <row r="228">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>763441</v>
+        <v>763414</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>5.01</v>
+        <v>6.57</v>
       </c>
       <c r="I228" t="n">
-        <v>143439</v>
+        <v>143493</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5486377</v>
+        <v>5485974</v>
       </c>
       <c r="E229" t="n">
-        <v>24558303</v>
+        <v>24556499</v>
       </c>
       <c r="F229" t="n">
-        <v>796.609857127799</v>
+        <v>786.2854121793969</v>
       </c>
       <c r="G229" t="n">
-        <v>605.7900121358153</v>
+        <v>590.9430735008995</v>
       </c>
       <c r="H229" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I229" t="n">
-        <v>191918</v>
+        <v>191752</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6463867</v>
+        <v>6464170</v>
       </c>
       <c r="E230" t="n">
-        <v>12375597</v>
+        <v>12376178</v>
       </c>
       <c r="F230" t="n">
-        <v>126.4644599469576</v>
+        <v>85.53533091166889</v>
       </c>
       <c r="G230" t="n">
-        <v>104.4740212201481</v>
+        <v>104.6221485548687</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I230" t="n">
-        <v>33029</v>
+        <v>33047</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3183989</v>
+        <v>3182745</v>
       </c>
       <c r="E231" t="n">
-        <v>20937171</v>
+        <v>20928989</v>
       </c>
       <c r="F231" t="n">
-        <v>142.7819878026221</v>
+        <v>145.0854485501607</v>
       </c>
       <c r="G231" t="n">
-        <v>224.1281688234401</v>
+        <v>1158.613912826835</v>
       </c>
       <c r="H231" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="I231" t="n">
-        <v>1652024</v>
+        <v>1610068</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>109230563</v>
+        <v>109151351</v>
       </c>
       <c r="E232" t="n">
-        <v>1034109019</v>
+        <v>1033359102</v>
       </c>
       <c r="F232" t="n">
-        <v>63363.43247657646</v>
+        <v>70467.8294284092</v>
       </c>
       <c r="G232" t="n">
-        <v>25767.47211618556</v>
+        <v>25140.89596578519</v>
       </c>
       <c r="H232" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I232" t="n">
-        <v>17635754</v>
+        <v>17624089</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.28</v>
       </c>
       <c r="I233" t="n">
-        <v>308.1</v>
+        <v>308.03</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>100028130</v>
+        <v>99701373</v>
       </c>
       <c r="E234" t="n">
-        <v>152595257</v>
+        <v>152096782</v>
       </c>
       <c r="F234" t="n">
-        <v>32810.93568956257</v>
+        <v>22611.22250159657</v>
       </c>
       <c r="G234" t="n">
-        <v>29682.56952250545</v>
+        <v>28809.53702424299</v>
       </c>
       <c r="H234" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I234" t="n">
-        <v>13419098</v>
+        <v>13421596</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15533363</v>
+        <v>15553135</v>
       </c>
       <c r="E235" t="n">
-        <v>21310429</v>
+        <v>21337553</v>
       </c>
       <c r="F235" t="n">
-        <v>1052.839293653233</v>
+        <v>1035.988969877434</v>
       </c>
       <c r="G235" t="n">
-        <v>1870.46719883597</v>
+        <v>1781.361604257615</v>
       </c>
       <c r="H235" t="n">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="I235" t="n">
-        <v>957334</v>
+        <v>957718</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>120120831</v>
+        <v>120306802</v>
       </c>
       <c r="E236" t="n">
-        <v>460802843</v>
+        <v>461516257</v>
       </c>
       <c r="F236" t="n">
-        <v>342314.4291660946</v>
+        <v>414826.2196324496</v>
       </c>
       <c r="G236" t="n">
-        <v>431341.8971834416</v>
+        <v>400019.7897891901</v>
       </c>
       <c r="H236" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I236" t="n">
-        <v>33456682</v>
+        <v>32934586</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>637028</v>
+        <v>639904</v>
       </c>
       <c r="F237" t="n">
-        <v>438.1197430236587</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>99.10770249215514</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>3.84</v>
+        <v>6.39</v>
       </c>
       <c r="I237" t="n">
-        <v>41338</v>
+        <v>41886</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>769518</v>
+        <v>758684</v>
       </c>
       <c r="F238" t="n">
-        <v>102.3019172267466</v>
+        <v>124.3910674221381</v>
       </c>
       <c r="G238" t="n">
-        <v>105.5661636706939</v>
+        <v>90.80515408793599</v>
       </c>
       <c r="H238" t="n">
-        <v>2.02</v>
+        <v>3.82</v>
       </c>
       <c r="I238" t="n">
-        <v>284256</v>
+        <v>286260</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3083372</v>
+        <v>3077158</v>
       </c>
       <c r="E239" t="n">
-        <v>29215405</v>
+        <v>29156525</v>
       </c>
       <c r="F239" t="n">
-        <v>887.9069407542263</v>
+        <v>1008.070957144595</v>
       </c>
       <c r="G239" t="n">
-        <v>1722.504479336336</v>
+        <v>1726.869225007124</v>
       </c>
       <c r="H239" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I239" t="n">
-        <v>222022</v>
+        <v>224764</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>724389</v>
+        <v>725520</v>
       </c>
       <c r="E240" t="n">
-        <v>774367</v>
+        <v>775577</v>
       </c>
       <c r="F240" t="n">
-        <v>197.1191850478201</v>
+        <v>19.43901535399264</v>
       </c>
       <c r="G240" t="n">
-        <v>787.8360017182262</v>
+        <v>777.9698824660416</v>
       </c>
       <c r="H240" t="n">
-        <v>3.26</v>
+        <v>2.08</v>
       </c>
       <c r="I240" t="n">
-        <v>126226</v>
+        <v>126258</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>384044</v>
+        <v>383879</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>12.18</v>
       </c>
       <c r="I241" t="n">
-        <v>699.6799999999999</v>
+        <v>699.49</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>129155</v>
+        <v>130971</v>
       </c>
       <c r="F242" t="n">
-        <v>8.276941096929322</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>1.252930240173945</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>3.73</v>
+        <v>4.44</v>
       </c>
       <c r="I242" t="n">
-        <v>62675</v>
+        <v>62794</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>596794</v>
+        <v>585900</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>10.91</v>
+        <v>7.55</v>
       </c>
       <c r="I243" t="n">
-        <v>8786.85</v>
+        <v>8803.85</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6548093</v>
+        <v>6555539</v>
       </c>
       <c r="E244" t="n">
-        <v>40923704</v>
+        <v>40970242</v>
       </c>
       <c r="F244" t="n">
-        <v>60.95938834460123</v>
+        <v>29.79099671643026</v>
       </c>
       <c r="G244" t="n">
-        <v>141.9071918232844</v>
+        <v>129.3308932889933</v>
       </c>
       <c r="H244" t="n">
-        <v>0.23</v>
+        <v>2.42</v>
       </c>
       <c r="I244" t="n">
-        <v>418406</v>
+        <v>419255</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5096972</v>
+        <v>5095317</v>
       </c>
       <c r="E245" t="n">
-        <v>18940445</v>
+        <v>18934295</v>
       </c>
       <c r="F245" t="n">
-        <v>928.4019221700242</v>
+        <v>911.1519271324968</v>
       </c>
       <c r="G245" t="n">
-        <v>852.6637362030792</v>
+        <v>852.6636604366726</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>97140</v>
+        <v>96804</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3597793</v>
+        <v>3597140</v>
       </c>
       <c r="F246" t="n">
-        <v>215.4607134381716</v>
+        <v>215.4606942926593</v>
       </c>
       <c r="G246" t="n">
-        <v>5905.001847674096</v>
+        <v>5905.001322964586</v>
       </c>
       <c r="H246" t="n">
         <v>1.58</v>
       </c>
       <c r="I246" t="n">
-        <v>29105</v>
+        <v>29104</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>43865768</v>
+        <v>43976437</v>
       </c>
       <c r="E247" t="n">
-        <v>157230716</v>
+        <v>157627391</v>
       </c>
       <c r="F247" t="n">
-        <v>44.36780690574007</v>
+        <v>146.6537098193197</v>
       </c>
       <c r="G247" t="n">
-        <v>1794.687203504861</v>
+        <v>1619.176984266649</v>
       </c>
       <c r="H247" t="n">
         <v>0.62</v>
       </c>
       <c r="I247" t="n">
-        <v>178646</v>
+        <v>179679</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1511083</v>
+        <v>1483157</v>
       </c>
       <c r="F248" t="n">
-        <v>6.236235852173104</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>18.18195849852295</v>
+        <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>3.21</v>
+        <v>5.1</v>
       </c>
       <c r="I248" t="n">
-        <v>597285</v>
+        <v>597734</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2102914</v>
+        <v>2099556</v>
       </c>
       <c r="E249" t="n">
-        <v>16175015</v>
+        <v>16149189</v>
       </c>
       <c r="F249" t="n">
-        <v>82.95069774587782</v>
+        <v>138.2469811087356</v>
       </c>
       <c r="G249" t="n">
-        <v>402.7033753925214</v>
+        <v>543.4991774191544</v>
       </c>
       <c r="H249" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.67</v>
       </c>
       <c r="I249" t="n">
-        <v>165490</v>
+        <v>207395</v>
       </c>
     </row>
     <row r="250">
@@ -9137,16 +9137,16 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103370</v>
+        <v>103329</v>
       </c>
       <c r="E250" t="n">
-        <v>821069</v>
+        <v>820740</v>
       </c>
       <c r="F250" t="n">
-        <v>158.169438464084</v>
+        <v>158.1694246602527</v>
       </c>
       <c r="G250" t="n">
-        <v>346.9888826663031</v>
+        <v>346.9888523837402</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>90918729</v>
+        <v>90686086</v>
       </c>
       <c r="E251" t="n">
-        <v>336070243</v>
+        <v>335210175</v>
       </c>
       <c r="F251" t="n">
-        <v>965.0799868497521</v>
+        <v>715.2052693704529</v>
       </c>
       <c r="G251" t="n">
-        <v>6614.20693760082</v>
+        <v>6229.444154420679</v>
       </c>
       <c r="H251" t="n">
-        <v>0.41</v>
+        <v>0.78</v>
       </c>
       <c r="I251" t="n">
-        <v>310039</v>
+        <v>310521</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2272802</v>
+        <v>2272106</v>
       </c>
       <c r="E252" t="n">
-        <v>9111317</v>
+        <v>9108525</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="I252" t="n">
-        <v>8996.9</v>
+        <v>8998.17</v>
       </c>
     </row>
     <row r="253">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>550775</v>
+        <v>540290</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>5.75</v>
+        <v>3.93</v>
       </c>
       <c r="I253" t="n">
-        <v>2610.58</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37199</v>
+        <v>35181</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.12</v>
+        <v>5.39</v>
       </c>
       <c r="I254" t="n">
-        <v>1044.58</v>
+        <v>1642.32</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>737417339</v>
+        <v>737197899</v>
       </c>
       <c r="E255" t="n">
-        <v>1137162645</v>
+        <v>1136824248</v>
       </c>
       <c r="F255" t="n">
-        <v>62103.22352578073</v>
+        <v>70780.99088352724</v>
       </c>
       <c r="G255" t="n">
-        <v>93084.53304560752</v>
+        <v>78548.72460677801</v>
       </c>
       <c r="H255" t="n">
         <v>0.1</v>
       </c>
       <c r="I255" t="n">
-        <v>273886148</v>
+        <v>273704654</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>7440784</v>
+        <v>7332239</v>
       </c>
       <c r="E256" t="n">
-        <v>7440784</v>
+        <v>7332239</v>
       </c>
       <c r="F256" t="n">
-        <v>42.2526266135954</v>
+        <v>58.90967939663172</v>
       </c>
       <c r="G256" t="n">
-        <v>131.6504506196885</v>
+        <v>125.791071215279</v>
       </c>
       <c r="H256" t="n">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="I256" t="n">
-        <v>64726</v>
+        <v>64024</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39885587</v>
+        <v>39935514</v>
       </c>
       <c r="E257" t="n">
-        <v>190206337</v>
+        <v>190444429</v>
       </c>
       <c r="F257" t="n">
-        <v>709.5599957480811</v>
+        <v>712.5392544452355</v>
       </c>
       <c r="G257" t="n">
-        <v>370.4807569869533</v>
+        <v>357.2610684725445</v>
       </c>
       <c r="H257" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="I257" t="n">
-        <v>269390</v>
+        <v>141157</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>593355</v>
+        <v>597172</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>219.88</v>
+        <v>204.42</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>22475254</v>
+        <v>22397694</v>
       </c>
       <c r="E259" t="n">
-        <v>37458757</v>
+        <v>37329490</v>
       </c>
       <c r="F259" t="n">
-        <v>2302.027636409978</v>
+        <v>1202.24385222495</v>
       </c>
       <c r="G259" t="n">
-        <v>464.1543647102541</v>
+        <v>408.4812113127163</v>
       </c>
       <c r="H259" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="I259" t="n">
-        <v>1104371</v>
+        <v>1107700</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107837</v>
+        <v>107954</v>
       </c>
       <c r="F260" t="n">
-        <v>230.7883515522787</v>
+        <v>230.7883310447757</v>
       </c>
       <c r="G260" t="n">
-        <v>108.2020308609118</v>
+        <v>108.2020212462434</v>
       </c>
       <c r="H260" t="n">
         <v>0.02</v>
       </c>
       <c r="I260" t="n">
-        <v>54434</v>
+        <v>54355</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1257838</v>
+        <v>1261653</v>
       </c>
       <c r="E261" t="n">
-        <v>5356192</v>
+        <v>5372435</v>
       </c>
       <c r="F261" t="n">
-        <v>25.42615365359409</v>
+        <v>25.42606145961655</v>
       </c>
       <c r="G261" t="n">
-        <v>354.2397935675369</v>
+        <v>2061.468519297808</v>
       </c>
       <c r="H261" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="I261" t="n">
-        <v>862181</v>
+        <v>862456</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3808401</v>
+        <v>3798383</v>
       </c>
       <c r="E262" t="n">
-        <v>8301781</v>
+        <v>8279943</v>
       </c>
       <c r="F262" t="n">
-        <v>1850.932401901153</v>
+        <v>1707.41587385185</v>
       </c>
       <c r="G262" t="n">
-        <v>1493.379488209476</v>
+        <v>1545.16519364024</v>
       </c>
       <c r="H262" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="I262" t="n">
-        <v>2088693</v>
+        <v>2085430</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>467785611</v>
+        <v>466989852</v>
       </c>
       <c r="E263" t="n">
-        <v>1628322780</v>
+        <v>1625552809</v>
       </c>
       <c r="F263" t="n">
-        <v>246244.1005605567</v>
+        <v>266753.7471263924</v>
       </c>
       <c r="G263" t="n">
-        <v>384443.641728538</v>
+        <v>389521.0588033786</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>47796945</v>
+        <v>48139505</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5531886095</v>
+        <v>5552787405</v>
       </c>
       <c r="E264" t="n">
-        <v>5531886095</v>
+        <v>5552787405</v>
       </c>
       <c r="F264" t="n">
-        <v>1045.896767907743</v>
+        <v>1045.918842793528</v>
       </c>
       <c r="G264" t="n">
-        <v>862.2714450646462</v>
+        <v>762.7463658740689</v>
       </c>
       <c r="H264" t="n">
         <v>0.29</v>
       </c>
       <c r="I264" t="n">
-        <v>34859878</v>
+        <v>34541518</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22265423</v>
+        <v>22280511</v>
       </c>
       <c r="E265" t="n">
-        <v>22246083</v>
+        <v>22261157</v>
       </c>
       <c r="F265" t="n">
-        <v>507.5332308240576</v>
+        <v>390.5448237295892</v>
       </c>
       <c r="G265" t="n">
-        <v>645.5427614144786</v>
+        <v>603.3232236618305</v>
       </c>
       <c r="H265" t="n">
-        <v>0.53</v>
+        <v>0.97</v>
       </c>
       <c r="I265" t="n">
-        <v>410212</v>
+        <v>410549</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11934686</v>
+        <v>11923718</v>
       </c>
       <c r="E266" t="n">
-        <v>24084598</v>
+        <v>24061395</v>
       </c>
       <c r="F266" t="n">
-        <v>697.7338894621425</v>
+        <v>691.9636901896254</v>
       </c>
       <c r="G266" t="n">
-        <v>855.2883447079598</v>
+        <v>768.9441091090588</v>
       </c>
       <c r="H266" t="n">
         <v>1.47</v>
       </c>
       <c r="I266" t="n">
-        <v>54453</v>
+        <v>54054</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>143535</v>
+        <v>143080</v>
       </c>
       <c r="F267" t="n">
-        <v>163.1829668160661</v>
+        <v>163.1829523158751</v>
       </c>
       <c r="G267" t="n">
-        <v>116.1532870979177</v>
+        <v>116.1532767767127</v>
       </c>
       <c r="H267" t="n">
         <v>0.79</v>
       </c>
       <c r="I267" t="n">
-        <v>54571</v>
+        <v>54543</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>45698</v>
+        <v>45675</v>
       </c>
       <c r="F268" t="n">
-        <v>63.79719160663522</v>
+        <v>82.9226632744561</v>
       </c>
       <c r="G268" t="n">
-        <v>6.301609408157358</v>
+        <v>144.6027607440213</v>
       </c>
       <c r="H268" t="n">
         <v>1.09</v>
       </c>
       <c r="I268" t="n">
-        <v>68768</v>
+        <v>68752</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2321989</v>
+        <v>2315687</v>
       </c>
       <c r="E269" t="n">
-        <v>9287957</v>
+        <v>9262748</v>
       </c>
       <c r="F269" t="n">
-        <v>36894.52934248929</v>
+        <v>36893.70527859066</v>
       </c>
       <c r="G269" t="n">
-        <v>31329.94111216486</v>
+        <v>31303.94614874042</v>
       </c>
       <c r="H269" t="n">
         <v>0.32</v>
       </c>
       <c r="I269" t="n">
-        <v>7702470</v>
+        <v>7419626</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>210515112</v>
+        <v>210347753</v>
       </c>
       <c r="E270" t="n">
-        <v>647254746</v>
+        <v>646740183</v>
       </c>
       <c r="F270" t="n">
-        <v>176295.9650520337</v>
+        <v>199601.2280861479</v>
       </c>
       <c r="G270" t="n">
-        <v>192480.985130809</v>
+        <v>205828.3434284388</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>23003250</v>
+        <v>22984621</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>135951145</v>
+        <v>136174104</v>
       </c>
       <c r="E271" t="n">
-        <v>355168594</v>
+        <v>355751068</v>
       </c>
       <c r="F271" t="n">
-        <v>60641.27705932178</v>
+        <v>48813.8773839184</v>
       </c>
       <c r="G271" t="n">
-        <v>61552.91807625556</v>
+        <v>57112.2705816837</v>
       </c>
       <c r="H271" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I271" t="n">
-        <v>8319811</v>
+        <v>8335148</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2326916</v>
+        <v>2389704</v>
       </c>
       <c r="E272" t="n">
-        <v>3193632</v>
+        <v>3279818</v>
       </c>
       <c r="F272" t="n">
-        <v>266.6296667200903</v>
+        <v>271.5347539195515</v>
       </c>
       <c r="G272" t="n">
-        <v>26.25136066448226</v>
+        <v>26.25135834323827</v>
       </c>
       <c r="H272" t="n">
         <v>2.52</v>
       </c>
       <c r="I272" t="n">
-        <v>971284</v>
+        <v>974509</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData.xlsx
+++ b/GateioData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54576</v>
+        <v>54676</v>
       </c>
       <c r="F2" t="n">
-        <v>1.864735076403077</v>
+        <v>10.73953727518752</v>
       </c>
       <c r="G2" t="n">
-        <v>9.051707741422605</v>
+        <v>26.78973889351152</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>348.89</v>
+        <v>334.03</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>94248</v>
+        <v>96768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>412.73</v>
+        <v>354.19</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>591375570</v>
+        <v>596804420</v>
       </c>
       <c r="E4" t="n">
-        <v>1147709613</v>
+        <v>1158255397</v>
       </c>
       <c r="F4" t="n">
-        <v>18684.95589895324</v>
+        <v>20791.22705668128</v>
       </c>
       <c r="G4" t="n">
-        <v>22723.65669103936</v>
+        <v>25196.68977307294</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>47559569</v>
+        <v>47479085</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1414961</v>
+        <v>1440902</v>
       </c>
       <c r="E5" t="n">
-        <v>4573736</v>
+        <v>4657585</v>
       </c>
       <c r="F5" t="n">
-        <v>175.7880191488324</v>
+        <v>162.5759019364692</v>
       </c>
       <c r="G5" t="n">
-        <v>4185.605714484561</v>
+        <v>3400.329771552534</v>
       </c>
       <c r="H5" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>229207</v>
+        <v>227845</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140156167</v>
+        <v>141372122</v>
       </c>
       <c r="E6" t="n">
-        <v>155314937</v>
+        <v>156662405</v>
       </c>
       <c r="F6" t="n">
-        <v>190297.374927676</v>
+        <v>160476.3396568841</v>
       </c>
       <c r="G6" t="n">
-        <v>223943.839413966</v>
+        <v>379565.7687757837</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>53689514</v>
+        <v>53657336</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3818.59</v>
+        <v>3826.75</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>153.89</v>
+        <v>287.75</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8333746</v>
+        <v>8311591</v>
       </c>
       <c r="E8" t="n">
-        <v>8543892</v>
+        <v>8521178</v>
       </c>
       <c r="F8" t="n">
-        <v>1453.827065758701</v>
+        <v>2245.801472788159</v>
       </c>
       <c r="G8" t="n">
-        <v>955.1092871797857</v>
+        <v>1182.699419619613</v>
       </c>
       <c r="H8" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="I8" t="n">
-        <v>61681</v>
+        <v>62369</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>304682</v>
+        <v>305558</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.62</v>
+        <v>4.12</v>
       </c>
       <c r="I9" t="n">
-        <v>743.8099999999999</v>
+        <v>694.05</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4964127</v>
+        <v>4990765</v>
       </c>
       <c r="E10" t="n">
-        <v>7931183</v>
+        <v>7973743</v>
       </c>
       <c r="F10" t="n">
-        <v>490.5724001064703</v>
+        <v>195.7657616025316</v>
       </c>
       <c r="G10" t="n">
-        <v>406.9580989405958</v>
+        <v>471.9621211220029</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>96411</v>
+        <v>98577</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>996686</v>
+        <v>994584</v>
       </c>
       <c r="E11" t="n">
-        <v>12196748</v>
+        <v>12171020</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.762041162205</v>
+        <v>1571.131729738663</v>
       </c>
       <c r="G11" t="n">
-        <v>1351.047967305887</v>
+        <v>1371.422285675545</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>591.16</v>
+        <v>875.77</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>555257</v>
+        <v>559172</v>
       </c>
       <c r="E12" t="n">
-        <v>555257</v>
+        <v>559172</v>
       </c>
       <c r="F12" t="n">
-        <v>130.2892342707505</v>
+        <v>130.5922854733686</v>
       </c>
       <c r="G12" t="n">
-        <v>47.04166962971532</v>
+        <v>183.5653257019142</v>
       </c>
       <c r="H12" t="n">
-        <v>1.77</v>
+        <v>2.23</v>
       </c>
       <c r="I12" t="n">
-        <v>20343</v>
+        <v>20633</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4347979</v>
+        <v>4367913</v>
       </c>
       <c r="E13" t="n">
-        <v>26695935</v>
+        <v>26818231</v>
       </c>
       <c r="F13" t="n">
-        <v>299.0157149103852</v>
+        <v>979.2513002727874</v>
       </c>
       <c r="G13" t="n">
-        <v>1166.177188081626</v>
+        <v>1489.530314868218</v>
       </c>
       <c r="H13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="I13" t="n">
-        <v>561799</v>
+        <v>426795</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>196221</v>
+        <v>195116</v>
       </c>
       <c r="E14" t="n">
-        <v>2158646</v>
+        <v>2146487</v>
       </c>
       <c r="F14" t="n">
-        <v>41.48924911856261</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.017150097912445</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.56</v>
+        <v>14.57</v>
       </c>
       <c r="I14" t="n">
-        <v>35776</v>
+        <v>38472</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3185809</v>
+        <v>3217304</v>
       </c>
       <c r="E15" t="n">
-        <v>9063344</v>
+        <v>9152945</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5.025518369267132</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>14.99848814387641</v>
       </c>
       <c r="H15" t="n">
-        <v>4.45</v>
+        <v>3.76</v>
       </c>
       <c r="I15" t="n">
-        <v>108621</v>
+        <v>92593</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>306490</v>
+        <v>307134</v>
       </c>
       <c r="E16" t="n">
-        <v>3537258</v>
+        <v>3544697</v>
       </c>
       <c r="F16" t="n">
-        <v>138.5647895278371</v>
+        <v>138.845698711266</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4817543842188</v>
+        <v>132.1205886828881</v>
       </c>
       <c r="H16" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="I16" t="n">
-        <v>917.11</v>
+        <v>920.04</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>942061</v>
+        <v>944515</v>
       </c>
       <c r="F17" t="n">
-        <v>46.17156710028654</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.00487174266005</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.74</v>
+        <v>4.16</v>
       </c>
       <c r="I17" t="n">
-        <v>10834.04</v>
+        <v>10467.46</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23997720</v>
+        <v>23485976</v>
       </c>
       <c r="E18" t="n">
-        <v>24041982</v>
+        <v>23528888</v>
       </c>
       <c r="F18" t="n">
-        <v>1471.322368854795</v>
+        <v>1613.629166925253</v>
       </c>
       <c r="G18" t="n">
-        <v>1345.498209545542</v>
+        <v>2384.736716266831</v>
       </c>
       <c r="H18" t="n">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="I18" t="n">
-        <v>871382</v>
+        <v>869986</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6873016</v>
+        <v>6955097</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>17.93191945377195</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.75586873604773</v>
       </c>
       <c r="H19" t="n">
-        <v>5.12</v>
+        <v>3.13</v>
       </c>
       <c r="I19" t="n">
-        <v>19660.78</v>
+        <v>24123</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2352955</v>
+        <v>2447349</v>
       </c>
       <c r="E20" t="n">
-        <v>2352955</v>
+        <v>2447349</v>
       </c>
       <c r="F20" t="n">
-        <v>224.5204675576561</v>
+        <v>43.1969333623242</v>
       </c>
       <c r="G20" t="n">
-        <v>71.7080556636427</v>
+        <v>252.6768051448145</v>
       </c>
       <c r="H20" t="n">
-        <v>2.29</v>
+        <v>1.58</v>
       </c>
       <c r="I20" t="n">
-        <v>313321</v>
+        <v>320117</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>336997</v>
+        <v>345153</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>58.10967495697552</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>22.26088076471356</v>
       </c>
       <c r="H21" t="n">
-        <v>5.11</v>
+        <v>3.43</v>
       </c>
       <c r="I21" t="n">
-        <v>9735.98</v>
+        <v>9877</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16258880</v>
+        <v>16358373</v>
       </c>
       <c r="E22" t="n">
-        <v>20926513</v>
+        <v>21054568</v>
       </c>
       <c r="F22" t="n">
-        <v>4356.758665801452</v>
+        <v>1132.435740432323</v>
       </c>
       <c r="G22" t="n">
-        <v>1187.824518364668</v>
+        <v>2468.026547379893</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.54</v>
       </c>
       <c r="I22" t="n">
-        <v>1881419</v>
+        <v>1816709</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>491536218</v>
+        <v>484168283</v>
       </c>
       <c r="E23" t="n">
-        <v>491536218</v>
+        <v>484168283</v>
       </c>
       <c r="F23" t="n">
-        <v>39411.41730609439</v>
+        <v>31515.1704278025</v>
       </c>
       <c r="G23" t="n">
-        <v>48861.95857021213</v>
+        <v>55069.10123120114</v>
       </c>
       <c r="H23" t="n">
         <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>76533656</v>
+        <v>75163974</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18288.13</v>
+        <v>18354.34</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.78</v>
+        <v>7.78</v>
       </c>
       <c r="I24" t="n">
-        <v>2649.73</v>
+        <v>2780.36</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4546876</v>
+        <v>4618758</v>
       </c>
       <c r="E25" t="n">
-        <v>4546876</v>
+        <v>4618758</v>
       </c>
       <c r="F25" t="n">
-        <v>261.3029634133105</v>
+        <v>607.6892953400113</v>
       </c>
       <c r="G25" t="n">
-        <v>1200.944428070699</v>
+        <v>1216.755130410662</v>
       </c>
       <c r="H25" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="I25" t="n">
-        <v>2235508</v>
+        <v>2263541</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3203045</v>
+        <v>3324276</v>
       </c>
       <c r="E26" t="n">
-        <v>3203045</v>
+        <v>3324276</v>
       </c>
       <c r="F26" t="n">
-        <v>188.909135097723</v>
+        <v>1083.804958545225</v>
       </c>
       <c r="G26" t="n">
-        <v>1176.238983853791</v>
+        <v>254.6814931114143</v>
       </c>
       <c r="H26" t="n">
-        <v>1.12</v>
+        <v>0.6</v>
       </c>
       <c r="I26" t="n">
-        <v>666211</v>
+        <v>750998</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>301596</v>
+        <v>295658</v>
       </c>
       <c r="E27" t="n">
-        <v>1407881</v>
+        <v>1380163</v>
       </c>
       <c r="F27" t="n">
-        <v>76.44092151978019</v>
+        <v>315.1416442731521</v>
       </c>
       <c r="G27" t="n">
-        <v>261.7479202615702</v>
+        <v>158.9696751254413</v>
       </c>
       <c r="H27" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="I27" t="n">
-        <v>678591</v>
+        <v>648690</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1697447</v>
+        <v>1716052</v>
       </c>
       <c r="F28" t="n">
-        <v>480.2977231376233</v>
+        <v>246.6341628481387</v>
       </c>
       <c r="G28" t="n">
-        <v>336.5897073161282</v>
+        <v>397.1190119232913</v>
       </c>
       <c r="H28" t="n">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
       <c r="I28" t="n">
-        <v>1309523</v>
+        <v>1364317</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11902374</v>
+        <v>11896213</v>
       </c>
       <c r="E29" t="n">
-        <v>29622856</v>
+        <v>29607524</v>
       </c>
       <c r="F29" t="n">
-        <v>710.2360062327978</v>
+        <v>721.4619508735285</v>
       </c>
       <c r="G29" t="n">
-        <v>1588.23877143807</v>
+        <v>1045.801878314477</v>
       </c>
       <c r="H29" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I29" t="n">
-        <v>1506132</v>
+        <v>1498518</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>886271</v>
+        <v>880464</v>
       </c>
       <c r="E30" t="n">
-        <v>6203896</v>
+        <v>6163248</v>
       </c>
       <c r="F30" t="n">
-        <v>12.91402391080795</v>
+        <v>293.9535026480119</v>
       </c>
       <c r="G30" t="n">
-        <v>152.3030690126281</v>
+        <v>32.19536586957538</v>
       </c>
       <c r="H30" t="n">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="I30" t="n">
-        <v>204001</v>
+        <v>214447</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>176694</v>
+        <v>179427</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.84</v>
+        <v>6.35</v>
       </c>
       <c r="I31" t="n">
-        <v>750.1799999999999</v>
+        <v>769.47</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5329089</v>
+        <v>5352744</v>
       </c>
       <c r="E32" t="n">
-        <v>5584033</v>
+        <v>5608820</v>
       </c>
       <c r="F32" t="n">
-        <v>145.95164439716</v>
+        <v>35.35572298933233</v>
       </c>
       <c r="G32" t="n">
-        <v>1075.869237185047</v>
+        <v>1049.826033648794</v>
       </c>
       <c r="H32" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="I32" t="n">
-        <v>153291</v>
+        <v>151010</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4674977</v>
+        <v>4815680</v>
       </c>
       <c r="E33" t="n">
-        <v>6881819</v>
+        <v>7088941</v>
       </c>
       <c r="F33" t="n">
-        <v>26.90441063979429</v>
+        <v>243.4704149825056</v>
       </c>
       <c r="G33" t="n">
-        <v>131.8303543171683</v>
+        <v>82.71286028836992</v>
       </c>
       <c r="H33" t="n">
-        <v>2.28</v>
+        <v>2.63</v>
       </c>
       <c r="I33" t="n">
-        <v>567257</v>
+        <v>605862</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7513580</v>
+        <v>7475269</v>
       </c>
       <c r="E34" t="n">
-        <v>7513580</v>
+        <v>7475269</v>
       </c>
       <c r="F34" t="n">
-        <v>2896.807905265288</v>
+        <v>3549.042215636164</v>
       </c>
       <c r="G34" t="n">
-        <v>4216.33929502389</v>
+        <v>3720.852638778927</v>
       </c>
       <c r="H34" t="n">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="I34" t="n">
-        <v>326438</v>
+        <v>460328</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1480346</v>
+        <v>1472518</v>
       </c>
       <c r="E35" t="n">
-        <v>1480346</v>
+        <v>1472601</v>
       </c>
       <c r="F35" t="n">
-        <v>54.98374273154788</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>629.8179269463626</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.72</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>285711</v>
+        <v>290208</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15759740</v>
+        <v>15787136</v>
       </c>
       <c r="F36" t="n">
-        <v>288.5281560232366</v>
+        <v>288.6726921375742</v>
       </c>
       <c r="G36" t="n">
-        <v>211.0207944299032</v>
+        <v>231.4181341129737</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>15839.95</v>
+        <v>14578.23</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59586</v>
+        <v>62473</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.67</v>
+        <v>6.52</v>
       </c>
       <c r="I37" t="n">
-        <v>2048.37</v>
+        <v>1837.66</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>137094017</v>
+        <v>138867255</v>
       </c>
       <c r="E38" t="n">
-        <v>137094017</v>
+        <v>138867255</v>
       </c>
       <c r="F38" t="n">
-        <v>279002.2480850164</v>
+        <v>221714.490573505</v>
       </c>
       <c r="G38" t="n">
-        <v>249654.2029699348</v>
+        <v>354164.9044067931</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>91415410</v>
+        <v>96972725</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>63232179</v>
+        <v>63661124</v>
       </c>
       <c r="E39" t="n">
-        <v>324267586</v>
+        <v>326467304</v>
       </c>
       <c r="F39" t="n">
-        <v>73353.43720583234</v>
+        <v>79976.32259466726</v>
       </c>
       <c r="G39" t="n">
-        <v>73447.74824242649</v>
+        <v>90238.03626008172</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>26637857</v>
+        <v>25741251</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46368</v>
+        <v>46458</v>
       </c>
       <c r="E40" t="n">
-        <v>137025</v>
+        <v>137291</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>10.51</v>
+        <v>9.23</v>
       </c>
       <c r="I40" t="n">
         <v>8.039999999999999</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>50087</v>
+        <v>50699</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.46</v>
+        <v>5.34</v>
       </c>
       <c r="I41" t="n">
-        <v>23500</v>
+        <v>24536</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>598053</v>
+        <v>598653</v>
       </c>
       <c r="F42" t="n">
-        <v>1037.774113379721</v>
+        <v>1888.746771717869</v>
       </c>
       <c r="G42" t="n">
-        <v>424.5772073782514</v>
+        <v>424.8678430323021</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>527.48</v>
+        <v>527.73</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2598046</v>
+        <v>2560553</v>
       </c>
       <c r="E44" t="n">
-        <v>10440955</v>
+        <v>10290281</v>
       </c>
       <c r="F44" t="n">
-        <v>265.4983901834931</v>
+        <v>92.02510649703039</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7032395993813</v>
+        <v>82.33061234020307</v>
       </c>
       <c r="H44" t="n">
-        <v>1.9</v>
+        <v>0.96</v>
       </c>
       <c r="I44" t="n">
-        <v>48645</v>
+        <v>51418</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18280377</v>
+        <v>18365111</v>
       </c>
       <c r="E45" t="n">
-        <v>127831591</v>
+        <v>128421633</v>
       </c>
       <c r="F45" t="n">
-        <v>533.1160960015944</v>
+        <v>232.8837468935215</v>
       </c>
       <c r="G45" t="n">
-        <v>275.8842868086462</v>
+        <v>276.2183216765939</v>
       </c>
       <c r="H45" t="n">
         <v>0.89</v>
       </c>
       <c r="I45" t="n">
-        <v>1065858</v>
+        <v>1186906</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>142712</v>
+        <v>167373</v>
       </c>
       <c r="E46" t="n">
-        <v>1909564</v>
+        <v>2239544</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>40021</v>
+        <v>45955</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>248910997</v>
+        <v>251394517</v>
       </c>
       <c r="E47" t="n">
-        <v>248910997</v>
+        <v>251394517</v>
       </c>
       <c r="F47" t="n">
-        <v>79653.37165048321</v>
+        <v>74873.57905421118</v>
       </c>
       <c r="G47" t="n">
-        <v>104083.9386858441</v>
+        <v>129030.4202634389</v>
       </c>
       <c r="H47" t="n">
         <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>26349920</v>
+        <v>26934548</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>637240</v>
+        <v>617548</v>
       </c>
       <c r="E48" t="n">
-        <v>637240</v>
+        <v>617548</v>
       </c>
       <c r="F48" t="n">
-        <v>182.657019375542</v>
+        <v>59.99334549881136</v>
       </c>
       <c r="G48" t="n">
-        <v>122.2351764051656</v>
+        <v>550.5972879784553</v>
       </c>
       <c r="H48" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="I48" t="n">
-        <v>2690.88</v>
+        <v>2977.72</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>416533217</v>
+        <v>413784106</v>
       </c>
       <c r="E50" t="n">
-        <v>416533217</v>
+        <v>413784106</v>
       </c>
       <c r="F50" t="n">
-        <v>6788.731469882509</v>
+        <v>7239.243086963049</v>
       </c>
       <c r="G50" t="n">
-        <v>1874.644117028725</v>
+        <v>2106.669669147404</v>
       </c>
       <c r="H50" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="I50" t="n">
-        <v>4120337</v>
+        <v>4200922</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2466662</v>
+        <v>2487860</v>
       </c>
       <c r="E51" t="n">
-        <v>2466662</v>
+        <v>2487860</v>
       </c>
       <c r="F51" t="n">
-        <v>55.34495740712524</v>
+        <v>39.65185239188828</v>
       </c>
       <c r="G51" t="n">
-        <v>359.2745140555077</v>
+        <v>248.4936943724858</v>
       </c>
       <c r="H51" t="n">
-        <v>2.44</v>
+        <v>2.11</v>
       </c>
       <c r="I51" t="n">
-        <v>162886</v>
+        <v>159045</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22199</v>
+        <v>23011</v>
       </c>
       <c r="E52" t="n">
-        <v>44399</v>
+        <v>46021</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.93</v>
+        <v>4.78</v>
       </c>
       <c r="I52" t="n">
-        <v>3486.89</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>162559</v>
+        <v>172765</v>
       </c>
       <c r="F53" t="n">
-        <v>22.48331765719076</v>
+        <v>11.59150923558706</v>
       </c>
       <c r="G53" t="n">
-        <v>26.05786073775976</v>
+        <v>10.28787005341819</v>
       </c>
       <c r="H53" t="n">
-        <v>3.82</v>
+        <v>2.92</v>
       </c>
       <c r="I53" t="n">
-        <v>18937.49</v>
+        <v>17667.49</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2569681</v>
+        <v>2594845</v>
       </c>
       <c r="E54" t="n">
-        <v>6569598</v>
+        <v>6633930</v>
       </c>
       <c r="F54" t="n">
-        <v>63.01132648634927</v>
+        <v>135.8215276285443</v>
       </c>
       <c r="G54" t="n">
-        <v>76.42149206167055</v>
+        <v>79.61593900364066</v>
       </c>
       <c r="H54" t="n">
-        <v>1.64</v>
+        <v>2.5</v>
       </c>
       <c r="I54" t="n">
-        <v>81024</v>
+        <v>82354</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3475.39</v>
+        <v>3479.99</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>4.57</v>
+        <v>4.05</v>
       </c>
       <c r="I55" t="n">
-        <v>1617.87</v>
+        <v>1567.48</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>65970071</v>
+        <v>63800550</v>
       </c>
       <c r="E56" t="n">
-        <v>65970071</v>
+        <v>63800550</v>
       </c>
       <c r="F56" t="n">
-        <v>5083.466806479265</v>
+        <v>3400.079638431276</v>
       </c>
       <c r="G56" t="n">
-        <v>7145.384679217022</v>
+        <v>5843.159072062979</v>
       </c>
       <c r="H56" t="n">
-        <v>0.23</v>
+        <v>0.68</v>
       </c>
       <c r="I56" t="n">
-        <v>7281997</v>
+        <v>7506630</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3329347</v>
+        <v>3318941</v>
       </c>
       <c r="E57" t="n">
-        <v>4218864</v>
+        <v>4205678</v>
       </c>
       <c r="F57" t="n">
-        <v>218.3667716430008</v>
+        <v>604.7812599656463</v>
       </c>
       <c r="G57" t="n">
-        <v>123.9608915660891</v>
+        <v>246.4462594871024</v>
       </c>
       <c r="H57" t="n">
         <v>0.9</v>
       </c>
       <c r="I57" t="n">
-        <v>200517</v>
+        <v>181833</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4064712</v>
+        <v>4151731</v>
       </c>
       <c r="E58" t="n">
-        <v>8015954</v>
+        <v>8187564</v>
       </c>
       <c r="F58" t="n">
-        <v>2051.825938554802</v>
+        <v>2023.397196045007</v>
       </c>
       <c r="G58" t="n">
-        <v>9888.163269953195</v>
+        <v>2450.252487422022</v>
       </c>
       <c r="H58" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I58" t="n">
-        <v>1703527</v>
+        <v>1719346</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1604307</v>
+        <v>1687167</v>
       </c>
       <c r="E59" t="n">
-        <v>9211333</v>
+        <v>9687082</v>
       </c>
       <c r="F59" t="n">
-        <v>238.35403665073</v>
+        <v>48.61997562074357</v>
       </c>
       <c r="G59" t="n">
-        <v>122.2247106000119</v>
+        <v>306.9007138371951</v>
       </c>
       <c r="H59" t="n">
-        <v>1.76</v>
+        <v>0.72</v>
       </c>
       <c r="I59" t="n">
-        <v>256621</v>
+        <v>300578</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>513020</v>
+        <v>516446</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>8.06</v>
+        <v>9.52</v>
       </c>
       <c r="I60" t="n">
-        <v>5366.71</v>
+        <v>5389.38</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31166076</v>
+        <v>31187819</v>
       </c>
       <c r="F61" t="n">
-        <v>606.8200309665656</v>
+        <v>676.4652016116222</v>
       </c>
       <c r="G61" t="n">
-        <v>1810.439145802981</v>
+        <v>1412.015790550285</v>
       </c>
       <c r="H61" t="n">
         <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>222191</v>
+        <v>223492</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1528036</v>
+        <v>1613144</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>7.77</v>
+        <v>6.31</v>
       </c>
       <c r="I62" t="n">
-        <v>9195.48</v>
+        <v>7752.99</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17155233</v>
+        <v>17159411</v>
       </c>
       <c r="E63" t="n">
-        <v>18081214</v>
+        <v>18085616</v>
       </c>
       <c r="F63" t="n">
-        <v>1388.709985072832</v>
+        <v>895.1274815170242</v>
       </c>
       <c r="G63" t="n">
-        <v>1479.886293318775</v>
+        <v>1981.358431792847</v>
       </c>
       <c r="H63" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="I63" t="n">
-        <v>50216</v>
+        <v>49007</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2910844</v>
+        <v>2870399</v>
       </c>
       <c r="E64" t="n">
-        <v>2910844</v>
+        <v>2870399</v>
       </c>
       <c r="F64" t="n">
-        <v>179.1490194006836</v>
+        <v>184.4916788978247</v>
       </c>
       <c r="G64" t="n">
-        <v>22.67036318913709</v>
+        <v>9.66198939462484</v>
       </c>
       <c r="H64" t="n">
-        <v>3.56</v>
+        <v>0.88</v>
       </c>
       <c r="I64" t="n">
-        <v>15429.82</v>
+        <v>15120.45</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3327700</v>
+        <v>3337185</v>
       </c>
       <c r="E65" t="n">
-        <v>8210930</v>
+        <v>8234334</v>
       </c>
       <c r="F65" t="n">
-        <v>595.1135816768455</v>
+        <v>693.435580856312</v>
       </c>
       <c r="G65" t="n">
-        <v>1145.358592875353</v>
+        <v>947.4573060574129</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4</v>
+        <v>1.16</v>
       </c>
       <c r="I65" t="n">
-        <v>32768</v>
+        <v>29382</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>244276</v>
+        <v>249861</v>
       </c>
       <c r="F66" t="n">
-        <v>48.15399888085886</v>
+        <v>46.51000622765235</v>
       </c>
       <c r="G66" t="n">
-        <v>56.29221967388958</v>
+        <v>113.3787951513412</v>
       </c>
       <c r="H66" t="n">
         <v>3.57</v>
       </c>
       <c r="I66" t="n">
-        <v>5491.78</v>
+        <v>5085.77</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>87689778</v>
+        <v>84667823</v>
       </c>
       <c r="E67" t="n">
-        <v>182826144</v>
+        <v>176525612</v>
       </c>
       <c r="F67" t="n">
-        <v>42008.9464341851</v>
+        <v>38967.77495824754</v>
       </c>
       <c r="G67" t="n">
-        <v>85195.64763104499</v>
+        <v>92067.55834753592</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>77153594</v>
+        <v>80555533</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1758692</v>
+        <v>1762450</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6570977640281511</v>
+        <v>0.6574317458314842</v>
       </c>
       <c r="G68" t="n">
-        <v>25.98193824925778</v>
+        <v>9.206169376513438</v>
       </c>
       <c r="H68" t="n">
         <v>3.83</v>
       </c>
       <c r="I68" t="n">
-        <v>1653.22</v>
+        <v>1648.94</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>186328614</v>
+        <v>189107267</v>
       </c>
       <c r="F69" t="n">
-        <v>2389.809013248286</v>
+        <v>4290.174562857303</v>
       </c>
       <c r="G69" t="n">
-        <v>7690.707327422851</v>
+        <v>7236.766591700492</v>
       </c>
       <c r="H69" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="I69" t="n">
-        <v>3408782</v>
+        <v>3558070</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>186991</v>
+        <v>187204</v>
       </c>
       <c r="E70" t="n">
-        <v>195271</v>
+        <v>195494</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>184.82</v>
+        <v>184.91</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>138513587</v>
+        <v>138485147</v>
       </c>
       <c r="E71" t="n">
-        <v>138572206</v>
+        <v>138545564</v>
       </c>
       <c r="F71" t="n">
-        <v>23843.92725047699</v>
+        <v>19314.71959007232</v>
       </c>
       <c r="G71" t="n">
-        <v>42171.06609528937</v>
+        <v>48064.37536810366</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="I71" t="n">
-        <v>3462733</v>
+        <v>3402233</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25426171</v>
+        <v>25378692</v>
       </c>
       <c r="E72" t="n">
-        <v>83443832</v>
+        <v>83288015</v>
       </c>
       <c r="F72" t="n">
-        <v>21396.09817334442</v>
+        <v>7505.849326310072</v>
       </c>
       <c r="G72" t="n">
-        <v>21064.88332384236</v>
+        <v>35713.38392908029</v>
       </c>
       <c r="H72" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="I72" t="n">
-        <v>257398</v>
+        <v>234815</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>113290</v>
+        <v>110922</v>
       </c>
       <c r="E73" t="n">
-        <v>113290</v>
+        <v>110922</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6.32</v>
+        <v>4.3</v>
       </c>
       <c r="I73" t="n">
-        <v>1175.71</v>
+        <v>1184.92</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>195474535</v>
+        <v>195618902</v>
       </c>
       <c r="E74" t="n">
-        <v>679096201</v>
+        <v>679597746</v>
       </c>
       <c r="F74" t="n">
-        <v>82398.76634806202</v>
+        <v>87359.38995885621</v>
       </c>
       <c r="G74" t="n">
-        <v>67397.06256306678</v>
+        <v>90832.69830681616</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>41335510</v>
+        <v>41210322</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3298050</v>
+        <v>3268359</v>
       </c>
       <c r="E75" t="n">
-        <v>3298049</v>
+        <v>3268359</v>
       </c>
       <c r="F75" t="n">
-        <v>579.8251962565455</v>
+        <v>501.2593193079255</v>
       </c>
       <c r="G75" t="n">
-        <v>909.3169867318794</v>
+        <v>1640.707482231483</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="I75" t="n">
-        <v>2004076</v>
+        <v>1914339</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>109000859</v>
+        <v>109665025</v>
       </c>
       <c r="E76" t="n">
-        <v>462245177</v>
+        <v>464916148</v>
       </c>
       <c r="F76" t="n">
-        <v>144150.7295878114</v>
+        <v>135427.3463311604</v>
       </c>
       <c r="G76" t="n">
-        <v>118521.6445540772</v>
+        <v>115913.5691628071</v>
       </c>
       <c r="H76" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="I76" t="n">
-        <v>15066431</v>
+        <v>14967215</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1806822</v>
+        <v>1783608</v>
       </c>
       <c r="F77" t="n">
-        <v>54.60856746287749</v>
+        <v>50.06476337460559</v>
       </c>
       <c r="G77" t="n">
-        <v>25.48544047103152</v>
+        <v>28.99167503297257</v>
       </c>
       <c r="H77" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="I77" t="n">
-        <v>567.62</v>
+        <v>829.78</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3281766</v>
+        <v>3193488</v>
       </c>
       <c r="E78" t="n">
-        <v>16455167</v>
+        <v>16012532</v>
       </c>
       <c r="F78" t="n">
-        <v>10.97887208966769</v>
+        <v>13.86875120130504</v>
       </c>
       <c r="G78" t="n">
-        <v>688.1420980420615</v>
+        <v>1312.855896463102</v>
       </c>
       <c r="H78" t="n">
-        <v>3.55</v>
+        <v>0.61</v>
       </c>
       <c r="I78" t="n">
-        <v>32413</v>
+        <v>33527</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>527691</v>
+        <v>527868</v>
       </c>
       <c r="E79" t="n">
-        <v>9026126</v>
+        <v>9029153</v>
       </c>
       <c r="F79" t="n">
-        <v>132.7697338794501</v>
+        <v>16.68499143985903</v>
       </c>
       <c r="G79" t="n">
-        <v>26.10715094998778</v>
+        <v>0.00118788532930575</v>
       </c>
       <c r="H79" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="I79" t="n">
-        <v>140152</v>
+        <v>161254</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5663406</v>
+        <v>5634505</v>
       </c>
       <c r="E80" t="n">
-        <v>7686007</v>
+        <v>7646427</v>
       </c>
       <c r="F80" t="n">
-        <v>620.7117985931891</v>
+        <v>565.7294226750575</v>
       </c>
       <c r="G80" t="n">
-        <v>875.7322283688419</v>
+        <v>890.0421474419747</v>
       </c>
       <c r="H80" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="I80" t="n">
-        <v>5565414</v>
+        <v>5627679</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>40880</v>
+        <v>39395</v>
       </c>
       <c r="F81" t="n">
-        <v>121.9574399208836</v>
+        <v>33.57284268866791</v>
       </c>
       <c r="G81" t="n">
-        <v>42.98082510784739</v>
+        <v>53.99439262948742</v>
       </c>
       <c r="H81" t="n">
-        <v>2.46</v>
+        <v>3.43</v>
       </c>
       <c r="I81" t="n">
-        <v>40540</v>
+        <v>42854</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>38842150</v>
+        <v>39163553</v>
       </c>
       <c r="E82" t="n">
-        <v>45366709</v>
+        <v>45742099</v>
       </c>
       <c r="F82" t="n">
-        <v>293.8940425133194</v>
+        <v>437.0039565911331</v>
       </c>
       <c r="G82" t="n">
-        <v>121.4739484114461</v>
+        <v>189.7218362925763</v>
       </c>
       <c r="H82" t="n">
-        <v>2.6</v>
+        <v>3.69</v>
       </c>
       <c r="I82" t="n">
-        <v>927283</v>
+        <v>984152</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14112115</v>
+        <v>14455455</v>
       </c>
       <c r="F83" t="n">
-        <v>248.4981370816466</v>
+        <v>125.6006338138141</v>
       </c>
       <c r="G83" t="n">
-        <v>464.0082816127456</v>
+        <v>420.8762216993673</v>
       </c>
       <c r="H83" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="I83" t="n">
-        <v>235229</v>
+        <v>233475</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35078732</v>
+        <v>35653048</v>
       </c>
       <c r="E84" t="n">
-        <v>35078732</v>
+        <v>35653048</v>
       </c>
       <c r="F84" t="n">
-        <v>233.9431235773382</v>
+        <v>1017.089568352786</v>
       </c>
       <c r="G84" t="n">
-        <v>1073.311967101388</v>
+        <v>216.3235604634129</v>
       </c>
       <c r="H84" t="n">
-        <v>2.77</v>
+        <v>1.5</v>
       </c>
       <c r="I84" t="n">
-        <v>295013</v>
+        <v>1020987</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>562439</v>
+        <v>609148</v>
       </c>
       <c r="E85" t="n">
-        <v>6821840</v>
+        <v>7388377</v>
       </c>
       <c r="F85" t="n">
-        <v>186.9320266914613</v>
+        <v>88.51269324470871</v>
       </c>
       <c r="G85" t="n">
-        <v>871.2569170135487</v>
+        <v>472.4096485046063</v>
       </c>
       <c r="H85" t="n">
-        <v>1.66</v>
+        <v>0.48</v>
       </c>
       <c r="I85" t="n">
-        <v>2943371</v>
+        <v>2993268</v>
       </c>
     </row>
     <row r="86">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24319074</v>
+        <v>25583616</v>
       </c>
       <c r="E86" t="n">
-        <v>34366773</v>
+        <v>36153775</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>4.16</v>
+        <v>11.38</v>
       </c>
       <c r="I86" t="n">
-        <v>177098</v>
+        <v>187491</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1457736844</v>
+        <v>1430453736</v>
       </c>
       <c r="E87" t="n">
-        <v>6990146704</v>
+        <v>6859318614</v>
       </c>
       <c r="F87" t="n">
-        <v>509618.9165100107</v>
+        <v>498124.1802537813</v>
       </c>
       <c r="G87" t="n">
-        <v>668678.2953040637</v>
+        <v>754441.0961301589</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I87" t="n">
-        <v>523682413</v>
+        <v>571704686</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>258740722</v>
+        <v>260647281</v>
       </c>
       <c r="E88" t="n">
-        <v>1116868593</v>
+        <v>1125098360</v>
       </c>
       <c r="F88" t="n">
-        <v>813909.4160804504</v>
+        <v>682241.1652471088</v>
       </c>
       <c r="G88" t="n">
-        <v>903891.1372678728</v>
+        <v>891094.6186362769</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>141459131</v>
+        <v>140229939</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>112305247</v>
+        <v>113658674</v>
       </c>
       <c r="E89" t="n">
-        <v>112305247</v>
+        <v>113658674</v>
       </c>
       <c r="F89" t="n">
-        <v>36304.71056975635</v>
+        <v>31392.34750780531</v>
       </c>
       <c r="G89" t="n">
-        <v>25570.21019862708</v>
+        <v>33615.32738101169</v>
       </c>
       <c r="H89" t="n">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
       <c r="I89" t="n">
-        <v>7012879</v>
+        <v>7223189</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3750491</v>
+        <v>3687770</v>
       </c>
       <c r="E90" t="n">
-        <v>29185871</v>
+        <v>28697782</v>
       </c>
       <c r="F90" t="n">
-        <v>7870.382788906462</v>
+        <v>3257.266309556449</v>
       </c>
       <c r="G90" t="n">
-        <v>2820.975771384181</v>
+        <v>2744.105293220651</v>
       </c>
       <c r="H90" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I90" t="n">
-        <v>41963</v>
+        <v>53287</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3973483</v>
+        <v>3974915</v>
       </c>
       <c r="F91" t="n">
-        <v>4483.898539122421</v>
+        <v>1444.055613968948</v>
       </c>
       <c r="G91" t="n">
-        <v>2694.181956980881</v>
+        <v>1940.271626454787</v>
       </c>
       <c r="H91" t="n">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="I91" t="n">
-        <v>350752</v>
+        <v>284138</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>863526</v>
+        <v>851363</v>
       </c>
       <c r="F92" t="n">
-        <v>17.84328908618111</v>
+        <v>53.28628931952351</v>
       </c>
       <c r="G92" t="n">
-        <v>116.9668129085808</v>
+        <v>108.9822348465689</v>
       </c>
       <c r="H92" t="n">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="I92" t="n">
-        <v>6114.27</v>
+        <v>5673.85</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>115849</v>
+        <v>114311</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>4.97849480861467</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>217.8885372731578</v>
       </c>
       <c r="H93" t="n">
-        <v>5.05</v>
+        <v>1.51</v>
       </c>
       <c r="I93" t="n">
-        <v>112049</v>
+        <v>107785</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10154485</v>
+        <v>10439272</v>
       </c>
       <c r="E94" t="n">
-        <v>122253644</v>
+        <v>125682310</v>
       </c>
       <c r="F94" t="n">
-        <v>867.100740174282</v>
+        <v>1209.474809198314</v>
       </c>
       <c r="G94" t="n">
-        <v>498.4361059034089</v>
+        <v>108.6330852711893</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>535706</v>
+        <v>269930</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>16018393</v>
+        <v>15728379</v>
       </c>
       <c r="E95" t="n">
-        <v>40045983</v>
+        <v>39320947</v>
       </c>
       <c r="F95" t="n">
-        <v>5942.644497634907</v>
+        <v>9610.257116731196</v>
       </c>
       <c r="G95" t="n">
-        <v>9797.740306762498</v>
+        <v>10876.00626049266</v>
       </c>
       <c r="H95" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I95" t="n">
-        <v>5076178</v>
+        <v>5201078</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2449056</v>
+        <v>2563457</v>
       </c>
       <c r="F96" t="n">
-        <v>144.0419974625389</v>
+        <v>144.1128002911406</v>
       </c>
       <c r="G96" t="n">
-        <v>293.7571034702969</v>
+        <v>136.0571239335424</v>
       </c>
       <c r="H96" t="n">
-        <v>2.37</v>
+        <v>2.56</v>
       </c>
       <c r="I96" t="n">
-        <v>48909</v>
+        <v>50629</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19312435</v>
+        <v>19109560</v>
       </c>
       <c r="F97" t="n">
-        <v>173.7842767793216</v>
+        <v>395.1933033186274</v>
       </c>
       <c r="G97" t="n">
-        <v>807.449624097113</v>
+        <v>1002.750610202829</v>
       </c>
       <c r="H97" t="n">
-        <v>1.03</v>
+        <v>0.52</v>
       </c>
       <c r="I97" t="n">
-        <v>79267</v>
+        <v>76986</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4057116</v>
+        <v>4107881</v>
       </c>
       <c r="E98" t="n">
-        <v>11684956</v>
+        <v>11831165</v>
       </c>
       <c r="F98" t="n">
-        <v>362.8859088535653</v>
+        <v>536.495685509183</v>
       </c>
       <c r="G98" t="n">
-        <v>941.9174605547209</v>
+        <v>616.8604105233137</v>
       </c>
       <c r="H98" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="I98" t="n">
-        <v>483918</v>
+        <v>458643</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1525863</v>
+        <v>1487185</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>25.47299562536005</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.9993527270746712</v>
       </c>
       <c r="H99" t="n">
-        <v>6.84</v>
+        <v>3.73</v>
       </c>
       <c r="I99" t="n">
-        <v>274914</v>
+        <v>281201</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>77956834</v>
+        <v>81224729</v>
       </c>
       <c r="E100" t="n">
-        <v>99206130</v>
+        <v>103364781</v>
       </c>
       <c r="F100" t="n">
-        <v>6245.134554410904</v>
+        <v>558.0343640323961</v>
       </c>
       <c r="G100" t="n">
-        <v>9787.474298264826</v>
+        <v>1041.151914854364</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9</v>
+        <v>1.72</v>
       </c>
       <c r="I100" t="n">
-        <v>6555123</v>
+        <v>8750204</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21845765</v>
+        <v>22061184</v>
       </c>
       <c r="E101" t="n">
-        <v>28338955</v>
+        <v>28618402</v>
       </c>
       <c r="F101" t="n">
-        <v>6838.347710680242</v>
+        <v>4453.976242121831</v>
       </c>
       <c r="G101" t="n">
-        <v>6830.538655361184</v>
+        <v>5788.241915954743</v>
       </c>
       <c r="H101" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="I101" t="n">
-        <v>232535</v>
+        <v>237762</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1459568</v>
+        <v>1423273</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>97.67752124981354</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>37.61345904223403</v>
       </c>
       <c r="H102" t="n">
-        <v>10.19</v>
+        <v>2.78</v>
       </c>
       <c r="I102" t="n">
-        <v>7816.11</v>
+        <v>6431.55</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>604271</v>
+        <v>608979</v>
       </c>
       <c r="E103" t="n">
-        <v>604271</v>
+        <v>608979</v>
       </c>
       <c r="F103" t="n">
-        <v>16.63219403507033</v>
+        <v>9.619545350235777</v>
       </c>
       <c r="G103" t="n">
-        <v>116.6539337241023</v>
+        <v>351.7733954143076</v>
       </c>
       <c r="H103" t="n">
-        <v>1.11</v>
+        <v>0.55</v>
       </c>
       <c r="I103" t="n">
-        <v>61651</v>
+        <v>52641</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40443557</v>
+        <v>40376628</v>
       </c>
       <c r="E104" t="n">
-        <v>42277978</v>
+        <v>42208014</v>
       </c>
       <c r="F104" t="n">
-        <v>847.534634645382</v>
+        <v>131.4254980404673</v>
       </c>
       <c r="G104" t="n">
-        <v>1031.867030233407</v>
+        <v>999.7521024591892</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="I104" t="n">
-        <v>709071</v>
+        <v>634303</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14093738</v>
+        <v>14143621</v>
       </c>
       <c r="E105" t="n">
-        <v>14093738</v>
+        <v>14143621</v>
       </c>
       <c r="F105" t="n">
-        <v>1918.479141564454</v>
+        <v>3720.892466333155</v>
       </c>
       <c r="G105" t="n">
-        <v>2926.093112776296</v>
+        <v>4052.968425545166</v>
       </c>
       <c r="H105" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="I105" t="n">
-        <v>5751249</v>
+        <v>5733340</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1127464</v>
+        <v>1145029</v>
       </c>
       <c r="F106" t="n">
-        <v>2.875985879237158</v>
+        <v>2.877447650989994</v>
       </c>
       <c r="G106" t="n">
-        <v>4.685711517412794</v>
+        <v>4.688093114898213</v>
       </c>
       <c r="H106" t="n">
         <v>3.88</v>
       </c>
       <c r="I106" t="n">
-        <v>3602.94</v>
+        <v>3600.44</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50345193</v>
+        <v>50022977</v>
       </c>
       <c r="E107" t="n">
-        <v>128257258</v>
+        <v>127436393</v>
       </c>
       <c r="F107" t="n">
-        <v>1754.147171444164</v>
+        <v>2263.188380869568</v>
       </c>
       <c r="G107" t="n">
-        <v>2775.024610320474</v>
+        <v>2965.93749245843</v>
       </c>
       <c r="H107" t="n">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
       <c r="I107" t="n">
-        <v>2235842</v>
+        <v>2159888</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14185972</v>
+        <v>14166968</v>
       </c>
       <c r="E108" t="n">
-        <v>68704928</v>
+        <v>68612888</v>
       </c>
       <c r="F108" t="n">
-        <v>3281.800615953243</v>
+        <v>2532.727489023829</v>
       </c>
       <c r="G108" t="n">
-        <v>4514.975053664039</v>
+        <v>6561.97242002424</v>
       </c>
       <c r="H108" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="I108" t="n">
-        <v>5657773</v>
+        <v>5601392</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>627535</v>
+        <v>640091</v>
       </c>
       <c r="F109" t="n">
-        <v>177.4025614065682</v>
+        <v>232.8618692026575</v>
       </c>
       <c r="G109" t="n">
-        <v>3.393476744288908</v>
+        <v>71.59678520370593</v>
       </c>
       <c r="H109" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="I109" t="n">
-        <v>11907.24</v>
+        <v>12129.72</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4388744</v>
+        <v>4348653</v>
       </c>
       <c r="E110" t="n">
-        <v>10003949</v>
+        <v>9912563</v>
       </c>
       <c r="F110" t="n">
-        <v>1174.179225075215</v>
+        <v>1312.899749629803</v>
       </c>
       <c r="G110" t="n">
-        <v>2175.077169693116</v>
+        <v>2241.819455986064</v>
       </c>
       <c r="H110" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I110" t="n">
-        <v>66353</v>
+        <v>66041</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1846155036</v>
+        <v>1856613346</v>
       </c>
       <c r="F111" t="n">
-        <v>37468.4168960116</v>
+        <v>37324.37493094298</v>
       </c>
       <c r="G111" t="n">
-        <v>19089.25683883732</v>
+        <v>16248.37640342828</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I111" t="n">
-        <v>31489978</v>
+        <v>32055005</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9115953</v>
+        <v>9083688</v>
       </c>
       <c r="E112" t="n">
-        <v>33166528</v>
+        <v>33043414</v>
       </c>
       <c r="F112" t="n">
-        <v>452.3709116859885</v>
+        <v>543.9909560755679</v>
       </c>
       <c r="G112" t="n">
-        <v>420.2458209841498</v>
+        <v>567.7875469402848</v>
       </c>
       <c r="H112" t="n">
-        <v>0.91</v>
+        <v>1.49</v>
       </c>
       <c r="I112" t="n">
-        <v>152933</v>
+        <v>152834</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>632817</v>
+        <v>650496</v>
       </c>
       <c r="F113" t="n">
-        <v>8.992029606973569</v>
+        <v>8.996595327423876</v>
       </c>
       <c r="G113" t="n">
-        <v>2.315023181800603</v>
+        <v>2.316198639305311</v>
       </c>
       <c r="H113" t="n">
         <v>0.78</v>
       </c>
       <c r="I113" t="n">
-        <v>681.49</v>
+        <v>641.37</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11888069</v>
+        <v>11911981</v>
       </c>
       <c r="E114" t="n">
-        <v>17235984</v>
+        <v>17270654</v>
       </c>
       <c r="F114" t="n">
-        <v>2642.738659056663</v>
+        <v>3070.902054164933</v>
       </c>
       <c r="G114" t="n">
-        <v>5124.372708174857</v>
+        <v>2683.527482776971</v>
       </c>
       <c r="H114" t="n">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="I114" t="n">
-        <v>1946700</v>
+        <v>2017241</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1826128</v>
+        <v>1819230</v>
       </c>
       <c r="E115" t="n">
-        <v>13094979</v>
+        <v>13045518</v>
       </c>
       <c r="F115" t="n">
-        <v>72.14417878932009</v>
+        <v>56.71928996720096</v>
       </c>
       <c r="G115" t="n">
-        <v>284.156140662618</v>
+        <v>304.8895583624375</v>
       </c>
       <c r="H115" t="n">
-        <v>3.1</v>
+        <v>3.36</v>
       </c>
       <c r="I115" t="n">
-        <v>2076632</v>
+        <v>2090843</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2724364</v>
+        <v>2710019</v>
       </c>
       <c r="E116" t="n">
-        <v>5507193</v>
+        <v>5478195</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4472.89</v>
+        <v>4421.49</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>192899985</v>
+        <v>194123715</v>
       </c>
       <c r="E117" t="n">
-        <v>1092318243</v>
+        <v>1099247752</v>
       </c>
       <c r="F117" t="n">
-        <v>262399.6228352713</v>
+        <v>187167.99469255</v>
       </c>
       <c r="G117" t="n">
-        <v>229975.4327195045</v>
+        <v>307480.4881313947</v>
       </c>
       <c r="H117" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>86077704</v>
+        <v>85792555</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>656724</v>
+        <v>656064</v>
       </c>
       <c r="E118" t="n">
-        <v>2177600</v>
+        <v>2175413</v>
       </c>
       <c r="F118" t="n">
-        <v>7387.516296299782</v>
+        <v>8871.017144121821</v>
       </c>
       <c r="G118" t="n">
-        <v>7064.753544541214</v>
+        <v>7271.797933203492</v>
       </c>
       <c r="H118" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I118" t="n">
-        <v>5626.31</v>
+        <v>4482.63</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2612477</v>
+        <v>2651926</v>
       </c>
       <c r="E119" t="n">
-        <v>9249680</v>
+        <v>9389350</v>
       </c>
       <c r="F119" t="n">
-        <v>20.97232570164276</v>
+        <v>34.28093074275872</v>
       </c>
       <c r="G119" t="n">
-        <v>1613.873212862697</v>
+        <v>1605.257878884747</v>
       </c>
       <c r="H119" t="n">
-        <v>2.25</v>
+        <v>1.06</v>
       </c>
       <c r="I119" t="n">
-        <v>28171</v>
+        <v>28139</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1012046</v>
+        <v>1008879</v>
       </c>
       <c r="E120" t="n">
-        <v>1012046</v>
+        <v>1008879</v>
       </c>
       <c r="F120" t="n">
-        <v>136.4434409108301</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>140.4870034298073</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.83</v>
+        <v>4.91</v>
       </c>
       <c r="I120" t="n">
-        <v>4945.67</v>
+        <v>4858.71</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>498547</v>
+        <v>487887</v>
       </c>
       <c r="E121" t="n">
-        <v>1678039</v>
+        <v>1642159</v>
       </c>
       <c r="F121" t="n">
-        <v>320.5314454437823</v>
+        <v>334.9425280951036</v>
       </c>
       <c r="G121" t="n">
-        <v>442.6403683083086</v>
+        <v>392.4576864972151</v>
       </c>
       <c r="H121" t="n">
         <v>0.89</v>
       </c>
       <c r="I121" t="n">
-        <v>556291</v>
+        <v>643712</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>458191</v>
+        <v>463235</v>
       </c>
       <c r="E122" t="n">
-        <v>850032</v>
+        <v>859389</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>6.59</v>
+        <v>10.11</v>
       </c>
       <c r="I122" t="n">
-        <v>290613</v>
+        <v>315803</v>
       </c>
     </row>
     <row r="123">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9664925</v>
+        <v>9617487</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>7.63</v>
+        <v>5.78</v>
       </c>
       <c r="I123" t="n">
-        <v>21214</v>
+        <v>26171</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1161653</v>
+        <v>1150525</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>11.58</v>
+        <v>11.65</v>
       </c>
       <c r="I124" t="n">
-        <v>6466.93</v>
+        <v>6908.92</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3319386</v>
+        <v>3202816</v>
       </c>
       <c r="E125" t="n">
-        <v>7751320</v>
+        <v>7479110</v>
       </c>
       <c r="F125" t="n">
-        <v>1306.52182648552</v>
+        <v>1488.97010408166</v>
       </c>
       <c r="G125" t="n">
-        <v>1513.305218963287</v>
+        <v>1299.165505103113</v>
       </c>
       <c r="H125" t="n">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="I125" t="n">
-        <v>600520</v>
+        <v>606648</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>252759</v>
+        <v>251817</v>
       </c>
       <c r="E126" t="n">
-        <v>2230788</v>
+        <v>2222474</v>
       </c>
       <c r="F126" t="n">
-        <v>19.67144786689875</v>
+        <v>35.87596276878055</v>
       </c>
       <c r="G126" t="n">
-        <v>69.20957277275458</v>
+        <v>75.18627690770192</v>
       </c>
       <c r="H126" t="n">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="I126" t="n">
-        <v>75986</v>
+        <v>71975</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>625911</v>
+        <v>627285</v>
       </c>
       <c r="F127" t="n">
-        <v>540.6887923327736</v>
+        <v>440.1890956186065</v>
       </c>
       <c r="G127" t="n">
-        <v>567.9375505642507</v>
+        <v>610.9807638060207</v>
       </c>
       <c r="H127" t="n">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
       <c r="I127" t="n">
-        <v>16204.69</v>
+        <v>16354.46</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4714348</v>
+        <v>4740611</v>
       </c>
       <c r="E128" t="n">
-        <v>16655777</v>
+        <v>16748567</v>
       </c>
       <c r="F128" t="n">
-        <v>1032.003021049476</v>
+        <v>1461.443193344367</v>
       </c>
       <c r="G128" t="n">
-        <v>933.3556504512919</v>
+        <v>817.8285188518189</v>
       </c>
       <c r="H128" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="I128" t="n">
-        <v>159199</v>
+        <v>160691</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2163813</v>
+        <v>2194936</v>
       </c>
       <c r="F129" t="n">
-        <v>97.25512228929531</v>
+        <v>97.33866521076321</v>
       </c>
       <c r="G129" t="n">
-        <v>68.57246793671285</v>
+        <v>87.82856897336467</v>
       </c>
       <c r="H129" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="I129" t="n">
-        <v>4431.2</v>
+        <v>4287.93</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2467309</v>
+        <v>2476587</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2533.79</v>
+        <v>2529.15</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>78763</v>
+        <v>78772</v>
       </c>
       <c r="E131" t="n">
-        <v>78763</v>
+        <v>78772</v>
       </c>
       <c r="F131" t="n">
-        <v>10.22026701045506</v>
+        <v>10.54261578470256</v>
       </c>
       <c r="G131" t="n">
-        <v>6.367928996936805</v>
+        <v>34.64231405717294</v>
       </c>
       <c r="H131" t="n">
-        <v>1.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I131" t="n">
-        <v>19210.94</v>
+        <v>18625.55</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4158095</v>
+        <v>4169015</v>
       </c>
       <c r="F132" t="n">
-        <v>271.1596053418193</v>
+        <v>253.9655346444039</v>
       </c>
       <c r="G132" t="n">
-        <v>420.8070283508667</v>
+        <v>373.4268208138936</v>
       </c>
       <c r="H132" t="n">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
       <c r="I132" t="n">
-        <v>261167</v>
+        <v>275987</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2106898</v>
+        <v>2104447</v>
       </c>
       <c r="E133" t="n">
-        <v>8604024</v>
+        <v>8594017</v>
       </c>
       <c r="F133" t="n">
-        <v>368.5313724650537</v>
+        <v>334.7581979291343</v>
       </c>
       <c r="G133" t="n">
-        <v>566.199025779327</v>
+        <v>301.9372375503684</v>
       </c>
       <c r="H133" t="n">
-        <v>0.76</v>
+        <v>0.13</v>
       </c>
       <c r="I133" t="n">
-        <v>390359</v>
+        <v>222720</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7245427</v>
+        <v>7250332</v>
       </c>
       <c r="E134" t="n">
-        <v>7299285</v>
+        <v>7304226</v>
       </c>
       <c r="F134" t="n">
-        <v>250043.887530439</v>
+        <v>360284.1218428735</v>
       </c>
       <c r="G134" t="n">
-        <v>247970.8521012312</v>
+        <v>283467.2969744072</v>
       </c>
       <c r="H134" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I134" t="n">
-        <v>6003254</v>
+        <v>5890674</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13434819</v>
+        <v>13521629</v>
       </c>
       <c r="E135" t="n">
-        <v>13480539</v>
+        <v>13567644</v>
       </c>
       <c r="F135" t="n">
-        <v>11706.35417004131</v>
+        <v>15171.99124433689</v>
       </c>
       <c r="G135" t="n">
-        <v>12352.74587475076</v>
+        <v>12183.30187029183</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>6989003</v>
+        <v>7285495</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>41904572</v>
+        <v>41897635</v>
       </c>
       <c r="E136" t="n">
-        <v>71144215</v>
+        <v>71122116</v>
       </c>
       <c r="F136" t="n">
-        <v>542.594304834297</v>
+        <v>544.1834358939524</v>
       </c>
       <c r="G136" t="n">
-        <v>1626.156906054655</v>
+        <v>1436.176092116544</v>
       </c>
       <c r="H136" t="n">
         <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1153490</v>
+        <v>1063676</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19527992</v>
+        <v>19491240</v>
       </c>
       <c r="E137" t="n">
-        <v>58547976</v>
+        <v>58438746</v>
       </c>
       <c r="F137" t="n">
-        <v>41461.26321473347</v>
+        <v>42526.76431262112</v>
       </c>
       <c r="G137" t="n">
-        <v>44965.32700667295</v>
+        <v>24446.09774972642</v>
       </c>
       <c r="H137" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>3671724</v>
+        <v>3891072</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>97837424</v>
+        <v>100977351</v>
       </c>
       <c r="E138" t="n">
-        <v>104010024</v>
+        <v>107348050</v>
       </c>
       <c r="F138" t="n">
-        <v>4401.559001284432</v>
+        <v>2920.742500233923</v>
       </c>
       <c r="G138" t="n">
-        <v>4854.44406599744</v>
+        <v>9336.793414368538</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I138" t="n">
-        <v>536184</v>
+        <v>562695</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1268247</v>
+        <v>1269128</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>19.19884160491333</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>7.662906795623042</v>
       </c>
       <c r="H139" t="n">
-        <v>7.23</v>
+        <v>3.86</v>
       </c>
       <c r="I139" t="n">
-        <v>2033.2</v>
+        <v>2000.93</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>234441</v>
+        <v>234879</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>10.57</v>
       </c>
       <c r="I140" t="n">
-        <v>83.61</v>
+        <v>83.68000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>76263</v>
+        <v>76299</v>
       </c>
       <c r="E141" t="n">
-        <v>216340</v>
+        <v>216442</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>613</v>
+        <v>704.86</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>49930018</v>
+        <v>49753064</v>
       </c>
       <c r="E142" t="n">
-        <v>215093058</v>
+        <v>214330760</v>
       </c>
       <c r="F142" t="n">
-        <v>49214.11712945432</v>
+        <v>47291.79282797947</v>
       </c>
       <c r="G142" t="n">
-        <v>76390.04266885185</v>
+        <v>68693.90295035134</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>13220556</v>
+        <v>13639535</v>
       </c>
     </row>
     <row r="143">
@@ -5407,19 +5407,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280542</v>
+        <v>279836</v>
       </c>
       <c r="F143" t="n">
-        <v>23.74003358328571</v>
+        <v>23.7520721300286</v>
       </c>
       <c r="G143" t="n">
-        <v>13.53164119989348</v>
+        <v>9.158185928522235</v>
       </c>
       <c r="H143" t="n">
         <v>0.68</v>
       </c>
       <c r="I143" t="n">
-        <v>16326.28</v>
+        <v>20941</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>10008822</v>
+        <v>8952570</v>
       </c>
       <c r="F144" t="n">
-        <v>103.178485302641</v>
+        <v>152.5454962137314</v>
       </c>
       <c r="G144" t="n">
-        <v>374.7887545468487</v>
+        <v>184.0300207532879</v>
       </c>
       <c r="H144" t="n">
         <v>0.99</v>
       </c>
       <c r="I144" t="n">
-        <v>897328</v>
+        <v>1101543</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1180336</v>
+        <v>1183349</v>
       </c>
       <c r="E145" t="n">
-        <v>7868906</v>
+        <v>7888994</v>
       </c>
       <c r="F145" t="n">
-        <v>262.3660337212731</v>
+        <v>262.4990793826749</v>
       </c>
       <c r="G145" t="n">
-        <v>36.78857129776516</v>
+        <v>36.8072267606348</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>3968.38</v>
+        <v>3683.6</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7393787</v>
+        <v>9062249</v>
       </c>
       <c r="F146" t="n">
-        <v>10.73717416299659</v>
+        <v>47.98646014765848</v>
       </c>
       <c r="G146" t="n">
-        <v>112.1752828194053</v>
+        <v>255.7127567044911</v>
       </c>
       <c r="H146" t="n">
-        <v>2.4</v>
+        <v>3.42</v>
       </c>
       <c r="I146" t="n">
-        <v>7165574</v>
+        <v>7491647</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>659469</v>
+        <v>666766</v>
       </c>
       <c r="E147" t="n">
-        <v>2380327</v>
+        <v>2406666</v>
       </c>
       <c r="F147" t="n">
-        <v>305.2982519609776</v>
+        <v>54.61758837460449</v>
       </c>
       <c r="G147" t="n">
-        <v>150.3318742182852</v>
+        <v>150.7686147222697</v>
       </c>
       <c r="H147" t="n">
-        <v>0.96</v>
+        <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>399641</v>
+        <v>400588</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1594286</v>
+        <v>1667718</v>
       </c>
       <c r="F148" t="n">
-        <v>1125.512271336101</v>
+        <v>1209.015135572205</v>
       </c>
       <c r="G148" t="n">
-        <v>56.28748245377871</v>
+        <v>17.30651409211996</v>
       </c>
       <c r="H148" t="n">
-        <v>0.03</v>
+        <v>1.37</v>
       </c>
       <c r="I148" t="n">
-        <v>88326</v>
+        <v>91585</v>
       </c>
     </row>
     <row r="149">
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>60867</v>
+        <v>50413</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5626,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>6.67</v>
+        <v>8</v>
       </c>
       <c r="I149" t="n">
-        <v>3220.53</v>
+        <v>3678.51</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12396689</v>
+        <v>12673975</v>
       </c>
       <c r="E150" t="n">
-        <v>12396689</v>
+        <v>12673975</v>
       </c>
       <c r="F150" t="n">
-        <v>195.8640196491716</v>
+        <v>159.8422201756388</v>
       </c>
       <c r="G150" t="n">
-        <v>948.4505599254026</v>
+        <v>981.6899082654928</v>
       </c>
       <c r="H150" t="n">
-        <v>0.16</v>
+        <v>0.71</v>
       </c>
       <c r="I150" t="n">
-        <v>2703932</v>
+        <v>2538109</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2239731</v>
+        <v>2282269</v>
       </c>
       <c r="E151" t="n">
-        <v>8129744</v>
+        <v>8283647</v>
       </c>
       <c r="F151" t="n">
-        <v>105.3332784131815</v>
+        <v>89.11360245462205</v>
       </c>
       <c r="G151" t="n">
-        <v>29.1771618773724</v>
+        <v>38.03364698003384</v>
       </c>
       <c r="H151" t="n">
-        <v>0.52</v>
+        <v>1.51</v>
       </c>
       <c r="I151" t="n">
-        <v>224574</v>
+        <v>240755</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1222299</v>
+        <v>1237127</v>
       </c>
       <c r="E152" t="n">
-        <v>1222299</v>
+        <v>1237127</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>776.76</v>
+        <v>301.57</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>22978572</v>
+        <v>22937763</v>
       </c>
       <c r="E153" t="n">
-        <v>26547561</v>
+        <v>26505826</v>
       </c>
       <c r="F153" t="n">
-        <v>680.4819205254073</v>
+        <v>654.8963112857818</v>
       </c>
       <c r="G153" t="n">
-        <v>594.623535173043</v>
+        <v>587.9080780924631</v>
       </c>
       <c r="H153" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I153" t="n">
-        <v>736978</v>
+        <v>750296</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2440793</v>
+        <v>2442005</v>
       </c>
       <c r="E154" t="n">
-        <v>18366337</v>
+        <v>18375457</v>
       </c>
       <c r="F154" t="n">
-        <v>3216.744553743719</v>
+        <v>3264.516415398565</v>
       </c>
       <c r="G154" t="n">
-        <v>3406.79696134019</v>
+        <v>3761.052145880916</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>158853</v>
+        <v>156009</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>19716804</v>
+        <v>19378051</v>
       </c>
       <c r="E155" t="n">
-        <v>78867216</v>
+        <v>77512204</v>
       </c>
       <c r="F155" t="n">
-        <v>902.1898111990906</v>
+        <v>1207.023804328358</v>
       </c>
       <c r="G155" t="n">
-        <v>3006.793634600643</v>
+        <v>1314.394821981015</v>
       </c>
       <c r="H155" t="n">
-        <v>1.38</v>
+        <v>1.03</v>
       </c>
       <c r="I155" t="n">
-        <v>3818589</v>
+        <v>3871714</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>287301915</v>
+        <v>287276622</v>
       </c>
       <c r="E156" t="n">
-        <v>287301915</v>
+        <v>287276622</v>
       </c>
       <c r="F156" t="n">
-        <v>363492.2172424165</v>
+        <v>267709.2177068016</v>
       </c>
       <c r="G156" t="n">
-        <v>281517.4840261528</v>
+        <v>373767.9891409002</v>
       </c>
       <c r="H156" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I156" t="n">
-        <v>19877051</v>
+        <v>18786139</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12853256</v>
+        <v>13104771</v>
       </c>
       <c r="E157" t="n">
-        <v>40652872</v>
+        <v>41448372</v>
       </c>
       <c r="F157" t="n">
-        <v>2738.366618314448</v>
+        <v>2888.211919625428</v>
       </c>
       <c r="G157" t="n">
-        <v>11045.78874727798</v>
+        <v>9421.533761305272</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="I157" t="n">
-        <v>1079549</v>
+        <v>1188346</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1092410</v>
+        <v>1126435</v>
       </c>
       <c r="E158" t="n">
-        <v>2488071</v>
+        <v>2565567</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6.54</v>
+        <v>6.92</v>
       </c>
       <c r="I158" t="n">
-        <v>426.89</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17342176</v>
+        <v>17410182</v>
       </c>
       <c r="E159" t="n">
-        <v>17342176</v>
+        <v>17410182</v>
       </c>
       <c r="F159" t="n">
-        <v>7049.18712348074</v>
+        <v>9635.517008896126</v>
       </c>
       <c r="G159" t="n">
-        <v>16334.15295336893</v>
+        <v>11842.20378566166</v>
       </c>
       <c r="H159" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>7248106</v>
+        <v>7230775</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4609915</v>
+        <v>4618510</v>
       </c>
       <c r="E160" t="n">
-        <v>8487346</v>
+        <v>8503170</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>12.12</v>
+        <v>12.33</v>
       </c>
       <c r="I160" t="n">
-        <v>54.95</v>
+        <v>54.99</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>97561</v>
+        <v>107058</v>
       </c>
       <c r="E161" t="n">
-        <v>118866</v>
+        <v>130476</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>10.66</v>
+        <v>5.6</v>
       </c>
       <c r="I161" t="n">
-        <v>2054.16</v>
+        <v>2462.3</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19888760</v>
+        <v>20380348</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>20.64</v>
+        <v>13.14</v>
       </c>
       <c r="I162" t="n">
-        <v>3612.64</v>
+        <v>3287.63</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>461353</v>
+        <v>465518</v>
       </c>
       <c r="E163" t="n">
-        <v>581132</v>
+        <v>586379</v>
       </c>
       <c r="F163" t="n">
-        <v>113.5427895098464</v>
+        <v>109.2519102538657</v>
       </c>
       <c r="G163" t="n">
-        <v>141.8712341946936</v>
+        <v>96.12349016582844</v>
       </c>
       <c r="H163" t="n">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="I163" t="n">
-        <v>151763</v>
+        <v>188236</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>105942</v>
+        <v>109228</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>6.18</v>
+        <v>6.01</v>
       </c>
       <c r="I164" t="n">
-        <v>3201.55</v>
+        <v>3415.62</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12138300</v>
+        <v>12105598</v>
       </c>
       <c r="E165" t="n">
-        <v>18477230</v>
+        <v>18405248</v>
       </c>
       <c r="F165" t="n">
-        <v>3725.364845913088</v>
+        <v>2565.783854978077</v>
       </c>
       <c r="G165" t="n">
-        <v>1170.721035976513</v>
+        <v>1169.725598327618</v>
       </c>
       <c r="H165" t="n">
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="I165" t="n">
-        <v>673580</v>
+        <v>650197</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>288958357</v>
+        <v>307179706</v>
       </c>
       <c r="E166" t="n">
-        <v>288958357</v>
+        <v>307179706</v>
       </c>
       <c r="F166" t="n">
-        <v>233097.0809361343</v>
+        <v>283876.6721794847</v>
       </c>
       <c r="G166" t="n">
-        <v>305366.7607551231</v>
+        <v>281985.9252044223</v>
       </c>
       <c r="H166" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>93211987</v>
+        <v>110672261</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10148338</v>
+        <v>9853442</v>
       </c>
       <c r="E167" t="n">
-        <v>28812824</v>
+        <v>27975566</v>
       </c>
       <c r="F167" t="n">
-        <v>492.9502139102121</v>
+        <v>765.1851651005194</v>
       </c>
       <c r="G167" t="n">
-        <v>505.535462424293</v>
+        <v>94.99837009406697</v>
       </c>
       <c r="H167" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I167" t="n">
-        <v>101338</v>
+        <v>103383</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11666256</v>
+        <v>11705696</v>
       </c>
       <c r="F168" t="n">
-        <v>189.3666712803587</v>
+        <v>9.988645260895424</v>
       </c>
       <c r="G168" t="n">
-        <v>390.7227887498391</v>
+        <v>121.5798193005289</v>
       </c>
       <c r="H168" t="n">
-        <v>2.16</v>
+        <v>2.49</v>
       </c>
       <c r="I168" t="n">
-        <v>77142</v>
+        <v>77215</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4567527</v>
+        <v>4624127</v>
       </c>
       <c r="E169" t="n">
-        <v>31209593</v>
+        <v>31596337</v>
       </c>
       <c r="F169" t="n">
-        <v>482.9871034590134</v>
+        <v>2718.922744522092</v>
       </c>
       <c r="G169" t="n">
-        <v>1483.224746163245</v>
+        <v>2601.221776808746</v>
       </c>
       <c r="H169" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I169" t="n">
-        <v>3009045</v>
+        <v>3036039</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2658707</v>
+        <v>2632397</v>
       </c>
       <c r="E170" t="n">
-        <v>3934777</v>
+        <v>3894779</v>
       </c>
       <c r="F170" t="n">
-        <v>1725.777958195076</v>
+        <v>3012.813738631668</v>
       </c>
       <c r="G170" t="n">
-        <v>4319.470195305474</v>
+        <v>4202.664503207129</v>
       </c>
       <c r="H170" t="n">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="I170" t="n">
-        <v>92423</v>
+        <v>97435</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>84171987</v>
+        <v>84498070</v>
       </c>
       <c r="E171" t="n">
-        <v>485035297</v>
+        <v>486914327</v>
       </c>
       <c r="F171" t="n">
-        <v>345678.0196966866</v>
+        <v>315222.0190684045</v>
       </c>
       <c r="G171" t="n">
-        <v>275998.7827001509</v>
+        <v>277144.1071492293</v>
       </c>
       <c r="H171" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="I171" t="n">
-        <v>20908220</v>
+        <v>21338007</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13806710</v>
+        <v>13836206</v>
       </c>
       <c r="E172" t="n">
-        <v>13806710</v>
+        <v>13836206</v>
       </c>
       <c r="F172" t="n">
-        <v>5448.381615987277</v>
+        <v>5310.405595078685</v>
       </c>
       <c r="G172" t="n">
-        <v>5935.831118876812</v>
+        <v>5814.307940998991</v>
       </c>
       <c r="H172" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="I172" t="n">
-        <v>711097</v>
+        <v>723617</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6107482</v>
+        <v>6122050</v>
       </c>
       <c r="E173" t="n">
-        <v>17349602</v>
+        <v>17390986</v>
       </c>
       <c r="F173" t="n">
-        <v>733.7658860205657</v>
+        <v>669.0313873021914</v>
       </c>
       <c r="G173" t="n">
-        <v>8494.101106860511</v>
+        <v>7871.378919147303</v>
       </c>
       <c r="H173" t="n">
-        <v>0.74</v>
+        <v>1.31</v>
       </c>
       <c r="I173" t="n">
-        <v>84629</v>
+        <v>78217</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>20159376</v>
+        <v>19111439</v>
       </c>
       <c r="E174" t="n">
-        <v>20159376</v>
+        <v>19111439</v>
       </c>
       <c r="F174" t="n">
-        <v>8.554505800239417</v>
+        <v>8.558837444539915</v>
       </c>
       <c r="G174" t="n">
-        <v>1.061660894602803</v>
+        <v>40.77831919497777</v>
       </c>
       <c r="H174" t="n">
-        <v>1.67</v>
+        <v>0.85</v>
       </c>
       <c r="I174" t="n">
-        <v>112189</v>
+        <v>107503</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1313009</v>
+        <v>1316296</v>
       </c>
       <c r="F175" t="n">
-        <v>88.98907041466073</v>
+        <v>89.02400810347579</v>
       </c>
       <c r="G175" t="n">
-        <v>713.3808403451151</v>
+        <v>709.8573271081428</v>
       </c>
       <c r="H175" t="n">
         <v>2.01</v>
       </c>
       <c r="I175" t="n">
-        <v>42863</v>
+        <v>2001.25</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>122545</v>
+        <v>140175</v>
       </c>
       <c r="E176" t="n">
-        <v>266777</v>
+        <v>305158</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>5.7</v>
+        <v>4.08</v>
       </c>
       <c r="I176" t="n">
-        <v>42812</v>
+        <v>46502</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2880706</v>
+        <v>2875731</v>
       </c>
       <c r="F177" t="n">
-        <v>244.8455032172812</v>
+        <v>178.5176810685722</v>
       </c>
       <c r="G177" t="n">
-        <v>307.7971454543676</v>
+        <v>268.3565586098725</v>
       </c>
       <c r="H177" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="I177" t="n">
-        <v>355368</v>
+        <v>234571</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>235690541</v>
+        <v>238386655</v>
       </c>
       <c r="E178" t="n">
-        <v>235692882</v>
+        <v>238389024</v>
       </c>
       <c r="F178" t="n">
-        <v>44697.71800156825</v>
+        <v>47661.11789611875</v>
       </c>
       <c r="G178" t="n">
-        <v>81804.82012605936</v>
+        <v>85096.00387743248</v>
       </c>
       <c r="H178" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="I178" t="n">
-        <v>2957899</v>
+        <v>2988568</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9143905</v>
+        <v>9205165</v>
       </c>
       <c r="E179" t="n">
-        <v>9143905</v>
+        <v>9205165</v>
       </c>
       <c r="F179" t="n">
-        <v>611.3677833745598</v>
+        <v>9.17578522960061</v>
       </c>
       <c r="G179" t="n">
-        <v>54.34173787994953</v>
+        <v>38.81108643110496</v>
       </c>
       <c r="H179" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="I179" t="n">
-        <v>2953548</v>
+        <v>2976892</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>188403</v>
+        <v>190560</v>
       </c>
       <c r="E180" t="n">
-        <v>1454847</v>
+        <v>1471507</v>
       </c>
       <c r="F180" t="n">
-        <v>547.5962892641569</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>7.039100223059298</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1.67</v>
+        <v>4.95</v>
       </c>
       <c r="I180" t="n">
-        <v>46519</v>
+        <v>40456</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>29599391</v>
+        <v>30235032</v>
       </c>
       <c r="E181" t="n">
-        <v>132528616</v>
+        <v>135374642</v>
       </c>
       <c r="F181" t="n">
-        <v>38737.54506170661</v>
+        <v>47216.2928223557</v>
       </c>
       <c r="G181" t="n">
-        <v>66624.75774897338</v>
+        <v>78073.98058864177</v>
       </c>
       <c r="H181" t="n">
         <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>15229381</v>
+        <v>16332238</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1319143</v>
+        <v>1327392</v>
       </c>
       <c r="F182" t="n">
-        <v>14.90205390075318</v>
+        <v>220.7152455911917</v>
       </c>
       <c r="G182" t="n">
-        <v>896.648481599113</v>
+        <v>893.019622715951</v>
       </c>
       <c r="H182" t="n">
-        <v>0.55</v>
+        <v>1.31</v>
       </c>
       <c r="I182" t="n">
-        <v>93367</v>
+        <v>71997</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2884803</v>
+        <v>2865514</v>
       </c>
       <c r="E183" t="n">
-        <v>2884803</v>
+        <v>2865514</v>
       </c>
       <c r="F183" t="n">
-        <v>197.1422606982693</v>
+        <v>376.585110732051</v>
       </c>
       <c r="G183" t="n">
-        <v>490.4864848187115</v>
+        <v>455.4189115316103</v>
       </c>
       <c r="H183" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="I183" t="n">
-        <v>293365</v>
+        <v>298308</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>553508</v>
+        <v>555649</v>
       </c>
       <c r="E184" t="n">
-        <v>553508</v>
+        <v>555649</v>
       </c>
       <c r="F184" t="n">
-        <v>6.443220244978015</v>
+        <v>6.446482822490117</v>
       </c>
       <c r="G184" t="n">
-        <v>178.2485812793343</v>
+        <v>26.11745924079025</v>
       </c>
       <c r="H184" t="n">
-        <v>3.64</v>
+        <v>1.82</v>
       </c>
       <c r="I184" t="n">
-        <v>1162140</v>
+        <v>1265771</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14326670</v>
+        <v>14498623</v>
       </c>
       <c r="E185" t="n">
-        <v>18240138</v>
+        <v>18459062</v>
       </c>
       <c r="F185" t="n">
-        <v>223.400169243127</v>
+        <v>396.0400793216006</v>
       </c>
       <c r="G185" t="n">
-        <v>133.1613159133573</v>
+        <v>112.8937283750209</v>
       </c>
       <c r="H185" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I185" t="n">
-        <v>937785</v>
+        <v>940682</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1785048</v>
+        <v>1712112</v>
       </c>
       <c r="E186" t="n">
-        <v>1785048</v>
+        <v>1712112</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>7.86391160931498</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>3.754827893429611</v>
       </c>
       <c r="H186" t="n">
-        <v>4.14</v>
+        <v>3.75</v>
       </c>
       <c r="I186" t="n">
-        <v>3042.38</v>
+        <v>2306.08</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48040098</v>
+        <v>48071190</v>
       </c>
       <c r="E187" t="n">
-        <v>311527251</v>
+        <v>311728872</v>
       </c>
       <c r="F187" t="n">
-        <v>116325.1191920297</v>
+        <v>136435.9169973613</v>
       </c>
       <c r="G187" t="n">
-        <v>193620.4020684583</v>
+        <v>188337.5609157206</v>
       </c>
       <c r="H187" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I187" t="n">
-        <v>21991387</v>
+        <v>22051423</v>
       </c>
     </row>
     <row r="188">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8092544</v>
+        <v>7735807</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6989,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>5.93</v>
+        <v>6.38</v>
       </c>
       <c r="I188" t="n">
-        <v>307383</v>
+        <v>314875</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7262722</v>
+        <v>7339115</v>
       </c>
       <c r="E189" t="n">
-        <v>7273122</v>
+        <v>7349551</v>
       </c>
       <c r="F189" t="n">
-        <v>342.0887295479506</v>
+        <v>171.4519466484425</v>
       </c>
       <c r="G189" t="n">
-        <v>106.5138621162451</v>
+        <v>1558.980131636329</v>
       </c>
       <c r="H189" t="n">
-        <v>0.51</v>
+        <v>1.52</v>
       </c>
       <c r="I189" t="n">
-        <v>941686</v>
+        <v>933377</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4422315</v>
+        <v>4406071</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>10.78672132034786</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>26.20093393289823</v>
       </c>
       <c r="H190" t="n">
-        <v>4.24</v>
+        <v>2.94</v>
       </c>
       <c r="I190" t="n">
-        <v>214719</v>
+        <v>202089</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>94534430</v>
+        <v>94832764</v>
       </c>
       <c r="E191" t="n">
-        <v>95552024</v>
+        <v>95853569</v>
       </c>
       <c r="F191" t="n">
-        <v>29846.59094620359</v>
+        <v>35528.0675753112</v>
       </c>
       <c r="G191" t="n">
-        <v>38374.00136643174</v>
+        <v>39902.42984993642</v>
       </c>
       <c r="H191" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I191" t="n">
-        <v>78520617</v>
+        <v>67624216</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>241542330</v>
+        <v>245824126</v>
       </c>
       <c r="E192" t="n">
-        <v>241542330</v>
+        <v>245824126</v>
       </c>
       <c r="F192" t="n">
-        <v>39516.68936444406</v>
+        <v>40264.6465049054</v>
       </c>
       <c r="G192" t="n">
-        <v>57004.35644448807</v>
+        <v>49049.07645538959</v>
       </c>
       <c r="H192" t="n">
         <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>94023108</v>
+        <v>93300078</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>22959505</v>
+        <v>23054915</v>
       </c>
       <c r="E193" t="n">
-        <v>137371331</v>
+        <v>137942192</v>
       </c>
       <c r="F193" t="n">
-        <v>42174.53474980956</v>
+        <v>39561.20736132772</v>
       </c>
       <c r="G193" t="n">
-        <v>67670.78827078424</v>
+        <v>96616.94803462746</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>18217874</v>
+        <v>18587323</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13309528</v>
+        <v>13643893</v>
       </c>
       <c r="E194" t="n">
-        <v>40225087</v>
+        <v>41235632</v>
       </c>
       <c r="F194" t="n">
-        <v>580.0095552361227</v>
+        <v>702.8430993880945</v>
       </c>
       <c r="G194" t="n">
-        <v>874.4135782973091</v>
+        <v>519.5409987407875</v>
       </c>
       <c r="H194" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I194" t="n">
-        <v>2461713</v>
+        <v>2471265</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52183667</v>
+        <v>52870828</v>
       </c>
       <c r="E195" t="n">
-        <v>90132538</v>
+        <v>91319414</v>
       </c>
       <c r="F195" t="n">
-        <v>15009.60157970196</v>
+        <v>14812.66611292209</v>
       </c>
       <c r="G195" t="n">
-        <v>8989.952786714006</v>
+        <v>1850.165556096537</v>
       </c>
       <c r="H195" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="I195" t="n">
-        <v>2284012</v>
+        <v>2177920</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4079087</v>
+        <v>4121784</v>
       </c>
       <c r="E196" t="n">
-        <v>4079087</v>
+        <v>4121784</v>
       </c>
       <c r="F196" t="n">
-        <v>234.9156119122873</v>
+        <v>2.127320642353994</v>
       </c>
       <c r="G196" t="n">
-        <v>19.98773376819764</v>
+        <v>405.1944151765838</v>
       </c>
       <c r="H196" t="n">
-        <v>1.68</v>
+        <v>0.34</v>
       </c>
       <c r="I196" t="n">
-        <v>1753748</v>
+        <v>1774946</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>186567</v>
+        <v>180316</v>
       </c>
       <c r="F197" t="n">
-        <v>571.1209307084378</v>
+        <v>9.436937369678013</v>
       </c>
       <c r="G197" t="n">
-        <v>4.856992202033999</v>
+        <v>123.8379926087045</v>
       </c>
       <c r="H197" t="n">
-        <v>3.34</v>
+        <v>2.52</v>
       </c>
       <c r="I197" t="n">
-        <v>66544</v>
+        <v>69889</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6296151</v>
+        <v>6221233</v>
       </c>
       <c r="E198" t="n">
-        <v>32391784</v>
+        <v>32006354</v>
       </c>
       <c r="F198" t="n">
-        <v>207.0860878904212</v>
+        <v>220.9826389787799</v>
       </c>
       <c r="G198" t="n">
-        <v>788.1798843209776</v>
+        <v>301.5867956797387</v>
       </c>
       <c r="H198" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="I198" t="n">
-        <v>967554</v>
+        <v>973110</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>169039682</v>
+        <v>169565160</v>
       </c>
       <c r="E199" t="n">
-        <v>197488261</v>
+        <v>198102175</v>
       </c>
       <c r="F199" t="n">
-        <v>38559.47439999908</v>
+        <v>26714.08396388018</v>
       </c>
       <c r="G199" t="n">
-        <v>4866.832316227905</v>
+        <v>7077.811388175372</v>
       </c>
       <c r="H199" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="I199" t="n">
-        <v>7314228</v>
+        <v>7045857</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>297897</v>
+        <v>297629</v>
       </c>
       <c r="F200" t="n">
-        <v>15.43139734573087</v>
+        <v>154.2402490533569</v>
       </c>
       <c r="G200" t="n">
-        <v>66.96743717462883</v>
+        <v>53.23131349653055</v>
       </c>
       <c r="H200" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="I200" t="n">
-        <v>252692</v>
+        <v>222971</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7583640</v>
+        <v>7587984</v>
       </c>
       <c r="F201" t="n">
-        <v>928.9919721213982</v>
+        <v>924.664586617739</v>
       </c>
       <c r="G201" t="n">
-        <v>544.5634593314963</v>
+        <v>503.6069660714343</v>
       </c>
       <c r="H201" t="n">
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="I201" t="n">
-        <v>651746</v>
+        <v>665256</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33981</v>
+        <v>34015</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>90.83</v>
+        <v>90.89</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>32422476</v>
+        <v>32496279</v>
       </c>
       <c r="E203" t="n">
-        <v>161803101</v>
+        <v>162171411</v>
       </c>
       <c r="F203" t="n">
-        <v>109150.9533667594</v>
+        <v>101397.1540030385</v>
       </c>
       <c r="G203" t="n">
-        <v>113153.9348534493</v>
+        <v>138036.7870227775</v>
       </c>
       <c r="H203" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I203" t="n">
-        <v>14425538</v>
+        <v>14086131</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1913591</v>
+        <v>1934510</v>
       </c>
       <c r="E204" t="n">
-        <v>1913591</v>
+        <v>1934510</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>21.53</v>
+        <v>21.42</v>
       </c>
       <c r="I204" t="n">
-        <v>4354.1</v>
+        <v>4103.26</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>152892</v>
+        <v>151918</v>
       </c>
       <c r="F205" t="n">
-        <v>1126.74943383399</v>
+        <v>1181.177683048127</v>
       </c>
       <c r="G205" t="n">
-        <v>56.27661626901276</v>
+        <v>38.99058226374916</v>
       </c>
       <c r="H205" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="I205" t="n">
-        <v>30380</v>
+        <v>30942</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3085.61</v>
+        <v>3088.1</v>
       </c>
       <c r="E206" t="n">
-        <v>36880</v>
+        <v>36910</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>6.99</v>
       </c>
       <c r="I206" t="n">
-        <v>3807.37</v>
+        <v>3699.37</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>284251449</v>
+        <v>284395549</v>
       </c>
       <c r="E208" t="n">
-        <v>525930003</v>
+        <v>526196621</v>
       </c>
       <c r="F208" t="n">
-        <v>26644.67900827838</v>
+        <v>15922.33498273418</v>
       </c>
       <c r="G208" t="n">
-        <v>23933.52571527378</v>
+        <v>32665.41026255851</v>
       </c>
       <c r="H208" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I208" t="n">
-        <v>21443541</v>
+        <v>23210486</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>69581169</v>
+        <v>70177242</v>
       </c>
       <c r="E209" t="n">
-        <v>663658672</v>
+        <v>669321417</v>
       </c>
       <c r="F209" t="n">
-        <v>277987.1121779628</v>
+        <v>302750.2768498627</v>
       </c>
       <c r="G209" t="n">
-        <v>301966.8950666212</v>
+        <v>254312.7182295337</v>
       </c>
       <c r="H209" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I209" t="n">
-        <v>23890273</v>
+        <v>25649881</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2247994</v>
+        <v>2355760</v>
       </c>
       <c r="F210" t="n">
-        <v>2.541759585908581</v>
+        <v>38.08788602515046</v>
       </c>
       <c r="G210" t="n">
-        <v>1289.090403539473</v>
+        <v>3.561597547867416</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="I210" t="n">
-        <v>44319</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>93423</v>
+        <v>90581</v>
       </c>
       <c r="E211" t="n">
-        <v>776647</v>
+        <v>753020</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>6.25</v>
+        <v>6.41</v>
       </c>
       <c r="I211" t="n">
-        <v>55878</v>
+        <v>57439</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1834042</v>
+        <v>1844750</v>
       </c>
       <c r="E212" t="n">
-        <v>5237789</v>
+        <v>5268368</v>
       </c>
       <c r="F212" t="n">
-        <v>109.6922507807432</v>
+        <v>261.855722158181</v>
       </c>
       <c r="G212" t="n">
-        <v>946.7189329771365</v>
+        <v>385.1882964366714</v>
       </c>
       <c r="H212" t="n">
-        <v>1.19</v>
+        <v>0.79</v>
       </c>
       <c r="I212" t="n">
-        <v>72510</v>
+        <v>72310</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9138149</v>
+        <v>9587015</v>
       </c>
       <c r="E213" t="n">
-        <v>27090394</v>
+        <v>28421074</v>
       </c>
       <c r="F213" t="n">
-        <v>1759.151236353272</v>
+        <v>1948.322478668077</v>
       </c>
       <c r="G213" t="n">
-        <v>821.8784888855312</v>
+        <v>1363.32341265858</v>
       </c>
       <c r="H213" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I213" t="n">
-        <v>6617946</v>
+        <v>6886154</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>15048748</v>
+        <v>15063422</v>
       </c>
       <c r="F214" t="n">
-        <v>201.6692359455442</v>
+        <v>201.7715022964899</v>
       </c>
       <c r="G214" t="n">
-        <v>92.85997212161445</v>
+        <v>92.9070613588661</v>
       </c>
       <c r="H214" t="n">
         <v>1.92</v>
       </c>
       <c r="I214" t="n">
-        <v>426.78</v>
+        <v>427.06</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1940274</v>
+        <v>1924781</v>
       </c>
       <c r="E215" t="n">
-        <v>5612729</v>
+        <v>5567912</v>
       </c>
       <c r="F215" t="n">
-        <v>127.0185607821246</v>
+        <v>125.1046726426655</v>
       </c>
       <c r="G215" t="n">
-        <v>117.5000159647282</v>
+        <v>143.0731523502486</v>
       </c>
       <c r="H215" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="I215" t="n">
-        <v>54123</v>
+        <v>47309</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2190447</v>
+        <v>2169856</v>
       </c>
       <c r="E216" t="n">
-        <v>19321195</v>
+        <v>19139568</v>
       </c>
       <c r="F216" t="n">
-        <v>2144.774090241147</v>
+        <v>2183.930594642659</v>
       </c>
       <c r="G216" t="n">
-        <v>561.9807309410073</v>
+        <v>1479.574093372617</v>
       </c>
       <c r="H216" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="I216" t="n">
-        <v>86295</v>
+        <v>83841</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43291804</v>
+        <v>43981946</v>
       </c>
       <c r="E217" t="n">
-        <v>43291804</v>
+        <v>43981946</v>
       </c>
       <c r="F217" t="n">
-        <v>36151.82094838462</v>
+        <v>40571.68533431157</v>
       </c>
       <c r="G217" t="n">
-        <v>43645.45880103354</v>
+        <v>49877.89023080737</v>
       </c>
       <c r="H217" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I217" t="n">
-        <v>9303139</v>
+        <v>10621157</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8280219</v>
+        <v>8247231</v>
       </c>
       <c r="E218" t="n">
-        <v>11797415</v>
+        <v>11750415</v>
       </c>
       <c r="F218" t="n">
-        <v>1989.050043284807</v>
+        <v>1958.694104146167</v>
       </c>
       <c r="G218" t="n">
-        <v>3613.608623386469</v>
+        <v>3639.836852169146</v>
       </c>
       <c r="H218" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="I218" t="n">
-        <v>295071</v>
+        <v>261606</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15828823</v>
+        <v>15739780</v>
       </c>
       <c r="F219" t="n">
-        <v>2.122665345488753</v>
+        <v>2.108190225093381</v>
       </c>
       <c r="G219" t="n">
-        <v>412.7262351689244</v>
+        <v>392.4568702916569</v>
       </c>
       <c r="H219" t="n">
-        <v>0.54</v>
+        <v>0.95</v>
       </c>
       <c r="I219" t="n">
-        <v>1118918</v>
+        <v>1132346</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>715368</v>
+        <v>724763</v>
       </c>
       <c r="F220" t="n">
-        <v>84.13617989651468</v>
+        <v>84.17878294251462</v>
       </c>
       <c r="G220" t="n">
-        <v>258.1488564745727</v>
+        <v>258.350433656146</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>177739</v>
+        <v>204168</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2633694</v>
+        <v>2721122</v>
       </c>
       <c r="E221" t="n">
-        <v>2635975</v>
+        <v>2723479</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>41.50013526454499</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>581.2635676956183</v>
       </c>
       <c r="H221" t="n">
-        <v>6.15</v>
+        <v>3.24</v>
       </c>
       <c r="I221" t="n">
-        <v>105042</v>
+        <v>101453</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1310909</v>
+        <v>1297263</v>
       </c>
       <c r="E222" t="n">
-        <v>3960400</v>
+        <v>3919102</v>
       </c>
       <c r="F222" t="n">
-        <v>278.1750568921553</v>
+        <v>299.2780164910358</v>
       </c>
       <c r="G222" t="n">
-        <v>452.4760216416996</v>
+        <v>581.8798014475962</v>
       </c>
       <c r="H222" t="n">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="I222" t="n">
-        <v>31533</v>
+        <v>48459</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33814241</v>
+        <v>34162016</v>
       </c>
       <c r="E223" t="n">
-        <v>239737455</v>
+        <v>242203122</v>
       </c>
       <c r="F223" t="n">
-        <v>36491.62579836917</v>
+        <v>47265.03155636123</v>
       </c>
       <c r="G223" t="n">
-        <v>12189.52462540411</v>
+        <v>11617.73545291229</v>
       </c>
       <c r="H223" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="I223" t="n">
-        <v>6403570</v>
+        <v>6474658</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>54664</v>
+        <v>54903</v>
       </c>
       <c r="E224" t="n">
-        <v>285216</v>
+        <v>286462</v>
       </c>
       <c r="F224" t="n">
-        <v>17.44107218625335</v>
+        <v>295.4642388962837</v>
       </c>
       <c r="G224" t="n">
-        <v>163.9271041972272</v>
+        <v>23.57898824710631</v>
       </c>
       <c r="H224" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="I224" t="n">
-        <v>200732</v>
+        <v>198100</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1253272</v>
+        <v>1266741</v>
       </c>
       <c r="E225" t="n">
-        <v>7770400</v>
+        <v>7853914</v>
       </c>
       <c r="F225" t="n">
-        <v>1190.698601700912</v>
+        <v>1491.063797439397</v>
       </c>
       <c r="G225" t="n">
-        <v>914.0423893105811</v>
+        <v>1386.770976995832</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>776011</v>
+        <v>750444</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>579548419</v>
+        <v>583908283</v>
       </c>
       <c r="E226" t="n">
-        <v>2244505520</v>
+        <v>2261390631</v>
       </c>
       <c r="F226" t="n">
-        <v>165682.846696048</v>
+        <v>191756.7809505269</v>
       </c>
       <c r="G226" t="n">
-        <v>346483.2820954039</v>
+        <v>325673.4330210466</v>
       </c>
       <c r="H226" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I226" t="n">
-        <v>62010989</v>
+        <v>62852020</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20876541</v>
+        <v>20741541</v>
       </c>
       <c r="F227" t="n">
-        <v>1113.627889072213</v>
+        <v>1960.242354764157</v>
       </c>
       <c r="G227" t="n">
-        <v>3250.67735312987</v>
+        <v>4689.463551035457</v>
       </c>
       <c r="H227" t="n">
         <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>19980949</v>
+        <v>21024938</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>763414</v>
+        <v>763419</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>28.72363992622432</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>12.86775529730074</v>
       </c>
       <c r="H228" t="n">
-        <v>6.57</v>
+        <v>3.54</v>
       </c>
       <c r="I228" t="n">
-        <v>143493</v>
+        <v>141550</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5485974</v>
+        <v>5452498</v>
       </c>
       <c r="E229" t="n">
-        <v>24556499</v>
+        <v>24406251</v>
       </c>
       <c r="F229" t="n">
-        <v>786.2854121793969</v>
+        <v>828.5215334058943</v>
       </c>
       <c r="G229" t="n">
-        <v>590.9430735008995</v>
+        <v>521.976347205337</v>
       </c>
       <c r="H229" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I229" t="n">
-        <v>191752</v>
+        <v>190582</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6464170</v>
+        <v>6583276</v>
       </c>
       <c r="E230" t="n">
-        <v>12376178</v>
+        <v>12604216</v>
       </c>
       <c r="F230" t="n">
-        <v>85.53533091166889</v>
+        <v>79.08751742111089</v>
       </c>
       <c r="G230" t="n">
-        <v>104.6221485548687</v>
+        <v>104.6592848203434</v>
       </c>
       <c r="H230" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="I230" t="n">
-        <v>33047</v>
+        <v>33833</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3182745</v>
+        <v>3180344</v>
       </c>
       <c r="E231" t="n">
-        <v>20928989</v>
+        <v>20913202</v>
       </c>
       <c r="F231" t="n">
-        <v>145.0854485501607</v>
+        <v>76.36483303114058</v>
       </c>
       <c r="G231" t="n">
-        <v>1158.613912826835</v>
+        <v>1145.535395215447</v>
       </c>
       <c r="H231" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="I231" t="n">
-        <v>1610068</v>
+        <v>1648355</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>109151351</v>
+        <v>109062077</v>
       </c>
       <c r="E232" t="n">
-        <v>1033359102</v>
+        <v>1031919496</v>
       </c>
       <c r="F232" t="n">
-        <v>70467.8294284092</v>
+        <v>35774.75657734393</v>
       </c>
       <c r="G232" t="n">
-        <v>25140.89596578519</v>
+        <v>25780.91141526558</v>
       </c>
       <c r="H232" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I232" t="n">
-        <v>17624089</v>
+        <v>18049702</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>25.99488662503532</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>12.84793438234357</v>
       </c>
       <c r="H233" t="n">
-        <v>7.28</v>
+        <v>3.05</v>
       </c>
       <c r="I233" t="n">
-        <v>308.03</v>
+        <v>341.05</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>99701373</v>
+        <v>98173547</v>
       </c>
       <c r="E234" t="n">
-        <v>152096782</v>
+        <v>149766047</v>
       </c>
       <c r="F234" t="n">
-        <v>22611.22250159657</v>
+        <v>2689.681550565922</v>
       </c>
       <c r="G234" t="n">
-        <v>28809.53702424299</v>
+        <v>40749.94633760431</v>
       </c>
       <c r="H234" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I234" t="n">
-        <v>13421596</v>
+        <v>12504285</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15553135</v>
+        <v>15734141</v>
       </c>
       <c r="E235" t="n">
-        <v>21337553</v>
+        <v>21585878</v>
       </c>
       <c r="F235" t="n">
-        <v>1035.988969877434</v>
+        <v>1298.295354666841</v>
       </c>
       <c r="G235" t="n">
-        <v>1781.361604257615</v>
+        <v>1194.225554657076</v>
       </c>
       <c r="H235" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I235" t="n">
-        <v>957718</v>
+        <v>826592</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>120306802</v>
+        <v>123374684</v>
       </c>
       <c r="E236" t="n">
-        <v>461516257</v>
+        <v>473285147</v>
       </c>
       <c r="F236" t="n">
-        <v>414826.2196324496</v>
+        <v>365407.8750404181</v>
       </c>
       <c r="G236" t="n">
-        <v>400019.7897891901</v>
+        <v>406547.3791014199</v>
       </c>
       <c r="H236" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>32934586</v>
+        <v>32651832</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>639904</v>
+        <v>644341</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>6.39</v>
+        <v>8.17</v>
       </c>
       <c r="I237" t="n">
-        <v>41886</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>758684</v>
+        <v>762197</v>
       </c>
       <c r="F238" t="n">
-        <v>124.3910674221381</v>
+        <v>112.7217355749803</v>
       </c>
       <c r="G238" t="n">
-        <v>90.80515408793599</v>
+        <v>92.11289090721669</v>
       </c>
       <c r="H238" t="n">
-        <v>3.82</v>
+        <v>0.98</v>
       </c>
       <c r="I238" t="n">
-        <v>286260</v>
+        <v>296769</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3077158</v>
+        <v>3151992</v>
       </c>
       <c r="E239" t="n">
-        <v>29156525</v>
+        <v>29865587</v>
       </c>
       <c r="F239" t="n">
-        <v>1008.070957144595</v>
+        <v>752.3156308762625</v>
       </c>
       <c r="G239" t="n">
-        <v>1726.869225007124</v>
+        <v>865.5810787219779</v>
       </c>
       <c r="H239" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="I239" t="n">
-        <v>224764</v>
+        <v>276491</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>725520</v>
+        <v>725644</v>
       </c>
       <c r="E240" t="n">
-        <v>775577</v>
+        <v>775710</v>
       </c>
       <c r="F240" t="n">
-        <v>19.43901535399264</v>
+        <v>125.9334450265876</v>
       </c>
       <c r="G240" t="n">
-        <v>777.9698824660416</v>
+        <v>770.1234567428152</v>
       </c>
       <c r="H240" t="n">
-        <v>2.08</v>
+        <v>3.29</v>
       </c>
       <c r="I240" t="n">
-        <v>126258</v>
+        <v>124745</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>383879</v>
+        <v>384097</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.18</v>
+        <v>11.71</v>
       </c>
       <c r="I241" t="n">
-        <v>699.49</v>
+        <v>699.78</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>130971</v>
+        <v>134090</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>4.918664529545796</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>1.253561907364063</v>
       </c>
       <c r="H242" t="n">
-        <v>4.44</v>
+        <v>3.73</v>
       </c>
       <c r="I242" t="n">
-        <v>62794</v>
+        <v>5170.73</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>585900</v>
+        <v>592363</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>7.55</v>
+        <v>4.12</v>
       </c>
       <c r="I243" t="n">
-        <v>8803.85</v>
+        <v>8557.25</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6555539</v>
+        <v>6617472</v>
       </c>
       <c r="E244" t="n">
-        <v>40970242</v>
+        <v>41357305</v>
       </c>
       <c r="F244" t="n">
-        <v>29.79099671643026</v>
+        <v>58.11879852078293</v>
       </c>
       <c r="G244" t="n">
-        <v>129.3308932889933</v>
+        <v>362.8550265153096</v>
       </c>
       <c r="H244" t="n">
-        <v>2.42</v>
+        <v>0.08</v>
       </c>
       <c r="I244" t="n">
-        <v>419255</v>
+        <v>362867</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5095317</v>
+        <v>5106896</v>
       </c>
       <c r="E245" t="n">
-        <v>18934295</v>
+        <v>18977322</v>
       </c>
       <c r="F245" t="n">
-        <v>911.1519271324968</v>
+        <v>711.6360898543709</v>
       </c>
       <c r="G245" t="n">
-        <v>852.6636604366726</v>
+        <v>776.74226489357</v>
       </c>
       <c r="H245" t="n">
-        <v>0.53</v>
+        <v>1.05</v>
       </c>
       <c r="I245" t="n">
-        <v>96804</v>
+        <v>96135</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3597140</v>
+        <v>3603209</v>
       </c>
       <c r="F246" t="n">
-        <v>215.4606942926593</v>
+        <v>188.3867567982425</v>
       </c>
       <c r="G246" t="n">
-        <v>5905.001322964586</v>
+        <v>15932.46341477096</v>
       </c>
       <c r="H246" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="I246" t="n">
-        <v>29104</v>
+        <v>29013</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>43976437</v>
+        <v>43322994</v>
       </c>
       <c r="E247" t="n">
-        <v>157627391</v>
+        <v>155284696</v>
       </c>
       <c r="F247" t="n">
-        <v>146.6537098193197</v>
+        <v>29.94742688312768</v>
       </c>
       <c r="G247" t="n">
-        <v>1619.176984266649</v>
+        <v>2008.115367856844</v>
       </c>
       <c r="H247" t="n">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="I247" t="n">
-        <v>179679</v>
+        <v>187311</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1483157</v>
+        <v>1550719</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>3.999230977354352</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>18.46064525249325</v>
       </c>
       <c r="H248" t="n">
-        <v>5.1</v>
+        <v>3.87</v>
       </c>
       <c r="I248" t="n">
-        <v>597734</v>
+        <v>603615</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2099556</v>
+        <v>2057834</v>
       </c>
       <c r="E249" t="n">
-        <v>16149189</v>
+        <v>15828274</v>
       </c>
       <c r="F249" t="n">
-        <v>138.2469811087356</v>
+        <v>81.02819313562087</v>
       </c>
       <c r="G249" t="n">
-        <v>543.4991774191544</v>
+        <v>566.2309712987808</v>
       </c>
       <c r="H249" t="n">
-        <v>1.67</v>
+        <v>0.06</v>
       </c>
       <c r="I249" t="n">
-        <v>207395</v>
+        <v>216747</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103329</v>
+        <v>103406</v>
       </c>
       <c r="E250" t="n">
-        <v>820740</v>
+        <v>821357</v>
       </c>
       <c r="F250" t="n">
-        <v>158.1694246602527</v>
+        <v>158.2491800728612</v>
       </c>
       <c r="G250" t="n">
-        <v>346.9888523837402</v>
+        <v>340.9836160343029</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>42.45</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>90686086</v>
+        <v>91018173</v>
       </c>
       <c r="E251" t="n">
-        <v>335210175</v>
+        <v>336433776</v>
       </c>
       <c r="F251" t="n">
-        <v>715.2052693704529</v>
+        <v>4446.577202026299</v>
       </c>
       <c r="G251" t="n">
-        <v>6229.444154420679</v>
+        <v>6634.634460863969</v>
       </c>
       <c r="H251" t="n">
-        <v>0.78</v>
+        <v>0.35</v>
       </c>
       <c r="I251" t="n">
-        <v>310521</v>
+        <v>329435</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2272106</v>
+        <v>2262367</v>
       </c>
       <c r="E252" t="n">
-        <v>9108525</v>
+        <v>9069482</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>6.08</v>
+        <v>5.44</v>
       </c>
       <c r="I252" t="n">
-        <v>8998.17</v>
+        <v>6958.47</v>
       </c>
     </row>
     <row r="253">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>540290</v>
+        <v>622265</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>3.93</v>
+        <v>7.07</v>
       </c>
       <c r="I253" t="n">
-        <v>2631</v>
+        <v>2104.23</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>35181</v>
+        <v>40317</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>13.98798803939386</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1.643836617612553e-06</v>
       </c>
       <c r="H254" t="n">
-        <v>5.39</v>
+        <v>0.24</v>
       </c>
       <c r="I254" t="n">
-        <v>1642.32</v>
+        <v>2034.07</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>737197899</v>
+        <v>741213703</v>
       </c>
       <c r="E255" t="n">
-        <v>1136824248</v>
+        <v>1143016972</v>
       </c>
       <c r="F255" t="n">
-        <v>70780.99088352724</v>
+        <v>71265.12121073304</v>
       </c>
       <c r="G255" t="n">
-        <v>78548.72460677801</v>
+        <v>78722.16101693633</v>
       </c>
       <c r="H255" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I255" t="n">
-        <v>273704654</v>
+        <v>332462278</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>7332239</v>
+        <v>6819804</v>
       </c>
       <c r="E256" t="n">
-        <v>7332239</v>
+        <v>6819804</v>
       </c>
       <c r="F256" t="n">
-        <v>58.90967939663172</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>125.791071215279</v>
+        <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.68</v>
+        <v>4.95</v>
       </c>
       <c r="I256" t="n">
-        <v>64024</v>
+        <v>65657</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39935514</v>
+        <v>39914229</v>
       </c>
       <c r="E257" t="n">
-        <v>190444429</v>
+        <v>190190931</v>
       </c>
       <c r="F257" t="n">
-        <v>712.5392544452355</v>
+        <v>612.7937850991912</v>
       </c>
       <c r="G257" t="n">
-        <v>357.2610684725445</v>
+        <v>136.1992305070133</v>
       </c>
       <c r="H257" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I257" t="n">
-        <v>141157</v>
+        <v>268788</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>597172</v>
+        <v>598729</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>204.42</v>
+        <v>204.71</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>22397694</v>
+        <v>22417012</v>
       </c>
       <c r="E259" t="n">
-        <v>37329490</v>
+        <v>37361686</v>
       </c>
       <c r="F259" t="n">
-        <v>1202.24385222495</v>
+        <v>1271.323290836769</v>
       </c>
       <c r="G259" t="n">
-        <v>408.4812113127163</v>
+        <v>374.4872159946279</v>
       </c>
       <c r="H259" t="n">
-        <v>0.84</v>
+        <v>0.59</v>
       </c>
       <c r="I259" t="n">
-        <v>1107700</v>
+        <v>1144873</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107954</v>
+        <v>107926</v>
       </c>
       <c r="F260" t="n">
-        <v>230.7883310447757</v>
+        <v>229.9048051703781</v>
       </c>
       <c r="G260" t="n">
-        <v>108.2020212462434</v>
+        <v>108.2565811228557</v>
       </c>
       <c r="H260" t="n">
         <v>0.02</v>
       </c>
       <c r="I260" t="n">
-        <v>54355</v>
+        <v>52099</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1261653</v>
+        <v>1478864</v>
       </c>
       <c r="E261" t="n">
-        <v>5372435</v>
+        <v>6297376</v>
       </c>
       <c r="F261" t="n">
-        <v>25.42606145961655</v>
+        <v>9.277461804797303</v>
       </c>
       <c r="G261" t="n">
-        <v>2061.468519297808</v>
+        <v>13.18734659786077</v>
       </c>
       <c r="H261" t="n">
-        <v>0.06</v>
+        <v>1.48</v>
       </c>
       <c r="I261" t="n">
-        <v>862456</v>
+        <v>904503</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3798383</v>
+        <v>3808006</v>
       </c>
       <c r="E262" t="n">
-        <v>8279943</v>
+        <v>8300920</v>
       </c>
       <c r="F262" t="n">
-        <v>1707.41587385185</v>
+        <v>1592.95327418503</v>
       </c>
       <c r="G262" t="n">
-        <v>1545.16519364024</v>
+        <v>1571.784569357307</v>
       </c>
       <c r="H262" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>2085430</v>
+        <v>2162330</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>466989852</v>
+        <v>467958039</v>
       </c>
       <c r="E263" t="n">
-        <v>1625552809</v>
+        <v>1628097412</v>
       </c>
       <c r="F263" t="n">
-        <v>266753.7471263924</v>
+        <v>266805.6936721606</v>
       </c>
       <c r="G263" t="n">
-        <v>389521.0588033786</v>
+        <v>397862.7556888861</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>48139505</v>
+        <v>48737926</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5552787405</v>
+        <v>5597223763</v>
       </c>
       <c r="E264" t="n">
-        <v>5552787405</v>
+        <v>5597223763</v>
       </c>
       <c r="F264" t="n">
-        <v>1045.918842793528</v>
+        <v>2572.721311934377</v>
       </c>
       <c r="G264" t="n">
-        <v>762.7463658740689</v>
+        <v>747.1528558113275</v>
       </c>
       <c r="H264" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I264" t="n">
-        <v>34541518</v>
+        <v>35637834</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22280511</v>
+        <v>22299381</v>
       </c>
       <c r="E265" t="n">
-        <v>22261157</v>
+        <v>22280011</v>
       </c>
       <c r="F265" t="n">
-        <v>390.5448237295892</v>
+        <v>3461.976888221784</v>
       </c>
       <c r="G265" t="n">
-        <v>603.3232236618305</v>
+        <v>695.4254138973115</v>
       </c>
       <c r="H265" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I265" t="n">
-        <v>410549</v>
+        <v>416718</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11923718</v>
+        <v>11960350</v>
       </c>
       <c r="E266" t="n">
-        <v>24061395</v>
+        <v>24126386</v>
       </c>
       <c r="F266" t="n">
-        <v>691.96369018